--- a/MCF10A_TGFB1/GO_Enrichment_Results.xlsx
+++ b/MCF10A_TGFB1/GO_Enrichment_Results.xlsx
@@ -574,12 +574,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['LTBP3', 'SLC2A1', 'P4HB', 'MYH10', 'KRT6B', 'ICAM1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'IGFBP7', 'ANXA1', 'STK25', 'ADGRG1', 'FLNA', 'ARSA', 'TSPAN1', 'TUBA4A', 'MYO1E', 'LSR', 'IL1RN', 'STX3', 'TFRC', 'MMP7', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'MUC1', 'FTL', 'SLPI', 'FN1', 'KRT16', 'LAMB2', 'LGALS1', 'GAS6', 'CDK1', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'ENTPD2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'GAA', 'AKR1C3', 'GPR155', 'S100A8', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TGM1', 'STMN1', 'ITGAV', 'SAA2', 'ACTB', 'GLUL', 'DSC2', 'MMP9', 'S100A6', 'PDZK1IP1', 'RUSC2', 'VIM', 'FTH1', 'KRT10', 'MARCKSL1', 'LAMA3', 'TMEM132A', 'SERPINA3', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'SH3BGRL3', 'S100A4', 'FXYD3', 'ATP6V0A1', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'C1RL', 'STX3', 'C3', 'MAL2', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'SCEL', 'COL4A2', 'FLNA', 'MYH10', 'GLUL', 'SERPINE1', 'ICAM1', 'ADGRG1', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'LTBP3', 'DSC2', 'MUC1', 'SCNN1G', 'PSCA', 'P4HB', 'STMN1', 'SAA2', 'CREG1', 'TUBB3', 'MARCKSL1', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'KRT5', 'FTL', 'SELENBP1', 'CST6', 'CCL28', 'MYO1E', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'GPR155', 'LAMB2', 'KRT10', 'GAS6', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'S100P', 'ATP6V0A1', 'TUBB4B', 'ENTPD2', 'FXYD3', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'S100A4', 'RUSC2', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'ADIRF', 'FN1', 'ALDH3B1', 'CDH1', 'TMEM132A', 'TFRC', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['LTBP3', 'SLC2A1', 'P4HB', 'MYH10', 'KRT6B', 'ICAM1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'IGFBP7', 'ANXA1', 'STK25', 'ADGRG1', 'FLNA', 'ARSA', 'TSPAN1', 'TUBA4A', 'MYO1E', 'LSR', 'IL1RN', 'STX3', 'TFRC', 'MMP7', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'MUC1', 'FTL', 'SLPI', 'FN1', 'KRT16', 'SERPINE2', 'LAMB2', 'LGALS1', 'GAS6', 'CDK1', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'ENTPD2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'GAA', 'AKR1C3', 'GPR155', 'S100A8', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TGM1', 'STMN1', 'ITGAV', 'SAA2', 'ACTB', 'GLUL', 'DSC2', 'MMP9', 'S100A6', 'PDZK1IP1', 'RUSC2', 'VIM', 'FTH1', 'KRT10', 'MARCKSL1', 'LAMA3', 'TMEM132A', 'SERPINA3', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'SH3BGRL3', 'S100A4', 'FXYD3', 'ATP6V0A1', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'SERPINE2', 'C1RL', 'STX3', 'C3', 'MAL2', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'SCEL', 'COL4A2', 'FLNA', 'MYH10', 'GLUL', 'SERPINE1', 'ICAM1', 'ADGRG1', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'LTBP3', 'DSC2', 'MUC1', 'SCNN1G', 'PSCA', 'P4HB', 'STMN1', 'SAA2', 'CREG1', 'TUBB3', 'MARCKSL1', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'KRT5', 'FTL', 'SELENBP1', 'CST6', 'CCL28', 'MYO1E', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'GPR155', 'LAMB2', 'KRT10', 'GAS6', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'S100P', 'ATP6V0A1', 'TUBB4B', 'ENTPD2', 'FXYD3', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'S100A4', 'RUSC2', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'ADIRF', 'FN1', 'ALDH3B1', 'CDH1', 'TMEM132A', 'TFRC', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['LTBP3', 'SLC2A1', 'P4HB', 'MYH10', 'KRT6B', 'ICAM1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'IGFBP7', 'ANXA1', 'STK25', 'ADGRG1', 'FLNA', 'ARSA', 'TSPAN1', 'TUBA4A', 'MYO1E', 'LSR', 'IL1RN', 'STX3', 'TFRC', 'MMP7', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'MUC1', 'FTL', 'SLPI', 'FN1', 'KRT16', 'SERPINE2', 'LAMB2', 'LGALS1', 'GAS6', 'CDK1', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'ENTPD2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'GAA', 'AKR1C3', 'GPR155', 'S100A8', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TGM1', 'STMN1', 'ITGAV', 'SAA2', 'ACTB', 'GLUL', 'DSC2', 'MMP9', 'S100A6', 'PDZK1IP1', 'RUSC2', 'VIM', 'FTH1', 'KRT10', 'MARCKSL1', 'LAMA3', 'TMEM132A', 'SERPINA3', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'SH3BGRL3', 'S100A4', 'FXYD3', 'ATP6V0A1', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'SERPINE2', 'C1RL', 'STX3', 'C3', 'MAL2', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'SCEL', 'COL4A2', 'FLNA', 'MYH10', 'GLUL', 'SERPINE1', 'ICAM1', 'ADGRG1', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'LTBP3', 'DSC2', 'MUC1', 'SCNN1G', 'PSCA', 'P4HB', 'STMN1', 'SAA2', 'CREG1', 'TUBB3', 'MARCKSL1', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'KRT5', 'FTL', 'SELENBP1', 'CST6', 'CCL28', 'MYO1E', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'GPR155', 'LAMB2', 'KRT10', 'GAS6', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'S100P', 'ATP6V0A1', 'TUBB4B', 'ENTPD2', 'FXYD3', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'S100A4', 'RUSC2', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'ADIRF', 'FN1', 'ALDH3B1', 'CDH1', 'TMEM132A', 'TFRC', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -772,12 +772,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['LTBP3', 'SLC2A1', 'P4HB', 'MYH10', 'KRT6B', 'ICAM1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'IGFBP7', 'ANXA1', 'STK25', 'ADGRG1', 'FLNA', 'ARSA', 'TSPAN1', 'TUBA4A', 'MYO1E', 'LSR', 'IL1RN', 'STX3', 'TFRC', 'MMP7', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'MUC1', 'FTL', 'SLPI', 'FN1', 'KRT16', 'SERPINE2', 'LAMB2', 'LGALS1', 'GAS6', 'CDK1', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'ENTPD2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'GAA', 'AKR1C3', 'GPR155', 'S100A8', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TGM1', 'STMN1', 'ITGAV', 'SAA2', 'ACTB', 'GLUL', 'DSC2', 'MMP9', 'S100A6', 'PDZK1IP1', 'RUSC2', 'VIM', 'FTH1', 'KRT10', 'MARCKSL1', 'LAMA3', 'TMEM132A', 'SERPINA3', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'SH3BGRL3', 'S100A4', 'FXYD3', 'ATP6V0A1', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'SERPINE2', 'C1RL', 'STX3', 'C3', 'MAL2', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'SCEL', 'COL4A2', 'FLNA', 'MYH10', 'GLUL', 'SERPINE1', 'ICAM1', 'ADGRG1', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'LTBP3', 'DSC2', 'MUC1', 'SCNN1G', 'PSCA', 'P4HB', 'STMN1', 'SAA2', 'CREG1', 'TUBB3', 'MARCKSL1', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'KRT5', 'FTL', 'SELENBP1', 'CST6', 'CCL28', 'MYO1E', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'GPR155', 'LAMB2', 'KRT10', 'GAS6', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'S100P', 'ATP6V0A1', 'TUBB4B', 'ENTPD2', 'FXYD3', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'S100A4', 'RUSC2', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'ADIRF', 'FN1', 'ALDH3B1', 'CDH1', 'TMEM132A', 'TFRC', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -838,12 +838,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['LTBP3', 'SLC2A1', 'LAMC2', 'P4HB', 'TNFSF14', 'MYH10', 'CCL20', 'KRT6B', 'ICAM1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'CTSV', 'IGFBP7', 'ANXA1', 'STK25', 'ADGRG1', 'FLNA', 'PDGFB', 'ARSA', 'TSPAN1', 'TUBA4A', 'IL1A', 'MYO1E', 'LSR', 'IL1RN', 'LDLR', 'STX3', 'TFRC', 'DKK1', 'MMP7', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'MUC1', 'FTL', 'SLPI', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'LAMB2', 'LGALS1', 'GAS6', 'CDK1', 'CHI3L2', 'SCEL', 'CSTA', 'ALDH1A3', 'COL7A1', 'C3', 'RREB1', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'ENTPD2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'GAA', 'CYR61', 'AKR1C3', 'GPR155', 'S100A8', 'CXCL16', 'ALDH3A1', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'TNC', 'SOD2', 'RARRES1', 'CCL28', 'PSCA', 'BMP1', 'KRT81', 'SAA1', 'C1orf116', 'EPCAM', 'TGM1', 'STMN1', 'ITGAV', 'CXCL8', 'SAA2', 'ACTB', 'F3', 'GLUL', 'DSC2', 'MMP9', 'IGFBP3', 'S100A6', 'PDZK1IP1', 'RUSC2', 'NUDT1', 'LOX', 'VIM', 'FTH1', 'KRT10', 'MARCKSL1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'SH3BGRL3', 'CXCL1', 'S100A4', 'FXYD3', 'ATP6V0A1', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'CXCL8', 'SERPINE2', 'C1RL', 'IL1A', 'STX3', 'C3', 'CXCL16', 'MAL2', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'SCEL', 'COL4A2', 'FLNA', 'MYH10', 'LAMC2', 'GLUL', 'SERPINE1', 'ICAM1', 'ADGRG1', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'NUDT1', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'LTBP3', 'DSC2', 'MUC1', 'PDGFB', 'SCNN1G', 'PSCA', 'P4HB', 'STMN1', 'BMP1', 'SAA2', 'CREG1', 'TUBB3', 'MARCKSL1', 'KRT15', 'CHI3L2', 'IGFBP3', 'MMP9', 'S100A8', 'CCL20', 'SLC46A3', 'TNC', 'IL1RN', 'KRT14', 'EPCAM', 'IGFBP7', 'TPM4', 'CTSV', 'LGALS1', 'MME', 'S100A11', 'ANGPTL4', 'KRT5', 'FTL', 'F3', 'SELENBP1', 'CST6', 'CCL28', 'MYO1E', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'DKK1', 'CXCL1', 'TSPAN1', 'KLK5', 'AKR1C3', 'GPR155', 'LAMB2', 'KRT81', 'KRT10', 'GAS6', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'S100P', 'ATP6V0A1', 'TUBB4B', 'ENTPD2', 'FXYD3', 'CSTA', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'RUSC2', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'ADIRF', 'ALDH3A1', 'DMKN', 'FN1', 'ALDH3B1', 'CDH1', 'COL7A1', 'FAP', 'TMEM132A', 'TFRC', 'SERPINA3', 'TNFSF14', 'COL4A1']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['HDA', 'IBA', 'IC', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IMP', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['HDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IBA']]</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'LAMC2', 'P4HB', 'TNFSF14', 'MYH10', 'CCL20', 'KRT6B', 'ICAM1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'NOTCH1', 'MFAP5', 'SLC46A3', 'CTSV', 'IGFBP7', 'ANXA1', 'STK25', 'ADGRG1', 'FLNA', 'PDGFB', 'ARSA', 'TSPAN1', 'C1R', 'TUBA4A', 'IL1A', 'MYO1E', 'LSR', 'IL1RN', 'CCDC80', 'MSLN', 'LDLR', 'STX3', 'TFRC', 'ISG15', 'DKK1', 'PLAUR', 'MMP7', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'SPINK6', 'ADIRF', 'ALDH3B1', 'MUC1', 'FTL', 'SLPI', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'LAMB2', 'LGALS1', 'GAS6', 'CDK1', 'CHI3L2', 'SCEL', 'CALML5', 'CSTA', 'ALDH1A3', 'COL7A1', 'C3', 'RREB1', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'C1orf56', 'SLC3A2', 'TPM4', 'ENTPD2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'GAA', 'CYR61', 'AKR1C3', 'GPR155', 'S100A8', 'CXCL16', 'ALDH3A1', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'TNC', 'SOD2', 'RARRES1', 'CCL28', 'PSCA', 'BMP1', 'KRT81', 'SAA1', 'C1orf116', 'EPCAM', 'TGM1', 'STMN1', 'ITGAV', 'CXCL8', 'SAA2', 'ACTB', 'F3', 'GLUL', 'DSC2', 'GBP1', 'MMP9', 'IGFBP3', 'S100A6', 'PDZK1IP1', 'RUSC2', 'NUDT1', 'LOX', 'VIM', 'FTH1', 'KRT10', 'MARCKSL1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'SH3BGRL3', 'CXCL1', 'S100A4', 'FGFR3', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'CXCL8', 'CCDC80', 'SERPINE2', 'C1RL', 'IL1A', 'STX3', 'C3', 'CXCL16', 'MAL2', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'SPINK6', 'ITGB5', 'TGFBI', 'FGFR3', 'SCEL', 'COL4A2', 'FLNA', 'MYH10', 'LAMC2', 'GLUL', 'SERPINE1', 'ICAM1', 'ADGRG1', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'NUDT1', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'LTBP3', 'DSC2', 'MUC1', 'LAMB3', 'PDGFB', 'SCNN1G', 'PSCA', 'P4HB', 'NMU', 'STMN1', 'ISG15', 'BMP1', 'SAA2', 'CREG1', 'TUBB3', 'MARCKSL1', 'KRT15', 'CHI3L2', 'IGFBP3', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'SLC46A3', 'TNC', 'IL1RN', 'KRT14', 'EPCAM', 'IGFBP7', 'TPM4', 'CTSV', 'LGALS1', 'MFAP5', 'MME', 'S100A11', 'ANGPTL4', 'KRT5', 'NOTCH1', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'CST6', 'CCL28', 'MYO1E', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'DKK1', 'CXCL1', 'TSPAN1', 'KLK5', 'AKR1C3', 'GPR155', 'LAMB2', 'KRT81', 'KRT10', 'GAS6', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'S100P', 'ATP6V0A1', 'TUBB4B', 'C1orf56', 'MSLN', 'ENTPD2', 'FXYD3', 'CSTA', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'RUSC2', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'ADIRF', 'ALDH3A1', 'DMKN', 'FN1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'FAP', 'CALML5', 'TMEM132A', 'TFRC', 'SERPINA3', 'TNFSF14', 'COL4A1']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'NAS'], ['IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['HDA'], ['IBA', 'TAS'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['IDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['HDA', 'TAS'], ['HDA', 'NAS'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['IBA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -970,12 +970,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['LTBP3', 'SLC2A1', 'P4HB', 'MYH10', 'KRT6B', 'ICAM1', 'MAL2', 'VPS13C', 'STX16', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'TUBB3', 'S100A11', 'DST', 'NOTCH1', 'SLC46A3', 'IGFBP7', 'ANXA1', 'STK25', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'TSPAN1', 'TUBA4A', 'MYO1E', 'LSR', 'IL1RN', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'PDLIM4', 'TFRC', 'DKK1', 'PLAUR', 'MMP7', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'SPIRE1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'KRT16', 'SERPINE2', 'LAMB2', 'LGALS1', 'GAS6', 'SYT8', 'CDK1', 'SCEL', 'CALML5', 'ALDH1A3', 'COL7A1', 'C3', 'RREB1', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'KLC1', 'TGFBI', 'SELENBP1', 'GOSR1', 'TIMP1', 'CREG1', 'GAA', 'SPHK1', 'AKR1C3', 'GPR155', 'S100A8', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'PSCA', 'BMP1', 'SAA1', 'C1orf116', 'EPCAM', 'TGM1', 'STMN1', 'SUN2', 'ITGAV', 'SAA2', 'ACTB', 'ANKRD13D', 'GLUL', 'DSC2', 'GBP1', 'MMP9', 'VPS51', 'IFITM2', 'S100A6', 'PDZK1IP1', 'RUSC2', 'NUDT1', 'VIM', 'FTH1', 'KRT10', 'MARCKSL1', 'LAMA3', 'TMEM132A', 'SERPINA3', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'LRP1', 'RAB24', 'SH3BGRL3', 'CXCL1', 'S100A4', 'FGFR3', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'SERPINE2', 'C1RL', 'STX3', 'C3', 'MAL2', 'ITGA5', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'FLNA', 'MYH10', 'GLUL', 'SPIRE1', 'SERPINE1', 'ICAM1', 'ADGRG1', 'TUBA4A', 'PLAU', 'NISCH', 'GOSR1', 'TGM1', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'NUDT1', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'LTBP3', 'DSC2', 'MUC1', 'PDGFB', 'SCNN1G', 'PSCA', 'P4HB', 'STMN1', 'IFITM2', 'BMP1', 'SAA2', 'CREG1', 'LRP1', 'TUBB3', 'MARCKSL1', 'VPS51', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'PDLIM4', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'FTL', 'PLAUR', 'SELENBP1', 'CST6', 'CCL28', 'MYO1E', 'NEURL1B', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'CXCL1', 'TSPAN1', 'KLK5', 'AKR1C3', 'KLC1', 'GPR155', 'GAK', 'LAMB2', 'KRT10', 'GAS6', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'S100P', 'ATP6V0A1', 'TUBB4B', 'ENTPD2', 'FXYD3', 'SYT8', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'RUSC2', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'SLC26A6', 'RAB24', 'ADIRF', 'FN1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'CALML5', 'TMEM132A', 'TFRC', 'SERPINA3', 'COPE']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA'], ['HDA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['HDA'], ['TAS'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['TAS'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['HDA'], ['IBA'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'HDA'], ['IDA', 'IBA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['TAS'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'LAMC2', 'CDH2', 'KRT6B', 'ICAM1', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'RBBP6', 'COL4A2', 'TSC2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'TCOF1', 'ID3', 'ANXA1', 'SOX4', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'MYO1E', 'LSR', 'ITGB6', 'FOXC1', 'CCM2', 'ISG15', 'DKK1', 'MAGED1', 'ALOX15B', 'SDC4', 'PALLD', 'ERRFI1', 'FN1', 'KRT16', 'SERPINE2', 'LAMB2', 'PHLDB2', 'GAS6', 'CDK1', 'GJA5', 'CD24', 'NFKBIZ', 'SCEL', 'CALML5', 'CSTA', 'ALDH1A3', 'COL7A1', 'C3', 'RREB1', 'KLK5', 'EVPL', 'NR4A1', 'CSRP1', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'LBH', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'UQCC2', 'ITGB5', 'FOS', 'CST6', 'KRT14', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'HES1', 'BMP1', 'KRT81', 'GPCPD1', 'RGS2', 'EPCAM', 'TGM1', 'STMN1', 'CLDN4', 'ITGAV', 'PHLDB1', 'ACTB', 'TAGLN', 'EPHA2', 'MMP9', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'KRT10', 'LAMA3', 'COL4A1', 'PAK1', 'ZBED2', 'SERPINE1', 'RDH10', 'EHF', 'ASH1L', 'S100A4', 'FGFR3', 'CENPF', 'MAFB']</t>
+          <t>['LAMA3', 'PAK1', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'GJA5', 'ITGA5', 'CYR61', 'CDKN1A', 'SEMA3C', 'ITGB5', 'TGFBI', 'ZBTB16', 'FGFR3', 'SCEL', 'COL4A2', 'FLNA', 'GRHL3', 'CD24', 'EHF', 'LAMC2', 'SERPINE1', 'ICAM1', 'CLDN1', 'PALLD', 'TGM1', 'CCM2', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'CSRP1', 'LSR', 'KRT6B', 'TIMP1', 'SDC4', 'ITGB6', 'GAA', 'LTBP3', 'LAMB3', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'STMN1', 'ISG15', 'BMP1', 'ZBED2', 'TUBB3', 'KRT15', 'TAGLN', 'SOX9', 'MMP9', 'TNC', 'KRT14', 'EPCAM', 'FERMT2', 'ATF3', 'KRT5', 'UQCC2', 'NOTCH1', 'CST6', 'MYO1E', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'DKK1', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'LAMB2', 'KRT81', 'KRT10', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'ALOX15B', 'GPCPD1', 'CSTA', 'CLDN4', 'ALDH1A3', 'FOS', 'LOX', 'ACTB', 'S100A4', 'RBBP6', 'KRT17', 'TSC2', 'MAFB', 'VIM', 'KRT16', 'AKR1C2', 'FN1', 'COL7A1', 'EPPK1', 'CALML5', 'RDH10', 'EPHA2', 'ID3', 'ASH1L', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['IGI'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['IEP'], ['ISS'], ['IMP', 'IEP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEP', 'TAS'], ['IEA'], ['IMP'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEP', 'NAS'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IMP', 'NAS'], ['IMP'], ['IMP'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IBA'], ['IEP', 'TAS'], ['IMP', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IEA'], ['IEP'], ['IEA'], ['TAS'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IEA']]</t>
+          <t>[['IEP', 'TAS'], ['IMP'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEP', 'NAS'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['TAS'], ['IDA'], ['IGI'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IDA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'IEA'], ['ISO', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IDA'], ['IEP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'NAS'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IDA'], ['IEP', 'TAS'], ['ISS'], ['TAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1102,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'LAMC2', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'KRT6B', 'ELF3', 'ICAM1', 'MAL2', 'KRT17', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'YEATS2', 'SLC38A10', 'SLC5A3', 'TCOF1', 'PIEZO1', 'HERC4', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'RRBP1', 'EPPK1', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'IL1RN', 'PCDH9', 'WDR74', 'ITGB6', 'GADD45B', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'MAGED1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ADIRF', 'PALLD', 'VMP1', 'SPIRE1', 'ERRFI1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'CALML5', 'CSTA', 'ALDH1A3', 'COL7A1', 'TACC2', 'C3', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'SLC26A6', 'TPM4', 'GSN', 'CSRP1', 'BCL2L11', 'GRHL3', 'TGFBI', 'TIMP1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'TM4SF1', 'CYR61', 'AKR1C3', 'ADNP2', 'PTGS2', 'S100A8', 'BAMBI', 'TAOK3', 'UQCC2', 'KRT8', 'ITGB5', 'FOS', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'STAU2', 'BCL3', 'HES1', 'IER3', 'BMP1', 'KRT81', 'GPCPD1', 'RGS2', 'EPCAM', 'TGM1', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'TAGLN', 'F3', 'GLUL', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'S100A6', 'DLG5', 'ZFP36', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'SLC2A12', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'CCNA2', 'AURKA', 'PAK1', 'ZBED2', 'PDLIM7', 'SERPINE1', 'LRP1', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'FGFR3', 'CENPF', 'ATP6V0A1', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'ANKRD11', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'GJA5', 'MAL2', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'SLC2A12', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'SCEL', 'COL4A2', 'FLNA', 'GRHL3', 'CD24', 'MYH10', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'CCM2', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'NUDT1', 'CSRP1', 'ANXA3', 'LSR', 'KRT6B', 'SLC2A1', 'UBD', 'SOD2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'GAA', 'LTBP3', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'TUBB3', 'MARCKSL1', 'VPS51', 'KRT15', 'IGFBP3', 'TAGLN', 'SOX9', 'MMP9', 'S100A8', 'TNC', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'VMP1', 'PDLIM4', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'LGALS1', 'CARD10', 'MFAP5', 'MME', 'ANGPTL4', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'RRBP1', 'CST6', 'WDR74', 'MYO1E', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'CXCL1', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'KRT10', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'ATP6V0A1', 'GPCPD1', 'CCNF', 'KLF6', 'HES2', 'CSTA', 'CDC25B', 'CLDN4', 'ALDH1A3', 'FOS', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'MAFB', 'MRC2', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'ADIRF', 'AKR1C2', 'PIEZO1', 'FN1', 'CDH1', 'COL7A1', 'GPAM', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'TFRC', 'RDH10', 'EPHA2', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IGI'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IEP'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'ISO', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'TAS'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IDA', 'ISS'], ['HDA'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IEP', 'TAS'], ['IBA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'NAS'], ['IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IMP', 'IGI'], ['IMP', 'HEP', 'IBA', 'NAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IEP', 'ISS', 'IBA'], ['IBA', 'TAS'], ['IBA'], ['IDA', 'IBA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['TAS'], ['IEP'], ['IEA'], ['TAS'], ['ISS', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEP', 'TAS'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'NAS'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['IEP'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IGI'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['NAS'], ['IDA', 'ISS'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['HDA', 'ISO', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEP', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'TAS'], ['IMP', 'IGI'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IBA'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'HEP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEP', 'TAS'], ['IEA'], ['IEA'], ['ISS'], ['TAS'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'ISO', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMB3', 'LAMC2', 'BCL6', 'TNFSF14', 'CDH2', 'CCL20', 'ICAM1', 'NET1', 'KRT5', 'TUBA1A', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'DST', 'NOTCH1', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'ABL2', 'DDIT4', 'FOXC1', 'ACKR3', 'SGK1', 'MMP7', 'MALAT1', 'TUBB4B', 'ALOX15B', 'SDC4', 'PALLD', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'CARD10', 'CDK1', 'CD24', 'RREB1', 'CDH1', 'NISCH', 'NR4A1', 'TIMP1', 'SPHK1', 'CYR61', 'PTGS2', 'S100A8', 'BAMBI', 'CXCL16', 'ITGB5', 'S100P', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'HES1', 'CORO6', 'SAA1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'ACTB', 'F3', 'GLUL', 'CLDN7', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'LOX', 'SOX9', 'CLDN1', 'ID1', 'LAMA3', 'PAK1', 'SERPINE1', 'LRP1', 'CXCL1', 'ASH1L', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'NR4A1', 'PHLDB2', 'CXCL16', 'CLDN7', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'ITGB5', 'SGK1', 'DST', 'CORO6', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'PLAU', 'NISCH', 'DDIT4', 'CLDN1', 'PALLD', 'CDH2', 'ANXA1', 'RREB1', 'ANXA3', 'SAA1', 'SOD2', 'TIMP1', 'SDC4', 'LAMB3', 'PDGFB', 'HES1', 'DLG5', 'STMN1', 'LRP1', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'CCL20', 'TNC', 'SPHK1', 'FERMT2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TPM1', 'TACSTD2', 'ACKR3', 'CXCL1', 'ERRFI1', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'MALAT1', 'ITGAV', 'CITED2', 'ALOX15B', 'S100P', 'TUBB4B', 'CLDN4', 'TUBA1A', 'LOX', 'ACTB', 'TMSB4X', 'WWC1', 'KRT16', 'FN1', 'CDH1', 'FAP', 'EPPK1', 'EPHA2', 'NET1', 'ASH1L', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['ISS', 'TAS'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['TAS'], ['ISS'], ['IMP'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IMP', 'IBA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI', 'TAS'], ['IDA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP'], ['ISS'], ['IBA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['NAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['TAS'], ['IMP'], ['IBA'], ['IDA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP'], ['IMP', 'IEP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'NAS'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IGI', 'TAS'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'IBA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'P4HB', 'CDH2', 'ICAM1', 'STX16', 'PLAU', 'ITGA5', 'S100A11', 'DST', 'NOTCH1', 'ANXA1', 'FLNA', 'CNTNAP2', 'EPPK1', 'MYO1E', 'LSR', 'PCDH9', 'ITGB6', 'GAK', 'STX3', 'MRC2', 'PDLIM4', 'PLAUR', 'CGN', 'ALOX15B', 'SDC4', 'ATP1B1', 'PALLD', 'FAP', 'PHLDB2', 'GJA5', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'GSN', 'CSRP1', 'CYTH2', 'KRT8', 'ITGB5', 'TNC', 'FERMT2', 'EPCAM', 'SORBS3', 'CLDN4', 'ITGAV', 'ACTB', 'ADD3', 'DSC2', 'CLDN7', 'EPHA2', 'DLG5', 'VIM', 'CLDN1', 'CDC42EP1', 'LAMA3', 'PAK1', 'PDLIM7', 'LRP1', 'ASH1L', 'FGFR3', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'ATP1B1', 'ADD3', 'PAK1', 'STX3', 'PHLDB2', 'GJA5', 'CLDN7', 'ITGA5', 'SORBS3', 'ITGB5', 'FGFR3', 'DST', 'FLNA', 'ICAM1', 'PLAU', 'CLDN1', 'PALLD', 'CDH2', 'EVPL', 'ANXA1', 'GSN', 'CSRP1', 'LSR', 'SLC2A1', 'SDC4', 'ITGB6', 'DSC2', 'P4HB', 'DLG5', 'PCDH9', 'LRP1', 'TNC', 'EPCAM', 'PDLIM4', 'FERMT2', 'TPM4', 'MME', 'S100A11', 'CGN', 'NOTCH1', 'PLAUR', 'MYO1E', 'CDC42EP1', 'CRB3', 'GAK', 'ITGAV', 'ALOX15B', 'SLC3A2', 'CLDN4', 'ACTB', 'STX16', 'KRT8', 'MRC2', 'VIM', 'CNTNAP2', 'CYTH2', 'CDH1', 'FAP', 'EPPK1', 'EPHA2', 'ASH1L']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['NAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['HDA'], ['TAS', 'IEA'], ['TAS'], ['HDA']]</t>
+          <t>[['IDA', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['NAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'LAMC2', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'KRT6B', 'ELF3', 'ICAM1', 'MAL2', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'TUBA1A', 'RBBP6', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'YEATS2', 'SLC38A10', 'SLC5A3', 'TCOF1', 'PIEZO1', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'EPPK1', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'IL1RN', 'PCDH9', 'WDR74', 'ITGB6', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'MAGED1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'PALLD', 'VMP1', 'SPIRE1', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'CALML5', 'CSTA', 'ALDH1A3', 'COL7A1', 'TACC2', 'C3', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'SLC26A6', 'TPM4', 'GSN', 'CSRP1', 'BCL2L11', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'LBH', 'SPHK1', 'TM4SF1', 'CYR61', 'AKR1C3', 'ADNP2', 'PTGS2', 'S100A8', 'BAMBI', 'TAOK3', 'UQCC2', 'KRT8', 'ITGB5', 'FOS', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'STAU2', 'BCL3', 'HES1', 'IER3', 'BMP1', 'KRT81', 'GPCPD1', 'RGS2', 'EPCAM', 'TGM1', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'TAGLN', 'F3', 'GLUL', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'S100A6', 'DLG5', 'ZFP36', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'SLC2A12', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'CCNA2', 'AURKA', 'PAK1', 'ZBED2', 'PDLIM7', 'SERPINE1', 'LRP1', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'FGFR3', 'CENPF', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'ANKRD11', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'GJA5', 'MAL2', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'SGK1', 'SLC2A12', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'SCEL', 'COL4A2', 'FLNA', 'GRHL3', 'CD24', 'MYH10', 'EHF', 'LAMC2', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'CCM2', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'NUDT1', 'CSRP1', 'ANXA3', 'LSR', 'KRT6B', 'SLC2A1', 'UBD', 'SOD2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'GAA', 'LTBP3', 'LAMB3', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'AURKA', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'TUBB3', 'MARCKSL1', 'VPS51', 'KRT15', 'IGFBP3', 'TAGLN', 'SOX9', 'MMP9', 'S100A8', 'TNC', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'VMP1', 'PDLIM4', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'LGALS1', 'CARD10', 'MFAP5', 'MME', 'ANGPTL4', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'CST6', 'WDR74', 'MYO1E', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'CXCL1', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'KRT10', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'GPCPD1', 'CCNF', 'KLF6', 'HES2', 'CSTA', 'CDC25B', 'CLDN4', 'ALDH1A3', 'FOS', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'RBBP6', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'MAFB', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'AKR1C2', 'PIEZO1', 'FN1', 'CDH1', 'COL7A1', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'TFRC', 'RDH10', 'EPHA2', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IGI'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'ISO', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'TAS'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IDA', 'ISS'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IEP', 'TAS'], ['IBA'], ['ISS', 'IEA'], ['IMP'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'NAS'], ['IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IMP', 'IGI'], ['IMP', 'HEP', 'IBA', 'NAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IBA'], ['IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IEP', 'ISS', 'IBA'], ['TAS'], ['IBA'], ['IDA', 'IBA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['TAS'], ['IEP'], ['IEA'], ['TAS'], ['ISS', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IBA'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEP', 'TAS'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IGI'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'NAS'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['IEP'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IGI'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'ISS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['ISO', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEP', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'TAS'], ['IMP', 'IGI'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['TAS'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IBA'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'HEP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IEP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEP', 'TAS'], ['IEA'], ['ISS'], ['TAS'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'ISO', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMB3', 'LAMC2', 'TNFSF14', 'CDH2', 'CCL20', 'ICAM1', 'NET1', 'KRT5', 'TUBA1A', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'ABL2', 'DDIT4', 'FOXC1', 'ACKR3', 'SGK1', 'MMP7', 'ALOX15B', 'SDC4', 'PALLD', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'CARD10', 'CDK1', 'CD24', 'RREB1', 'CDH1', 'NISCH', 'NR4A1', 'TIMP1', 'SPHK1', 'CYR61', 'PTGS2', 'S100A8', 'BAMBI', 'CXCL16', 'ITGB5', 'S100P', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'HES1', 'CORO6', 'SAA1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'LOX', 'SOX9', 'CLDN1', 'ID1', 'LAMA3', 'PAK1', 'SERPINE1', 'LRP1', 'CXCL1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'NR4A1', 'PHLDB2', 'CXCL16', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'ITGB5', 'SGK1', 'CORO6', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'PLAU', 'NISCH', 'DDIT4', 'CLDN1', 'PALLD', 'CDH2', 'ANXA1', 'RREB1', 'ANXA3', 'SAA1', 'SOD2', 'TIMP1', 'SDC4', 'LAMB3', 'PDGFB', 'HES1', 'DLG5', 'STMN1', 'LRP1', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'CCL20', 'TNC', 'SPHK1', 'FERMT2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TPM1', 'TACSTD2', 'ACKR3', 'CXCL1', 'ERRFI1', 'ID1', 'GAS6', 'CDK1', 'ITGAV', 'CITED2', 'ALOX15B', 'S100P', 'CLDN4', 'TUBA1A', 'LOX', 'TMSB4X', 'WWC1', 'KRT16', 'FN1', 'CDH1', 'FAP', 'EPPK1', 'EPHA2', 'NET1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['ISS'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['TAS'], ['ISS'], ['IMP'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IMP', 'IBA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI', 'TAS'], ['IDA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP'], ['ISS'], ['IBA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['NAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['TAS'], ['IBA'], ['IDA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'IMP'], ['IMP', 'IEP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'NAS'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IGI', 'TAS'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'NAS', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'IBA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -1432,12 +1432,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'ELF3', 'KRT17', 'TUBA1A', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'PIM1', 'NOTCH1', 'MFAP5', 'TCOF1', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'IL1A', 'MYO1E', 'IL1RN', 'WDR74', 'ITGB6', 'FOXC1', 'ACKR3', 'LDLR', 'TFRC', 'CCM2', 'DKK1', 'SGK1', 'MAGED1', 'SDC4', 'PALLD', 'SPIRE1', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'CARD10', 'GJA5', 'ALDH1A3', 'COL7A1', 'C3', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'NR4A1', 'TPM4', 'CSRP1', 'BCL2L11', 'GRHL3', 'TGFBI', 'GAA', 'SPHK1', 'TM4SF1', 'CYR61', 'PTGS2', 'BAMBI', 'TAOK3', 'KRT8', 'ITGB5', 'CST6', 'TNC', 'CITED2', 'FERMT2', 'STAU2', 'BCL3', 'HES1', 'IER3', 'BMP1', 'STMN1', 'MYL9', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'F3', 'GLUL', 'EPHA2', 'MMP9', 'VPS51', 'S100A6', 'DLG5', 'B4GALT5', 'LOX', 'SOX9', 'ZBTB16', 'ID1', 'CDC42EP1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'AURKA', 'PAK1', 'SERPINE1', 'LRP1', 'RDH10', 'ASH1L', 'FGFR3', 'MAFB']</t>
+          <t>['LAMA3', 'ANKRD11', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'PHLDB2', 'GJA5', 'ITGA5', 'CYR61', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'SGK1', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'COL4A2', 'FLNA', 'GRHL3', 'MYH10', 'GLUL', 'SPIRE1', 'SERPINE1', 'ADGRG1', 'UNC5B', 'PALLD', 'CCM2', 'CDH2', 'ANXA1', 'RREB1', 'CSRP1', 'ANXA3', 'SDC4', 'TM4SF1', 'ITGB6', 'GAA', 'LTBP3', 'LAMB3', 'HES1', 'DLG5', 'STMN1', 'AURKA', 'BMP1', 'LRP1', 'TUBB3', 'VPS51', 'SOX9', 'MMP9', 'TNC', 'IL1RN', 'SPHK1', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'CARD10', 'MFAP5', 'ANGPTL4', 'TAOK3', 'STAU2', 'NOTCH1', 'F3', 'CST6', 'WDR74', 'MYO1E', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'SOX4', 'LAMB2', 'MYL9', 'ID1', 'BCL6', 'ITGAV', 'CITED2', 'IER3', 'CLDN4', 'ALDH1A3', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'MAFB', 'KRT16', 'CNTNAP2', 'IGF2BP3', 'FN1', 'CDH1', 'COL7A1', 'FAP', 'TFRC', 'RDH10', 'EPHA2', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEP', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP'], ['ISS'], ['IDA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IGI'], ['IMP'], ['IMP', 'IEP', 'ISS'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['TAS'], ['IBA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IEA'], ['IEP', 'NAS'], ['TAS'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IMP', 'IGI'], ['IMP', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA'], ['IEP'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['ISS', 'IEA']]</t>
+          <t>[['IEP'], ['IMP'], ['IDA', 'TAS'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IGI'], ['IMP', 'IEP', 'ISS'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'NAS'], ['IBA'], ['IEP'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IDA', 'IEP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['TAS'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEP'], ['ISO', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IBA'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['TAS'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['P4HB', 'CDH2', 'ICAM1', 'STX16', 'PLAU', 'ITGA5', 'DST', 'ANXA1', 'FLNA', 'EPPK1', 'ITGB6', 'GAK', 'MRC2', 'PLAUR', 'ALOX15B', 'SDC4', 'PALLD', 'FAP', 'PHLDB2', 'TPM4', 'GSN', 'CSRP1', 'ITGB5', 'TNC', 'FERMT2', 'SORBS3', 'ITGAV', 'ACTB', 'EPHA2', 'VIM', 'CDC42EP1', 'LAMA3', 'PAK1', 'PDLIM7', 'LRP1', 'FGFR3', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'PAK1', 'PHLDB2', 'ITGA5', 'SORBS3', 'ITGB5', 'FGFR3', 'DST', 'FLNA', 'ICAM1', 'PLAU', 'PALLD', 'CDH2', 'ANXA1', 'GSN', 'CSRP1', 'SDC4', 'ITGB6', 'P4HB', 'LRP1', 'TNC', 'FERMT2', 'TPM4', 'MME', 'PLAUR', 'CDC42EP1', 'GAK', 'ITGAV', 'ALOX15B', 'ACTB', 'STX16', 'MRC2', 'VIM', 'FAP', 'EPPK1', 'EPHA2']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IEA'], ['IDA'], ['HDA'], ['TAS'], ['HDA']]</t>
+          <t>[['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'TNNI2', 'PQBP1', 'BCL6', 'TNFSF14', 'CDH2', 'REL', 'KRT6B', 'ELF3', 'ICAM1', 'MAL2', 'KRT17', 'FBXO32', 'KRT5', 'SUCO', 'AKR1C2', 'TUBA1A', 'RBBP6', 'COL4A2', 'PXDN', 'PLAU', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'YEATS2', 'SLC38A10', 'SLC5A3', 'TCOF1', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'RRBP1', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'IL1RN', 'PCDH9', 'WDR74', 'ITGB6', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ATP1B1', 'PALLD', 'VMP1', 'CAMK2N1', 'ERRFI1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'ALDH1A3', 'COL7A1', 'TACC2', 'C3', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'SLC26A6', 'TPM4', 'ENTPD2', 'GSN', 'CSRP1', 'BCL2L11', 'ACSL1', 'SLC7A2', 'GRHL3', 'TGFBI', 'TIMP1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'TM4SF1', 'CYR61', 'AKR1C3', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'BAMBI', 'TAOK3', 'KRT8', 'ITGB5', 'FOS', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'STAU2', 'BCL3', 'HES1', 'IER3', 'BMP1', 'KRT81', 'SAA1', 'TPM2', 'RGS2', 'EPCAM', 'TGM1', 'STMN1', 'MYL9', 'SUN2', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'ADD3', 'F3', 'GLUL', 'DSC2', 'GBP1', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'S100A6', 'DLG5', 'ZFP36', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'TRIM38', 'SLC2A12', 'AMIGO2', 'ID1', 'MARCKSL1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'AURKA', 'SERPINA3', 'PAK1', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'LRP1', 'RDH10', 'CXCL1', 'ASH1L', 'LETMD1', 'FGFR3', 'CENPF', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'ANKRD11', 'ATP1B1', 'CXCL8', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'GJA5', 'MAL2', 'ITGA5', 'SCD', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'SGK1', 'SLC2A12', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'CAMK2N1', 'ACSL1', 'SUCO', 'AMIGO2', 'GLUL', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'UNC5B', 'PLAU', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'NUDT1', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'UBD', 'SOD2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'GAA', 'LTBP3', 'DSC2', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'TNNI2', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'AURKA', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'TUBB3', 'MARCKSL1', 'VPS51', 'IGFBP3', 'SOX9', 'TPM2', 'MMP9', 'S100A8', 'TNC', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'LGALS1', 'CARD10', 'MFAP5', 'MME', 'ANGPTL4', 'KRT5', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'RRBP1', 'WDR74', 'MYO1E', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'CXCL1', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'ALOX15B', 'ENTPD2', 'KLF6', 'HES2', 'CLDN4', 'ALDH1A3', 'FOS', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'MAFB', 'MRC2', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'AKR1C2', 'TRIM56', 'FN1', 'GBP1', 'CDH1', 'COL7A1', 'GPAM', 'FAP', 'EPPK1', 'TACC2', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'SLC7A2', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IBA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'ISO', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IMP', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['HMP', 'NAS', 'IC', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS'], ['HDA'], ['IBA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['TAS', 'NAS'], ['IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IBA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IBA', 'IC'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['HMP'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['ISS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP', 'NAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IBA'], ['IEA'], ['IEP'], ['IEA'], ['IDA'], ['HDA', 'ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['HMP', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IMP', 'IGI'], ['HMP', 'HEP', 'IBA', 'NAS'], ['IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['ISS', 'TAS'], ['IBA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['IDA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IEA'], ['IMP', 'ISS', 'IBA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['ISS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IBA', 'TAS'], ['IBA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IEA'], ['HMP', 'NAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['NAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HMP'], ['IDA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'NAS'], ['IBA'], ['IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['ISS', 'IEA'], ['IDA', 'ISS'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IEA'], ['IEA'], ['HDA', 'ISO', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IBA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['TAS', 'NAS'], ['HDA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'TAS'], ['IMP', 'IGI'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP', 'NAS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['HMP', 'TAS', 'IEA'], ['IBA'], ['ISS', 'TAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['NAS'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['HMP', 'HEP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IC'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IEP'], ['IEA'], ['IC', 'IEA'], ['ISS'], ['IBA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['NAS'], ['IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['ISS', 'ISO', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'SLC2A1', 'NMU', 'P4HB', 'PQBP1', 'BCL6', 'TNFSF14', 'CDH2', 'CCL20', 'REL', 'ZNF277', 'ELF3', 'ICAM1', 'VPS13C', 'IVNS1ABP', 'NET1', 'FBXO32', 'KRT5', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'KCNIP3', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'CDC20', 'SLC46A3', 'PIM3', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'C1R', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'IL1RN', 'CCDC80', 'FBXO4', 'ITGB6', 'GADD45B', 'FOXC1', 'ACKR3', 'LDLR', 'STX3', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'TUBB4B', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ALDH3B1', 'ZNF236', 'CAMK2N1', 'SPIRE1', 'ERRFI1', 'MUC1', 'WDR59', 'SLPI', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'MBD4', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'CALML5', 'ALDH1A3', 'C3', 'RREB1', 'DLK2', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'NR4A1', 'SLC26A6', 'SLC3A2', 'ENTPD2', 'NEURL1B', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'ACSL1', 'GRHL3', 'TIMP1', 'MTA1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'CYTH2', 'PTGS2', 'GPR155', 'S100A8', 'BAMBI', 'TAOK3', 'CXCL16', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'NME3', 'BMP1', 'SAA1', 'TUBA1B', 'RGS2', 'EPCAM', 'SORBS3', 'C15orf48', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'SAA2', 'ACTB', 'ADD3', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'IFITM2', 'S100A6', 'DLG5', 'DNAJC4', 'ZFP36', 'NUDT1', 'LOX', 'VIM', 'FTH1', 'IFI44L', 'RASSF8', 'SOX9', 'REV3L', 'CLDN1', 'TRIM38', 'MT1X', 'ID1', 'CDC42EP1', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'PAK1', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'LRP1', 'CXCL1', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'TMSB4X', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'FAM111A', 'ATP1B1', 'CXCL8', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'TRAP1', 'CLDN7', 'ITGA5', 'SCD', 'SLPI', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'PQBP1', 'PTTG1', 'FGFR3', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'CAMK2N1', 'ACSL1', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'PLAU', 'NISCH', 'TMEM259', 'DDIT4', 'CLDN1', 'CASP2', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'GSN', 'NUDT1', 'VPS13C', 'MT1X', 'CSRP1', 'ANXA3', 'SAA1', 'SLC2A1', 'UBD', 'SOD2', 'TIMP1', 'SDC4', 'ITGB6', 'LTBP3', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'SAA2', 'LRP1', 'KCNIP3', 'TUBB3', 'UBE2G2', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'SLC46A3', 'TNC', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'WSB1', 'MME', 'S100A11', 'ANGPTL4', 'CDKN1C', 'KRT5', 'TAOK3', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'CXCL1', 'ERRFI1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'LAMB2', 'MYL9', 'MBD4', 'TUBA1B', 'DNAJC4', 'ID1', 'IFI44L', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TUBB4B', 'ENTPD2', 'NME3', 'SLC3A2', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'ABCD4', 'WWC1', 'RBBP6', 'KRT8', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'C15orf48', 'WDR59', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'SLC26A6', 'TSC22D3', 'ALDH3A1', 'AKR1C2', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'ALDH3B1', 'GBP1', 'CDH1', 'GPAM', 'MGMT', 'FAP', 'EPPK1', 'CALML5', 'TMEM132A', 'TFRC', 'EPHA2', 'SERPINA3', 'NET1', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[['IEP', 'ISS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA'], ['IEA'], ['IEP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IMP'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'TAS', 'NAS'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IC', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'NAS', 'IC'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IMP', 'IEP'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['HMP'], ['IDA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IEP'], ['IEA'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'IEP', 'TAS', 'NAS'], ['HMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HMP', 'NAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP'], ['NAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IEP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS'], ['IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IMP', 'IEP'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'ISS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['HMP'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['NAS'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'TAS', 'NAS'], ['IMP'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['TAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IDA', 'HMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IEP', 'ISS'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IEP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS', 'IEA'], ['HMP', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['NAS'], ['IEA'], ['IMP'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'HMP', 'NAS'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IGI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IC', 'IEA'], ['IMP', 'IBA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMB3', 'LAMC2', 'P4HB', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'ICAM1', 'PXDN', 'PLAU', 'ITGA5', 'TACSTD2', 'S100A11', 'DST', 'NOTCH1', 'PIEZO1', 'IGFBP7', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'IL1A', 'ABL2', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'MSLN', 'ACKR3', 'STX3', 'TFRC', 'PLAUR', 'SDC4', 'ATP1B1', 'PALLD', 'VMP1', 'MUC1', 'FN1', 'FAP', 'GPAM', 'SERPINE2', 'LAMB2', 'PHLDB2', 'LGALS1', 'GAS6', 'CD24', 'NFKBIZ', 'CSTA', 'COL7A1', 'RREB1', 'CDH1', 'MFI2', 'CSRP1', 'BCL2L11', 'KLC1', 'TGFBI', 'CYR61', 'S100A8', 'ITGB5', 'TNC', 'CITED2', 'FERMT2', 'CCL28', 'HES1', 'SAA1', 'EPCAM', 'SORBS3', 'MYL9', 'CLDN4', 'ITGAV', 'CXCL8', 'ACTB', 'DSC2', 'GBP1', 'CLDN7', 'EPHA2', 'DLG5', 'SOX9', 'ZBTB16', 'CLDN1', 'AMIGO2', 'CDC42EP1', 'LAMA3', 'SERPINE1']</t>
+          <t>['LAMA3', 'ATP1B1', 'CXCL8', 'CCDC80', 'SERPINE2', 'IL1A', 'STX3', 'PHLDB2', 'CLDN7', 'ITGA5', 'CYR61', 'SORBS3', 'PXDN', 'ITGB5', 'TGFBI', 'ZBTB16', 'DST', 'FLNA', 'CD24', 'MYH10', 'LAMC2', 'AMIGO2', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'PLAU', 'CLDN1', 'PALLD', 'CDH2', 'ANXA1', 'RREB1', 'CSRP1', 'SAA1', 'MFI2', 'SDC4', 'ITGB6', 'DSC2', 'MUC1', 'LAMB3', 'PDGFB', 'HES1', 'P4HB', 'DLG5', 'PCDH9', 'SOX9', 'S100A8', 'TNC', 'IL1RN', 'EPCAM', 'VMP1', 'BCL2L11', 'FERMT2', 'IGFBP7', 'LGALS1', 'S100A11', 'NOTCH1', 'PLAUR', 'CCL28', 'CDC42EP1', 'TPM1', 'TACSTD2', 'ACKR3', 'KLC1', 'SOX4', 'LAMB2', 'MYL9', 'BCL6', 'GAS6', 'NFKBIZ', 'ITGAV', 'CITED2', 'MSLN', 'CSTA', 'CLDN4', 'ACTB', 'CNTNAP2', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'COL7A1', 'GPAM', 'FAP', 'TFRC', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'HMP'], ['IEA'], ['IDA'], ['IBA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['HMP'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'NAS'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['HMP', 'NAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA']]</t>
+          <t>[['IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IMP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'HMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['HMP'], ['IDA', 'NAS'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['HMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HMP', 'NAS'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1762,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'CDH2', 'KRT6B', 'ELF3', 'KRT17', 'KRT5', 'TUBA1A', 'RBBP6', 'PXDN', 'TSC2', 'ANXA3', 'SEMA3C', 'TACSTD2', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'SLC38A10', 'TCOF1', 'ID3', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'IL1A', 'DDIT4', 'MYO1E', 'LSR', 'PCDH9', 'ITGB6', 'FOXC1', 'PDLIM4', 'CCM2', 'ISG15', 'DKK1', 'MAGED1', 'ALOX15B', 'SDC4', 'PALLD', 'ERRFI1', 'FN1', 'KRT16', 'SERPINE2', 'LAMB2', 'PHLDB2', 'GAS6', 'CDK1', 'GJA5', 'CD24', 'NFKBIZ', 'SCEL', 'CSTA', 'ALDH1A3', 'TACC2', 'RREB1', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'BCL2L11', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'UQCC2', 'KRT8', 'FOS', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'STAU2', 'BCL3', 'HES1', 'BMP1', 'KRT81', 'GPCPD1', 'RGS2', 'EPCAM', 'TGM1', 'STMN1', 'SUN2', 'ANKRD11', 'CLDN4', 'CXCL8', 'PHLDB1', 'ACTB', 'TAGLN', 'EPHA2', 'MMP9', 'VPS51', 'CCNF', 'DLG5', 'ZFP36', 'NUDT1', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'AMIGO2', 'KRT10', 'COL4A1', 'CCNA2', 'AURKA', 'ZBED2', 'PDLIM7', 'SERPINE1', 'RDH10', 'ASH1L', 'S100A4', 'FGFR3', 'CENPF', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'ANKRD11', 'CXCL8', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'NR4A1', 'ZFP36', 'PHLDB2', 'GJA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'TGFBI', 'ZBTB16', 'FGFR3', 'SCEL', 'FLNA', 'GRHL3', 'CD24', 'AMIGO2', 'SERPINE1', 'ADGRG1', 'CCNA2', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'CCM2', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'NUDT1', 'ANXA3', 'LSR', 'KRT6B', 'SLC2A1', 'SOD2', 'TIMP1', 'SDC4', 'ITGB6', 'GAA', 'LTBP3', 'LAMB3', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'AURKA', 'ISG15', 'BMP1', 'ZBED2', 'VPS51', 'TAGLN', 'SOX9', 'MMP9', 'TNC', 'SPHK1', 'KRT14', 'EPCAM', 'PDLIM4', 'BCL2L11', 'FERMT2', 'ATF3', 'MFAP5', 'MME', 'KRT5', 'UQCC2', 'SUN2', 'STAU2', 'NOTCH1', 'MYO1E', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'DKK1', 'ELF3', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'LAMB2', 'KRT81', 'KRT10', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'CITED2', 'ALOX15B', 'GPCPD1', 'CCNF', 'CSTA', 'CLDN4', 'ALDH1A3', 'FOS', 'TUBA1A', 'LOX', 'ACTB', 'S100A4', 'RBBP6', 'KRT8', 'KRT17', 'TSC2', 'MAFB', 'VIM', 'KRT16', 'CNTNAP2', 'FN1', 'CDH1', 'TACC2', 'RDH10', 'EPHA2', 'ID3', 'ASH1L', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'TAS'], ['IDA', 'ISS'], ['IEA'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IBA'], ['IMP'], ['IBA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IEP'], ['IMP'], ['HEP'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IEP'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'TAS'], ['IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IEP', 'IEA']]</t>
+          <t>[['IBA'], ['IMP'], ['IEP'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IBA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IDA'], ['TAS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA'], ['IEP', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['HEP'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'TAS'], ['IDA', 'IBA'], ['IEA'], ['IBA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -1828,12 +1828,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['CDH2', 'KRT6B', 'ICAM1', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'RBBP6', 'TSC2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'NOTCH1', 'ID3', 'ANXA1', 'SOX4', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'MYO1E', 'LSR', 'FOXC1', 'CCM2', 'DKK1', 'MAGED1', 'ALOX15B', 'SDC4', 'PALLD', 'ERRFI1', 'KRT16', 'SERPINE2', 'LAMB2', 'PHLDB2', 'CDK1', 'GJA5', 'CD24', 'NFKBIZ', 'SCEL', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'KLK5', 'EVPL', 'GRHL3', 'LBH', 'CYR61', 'AKR1C3', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'HES1', 'KRT81', 'EPCAM', 'TGM1', 'STMN1', 'CLDN4', 'ITGAV', 'ACTB', 'TAGLN', 'EPHA2', 'MMP9', 'DLG5', 'ZFP36', 'VIM', 'SOX9', 'CLDN1', 'KRT10', 'COL4A1', 'PAK1', 'ZBED2', 'SERPINE1', 'RDH10', 'EHF', 'MAFB']</t>
+          <t>['PAK1', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'ZFP36', 'PHLDB2', 'GJA5', 'ITGA5', 'CYR61', 'CDKN1A', 'SEMA3C', 'ITGB5', 'SCEL', 'FLNA', 'GRHL3', 'CD24', 'EHF', 'SERPINE1', 'ICAM1', 'CLDN1', 'PALLD', 'TGM1', 'CCM2', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'LSR', 'KRT6B', 'SDC4', 'PDGFB', 'HES1', 'DLG5', 'STMN1', 'ZBED2', 'KRT15', 'TAGLN', 'SOX9', 'MMP9', 'TNC', 'KRT14', 'EPCAM', 'FERMT2', 'KRT5', 'NOTCH1', 'MYO1E', 'MAGED1', 'TACSTD2', 'DKK1', 'ERRFI1', 'KLK5', 'AKR1C3', 'SOX4', 'LAMB2', 'KRT81', 'KRT10', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'ALOX15B', 'CSTA', 'CLDN4', 'ALDH1A3', 'ACTB', 'RBBP6', 'KRT17', 'TSC2', 'MAFB', 'VIM', 'KRT16', 'AKR1C2', 'EPPK1', 'RDH10', 'EPHA2', 'ID3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[['ISS', 'IEA'], ['IBA'], ['IGI'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IBA'], ['IEP'], ['IEA'], ['ISS'], ['IEP', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IMP', 'NAS'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP'], ['NAS'], ['IBA', 'IEA'], ['ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['NAS'], ['IMP'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEP', 'IBA'], ['IMP', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IEA'], ['IEP'], ['IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEP', 'NAS'], ['IDA'], ['IEA'], ['IEA'], ['NAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['IDA'], ['IGI'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IBA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISO', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEP', 'IBA'], ['IEP'], ['IEA'], ['IEA'], ['NAS'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['ISS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1894,12 +1894,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>['P4HB', 'CDH2', 'ICAM1', 'STX16', 'PLAU', 'ITGA5', 'DST', 'ANXA1', 'FLNA', 'ITGB6', 'GAK', 'MRC2', 'PLAUR', 'ALOX15B', 'SDC4', 'PALLD', 'FAP', 'PHLDB2', 'TPM4', 'GSN', 'CSRP1', 'ITGB5', 'TNC', 'FERMT2', 'SORBS3', 'ITGAV', 'ACTB', 'EPHA2', 'VIM', 'CDC42EP1', 'PAK1', 'PDLIM7', 'LRP1', 'FGFR3', 'MME']</t>
+          <t>['PDLIM7', 'PAK1', 'PHLDB2', 'ITGA5', 'SORBS3', 'ITGB5', 'FGFR3', 'DST', 'FLNA', 'ICAM1', 'PLAU', 'PALLD', 'CDH2', 'ANXA1', 'GSN', 'CSRP1', 'SDC4', 'ITGB6', 'P4HB', 'LRP1', 'TNC', 'FERMT2', 'TPM4', 'MME', 'PLAUR', 'CDC42EP1', 'GAK', 'ITGAV', 'ALOX15B', 'ACTB', 'STX16', 'MRC2', 'VIM', 'FAP', 'EPHA2']</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IDA'], ['HDA'], ['TAS'], ['HDA']]</t>
+          <t>[['IDA'], ['IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['TAS'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -1960,12 +1960,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'P4HB', 'PQBP1', 'BCL6', 'CCL20', 'REL', 'ZNF277', 'ELF3', 'NET1', 'PTTG1', 'RBBP6', 'UBE2G2', 'PXDN', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'NCOA7', 'ATF3', 'PIM1', 'DST', 'NOTCH1', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'C1R', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'IL1A', 'DDIT4', 'IL1RN', 'FBXO4', 'ITGB6', 'ACKR3', 'LDLR', 'TFRC', 'CCM2', 'ISG15', 'SGK1', 'PLAUR', 'MMP7', 'TUBB4B', 'C1RL', 'SDC4', 'ATP1B1', 'ALDH3B1', 'CAMK2N1', 'SPIRE1', 'MUC1', 'WDR59', 'SLPI', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'SERPINE2', 'LAMB2', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'BIRC3', 'CDK1', 'MBD4', 'CD24', 'NFKBIZ', 'UBD', 'C3', 'RREB1', 'KLK5', 'EVPL', 'NR4A1', 'SLC26A6', 'ENTPD2', 'GSN', 'CSRP1', 'BCL2L11', 'GRHL3', 'TIMP1', 'MTA1', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'GPR155', 'S100A8', 'TAOK3', 'CXCL16', 'KRT8', 'ITGB5', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'STAU2', 'BCL3', 'IER3', 'NME3', 'SAA1', 'TRAP1', 'MYL9', 'CLDN4', 'ITGAV', 'CXCL8', 'SAA2', 'ACTB', 'F3', 'GLUL', 'DSC2', 'GBP1', 'TRIM56', 'EPHA2', 'MMP9', 'IFITM2', 'DNAJC4', 'ZFP36', 'NUDT1', 'VIM', 'IFI44L', 'REV3L', 'CLDN1', 'TRIM38', 'MT1X', 'ANGPTL4', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'PAK1', 'SERPINE1', 'LRP1', 'CXCL1', 'ASH1L', 'LETMD1', 'TMSB4X', 'MAFB']</t>
+          <t>['FAM111A', 'ATP1B1', 'CXCL8', 'PAK1', 'PDK4', 'SERPINE2', 'BCL3', 'C1RL', 'IL1A', 'MYBBP1A', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'TRAP1', 'ITGA5', 'SLPI', 'CYR61', 'CDKN1A', 'MMP7', 'PXDN', 'STK25', 'ITGB5', 'SGK1', 'PQBP1', 'PTTG1', 'DST', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'CAMK2N1', 'GLUL', 'SPIRE1', 'SERPINE1', 'CCNA2', 'PLAU', 'TMEM259', 'DDIT4', 'CLDN1', 'CASP2', 'CCM2', 'PTGES', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'GSN', 'NUDT1', 'MT1X', 'CSRP1', 'ANXA3', 'SAA1', 'SLC2A1', 'UBD', 'SOD2', 'TIMP1', 'SDC4', 'ITGB6', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'P4HB', 'FBXO4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'SAA2', 'LRP1', 'UBE2G2', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'TNC', 'IL1RN', 'SPHK1', 'REL', 'BCL2L11', 'FERMT2', 'ATF3', 'LGALS1', 'ANGPTL4', 'TAOK3', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'TPM1', 'ZNF277', 'ACKR3', 'ELF3', 'CXCL1', 'KLK5', 'AKR1C3', 'GPR155', 'SOX4', 'LAMB2', 'MYL9', 'MBD4', 'DNAJC4', 'IFI44L', 'BCL6', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'TUBB4B', 'ENTPD2', 'NME3', 'CLDN4', 'DNAJC15', 'FOS', 'ACTB', 'LDLR', 'TMSB4X', 'RBBP6', 'KRT8', 'NCOA7', 'TSC2', 'MAFB', 'WDR59', 'VIM', 'KRT16', 'SLC26A6', 'TSC22D3', 'TRIM56', 'FN1', 'ALDH3B1', 'GBP1', 'GPAM', 'MGMT', 'FAP', 'EPPK1', 'TFRC', 'EPHA2', 'SERPINA3', 'NET1', 'ASH1L', 'PIM1']</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[['IEP', 'ISS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEP', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEP', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IMP', 'IEA'], ['IDA', 'HMP', 'NAS', 'IEA'], ['IDA', 'NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IGI', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['TAS', 'NAS'], ['IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IC'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEP'], ['IMP', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['HMP'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEP'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IBA', 'TAS', 'NAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['NAS', 'IEA'], ['ISS'], ['HMP', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HMP', 'NAS'], ['IDA', 'IC', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['NAS']]</t>
+          <t>[['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS'], ['IEP', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'TAS'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'HMP', 'NAS', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS', 'NAS'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['HMP'], ['IDA'], ['NAS', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IC', 'IEA'], ['TAS', 'NAS'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IEP', 'ISS'], ['IEA'], ['IMP'], ['IEP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IEP'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['HMP', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'HMP', 'NAS'], ['IGI', 'ISS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['NAS'], ['IMP', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IC'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'BCL6', 'TNFSF14', 'CCL20', 'ICAM1', 'KRT5', 'PLAU', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'ABL2', 'ACKR3', 'STX3', 'SGK1', 'PLAUR', 'MMP7', 'MALAT1', 'ALOX15B', 'SDC4', 'FN1', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'CARD10', 'RREB1', 'CDH1', 'NISCH', 'NR4A1', 'TIMP1', 'SPHK1', 'CYR61', 'PTGS2', 'S100A8', 'CXCL16', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'SAA1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'LOX', 'SOX9', 'CLDN1', 'LAMA3', 'PAK1', 'SERPINE1', 'LRP1', 'CXCL1', 'S100A4', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'PAK1', 'SERPINE2', 'IL1A', 'STX3', 'NR4A1', 'PHLDB2', 'CXCL16', 'CLDN7', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'PLAU', 'NISCH', 'CLDN1', 'ANXA1', 'RREB1', 'ANXA3', 'SAA1', 'SOD2', 'TIMP1', 'SDC4', 'PDGFB', 'DLG5', 'STMN1', 'LRP1', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'CCL20', 'TNC', 'SPHK1', 'FERMT2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'PTGS2', 'TPM1', 'TACSTD2', 'ACKR3', 'CXCL1', 'BCL6', 'GAS6', 'MALAT1', 'ITGAV', 'CITED2', 'ALOX15B', 'CLDN4', 'LOX', 'S100A4', 'TMSB4X', 'TSC2', 'KRT16', 'FN1', 'CDH1', 'EPPK1', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'TAS'], ['ISS'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['ISS', 'TAS'], ['IBA', 'IEA'], ['IMP'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IC'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['ISS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['NAS'], ['IEA'], ['IMP'], ['IMP'], ['IMP'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'NAS'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IC'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['TAS'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['ISS'], ['IDA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -2092,12 +2092,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>['TPM1', 'PLAU', 'ITGA5', 'DST', 'ANXA1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'ITGB6', 'PLAUR', 'SDC4', 'FN1', 'FAP', 'SERPINE2', 'LAMB2', 'PHLDB2', 'GAS6', 'CDK1', 'NFKBIZ', 'RREB1', 'EVPL', 'ENTPD2', 'CSRP1', 'GRHL3', 'TIMP1', 'CYR61', 'ITGB5', 'TNC', 'CDKN1A', 'FERMT2', 'SOD2', 'SAA1', 'MYL9', 'CLDN4', 'ITGAV', 'ACTB', 'F3', 'ZFP36', 'CLDN1', 'AURKA', 'PAK1', 'SERPINE1']</t>
+          <t>['PAK1', 'SERPINE2', 'IL1A', 'ZFP36', 'PHLDB2', 'ITGA5', 'CYR61', 'CDKN1A', 'ITGB5', 'DST', 'FLNA', 'GRHL3', 'SERPINE1', 'PLAU', 'CLDN1', 'EVPL', 'ANXA1', 'RREB1', 'CSRP1', 'SAA1', 'SOD2', 'TIMP1', 'SDC4', 'ITGB6', 'PDGFB', 'AURKA', 'TNC', 'FERMT2', 'F3', 'PLAUR', 'TPM1', 'LAMB2', 'MYL9', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'ENTPD2', 'CLDN4', 'ACTB', 'FN1', 'FAP', 'EPPK1']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEP', 'NAS'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'NAS', 'IEA'], ['IDA', 'NAS'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IEA'], ['NAS', 'IEA'], ['IC'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IBA'], ['IEA'], ['HMP'], ['IEA'], ['IEA'], ['IDA'], ['NAS'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['NAS'], ['HMP', 'IEA'], ['IMP'], ['NAS'], ['HMP'], ['IDA', 'IC', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC']]</t>
+          <t>[['IMP'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEP', 'NAS'], ['IDA'], ['IEA'], ['NAS'], ['IDA', 'IBA'], ['IDA', 'HMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['HMP'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'NAS'], ['IDA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IMP'], ['IDA', 'IC', 'IEA'], ['TAS', 'NAS'], ['ISS'], ['IEA'], ['HMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IMP'], ['HMP'], ['NAS', 'IEA'], ['IC'], ['IMP', 'IBA']]</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'P4HB', 'PQBP1', 'TNFSF14', 'CCL20', 'REL', 'ZNF277', 'ICAM1', 'VPS13C', 'NET1', 'FBXO32', 'AKR1C2', 'TUBA1A', 'UBE2G2', 'PXDN', 'PLAU', 'TSC2', 'ANXA3', 'SEMA3C', 'NCOA7', 'PIM1', 'NOTCH1', 'SLC46A3', 'PIM3', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'ARSA', 'PTGES', 'SCD', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'IL1RN', 'FOXC1', 'ACKR3', 'LDLR', 'STX3', 'TFRC', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MMP7', 'ALDH3B1', 'ZNF236', 'ERRFI1', 'SLPI', 'GPAM', 'PDK4', 'GAS6', 'BIRC3', 'CDK1', 'MBD4', 'CD24', 'NFKBIZ', 'UBD', 'CDH1', 'NR4A1', 'SLC26A6', 'SLC3A2', 'GSN', 'BCL2L11', 'ACSL1', 'TIMP1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'GPR155', 'S100A8', 'CXCL16', 'ALDH3A1', 'KRT8', 'FOS', 'TNC', 'CDKN1A', 'CITED2', 'SOD2', 'CCL28', 'STAU2', 'HES1', 'SAA1', 'TUBA1B', 'RGS2', 'TRAP1', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'ACTB', 'ADD3', 'F3', 'GLUL', 'GBP1', 'CLDN7', 'TRIM56', 'EPHA2', 'MMP9', 'IFITM2', 'ZFP36', 'NUDT1', 'LOX', 'VIM', 'SOX9', 'CLDN1', 'MT1X', 'COL4A1', 'CCNA2', 'TMEM259', 'PAK1', 'SCNN1G', 'SERPINE1', 'LRP1', 'CXCL1', 'S100A4', 'CENPF', 'TMSB4X', 'LPIN1', 'MME']</t>
+          <t>['CXCL8', 'ADD3', 'PAK1', 'ZNF236', 'PDK4', 'FOXC1', 'IL1A', 'STX3', 'NR4A1', 'ZFP36', 'CXCL16', 'TRAP1', 'CLDN7', 'SCD', 'SLPI', 'CYR61', 'CDKN1A', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'SGK1', 'PQBP1', 'FLNA', 'CD24', 'ACSL1', 'GLUL', 'ABL2', 'SERPINE1', 'FBXO32', 'ICAM1', 'CCNA2', 'PLAU', 'TMEM259', 'DDIT4', 'CLDN1', 'PTGES', 'LPIN1', 'ANXA1', 'GSN', 'NUDT1', 'VPS13C', 'MT1X', 'ANXA3', 'SAA1', 'SLC2A1', 'UBD', 'SOD2', 'TIMP1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'NFYB', 'P4HB', 'BIRC3', 'ISG15', 'IFITM2', 'LRP1', 'UBE2G2', 'PIM3', 'SOX9', 'MMP9', 'S100A8', 'CCL20', 'SLC46A3', 'TNC', 'IL1RN', 'SPHK1', 'REL', 'FOSB', 'BCL2L11', 'IGFBP7', 'MME', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'PTGS2', 'TPM1', 'ZNF277', 'ACKR3', 'DKK1', 'CXCL1', 'ERRFI1', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'MBD4', 'TUBA1B', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'SLC3A2', 'CLDN4', 'FOS', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'ABCD4', 'KRT8', 'NCOA7', 'TSC2', 'VIM', 'ARSA', 'SLC26A6', 'ALDH3A1', 'AKR1C2', 'TRIM56', 'ALDH3B1', 'GBP1', 'CDH1', 'GPAM', 'TFRC', 'EPHA2', 'NET1', 'ID3', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[['IEP'], ['IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA'], ['IEA'], ['IBA', 'TAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEP', 'ISS'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEP'], ['IEP', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'NAS'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IC'], ['IEA'], ['IDA', 'IEP', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IBA'], ['IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IMP'], ['ISS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IEA']]</t>
+          <t>[['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS'], ['IDA', 'IGI'], ['IEA'], ['IDA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['ISS'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IC'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IEP'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'ISS', 'IBA'], ['IDA'], ['IDA', 'IEP', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -2224,12 +2224,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'LAMC2', 'P4HB', 'TNFSF14', 'MYH10', 'CDH2', 'ICAM1', 'MAL2', 'KRT17', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KCNIP3', 'TUBB3', 'PIM1', 'DST', 'NOTCH1', 'MFAP5', 'SLC5A3', 'PIEZO1', 'IGFBP7', 'ANXA1', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'TSPAN1', 'EPPK1', 'ABL2', 'ABCD4', 'MYO1E', 'LSR', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'MSLN', 'ACKR3', 'LDLR', 'STX3', 'TLCD2', 'PDLIM4', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'MMP7', 'CGN', 'LAD1', 'ALOX15B', 'SDC4', 'ATP1B1', 'ALDH3B1', 'PALLD', 'VMP1', 'KATNBL1', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'FAP', 'GPAM', 'KRT16', 'CA12', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'SYT8', 'GJA5', 'CD24', 'PNISR', 'SCEL', 'SNAP47', 'CSTA', 'COL7A1', 'TACC2', 'C3', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'MFI2', 'GSN', 'EEF1A1', 'SLC7A2', 'TGFBI', 'TIMP1', 'GAA', 'SPHK1', 'TM4SF1', 'CYR61', 'CYTH2', 'PTGS2', 'S100A8', 'BAMBI', 'TAOK3', 'CXCL16', 'ALDH3A1', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'TNC', 'FERMT2', 'MSMO1', 'STAU2', 'PSCA', 'BCL3', 'C1orf116', 'RGS2', 'EPCAM', 'TGM1', 'TRAP1', 'MADD', 'MYL9', 'CLDN4', 'ITGAV', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'WWC1', 'EPHA2', 'MMP9', 'IFITM2', 'S100A6', 'DLG5', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'PNPLA2', 'AMIGO2', 'KRT10', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'AURKA', 'SERPINA3', 'PAK1', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'LRP1', 'RAB24', 'SH3BGRL3', 'S100A4', 'FGFR3', 'FXYD3', 'ATP6V0A1', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'CCDC80', 'ADD3', 'PAK1', 'KATNBL1', 'BAMBI', 'SERPINE2', 'BCL3', 'STX3', 'C3', 'PHLDB2', 'CXCL16', 'GJA5', 'MAL2', 'TRAP1', 'CLDN7', 'ITGA5', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'ITGB5', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'FLNA', 'CD24', 'SNAP47', 'MYH10', 'LAMC2', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'UNC5B', 'PLAU', 'NISCH', 'CLDN1', 'PALLD', 'TGM1', 'CDH2', 'EVPL', 'ANXA1', 'SLC5A3', 'GSN', 'ANXA3', 'LSR', 'SLC2A1', 'PNPLA2', 'MFI2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'LAD1', 'GAA', 'LTBP3', 'DSC2', 'MUC1', 'LAMB3', 'PDGFB', 'SCNN1G', 'PSCA', 'P4HB', 'DLG5', 'PCDH9', 'TLCD2', 'AURKA', 'CA12', 'IFITM2', 'LRP1', 'KCNIP3', 'TUBB3', 'MARCKSL1', 'MMP9', 'MSMO1', 'S100A8', 'TNC', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'VMP1', 'PDLIM4', 'FERMT2', 'IGFBP7', 'TPM4', 'LGALS1', 'MFAP5', 'MME', 'ANGPTL4', 'CGN', 'TAOK3', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CST6', 'MYO1E', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'C1orf116', 'CRB3', 'ACKR3', 'DKK1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'PNISR', 'RGS2', 'LAMB2', 'MYL9', 'KRT10', 'ITGAV', 'SH3BGRL3', 'ALOX15B', 'S100P', 'ATP6V0A1', 'MSLN', 'ENTPD2', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CLDN4', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'ABCD4', 'WWC1', 'KRT8', 'KRT17', 'S100A6', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'SLC26A6', 'RAB24', 'ALDH3A1', 'PIEZO1', 'CYTH2', 'FN1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'GPAM', 'FAP', 'EPPK1', 'TACC2', 'TMEM132A', 'TFRC', 'EPHA2', 'SERPINA3', 'SLC7A2', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['HDA', 'ISS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['IBA'], ['IDA', 'TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'HDA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'NAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['NAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2290,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC38A10', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'CMTM4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'C1R', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'TP53I11', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'PCDH9', 'CCDC80', 'WDR74', 'FBXO4', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'IDI1', 'TLCD2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'NEAT1', 'RSBN1L', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'CGN', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'OPLAH', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'SPINK6', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PGBD5', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CA12', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'CHI3L2', 'PNISR', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'TRABD', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'EFHD2', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'SLC7A2', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'SNHG7', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'ANKRD12', 'TM4SF1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'USP31', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'HELZ', 'DSEL', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'C1orf116', 'TUBA1B', 'TPM2', 'GPCPD1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'C15orf48', 'TGM1', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'SPSB1', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'SAA2', 'ACTB', 'ADD3', 'ANKRD13D', 'TAGLN', 'ZC3H12C', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'PDZK1IP1', 'DLG5', 'DNAJC4', 'RUSC2', 'SNHG3', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'IFI44L', 'SOX9', 'ZBTB16', 'REV3L', 'TP53I3', 'CLDN1', 'TRIM38', 'SLC2A12', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'MRI1', 'FBXW5', 'CKAP2L', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'TMEM139', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'ATP1B1', 'CXCL8', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'USP31', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'MAL2', 'TRAP1', 'RSBN1L', 'SMC4', 'CLDN7', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'SPINK6', 'ITGB5', 'SGK1', 'SLC2A12', 'IFT46', 'TP53I11', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'TMEM139', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'NEAT1', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'SPSB1', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'SLC5A3', 'GSN', 'NUDT1', 'MLXIP', 'VPS13C', 'SUGP2', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'LSR', 'SNHG7', 'SAA1', 'TRABD', 'EFHD2', 'KRT6B', 'SLC2A1', 'KANK4', 'CKAP2L', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'LAD1', 'GAA', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'RSRP1', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'HERC4', 'TLCD2', 'AURKA', 'BIRC3', 'CA12', 'ISG15', 'IFITM2', 'BMP1', 'MRI1', 'SAA2', 'ZBED2', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'CCL20', 'SNHG3', 'C1R', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'PGBD5', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CST6', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'GPR155', 'TP53I3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'DMTF1', 'KRT10', 'DNAJC4', 'ID1', 'IFI44L', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'DSEL', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'C1orf56', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'OPLAH', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'CMTM4', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'MRC2', 'C15orf48', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'AKR1C2', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'SLC7A2', 'ID3', 'ASH1L', 'LAGE3', 'TNFSF14', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['HDA', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['HTP'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2356,12 +2356,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'ELF3', 'ICAM1', 'KRT17', 'NET1', 'KMT2B', 'SUCO', 'AKR1C2', 'PLAU', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'CDC20', 'SLC5A3', 'PIEZO1', 'CTSV', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'CDKN1C', 'C1R', 'OAZ2', 'MGMT', 'PTGES', 'SCD', 'IL1A', 'ABL2', 'HEATR1', 'CCDC80', 'FBXO4', 'GADD45B', 'FOXC1', 'ACKR3', 'LDLR', 'STX3', 'TFRC', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'MALAT1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'VMP1', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'MUC1', 'WDR59', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'MACC1', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'SNAP47', 'ALDH1A3', 'C3', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'CRB3', 'NR4A1', 'SLC26A6', 'MFI2', 'GSN', 'BCL2L11', 'ACSL1', 'GRHL3', 'TIMP1', 'MTA1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'GPR155', 'S100A8', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'STAU2', 'BCL3', 'HES1', 'IER3', 'BMP1', 'SAA1', 'RGS2', 'EPCAM', 'SORBS3', 'TGM1', 'MADD', 'CDC25B', 'SUN2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'ADD3', 'F3', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'S100A6', 'DLG5', 'ZFP36', 'B4GALT5', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'TRIM38', 'PNPLA2', 'AMIGO2', 'KRT10', 'MARCKSL1', 'CDC42EP1', 'TMEM132A', 'ANGPTL4', 'CCNA2', 'TMEM259', 'AURKA', 'SMC4', 'PAK1', 'ZBED2', 'SERPINE1', 'MLXIP', 'LRP1', 'RDH10', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'TMSB4X', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['CCNB1', 'ATP1B1', 'CXCL8', 'CCDC80', 'ADD3', 'PAK1', 'KATNBL1', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'SMC4', 'CLDN7', 'ITGA5', 'SCD', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'SEMA3C', 'MADD', 'STK25', 'SGK1', 'PQBP1', 'ZBTB16', 'FGFR3', 'SCEL', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'PLAU', 'TMEM259', 'CLDN1', 'CASP2', 'TGM1', 'PTGES', 'LPIN1', 'CDH2', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'MLXIP', 'ANXA3', 'SAA1', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LTBP3', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'NMU', 'DLG5', 'AURKA', 'BIRC3', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'MARCKSL1', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'KMT2B', 'TNC', 'HEATR1', 'SPHK1', 'EPCAM', 'VMP1', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'MME', 'S100A11', 'ANGPTL4', 'CDKN1C', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'PHLDB1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'LAMB2', 'KRT10', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'MALAT1', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'ALOX15B', 'KLF6', 'CDC25B', 'CLDN4', 'ALDH1A3', 'FOS', 'B4GALT5', 'OAZ2', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'WDR59', 'N4BP2L2', 'VIM', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'ADIRF', 'AKR1C2', 'PIEZO1', 'TRIM56', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'MGMT', 'FAP', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'NET1', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IGI'], ['IDA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IGI'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IMP'], ['IMP', 'IGI'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISO', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'NAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IMP', 'IGI'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IC'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'ISS', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'NAS'], ['IDA', 'IMP'], ['IMP', 'IGI', 'ISS', 'TAS'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'IEA'], ['IDA', 'IGI', 'ISS'], ['IDA', 'IGI', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IMP', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'NAS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IGI', 'ISS', 'TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IBA'], ['ISO', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP'], ['IGI', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'IGI'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IC'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['ISS', 'NAS', 'IEA'], ['ISS'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['NAS'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IGI'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['NAS'], ['IGI'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'ISS', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'TNNI2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'CMTM4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'OAZ2', 'TUBA4A', 'RBM39', 'TSC22D3', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'HEATR1', 'IL1RN', 'CCDC80', 'WDR74', 'FBXO4', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'IDI1', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'C1orf74', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'CGN', 'TUBB4B', 'LAD1', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'SPINK6', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PLEKHA6', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'GALNT6', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'EFHD2', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'TIMP1', 'MTA1', 'LBH', 'SPHK1', 'ANKRD12', 'TM4SF1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'S100A8', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'TTC14', 'MSMO1', 'HELZ', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'CORO6', 'IER3', 'NME3', 'BMP1', 'KRT81', 'SAA1', 'C1orf116', 'TUBA1B', 'TPM2', 'GPCPD1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'C15orf48', 'TGM1', 'UBALD2', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'SPSB1', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'SAA2', 'ACTB', 'ADD3', 'ANKRD13D', 'TAGLN', 'ZC3H12C', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'S100A6', 'PDZK1IP1', 'DLG5', 'DNAJC4', 'RUSC2', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'RASSF8', 'SOX9', 'ZBTB16', 'REV3L', 'TP53I3', 'CLDN1', 'TRIM38', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'MRI1', 'FBXW5', 'CCNA2', 'AURKA', 'SERPINA3', 'TMEM139', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'ATP1B1', 'CXCL8', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'MAL2', 'TRAP1', 'SMC4', 'CLDN7', 'ITGA5', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'SPINK6', 'ITGB5', 'SGK1', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'CORO6', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'TMEM139', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'EHF', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'SPSB1', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'SLC5A3', 'GSN', 'C1orf74', 'NUDT1', 'MLXIP', 'SUGP2', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'SAA1', 'EFHD2', 'KRT6B', 'SLC2A1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'LAD1', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'RSRP1', 'NMU', 'DLG5', 'STMN1', 'AURKA', 'BIRC3', 'ISG15', 'BMP1', 'MRI1', 'SAA2', 'TIMM17B', 'LRP1', 'KCNIP3', 'PLEKHA6', 'TUBB3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'IGFBP3', 'TAGLN', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'UBALD2', 'NOTCH1', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CST6', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'TP53I3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'KRT10', 'DNAJC4', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'C1orf56', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'OPLAH', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'CMTM4', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'TTC14', 'MAFB', 'MRC2', 'C15orf48', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CKS2', 'CDH1', 'COL7A1', 'GPAM', 'RBM39', 'FAP', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'ID3', 'ASH1L', 'LAGE3', 'TNFSF14', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IPI', 'TAS', 'NAS'], ['HDA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IBA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IDA'], ['IPI'], ['IPI', 'IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IPI', 'IBA', 'TAS'], ['IPI'], ['IPI'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['ISS'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'TAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'TAS'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'NAS'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IC'], ['IDA', 'IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'NAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IEA'], ['IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IC', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI']]</t>
+          <t>[['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'TAS'], ['IDA', 'IPI'], ['IBA', 'IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['ISS'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IBA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IPI', 'HDA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA'], ['HDA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['IPI', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IC'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IC', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'TAS'], ['IPI', 'IEA'], ['IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IPI', 'ISS', 'IBA', 'TAS'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'NAS'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA'], ['IPI', 'IBA'], ['IPI', 'TAS', 'NAS'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'ISS'], ['IDA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'NAS'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI'], ['IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IDA'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI']]</t>
         </is>
       </c>
     </row>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'BCL6', 'TNFSF14', 'CCL20', 'ICAM1', 'KRT5', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'ABL2', 'ACKR3', 'STX3', 'SGK1', 'MMP7', 'MALAT1', 'ALOX15B', 'SDC4', 'FN1', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'CARD10', 'RREB1', 'CDH1', 'NISCH', 'TIMP1', 'SPHK1', 'CYR61', 'PTGS2', 'CXCL16', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'SOX9', 'CLDN1', 'LAMA3', 'PAK1', 'SERPINE1', 'LRP1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'PAK1', 'SERPINE2', 'IL1A', 'STX3', 'PHLDB2', 'CXCL16', 'CLDN7', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'PLAU', 'NISCH', 'CLDN1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'TIMP1', 'SDC4', 'PDGFB', 'DLG5', 'STMN1', 'LRP1', 'IGFBP3', 'SOX9', 'MMP9', 'CCL20', 'TNC', 'SPHK1', 'FERMT2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TPM1', 'TACSTD2', 'ACKR3', 'BCL6', 'GAS6', 'MALAT1', 'ITGAV', 'CITED2', 'ALOX15B', 'CLDN4', 'TMSB4X', 'KRT16', 'FN1', 'CDH1', 'EPPK1', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['ISS'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['ISS', 'TAS'], ['IEA'], ['IMP'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IGI', 'TAS'], ['TAS', 'IC'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IGI', 'TAS'], ['IDA'], ['NAS'], ['IEA'], ['IMP'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['NAS'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IC'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IMP'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'BCL6', 'TNFSF14', 'CCL20', 'ICAM1', 'KRT5', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'ABL2', 'ACKR3', 'SGK1', 'MMP7', 'MALAT1', 'ALOX15B', 'SDC4', 'FN1', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'CARD10', 'RREB1', 'CDH1', 'NISCH', 'TIMP1', 'SPHK1', 'CYR61', 'PTGS2', 'CXCL16', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'SOX9', 'CLDN1', 'LAMA3', 'PAK1', 'SERPINE1', 'LRP1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'PAK1', 'SERPINE2', 'IL1A', 'PHLDB2', 'CXCL16', 'CLDN7', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'PLAU', 'NISCH', 'CLDN1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'TIMP1', 'SDC4', 'PDGFB', 'DLG5', 'STMN1', 'LRP1', 'IGFBP3', 'SOX9', 'MMP9', 'CCL20', 'TNC', 'SPHK1', 'FERMT2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TPM1', 'TACSTD2', 'ACKR3', 'BCL6', 'GAS6', 'MALAT1', 'ITGAV', 'CITED2', 'ALOX15B', 'CLDN4', 'TMSB4X', 'KRT16', 'FN1', 'CDH1', 'EPPK1', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['ISS'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['ISS', 'TAS'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['TAS'], ['IDA'], ['NAS'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['NAS'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IMP'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -2620,12 +2620,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'KRT6B', 'KRT17', 'KRT5', 'KRT15', 'NOTCH1', 'ANXA1', 'IL1A', 'LSR', 'FOXC1', 'DKK1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'NFKBIZ', 'SCEL', 'CALML5', 'CSTA', 'COL7A1', 'KLK5', 'EVPL', 'GRHL3', 'AKR1C3', 'CST6', 'KRT14', 'CDKN1A', 'HES1', 'KRT81', 'TGM1', 'STMN1', 'CLDN4', 'EPHA2', 'ZFP36', 'SOX9', 'CLDN1', 'KRT10', 'LAMA3', 'ZBED2', 'MAFB']</t>
+          <t>['LAMA3', 'FOXC1', 'IL1A', 'ZFP36', 'CDKN1A', 'SCEL', 'GRHL3', 'LAMC2', 'CLDN1', 'PALLD', 'TGM1', 'EVPL', 'ANXA1', 'LSR', 'KRT6B', 'LAMB3', 'HES1', 'STMN1', 'ZBED2', 'KRT15', 'SOX9', 'KRT14', 'KRT5', 'NOTCH1', 'CST6', 'DKK1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KRT81', 'KRT10', 'NFKBIZ', 'ALOX15B', 'CSTA', 'CLDN4', 'KRT17', 'MAFB', 'KRT16', 'COL7A1', 'CALML5', 'EPHA2']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['IBA'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IBA'], ['TAS'], ['IMP'], ['IEA']]</t>
+          <t>[['TAS'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['TAS'], ['IEA'], ['IMP'], ['IMP'], ['TAS'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC38A10', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'C1R', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'TP53I11', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'PCDH9', 'CCDC80', 'WDR74', 'FBXO4', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'IDI1', 'TLCD2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'MALAT1', 'CGN', 'TUBB4B', 'N4BP2L2', 'C1RL', 'OPLAH', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PGBD5', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CA12', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'CHI3L2', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'SLC7A2', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'SNHG7', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'TM4SF1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'USP31', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'HELZ', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'CORO6', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'C1orf116', 'TUBA1B', 'TPM2', 'GPCPD1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'C15orf48', 'TGM1', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'SPSB1', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'SAA2', 'ACTB', 'ADD3', 'ANKRD13D', 'TAGLN', 'ZC3H12C', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'DLG5', 'DNAJC4', 'RUSC2', 'SNHG3', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'IFI44L', 'RASSF8', 'SOX9', 'ZBTB16', 'REV3L', 'TP53I3', 'CLDN1', 'TRIM38', 'SLC2A12', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'MRI1', 'FBXW5', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'ATP1B1', 'CXCL8', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'USP31', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'MAL2', 'TRAP1', 'SMC4', 'CLDN7', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'SLC2A12', 'IFT46', 'TP53I11', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'CORO6', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'SPSB1', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'SLC5A3', 'GSN', 'NUDT1', 'MLXIP', 'VPS13C', 'SUGP2', 'MT1X', 'SPTSSA', 'CSRP1', 'ANXA3', 'LSR', 'SNHG7', 'SAA1', 'KRT6B', 'SLC2A1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'GAA', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'RSRP1', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'HERC4', 'TLCD2', 'AURKA', 'BIRC3', 'CA12', 'ISG15', 'IFITM2', 'BMP1', 'MRI1', 'SAA2', 'ZBED2', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'SNHG3', 'C1R', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'PGBD5', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CST6', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'C1orf116', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'GPR155', 'TP53I3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'DMTF1', 'KRT10', 'DNAJC4', 'ID1', 'IFI44L', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'MALAT1', 'NFKBIZ', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'C1orf56', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'OPLAH', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'MRC2', 'C15orf48', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'AKR1C2', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CKS2', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'SLC7A2', 'ID3', 'ASH1L', 'LAGE3', 'TNFSF14', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'ISO', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'ND'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IC', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'HDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['ND'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'NAS', 'ND', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'TAS'], ['ND'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS'], ['ND'], ['IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'TAS', 'IEA'], ['ND', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'ISO', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'NAS'], ['IMP'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISO', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'NAS', 'ND', 'IEA'], ['TAS'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ND', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'HDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IBA', 'ND'], ['TAS', 'NAS'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ND'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS'], ['IDA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['HMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IEP', 'ISS', 'IBA'], ['TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ND'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ND', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ND'], ['IDA', 'IMP', 'ISS', 'ISO', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2752,12 +2752,12 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC38A10', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'CMTM4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'C1R', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'TP53I11', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'PCDH9', 'CCDC80', 'WDR74', 'FBXO4', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'IDI1', 'TLCD2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'NEAT1', 'RSBN1L', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'CGN', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'OPLAH', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'SPINK6', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PGBD5', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CA12', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'CHI3L2', 'PNISR', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'TRABD', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'EFHD2', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'SLC7A2', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'SNHG7', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'ANKRD12', 'TM4SF1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'USP31', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'HELZ', 'DSEL', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'C1orf116', 'TUBA1B', 'TPM2', 'GPCPD1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'C15orf48', 'TGM1', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'SPSB1', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'SAA2', 'ACTB', 'ADD3', 'ANKRD13D', 'TAGLN', 'ZC3H12C', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'PDZK1IP1', 'DLG5', 'DNAJC4', 'RUSC2', 'SNHG3', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'IFI44L', 'SOX9', 'ZBTB16', 'REV3L', 'TP53I3', 'CLDN1', 'TRIM38', 'SLC2A12', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'MRI1', 'FBXW5', 'CKAP2L', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'TMEM139', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'ATP1B1', 'CXCL8', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'USP31', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'MAL2', 'TRAP1', 'RSBN1L', 'SMC4', 'CLDN7', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'SPINK6', 'ITGB5', 'SGK1', 'SLC2A12', 'IFT46', 'TP53I11', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'TMEM139', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'NEAT1', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'SPSB1', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'SLC5A3', 'GSN', 'NUDT1', 'MLXIP', 'VPS13C', 'SUGP2', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'LSR', 'SNHG7', 'SAA1', 'TRABD', 'EFHD2', 'KRT6B', 'SLC2A1', 'KANK4', 'CKAP2L', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'LAD1', 'GAA', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'RSRP1', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'HERC4', 'TLCD2', 'AURKA', 'BIRC3', 'CA12', 'ISG15', 'IFITM2', 'BMP1', 'MRI1', 'SAA2', 'ZBED2', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'CCL20', 'SNHG3', 'C1R', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'PGBD5', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CST6', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'GPR155', 'TP53I3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'DMTF1', 'KRT10', 'DNAJC4', 'ID1', 'IFI44L', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'DSEL', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'C1orf56', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'OPLAH', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'CMTM4', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'MRC2', 'C15orf48', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'AKR1C2', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CKS2', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'SLC7A2', 'ID3', 'ASH1L', 'LAGE3', 'TNFSF14', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'ND', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISA', 'IBA', 'ND', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISO', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['HDA', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'ND'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'ND', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'ND', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'ND', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['HTP'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'ND', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISO', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['ND', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ND', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'ND'], ['IDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2818,12 +2818,12 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMC2', 'BCL6', 'TNFSF14', 'CDH2', 'AKR1C2', 'PLAU', 'TSC2', 'TACSTD2', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'IGFBP7', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'CDKN1C', 'EPPK1', 'PTGES', 'TP53I11', 'IL1A', 'FBXO4', 'FOXC1', 'ACKR3', 'STX3', 'TFRC', 'SGK1', 'MAGED1', 'MMP7', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ERRFI1', 'FN1', 'FAP', 'GPAM', 'SERPINE2', 'GAS6', 'CDK1', 'CD24', 'CCNB1', 'NFKBIZ', 'TACC2', 'RREB1', 'C1orf56', 'NR4A1', 'CKS2', 'TGFBI', 'TIMP1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'FOS', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'RARRES1', 'HES1', 'EPCAM', 'TGM1', 'CDC25B', 'ITGAV', 'CXCL8', 'ACTB', 'F3', 'GLUL', 'CLDN7', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'S100A6', 'DLG5', 'ZFP36', 'FTH1', 'SOX9', 'ZBTB16', 'CLDN1', 'MARCKSL1', 'CCNA2', 'PAK1', 'CXCL1', 'FGFR3']</t>
+          <t>['CCNB1', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'STX3', 'NR4A1', 'ZFP36', 'CLDN7', 'CYR61', 'CDKN1A', 'MMP7', 'SGK1', 'TP53I11', 'TGFBI', 'ZBTB16', 'FGFR3', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'ADGRG1', 'CCNA2', 'PLAU', 'CLDN1', 'TGM1', 'PTGES', 'CDH2', 'ANXA1', 'RREB1', 'SOD2', 'TIMP1', 'SDC4', 'LTBP3', 'PDGFB', 'HES1', 'FBXO4', 'DLG5', 'MARCKSL1', 'IGFBP3', 'SOX9', 'MMP9', 'TNC', 'SPHK1', 'EPCAM', 'FERMT2', 'IGFBP7', 'ATF3', 'S100A11', 'CDKN1C', 'NOTCH1', 'F3', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'ACKR3', 'CXCL1', 'ERRFI1', 'AKR1C3', 'SOX4', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'FTH1', 'ALOX15B', 'C1orf56', 'CDC25B', 'FOS', 'RARRES1', 'ACTB', 'WWC1', 'S100A6', 'TSC2', 'N4BP2L2', 'CNTNAP2', 'AKR1C2', 'FN1', 'CKS2', 'GPAM', 'FAP', 'EPPK1', 'TACC2', 'TFRC', 'EPHA2', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['TAS'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IBA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['NAS'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IGI', 'IEA'], ['NAS'], ['IMP', 'TAS'], ['IMP'], ['IDA', 'ISS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IMP', 'IGI', 'TAS', 'IEA']]</t>
+          <t>[['IEA'], ['TAS'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'TAS'], ['IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IMP'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['NAS'], ['IMP'], ['NAS'], ['ISS'], ['IMP'], ['IDA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2884,12 +2884,12 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMB3', 'LAMC2', 'KRT6B', 'MAL2', 'KRT17', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'TUBB3', 'DST', 'MFAP5', 'IGFBP7', 'TUBA4A', 'EPPK1', 'TUBB4B', 'LAD1', 'COPE', 'FN1', 'KRT16', 'LAMB2', 'COL7A1', 'EVPL', 'TPM4', 'CSRP1', 'TGFBI', 'CYR61', 'KRT8', 'KRT14', 'TNC', 'KRT81', 'TUBA1B', 'TPM2', 'SORBS3', 'MYL9', 'CLDN4', 'ACTB', 'ADD3', 'CLDN7', 'VIM', 'CLDN1', 'KRT10', 'LAMA3', 'COL4A1']</t>
+          <t>['LAMA3', 'ADD3', 'MAL2', 'CLDN7', 'CYR61', 'SORBS3', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'TUBA4A', 'CLDN1', 'EVPL', 'CSRP1', 'KRT6B', 'LAD1', 'LAMB3', 'TUBB3', 'KRT15', 'TPM2', 'TNC', 'KRT14', 'IGFBP7', 'TPM4', 'MFAP5', 'KRT5', 'TPM1', 'LAMB2', 'MYL9', 'KRT81', 'TUBA1B', 'KRT10', 'TUBB4B', 'CLDN4', 'TUBA1A', 'ACTB', 'KRT8', 'KRT17', 'VIM', 'KRT16', 'FN1', 'COL7A1', 'EPPK1', 'COPE', 'COL4A1']</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[['TAS'], ['RCA', 'NAS'], ['RCA'], ['IBA', 'TAS'], ['IBA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'RCA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['RCA', 'TAS'], ['RCA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA', 'ISS', 'RCA'], ['NAS', 'IEA'], ['ISS', 'RCA', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'RCA'], ['IBA', 'TAS'], ['TAS'], ['IBA', 'IEA'], ['ISS', 'RCA'], ['RCA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'RCA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['EXP', 'IDA', 'IMP', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['RCA', 'NAS'], ['IMP', 'HDA', 'IBA', 'RCA', 'IEA']]</t>
+          <t>[['RCA', 'NAS'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['RCA'], ['TAS'], ['IDA', 'RCA'], ['ISS', 'RCA'], ['IBA'], ['HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['RCA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA', 'IEA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['RCA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['ISS', 'RCA'], ['TAS', 'IEA'], ['RCA'], ['TAS'], ['RCA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'RCA', 'NAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'IBA', 'TAS'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['HDA', 'ISS', 'RCA'], ['HDA', 'ISS', 'IBA', 'RCA'], ['IBA'], ['IEA'], ['IMP', 'HDA', 'IBA', 'RCA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -2950,12 +2950,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['TPM1', 'PLAU', 'ITGA5', 'DST', 'ANXA1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'ITGB6', 'PLAUR', 'SDC4', 'FN1', 'FAP', 'SERPINE2', 'PHLDB2', 'GAS6', 'RREB1', 'EVPL', 'ENTPD2', 'CSRP1', 'GRHL3', 'TIMP1', 'CYR61', 'ITGB5', 'CDKN1A', 'FERMT2', 'SAA1', 'MYL9', 'CLDN4', 'ITGAV', 'ACTB', 'F3', 'CLDN1', 'PAK1', 'SERPINE1']</t>
+          <t>['PAK1', 'SERPINE2', 'IL1A', 'PHLDB2', 'ITGA5', 'CYR61', 'CDKN1A', 'ITGB5', 'DST', 'FLNA', 'GRHL3', 'SERPINE1', 'PLAU', 'CLDN1', 'EVPL', 'ANXA1', 'RREB1', 'CSRP1', 'SAA1', 'TIMP1', 'SDC4', 'ITGB6', 'PDGFB', 'FERMT2', 'F3', 'PLAUR', 'TPM1', 'MYL9', 'GAS6', 'ITGAV', 'ENTPD2', 'CLDN4', 'ACTB', 'FN1', 'FAP', 'EPPK1']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEP', 'NAS'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'NAS'], ['IDA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IEA'], ['IEA'], ['IC'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IBA'], ['IEA'], ['HMP'], ['IEA'], ['IEA'], ['IDA'], ['NAS'], ['IEA'], ['IMP'], ['NAS'], ['HMP', 'IEA'], ['IMP'], ['NAS'], ['HMP'], ['IDA', 'IC', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC']]</t>
+          <t>[['IMP'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IMP'], ['IEP', 'NAS'], ['IDA'], ['IEA'], ['NAS'], ['IBA'], ['IDA', 'HMP', 'NAS'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['HMP'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IC', 'IEA'], ['TAS', 'NAS'], ['ISS'], ['HMP', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IMP'], ['HMP'], ['IEA'], ['IC'], ['IMP', 'IBA']]</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'CCL20', 'ICAM1', 'KRT5', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'ABL2', 'ACKR3', 'SGK1', 'MMP7', 'ALOX15B', 'SDC4', 'FN1', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'CARD10', 'RREB1', 'CDH1', 'NISCH', 'TIMP1', 'SPHK1', 'CYR61', 'PTGS2', 'CXCL16', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'SOX9', 'CLDN1', 'LAMA3', 'PAK1', 'SERPINE1', 'LRP1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'PAK1', 'SERPINE2', 'IL1A', 'PHLDB2', 'CXCL16', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'PLAU', 'NISCH', 'CLDN1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'TIMP1', 'SDC4', 'PDGFB', 'DLG5', 'STMN1', 'LRP1', 'IGFBP3', 'SOX9', 'MMP9', 'CCL20', 'TNC', 'SPHK1', 'FERMT2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TPM1', 'TACSTD2', 'ACKR3', 'GAS6', 'ITGAV', 'CITED2', 'ALOX15B', 'CLDN4', 'TMSB4X', 'KRT16', 'FN1', 'CDH1', 'EPPK1', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['ISS'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['ISS'], ['IEA'], ['TAS'], ['IDA'], ['TAS'], ['IEA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['TAS'], ['IDA'], ['NAS'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'IMP'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['NAS'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['TAS'], ['IMP'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -3082,12 +3082,12 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMC2', 'BCL6', 'CDH2', 'AKR1C2', 'PLAU', 'TSC2', 'TACSTD2', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'IGFBP7', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'PDGFB', 'CDKN1C', 'EPPK1', 'PTGES', 'TP53I11', 'IL1A', 'FBXO4', 'ACKR3', 'STX3', 'TFRC', 'SGK1', 'MAGED1', 'MMP7', 'N4BP2L2', 'ALOX15B', 'SDC4', 'FN1', 'FAP', 'GPAM', 'SERPINE2', 'GAS6', 'CDK1', 'CD24', 'CCNB1', 'RREB1', 'C1orf56', 'NR4A1', 'TIMP1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'RARRES1', 'HES1', 'EPCAM', 'TGM1', 'CDC25B', 'ITGAV', 'CXCL8', 'ACTB', 'F3', 'CLDN7', 'WWC1', 'MMP9', 'IGFBP3', 'S100A6', 'DLG5', 'ZFP36', 'FTH1', 'SOX9', 'ZBTB16', 'CLDN1', 'MARCKSL1', 'CCNA2', 'PAK1', 'CXCL1', 'FGFR3']</t>
+          <t>['CCNB1', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'IL1A', 'STX3', 'NR4A1', 'ZFP36', 'CLDN7', 'CYR61', 'CDKN1A', 'MMP7', 'SGK1', 'TP53I11', 'ZBTB16', 'FGFR3', 'FLNA', 'CD24', 'LAMC2', 'ADGRG1', 'CCNA2', 'PLAU', 'CLDN1', 'TGM1', 'PTGES', 'CDH2', 'ANXA1', 'RREB1', 'SOD2', 'TIMP1', 'SDC4', 'LTBP3', 'PDGFB', 'HES1', 'FBXO4', 'DLG5', 'MARCKSL1', 'IGFBP3', 'SOX9', 'MMP9', 'TNC', 'SPHK1', 'EPCAM', 'FERMT2', 'IGFBP7', 'ATF3', 'S100A11', 'CDKN1C', 'NOTCH1', 'F3', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'ACKR3', 'CXCL1', 'AKR1C3', 'SOX4', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'FTH1', 'ALOX15B', 'C1orf56', 'CDC25B', 'RARRES1', 'ACTB', 'WWC1', 'S100A6', 'TSC2', 'N4BP2L2', 'AKR1C2', 'FN1', 'GPAM', 'FAP', 'EPPK1', 'TFRC', 'PIM1']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['TAS'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IMP'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['NAS'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IGI'], ['NAS'], ['IMP', 'TAS'], ['IMP'], ['IDA', 'ISS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IMP', 'IGI', 'IEA']]</t>
+          <t>[['IEA'], ['TAS'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'TAS'], ['IEA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IMP'], ['IMP'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IDA', 'IMP'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['NAS'], ['IMP'], ['NAS'], ['ISS'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IDA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3148,12 +3148,12 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['KRT6B', 'KRT17', 'KRT5', 'NOTCH1', 'ANXA1', 'IL1A', 'FOXC1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'NFKBIZ', 'SCEL', 'CSTA', 'KLK5', 'EVPL', 'AKR1C3', 'KRT14', 'CDKN1A', 'KRT81', 'TGM1', 'EPHA2', 'ZFP36', 'KRT10', 'ZBED2', 'MAFB']</t>
+          <t>['FOXC1', 'IL1A', 'ZFP36', 'CDKN1A', 'SCEL', 'PALLD', 'TGM1', 'EVPL', 'ANXA1', 'KRT6B', 'ZBED2', 'KRT14', 'KRT5', 'NOTCH1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KRT81', 'KRT10', 'NFKBIZ', 'ALOX15B', 'CSTA', 'KRT17', 'MAFB', 'KRT16', 'EPHA2']</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[['IBA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IEP'], ['IMP'], ['IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IMP'], ['IEA'], ['IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IBA'], ['IEP'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -3214,12 +3214,12 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'ELF3', 'ICAM1', 'KRT17', 'NET1', 'KMT2B', 'SUCO', 'AKR1C2', 'PLAU', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'CDC20', 'SLC5A3', 'PIEZO1', 'CTSV', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'CDKN1C', 'OAZ2', 'MGMT', 'PTGES', 'SCD', 'IL1A', 'ABL2', 'HEATR1', 'CCDC80', 'FBXO4', 'GADD45B', 'FOXC1', 'ACKR3', 'LDLR', 'STX3', 'TFRC', 'ISG15', 'DKK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'MALAT1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'VMP1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'MUC1', 'WDR59', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'MACC1', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'SNAP47', 'ALDH1A3', 'C3', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'CRB3', 'NR4A1', 'SLC26A6', 'MFI2', 'GSN', 'BCL2L11', 'ACSL1', 'GRHL3', 'TIMP1', 'MTA1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'GPR155', 'S100A8', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'STAU2', 'BCL3', 'HES1', 'IER3', 'SAA1', 'RGS2', 'EPCAM', 'SORBS3', 'TGM1', 'MADD', 'CDC25B', 'SUN2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'ADD3', 'F3', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'S100A6', 'DLG5', 'ZFP36', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'TRIM38', 'PNPLA2', 'AMIGO2', 'MARCKSL1', 'CDC42EP1', 'TMEM132A', 'CCNA2', 'TMEM259', 'AURKA', 'SMC4', 'PAK1', 'ZBED2', 'SERPINE1', 'MLXIP', 'LRP1', 'RDH10', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'TMSB4X', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['CCNB1', 'ATP1B1', 'CXCL8', 'CCDC80', 'ADD3', 'PAK1', 'KATNBL1', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'SMC4', 'CLDN7', 'ITGA5', 'SCD', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'SEMA3C', 'MADD', 'STK25', 'PQBP1', 'ZBTB16', 'FGFR3', 'SCEL', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'PLAU', 'TMEM259', 'CLDN1', 'CASP2', 'TGM1', 'PTGES', 'LPIN1', 'CDH2', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'MLXIP', 'ANXA3', 'SAA1', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LTBP3', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'NMU', 'DLG5', 'AURKA', 'BIRC3', 'ISG15', 'ZBED2', 'LRP1', 'MARCKSL1', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'CCL20', 'KMT2B', 'TNC', 'HEATR1', 'SPHK1', 'EPCAM', 'VMP1', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'MME', 'S100A11', 'CDKN1C', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'PHLDB1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'LAMB2', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'MALAT1', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'ALOX15B', 'KLF6', 'CDC25B', 'CLDN4', 'ALDH1A3', 'FOS', 'OAZ2', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'WDR59', 'N4BP2L2', 'VIM', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'ADIRF', 'AKR1C2', 'PIEZO1', 'TRIM56', 'FN1', 'CDH1', 'GPAM', 'MGMT', 'FAP', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'NET1', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IMP'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IGI'], ['IDA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IGI'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IMP'], ['IMP', 'IGI'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISO', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'NAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'TAS'], ['IMP', 'IGI'], ['IDA', 'NAS'], ['IEA'], ['IDA', 'IMP', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IMP'], ['IDA', 'IMP'], ['IMP', 'IGI', 'ISS'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'IEA'], ['IDA', 'IGI', 'ISS'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IMP', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IGI', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IBA'], ['ISO', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP'], ['IGI', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['ISS', 'NAS', 'IEA'], ['ISS'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IGI'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['NAS'], ['IGI'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'ISS', 'IBA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'PQBP1', 'BCL6', 'TNFSF14', 'CDH2', 'KRT6B', 'ELF3', 'ICAM1', 'KRT17', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'TUBA1A', 'COL4A2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'TCOF1', 'PIEZO1', 'HERC4', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'RRBP1', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'ITGB6', 'GADD45B', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ADIRF', 'PALLD', 'ERRFI1', 'FN1', 'KRT16', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CDK1', 'CD24', 'NFKBIZ', 'UBD', 'SCEL', 'CSTA', 'COL7A1', 'C3', 'RREB1', 'DLK2', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'SLC26A6', 'TPM4', 'CSRP1', 'TGFBI', 'MTA1', 'LBH', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'TAOK3', 'UQCC2', 'KRT8', 'ITGB5', 'FOS', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'STAU2', 'BCL3', 'HES1', 'BMP1', 'KRT81', 'RGS2', 'EPCAM', 'TGM1', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'ITGAV', 'PHLDB1', 'ACTB', 'TAGLN', 'EPHA2', 'MMP9', 'IGFBP3', 'HES2', 'S100A6', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'KRT10', 'ID1', 'LAMA3', 'COL4A1', 'AURKA', 'PAK1', 'ZBED2', 'PDLIM7', 'SERPINE1', 'LRP1', 'RDH10', 'EHF', 'S100A4', 'FGFR3', 'CENPF', 'MAFB', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'PAK1', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'ITGA5', 'CYR61', 'CDKN1A', 'SEMA3C', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'SCEL', 'COL4A2', 'FLNA', 'CD24', 'EHF', 'SUCO', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'ADGRG1', 'UNC5B', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'CCM2', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'CSRP1', 'LSR', 'KRT6B', 'UBD', 'SOD2', 'SDC4', 'ITGB6', 'LTBP3', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'TUBB3', 'KRT15', 'IGFBP3', 'TAGLN', 'SOX9', 'MMP9', 'S100A8', 'TNC', 'KRT14', 'EPCAM', 'FERMT2', 'TPM4', 'ATF3', 'LGALS1', 'MFAP5', 'MME', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'RRBP1', 'MYO1E', 'PTGS2', 'TPM1', 'TACSTD2', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'KRT10', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'ALOX15B', 'KLF6', 'HES2', 'CSTA', 'CDC25B', 'FOS', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'KRT8', 'KRT17', 'S100A6', 'MAFB', 'MRC2', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'AKR1C2', 'PIEZO1', 'FN1', 'CDH1', 'COL7A1', 'TFRC', 'RDH10', 'EPHA2', 'ID3', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IGI'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['ISS', 'NAS'], ['IDA', 'ISS'], ['HDA'], ['IBA', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['HDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IBA', 'IEA'], ['HDA', 'ISO', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IBA', 'NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEP', 'IBA'], ['IBA'], ['IEP'], ['IEA'], ['IEA'], ['ISS', 'IBA'], ['IMP'], ['IEA'], ['IDA'], ['ISS'], ['IEA'], ['IEP'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['IEP'], ['ISS', 'IBA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IEP'], ['NAS', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IGI'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'IEA'], ['NAS'], ['IDA', 'ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['HDA', 'ISO', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IGI'], ['IBA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEP', 'IBA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['NAS'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'NAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'PQBP1', 'BCL6', 'TNFSF14', 'CDH2', 'KRT6B', 'ELF3', 'ICAM1', 'KRT17', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'TUBA1A', 'COL4A2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'TCOF1', 'PIEZO1', 'HERC4', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'RRBP1', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'ITGB6', 'GADD45B', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ADIRF', 'PALLD', 'ERRFI1', 'FN1', 'KRT16', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CDK1', 'CD24', 'NFKBIZ', 'UBD', 'SCEL', 'CSTA', 'COL7A1', 'C3', 'RREB1', 'DLK2', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'SLC26A6', 'TPM4', 'CSRP1', 'TGFBI', 'MTA1', 'LBH', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'TAOK3', 'UQCC2', 'KRT8', 'ITGB5', 'FOS', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'STAU2', 'BCL3', 'HES1', 'BMP1', 'KRT81', 'RGS2', 'EPCAM', 'TGM1', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'ITGAV', 'PHLDB1', 'ACTB', 'TAGLN', 'EPHA2', 'MMP9', 'IGFBP3', 'HES2', 'S100A6', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'KRT10', 'ID1', 'LAMA3', 'COL4A1', 'AURKA', 'PAK1', 'ZBED2', 'PDLIM7', 'SERPINE1', 'LRP1', 'RDH10', 'EHF', 'S100A4', 'FGFR3', 'CENPF', 'MAFB', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'PAK1', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'ITGA5', 'CYR61', 'CDKN1A', 'SEMA3C', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'SCEL', 'COL4A2', 'FLNA', 'CD24', 'EHF', 'SUCO', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'ADGRG1', 'UNC5B', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'CCM2', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'CSRP1', 'LSR', 'KRT6B', 'UBD', 'SOD2', 'SDC4', 'ITGB6', 'LTBP3', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'TUBB3', 'KRT15', 'IGFBP3', 'TAGLN', 'SOX9', 'MMP9', 'S100A8', 'TNC', 'KRT14', 'EPCAM', 'FERMT2', 'TPM4', 'ATF3', 'LGALS1', 'MFAP5', 'MME', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'RRBP1', 'MYO1E', 'PTGS2', 'TPM1', 'TACSTD2', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'KRT10', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'ALOX15B', 'KLF6', 'HES2', 'CSTA', 'CDC25B', 'FOS', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'KRT8', 'KRT17', 'S100A6', 'MAFB', 'MRC2', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'AKR1C2', 'PIEZO1', 'FN1', 'CDH1', 'COL7A1', 'TFRC', 'RDH10', 'EPHA2', 'ID3', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IGI'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['ISS', 'NAS'], ['IDA', 'ISS'], ['HDA'], ['IBA', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['HDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IBA', 'IEA'], ['HDA', 'ISO', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IBA', 'NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEP', 'IBA'], ['IBA'], ['IEP'], ['IEA'], ['IEA'], ['ISS', 'IBA'], ['IMP'], ['IEA'], ['IDA'], ['ISS'], ['IEA'], ['IEP'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['IEP'], ['ISS', 'IBA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IEP'], ['NAS', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IGI'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'IEA'], ['NAS'], ['IDA', 'ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['HDA', 'ISO', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IGI'], ['IBA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEP', 'IBA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['NAS'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'NAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -3412,12 +3412,12 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['KRT6B', 'KRT17', 'KRT5', 'NOTCH1', 'ANXA1', 'IL1A', 'LSR', 'ITGB6', 'FOXC1', 'DKK1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'NFKBIZ', 'SCEL', 'CSTA', 'KLK5', 'EVPL', 'GRHL3', 'AKR1C3', 'KRT14', 'CDKN1A', 'KRT81', 'TGM1', 'STMN1', 'CLDN4', 'EPHA2', 'ZFP36', 'SOX9', 'CLDN1', 'KRT10', 'ZBED2', 'ASH1L', 'MAFB']</t>
+          <t>['FOXC1', 'IL1A', 'ZFP36', 'CDKN1A', 'SCEL', 'GRHL3', 'CLDN1', 'PALLD', 'TGM1', 'EVPL', 'ANXA1', 'LSR', 'KRT6B', 'ITGB6', 'STMN1', 'ZBED2', 'SOX9', 'KRT14', 'KRT5', 'NOTCH1', 'DKK1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KRT81', 'KRT10', 'NFKBIZ', 'ALOX15B', 'CSTA', 'CLDN4', 'KRT17', 'MAFB', 'KRT16', 'EPHA2', 'ASH1L']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[['IBA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEP'], ['IMP'], ['IEA'], ['IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IBA'], ['IEP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -3478,12 +3478,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'PQBP1', 'BCL6', 'CDH2', 'ELF3', 'MAL2', 'KRT17', 'TUBA1A', 'RBBP6', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'YEATS2', 'SLC38A10', 'SLC5A3', 'TCOF1', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'IL1RN', 'PCDH9', 'WDR74', 'ITGB6', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'MAGED1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'PALLD', 'VMP1', 'ERRFI1', 'FN1', 'FAP', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'SCEL', 'ALDH1A3', 'COL7A1', 'TACC2', 'C3', 'IGF2BP3', 'CDH1', 'NR4A1', 'GSN', 'BCL2L11', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'SPHK1', 'TM4SF1', 'CYR61', 'AKR1C3', 'ADNP2', 'PTGS2', 'S100A8', 'TAOK3', 'KRT8', 'ITGB5', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'STAU2', 'BCL3', 'HES1', 'BMP1', 'RGS2', 'EPCAM', 'STMN1', 'SUN2', 'ANKRD11', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'F3', 'GLUL', 'EPHA2', 'MMP9', 'VPS51', 'HES2', 'S100A6', 'DLG5', 'ZFP36', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'SLC2A12', 'AMIGO2', 'ID1', 'MARCKSL1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'AURKA', 'PAK1', 'ZBED2', 'PDLIM7', 'SERPINE1', 'LRP1', 'RDH10', 'CXCL1', 'ASH1L', 'FGFR3', 'CENPF', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'ANKRD11', 'CXCL8', 'PAK1', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'GJA5', 'MAL2', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'SGK1', 'SLC2A12', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'SCEL', 'COL4A2', 'FLNA', 'GRHL3', 'CD24', 'AMIGO2', 'GLUL', 'ABL2', 'CDC20', 'SERPINE1', 'ADGRG1', 'UNC5B', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'CCM2', 'LPIN1', 'CDH2', 'ANXA1', 'SLC5A3', 'GSN', 'NUDT1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'GAA', 'LTBP3', 'LAMB3', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'AURKA', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'TUBB3', 'MARCKSL1', 'VPS51', 'SOX9', 'MMP9', 'S100A8', 'TNC', 'IL1RN', 'SPHK1', 'EPCAM', 'VMP1', 'PDLIM4', 'BCL2L11', 'FERMT2', 'IGFBP7', 'LGALS1', 'CARD10', 'MFAP5', 'MME', 'ANGPTL4', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'WDR74', 'MYO1E', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'CXCL1', 'TCOF1', 'PHLDB1', 'ERRFI1', 'AKR1C3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'CITED2', 'ALOX15B', 'HES2', 'ALDH1A3', 'FOS', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'RBBP6', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'MAFB', 'N4BP2L2', 'VIM', 'CNTNAP2', 'IGF2BP3', 'FN1', 'CDH1', 'COL7A1', 'FAP', 'TACC2', 'TFRC', 'RDH10', 'EPHA2', 'ID3', 'ASH1L', 'PIM1', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'ISO', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IGI'], ['IDA'], ['IDA', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IBA'], ['ISS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEP'], ['IEA'], ['ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IMP', 'IGI'], ['HEP', 'IBA', 'NAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IDA'], ['IBA'], ['NAS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['TAS'], ['IBA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'TAS'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IBA'], ['IEA'], ['IEP', 'IEA'], ['IMP'], ['IDA', 'IEP', 'TAS'], ['IMP', 'ISS', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IGI'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['IEA'], ['IBA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IDA', 'ISS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IEA'], ['ISO', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IBA'], ['IGI', 'IEP', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IMP', 'TAS'], ['IMP', 'IGI'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['HEP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['ISS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEP'], ['IEA'], ['IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'ISO', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'REL', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'SLC46A3', 'SLC38A10', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'OAZ2', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'HEATR1', 'IL1RN', 'FBXO4', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'IDI1', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'TUBB4B', 'OPLAH', 'ALOX15B', 'SDC4', 'ADIRF', 'ALDH3B1', 'PALLD', 'VMP1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'DCAF5', 'SERPINE2', 'LAMB2', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'CDK1', 'CCNB1', 'TPST1', 'NFKBIZ', 'PNISR', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'TRABD', 'GALNT6', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'NR4A1', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'TIMM17B', 'TGFBI', 'SELENBP1', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'ANKRD12', 'CYR61', 'AKR1C3', 'CYTH2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'HELZ', 'DSEL', 'STAU2', 'BCL3', 'HES1', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'C1orf116', 'TUBA1B', 'TPM2', 'GPCPD1', 'RGS2', 'SORBS3', 'C15orf48', 'TGM1', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'SPSB1', 'ANKRD11', 'ITGAV', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'TAGLN', 'ZC3H12C', 'GLUL', 'DSC2', 'GBP1', 'TRIM56', 'WWC1', 'MMP9', 'IGFBP3', 'VPS51', 'CCNF', 'IFITM2', 'S100A6', 'DLG5', 'RUSC2', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'VIM', 'FTH1', 'IFI44L', 'ZBTB16', 'TP53I3', 'TRIM38', 'SLC2A12', 'PNPLA2', 'MT1X', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'MRI1', 'FBXW5', 'CKAP2L', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'GALNT6', 'ADD3', 'PAK1', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'HELZ', 'MAL2', 'TRAP1', 'SMC4', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'CYR61', 'CDKN1A', 'SORBS3', 'PXDN', 'MADD', 'STK25', 'ITGB5', 'SGK1', 'SLC2A12', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'CCNA2', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'SPSB1', 'DDIT4', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'NUDT1', 'MLXIP', 'VPS13C', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'SAA1', 'TRABD', 'KRT6B', 'SLC2A1', 'KANK4', 'CKAP2L', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'GAA', 'PIGQ', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'P4HB', 'TNNI2', 'FBXO4', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'MRI1', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'TUBB3', 'ACOX3', 'MARCKSL1', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'IGFBP3', 'TAGLN', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'SLC46A3', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'CTSV', 'LGALS1', 'CARD10', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'CDKN1C', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'FTL', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'C1orf116', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'GPR155', 'TP53I3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'TUBA1B', 'DMTF1', 'KRT10', 'ID1', 'IFI44L', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'DSEL', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'ALDH1A3', 'DNAJC15', 'FOS', 'OPLAH', 'B4GALT5', 'OAZ2', 'TUBA1A', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'MACC1', 'C15orf48', 'WDR59', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'AKR1C2', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'GPAM', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'SERPINA3', 'NET1', 'COPE', 'ID3', 'ASH1L', 'LAGE3', 'TNFSF14', 'PIM1', 'ZC3H12C', 'COL4A1']</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['ISS', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IC', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['HTP'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMB3', 'BCL6', 'TNFSF14', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'PIM1', 'NOTCH1', 'TCOF1', 'IGFBP7', 'ANXA1', 'ADGRG1', 'FLNA', 'IL1A', 'WDR74', 'ITGB6', 'FOXC1', 'ACKR3', 'CCM2', 'DKK1', 'SDC4', 'FN1', 'FAP', 'UNC5B', 'PHLDB2', 'CARD10', 'GJA5', 'ALDH1A3', 'COL7A1', 'C3', 'KLK5', 'NR4A1', 'TPM4', 'CSRP1', 'BCL2L11', 'GRHL3', 'TGFBI', 'SPHK1', 'TM4SF1', 'CYR61', 'PTGS2', 'KRT8', 'ITGB5', 'CITED2', 'BCL3', 'HES1', 'MYL9', 'ITGAV', 'CXCL8', 'PHLDB1', 'F3', 'GLUL', 'EPHA2', 'MMP9', 'SOX9', 'ID1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'RDH10', 'MAFB']</t>
+          <t>['LAMA3', 'CXCL8', 'BCL3', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'PHLDB2', 'GJA5', 'ITGA5', 'CYR61', 'PXDN', 'SEMA3C', 'ITGB5', 'TGFBI', 'COL4A2', 'FLNA', 'GRHL3', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CCM2', 'ANXA1', 'CSRP1', 'ANXA3', 'SDC4', 'TM4SF1', 'ITGB6', 'LAMB3', 'HES1', 'SOX9', 'MMP9', 'SPHK1', 'BCL2L11', 'IGFBP7', 'TPM4', 'CARD10', 'ANGPTL4', 'NOTCH1', 'F3', 'WDR74', 'PTGS2', 'TPM1', 'ACKR3', 'DKK1', 'TCOF1', 'PHLDB1', 'KLK5', 'MYL9', 'ID1', 'BCL6', 'ITGAV', 'CITED2', 'ALDH1A3', 'KRT8', 'TSC2', 'MAFB', 'FN1', 'COL7A1', 'FAP', 'RDH10', 'EPHA2', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEP'], ['NAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP'], ['ISS'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IGI'], ['IMP'], ['IMP', 'IEP'], ['IEA'], ['IEP'], ['IEA'], ['IBA'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IMP', 'IGI'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['TAS'], ['IEP'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IEA'], ['ISS', 'IEA']]</t>
+          <t>[['IEP'], ['IDA', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IGI'], ['IMP', 'IEP'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEP'], ['IEP'], ['IDA', 'IEP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['IBA'], ['IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,12 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'PQBP1', 'BCL6', 'TNFSF14', 'CDH2', 'CCL20', 'REL', 'IVNS1ABP', 'KRT5', 'TUBA1A', 'PLAU', 'TSC2', 'ANXA3', 'SEMA3C', 'PIM1', 'NOTCH1', 'PIEZO1', 'ANXA1', 'FLNA', 'CNTNAP2', 'PDGFB', 'C1R', 'EPPK1', 'PTGES', 'IL1A', 'DDIT4', 'CCDC80', 'ITGB6', 'ACKR3', 'LDLR', 'STX3', 'ISG15', 'FOSB', 'PLAUR', 'MMP7', 'TUBB4B', 'C1RL', 'ATP1B1', 'CAMK2N1', 'SPIRE1', 'SLPI', 'FAP', 'GPAM', 'KRT16', 'SERPINE2', 'PHLDB2', 'LGALS1', 'GAS6', 'BIRC3', 'CD24', 'NFKBIZ', 'UBD', 'SCEL', 'ALDH1A3', 'C3', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'SLC26A6', 'GSN', 'MTA1', 'SPHK1', 'CYR61', 'PTGS2', 'S100A8', 'CXCL16', 'KRT8', 'FOS', 'TNC', 'CASP2', 'CITED2', 'SOD2', 'CCL28', 'BCL3', 'IER3', 'SAA1', 'C15orf48', 'STMN1', 'ITGAV', 'CXCL8', 'F3', 'GBP1', 'TRIM56', 'EPHA2', 'MMP9', 'IFITM2', 'ZFP36', 'LOX', 'VIM', 'IFI44L', 'SOX9', 'CLDN1', 'TRIM38', 'PAK1', 'SERPINE1', 'CXCL1', 'ASH1L', 'S100A4', 'LETMD1', 'TMSB4X']</t>
+          <t>['ATP1B1', 'CXCL8', 'CCDC80', 'PAK1', 'SERPINE2', 'BCL3', 'C1RL', 'IL1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'SLPI', 'CYR61', 'MMP7', 'SEMA3C', 'PQBP1', 'SCEL', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'SPIRE1', 'SERPINE1', 'PLAU', 'DDIT4', 'CLDN1', 'CASP2', 'PTGES', 'CDH2', 'EVPL', 'ANXA1', 'GSN', 'ANXA3', 'SAA1', 'SLC2A1', 'UBD', 'SOD2', 'ITGB6', 'MTA1', 'PDGFB', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'SOX9', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'TNC', 'SPHK1', 'REL', 'FOSB', 'LGALS1', 'KRT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'PTGS2', 'ACKR3', 'CXCL1', 'KLK5', 'IFI44L', 'IVNS1ABP', 'BCL6', 'GAS6', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'TUBB4B', 'ALDH1A3', 'FOS', 'TUBA1A', 'LOX', 'LDLR', 'S100A4', 'TMSB4X', 'KRT8', 'TSC2', 'C15orf48', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'PIEZO1', 'TRIM56', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'EPPK1', 'EPHA2', 'ASH1L', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IEP', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IMP', 'TAS'], ['ISS'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA'], ['IBA'], ['IDA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IEA'], ['TAS', 'NAS'], ['IEA'], ['NAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IC'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP'], ['IDA'], ['IDA'], ['TAS'], ['ISS'], ['IMP', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['ISO', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IEA'], ['IEP'], ['IMP'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IC'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP']]</t>
+          <t>[['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IEP'], ['IBA', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEP'], ['TAS'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA'], ['ISS'], ['IDA', 'IEA'], ['IC'], ['TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IEA'], ['IMP', 'TAS'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['ISS'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IC'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -3742,12 +3742,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'SLC2A1', 'TNNI2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'MYH10', 'CDH2', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC38A10', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'WDR74', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'IDI1', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'NEAT1', 'RSBN1L', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'CGN', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PGBD5', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'DCAF5', 'SERPINE2', 'LAMB2', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'PNISR', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'TRABD', 'GALNT6', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'NR4A1', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'SNHG7', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'ANKRD12', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'UQCC2', 'USP31', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'HELZ', 'DSEL', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'C1orf116', 'TUBA1B', 'TPM2', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'C15orf48', 'TGM1', 'IFT46', 'TRAP1', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'ANKRD11', 'ITGAV', 'PHLDB1', 'SAA2', 'ACTB', 'ADD3', 'ANKRD13D', 'ZC3H12C', 'GLUL', 'DSC2', 'GBP1', 'WWC1', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'PDZK1IP1', 'DLG5', 'RUSC2', 'SNHG3', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'VIM', 'FTH1', 'SOX9', 'ZBTB16', 'REV3L', 'TRIM38', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'MRI1', 'CKAP2L', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'ATP1B1', 'GALNT6', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'USP31', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'HELZ', 'MAL2', 'TRAP1', 'RSBN1L', 'SMC4', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'SGK1', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'SUCO', 'AMIGO2', 'NEAT1', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'DDIT4', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'GSN', 'NUDT1', 'MLXIP', 'VPS13C', 'SUGP2', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'LSR', 'SNHG7', 'SAA1', 'TRABD', 'KRT6B', 'SLC2A1', 'KANK4', 'CKAP2L', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'ITGB6', 'LAD1', 'GAA', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'RSRP1', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'MRI1', 'SAA2', 'ZBED2', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'VPS51', 'KRT15', 'IGFBP3', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'SNHG3', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'MME', 'S100A11', 'MAGOH', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'SUN2', 'STAU2', 'NOTCH1', 'PGBD5', 'FTL', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CST6', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'GPR155', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'DMTF1', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'DSEL', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'ALDH1A3', 'DNAJC15', 'FOS', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'C15orf48', 'WDR59', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'PIEZO1', 'CYTH2', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'SERPINA3', 'NET1', 'COPE', 'ID3', 'ASH1L', 'LAGE3', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HTP', 'IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['HDA'], ['IBA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IC', 'IEA'], ['IDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'HDA'], ['HDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['TAS'], ['IDA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA'], ['TAS'], ['ISA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['HDA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['HDA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IBA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'TAS'], ['HTP'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA'], ['ISA', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'HDA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['EXP', 'IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -3808,12 +3808,12 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'KRT17', 'SUCO', 'COL4A2', 'ANXA3', 'ITGA5', 'TACSTD2', 'PIM1', 'NOTCH1', 'CDC20', 'YEATS2', 'PIEZO1', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'FOXC1', 'LDLR', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'MAGED1', 'N4BP2L2', 'ALOX15B', 'ADIRF', 'SPIRE1', 'ERRFI1', 'FN1', 'GPAM', 'SERPINE2', 'LAMB2', 'PHLDB2', 'LGALS1', 'GAS6', 'CDK1', 'CD24', 'NFKBIZ', 'C3', 'RREB1', 'DLK2', 'CDH1', 'BCL2L11', 'MTA1', 'LBH', 'SPHK1', 'CYR61', 'PTGS2', 'BAMBI', 'UQCC2', 'FOS', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'STAU2', 'HES1', 'BMP1', 'RGS2', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'F3', 'GLUL', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'HES2', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'SOX9', 'ZBTB16', 'AMIGO2', 'KRT10', 'CDC42EP1', 'LAMA3', 'ANGPTL4', 'AURKA', 'PAK1', 'ZBED2', 'SERPINE1', 'FGFR3', 'CENPF', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['LAMA3', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'ZFP36', 'PHLDB2', 'ITGA5', 'CYR61', 'CDKN1A', 'STK25', 'DLK2', 'PQBP1', 'ZBTB16', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'MYH10', 'SUCO', 'AMIGO2', 'GLUL', 'SPIRE1', 'CDC20', 'SERPINE1', 'CCM2', 'LPIN1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'LTBP3', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'AURKA', 'ISG15', 'BMP1', 'ZBED2', 'IGFBP3', 'SOX9', 'MMP9', 'SPHK1', 'BCL2L11', 'FERMT2', 'LGALS1', 'MME', 'ANGPTL4', 'UQCC2', 'STAU2', 'NOTCH1', 'F3', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'DKK1', 'PHLDB1', 'ERRFI1', 'RGS2', 'SOX4', 'LAMB2', 'KRT10', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'ALOX15B', 'HES2', 'CLDN4', 'FOS', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'WWC1', 'KRT17', 'MAFB', 'N4BP2L2', 'ADIRF', 'PIEZO1', 'FN1', 'CDH1', 'GPAM', 'EPPK1', 'TFRC', 'EPHA2', 'ID3', 'TNFSF14', 'PIM1', 'YEATS2']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'ISO', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['NAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['NAS'], ['IMP', 'IGI'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IDA'], ['IMP', 'IGI'], ['NAS'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IBA'], ['IEA'], ['TAS'], ['IMP', 'IEA'], ['IBA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['IDA'], ['IBA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS'], ['IDA'], ['IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IGI'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IGI'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['ISS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IBA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['ISS'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'ISO', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -3874,12 +3874,12 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['LTBP3', 'SLC2A1', 'TNNI2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'MYH10', 'CDH2', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC38A10', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'IL1A', 'ABCD4', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'WDR74', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'IDI1', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'NEAT1', 'RSBN1L', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PGBD5', 'ZNF236', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'DCAF5', 'SERPINE2', 'LAMB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'PNISR', 'UBD', 'SCEL', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'TRABD', 'GALNT6', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'NR4A1', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'SNHG7', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'ANKRD12', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'UQCC2', 'USP31', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'HELZ', 'DSEL', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'NME3', 'BMP1', 'CYP4B1', 'SAA1', 'C1orf116', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'C15orf48', 'TGM1', 'IFT46', 'TRAP1', 'STMN1', 'CDC25B', 'SUN2', 'NFYB', 'ANKRD11', 'ITGAV', 'PHLDB1', 'SAA2', 'ACTB', 'ADD3', 'ANKRD13D', 'ZC3H12C', 'GLUL', 'DSC2', 'GBP1', 'WWC1', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'PDZK1IP1', 'DLG5', 'RUSC2', 'SNHG3', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'VIM', 'FTH1', 'SOX9', 'ZBTB16', 'REV3L', 'TRIM38', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'LAMA3', 'TMEM132A', 'COL4A1', 'MRI1', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'ATP1B1', 'GALNT6', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'USP31', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'HELZ', 'MAL2', 'TRAP1', 'RSBN1L', 'SMC4', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'SGK1', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'MYH10', 'ACSL1', 'EHF', 'SUCO', 'AMIGO2', 'NEAT1', 'GLUL', 'SPIRE1', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'DDIT4', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'GSN', 'NUDT1', 'MLXIP', 'VPS13C', 'SUGP2', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'LSR', 'SNHG7', 'SAA1', 'TRABD', 'KRT6B', 'SLC2A1', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'ITGB6', 'LAD1', 'GAA', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'RSRP1', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'MRI1', 'SAA2', 'ZBED2', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'VPS51', 'KRT15', 'IGFBP3', 'SOX9', 'MMP9', 'MSMO1', 'S100A8', 'SNHG3', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'MME', 'S100A11', 'MAGOH', 'CDKN1C', 'BAZ2B', 'KRT5', 'UQCC2', 'SUN2', 'STAU2', 'NOTCH1', 'PGBD5', 'FTL', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CST6', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'PTGS2', 'SLC38A10', 'MAGED1', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'GPR155', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MBD4', 'DMTF1', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'DSEL', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'ALDH1A3', 'DNAJC15', 'FOS', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'C15orf48', 'WDR59', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'PIEZO1', 'CYTH2', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'SERPINA3', 'NET1', 'COPE', 'ID3', 'ASH1L', 'LAGE3', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['HDA'], ['IBA'], ['HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['IDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IGI', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['TAS'], ['IDA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'HDA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['HDA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISO', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IC', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IC', 'IEA'], ['HDA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISO', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IBA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'NAS', 'IEA'], ['HDA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HTP'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA'], ['IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'HDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'HDA', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -3940,12 +3940,12 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'P4HB', 'PQBP1', 'TNFSF14', 'CCL20', 'ZNF277', 'ICAM1', 'NET1', 'FBXO32', 'AKR1C2', 'TUBA1A', 'PXDN', 'TSC2', 'NCOA7', 'PIM1', 'NOTCH1', 'SLC46A3', 'PIM3', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'PTGES', 'IL1A', 'ABL2', 'DDIT4', 'ACKR3', 'LDLR', 'TFRC', 'SGK1', 'FOSB', 'ALDH3B1', 'ZNF236', 'ERRFI1', 'PDK4', 'GAS6', 'CDK1', 'NFKBIZ', 'CDH1', 'NR4A1', 'SLC26A6', 'BCL2L11', 'ACSL1', 'TIMP1', 'LBH', 'SPHK1', 'AKR1C3', 'PTGS2', 'GPR155', 'S100A8', 'CXCL16', 'ALDH3A1', 'FOS', 'TNC', 'CITED2', 'SOD2', 'CCL28', 'STAU2', 'HES1', 'SAA1', 'TRAP1', 'CXCL8', 'ACTB', 'EPHA2', 'MMP9', 'ZFP36', 'LOX', 'VIM', 'SOX9', 'CLDN1', 'MT1X', 'COL4A1', 'CCNA2', 'PAK1', 'SCNN1G', 'SERPINE1', 'LRP1', 'CXCL1', 'TMSB4X', 'LPIN1']</t>
+          <t>['CXCL8', 'PAK1', 'ZNF236', 'PDK4', 'IL1A', 'NR4A1', 'ZFP36', 'CXCL16', 'TRAP1', 'PXDN', 'STK25', 'SGK1', 'PQBP1', 'FLNA', 'ACSL1', 'ABL2', 'SERPINE1', 'FBXO32', 'ICAM1', 'CCNA2', 'DDIT4', 'CLDN1', 'PTGES', 'LPIN1', 'ANXA1', 'MT1X', 'SAA1', 'SLC2A1', 'SOD2', 'TIMP1', 'PDGFB', 'HES1', 'SCNN1G', 'P4HB', 'LRP1', 'PIM3', 'SOX9', 'MMP9', 'S100A8', 'CCL20', 'SLC46A3', 'TNC', 'SPHK1', 'FOSB', 'BCL2L11', 'IGFBP7', 'STAU2', 'NOTCH1', 'CCL28', 'PTGS2', 'TPM1', 'ZNF277', 'ACKR3', 'CXCL1', 'ERRFI1', 'AKR1C3', 'GPR155', 'SOX4', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'CITED2', 'FOS', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'TMSB4X', 'NCOA7', 'TSC2', 'VIM', 'SLC26A6', 'ALDH3A1', 'AKR1C2', 'ALDH3B1', 'CDH1', 'TFRC', 'EPHA2', 'NET1', 'ID3', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[['IEP'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IBA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS'], ['IEA'], ['IBA'], ['IMP'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IEP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEP', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'NAS'], ['ISS'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['NAS', 'IEA'], ['IMP'], ['ISS'], ['IBA'], ['IDA'], ['IBA', 'IEA']]</t>
+          <t>[['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEP'], ['IMP', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['IEA'], ['IDA', 'IGI'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IEA'], ['NAS', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'IEA'], ['IEP'], ['IEA'], ['IBA'], ['IBA'], ['IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA'], ['IMP'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4006,12 +4006,12 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['P4HB', 'ICAM1', 'ITGA5', 'ITGB6', 'LDLR', 'TFRC', 'LGALS1', 'GAS6', 'CDK1', 'SLC3A2', 'ITGB5', 'ITGAV', 'CXCL8', 'EPHA2', 'CLDN1', 'TRIM38']</t>
+          <t>['CXCL8', 'ITGA5', 'ITGB5', 'TRIM38', 'ICAM1', 'CLDN1', 'ITGB6', 'P4HB', 'LGALS1', 'GAS6', 'CDK1', 'ITGAV', 'SLC3A2', 'LDLR', 'TFRC', 'EPHA2']</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA']]</t>
+          <t>[['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IMP'], ['IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4072,12 +4072,12 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'ZNF277', 'ELF3', 'ICAM1', 'VPS13C', 'IVNS1ABP', 'KRT17', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'SUCO', 'AKR1C2', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'YEATS2', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'CDKN1C', 'TSPAN1', 'C1R', 'OAZ2', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'TP53I11', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'CCDC80', 'FBXO4', 'ITGB6', 'GADD45B', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'TLCD2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'MALAT1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'VMP1', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'WDR59', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'C3', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'SLC26A6', 'SLC3A2', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'ACSL1', 'GRHL3', 'TGFBI', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'KRT8', 'ITGB5', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'HELZ', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'BMP1', 'SAA1', 'TPM2', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'TGM1', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'RASSF8', 'SOX9', 'ZBTB16', 'CLDN1', 'TRIM38', 'PNPLA2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ATP1B1', 'CXCL8', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'TRAP1', 'SMC4', 'CLDN7', 'ITGA5', 'SCD', 'SLPI', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'IFT46', 'TP53I11', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'PLAU', 'NISCH', 'TMEM259', 'DDIT4', 'CLDN1', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'MLXIP', 'VPS13C', 'MT1X', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'ITGB6', 'GAA', 'LTBP3', 'ZBTB11', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'HERC4', 'TLCD2', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'ZBED2', 'CREG1', 'LRP1', 'KCNIP3', 'TUBB3', 'MARCKSL1', 'UBE2G2', 'PIM3', 'IGFBP3', 'SOX9', 'TPM2', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'EPCAM', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'MFN1', 'CCL28', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'DMTF1', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'MALAT1', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'ATP6V0A1', 'C1orf56', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'ADIRF', 'AKR1C2', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'GBP1', 'CKS2', 'CDH1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'ISO', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IBA'], ['IMP'], ['IBA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'NAS', 'IEA'], ['ISS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'NAS'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IMP'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HMP'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IMP'], ['ISS'], ['IMP', 'ISS', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['TAS', 'NAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IBA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'TAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['ISS'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IBA'], ['TAS', 'NAS'], ['ISS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['ISS'], ['HMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['NAS'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IMP'], ['IDA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['NAS'], ['HMP', 'TAS', 'IEA'], ['IBA', 'NAS'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'ISS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'ISO', 'IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4138,12 +4138,12 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['LTBP3', 'CDH2', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'NOTCH1', 'IGFBP7', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'IL1A', 'MYO1E', 'ITGB6', 'FOXC1', 'ACKR3', 'LDLR', 'CCM2', 'MAGED1', 'SDC4', 'ERRFI1', 'FN1', 'FAP', 'SERPINE2', 'UNC5B', 'CARD10', 'GJA5', 'CD24', 'C3', 'NR4A1', 'BCL2L11', 'GRHL3', 'TGFBI', 'SPHK1', 'CYR61', 'PTGS2', 'TNC', 'CDKN1A', 'CITED2', 'HES1', 'EPCAM', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'EPHA2', 'DLG5', 'LOX', 'SOX9', 'ID1', 'COL4A1', 'ANGPTL4', 'PAK1', 'SERPINE1', 'LRP1', 'RDH10', 'MME']</t>
+          <t>['CXCL8', 'PAK1', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'TGFBI', 'COL4A2', 'FLNA', 'GRHL3', 'CD24', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CCM2', 'CDH2', 'ANXA1', 'ANXA3', 'SDC4', 'ITGB6', 'LTBP3', 'HES1', 'DLG5', 'LRP1', 'SOX9', 'TNC', 'SPHK1', 'EPCAM', 'BCL2L11', 'IGFBP7', 'CARD10', 'MME', 'ANGPTL4', 'NOTCH1', 'F3', 'MYO1E', 'PTGS2', 'MAGED1', 'TACSTD2', 'ACKR3', 'ERRFI1', 'SOX4', 'ID1', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'TSC2', 'FN1', 'FAP', 'RDH10', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['IEA']]</t>
+          <t>[['IDA', 'IEP', 'TAS'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4204,12 +4204,12 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['TPM1', 'P4HB', 'BCL6', 'TNFSF14', 'PLAU', 'ITGA5', 'TACSTD2', 'NOTCH1', 'PIEZO1', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'PDGFB', 'IL1A', 'ABL2', 'IL1RN', 'CCDC80', 'STX3', 'TFRC', 'PLAUR', 'SDC4', 'MUC1', 'FN1', 'GPAM', 'SERPINE2', 'LAMB2', 'PHLDB2', 'LGALS1', 'CD24', 'NFKBIZ', 'RREB1', 'CDH1', 'MFI2', 'TGFBI', 'CYR61', 'TNC', 'CITED2', 'FERMT2', 'CCL28', 'HES1', 'SAA1', 'EPCAM', 'ITGAV', 'CXCL8', 'ACTB', 'GBP1', 'CLDN7', 'EPHA2', 'DLG5', 'SOX9', 'ZBTB16', 'LAMA3', 'SERPINE1']</t>
+          <t>['LAMA3', 'CXCL8', 'CCDC80', 'SERPINE2', 'IL1A', 'STX3', 'PHLDB2', 'CLDN7', 'ITGA5', 'CYR61', 'TGFBI', 'ZBTB16', 'FLNA', 'CD24', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'ANXA1', 'RREB1', 'SAA1', 'MFI2', 'SDC4', 'MUC1', 'PDGFB', 'HES1', 'P4HB', 'DLG5', 'SOX9', 'TNC', 'IL1RN', 'EPCAM', 'FERMT2', 'LGALS1', 'NOTCH1', 'PLAUR', 'CCL28', 'TPM1', 'TACSTD2', 'SOX4', 'LAMB2', 'BCL6', 'NFKBIZ', 'ITGAV', 'CITED2', 'ACTB', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'TFRC', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IBA'], ['ISS', 'TAS'], ['IDA'], ['IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'NAS'], ['IDA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA']]</t>
+          <t>[['IEA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IMP'], ['IDA', 'IBA'], ['ISS', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'NAS'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4270,12 +4270,12 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['KRT6B', 'KRT17', 'KRT5', 'NOTCH1', 'ANXA1', 'IL1A', 'FOXC1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'NFKBIZ', 'SCEL', 'CSTA', 'KLK5', 'EVPL', 'AKR1C3', 'KRT14', 'CDKN1A', 'HES1', 'KRT81', 'TGM1', 'EPHA2', 'ZFP36', 'KRT10', 'ZBED2', 'MAFB']</t>
+          <t>['FOXC1', 'IL1A', 'ZFP36', 'CDKN1A', 'SCEL', 'PALLD', 'TGM1', 'EVPL', 'ANXA1', 'KRT6B', 'HES1', 'ZBED2', 'KRT14', 'KRT5', 'NOTCH1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KRT81', 'KRT10', 'NFKBIZ', 'ALOX15B', 'CSTA', 'KRT17', 'MAFB', 'KRT16', 'EPHA2']</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[['IBA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IEP'], ['IMP'], ['IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IEA'], ['IMP'], ['IEA'], ['IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IBA'], ['IEP'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -4336,12 +4336,12 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'TNFSF14', 'CCL20', 'ICAM1', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'S100A11', 'NOTCH1', 'ANXA1', 'FLNA', 'PDGFB', 'IL1A', 'ABL2', 'ACKR3', 'STX3', 'MMP7', 'MALAT1', 'FN1', 'GAS6', 'RREB1', 'SPHK1', 'CYR61', 'PTGS2', 'CXCL16', 'FERMT2', 'SOD2', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'CLDN7', 'EPHA2', 'MMP9', 'SOX9', 'CLDN1', 'PAK1', 'SERPINE1', 'TMSB4X']</t>
+          <t>['CXCL8', 'PAK1', 'IL1A', 'STX3', 'CXCL16', 'CLDN7', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'FLNA', 'LAMC2', 'ABL2', 'SERPINE1', 'ICAM1', 'PLAU', 'CLDN1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'PDGFB', 'SOX9', 'MMP9', 'CCL20', 'SPHK1', 'FERMT2', 'S100A11', 'SUN2', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'BCL6', 'GAS6', 'MALAT1', 'ITGAV', 'CLDN4', 'TMSB4X', 'FN1', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IGI', 'TAS'], ['TAS', 'IC'], ['IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IGI']]</t>
+          <t>[['IGI', 'TAS'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['IDA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IC'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IGI'], ['IDA'], ['IDA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'ZNF277', 'ELF3', 'ICAM1', 'VPS13C', 'IVNS1ABP', 'KRT17', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'SUCO', 'AKR1C2', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'YEATS2', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'CDKN1C', 'C1R', 'OAZ2', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'TP53I11', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'CCDC80', 'FBXO4', 'ITGB6', 'GADD45B', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'MALAT1', 'N4BP2L2', 'C1RL', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'VMP1', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'WDR59', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'C3', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'SLC26A6', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'EEF1A1', 'BCL2L11', 'ACSL1', 'GRHL3', 'TGFBI', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'KRT8', 'ITGB5', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'HELZ', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'BMP1', 'SAA1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'TGM1', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'RASSF8', 'SOX9', 'ZBTB16', 'CLDN1', 'TRIM38', 'PNPLA2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SERPINE1', 'MLXIP', 'LRP1', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ATP1B1', 'CXCL8', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'TRAP1', 'SMC4', 'CLDN7', 'ITGA5', 'SCD', 'SLPI', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'TP53I11', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'PLAU', 'NISCH', 'TMEM259', 'DDIT4', 'CLDN1', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'MLXIP', 'VPS13C', 'MT1X', 'ANXA3', 'LSR', 'SAA1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'ITGB6', 'GAA', 'LTBP3', 'ZBTB11', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'ZBED2', 'CREG1', 'LRP1', 'KCNIP3', 'TUBB3', 'MARCKSL1', 'UBE2G2', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'EPCAM', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'CXCL1', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'DMTF1', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'MALAT1', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'ATP6V0A1', 'C1orf56', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'FXYD3', 'CSTA', 'SYT8', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'ADIRF', 'AKR1C2', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'GBP1', 'CKS2', 'CDH1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'TAS'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'ISO', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IBA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'NAS', 'IEA'], ['ISS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'NAS'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IMP'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['TAS', 'NAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEP', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IGI', 'IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IBA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'TAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IBA'], ['TAS', 'NAS'], ['ISS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS'], ['IDA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['ISS'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IGI', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['NAS'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IMP'], ['IMP', 'IGI', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['NAS'], ['TAS'], ['IBA', 'NAS'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'ISS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'ISO', 'IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['P4HB', 'BCL6', 'TNFSF14', 'ICAM1', 'IVNS1ABP', 'NET1', 'TUBA1A', 'TSC2', 'ITGA5', 'KCNIP3', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'MGMT', 'TSC22D3', 'IL1A', 'DDIT4', 'GADD45B', 'FOXC1', 'ACKR3', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ALOX15B', 'ERRFI1', 'MUC1', 'ARL6IP1', 'FAP', 'GPAM', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'NFKBIZ', 'UBD', 'ALDH1A3', 'KLK5', 'NISCH', 'NR4A1', 'GSN', 'BCL2L11', 'TIMP1', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'KRT8', 'CASP2', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'BCL3', 'IER3', 'NME3', 'TRAP1', 'MADD', 'ITGAV', 'ACTB', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'SOX9', 'ZBTB16', 'AMIGO2', 'ANGPTL4', 'AURKA', 'PAK1', 'SERPINE1', 'FGFR3']</t>
+          <t>['PAK1', 'PDK4', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'NR4A1', 'ZFP36', 'TRAP1', 'CLDN7', 'ITGA5', 'CYR61', 'CDKN1A', 'MADD', 'STK25', 'SGK1', 'ZBTB16', 'FGFR3', 'FLNA', 'CD24', 'AMIGO2', 'SERPINE1', 'ICAM1', 'UNC5B', 'NISCH', 'DDIT4', 'CASP2', 'ANXA1', 'GSN', 'UBD', 'SOD2', 'TIMP1', 'MUC1', 'P4HB', 'DLG5', 'AURKA', 'BIRC3', 'KCNIP3', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'SPHK1', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'NOTCH1', 'PLAUR', 'PTGS2', 'MAGED1', 'ACKR3', 'DKK1', 'GADD45B', 'ERRFI1', 'KLK5', 'AKR1C3', 'SOX4', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'NME3', 'ALDH1A3', 'TUBA1A', 'LOX', 'ACTB', 'KRT8', 'TSC2', 'TSC22D3', 'GPAM', 'MGMT', 'FAP', 'ARL6IP1', 'TFRC', 'EPHA2', 'NET1', 'ID3', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IGI'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IGI'], ['IMP'], ['IMP'], ['IDA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['ISS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['ISS'], ['IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IGI'], ['TAS', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['ISS'], ['IMP'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IGI'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4534,12 +4534,12 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['P4HB', 'BCL6', 'TNFSF14', 'ICAM1', 'IVNS1ABP', 'NET1', 'TUBA1A', 'TSC2', 'ITGA5', 'KCNIP3', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'MGMT', 'TSC22D3', 'IL1A', 'DDIT4', 'GADD45B', 'FOXC1', 'ACKR3', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ALOX15B', 'ERRFI1', 'MUC1', 'ARL6IP1', 'FAP', 'GPAM', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'NFKBIZ', 'UBD', 'ALDH1A3', 'KLK5', 'NISCH', 'NR4A1', 'GSN', 'BCL2L11', 'TIMP1', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'KRT8', 'CASP2', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'BCL3', 'IER3', 'NME3', 'TRAP1', 'MADD', 'ITGAV', 'ACTB', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'SOX9', 'ZBTB16', 'AMIGO2', 'ANGPTL4', 'AURKA', 'PAK1', 'SERPINE1', 'FGFR3']</t>
+          <t>['PAK1', 'PDK4', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'NR4A1', 'ZFP36', 'TRAP1', 'CLDN7', 'ITGA5', 'CYR61', 'CDKN1A', 'MADD', 'STK25', 'SGK1', 'ZBTB16', 'FGFR3', 'FLNA', 'CD24', 'AMIGO2', 'SERPINE1', 'ICAM1', 'UNC5B', 'NISCH', 'DDIT4', 'CASP2', 'ANXA1', 'GSN', 'UBD', 'SOD2', 'TIMP1', 'MUC1', 'P4HB', 'DLG5', 'AURKA', 'BIRC3', 'KCNIP3', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'SPHK1', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'NOTCH1', 'PLAUR', 'PTGS2', 'MAGED1', 'ACKR3', 'DKK1', 'GADD45B', 'ERRFI1', 'KLK5', 'AKR1C3', 'SOX4', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'NME3', 'ALDH1A3', 'TUBA1A', 'LOX', 'ACTB', 'KRT8', 'TSC2', 'TSC22D3', 'GPAM', 'MGMT', 'FAP', 'ARL6IP1', 'TFRC', 'EPHA2', 'NET1', 'ID3', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IGI'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IGI'], ['IMP'], ['IMP'], ['IDA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['ISS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['ISS'], ['IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IGI'], ['TAS', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['ISS'], ['IMP'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IGI'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4600,12 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'ZNF277', 'ICAM1', 'VPS13C', 'NET1', 'FBXO32', 'AKR1C2', 'TUBA1A', 'TSC2', 'PIM1', 'NOTCH1', 'PIM3', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'ARSA', 'SCD', 'IL1A', 'ABL2', 'DDIT4', 'LDLR', 'TFRC', 'DKK1', 'SGK1', 'FOSB', 'ZNF236', 'ERRFI1', 'SLPI', 'GPAM', 'PDK4', 'GAS6', 'CDK1', 'MBD4', 'NFKBIZ', 'CDH1', 'NR4A1', 'SLC26A6', 'ACSL1', 'TIMP1', 'SPHK1', 'AKR1C3', 'PTGS2', 'GPR155', 'S100A8', 'KRT8', 'FOS', 'TNC', 'CDKN1A', 'SOD2', 'HES1', 'RGS2', 'TRAP1', 'CLDN4', 'CXCL8', 'ACTB', 'GLUL', 'CLDN7', 'MMP9', 'ZFP36', 'VIM', 'SOX9', 'CLDN1', 'CCNA2', 'SCNN1G', 'SERPINE1', 'LRP1', 'CXCL1', 'LPIN1']</t>
+          <t>['CXCL8', 'ZNF236', 'PDK4', 'IL1A', 'NR4A1', 'ZFP36', 'TRAP1', 'CLDN7', 'SCD', 'SLPI', 'CDKN1A', 'STK25', 'SGK1', 'FLNA', 'ACSL1', 'GLUL', 'ABL2', 'SERPINE1', 'FBXO32', 'ICAM1', 'CCNA2', 'DDIT4', 'CLDN1', 'LPIN1', 'ANXA1', 'VPS13C', 'SLC2A1', 'SOD2', 'TIMP1', 'PDGFB', 'HES1', 'SCNN1G', 'LRP1', 'PIM3', 'SOX9', 'MMP9', 'S100A8', 'TNC', 'SPHK1', 'FOSB', 'IGFBP7', 'NOTCH1', 'PTGS2', 'TPM1', 'ZNF277', 'DKK1', 'CXCL1', 'ERRFI1', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'MBD4', 'GAS6', 'CDK1', 'NFKBIZ', 'CLDN4', 'FOS', 'TUBA1A', 'ACTB', 'LDLR', 'KRT8', 'TSC2', 'VIM', 'ARSA', 'SLC26A6', 'AKR1C2', 'CDH1', 'GPAM', 'TFRC', 'NET1', 'ID3', 'PIM1']</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[['IEP'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IGI'], ['ISS', 'IEA'], ['IMP'], ['ISS'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IEP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IMP'], ['ISS'], ['IBA'], ['IBA', 'IEA']]</t>
+          <t>[['IDA', 'IBA'], ['IEP'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IGI'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['NAS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IBA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'NMU', 'PQBP1', 'BCL6', 'TNFSF14', 'REL', 'KRT17', 'FBXO32', 'SUCO', 'COL4A2', 'PLAU', 'ANXA3', 'ITGA5', 'TACSTD2', 'PIM1', 'NOTCH1', 'YEATS2', 'SLC5A3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'EPPK1', 'PTGES', 'SCD', 'IL1A', 'ABL2', 'FOXC1', 'LDLR', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ALOX15B', 'SDC4', 'ATP1B1', 'ERRFI1', 'FN1', 'FAP', 'GPAM', 'PDK4', 'SERPINE2', 'PHLDB2', 'LGALS1', 'GAS6', 'CDK1', 'GJA5', 'CD24', 'NFKBIZ', 'C3', 'RREB1', 'IGF2BP3', 'CDH1', 'NR4A1', 'BCL2L11', 'ACSL1', 'TIMP1', 'GAA', 'LBH', 'SPHK1', 'CYR61', 'PTGS2', 'BAMBI', 'FOS', 'CDKN1A', 'CITED2', 'FERMT2', 'STAU2', 'BCL3', 'HES1', 'BMP1', 'SAA1', 'RGS2', 'MYL9', 'CXCL8', 'PHLDB1', 'ACTB', 'ADD3', 'F3', 'GLUL', 'DSC2', 'GBP1', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'HES2', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'SOX9', 'ZBTB16', 'TRIM38', 'AMIGO2', 'ID1', 'LAMA3', 'ANGPTL4', 'ZBED2', 'SERPINE1', 'LRP1', 'LETMD1', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['LAMA3', 'ATP1B1', 'CXCL8', 'ADD3', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'GJA5', 'ITGA5', 'SCD', 'CYR61', 'CDKN1A', 'STK25', 'SGK1', 'PQBP1', 'ZBTB16', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'SUCO', 'AMIGO2', 'GLUL', 'ABL2', 'SERPINE1', 'FBXO32', 'PLAU', 'CCM2', 'PTGES', 'LPIN1', 'ANXA1', 'RREB1', 'SLC5A3', 'ANXA3', 'SAA1', 'TIMP1', 'SDC4', 'GAA', 'LTBP3', 'DSC2', 'PDGFB', 'HES1', 'NMU', 'DLG5', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'SOX9', 'MMP9', 'SPHK1', 'REL', 'BCL2L11', 'FERMT2', 'LGALS1', 'MME', 'ANGPTL4', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'DKK1', 'PHLDB1', 'ERRFI1', 'RGS2', 'SOX4', 'MYL9', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'LETMD1', 'CITED2', 'ALOX15B', 'HES2', 'FOS', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'WWC1', 'KRT17', 'MAFB', 'IGF2BP3', 'TRIM56', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'EPPK1', 'TFRC', 'EPHA2', 'TNFSF14', 'PIM1', 'YEATS2']</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[['ISS', 'TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS', 'IC'], ['IDA', 'ISS'], ['ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['NAS'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IC'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IC'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IMP', 'IGI'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'IC'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['NAS', 'IC'], ['IDA', 'IMP', 'NAS'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['NAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'NAS'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IGI'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IC'], ['NAS'], ['ISS', 'IEA'], ['ISS', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IGI'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['ISS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IC'], ['ISS', 'TAS'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IC'], ['ISS'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'ISO', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4732,12 +4732,12 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['P4HB', 'ICAM1', 'ITGA5', 'ITGB6', 'LDLR', 'TFRC', 'LGALS1', 'GAS6', 'CDK1', 'SLC3A2', 'ITGB5', 'ITGAV', 'EPHA2', 'CLDN1', 'TRIM38']</t>
+          <t>['ITGA5', 'ITGB5', 'TRIM38', 'ICAM1', 'CLDN1', 'ITGB6', 'P4HB', 'LGALS1', 'GAS6', 'CDK1', 'ITGAV', 'SLC3A2', 'LDLR', 'TFRC', 'EPHA2']</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'TAS', 'NAS'], ['IEA'], ['IEA'], ['IDA', 'IBA']]</t>
+          <t>[['IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['IMP', 'TAS', 'NAS'], ['IMP'], ['IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4798,12 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMB3', 'P4HB', 'PQBP1', 'MYH10', 'ICAM1', 'TUBA1A', 'ITGA5', 'PIM1', 'DST', 'CDC20', 'ADGRG1', 'FLNA', 'PDGFB', 'CDKN1C', 'RBM39', 'ABL2', 'MYO1E', 'ITGB6', 'LDLR', 'MRC2', 'TFRC', 'ISG15', 'ATP1B1', 'FN1', 'FAP', 'LAMB2', 'BIRC3', 'UBD', 'NISCH', 'TPM4', 'GSN', 'TGFBI', 'CYR61', 'KRT8', 'ITGB5', 'FOS', 'TNC', 'CDKN1A', 'FERMT2', 'STAU2', 'HES1', 'CORO6', 'TPM2', 'EPCAM', 'ITGAV', 'ACTB', 'ADD3', 'GBP1', 'MMP9', 'CCNF', 'ZFP36', 'LOX', 'MARCKSL1', 'PAK1', 'LRP1', 'LETMD1', 'CENPF', 'MAFB']</t>
+          <t>['ATP1B1', 'ADD3', 'PAK1', 'ZFP36', 'ITGA5', 'CYR61', 'CDKN1A', 'ITGB5', 'TGFBI', 'PQBP1', 'DST', 'CORO6', 'FLNA', 'MYH10', 'ABL2', 'CDC20', 'ICAM1', 'ADGRG1', 'NISCH', 'GSN', 'UBD', 'ITGB6', 'LAMB3', 'PDGFB', 'HES1', 'CENPF', 'P4HB', 'BIRC3', 'ISG15', 'LRP1', 'MARCKSL1', 'TPM2', 'MMP9', 'TNC', 'EPCAM', 'FERMT2', 'TPM4', 'CDKN1C', 'STAU2', 'MYO1E', 'TPM1', 'LAMB2', 'ITGAV', 'LETMD1', 'CCNF', 'FOS', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'KRT8', 'MAFB', 'MRC2', 'FN1', 'GBP1', 'RBM39', 'FAP', 'TFRC', 'PIM1']</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[['ISS', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IPI'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IPI'], ['IPI'], ['HDA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS'], ['IPI'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['IPI', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IPI'], ['TAS'], ['IDA'], ['IPI'], ['IDA'], ['IBA'], ['IPI'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA']]</t>
+          <t>[['HDA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IBA'], ['IPI', 'TAS'], ['IDA', 'IBA'], ['IPI'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IPI'], ['IDA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IPI'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI']]</t>
         </is>
       </c>
     </row>
@@ -4864,12 +4864,12 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['CDH2', 'KRT6B', 'ICAM1', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'NOTCH1', 'ID3', 'ANXA1', 'SOX4', 'FLNA', 'PDGFB', 'IL1A', 'MYO1E', 'FOXC1', 'CCM2', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'LAMB2', 'CDK1', 'CD24', 'NFKBIZ', 'SCEL', 'CSTA', 'KLK5', 'EVPL', 'LBH', 'AKR1C3', 'KRT14', 'CDKN1A', 'HES1', 'KRT81', 'TGM1', 'TAGLN', 'EPHA2', 'MMP9', 'DLG5', 'ZFP36', 'VIM', 'SOX9', 'CLDN1', 'KRT10', 'COL4A1', 'ZBED2', 'SERPINE1', 'EHF', 'MAFB']</t>
+          <t>['FOXC1', 'IL1A', 'ZFP36', 'CDKN1A', 'SCEL', 'FLNA', 'CD24', 'EHF', 'SERPINE1', 'ICAM1', 'CLDN1', 'PALLD', 'TGM1', 'CCM2', 'CDH2', 'EVPL', 'ANXA1', 'KRT6B', 'PDGFB', 'HES1', 'DLG5', 'ZBED2', 'KRT15', 'TAGLN', 'SOX9', 'MMP9', 'KRT14', 'KRT5', 'NOTCH1', 'MYO1E', 'ERRFI1', 'KLK5', 'AKR1C3', 'SOX4', 'LAMB2', 'KRT81', 'KRT10', 'CDK1', 'LBH', 'NFKBIZ', 'ALOX15B', 'CSTA', 'KRT17', 'MAFB', 'VIM', 'KRT16', 'AKR1C2', 'EPHA2', 'ID3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[['ISS', 'IEA'], ['IBA'], ['IGI'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IMP', 'NAS'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'IBA'], ['IEA'], ['IMP'], ['IDA'], ['IEP'], ['IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IMP', 'NAS'], ['IEP'], ['IDA'], ['IGI'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['ISS'], ['IEA'], ['IEA'], ['IMP'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEP', 'IBA'], ['IEP'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -4930,12 +4930,12 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMB3', 'SLC2A1', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'KRT6B', 'ELF3', 'ICAM1', 'VPS13C', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'KRT5', 'KRT15', 'PTTG1', 'TUBA1A', 'COL4A2', 'PXDN', 'DNAJC15', 'TSC2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'DST', 'NOTCH1', 'MFAP5', 'KANK4', 'CDC20', 'YEATS2', 'PIEZO1', 'CTSV', 'IGFBP7', 'ANXA1', 'STK25', 'FLNA', 'CNTNAP2', 'PDGFB', 'TUBA4A', 'EPPK1', 'GOLGA8B', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'LSR', 'CCDC80', 'FBXO4', 'FOXC1', 'GAK', 'LDLR', 'STX3', 'TLCD2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'PLAUR', 'MMP7', 'CGN', 'TUBB4B', 'DMKN', 'SDC4', 'ATP1B1', 'RSRP1', 'PALLD', 'VMP1', 'KATNBL1', 'SPIRE1', 'ARL6IP1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'GAS6', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SNAP47', 'ALDH1A3', 'COL7A1', 'TACC2', 'C3', 'RREB1', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'NR4A1', 'TPM4', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'BCL2L11', 'KLC1', 'GRHL3', 'TGFBI', 'GOSR1', 'CREG1', 'MTA1', 'GAA', 'SPHK1', 'CYR61', 'CYTH2', 'S100A8', 'TAOK3', 'UQCC2', 'CXCL16', 'KRT8', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'FERMT2', 'SOD2', 'MYBBP1A', 'STAU2', 'BCL3', 'HES1', 'CORO6', 'IER3', 'NME3', 'BMP1', 'KRT81', 'TUBA1B', 'TPM2', 'RGS2', 'SORBS3', 'TGM1', 'IFT46', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'CLDN4', 'ITGAV', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'GBP1', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'CCNF', 'S100A6', 'DLG5', 'TTC19', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'CLDN1', 'PNPLA2', 'AMIGO2', 'KRT10', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'COL4A1', 'FBXW5', 'AURKA', 'SMC4', 'PAK1', 'BAZ2B', 'PDLIM7', 'SERPINE1', 'LRP1', 'MFN1', 'SH3BGRL3', 'CXCL1', 'ASH1L', 'LETMD1', 'CENPF', 'NFU1', 'ATP6V0A1', 'TMSB4X', 'MAFB', 'LPIN1', 'WSB1']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'ATP1B1', 'CCDC80', 'ADD3', 'PAK1', 'KATNBL1', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'PHLDB2', 'CXCL16', 'GJA5', 'SMC4', 'CLDN7', 'ITGA5', 'GOLGA8B', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'SGK1', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ANKRD13D', 'DST', 'CORO6', 'COL4A2', 'FLNA', 'GRHL3', 'CD24', 'SNAP47', 'MYH10', 'AMIGO2', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'UNC5B', 'TUBA4A', 'NISCH', 'GOSR1', 'DDIT4', 'CLDN1', 'PALLD', 'TGM1', 'CCM2', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'VPS13C', 'CSRP1', 'LSR', 'KRT6B', 'SLC2A1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'SDC4', 'GAA', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'FBXO4', 'RSRP1', 'DLG5', 'STMN1', 'TLCD2', 'AURKA', 'ISG15', 'BMP1', 'CREG1', 'LRP1', 'TUBB3', 'MARCKSL1', 'VPS51', 'KRT15', 'IGFBP3', 'SOX9', 'TPM2', 'MMP9', 'S100A8', 'KMT2B', 'TNC', 'SPHK1', 'KRT14', 'VMP1', 'PDLIM4', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'CTSV', 'CARD10', 'MFAP5', 'WSB1', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'PLAUR', 'MFN1', 'MYO1E', 'CDC42EP1', 'TPM1', 'TACSTD2', 'CRB3', 'DKK1', 'ELF3', 'CXCL1', 'PHLDB1', 'KLK5', 'KLC1', 'RGS2', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'TUBA1B', 'KRT10', 'BCL6', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'IER3', 'TTC19', 'ATP6V0A1', 'TUBB4B', 'CCNF', 'NME3', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'STX16', 'TMSB4X', 'ABCD4', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'MAFB', 'VIM', 'KRT16', 'CNTNAP2', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'FN1', 'NFU1', 'GBP1', 'CKS2', 'CDH1', 'COL7A1', 'FAP', 'EPPK1', 'TACC2', 'ARL6IP1', 'TFRC', 'EPHA2', 'NET1', 'ASH1L', 'TNFSF14', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IBA'], ['NAS'], ['IEA'], ['ISS', 'IBA'], ['IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA'], ['IMP'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IC'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IMP'], ['IBA', 'TAS'], ['IBA'], ['IBA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS'], ['IMP', 'IBA'], ['IEA'], ['IDA'], ['IBA'], ['IDA'], ['IBA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['ISS'], ['IGI'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'IBA'], ['IDA', 'ISO', 'IEA'], ['IDA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IMP'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IGI', 'IBA'], ['IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA'], ['IBA', 'IEA'], ['IMP'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IBA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['TAS'], ['IBA', 'IEA'], ['IDA'], ['IGI', 'ISS', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IGI'], ['IDA', 'ISS'], ['IBA'], ['IMP', 'IBA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IPI', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['IMP', 'IC'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IGI', 'ISS', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'ISO', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['NAS'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['ISS', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IMP', 'IGI', 'IBA'], ['IBA'], ['ISS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IMP'], ['NAS'], ['IEA'], ['IEA'], ['IBA'], ['IMP', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['LTBP3', 'BCL6', 'TNFSF14', 'KRT17', 'SUCO', 'ANXA3', 'ITGA5', 'TACSTD2', 'PIM1', 'NOTCH1', 'CDC20', 'PIEZO1', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'IL1A', 'FOXC1', 'TFRC', 'ISG15', 'DKK1', 'MAGED1', 'ALOX15B', 'ADIRF', 'SPIRE1', 'FN1', 'GPAM', 'SERPINE2', 'LAMB2', 'PHLDB2', 'GAS6', 'CDK1', 'CD24', 'NFKBIZ', 'C3', 'RREB1', 'LBH', 'SPHK1', 'CYR61', 'PTGS2', 'BAMBI', 'FOS', 'CITED2', 'FERMT2', 'SOD2', 'STAU2', 'HES1', 'BMP1', 'CXCL8', 'PHLDB1', 'ACTB', 'F3', 'IGFBP3', 'DLG5', 'ZFP36', 'B4GALT5', 'SOX9', 'ZBTB16', 'AMIGO2', 'KRT10', 'ANGPTL4', 'AURKA', 'ZBED2', 'SERPINE1', 'MME']</t>
+          <t>['CXCL8', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'ZFP36', 'PHLDB2', 'ITGA5', 'CYR61', 'STK25', 'ZBTB16', 'FLNA', 'CD24', 'SUCO', 'AMIGO2', 'SPIRE1', 'CDC20', 'SERPINE1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'LTBP3', 'PDGFB', 'HES1', 'DLG5', 'AURKA', 'ISG15', 'BMP1', 'ZBED2', 'IGFBP3', 'SOX9', 'SPHK1', 'FERMT2', 'MME', 'ANGPTL4', 'STAU2', 'NOTCH1', 'F3', 'PTGS2', 'MAGED1', 'TACSTD2', 'DKK1', 'PHLDB1', 'SOX4', 'LAMB2', 'KRT10', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'CITED2', 'ALOX15B', 'FOS', 'B4GALT5', 'ACTB', 'KRT17', 'ADIRF', 'PIEZO1', 'FN1', 'GPAM', 'TFRC', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['NAS'], ['IMP', 'IGI'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IGI'], ['NAS'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS'], ['TAS'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IMP'], ['IGI']]</t>
+          <t>[['IDA'], ['IMP'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IGI'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['ISS'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5062,12 +5062,12 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC38A10', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'C1R', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'TP53I11', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'PCDH9', 'CCDC80', 'WDR74', 'FBXO4', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'IDI1', 'TLCD2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'MALAT1', 'CGN', 'TUBB4B', 'N4BP2L2', 'C1RL', 'OPLAH', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PGBD5', 'ZNF236', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'WDR59', 'COPE', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CA12', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'CHI3L2', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'SLC7A2', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'SNHG7', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'USP31', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'HELZ', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'CORO6', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'TUBA1B', 'TPM2', 'GPCPD1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'TGM1', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'SPSB1', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'TAGLN', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'DLG5', 'DNAJC4', 'SNHG3', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'RASSF8', 'SOX9', 'ZBTB16', 'REV3L', 'TP53I3', 'CLDN1', 'TRIM38', 'SLC2A12', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'MRI1', 'FBXW5', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ATP1B1', 'CXCL8', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'USP31', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'MAL2', 'TRAP1', 'SMC4', 'CLDN7', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'SLC2A12', 'IFT46', 'TP53I11', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'CORO6', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'SPSB1', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'SLC5A3', 'GSN', 'NUDT1', 'MLXIP', 'VPS13C', 'SUGP2', 'MT1X', 'SPTSSA', 'CSRP1', 'ANXA3', 'LSR', 'SNHG7', 'SAA1', 'KRT6B', 'SLC2A1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'ITGB6', 'GAA', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'RSRP1', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'HERC4', 'TLCD2', 'AURKA', 'BIRC3', 'CA12', 'ISG15', 'IFITM2', 'BMP1', 'MRI1', 'ZBED2', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'SNHG3', 'C1R', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'PGBD5', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'GPR155', 'TP53I3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'DMTF1', 'KRT10', 'DNAJC4', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'MALAT1', 'NFKBIZ', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'C1orf56', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'OPLAH', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'ABCD4', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'MRC2', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'AKR1C2', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CKS2', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'SLC7A2', 'ID3', 'ASH1L', 'LAGE3', 'TNFSF14', 'PIM1', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS'], ['IMP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEP', 'IBA'], ['IDA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IC', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'ISO', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'NAS'], ['IMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEP', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISO', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP'], ['IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IBA'], ['TAS', 'NAS'], ['ISS', 'IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IBA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IEP', 'IBA'], ['NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IMP', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5128,12 +5128,12 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'TNFSF14', 'CCL20', 'ICAM1', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'S100A11', 'NOTCH1', 'ANXA1', 'FLNA', 'PDGFB', 'IL1A', 'ABL2', 'ACKR3', 'MMP7', 'MALAT1', 'FN1', 'GAS6', 'RREB1', 'SPHK1', 'CYR61', 'PTGS2', 'CXCL16', 'FERMT2', 'SOD2', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'CLDN7', 'EPHA2', 'MMP9', 'SOX9', 'CLDN1', 'PAK1', 'SERPINE1', 'TMSB4X']</t>
+          <t>['CXCL8', 'PAK1', 'IL1A', 'CXCL16', 'CLDN7', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'FLNA', 'LAMC2', 'ABL2', 'SERPINE1', 'ICAM1', 'PLAU', 'CLDN1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'PDGFB', 'SOX9', 'MMP9', 'CCL20', 'SPHK1', 'FERMT2', 'S100A11', 'SUN2', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'BCL6', 'GAS6', 'MALAT1', 'ITGAV', 'CLDN4', 'TMSB4X', 'FN1', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IGI']]</t>
+          <t>[['TAS'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['IDA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IGI'], ['IDA'], ['IDA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -5194,12 +5194,12 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['P4HB', 'CDH2', 'ICAM1', 'ITGA5', 'S100A11', 'DST', 'ANXA1', 'FLNA', 'ITGB6', 'ISG15', 'CGN', 'LAD1', 'PALLD', 'FN1', 'FAP', 'LAMB2', 'PHLDB2', 'CDH1', 'NISCH', 'EVPL', 'EFHD2', 'SLC3A2', 'TGFBI', 'CYR61', 'ITGB5', 'S100P', 'TNC', 'FERMT2', 'EPCAM', 'ITGAV', 'DSC2', 'CLDN7', 'EPHA2', 'CDC42EP1', 'GPRC5A']</t>
+          <t>['GPRC5A', 'PHLDB2', 'CLDN7', 'ITGA5', 'CYR61', 'ITGB5', 'TGFBI', 'DST', 'FLNA', 'ICAM1', 'NISCH', 'PALLD', 'CDH2', 'EVPL', 'ANXA1', 'EFHD2', 'ITGB6', 'LAD1', 'DSC2', 'P4HB', 'ISG15', 'TNC', 'EPCAM', 'FERMT2', 'S100A11', 'CGN', 'CDC42EP1', 'LAMB2', 'ITGAV', 'S100P', 'SLC3A2', 'FN1', 'CDH1', 'FAP', 'EPHA2']</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>[['IPI', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IPI'], ['HDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IPI'], ['HDA'], ['HDA'], ['IBA'], ['IDA', 'IPI', 'IMP', 'IBA'], ['IPI'], ['IEA'], ['HDA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['HDA'], ['IDA'], ['IBA'], ['IBA'], ['IPI', 'IBA', 'IEA'], ['IC'], ['IEA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['HDA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IPI'], ['HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IBA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IC'], ['IPI', 'IEA'], ['IPI'], ['IDA'], ['IBA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'IMP', 'IBA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -5260,12 +5260,12 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMB3', 'SLC2A1', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'KRT6B', 'ELF3', 'ICAM1', 'VPS13C', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'KRT5', 'KRT15', 'PTTG1', 'TUBA1A', 'COL4A2', 'PXDN', 'DNAJC15', 'TSC2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'DST', 'NOTCH1', 'MFAP5', 'KANK4', 'CDC20', 'YEATS2', 'PIEZO1', 'CTSV', 'IGFBP7', 'ANXA1', 'STK25', 'FLNA', 'CNTNAP2', 'PDGFB', 'TUBA4A', 'EPPK1', 'GOLGA8B', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'CCDC80', 'WDR74', 'FBXO4', 'FOXC1', 'GAK', 'LDLR', 'STX3', 'TLCD2', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'PLAUR', 'MMP7', 'CGN', 'TUBB4B', 'DMKN', 'SDC4', 'ATP1B1', 'RSRP1', 'PALLD', 'VMP1', 'KATNBL1', 'SPIRE1', 'ARL6IP1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'GAS6', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SNAP47', 'ALDH1A3', 'COL7A1', 'TACC2', 'C3', 'RREB1', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'NR4A1', 'TPM4', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'BCL2L11', 'KLC1', 'GRHL3', 'TGFBI', 'GOSR1', 'CREG1', 'MTA1', 'GAA', 'SPHK1', 'CYR61', 'CYTH2', 'S100A8', 'TAOK3', 'UQCC2', 'CXCL16', 'KRT8', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'FERMT2', 'SOD2', 'MYBBP1A', 'STAU2', 'BCL3', 'HES1', 'CORO6', 'IER3', 'NME3', 'BMP1', 'KRT81', 'TUBA1B', 'TPM2', 'RGS2', 'SORBS3', 'TGM1', 'IFT46', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'CLDN4', 'ITGAV', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'GLUL', 'GBP1', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'CCNF', 'S100A6', 'DLG5', 'TTC19', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'CLDN1', 'PNPLA2', 'AMIGO2', 'KRT10', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'COL4A1', 'FBXW5', 'AURKA', 'SMC4', 'PAK1', 'BAZ2B', 'PDLIM7', 'SERPINE1', 'LRP1', 'MFN1', 'SH3BGRL3', 'CXCL1', 'ASH1L', 'LETMD1', 'CENPF', 'NFU1', 'ATP6V0A1', 'TMSB4X', 'MAFB', 'LPIN1', 'WSB1']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'ATP1B1', 'CCDC80', 'ADD3', 'PAK1', 'KATNBL1', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'PHLDB2', 'CXCL16', 'GJA5', 'SMC4', 'CLDN7', 'ITGA5', 'GOLGA8B', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'SGK1', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ANKRD13D', 'DST', 'CORO6', 'COL4A2', 'FLNA', 'GRHL3', 'CD24', 'SNAP47', 'MYH10', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'UNC5B', 'TUBA4A', 'NISCH', 'GOSR1', 'DDIT4', 'CLDN1', 'PALLD', 'TGM1', 'CCM2', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'GSN', 'VPS13C', 'CSRP1', 'LSR', 'KRT6B', 'SLC2A1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'SDC4', 'GAA', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'FBXO4', 'RSRP1', 'DLG5', 'STMN1', 'TLCD2', 'AURKA', 'ISG15', 'BMP1', 'CREG1', 'LRP1', 'TUBB3', 'MARCKSL1', 'VPS51', 'KRT15', 'IGFBP3', 'SOX9', 'TPM2', 'MMP9', 'S100A8', 'KMT2B', 'TNC', 'HEATR1', 'SPHK1', 'KRT14', 'VMP1', 'PDLIM4', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'CTSV', 'CARD10', 'MFAP5', 'WSB1', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'PLAUR', 'MFN1', 'WDR74', 'MYO1E', 'CDC42EP1', 'TPM1', 'TACSTD2', 'CRB3', 'DKK1', 'ELF3', 'CXCL1', 'PHLDB1', 'KLK5', 'KLC1', 'RGS2', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'TUBA1B', 'KRT10', 'BCL6', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'IER3', 'TTC19', 'ATP6V0A1', 'TUBB4B', 'CCNF', 'NME3', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'STX16', 'TMSB4X', 'ABCD4', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'MAFB', 'VIM', 'KRT16', 'CNTNAP2', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'FN1', 'NFU1', 'GBP1', 'CKS2', 'CDH1', 'COL7A1', 'FAP', 'EPPK1', 'TACC2', 'ARL6IP1', 'TFRC', 'EPHA2', 'NET1', 'ASH1L', 'TNFSF14', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IBA'], ['NAS'], ['IEA'], ['ISS', 'IBA'], ['IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA'], ['IMP'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IC'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IMP'], ['IBA', 'TAS'], ['IBA'], ['IBA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS'], ['IMP', 'IBA'], ['IEA'], ['IDA'], ['IBA'], ['IDA'], ['IBA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['ISS'], ['IGI'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'IBA'], ['IDA', 'ISO', 'IEA'], ['IDA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IMP'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IGI', 'IBA'], ['IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IBA', 'IEA'], ['IMP'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IBA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['TAS'], ['IBA', 'IEA'], ['IDA'], ['IGI', 'ISS', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IGI'], ['IDA', 'ISS'], ['IBA'], ['IMP', 'IBA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IPI', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['IMP', 'IC'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IGI', 'ISS', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'ISO', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['NAS'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['ISS', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IMP', 'IGI', 'IBA'], ['IBA'], ['ISS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IMP'], ['NAS'], ['IEA'], ['IEA'], ['IBA'], ['IMP', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['P4HB', 'ICAM1', 'ITGA5', 'ITGB6', 'LDLR', 'TFRC', 'LGALS1', 'GAS6', 'CDK1', 'SLC3A2', 'BCL2L11', 'ITGB5', 'ITGAV', 'CXCL8', 'EPHA2', 'CLDN1', 'TRIM38']</t>
+          <t>['CXCL8', 'ITGA5', 'ITGB5', 'TRIM38', 'ICAM1', 'CLDN1', 'ITGB6', 'P4HB', 'BCL2L11', 'LGALS1', 'GAS6', 'CDK1', 'ITGAV', 'SLC3A2', 'LDLR', 'TFRC', 'EPHA2']</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA']]</t>
+          <t>[['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IMP'], ['IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -5392,12 +5392,12 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'SLC2A1', 'PQBP1', 'BCL6', 'CDH2', 'MAL2', 'TUBA1A', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'SLC38A10', 'SLC5A3', 'TCOF1', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'PCDH9', 'ITGB6', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'PDLIM4', 'TFRC', 'CCM2', 'DKK1', 'SGK1', 'MAGED1', 'ALOX15B', 'SDC4', 'PALLD', 'ERRFI1', 'FN1', 'FAP', 'SERPINE2', 'LAMB2', 'UNC5B', 'GAS6', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'NFKBIZ', 'ALDH1A3', 'TACC2', 'C3', 'IGF2BP3', 'CDH1', 'NR4A1', 'GSN', 'BCL2L11', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'SPHK1', 'CYR61', 'AKR1C3', 'ADNP2', 'PTGS2', 'S100A8', 'TAOK3', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'SOD2', 'STAU2', 'BCL3', 'HES1', 'BMP1', 'RGS2', 'EPCAM', 'STMN1', 'SUN2', 'ANKRD11', 'ITGAV', 'CXCL8', 'ACTB', 'F3', 'GLUL', 'EPHA2', 'MMP9', 'VPS51', 'HES2', 'S100A6', 'DLG5', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'SOX9', 'ZBTB16', 'CLDN1', 'SLC2A12', 'AMIGO2', 'ID1', 'MARCKSL1', 'COL4A1', 'ANGPTL4', 'AURKA', 'PAK1', 'PDLIM7', 'SERPINE1', 'LRP1', 'RDH10', 'CXCL1', 'ASH1L', 'FGFR3', 'CENPF', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'ANKRD11', 'CXCL8', 'PAK1', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'STX3', 'C3', 'NR4A1', 'GJA5', 'MAL2', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'SGK1', 'SLC2A12', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'COL4A2', 'FLNA', 'GRHL3', 'CD24', 'AMIGO2', 'GLUL', 'ABL2', 'CDC20', 'SERPINE1', 'ADGRG1', 'UNC5B', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'CCM2', 'LPIN1', 'CDH2', 'ANXA1', 'SLC5A3', 'GSN', 'NUDT1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'ADNP2', 'TIMP1', 'SDC4', 'ITGB6', 'GAA', 'LTBP3', 'PDGFB', 'HES1', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'AURKA', 'BMP1', 'LRP1', 'TUBB3', 'MARCKSL1', 'VPS51', 'SOX9', 'MMP9', 'S100A8', 'TNC', 'SPHK1', 'EPCAM', 'PDLIM4', 'BCL2L11', 'IGFBP7', 'CARD10', 'MFAP5', 'MME', 'ANGPTL4', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'MYO1E', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'ACKR3', 'DKK1', 'CXCL1', 'TCOF1', 'ERRFI1', 'AKR1C3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'ID1', 'BCL6', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'CITED2', 'ALOX15B', 'HES2', 'ALDH1A3', 'FOS', 'B4GALT5', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A6', 'TSC2', 'MAFB', 'VIM', 'CNTNAP2', 'IGF2BP3', 'FN1', 'CDH1', 'FAP', 'TACC2', 'TFRC', 'RDH10', 'EPHA2', 'ID3', 'ASH1L', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IMP'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['NAS'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'TAS'], ['HEP', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['NAS'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['TAS'], ['IBA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA'], ['IBA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'TAS'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IBA'], ['IMP'], ['IDA', 'IEP', 'TAS'], ['ISS', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['IEA'], ['IBA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISO', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IBA'], ['IGI', 'IEP', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['HEP', 'IBA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['P4HB', 'BCL6', 'TNFSF14', 'ICAM1', 'IVNS1ABP', 'NET1', 'TUBA1A', 'TSC2', 'ITGA5', 'KCNIP3', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'MGMT', 'TSC22D3', 'IL1A', 'DDIT4', 'GADD45B', 'FOXC1', 'ACKR3', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ALOX15B', 'ERRFI1', 'MUC1', 'ARL6IP1', 'FAP', 'GPAM', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'NFKBIZ', 'UBD', 'ALDH1A3', 'NISCH', 'NR4A1', 'GSN', 'BCL2L11', 'TIMP1', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'KRT8', 'CASP2', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'BCL3', 'IER3', 'NME3', 'TRAP1', 'MADD', 'ITGAV', 'ACTB', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'SOX9', 'ZBTB16', 'ANGPTL4', 'AURKA', 'PAK1', 'SERPINE1', 'FGFR3']</t>
+          <t>['PAK1', 'PDK4', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'NR4A1', 'ZFP36', 'TRAP1', 'CLDN7', 'ITGA5', 'CYR61', 'CDKN1A', 'MADD', 'STK25', 'SGK1', 'ZBTB16', 'FGFR3', 'FLNA', 'CD24', 'SERPINE1', 'ICAM1', 'UNC5B', 'NISCH', 'DDIT4', 'CASP2', 'ANXA1', 'GSN', 'UBD', 'SOD2', 'TIMP1', 'MUC1', 'P4HB', 'DLG5', 'AURKA', 'BIRC3', 'KCNIP3', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'SPHK1', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'NOTCH1', 'PLAUR', 'PTGS2', 'MAGED1', 'ACKR3', 'DKK1', 'GADD45B', 'ERRFI1', 'AKR1C3', 'SOX4', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'NME3', 'ALDH1A3', 'TUBA1A', 'LOX', 'ACTB', 'KRT8', 'TSC2', 'TSC22D3', 'GPAM', 'MGMT', 'FAP', 'ARL6IP1', 'TFRC', 'EPHA2', 'NET1', 'ID3', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IGI'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IGI'], ['IMP'], ['IMP'], ['IDA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['ISS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['ISS'], ['IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IGI'], ['TAS', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IGI'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5524,12 +5524,12 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['P4HB', 'BCL6', 'ICAM1', 'IVNS1ABP', 'NET1', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'ID3', 'ANXA1', 'SOX4', 'FLNA', 'MGMT', 'TSC22D3', 'IL1A', 'GADD45B', 'FOXC1', 'ACKR3', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'MUC1', 'ARL6IP1', 'FAP', 'GPAM', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'UBD', 'ALDH1A3', 'NR4A1', 'GSN', 'BCL2L11', 'TIMP1', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'CASP2', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'BCL3', 'IER3', 'TRAP1', 'MADD', 'ITGAV', 'ACTB', 'CLDN7', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'SOX9', 'ZBTB16', 'AMIGO2', 'ANGPTL4', 'AURKA', 'SERPINE1']</t>
+          <t>['PDK4', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'NR4A1', 'ZFP36', 'TRAP1', 'CLDN7', 'ITGA5', 'CYR61', 'CDKN1A', 'MADD', 'SGK1', 'ZBTB16', 'FLNA', 'AMIGO2', 'SERPINE1', 'ICAM1', 'UNC5B', 'CASP2', 'ANXA1', 'GSN', 'UBD', 'SOD2', 'TIMP1', 'MUC1', 'P4HB', 'DLG5', 'AURKA', 'BIRC3', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'SPHK1', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'NOTCH1', 'PLAUR', 'PTGS2', 'MAGED1', 'ACKR3', 'DKK1', 'GADD45B', 'AKR1C3', 'SOX4', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALDH1A3', 'LOX', 'ACTB', 'TSC22D3', 'GPAM', 'MGMT', 'FAP', 'ARL6IP1', 'TFRC', 'NET1', 'ID3', 'PIM1']</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['NAS'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IMP']]</t>
+          <t>[['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['IMP'], ['ISS'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['IEA'], ['IMP'], ['ISS'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['NAS'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5590,12 +5590,12 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['LTBP3', 'SLC2A1', 'VPS13C', 'FBXO32', 'AKR1C2', 'COL4A2', 'TSC2', 'ANXA3', 'ITGA5', 'PIM1', 'NOTCH1', 'IGFBP7', 'ANXA1', 'ADGRG1', 'PDGFB', 'ARSA', 'CDKN1C', 'DDIT4', 'IL1RN', 'ITGB6', 'FOXC1', 'LDLR', 'DKK1', 'SGK1', 'FOSB', 'ERRFI1', 'PDK4', 'GAS6', 'CD24', 'NFKBIZ', 'NR4A1', 'EEF1A1', 'BCL2L11', 'ACSL1', 'TIMP1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'GPR155', 'BAMBI', 'ITGB5', 'FOS', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'HES1', 'CLDN4', 'CXCL8', 'EPHA2', 'ZFP36', 'LOX', 'SOX9', 'CLDN1', 'ID1', 'CCNA2', 'PAK1', 'SCNN1G', 'FGFR3', 'LPIN1', 'MME']</t>
+          <t>['CXCL8', 'PAK1', 'PDK4', 'BAMBI', 'FOXC1', 'NR4A1', 'ZFP36', 'ITGA5', 'CYR61', 'CDKN1A', 'ITGB5', 'SGK1', 'FGFR3', 'COL4A2', 'CD24', 'ACSL1', 'FBXO32', 'ADGRG1', 'CCNA2', 'DDIT4', 'CLDN1', 'LPIN1', 'ANXA1', 'VPS13C', 'ANXA3', 'SLC2A1', 'TIMP1', 'ITGB6', 'LTBP3', 'PDGFB', 'HES1', 'SCNN1G', 'SOX9', 'TNC', 'IL1RN', 'SPHK1', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'MME', 'CDKN1C', 'NOTCH1', 'PTGS2', 'DKK1', 'ERRFI1', 'AKR1C3', 'GPR155', 'ID1', 'GAS6', 'LBH', 'NFKBIZ', 'CITED2', 'CLDN4', 'FOS', 'LOX', 'LDLR', 'TSC2', 'ARSA', 'EEF1A1', 'AKR1C2', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IGI'], ['IDA'], ['IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEP'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA']]</t>
+          <t>[['IEP'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IGI'], ['IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IBA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IBA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'CDH2', 'ITGA5', 'S100A11', 'NOTCH1', 'ANXA1', 'FLNA', 'CNTNAP2', 'EPPK1', 'MYO1E', 'LSR', 'PCDH9', 'STX3', 'PDLIM4', 'CGN', 'ALOX15B', 'ATP1B1', 'GJA5', 'CDH1', 'EVPL', 'CRB3', 'CYTH2', 'KRT8', 'FERMT2', 'EPCAM', 'CLDN4', 'ACTB', 'ADD3', 'DSC2', 'CLDN7', 'EPHA2', 'DLG5', 'CLDN1', 'CDC42EP1', 'LAMA3', 'PAK1', 'PDLIM7', 'ASH1L']</t>
+          <t>['PDLIM7', 'LAMA3', 'ATP1B1', 'ADD3', 'PAK1', 'STX3', 'GJA5', 'CLDN7', 'ITGA5', 'FLNA', 'CLDN1', 'CDH2', 'EVPL', 'ANXA1', 'LSR', 'SLC2A1', 'DSC2', 'DLG5', 'PCDH9', 'EPCAM', 'PDLIM4', 'FERMT2', 'S100A11', 'CGN', 'NOTCH1', 'MYO1E', 'CDC42EP1', 'CRB3', 'ALOX15B', 'CLDN4', 'ACTB', 'KRT8', 'CNTNAP2', 'CYTH2', 'CDH1', 'EPPK1', 'EPHA2', 'ASH1L']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['ISS', 'IEA'], ['HDA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'ISS'], ['IDA', 'IBA'], ['TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5722,12 +5722,12 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'SLC2A1', 'NMU', 'P4HB', 'PQBP1', 'BCL6', 'TNFSF14', 'CDH2', 'CCL20', 'REL', 'ZNF277', 'ICAM1', 'IVNS1ABP', 'NET1', 'FBXO32', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'TSC2', 'ITGA5', 'SEMA3C', 'KCNIP3', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'CDC20', 'SLC46A3', 'PIM3', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'PDGFB', 'CDKN1C', 'MGMT', 'PTGES', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'IL1RN', 'FBXO4', 'ITGB6', 'GADD45B', 'FOXC1', 'ACKR3', 'LDLR', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'ALOX15B', 'ATP1B1', 'ALDH3B1', 'ZNF236', 'SPIRE1', 'ERRFI1', 'MUC1', 'WDR59', 'FN1', 'PDK4', 'MACC1', 'SERPINE2', 'LAMB2', 'UNC5B', 'FAM111A', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'MBD4', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'CALML5', 'C3', 'DLK2', 'KLK5', 'CDH1', 'NISCH', 'NR4A1', 'SLC26A6', 'ENTPD2', 'NEURL1B', 'BCL2L11', 'ACSL1', 'TIMP1', 'MTA1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'CYTH2', 'PTGS2', 'GPR155', 'S100A8', 'BAMBI', 'TAOK3', 'CXCL16', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'NME3', 'BMP1', 'SAA1', 'RGS2', 'EPCAM', 'SORBS3', 'TRAP1', 'MADD', 'STMN1', 'ITGAV', 'CXCL8', 'ACTB', 'F3', 'GLUL', 'DSC2', 'GBP1', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'IFITM2', 'S100A6', 'DLG5', 'ZFP36', 'NUDT1', 'LOX', 'VIM', 'RASSF8', 'SOX9', 'REV3L', 'CLDN1', 'TRIM38', 'MT1X', 'ID1', 'CDC42EP1', 'TMEM132A', 'COL4A1', 'CCNA2', 'TMEM259', 'AURKA', 'PAK1', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'LRP1', 'CXCL1', 'ASH1L', 'S100A4', 'FGFR3', 'CENPF', 'TMSB4X', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'FAM111A', 'ATP1B1', 'CXCL8', 'PAK1', 'ZNF236', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'C3', 'NR4A1', 'ZFP36', 'CXCL16', 'TRAP1', 'ITGA5', 'CYR61', 'CDKN1A', 'SORBS3', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'PQBP1', 'PTTG1', 'FGFR3', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'PLAU', 'NISCH', 'TMEM259', 'DDIT4', 'CLDN1', 'CASP2', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'ANXA1', 'REV3L', 'NUDT1', 'MT1X', 'SAA1', 'SLC2A1', 'UBD', 'SOD2', 'TIMP1', 'ITGB6', 'LTBP3', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'P4HB', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'LRP1', 'KCNIP3', 'TUBB3', 'UBE2G2', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'SLC46A3', 'TNC', 'IL1RN', 'SPHK1', 'EPCAM', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'WSB1', 'MME', 'S100A11', 'CDKN1C', 'TAOK3', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'CXCL1', 'ERRFI1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'LAMB2', 'MBD4', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'ENTPD2', 'NME3', 'DNAJC15', 'FOS', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'RBBP6', 'KRT8', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'WDR59', 'ILKAP', 'VIM', 'SLC26A6', 'ALDH3A1', 'AKR1C2', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'ALDH3B1', 'GBP1', 'CDH1', 'MGMT', 'CALML5', 'TMEM132A', 'TFRC', 'EPHA2', 'NET1', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>[['IEP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IMP'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'HMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEP'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['HMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IEP'], ['IEA'], ['IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['ISO', 'IEA'], ['IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'NAS'], ['ISS', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IBA', 'NAS', 'IEA'], ['IBA'], ['TAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HMP', 'IBA'], ['IEP', 'IBA', 'IEA'], ['TAS'], ['IBA'], ['IEA'], ['IEA'], ['IEP', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['ISS'], ['IBA', 'TAS'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP'], ['NAS'], ['IBA', 'IEA'], ['IEA'], ['IDA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IEP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA'], ['IMP', 'IGI', 'HMP', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'TAS'], ['NAS'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['NAS'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['IMP'], ['TAS'], ['TAS'], ['IDA', 'IMP'], ['IBA'], ['IEA'], ['ISS'], ['TAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IBA', 'NAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISO', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['IEP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['HMP', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEP', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'NAS'], ['IMP', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IGI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IBA'], ['IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -5788,12 +5788,12 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'CMTM4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'C1R', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'HEATR1', 'IL1RN', 'PCDH9', 'CCDC80', 'WDR74', 'FBXO4', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'IDI1', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'C1orf74', 'SGK1', 'RSBN1L', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'CGN', 'TUBB4B', 'LAD1', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'SPINK6', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PLEKHA6', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CA12', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'CHI3L2', 'PNISR', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'EFHD2', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'TIMP1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'ANKRD12', 'TM4SF1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'TTC14', 'MSMO1', 'HELZ', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'CORO6', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'C1orf116', 'TUBA1B', 'TPM2', 'GPCPD1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'C15orf48', 'TGM1', 'UBALD2', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'SPSB1', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'SAA2', 'ACTB', 'ADD3', 'ANKRD13D', 'TAGLN', 'ZC3H12C', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'S100A6', 'PDZK1IP1', 'DLG5', 'DNAJC4', 'RUSC2', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'RASSF8', 'SOX9', 'ZBTB16', 'REV3L', 'TP53I3', 'CLDN1', 'TRIM38', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'MRI1', 'FBXW5', 'CCNA2', 'AURKA', 'SERPINA3', 'TMEM139', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'ATP1B1', 'CXCL8', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'MAL2', 'TRAP1', 'RSBN1L', 'SMC4', 'CLDN7', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'SPINK6', 'ITGB5', 'SGK1', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'CORO6', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'TMEM139', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'SPSB1', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'SLC5A3', 'GSN', 'C1orf74', 'NUDT1', 'MLXIP', 'SUGP2', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'SAA1', 'EFHD2', 'KRT6B', 'SLC2A1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'LAD1', 'GAA', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'RSRP1', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'AURKA', 'BIRC3', 'CA12', 'ISG15', 'BMP1', 'MRI1', 'SAA2', 'ZBED2', 'TIMM17B', 'LRP1', 'KCNIP3', 'PLEKHA6', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'UBALD2', 'NOTCH1', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CST6', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'GPR155', 'TP53I3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'DMTF1', 'KRT10', 'DNAJC4', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'C1orf56', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'OPLAH', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'CMTM4', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'TTC14', 'MAFB', 'MRC2', 'C15orf48', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'AKR1C2', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CKS2', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'ID3', 'ASH1L', 'LAGE3', 'TNFSF14', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>[['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IPI'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'ISS', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IBA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IEA'], ['ISS'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'TAS'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'NAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IEA'], ['IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'TAS'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA'], ['IPI', 'IEA'], ['IDA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA']]</t>
+          <t>[['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['ISS'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IBA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['IPI', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IC', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI', 'HDA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'NAS'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'ISS'], ['IDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI'], ['IEA'], ['IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IBA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI', 'TAS'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI']]</t>
         </is>
       </c>
     </row>
@@ -5854,12 +5854,12 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'LAMB3', 'SLC2A1', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'ICAM1', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC38A10', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'CMTM4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'C1R', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'HEATR1', 'IL1RN', 'PCDH9', 'CCDC80', 'WDR74', 'FBXO4', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'MRC2', 'IDI1', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'C1orf74', 'SGK1', 'RSBN1L', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'CGN', 'TUBB4B', 'LAD1', 'N4BP2L2', 'C1RL', 'OPLAH', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'SPINK6', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PGBD5', 'PLEKHA6', 'ZNF236', 'CAMK2N1', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CA12', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'CHI3L2', 'PNISR', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'EFHD2', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'SLC7A2', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'ANKRD12', 'TM4SF1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'USP31', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'CST6', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'TTC14', 'MSMO1', 'HELZ', 'DSEL', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'CORO6', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'C1orf116', 'TUBA1B', 'TPM2', 'GPCPD1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'C15orf48', 'TGM1', 'UBALD2', 'IFT46', 'TRAP1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'SPSB1', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'SAA2', 'ACTB', 'ADD3', 'ANKRD13D', 'TAGLN', 'ZC3H12C', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'S100A6', 'PDZK1IP1', 'DLG5', 'DNAJC4', 'RUSC2', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'IFI44L', 'RASSF8', 'SOX9', 'ZBTB16', 'REV3L', 'TP53I3', 'CLDN1', 'TRIM38', 'SLC2A12', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'MRI1', 'FBXW5', 'CCNA2', 'AURKA', 'SERPINA3', 'TMEM139', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'ATP1B1', 'CXCL8', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'C1RL', 'USP31', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'MAL2', 'TRAP1', 'RSBN1L', 'SMC4', 'CLDN7', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'SPINK6', 'ITGB5', 'SGK1', 'SLC2A12', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'CORO6', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'TMEM139', 'CD24', 'CAMK2N1', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'GOSR1', 'SPSB1', 'DDIT4', 'CLDN1', 'PALLD', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'SLC5A3', 'GSN', 'C1orf74', 'NUDT1', 'MLXIP', 'SUGP2', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'SAA1', 'EFHD2', 'KRT6B', 'SLC2A1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'TM4SF1', 'ITGB6', 'LAD1', 'GAA', 'LTBP3', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'LAMB3', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'RSRP1', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'CA12', 'ISG15', 'BMP1', 'MRI1', 'SAA2', 'ZBED2', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'PLEKHA6', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'UBALD2', 'NOTCH1', 'PGBD5', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'CST6', 'CCL28', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'C1orf116', 'PDZK1IP1', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'GPR155', 'TP53I3', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'DMTF1', 'KRT10', 'DNAJC4', 'ID1', 'IFI44L', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'DSEL', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'C1orf56', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'OPLAH', 'B4GALT5', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'CMTM4', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'TTC14', 'MAFB', 'MRC2', 'C15orf48', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'AKR1C2', 'DMKN', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CKS2', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'SLC7A2', 'ID3', 'ASH1L', 'LAGE3', 'TNFSF14', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>[['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'RCA', 'NAS', 'IEA'], ['EXP', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['RCA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IPI', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['EXP', 'IPI', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'RCA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IGI', 'ISS', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['RCA', 'TAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'RCA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEP', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IC', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'NAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'ND', 'IEA'], ['IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IPI', 'ND'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'TAS'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['EXP', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'ISS', 'RCA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA'], ['IPI', 'IBA', 'NAS'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'RCA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'ND'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['EXP', 'IDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'ND'], ['IPI', 'IBA', 'RCA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IPI', 'ISA', 'ND', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ND', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'RCA', 'IEA'], ['IDA', 'IPI', 'ISS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IPI', 'ND'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IBA', 'ND', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['ISS', 'ND'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'IGI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'ND', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'ND'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IPI', 'NAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['ND'], ['IPI'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA'], ['RCA', 'NAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'RCA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'ISA', 'IEA'], ['IDA', 'IPI', 'IMP', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'ISA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA']]</t>
+          <t>[['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['RCA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'RCA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'RCA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'ND'], ['IPI', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['EXP', 'IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['EXP', 'IPI', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IBA', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['RCA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS'], ['EXP', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IPI', 'ISA', 'ND', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'IEA'], ['IPI', 'ND'], ['IPI', 'IEP', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IBA', 'ND', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IC', 'IEA'], ['IDA', 'IPI'], ['IPI', 'RCA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IGI', 'ISA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'ISA', 'IEA'], ['TAS'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ND'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'RCA', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'RCA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'ISA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS'], ['RCA', 'TAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IMP', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'NAS'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'ND'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'TAS'], ['EXP', 'IDA', 'IPI', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'ND', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'RCA', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'NAS'], ['IDA', 'IPI', 'IEA'], ['ND'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ND'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IPI', 'ISS', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'ND', 'IEA'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ND'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA', 'RCA', 'IEA'], ['EXP', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IPI'], ['ND', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'ND', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'RCA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['P4HB', 'BCL6', 'ICAM1', 'IVNS1ABP', 'NET1', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'ID3', 'ANXA1', 'SOX4', 'FLNA', 'MGMT', 'TSC22D3', 'IL1A', 'GADD45B', 'FOXC1', 'ACKR3', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'MUC1', 'ARL6IP1', 'FAP', 'GPAM', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'UBD', 'ALDH1A3', 'NR4A1', 'GSN', 'BCL2L11', 'TIMP1', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'CASP2', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'BCL3', 'IER3', 'TRAP1', 'MADD', 'ITGAV', 'ACTB', 'CLDN7', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'SOX9', 'ZBTB16', 'ANGPTL4', 'AURKA', 'SERPINE1']</t>
+          <t>['PDK4', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'NR4A1', 'ZFP36', 'TRAP1', 'CLDN7', 'ITGA5', 'CYR61', 'CDKN1A', 'MADD', 'SGK1', 'ZBTB16', 'FLNA', 'SERPINE1', 'ICAM1', 'UNC5B', 'CASP2', 'ANXA1', 'GSN', 'UBD', 'SOD2', 'TIMP1', 'MUC1', 'P4HB', 'DLG5', 'AURKA', 'BIRC3', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'SPHK1', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'NOTCH1', 'PLAUR', 'PTGS2', 'MAGED1', 'ACKR3', 'DKK1', 'GADD45B', 'AKR1C3', 'SOX4', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'ALDH1A3', 'LOX', 'ACTB', 'TSC22D3', 'GPAM', 'MGMT', 'FAP', 'ARL6IP1', 'TFRC', 'NET1', 'ID3', 'PIM1']</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['NAS'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP']]</t>
+          <t>[['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['IMP'], ['ISS'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['TAS'], ['IEA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -5986,12 +5986,12 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['TPM1', 'CDH2', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'PIM1', 'NOTCH1', 'IGFBP7', 'ID3', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'PDGFB', 'IL1A', 'MYO1E', 'FOXC1', 'ACKR3', 'LDLR', 'PDLIM4', 'CCM2', 'DKK1', 'ERRFI1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'CDK1', 'GJA5', 'C3', 'NR4A1', 'TGFBI', 'GAA', 'SPHK1', 'CYR61', 'PTGS2', 'CDKN1A', 'CITED2', 'SOD2', 'HES1', 'RGS2', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'EPHA2', 'LOX', 'SOX9', 'SLC2A12', 'ID1', 'COL4A1', 'ANGPTL4', 'PDLIM7', 'SERPINE1', 'LRP1']</t>
+          <t>['PDLIM7', 'CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'SLC2A12', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CCM2', 'CDH2', 'ANXA1', 'ANXA3', 'SOD2', 'GAA', 'PDGFB', 'HES1', 'LRP1', 'SOX9', 'SPHK1', 'PDLIM4', 'IGFBP7', 'CARD10', 'ANGPTL4', 'NOTCH1', 'F3', 'MYO1E', 'PTGS2', 'TPM1', 'ACKR3', 'DKK1', 'ERRFI1', 'RGS2', 'SOX4', 'ID1', 'CDK1', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'TSC2', 'FN1', 'FAP', 'EPHA2', 'ID3', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS']]</t>
+          <t>[['IBA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6052,12 +6052,12 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'TSC2', 'ANXA3', 'ITGA5', 'TACSTD2', 'NOTCH1', 'IGFBP7', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'IL1A', 'MYO1E', 'FOXC1', 'ACKR3', 'LDLR', 'CCM2', 'MAGED1', 'SDC4', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'BCL2L11', 'GRHL3', 'TGFBI', 'SPHK1', 'CYR61', 'PTGS2', 'TNC', 'CITED2', 'HES1', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'EPHA2', 'DLG5', 'LOX', 'SOX9', 'ID1', 'COL4A1', 'ANGPTL4', 'PAK1', 'SERPINE1', 'LRP1', 'RDH10']</t>
+          <t>['CXCL8', 'PAK1', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'ITGA5', 'CYR61', 'PXDN', 'TGFBI', 'COL4A2', 'FLNA', 'GRHL3', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CCM2', 'CDH2', 'ANXA1', 'ANXA3', 'SDC4', 'HES1', 'DLG5', 'LRP1', 'SOX9', 'TNC', 'SPHK1', 'BCL2L11', 'IGFBP7', 'CARD10', 'ANGPTL4', 'NOTCH1', 'F3', 'MYO1E', 'PTGS2', 'MAGED1', 'TACSTD2', 'ACKR3', 'SOX4', 'ID1', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'TSC2', 'FN1', 'FAP', 'RDH10', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA']]</t>
+          <t>[['IDA', 'TAS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6118,12 +6118,12 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['LTBP3', 'LAMB3', 'LAMC2', 'CDH2', 'ICAM1', 'COL4A2', 'PXDN', 'MFAP5', 'IGFBP7', 'ANXA1', 'PDGFB', 'CCDC80', 'SLPI', 'FN1', 'SERPINE2', 'LAMB2', 'LGALS1', 'COL7A1', 'TGFBI', 'CYR61', 'S100A8', 'TNC', 'F3', 'MMP9', 'S100A6', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1', 'S100A4']</t>
+          <t>['LAMA3', 'CCDC80', 'SERPINE2', 'SLPI', 'CYR61', 'PXDN', 'TGFBI', 'COL4A2', 'LAMC2', 'SERPINE1', 'ICAM1', 'CDH2', 'ANXA1', 'LTBP3', 'LAMB3', 'PDGFB', 'MMP9', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'ANGPTL4', 'F3', 'LAMB2', 'LOX', 'S100A4', 'S100A6', 'FN1', 'COL7A1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>[['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'ISS'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA']]</t>
+          <t>[['HDA'], ['IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IBA'], ['IDA'], ['HDA', 'ISS'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6184,12 +6184,12 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'BCL6', 'CDH2', 'REL', 'ELF3', 'ICAM1', 'VPS13C', 'IVNS1ABP', 'UBE2G2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'TSC2', 'ITGA5', 'TACSTD2', 'KCNIP3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'KANK4', 'CDC20', 'YEATS2', 'PIM3', 'HERC4', 'IGFBP7', 'ID3', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'CDKN1C', 'OAZ2', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'TP53I11', 'IL1A', 'ABL2', 'DDIT4', 'IL1RN', 'FBXO4', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'TFRC', 'ISG15', 'DKK1', 'FOSB', 'PLAUR', 'MAGED1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ERRFI1', 'MUC1', 'WDR59', 'SLPI', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'DCAF5', 'SERPINE2', 'UNC5B', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'CSTA', 'MAGOH', 'RREB1', 'DLK2', 'IGF2BP3', 'CDH1', 'NISCH', 'NR4A1', 'MFI2', 'GSN', 'TGFBI', 'TIMP1', 'CREG1', 'MTA1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'GPR155', 'BAMBI', 'TAOK3', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'HELZ', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'SAA1', 'RGS2', 'EPCAM', 'SORBS3', 'TRAP1', 'STMN1', 'ITGAV', 'CXCL8', 'ACTB', 'ADD3', 'ANKRD13D', 'GBP1', 'CLDN7', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'HES2', 'CCNF', 'IFITM2', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'FTH1', 'SOX9', 'ZBTB16', 'TRIM38', 'PNPLA2', 'MT1X', 'AMIGO2', 'ID1', 'TMEM132A', 'ANGPTL4', 'AURKA', 'PAK1', 'GPRC5A', 'ZBED2', 'SERPINE1', 'LRP1', 'CXCL1', 'ASH1L', 'FGFR3', 'CENPF', 'TMSB4X', 'MAFB', 'LPIN1']</t>
+          <t>['GPRC5A', 'CCNB1', 'FAM111A', 'CXCL8', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'NR4A1', 'ZFP36', 'PHLDB2', 'GJA5', 'HELZ', 'TRAP1', 'CLDN7', 'ITGA5', 'SLPI', 'CYR61', 'CDKN1A', 'SORBS3', 'PXDN', 'DLK2', 'TP53I11', 'TGFBI', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'AMIGO2', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'ADGRG1', 'UNC5B', 'PLAU', 'NISCH', 'DDIT4', 'CASP2', 'DCAF5', 'PTGES', 'LPIN1', 'CDH2', 'ANXA1', 'RREB1', 'GSN', 'VPS13C', 'MT1X', 'SAA1', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LTBP3', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'PSCA', 'FBXO4', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'ZBED2', 'CREG1', 'LRP1', 'KCNIP3', 'UBE2G2', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'TNC', 'IL1RN', 'SPHK1', 'EPCAM', 'REL', 'FOSB', 'FERMT2', 'IGFBP7', 'ATF3', 'LGALS1', 'CARD10', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'TAOK3', 'STAU2', 'NOTCH1', 'PLAUR', 'CCL28', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'CXCL1', 'ERRFI1', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'GAK', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'CCNF', 'HES2', 'CSTA', 'DNAJC15', 'OAZ2', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'TMSB4X', 'WWC1', 'NCOA7', 'TSC2', 'MAFB', 'WDR59', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'IGF2BP3', 'TSC22D3', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'MGMT', 'FAP', 'EPPK1', 'ARL6IP1', 'TMEM132A', 'TFRC', 'EPHA2', 'ID3', 'ASH1L', 'PIM1', 'YEATS2']</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['ISS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['NAS'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'TAS'], ['NAS'], ['IBA', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'NAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IC'], ['TAS'], ['IEA'], ['ISS'], ['IDA', 'NAS'], ['IMP'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IEA']]</t>
+          <t>[['ISS'], ['IMP'], ['IMP'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IBA'], ['IMP', 'ISS', 'TAS'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'NAS', 'IEA'], ['ISS'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP'], ['ISS'], ['ISS'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IMP', 'IBA', 'NAS'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['IMP'], ['IEA'], ['ISS', 'IC'], ['IDA', 'IBA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['TAS'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'NAS'], ['IDA'], ['IEA'], ['IMP', 'ISS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'ISS'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -6250,12 +6250,12 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'P4HB', 'TNFSF14', 'MYH10', 'CDH2', 'ICAM1', 'MAL2', 'KRT17', 'TUBA1A', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KCNIP3', 'PIM1', 'DST', 'NOTCH1', 'SLC5A3', 'PIEZO1', 'ANXA1', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'TSPAN1', 'EPPK1', 'ABL2', 'ABCD4', 'MYO1E', 'LSR', 'IL1RN', 'PCDH9', 'ITGB6', 'MSLN', 'ACKR3', 'LDLR', 'STX3', 'TLCD2', 'PDLIM4', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'CGN', 'ALOX15B', 'SDC4', 'ATP1B1', 'ALDH3B1', 'PALLD', 'VMP1', 'KATNBL1', 'SPIRE1', 'ERRFI1', 'MUC1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'CA12', 'UNC5B', 'PHLDB2', 'LGALS1', 'SYT8', 'GJA5', 'CD24', 'PNISR', 'SCEL', 'SNAP47', 'CSTA', 'TACC2', 'C3', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'SLC26A6', 'SLC3A2', 'ENTPD2', 'MFI2', 'GSN', 'EEF1A1', 'SLC7A2', 'TGFBI', 'GAA', 'SPHK1', 'TM4SF1', 'CYTH2', 'PTGS2', 'S100A8', 'BAMBI', 'TAOK3', 'CXCL16', 'ALDH3A1', 'KRT8', 'ITGB5', 'S100P', 'CST6', 'KRT14', 'FERMT2', 'MSMO1', 'STAU2', 'PSCA', 'BCL3', 'C1orf116', 'RGS2', 'EPCAM', 'TGM1', 'MADD', 'CLDN4', 'ITGAV', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'WWC1', 'EPHA2', 'IFITM2', 'S100A6', 'DLG5', 'VIM', 'CLDN1', 'SLC2A12', 'PNPLA2', 'AMIGO2', 'KRT10', 'MARCKSL1', 'CDC42EP1', 'TMEM132A', 'AURKA', 'PAK1', 'GPRC5A', 'SCNN1G', 'SERPINE1', 'LRP1', 'RAB24', 'SH3BGRL3', 'FGFR3', 'FXYD3', 'ATP6V0A1', 'MME']</t>
+          <t>['GPRC5A', 'ATP1B1', 'ADD3', 'PAK1', 'KATNBL1', 'BAMBI', 'BCL3', 'STX3', 'C3', 'PHLDB2', 'CXCL16', 'GJA5', 'MAL2', 'CLDN7', 'ITGA5', 'SEMA3C', 'MADD', 'ITGB5', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'FLNA', 'CD24', 'SNAP47', 'MYH10', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'SERPINE1', 'ICAM1', 'ADGRG1', 'UNC5B', 'PLAU', 'NISCH', 'CLDN1', 'PALLD', 'TGM1', 'CDH2', 'EVPL', 'ANXA1', 'SLC5A3', 'GSN', 'ANXA3', 'LSR', 'SLC2A1', 'PNPLA2', 'MFI2', 'SDC4', 'TM4SF1', 'ITGB6', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'SCNN1G', 'PSCA', 'P4HB', 'DLG5', 'PCDH9', 'TLCD2', 'AURKA', 'CA12', 'IFITM2', 'LRP1', 'KCNIP3', 'MARCKSL1', 'MSMO1', 'S100A8', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'VMP1', 'PDLIM4', 'FERMT2', 'LGALS1', 'MME', 'CGN', 'TAOK3', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CST6', 'MYO1E', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'C1orf116', 'CRB3', 'ACKR3', 'DKK1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'PNISR', 'RGS2', 'KRT10', 'ITGAV', 'SH3BGRL3', 'ALOX15B', 'S100P', 'ATP6V0A1', 'MSLN', 'ENTPD2', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CLDN4', 'TUBA1A', 'ACTB', 'LDLR', 'ABCD4', 'WWC1', 'KRT8', 'KRT17', 'S100A6', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'SLC26A6', 'RAB24', 'ALDH3A1', 'PIEZO1', 'CYTH2', 'FN1', 'ALDH3B1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'EPPK1', 'TACC2', 'TMEM132A', 'TFRC', 'EPHA2', 'SLC7A2', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'NAS', 'IEA'], ['ISS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['NAS'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['IBA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['TAS'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IBA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -6316,12 +6316,12 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'NMU', 'P4HB', 'MYH10', 'CDH2', 'ICAM1', 'MAL2', 'STX16', 'TUBA1A', 'PLAU', 'TSC2', 'ITGA5', 'S100A11', 'DST', 'NOTCH1', 'ANXA1', 'FLNA', 'CNTNAP2', 'TSPAN1', 'EPPK1', 'MYO1E', 'LSR', 'PCDH9', 'ITGB6', 'GAK', 'STX3', 'MRC2', 'PDLIM4', 'TFRC', 'PLAUR', 'CGN', 'ALOX15B', 'SDC4', 'ATP1B1', 'PALLD', 'CAMK2N1', 'FAP', 'SERPINE2', 'LAMB2', 'PHLDB2', 'SYT8', 'GJA5', 'PNISR', 'SNAP47', 'CDH1', 'EVPL', 'CRB3', 'NR4A1', 'SLC3A2', 'TPM4', 'GSN', 'CSRP1', 'SLC7A2', 'SPHK1', 'CYTH2', 'KRT8', 'ITGB5', 'TNC', 'FERMT2', 'STAU2', 'EPCAM', 'SORBS3', 'CLDN4', 'ITGAV', 'ACTB', 'ADD3', 'DSC2', 'CLDN7', 'WWC1', 'EPHA2', 'CCNF', 'IFITM2', 'DLG5', 'VIM', 'CLDN1', 'CDC42EP1', 'LAMA3', 'AURKA', 'PAK1', 'PDLIM7', 'LRP1', 'ASH1L', 'FGFR3', 'ATP6V0A1', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'ATP1B1', 'ADD3', 'PAK1', 'SERPINE2', 'STX3', 'NR4A1', 'PHLDB2', 'GJA5', 'MAL2', 'CLDN7', 'ITGA5', 'SORBS3', 'ITGB5', 'FGFR3', 'DST', 'FLNA', 'CAMK2N1', 'SNAP47', 'MYH10', 'ICAM1', 'PLAU', 'CLDN1', 'PALLD', 'CDH2', 'EVPL', 'ANXA1', 'GSN', 'CSRP1', 'LSR', 'SLC2A1', 'SDC4', 'ITGB6', 'DSC2', 'P4HB', 'NMU', 'DLG5', 'PCDH9', 'AURKA', 'IFITM2', 'LRP1', 'TNC', 'SPHK1', 'EPCAM', 'PDLIM4', 'FERMT2', 'TPM4', 'MME', 'S100A11', 'CGN', 'STAU2', 'NOTCH1', 'PLAUR', 'MYO1E', 'CDC42EP1', 'CRB3', 'TSPAN1', 'PNISR', 'GAK', 'LAMB2', 'ITGAV', 'ALOX15B', 'ATP6V0A1', 'CCNF', 'SYT8', 'SLC3A2', 'CLDN4', 'TUBA1A', 'ACTB', 'STX16', 'WWC1', 'KRT8', 'TSC2', 'MRC2', 'VIM', 'CNTNAP2', 'CYTH2', 'CDH1', 'FAP', 'EPPK1', 'TFRC', 'EPHA2', 'SLC7A2', 'ASH1L']</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IMP'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['IEA'], ['HDA'], ['EXP', 'IDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['HDA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IGI', 'HDA', 'ISS', 'IEA']]</t>
+          <t>[['IDA', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IGI', 'HDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IEA'], ['EXP', 'IDA'], ['HDA'], ['HDA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6382,12 +6382,12 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'NOTCH1', 'IGFBP7', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'PDGFB', 'IL1A', 'MYO1E', 'FOXC1', 'ACKR3', 'LDLR', 'CCM2', 'ERRFI1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'TGFBI', 'GAA', 'SPHK1', 'CYR61', 'PTGS2', 'CITED2', 'SOD2', 'HES1', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'EPHA2', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'ITGA5', 'CYR61', 'PXDN', 'SEMA3C', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CCM2', 'CDH2', 'ANXA1', 'ANXA3', 'SOD2', 'GAA', 'PDGFB', 'HES1', 'LRP1', 'SPHK1', 'IGFBP7', 'CARD10', 'ANGPTL4', 'NOTCH1', 'F3', 'MYO1E', 'PTGS2', 'ACKR3', 'ERRFI1', 'SOX4', 'ID1', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'FN1', 'FAP', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS']]</t>
+          <t>[['IDA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6448,12 +6448,12 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['P4HB', 'ICAM1', 'ITGA5', 'ITGB6', 'LDLR', 'TFRC', 'FN1', 'LGALS1', 'GAS6', 'CDK1', 'SLC3A2', 'BCL2L11', 'ITGB5', 'ITGAV', 'CXCL8', 'EPHA2', 'CLDN1', 'TRIM38']</t>
+          <t>['CXCL8', 'ITGA5', 'ITGB5', 'TRIM38', 'ICAM1', 'CLDN1', 'ITGB6', 'P4HB', 'BCL2L11', 'LGALS1', 'GAS6', 'CDK1', 'ITGAV', 'SLC3A2', 'LDLR', 'FN1', 'TFRC', 'EPHA2']</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA']]</t>
+          <t>[['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -6514,12 +6514,12 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'NOTCH1', 'IGFBP7', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'IL1A', 'MYO1E', 'FOXC1', 'ACKR3', 'LDLR', 'CCM2', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'TGFBI', 'SPHK1', 'CYR61', 'PTGS2', 'CITED2', 'HES1', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'EPHA2', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'ITGA5', 'CYR61', 'PXDN', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CCM2', 'CDH2', 'ANXA1', 'ANXA3', 'HES1', 'LRP1', 'SPHK1', 'IGFBP7', 'CARD10', 'ANGPTL4', 'NOTCH1', 'F3', 'MYO1E', 'PTGS2', 'ACKR3', 'SOX4', 'ID1', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'FN1', 'FAP', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['IEP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS']]</t>
+          <t>[['IDA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['IDA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6580,12 +6580,12 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['LAMC2', 'TNFSF14', 'CCL20', 'ICAM1', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'S100A11', 'NOTCH1', 'ANXA1', 'FLNA', 'PDGFB', 'IL1A', 'ABL2', 'ACKR3', 'MMP7', 'FN1', 'GAS6', 'RREB1', 'SPHK1', 'CYR61', 'PTGS2', 'CXCL16', 'FERMT2', 'SOD2', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'EPHA2', 'MMP9', 'SOX9', 'CLDN1', 'PAK1', 'SERPINE1', 'TMSB4X']</t>
+          <t>['CXCL8', 'PAK1', 'IL1A', 'CXCL16', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'FLNA', 'LAMC2', 'ABL2', 'SERPINE1', 'ICAM1', 'PLAU', 'CLDN1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'PDGFB', 'SOX9', 'MMP9', 'CCL20', 'SPHK1', 'FERMT2', 'S100A11', 'SUN2', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'GAS6', 'ITGAV', 'CLDN4', 'TMSB4X', 'FN1', 'EPHA2', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['TAS'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IGI']]</t>
+          <t>[['TAS'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['IDA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IGI'], ['IDA'], ['IDA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'NOTCH1', 'IGFBP7', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'PDGFB', 'IL1A', 'MYO1E', 'FOXC1', 'ACKR3', 'LDLR', 'CCM2', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'TGFBI', 'GAA', 'SPHK1', 'CYR61', 'PTGS2', 'CITED2', 'HES1', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'EPHA2', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'ITGA5', 'CYR61', 'PXDN', 'SEMA3C', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CCM2', 'CDH2', 'ANXA1', 'ANXA3', 'GAA', 'PDGFB', 'HES1', 'LRP1', 'SPHK1', 'IGFBP7', 'CARD10', 'ANGPTL4', 'NOTCH1', 'F3', 'MYO1E', 'PTGS2', 'ACKR3', 'SOX4', 'ID1', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'FN1', 'FAP', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS']]</t>
+          <t>[['IDA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6712,12 +6712,12 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['LTBP3', 'LAMC2', 'BCL6', 'AKR1C2', 'ATF3', 'PIM1', 'NOTCH1', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'PDGFB', 'IL1A', 'STX3', 'TFRC', 'N4BP2L2', 'FN1', 'GPAM', 'GAS6', 'CDK1', 'CD24', 'CCNB1', 'RREB1', 'NR4A1', 'TIMP1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'TNC', 'CDKN1A', 'FERMT2', 'HES1', 'EPCAM', 'TGM1', 'CDC25B', 'ITGAV', 'ACTB', 'F3', 'CLDN7', 'MMP9', 'S100A6', 'SOX9', 'CLDN1', 'MARCKSL1', 'CCNA2', 'PAK1', 'FGFR3']</t>
+          <t>['CCNB1', 'PAK1', 'BAMBI', 'IL1A', 'STX3', 'NR4A1', 'CLDN7', 'CYR61', 'CDKN1A', 'FGFR3', 'FLNA', 'CD24', 'LAMC2', 'ADGRG1', 'CCNA2', 'CLDN1', 'TGM1', 'ANXA1', 'RREB1', 'TIMP1', 'LTBP3', 'PDGFB', 'HES1', 'MARCKSL1', 'SOX9', 'MMP9', 'TNC', 'SPHK1', 'EPCAM', 'FERMT2', 'ATF3', 'NOTCH1', 'F3', 'PTGS2', 'AKR1C3', 'SOX4', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'ITGAV', 'CDC25B', 'ACTB', 'S100A6', 'N4BP2L2', 'AKR1C2', 'FN1', 'GPAM', 'TFRC', 'PIM1']</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['IDA'], ['IMP'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['TAS'], ['IDA', 'IEA'], ['NAS'], ['IDA'], ['IEA'], ['IMP'], ['NAS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IGI', 'IEA']]</t>
+          <t>[['IEA'], ['IMP'], ['IMP'], ['IBA'], ['IMP'], ['IMP'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['NAS'], ['NAS'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['IDA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -6778,12 +6778,12 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['TPM1', 'KRT6B', 'KRT5', 'KRT15', 'TUBA1A', 'TUBB3', 'TUBA4A', 'TUBB4B', 'KRT16', 'KRT14', 'TUBA1B', 'SORBS3', 'ACTB', 'ADD3', 'VIM']</t>
+          <t>['ADD3', 'SORBS3', 'TUBA4A', 'KRT6B', 'TUBB3', 'KRT15', 'KRT14', 'KRT5', 'TPM1', 'TUBA1B', 'TUBB4B', 'TUBA1A', 'ACTB', 'VIM', 'KRT16']</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['EXP', 'IDA', 'IMP', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA']]</t>
+          <t>[['TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['EXP', 'IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6844,12 +6844,12 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['TPM1', 'P4HB', 'MYH10', 'CDH2', 'ITGA5', 'TUBB3', 'S100A11', 'DST', 'PIEZO1', 'CNTNAP2', 'STX3', 'PDLIM4', 'PALLD', 'FAP', 'PHLDB2', 'CDH1', 'GSN', 'EEF1A1', 'FERMT2', 'ITGAV', 'ACTB', 'WWC1', 'EPHA2', 'S100A6', 'VIM', 'PAK1', 'PDLIM7', 'SH3BGRL3']</t>
+          <t>['PDLIM7', 'PAK1', 'STX3', 'PHLDB2', 'ITGA5', 'DST', 'MYH10', 'PALLD', 'CDH2', 'GSN', 'P4HB', 'TUBB3', 'PDLIM4', 'FERMT2', 'S100A11', 'TPM1', 'ITGAV', 'SH3BGRL3', 'ACTB', 'WWC1', 'S100A6', 'VIM', 'EEF1A1', 'CNTNAP2', 'PIEZO1', 'CDH1', 'FAP', 'EPHA2']</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -6910,12 +6910,12 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['TPM1', 'BCL6', 'MYH10', 'TACSTD2', 'KANK4', 'ANXA1', 'FLNA', 'IL1A', 'ABL2', 'MYO1E', 'PDLIM4', 'SDC4', 'PALLD', 'SPIRE1', 'PHLDB2', 'GJA5', 'NISCH', 'TPM4', 'GSN', 'CSRP1', 'GRHL3', 'CYTH2', 'KRT8', 'ITGB5', 'FERMT2', 'STAU2', 'CORO6', 'TPM2', 'SORBS3', 'STMN1', 'MYL9', 'SUN2', 'ADD3', 'DSC2', 'MARCKSL1', 'CDC42EP1', 'PAK1', 'PDLIM7', 'LRP1', 'CXCL1', 'TMSB4X']</t>
+          <t>['PDLIM7', 'ADD3', 'PAK1', 'IL1A', 'PHLDB2', 'GJA5', 'SORBS3', 'ITGB5', 'CORO6', 'FLNA', 'GRHL3', 'MYH10', 'SPIRE1', 'ABL2', 'NISCH', 'PALLD', 'ANXA1', 'GSN', 'CSRP1', 'KANK4', 'SDC4', 'DSC2', 'STMN1', 'LRP1', 'MARCKSL1', 'TPM2', 'PDLIM4', 'FERMT2', 'TPM4', 'SUN2', 'STAU2', 'MYO1E', 'CDC42EP1', 'TPM1', 'TACSTD2', 'CXCL1', 'MYL9', 'BCL6', 'TMSB4X', 'KRT8', 'CYTH2']</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IC', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IGI'], ['TAS'], ['IEA'], ['IMP', 'IBA'], ['IMP'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IBA'], ['IBA'], ['IDA', 'IMP', 'IBA'], ['IBA', 'IEA'], ['ISS'], ['TAS'], ['IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IMP'], ['IMP'], ['IDA'], ['IMP', 'IBA'], ['IBA'], ['IDA', 'IC', 'IEA'], ['IGI'], ['IDA', 'IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['ISS'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'NMU', 'PQBP1', 'BCL6', 'TNFSF14', 'KRT17', 'PLAU', 'ANXA3', 'ITGA5', 'PIM1', 'NOTCH1', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'SCD', 'IL1A', 'ABL2', 'FOXC1', 'TFRC', 'ISG15', 'DKK1', 'MAGED1', 'ALOX15B', 'FN1', 'GPAM', 'SERPINE2', 'LGALS1', 'GAS6', 'CDK1', 'GJA5', 'CD24', 'NFKBIZ', 'C3', 'RREB1', 'ACSL1', 'LBH', 'SPHK1', 'CYR61', 'PTGS2', 'BAMBI', 'FOS', 'CDKN1A', 'CITED2', 'FERMT2', 'STAU2', 'BCL3', 'HES1', 'BMP1', 'SAA1', 'RGS2', 'CXCL8', 'ACTB', 'ADD3', 'F3', 'TRIM56', 'DLG5', 'B4GALT5', 'SOX9', 'ZBTB16', 'AMIGO2', 'ANGPTL4', 'ZBED2', 'SERPINE1', 'LRP1', 'LETMD1', 'LPIN1', 'MME']</t>
+          <t>['CXCL8', 'ADD3', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'C3', 'GJA5', 'ITGA5', 'SCD', 'CYR61', 'CDKN1A', 'STK25', 'PQBP1', 'ZBTB16', 'FLNA', 'CD24', 'ACSL1', 'AMIGO2', 'ABL2', 'SERPINE1', 'PLAU', 'LPIN1', 'ANXA1', 'RREB1', 'ANXA3', 'SAA1', 'LTBP3', 'PDGFB', 'HES1', 'NMU', 'DLG5', 'ISG15', 'BMP1', 'ZBED2', 'LRP1', 'SOX9', 'SPHK1', 'FERMT2', 'LGALS1', 'MME', 'ANGPTL4', 'STAU2', 'NOTCH1', 'F3', 'PTGS2', 'TPM1', 'MAGED1', 'DKK1', 'RGS2', 'SOX4', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'LETMD1', 'CITED2', 'ALOX15B', 'FOS', 'B4GALT5', 'ACTB', 'KRT17', 'TRIM56', 'FN1', 'GPAM', 'TFRC', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['NAS'], ['IDA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['ISS', 'IEA'], ['IDA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'IC'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'NAS'], ['ISS', 'TAS'], ['IEA'], ['ISS'], ['IGI']]</t>
+          <t>[['IDA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['NAS'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'NAS'], ['NAS'], ['ISS'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'NAS'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS'], ['IDA'], ['IEA'], ['IGI'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IC'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -7042,12 +7042,12 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['ICAM1', 'ITGA5', 'ITGB6', 'LDLR', 'TFRC', 'CDK1', 'SLC3A2', 'ITGB5', 'ITGAV', 'EPHA2', 'CLDN1']</t>
+          <t>['ITGA5', 'ITGB5', 'ICAM1', 'CLDN1', 'ITGB6', 'CDK1', 'ITGAV', 'SLC3A2', 'LDLR', 'TFRC', 'EPHA2']</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -7108,12 +7108,12 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['ICAM1', 'ITGA5', 'ITGB6', 'LDLR', 'TFRC', 'CDK1', 'SLC3A2', 'ITGB5', 'ITGAV', 'EPHA2', 'CLDN1']</t>
+          <t>['ITGA5', 'ITGB5', 'ICAM1', 'CLDN1', 'ITGB6', 'CDK1', 'ITGAV', 'SLC3A2', 'LDLR', 'TFRC', 'EPHA2']</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -7174,12 +7174,12 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['TPM1', 'P4HB', 'BCL6', 'TNFSF14', 'ITGA5', 'PIEZO1', 'ANXA1', 'SOX4', 'ADGRG1', 'FLNA', 'PDGFB', 'IL1A', 'ABL2', 'CCDC80', 'STX3', 'TFRC', 'PLAUR', 'SDC4', 'FN1', 'GPAM', 'LAMB2', 'LGALS1', 'CD24', 'NFKBIZ', 'RREB1', 'CYR61', 'CITED2', 'FERMT2', 'CCL28', 'HES1', 'SAA1', 'ITGAV', 'ACTB', 'ZBTB16']</t>
+          <t>['CCDC80', 'IL1A', 'STX3', 'ITGA5', 'CYR61', 'ZBTB16', 'FLNA', 'CD24', 'ABL2', 'ADGRG1', 'ANXA1', 'RREB1', 'SAA1', 'SDC4', 'PDGFB', 'HES1', 'P4HB', 'FERMT2', 'LGALS1', 'PLAUR', 'CCL28', 'TPM1', 'SOX4', 'LAMB2', 'BCL6', 'NFKBIZ', 'ITGAV', 'CITED2', 'ACTB', 'PIEZO1', 'FN1', 'GPAM', 'TFRC', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IBA'], ['ISS'], ['IBA', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['NAS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'NAS'], ['IDA'], ['NAS'], ['IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IBA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['ISS'], ['IDA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'NAS'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'IGI'], ['IEA'], ['IMP'], ['IDA', 'IBA'], ['ISS'], ['ISS', 'IEA'], ['NAS'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['IMP'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -7240,12 +7240,12 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>['TPM1', 'BCL6', 'MYH10', 'TACSTD2', 'KANK4', 'ANXA1', 'FLNA', 'IL1A', 'ABL2', 'MYO1E', 'PDLIM4', 'SDC4', 'PALLD', 'SPIRE1', 'PHLDB2', 'NISCH', 'TPM4', 'GSN', 'CSRP1', 'GRHL3', 'CYTH2', 'KRT8', 'ITGB5', 'FERMT2', 'STAU2', 'CORO6', 'TPM2', 'SORBS3', 'STMN1', 'MYL9', 'ADD3', 'MARCKSL1', 'CDC42EP1', 'PAK1', 'PDLIM7', 'LRP1', 'CXCL1', 'TMSB4X']</t>
+          <t>['PDLIM7', 'ADD3', 'PAK1', 'IL1A', 'PHLDB2', 'SORBS3', 'ITGB5', 'CORO6', 'FLNA', 'GRHL3', 'MYH10', 'SPIRE1', 'ABL2', 'NISCH', 'PALLD', 'ANXA1', 'GSN', 'CSRP1', 'KANK4', 'SDC4', 'STMN1', 'LRP1', 'MARCKSL1', 'TPM2', 'PDLIM4', 'FERMT2', 'TPM4', 'STAU2', 'MYO1E', 'CDC42EP1', 'TPM1', 'TACSTD2', 'CXCL1', 'MYL9', 'BCL6', 'TMSB4X', 'KRT8', 'CYTH2']</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IGI'], ['TAS'], ['IEA'], ['IMP', 'IBA'], ['IMP'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['IDA', 'IMP', 'IBA'], ['IBA', 'IEA'], ['ISS'], ['TAS'], ['IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA'], ['IBA'], ['IDA', 'IEA'], ['IGI'], ['IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -7306,12 +7306,12 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['P4HB', 'PQBP1', 'BCL6', 'TNFSF14', 'CDH2', 'REL', 'ICAM1', 'IVNS1ABP', 'NET1', 'FBXO32', 'AKR1C2', 'PXDN', 'PLAU', 'TSC2', 'ITGA5', 'NCOA7', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'HERC4', 'CTSV', 'IGFBP7', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'CDKN1C', 'C1R', 'MGMT', 'EPPK1', 'PTGES', 'IL1A', 'ABL2', 'DDIT4', 'IL1RN', 'FBXO4', 'GADD45B', 'ACKR3', 'LDLR', 'STX3', 'TFRC', 'ISG15', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'C1RL', 'ALOX15B', 'CAMK2N1', 'SPIRE1', 'ERRFI1', 'MUC1', 'WDR59', 'FN1', 'FAP', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'BIRC3', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'C3', 'RREB1', 'DLK2', 'KLK5', 'EVPL', 'BCL2L11', 'TIMP1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'CYTH2', 'PTGS2', 'GPR155', 'S100A8', 'BAMBI', 'TAOK3', 'TNC', 'CASP2', 'CITED2', 'FERMT2', 'SOD2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'SAA1', 'RGS2', 'SORBS3', 'TRAP1', 'MADD', 'STMN1', 'CLDN4', 'ITGAV', 'CXCL8', 'ACTB', 'F3', 'GBP1', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'SOX9', 'CLDN1', 'TRIM38', 'TMEM132A', 'TMEM259', 'AURKA', 'PAK1', 'GPRC5A', 'SERPINE1', 'LRP1', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'TMSB4X']</t>
+          <t>['GPRC5A', 'CCNB1', 'CXCL8', 'PAK1', 'BAMBI', 'SERPINE2', 'BCL3', 'C1RL', 'IL1A', 'STX3', 'C3', 'ZFP36', 'PHLDB2', 'TRAP1', 'ITGA5', 'CYR61', 'SORBS3', 'PXDN', 'MADD', 'STK25', 'DLK2', 'SGK1', 'PQBP1', 'FGFR3', 'SCEL', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'SPIRE1', 'ABL2', 'SERPINE1', 'FBXO32', 'ICAM1', 'ADGRG1', 'UNC5B', 'PLAU', 'TMEM259', 'DDIT4', 'CLDN1', 'CASP2', 'PTGES', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'SAA1', 'UBD', 'SOD2', 'TIMP1', 'MUC1', 'PDGFB', 'HES1', 'PSCA', 'P4HB', 'FBXO4', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'LRP1', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'C1R', 'TNC', 'IL1RN', 'SPHK1', 'REL', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'CDKN1C', 'TAOK3', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'MAGED1', 'ACKR3', 'DKK1', 'GADD45B', 'ERRFI1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'LAMB2', 'IVNS1ABP', 'BCL6', 'GAS6', 'LBH', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'ALOX15B', 'CLDN4', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'NCOA7', 'TSC2', 'WDR59', 'CNTNAP2', 'AKR1C2', 'CYTH2', 'TRIM56', 'FN1', 'GBP1', 'MGMT', 'FAP', 'EPPK1', 'TMEM132A', 'TFRC', 'EPHA2', 'NET1', 'ASH1L', 'TNFSF14', 'PIM1']</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['IDA', 'IMP'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IBA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['ISS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'NAS'], ['IDA'], ['IC'], ['IDA', 'ISS', 'IC', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IDA', 'HMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IC'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IMP', 'TAS'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI'], ['IDA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISO', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA'], ['IMP', 'IEP'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IGI', 'TAS'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IC'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IMP', 'TAS'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS'], ['IEA'], ['IDA', 'IBA'], ['IMP'], ['IMP', 'IBA', 'TAS'], ['IDA', 'IMP']]</t>
+          <t>[['ISS'], ['IMP'], ['IDA', 'IGI', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'IEP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['TAS'], ['IDA', 'IGI'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IMP', 'IBA', 'TAS'], ['IMP'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IMP', 'HMP', 'IEA'], ['IDA', 'ISS', 'IC'], ['ISS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['NAS'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['TAS'], ['TAS'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'TAS'], ['IDA', 'NAS'], ['IEA'], ['ISO', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP'], ['IMP', 'TAS'], ['IDA', 'IMP'], ['IBA'], ['IMP', 'IEA'], ['IBA'], ['IDA', 'HMP'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IC'], ['IMP', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['IDA', 'IBA'], ['ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'IMP'], ['IDA'], ['IC'], ['IMP'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -7372,12 +7372,12 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>['P4HB', 'PQBP1', 'CCL20', 'REL', 'ICAM1', 'IVNS1ABP', 'ANXA3', 'ITGA5', 'PIM1', 'NOTCH1', 'ANXA1', 'C1R', 'IL1A', 'DDIT4', 'CCDC80', 'ITGB6', 'LDLR', 'TFRC', 'ISG15', 'MMP7', 'TUBB4B', 'C1RL', 'ATP1B1', 'SPIRE1', 'SLPI', 'FN1', 'GPAM', 'KRT16', 'LGALS1', 'GAS6', 'BIRC3', 'CDK1', 'CD24', 'NFKBIZ', 'UBD', 'C3', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'SLC26A6', 'SLC3A2', 'GSN', 'EEF1A1', 'BCL2L11', 'PTGS2', 'S100A8', 'CXCL16', 'KRT8', 'ITGB5', 'FOS', 'SOD2', 'BCL3', 'IER3', 'C15orf48', 'STMN1', 'ITGAV', 'CXCL8', 'GBP1', 'TRIM56', 'EPHA2', 'MMP9', 'IFITM2', 'ZFP36', 'VIM', 'IFI44L', 'CLDN1', 'TRIM38', 'PAK1', 'SERPINE1', 'CXCL1']</t>
+          <t>['ATP1B1', 'CXCL8', 'CCDC80', 'PAK1', 'BCL3', 'C1RL', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'CXCL16', 'ITGA5', 'SLPI', 'MMP7', 'ITGB5', 'PQBP1', 'TRIM38', 'CD24', 'SPIRE1', 'SERPINE1', 'ICAM1', 'DDIT4', 'CLDN1', 'EVPL', 'ANXA1', 'GSN', 'ANXA3', 'UBD', 'SOD2', 'ITGB6', 'P4HB', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'REL', 'BCL2L11', 'LGALS1', 'NOTCH1', 'PTGS2', 'CXCL1', 'KLK5', 'IFI44L', 'IVNS1ABP', 'GAS6', 'CDK1', 'NFKBIZ', 'ITGAV', 'IER3', 'TUBB4B', 'SLC3A2', 'FOS', 'LDLR', 'KRT8', 'C15orf48', 'VIM', 'KRT16', 'EEF1A1', 'SLC26A6', 'TRIM56', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'TFRC', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP', 'TAS'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IEA'], ['ISS'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEP'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IMP', 'IGI'], ['IBA']]</t>
+          <t>[['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP'], ['TAS'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IBA'], ['IMP', 'IBA'], ['IDA', 'IEA'], ['IMP', 'TAS'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['NAS'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -7438,12 +7438,12 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'TNNI2', 'P4HB', 'PQBP1', 'LAGE3', 'BCL6', 'MYH10', 'CDH2', 'REL', 'KRT6B', 'ZNF277', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'KMT2B', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'SLC46A3', 'YEATS2', 'SLC38A10', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'CDKN1C', 'RRBP1', 'TSPAN1', 'OAZ2', 'TUBA4A', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'SCD', 'FDPS', 'IL1A', 'ABL2', 'ABCD4', 'DDIT4', 'MYO1E', 'HEATR1', 'IL1RN', 'WDR74', 'ITGB6', 'GADD45B', 'MSLN', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'IDI1', 'PDLIM4', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'NEAT1', 'RSBN1L', 'FOSB', 'PLAUR', 'MAGED1', 'CGN', 'TUBB4B', 'LAD1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ADIRF', 'ALDH3B1', 'RSRP1', 'PALLD', 'VMP1', 'PGBD5', 'ZNF236', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'FTL', 'WDR59', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'DCAF5', 'SERPINE2', 'LAMB2', 'PHLDB2', 'FAM111A', 'LGALS1', 'GAS6', 'SYT8', 'BIRC3', 'SRSF11', 'CDK1', 'MBD4', 'CD24', 'CCNB1', 'TPST1', 'NFKBIZ', 'PNISR', 'UBD', 'CALML5', 'CSTA', 'MAGOH', 'COL7A1', 'TACC2', 'C3', 'TRABD', 'GALNT6', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'NR4A1', 'SLC26A6', 'SLC3A2', 'TPM4', 'ENTPD2', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'BCL2L11', 'KLC1', 'ACSL1', 'GRHL3', 'TIMM17B', 'TGFBI', 'SELENBP1', 'SNHG7', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'LBH', 'SPHK1', 'ANKRD12', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'UQCC2', 'USP31', 'ALDH3A1', 'KRT8', 'ITGB5', 'FOS', 'S100P', 'KRT14', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'HELZ', 'DSEL', 'STAU2', 'BCL3', 'HES1', 'IER3', 'NME3', 'BMP1', 'KRT81', 'CYP4B1', 'SAA1', 'TUBA1B', 'TPM2', 'RGS2', 'ZBTB11', 'SORBS3', 'C15orf48', 'IFT46', 'TRAP1', 'STMN1', 'MYL9', 'CDC25B', 'SUN2', 'NFYB', 'ANKRD11', 'ITGAV', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'ZC3H12C', 'GLUL', 'DSC2', 'GBP1', 'WWC1', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'DLG5', 'RUSC2', 'SNHG3', 'ZFP36', 'TTC19', 'NUDT1', 'B4GALT5', 'VIM', 'FTH1', 'SOX9', 'ZBTB16', 'REV3L', 'TRIM38', 'PNPLA2', 'SUGP2', 'MT1X', 'AMIGO2', 'KRT10', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'MRI1', 'CKAP2L', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SCNN1G', 'PDLIM7', 'SERPINE1', 'MLXIP', 'LRP1', 'MFN1', 'RAB24', 'SH3BGRL3', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'NFU1', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'MAFB', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'FAM111A', 'LAMA3', 'ANKRD11', 'GALNT6', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'SERPINE2', 'BCL3', 'FOXC1', 'USP31', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'HELZ', 'MAL2', 'TRAP1', 'RSBN1L', 'SMC4', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'SORBS3', 'PXDN', 'STK25', 'ITGB5', 'SGK1', 'IFT46', 'TGFBI', 'PQBP1', 'PTTG1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'MYH10', 'ACSL1', 'EHF', 'SUCO', 'AMIGO2', 'NEAT1', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'CCNA2', 'SLC25A37', 'TUBA4A', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'DDIT4', 'PALLD', 'CASP2', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'REV3L', 'RREB1', 'GSN', 'NUDT1', 'MLXIP', 'VPS13C', 'SUGP2', 'MT1X', 'SPTSSA', 'ANKRD12', 'CSRP1', 'ANXA3', 'SNHG7', 'SAA1', 'TRABD', 'KRT6B', 'SLC2A1', 'KANK4', 'CKAP2L', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'ITGB6', 'LAD1', 'GAA', 'ZBTB11', 'PIGQ', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'SCNN1G', 'CENPF', 'NFYB', 'P4HB', 'TNNI2', 'RSRP1', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'MRI1', 'ZBED2', 'CREG1', 'TIMM17B', 'LRP1', 'KCNIP3', 'TUBB3', 'ACOX3', 'MARCKSL1', 'CPSF1', 'UBE2G2', 'VPS51', 'KRT15', 'IGFBP3', 'SOX9', 'TPM2', 'MMP9', 'MSMO1', 'S100A8', 'SNHG3', 'SLC46A3', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'KRT14', 'ALS2CL', 'VMP1', 'PDLIM4', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'MME', 'S100A11', 'MAGOH', 'CDKN1C', 'CGN', 'BAZ2B', 'KRT5', 'UQCC2', 'SUN2', 'STAU2', 'NOTCH1', 'PGBD5', 'FTL', 'PLAUR', 'SELENBP1', 'RRBP1', 'MFN1', 'WDR74', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'SLC38A10', 'MAGED1', 'TACSTD2', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'FDPS', 'CXCL1', 'TCOF1', 'TSPAN1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'GPR155', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'MYL9', 'KRT81', 'MBD4', 'TUBA1B', 'DMTF1', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'NFKBIZ', 'DSEL', 'ITGAV', 'SH3BGRL3', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'TPST1', 'TTC19', 'S100P', 'ATP6V0A1', 'TUBB4B', 'MSLN', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'NME3', 'FXYD3', 'CSTA', 'SYT8', 'SLC3A2', 'CDC25B', 'DNAJC15', 'FOS', 'B4GALT5', 'OAZ2', 'TUBA1A', 'ACTB', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'ABCD4', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'C15orf48', 'WDR59', 'N4BP2L2', 'VIM', 'ARSA', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'PIEZO1', 'CYTH2', 'FN1', 'NFU1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'GPAM', 'MGMT', 'RBM39', 'EPPK1', 'CALML5', 'TACC2', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'SERPINA3', 'NET1', 'COPE', 'ID3', 'ASH1L', 'LAGE3', 'PIM1', 'ZC3H12C', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['ISA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'TAS'], ['HTP'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISA', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -7504,12 +7504,12 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>['TPM1', 'LTBP3', 'NMU', 'TNNI2', 'LAMC2', 'P4HB', 'PQBP1', 'BCL6', 'TNFSF14', 'MYH10', 'CDH2', 'CCL20', 'REL', 'ZNF277', 'ELF3', 'ICAM1', 'VPS13C', 'IVNS1ABP', 'KRT17', 'NET1', 'KMT2B', 'KRT5', 'SUCO', 'AKR1C2', 'TUBA1A', 'RBBP6', 'UBE2G2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'TSC2', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KCNIP3', 'KLF6', 'TUBB3', 'NCOA7', 'ATF3', 'S100A11', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'YEATS2', 'SLC5A3', 'PIM3', 'TCOF1', 'PIEZO1', 'HERC4', 'CTSV', 'ILKAP', 'IGFBP7', 'ID3', 'ANXA1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'PDGFB', 'CDKN1C', 'OAZ2', 'RBM39', 'MGMT', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'TP53I11', 'IL1A', 'ABL2', 'DDIT4', 'MYO1E', 'LSR', 'HEATR1', 'IL1RN', 'CCDC80', 'FBXO4', 'ITGB6', 'GADD45B', 'FOXC1', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'TFRC', 'CCM2', 'ISG15', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'MMP7', 'MALAT1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ATP1B1', 'ADIRF', 'VMP1', 'ZNF236', 'KATNBL1', 'SPIRE1', 'SLC25A37', 'ERRFI1', 'MUC1', 'WDR59', 'ARL6IP1', 'FN1', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'DCAF5', 'SERPINE2', 'LAMB2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'NFKBIZ', 'UBD', 'SCEL', 'SNAP47', 'CALML5', 'CSTA', 'ALDH1A3', 'MAGOH', 'C3', 'RREB1', 'DLK2', 'IGF2BP3', 'KLK5', 'CDH1', 'NISCH', 'EVPL', 'CRB3', 'C1orf56', 'NR4A1', 'SLC26A6', 'ENTPD2', 'NEURL1B', 'CKS2', 'MFI2', 'GSN', 'EEF1A1', 'BCL2L11', 'ACSL1', 'GRHL3', 'TGFBI', 'TIMP1', 'CREG1', 'MTA1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'CYTH2', 'ADNP2', 'PTGS2', 'GPR155', 'S100A8', 'DMTF1', 'BAMBI', 'TAOK3', 'UQCC2', 'CXCL16', 'KRT8', 'ITGB5', 'FOS', 'TNC', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'HELZ', 'RARRES1', 'CCL28', 'STAU2', 'PSCA', 'BCL3', 'HES1', 'IER3', 'BMP1', 'SAA1', 'RGS2', 'EPCAM', 'ZBTB11', 'SORBS3', 'TGM1', 'TRAP1', 'MADD', 'STMN1', 'CDC25B', 'SUN2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'PHLDB1', 'ACTB', 'ADD3', 'ANKRD13D', 'F3', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'TRIM56', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'HES2', 'CCNF', 'IFITM2', 'S100A6', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'FTH1', 'RASSF8', 'SOX9', 'ZBTB16', 'CLDN1', 'TRIM38', 'PNPLA2', 'AMIGO2', 'ID1', 'MARCKSL1', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'CCNA2', 'TMEM259', 'AURKA', 'SERPINA3', 'SMC4', 'PAK1', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SERPINE1', 'MLXIP', 'LRP1', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'S100A4', 'LETMD1', 'FGFR3', 'CENPF', 'ATP6V0A1', 'TMSB4X', 'MAFB', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'LAMA3', 'ATP1B1', 'CXCL8', 'CCDC80', 'ADD3', 'PAK1', 'ZNF236', 'KATNBL1', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'PHLDB2', 'CXCL16', 'GJA5', 'HELZ', 'TRAP1', 'SMC4', 'CLDN7', 'ITGA5', 'SCD', 'CYR61', 'CDKN1A', 'SORBS3', 'MMP7', 'PXDN', 'SEMA3C', 'MADD', 'STK25', 'DLK2', 'ITGB5', 'SGK1', 'TP53I11', 'TGFBI', 'PQBP1', 'ZBTB16', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'COL4A2', 'TRIM38', 'FLNA', 'GRHL3', 'CD24', 'SNAP47', 'MYH10', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'AMIGO2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'ICAM1', 'ADGRG1', 'CCNA2', 'UNC5B', 'SLC25A37', 'PLAU', 'NISCH', 'TMEM259', 'DDIT4', 'CLDN1', 'CASP2', 'TGM1', 'DCAF5', 'CCM2', 'PTGES', 'LPIN1', 'CDH2', 'EVPL', 'ANXA1', 'RREB1', 'SLC5A3', 'GSN', 'MLXIP', 'VPS13C', 'ANXA3', 'LSR', 'SAA1', 'KANK4', 'PNPLA2', 'UBD', 'SOD2', 'MFI2', 'ADNP2', 'TIMP1', 'SDC4', 'ITGB6', 'LTBP3', 'ZBTB11', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'HES1', 'CENPF', 'PSCA', 'NFYB', 'P4HB', 'TNNI2', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'IFITM2', 'BMP1', 'ZBED2', 'CREG1', 'LRP1', 'KCNIP3', 'TUBB3', 'MARCKSL1', 'UBE2G2', 'PIM3', 'IGFBP3', 'SOX9', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'KMT2B', 'TNC', 'HEATR1', 'IL1RN', 'SPHK1', 'EPCAM', 'VMP1', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'WSB1', 'MME', 'S100A11', 'MAGOH', 'ANGPTL4', 'CDKN1C', 'BAZ2B', 'KRT5', 'UQCC2', 'TAOK3', 'SUN2', 'STAU2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'MYO1E', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'TPM1', 'MAGED1', 'TACSTD2', 'CRB3', 'ZNF277', 'ACKR3', 'DKK1', 'GADD45B', 'ELF3', 'CXCL1', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'GPR155', 'RGS2', 'SOX4', 'GAK', 'LAMB2', 'DMTF1', 'ID1', 'IVNS1ABP', 'BCL6', 'GAS6', 'CDK1', 'LBH', 'MALAT1', 'NFKBIZ', 'ITGAV', 'LETMD1', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'ATP6V0A1', 'C1orf56', 'CCNF', 'ENTPD2', 'KLF6', 'HES2', 'CSTA', 'CDC25B', 'CLDN4', 'ALDH1A3', 'DNAJC15', 'FOS', 'OAZ2', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'NCOA7', 'S100A6', 'TSC2', 'MACC1', 'MAFB', 'WDR59', 'N4BP2L2', 'ILKAP', 'VIM', 'KRT16', 'EEF1A1', 'CNTNAP2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'ADIRF', 'AKR1C2', 'FBXW5', 'PIEZO1', 'CYTH2', 'TRIM56', 'FN1', 'GBP1', 'CKS2', 'CDH1', 'GPAM', 'MGMT', 'RBM39', 'FAP', 'EPPK1', 'CALML5', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'ID3', 'ASH1L', 'TNFSF14', 'PIM1', 'YEATS2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'TAS'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IBA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['NAS', 'IEA'], ['ISS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['TAS', 'NAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEP', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IEA'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IGI', 'IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IBA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'TAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IBA'], ['TAS'], ['NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'TAS'], ['IDA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IGI', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['NAS'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IMP'], ['IMP', 'IGI', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['NAS'], ['IBA', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['NAS'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IMP', 'IGI'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -7570,12 +7570,12 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'P4HB', 'BCL6', 'CDH2', 'ELF3', 'SPTSSA', 'MAL2', 'VPS13C', 'STX16', 'SUCO', 'TUBA1A', 'UBE2G2', 'COL4A2', 'PXDN', 'PLAU', 'TSC2', 'ANXA3', 'ITGA5', 'KCNIP3', 'S100A11', 'DST', 'NOTCH1', 'SLC38A10', 'PIEZO1', 'IGFBP7', 'ANXA1', 'STK25', 'FLNA', 'CNTNAP2', 'PDGFB', 'ARSA', 'RRBP1', 'PTGES', 'GOLGA8B', 'SCD', 'ABCD4', 'MSLN', 'ACKR3', 'GAK', 'LDLR', 'STX3', 'PDLIM4', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'TUBB4B', 'SDC4', 'ALDH3B1', 'VMP1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'ARL6IP1', 'FN1', 'SERPINE2', 'LAMB2', 'LGALS1', 'GAS6', 'SYT8', 'CDK1', 'TPST1', 'SNAP47', 'CALML5', 'COL7A1', 'C3', 'GALNT6', 'KLK5', 'CDH1', 'NISCH', 'NR4A1', 'SLC26A6', 'ENTPD2', 'NEURL1B', 'MFI2', 'GSN', 'EEF1A1', 'BCL2L11', 'ACSL1', 'TGFBI', 'GOSR1', 'TIMP1', 'CREG1', 'MTA1', 'GAA', 'SPHK1', 'CYR61', 'CYTH2', 'PTGS2', 'S100A8', 'ALDH3A1', 'FOS', 'S100P', 'TNC', 'MSMO1', 'DSEL', 'STAU2', 'BMP1', 'CYP4B1', 'SUN2', 'ITGAV', 'ANKRD13D', 'GLUL', 'DSC2', 'GBP1', 'MMP9', 'IGFBP3', 'VPS51', 'IFITM2', 'S100A6', 'NUDT1', 'B4GALT5', 'FTH1', 'SLC2A12', 'PNPLA2', 'CDC42EP1', 'LAMA3', 'TMEM132A', 'COL4A1', 'TMEM259', 'SERPINA3', 'PAK1', 'SERPINE1', 'LRP1', 'RAB24', 'RDH10', 'CXCL1', 'EHF', 'ASH1L', 'FGFR3', 'CENPF', 'FXYD3', 'ATP6V0A1', 'TMSB4X', 'PIGQ', 'LPIN1', 'MME']</t>
+          <t>['LAMA3', 'GALNT6', 'PAK1', 'SERPINE2', 'STX3', 'C3', 'NR4A1', 'MAL2', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'CYR61', 'PXDN', 'STK25', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'COL4A2', 'FLNA', 'SNAP47', 'ACSL1', 'EHF', 'SUCO', 'GLUL', 'SERPINE1', 'PLAU', 'NISCH', 'TMEM259', 'GOSR1', 'PTGES', 'LPIN1', 'CDH2', 'ANXA1', 'GSN', 'NUDT1', 'VPS13C', 'SPTSSA', 'ANXA3', 'SLC2A1', 'PNPLA2', 'MFI2', 'TIMP1', 'SDC4', 'GAA', 'PIGQ', 'DSC2', 'MUC1', 'MTA1', 'PDGFB', 'CENPF', 'P4HB', 'IFITM2', 'BMP1', 'CREG1', 'LRP1', 'KCNIP3', 'UBE2G2', 'VPS51', 'IGFBP3', 'MMP9', 'MSMO1', 'S100A8', 'TNC', 'SPHK1', 'VMP1', 'PDLIM4', 'BCL2L11', 'IGFBP7', 'LGALS1', 'MME', 'S100A11', 'SUN2', 'STAU2', 'NOTCH1', 'FTL', 'PLAUR', 'RRBP1', 'NEURL1B', 'CDC42EP1', 'PTGS2', 'SLC38A10', 'ACKR3', 'DKK1', 'ELF3', 'CXCL1', 'KLK5', 'GAK', 'LAMB2', 'BCL6', 'GAS6', 'CDK1', 'DSEL', 'ITGAV', 'FTH1', 'TPST1', 'S100P', 'ATP6V0A1', 'TUBB4B', 'MSLN', 'ENTPD2', 'FXYD3', 'SYT8', 'FOS', 'B4GALT5', 'TUBA1A', 'LDLR', 'STX16', 'TMSB4X', 'ABCD4', 'S100A6', 'TSC2', 'ARSA', 'EEF1A1', 'CNTNAP2', 'SLC26A6', 'RAB24', 'ALDH3A1', 'PIEZO1', 'CYTH2', 'FN1', 'ALDH3B1', 'GBP1', 'CDH1', 'COL7A1', 'CALML5', 'ARL6IP1', 'TMEM132A', 'TFRC', 'RDH10', 'SERPINA3', 'COPE', 'ASH1L', 'COL4A1']</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['ISS'], ['TAS'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -7636,12 +7636,12 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>['LTBP3', 'LAMB3', 'LAMC2', 'CDH2', 'ICAM1', 'COL4A2', 'PXDN', 'DST', 'MFAP5', 'IGFBP7', 'ANXA1', 'PDGFB', 'CCDC80', 'MMP7', 'LAD1', 'SLPI', 'FN1', 'SERPINE2', 'LAMB2', 'LGALS1', 'COL7A1', 'ENTPD2', 'TGFBI', 'TIMP1', 'CYR61', 'S100A8', 'TNC', 'F3', 'MMP9', 'S100A6', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1', 'S100A4']</t>
+          <t>['LAMA3', 'CCDC80', 'SERPINE2', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'SERPINE1', 'ICAM1', 'CDH2', 'ANXA1', 'TIMP1', 'LAD1', 'LTBP3', 'LAMB3', 'PDGFB', 'MMP9', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'ANGPTL4', 'F3', 'LAMB2', 'ENTPD2', 'LOX', 'S100A4', 'S100A6', 'FN1', 'COL7A1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['IDA'], ['HDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA']]</t>
+          <t>[['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -7702,12 +7702,12 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>['LTBP3', 'LAMB3', 'LAMC2', 'CDH2', 'ICAM1', 'COL4A2', 'PXDN', 'DST', 'MFAP5', 'IGFBP7', 'ANXA1', 'PDGFB', 'CCDC80', 'MMP7', 'LAD1', 'SLPI', 'FN1', 'SERPINE2', 'LAMB2', 'LGALS1', 'COL7A1', 'ENTPD2', 'TGFBI', 'TIMP1', 'CYR61', 'S100A8', 'TNC', 'F3', 'MMP9', 'S100A6', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1', 'S100A4']</t>
+          <t>['LAMA3', 'CCDC80', 'SERPINE2', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'SERPINE1', 'ICAM1', 'CDH2', 'ANXA1', 'TIMP1', 'LAD1', 'LTBP3', 'LAMB3', 'PDGFB', 'MMP9', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'ANGPTL4', 'F3', 'LAMB2', 'ENTPD2', 'LOX', 'S100A4', 'S100A6', 'FN1', 'COL7A1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['IDA'], ['HDA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA']]</t>
+          <t>[['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -7768,12 +7768,12 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'TNNI2', 'P4HB', 'MYH10', 'REL', 'KRT6B', 'ELF3', 'ACOX3', 'VPS13C', 'IVNS1ABP', 'KRT17', 'STX16', 'NET1', 'FBXO32', 'KRT5', 'KRT15', 'AKR1C2', 'PTTG1', 'TUBA1A', 'RBBP6', 'UBE2G2', 'TSC2', 'ALS2CL', 'TACSTD2', 'KCNIP3', 'KLF6', 'PIM1', 'DST', 'NOTCH1', 'KANK4', 'CDC20', 'PIM3', 'TCOF1', 'HERC4', 'ANXA1', 'FLNA', 'OAZ2', 'TUBA4A', 'TSC22D3', 'GOLGA8B', 'FDPS', 'IL1A', 'ABL2', 'DDIT4', 'IL1RN', 'FBXO4', 'FOXC1', 'GAK', 'IDI1', 'ISG15', 'SGK1', 'FOSB', 'MAGED1', 'TUBB4B', 'OPLAH', 'ALOX15B', 'ADIRF', 'ALDH3B1', 'PALLD', 'SPIRE1', 'ERRFI1', 'FTL', 'WDR59', 'COPE', 'ARL6IP1', 'KRT16', 'SERPINE2', 'PHLDB2', 'LGALS1', 'BIRC3', 'CDK1', 'CCNB1', 'PNISR', 'UBD', 'CSTA', 'ALDH1A3', 'MAGOH', 'TACC2', 'IGF2BP3', 'KLK5', 'NISCH', 'EVPL', 'NR4A1', 'SLC26A6', 'TPM4', 'NEURL1B', 'GSN', 'EEF1A1', 'BCL2L11', 'KLC1', 'SELENBP1', 'GOSR1', 'MTA1', 'SPHK1', 'ANKRD12', 'AKR1C3', 'CYTH2', 'S100A8', 'DMTF1', 'ALDH3A1', 'KRT8', 'FOS', 'KRT14', 'CASP2', 'CDKN1A', 'CITED2', 'FERMT2', 'HELZ', 'BCL3', 'IER3', 'NME3', 'KRT81', 'C1orf116', 'TPM2', 'GPCPD1', 'RGS2', 'SORBS3', 'TGM1', 'MADD', 'STMN1', 'MYL9', 'CDC25B', 'SPSB1', 'ANKRD11', 'ITGAV', 'PHLDB1', 'ACTB', 'ADD3', 'GLUL', 'GBP1', 'TRIM56', 'WWC1', 'VPS51', 'CCNF', 'S100A6', 'RUSC2', 'ZFP36', 'NUDT1', 'VIM', 'FTH1', 'ZBTB16', 'TP53I3', 'TRIM38', 'PNPLA2', 'KRT10', 'CDC42EP1', 'MRI1', 'FBXW5', 'CKAP2L', 'CCNA2', 'AURKA', 'SMC4', 'PAK1', 'PDLIM7', 'RAB24', 'SH3BGRL3', 'S100A4', 'CENPF', 'NFU1', 'ATP6V0A1', 'TMSB4X', 'LPIN1', 'WSB1']</t>
+          <t>['PDLIM7', 'IDI1', 'CCNB1', 'ANKRD11', 'ADD3', 'PAK1', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'NR4A1', 'ZFP36', 'PHLDB2', 'HELZ', 'SMC4', 'GOLGA8B', 'CDKN1A', 'SORBS3', 'MADD', 'SGK1', 'PTTG1', 'ZBTB16', 'DST', 'TRIM38', 'FLNA', 'MYH10', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'FBXO32', 'CCNA2', 'TUBA4A', 'NISCH', 'GOSR1', 'SPSB1', 'DDIT4', 'PALLD', 'CASP2', 'TGM1', 'LPIN1', 'EVPL', 'ANXA1', 'GSN', 'NUDT1', 'VPS13C', 'ANKRD12', 'KRT6B', 'SLC2A1', 'KANK4', 'CKAP2L', 'PNPLA2', 'UBD', 'MTA1', 'CENPF', 'P4HB', 'TNNI2', 'FBXO4', 'STMN1', 'HERC4', 'AURKA', 'BIRC3', 'ISG15', 'MRI1', 'KCNIP3', 'ACOX3', 'UBE2G2', 'PIM3', 'VPS51', 'KRT15', 'TPM2', 'S100A8', 'IL1RN', 'SPHK1', 'KRT14', 'ALS2CL', 'REL', 'FOSB', 'BCL2L11', 'FERMT2', 'TPM4', 'LGALS1', 'WSB1', 'MAGOH', 'KRT5', 'NOTCH1', 'FTL', 'SELENBP1', 'NEURL1B', 'CDC42EP1', 'TPM1', 'MAGED1', 'TACSTD2', 'C1orf116', 'ELF3', 'FDPS', 'TCOF1', 'PHLDB1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KLC1', 'PNISR', 'TP53I3', 'RGS2', 'GAK', 'MYL9', 'KRT81', 'DMTF1', 'KRT10', 'IVNS1ABP', 'CDK1', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'ATP6V0A1', 'TUBB4B', 'GPCPD1', 'CCNF', 'KLF6', 'NME3', 'CSTA', 'CDC25B', 'ALDH1A3', 'FOS', 'OPLAH', 'OAZ2', 'TUBA1A', 'ACTB', 'STX16', 'S100A4', 'TMSB4X', 'RUSC2', 'WWC1', 'RBBP6', 'KRT8', 'KRT17', 'S100A6', 'TSC2', 'WDR59', 'VIM', 'KRT16', 'EEF1A1', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'AKR1C2', 'FBXW5', 'CYTH2', 'TRIM56', 'NFU1', 'ALDH3B1', 'GBP1', 'TACC2', 'ARL6IP1', 'NET1', 'COPE', 'PIM1']</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS'], ['IEA'], ['TAS'], ['IDA'], ['IMP', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['ISS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IEA'], ['TAS'], ['TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['NAS'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['ISS', 'TAS'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'ISS', 'TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IBA'], ['IDA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IBA', 'TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['TAS']]</t>
+          <t>[['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IMP', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['ISS'], ['TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['TAS'], ['NAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IBA', 'TAS'], ['ISS', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['TAS'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -7834,12 +7834,12 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>['TPM1', 'BCL6', 'MYH10', 'KRT6B', 'KRT17', 'KRT5', 'KRT15', 'TUBA1A', 'TACSTD2', 'TUBB3', 'DST', 'KANK4', 'CDC20', 'ANXA1', 'FLNA', 'TUBA4A', 'EPPK1', 'IL1A', 'ABL2', 'MYO1E', 'PDLIM4', 'CGN', 'TUBB4B', 'SDC4', 'PALLD', 'KATNBL1', 'SPIRE1', 'KRT16', 'PHLDB2', 'CDK1', 'CCNB1', 'TACC2', 'NISCH', 'EVPL', 'TPM4', 'GSN', 'CSRP1', 'GRHL3', 'CYTH2', 'S100A8', 'KRT8', 'ITGB5', 'KRT14', 'FERMT2', 'STAU2', 'CORO6', 'KRT81', 'TUBA1B', 'TPM2', 'SORBS3', 'STMN1', 'MYL9', 'SUN2', 'PHLDB1', 'ADD3', 'CCNF', 'VIM', 'SOX9', 'KRT10', 'MARCKSL1', 'CDC42EP1', 'FBXW5', 'AURKA', 'PAK1', 'PDLIM7', 'LRP1', 'SH3BGRL3', 'CXCL1', 'TMSB4X']</t>
+          <t>['PDLIM7', 'CCNB1', 'ADD3', 'PAK1', 'KATNBL1', 'IL1A', 'PHLDB2', 'SORBS3', 'ITGB5', 'DST', 'CORO6', 'FLNA', 'GRHL3', 'MYH10', 'SPIRE1', 'ABL2', 'CDC20', 'TUBA4A', 'NISCH', 'PALLD', 'EVPL', 'ANXA1', 'GSN', 'CSRP1', 'KRT6B', 'KANK4', 'SDC4', 'STMN1', 'AURKA', 'LRP1', 'TUBB3', 'MARCKSL1', 'KRT15', 'SOX9', 'TPM2', 'S100A8', 'KRT14', 'PDLIM4', 'FERMT2', 'TPM4', 'CGN', 'KRT5', 'SUN2', 'STAU2', 'MYO1E', 'CDC42EP1', 'TPM1', 'TACSTD2', 'CXCL1', 'PHLDB1', 'MYL9', 'KRT81', 'TUBA1B', 'KRT10', 'BCL6', 'CDK1', 'SH3BGRL3', 'TUBB4B', 'CCNF', 'TUBA1A', 'TMSB4X', 'KRT8', 'KRT17', 'VIM', 'KRT16', 'FBXW5', 'CYTH2', 'EPPK1', 'TACC2']</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IBA'], ['IBA', 'IEA'], ['ISS', 'IBA'], ['IBA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IBA'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'TAS'], ['IMP'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IGI'], ['TAS'], ['TAS'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'IBA'], ['IMP'], ['IEA'], ['IBA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IGI', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IBA'], ['IBA'], ['IMP'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IBA', 'IEA'], ['ISS'], ['IMP'], ['TAS'], ['IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'NAS'], ['IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IGI'], ['IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IBA'], ['ISS', 'IBA'], ['TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IGI', 'IBA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'TAS'], ['IMP'], ['IBA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -7900,12 +7900,12 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['P4HB', 'CDH2', 'COL4A2', 'IGFBP7', 'PDGFB', 'ARSA', 'MSLN', 'PLAUR', 'FN1', 'LAMB2', 'LGALS1', 'GAS6', 'COL7A1', 'C3', 'MFI2', 'TIMP1', 'CYR61', 'PTGS2', 'TNC', 'IGFBP3', 'PNPLA2', 'TMEM132A', 'COL4A1']</t>
+          <t>['C3', 'CYR61', 'COL4A2', 'CDH2', 'PNPLA2', 'MFI2', 'TIMP1', 'PDGFB', 'P4HB', 'IGFBP3', 'TNC', 'IGFBP7', 'LGALS1', 'PLAUR', 'PTGS2', 'LAMB2', 'GAS6', 'MSLN', 'ARSA', 'FN1', 'COL7A1', 'TMEM132A', 'COL4A1']</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS']]</t>
+          <t>[['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>['FBXO32', 'AKR1C2', 'ANXA3', 'PIM1', 'NOTCH1', 'IGFBP7', 'ID3', 'ANXA1', 'SCD', 'IL1A', 'ABL2', 'DDIT4', 'IL1RN', 'LDLR', 'TFRC', 'DKK1', 'SGK1', 'FOSB', 'ERRFI1', 'SLPI', 'PDK4', 'MBD4', 'NFKBIZ', 'NR4A1', 'BCL2L11', 'ACSL1', 'LBH', 'AKR1C3', 'PTGS2', 'GPR155', 'S100A8', 'FOS', 'TNC', 'CDKN1A', 'SOD2', 'HES1', 'CLDN4', 'CXCL8', 'MMP9', 'ZFP36', 'LOX', 'VIM', 'SOX9', 'CLDN1', 'CCNA2', 'PAK1', 'SCNN1G', 'SERPINE1', 'CXCL1']</t>
+          <t>['CXCL8', 'PAK1', 'PDK4', 'IL1A', 'NR4A1', 'ZFP36', 'SCD', 'SLPI', 'CDKN1A', 'SGK1', 'ACSL1', 'ABL2', 'SERPINE1', 'FBXO32', 'CCNA2', 'DDIT4', 'CLDN1', 'ANXA1', 'ANXA3', 'SOD2', 'HES1', 'SCNN1G', 'SOX9', 'MMP9', 'S100A8', 'TNC', 'IL1RN', 'FOSB', 'BCL2L11', 'IGFBP7', 'NOTCH1', 'PTGS2', 'DKK1', 'CXCL1', 'ERRFI1', 'AKR1C3', 'GPR155', 'MBD4', 'LBH', 'NFKBIZ', 'CLDN4', 'FOS', 'LOX', 'LDLR', 'VIM', 'AKR1C2', 'TFRC', 'ID3', 'PIM1']</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['NAS', 'IEA'], ['IMP'], ['IBA']]</t>
+          <t>[['IDA', 'IBA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEP', 'ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -8032,12 +8032,12 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['LTBP3', 'FBXO32', 'AKR1C2', 'COL4A2', 'TSC2', 'ITGA5', 'PIM1', 'NOTCH1', 'IGFBP7', 'ANXA1', 'ADGRG1', 'PDGFB', 'CDKN1C', 'DDIT4', 'ITGB6', 'FOXC1', 'DKK1', 'SGK1', 'FOSB', 'ERRFI1', 'PDK4', 'GAS6', 'NFKBIZ', 'NR4A1', 'EEF1A1', 'BCL2L11', 'ACSL1', 'LBH', 'SPHK1', 'CYR61', 'AKR1C3', 'GPR155', 'BAMBI', 'ITGB5', 'FOS', 'TNC', 'CITED2', 'FERMT2', 'HES1', 'CXCL8', 'ZFP36', 'LOX', 'SOX9', 'CLDN1', 'ID1', 'CCNA2', 'PAK1', 'SCNN1G', 'FGFR3', 'LPIN1']</t>
+          <t>['CXCL8', 'PAK1', 'PDK4', 'BAMBI', 'FOXC1', 'NR4A1', 'ZFP36', 'ITGA5', 'CYR61', 'ITGB5', 'SGK1', 'FGFR3', 'COL4A2', 'ACSL1', 'FBXO32', 'ADGRG1', 'CCNA2', 'DDIT4', 'CLDN1', 'LPIN1', 'ANXA1', 'ITGB6', 'LTBP3', 'PDGFB', 'HES1', 'SCNN1G', 'SOX9', 'TNC', 'SPHK1', 'FOSB', 'BCL2L11', 'FERMT2', 'IGFBP7', 'CDKN1C', 'NOTCH1', 'DKK1', 'ERRFI1', 'AKR1C3', 'GPR155', 'ID1', 'GAS6', 'LBH', 'NFKBIZ', 'CITED2', 'FOS', 'LOX', 'TSC2', 'EEF1A1', 'AKR1C2', 'PIM1']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>[['IMP', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA'], ['TAS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IGI'], ['IDA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA']]</t>
+          <t>[['IEP'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IGI'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IBA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA'], ['IDA'], ['IDA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -8199,12 +8199,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'S100A11', 'SLC46A3', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'SNF8', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'LSR', 'TFRC', 'MOB1B', 'MMP7', 'TNFSF10', 'LAD1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ATP1B1', 'ATP2B1', 'ADIRF', 'MUC1', 'FTL', 'SLPI', 'FN1', 'NIT2', 'KRT16', 'NPNT', 'LGALS1', 'GAS6', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'CRB3', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'CSRP1', 'GSN', 'EEF1A1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'AKR1C3', 'PRSS8', 'CFL2', 'S100A8', 'CLU', 'ITGB8', 'KRT8', 'CST6', 'SOD2', 'BLVRA', 'RARRES1', 'CCL28', 'S100A9', 'PSCA', 'SLC26A2', 'TUBB', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'GLUL', 'DSC2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CALML3', 'KRT10', 'LAMA3', 'TMEM132A', 'SERPINA3', 'MAN2B1', 'GPRC5A', 'SERPINE1', 'DPP7', 'S100A4', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'NIT2', 'CRABP2', 'TNFSF10', 'C3', 'GDF15', 'CALML3', 'MAL2', 'MMP24', 'MAN2B1', 'SLPI', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'TGFBI', 'SCEL', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'TUBA4A', 'ANXA1', 'RREB1', 'TUBB', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PRSS8', 'DPP7', 'ITGB8', 'PSCA', 'ATP2B1', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'KRT15', 'BLVRA', 'S100A8', 'SLC46A3', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'NPNT', 'KRT5', 'FTL', 'CFL2', 'CST6', 'CCL28', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'PLSCR1', 'KRT10', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'CKB', 'ENTPD2', 'FXYD3', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'S100A4', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'SLC26A2', 'CLU', 'FN1', 'S100A9', 'TMEM132A', 'TFRC', 'SERPINA3', 'SNF8']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -8265,12 +8265,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'S100A11', 'SLC46A3', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'SNF8', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'LSR', 'TFRC', 'MOB1B', 'MMP7', 'TNFSF10', 'LAD1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ATP1B1', 'ATP2B1', 'ADIRF', 'MUC1', 'FTL', 'SLPI', 'FN1', 'NIT2', 'KRT16', 'SERPINE2', 'NPNT', 'LGALS1', 'GAS6', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'CRB3', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'CSRP1', 'GSN', 'EEF1A1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'AKR1C3', 'PRSS8', 'CFL2', 'S100A8', 'CLU', 'ITGB8', 'KRT8', 'CST6', 'SOD2', 'BLVRA', 'RARRES1', 'CCL28', 'S100A9', 'PSCA', 'SLC26A2', 'TUBB', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'GLUL', 'DSC2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CALML3', 'KRT10', 'LAMA3', 'TMEM132A', 'SERPINA3', 'MAN2B1', 'GPRC5A', 'SERPINE1', 'DPP7', 'S100A4', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'NIT2', 'CRABP2', 'SERPINE2', 'TNFSF10', 'C3', 'GDF15', 'CALML3', 'MAL2', 'MMP24', 'MAN2B1', 'SLPI', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'TGFBI', 'SCEL', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'TUBA4A', 'ANXA1', 'RREB1', 'TUBB', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PRSS8', 'DPP7', 'ITGB8', 'PSCA', 'ATP2B1', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'KRT15', 'BLVRA', 'S100A8', 'SLC46A3', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'NPNT', 'KRT5', 'FTL', 'CFL2', 'CST6', 'CCL28', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'PLSCR1', 'KRT10', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'CKB', 'ENTPD2', 'FXYD3', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'S100A4', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'SLC26A2', 'CLU', 'FN1', 'S100A9', 'TMEM132A', 'TFRC', 'SERPINA3', 'SNF8']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -8331,12 +8331,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'S100A11', 'SLC46A3', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'SNF8', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'LSR', 'TFRC', 'MOB1B', 'MMP7', 'TNFSF10', 'LAD1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ATP1B1', 'ATP2B1', 'ADIRF', 'MUC1', 'FTL', 'SLPI', 'FN1', 'NIT2', 'KRT16', 'SERPINE2', 'NPNT', 'LGALS1', 'GAS6', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'CRB3', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'CSRP1', 'GSN', 'EEF1A1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'AKR1C3', 'PRSS8', 'CFL2', 'S100A8', 'CLU', 'ITGB8', 'KRT8', 'CST6', 'SOD2', 'BLVRA', 'RARRES1', 'CCL28', 'S100A9', 'PSCA', 'SLC26A2', 'TUBB', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'GLUL', 'DSC2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CALML3', 'KRT10', 'LAMA3', 'TMEM132A', 'SERPINA3', 'MAN2B1', 'GPRC5A', 'SERPINE1', 'DPP7', 'S100A4', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'NIT2', 'CRABP2', 'SERPINE2', 'TNFSF10', 'C3', 'GDF15', 'CALML3', 'MAL2', 'MMP24', 'MAN2B1', 'SLPI', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'TGFBI', 'SCEL', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'TUBA4A', 'ANXA1', 'RREB1', 'TUBB', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PRSS8', 'DPP7', 'ITGB8', 'PSCA', 'ATP2B1', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'KRT15', 'BLVRA', 'S100A8', 'SLC46A3', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'NPNT', 'KRT5', 'FTL', 'CFL2', 'CST6', 'CCL28', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'PLSCR1', 'KRT10', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'CKB', 'ENTPD2', 'FXYD3', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'S100A4', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'SLC26A2', 'CLU', 'FN1', 'S100A9', 'TMEM132A', 'TFRC', 'SERPINA3', 'SNF8']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -8397,12 +8397,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'S100A11', 'SLC46A3', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'SNF8', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'LSR', 'TFRC', 'MOB1B', 'MMP7', 'TNFSF10', 'LAD1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ATP1B1', 'ATP2B1', 'ADIRF', 'MUC1', 'FTL', 'SLPI', 'FN1', 'NIT2', 'KRT16', 'SERPINE2', 'NPNT', 'LGALS1', 'GAS6', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'CRB3', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'CSRP1', 'GSN', 'EEF1A1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'AKR1C3', 'PRSS8', 'CFL2', 'S100A8', 'CLU', 'ITGB8', 'KRT8', 'CST6', 'SOD2', 'BLVRA', 'RARRES1', 'CCL28', 'S100A9', 'PSCA', 'SLC26A2', 'TUBB', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'GLUL', 'DSC2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CALML3', 'KRT10', 'LAMA3', 'TMEM132A', 'SERPINA3', 'MAN2B1', 'GPRC5A', 'SERPINE1', 'DPP7', 'S100A4', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'NIT2', 'CRABP2', 'SERPINE2', 'TNFSF10', 'C3', 'GDF15', 'CALML3', 'MAL2', 'MMP24', 'MAN2B1', 'SLPI', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'TGFBI', 'SCEL', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'TUBA4A', 'ANXA1', 'RREB1', 'TUBB', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PRSS8', 'DPP7', 'ITGB8', 'PSCA', 'ATP2B1', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'KRT15', 'BLVRA', 'S100A8', 'SLC46A3', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'NPNT', 'KRT5', 'FTL', 'CFL2', 'CST6', 'CCL28', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'PLSCR1', 'KRT10', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'CKB', 'ENTPD2', 'FXYD3', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'S100A4', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'SLC26A2', 'CLU', 'FN1', 'S100A9', 'TMEM132A', 'TFRC', 'SERPINA3', 'SNF8']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8463,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'LAMC2', 'TNFSF14', 'CCL20', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'S100A11', 'SLC46A3', 'LIF', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'SNF8', 'PDGFB', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'IL1A', 'LSR', 'LDLR', 'TFRC', 'DKK1', 'MOB1B', 'MMP7', 'IGFBP6', 'TNFSF10', 'LAD1', 'N4BP2L2', 'ALOX15B', 'DMKN', 'SDC4', 'ATP1B1', 'ATP2B1', 'ADIRF', 'VEGFA', 'MUC1', 'FTL', 'SLPI', 'FN1', 'FAP', 'NIT2', 'KRT16', 'SERPINE2', 'NPNT', 'LGALS1', 'GAS6', 'CHI3L2', 'SCEL', 'ALDH1A3', 'CSTA', 'COL7A1', 'C3', 'RREB1', 'KLK5', 'CRB3', 'IL1B', 'DCN', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'CSRP1', 'GSN', 'EEF1A1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PRSS8', 'CFL2', 'S100A8', 'CXCL16', 'ALDH3A1', 'CLU', 'ITGB8', 'KRT8', 'CST6', 'TNC', 'SOD2', 'BLVRA', 'RARRES1', 'CCL28', 'S100A9', 'PSCA', 'SLC26A2', 'KRT81', 'TNFAIP2', 'TUBB', 'STMN1', 'CRABP2', 'ITGAV', 'CXCL8', 'SAA2', 'F3', 'GLUL', 'DSC2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'LOX', 'VIM', 'FTH1', 'CALML3', 'MTHFD2', 'KRT10', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'MAN2B1', 'GPRC5A', 'SERPINE1', 'DPP7', 'CXCL1', 'S100A4', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'CXCL8', 'NIT2', 'CRABP2', 'SERPINE2', 'IL1A', 'TNFSF10', 'C3', 'GDF15', 'CXCL16', 'CALML3', 'MAL2', 'IL1B', 'MMP24', 'MAN2B1', 'SLPI', 'CYR61', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'TGFBI', 'SCEL', 'FLNA', 'COL4A2', 'LAMC2', 'GLUL', 'LIF', 'SERPINE1', 'ADGRG1', 'TUBA4A', 'ANXA1', 'RREB1', 'TUBB', 'TNFAIP2', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'PRSS8', 'DPP7', 'ITGB8', 'PSCA', 'ATP2B1', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'KRT15', 'CHI3L2', 'BLVRA', 'MTHFD2', 'S100A8', 'CCL20', 'SLC46A3', 'TNC', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'NPNT', 'ANGPTL4', 'KRT5', 'FTL', 'F3', 'CFL2', 'CST6', 'CCL28', 'VEGFA', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'DKK1', 'CXCL1', 'TSPAN1', 'IGFBP6', 'KLK5', 'AKR1C3', 'PLSCR1', 'KRT81', 'KRT10', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'CKB', 'ENTPD2', 'FXYD3', 'CSTA', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'LOX', 'LDLR', 'S100A4', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'ALDH3A1', 'SLC26A2', 'CLU', 'DMKN', 'FN1', 'S100A9', 'COL7A1', 'FAP', 'TMEM132A', 'TFRC', 'SERPINA3', 'TNFSF14', 'SNF8', 'COL4A1']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['HDA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IC', 'IEA'], ['HDA', 'ISS', 'IBA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IMP', 'TAS'], ['HDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['HDA', 'IBA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IEA'], ['HDA'], ['IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IBA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'IBA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['IBA']]</t>
         </is>
       </c>
     </row>
@@ -8529,12 +8529,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['NMU', 'SLC2A1', 'LAMC2', 'TNFSF14', 'CCL20', 'MAL2', 'VPS13C', 'KRT5', 'KRT15', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'S100A11', 'MFAP5', 'SLC46A3', 'LIF', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'SNF8', 'PDGFB', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'IL1A', 'LSR', 'CCDC80', 'LDLR', 'TFRC', 'DKK1', 'MOB1B', 'PLAUR', 'MMP7', 'IGFBP6', 'TNFSF10', 'LAD1', 'N4BP2L2', 'ALOX15B', 'DMKN', 'SDC4', 'SPINK6', 'ATP1B1', 'ATP2B1', 'ADIRF', 'PLXNB1', 'VEGFA', 'MUC1', 'FTL', 'SLPI', 'FN1', 'FAP', 'NIT2', 'KRT16', 'SERPINE2', 'NPNT', 'LGALS1', 'GAS6', 'CHI3L2', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'COL7A1', 'C3', 'RREB1', 'KLK5', 'CRB3', 'C1orf56', 'IL1B', 'DCN', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'CSRP1', 'GSN', 'EEF1A1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PRSS8', 'CFL2', 'S100A8', 'CXCL16', 'ALDH3A1', 'CLU', 'ITGB8', 'KRT8', 'CST6', 'TNC', 'SOD2', 'BLVRA', 'RARRES1', 'CCL28', 'S100A9', 'PSCA', 'SLC26A2', 'KRT81', 'TNFAIP2', 'TUBB', 'STMN1', 'CRABP2', 'ITGAV', 'CXCL8', 'SAA2', 'F3', 'GLUL', 'DSC2', 'GBP1', 'ADGRF1', 'S100A6', 'CLIC3', 'PDZK1IP1', 'LOX', 'VIM', 'FTH1', 'CALML3', 'MTHFD2', 'KRT10', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'MAN2B1', 'GPRC5A', 'SERPINE1', 'DPP7', 'CXCL1', 'S100A4', 'FGFR3', 'FXYD3', 'TMSB4X', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'CXCL8', 'CCDC80', 'NIT2', 'CRABP2', 'SERPINE2', 'IL1A', 'TNFSF10', 'C3', 'GDF15', 'CXCL16', 'CALML3', 'MAL2', 'IL1B', 'MMP24', 'MAN2B1', 'SLPI', 'CYR61', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'SPINK6', 'TGFBI', 'FGFR3', 'SCEL', 'FLNA', 'COL4A2', 'LAMC2', 'GLUL', 'LIF', 'SERPINE1', 'ADGRG1', 'TUBA4A', 'ANXA1', 'RREB1', 'TUBB', 'TNFAIP2', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'PRSS8', 'DPP7', 'ITGB8', 'PSCA', 'ATP2B1', 'NMU', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'KRT15', 'CHI3L2', 'BLVRA', 'MTHFD2', 'S100A8', 'CCL20', 'SLC46A3', 'TNC', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'MFAP5', 'MME', 'S100A11', 'NPNT', 'ANGPTL4', 'KRT5', 'FTL', 'F3', 'CFL2', 'PLAUR', 'CST6', 'CCL28', 'VEGFA', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'DKK1', 'CXCL1', 'TSPAN1', 'IGFBP6', 'KLK5', 'AKR1C3', 'PLSCR1', 'KRT81', 'KRT10', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'PLXNB1', 'CKB', 'ADGRF1', 'C1orf56', 'ENTPD2', 'FXYD3', 'CSTA', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'LOX', 'LDLR', 'S100A4', 'TMSB4X', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'ALDH3A1', 'SLC26A2', 'CLU', 'DMKN', 'FN1', 'GBP1', 'S100A9', 'COL7A1', 'FAP', 'CALML5', 'TMEM132A', 'TFRC', 'SERPINA3', 'TNFSF14', 'SNF8', 'COL4A1']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'ISS', 'IBA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['IDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA', 'ISS', 'IBA'], ['IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -8595,12 +8595,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'MAL2', 'ZDHHC17', 'VPS13C', 'STX16', 'KRT5', 'KRT15', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'S100A11', 'DST', 'SLC46A3', 'SMIM22', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'CNTNAP2', 'SNF8', 'PDGFB', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'ROGDI', 'LSR', 'SNX14', 'LDLR', 'TFRC', 'DKK1', 'MOB1B', 'PLAUR', 'MMP7', 'TNFSF10', 'LAD1', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ATP1B1', 'ATP2B1', 'ADIRF', 'VEGFA', 'SPIRE1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NIT2', 'SORT1', 'KRT16', 'SERPINE2', 'NPNT', 'LGALS1', 'GAS6', 'SYT8', 'SCEL', 'CALML5', 'ALDH1A3', 'COL7A1', 'C3', 'RREB1', 'KLK5', 'NISCH', 'CRB3', 'IL1B', 'SLC26A6', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'CSRP1', 'GSN', 'EEF1A1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'AKR1C3', 'PRSS8', 'CFL2', 'S100A8', 'CLU', 'ITGB8', 'KRT8', 'CST6', 'RHOV', 'SOD2', 'BLVRA', 'RARRES1', 'CCL28', 'S100A9', 'TNK2', 'PSCA', 'SLC26A2', 'RAB11FIP1', 'TUBB', 'STMN1', 'SUN2', 'CRABP2', 'ITGAV', 'SAA2', 'ANKRD13D', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'ADGRF1', 'IFITM2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CALML3', 'KRT10', 'LAMA3', 'TMEM132A', 'SERPINA3', 'MAN2B1', 'GPRC5A', 'SERPINE1', 'LRP1', 'DPP7', 'CXCL1', 'S100A4', 'FGFR3', 'FXYD3', 'TMSB4X', 'BIN1', 'ATP13A4', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'ATP1B1', 'SORT1', 'NIT2', 'CRABP2', 'SERPINE2', 'TNFSF10', 'C3', 'GDF15', 'CALML3', 'MAL2', 'IL1B', 'MMP24', 'MAN2B1', 'SLPI', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'FLNA', 'COL4A2', 'TNK2', 'GLUL', 'SPIRE1', 'SERPINE1', 'ADGRG1', 'TUBA4A', 'NISCH', 'ANXA1', 'RREB1', 'TUBB', 'GSN', 'VPS13C', 'CSRP1', 'ANXA3', 'LSR', 'SMIM22', 'SLC2A1', 'SOD2', 'MFI2', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'PRSS8', 'DPP7', 'ITGB8', 'PSCA', 'ATP2B1', 'STMN1', 'IFITM2', 'SAA2', 'CLIC3', 'CREG1', 'LRP1', 'SNX14', 'KRT15', 'BLVRA', 'S100A8', 'SLC46A3', 'RAB11FIP1', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'MME', 'S100A11', 'NPNT', 'KRT5', 'SUN2', 'ZDHHC17', 'FTL', 'CFL2', 'PLAUR', 'CST6', 'CCL28', 'ATP13A4', 'VEGFA', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'DKK1', 'CXCL1', 'TSPAN1', 'KLK5', 'AKR1C3', 'PLSCR1', 'KRT10', 'GAS6', 'ITGAV', 'ROGDI', 'FTH1', 'ALOX15B', 'CKB', 'ADGRF1', 'ENTPD2', 'FXYD3', 'SYT8', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'TRAK1', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'BIN1', 'SLC26A2', 'CLU', 'FN1', 'GBP1', 'S100A9', 'COL7A1', 'CALML5', 'TMEM132A', 'TFRC', 'SERPINA3', 'COPE', 'SNF8']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['HDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['TAS'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA'], ['IEA'], ['HDA'], ['IEA'], ['ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IMP', 'HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['IDA', 'HDA'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['TAS'], ['IDA', 'HDA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['TAS'], ['TAS'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -8661,12 +8661,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'COL4A2', 'TACSTD2', 'ATF3', 'LIF', 'ANXA1', 'ID3', 'SOX4', 'FLNA', 'PDGFB', 'EPPK1', 'ROGDI', 'IL1A', 'LSR', 'MYC', 'FOXC1', 'CCND1', 'DKK1', 'MAGED1', 'ALOX15B', 'SDC4', 'ATP2B1', 'CYP1B1', 'VEGFA', 'ERRFI1', 'FN1', 'KRT16', 'SERPINE2', 'NPNT', 'PHLDB2', 'GAS6', 'GJA5', 'CD24', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'COL7A1', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'HNRNPH3', 'CSRP1', 'SOX6', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PTGS2', 'CFL2', 'BAMBI', 'HS2ST1', 'UQCC2', 'ITGB8', 'FOS', 'CST6', 'TNC', 'SLC26A2', 'HES1', 'ITGB1BP1', 'KRT81', 'RGS2', 'TUBB', 'EGR1', 'STMN1', 'CRABP2', 'CLDN4', 'ITGAV', 'TAGLN', 'APCDD1', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'KRT10', 'NOM1', 'PHLDA2', 'LAMA3', 'COL4A1', 'ZBED2', 'SLC4A7', 'SERPINE1', 'SPRR1B', 'RDH10', 'EHF', 'S100A4', 'CENPF', 'FGFR3']</t>
+          <t>['LAMA3', 'SPRR1B', 'BAMBI', 'CRABP2', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GJA5', 'IL1B', 'CYR61', 'TGFBI', 'FGFR3', 'GRHL3', 'SCEL', 'FLNA', 'COL4A2', 'CD24', 'EHF', 'LAMC2', 'LIF', 'SERPINE1', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'TUBB', 'NOM1', 'CSRP1', 'LSR', 'TIMP1', 'SDC4', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'ATP2B1', 'DLG5', 'STMN1', 'ZBED2', 'PHLDA2', 'KRT15', 'TAGLN', 'ITGB1BP1', 'TXNIP', 'TNC', 'ATF3', 'NPNT', 'HNRNPH3', 'KRT5', 'UQCC2', 'CFL2', 'CST6', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'KRT81', 'MYC', 'KRT10', 'GAS6', 'ITGAV', 'ROGDI', 'ALOX15B', 'CSTA', 'EGR1', 'ALDH1A3', 'CLDN4', 'FOS', 'LOX', 'S100A4', 'KRT17', 'APCDD1', 'VIM', 'KRT16', 'SLC26A2', 'AKR1C2', 'SOX6', 'FN1', 'COL7A1', 'EPPK1', 'CCND1', 'CALML5', 'RDH10', 'HS2ST1', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['IMP'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IEP'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IEP', 'TAS'], ['IEA'], ['IMP'], ['IEP', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA'], ['IEP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['TAS'], ['IMP'], ['IMP', 'NAS'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['IEA'], ['IEP', 'TAS'], ['IMP', 'IEA'], ['IMP'], ['IBA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['TAS'], ['ISS', 'IEA'], ['ISS', 'TAS']]</t>
+          <t>[['IEP', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEP'], ['IMP', 'NAS'], ['IEP'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IBA', 'TAS'], ['IDA'], ['IEA'], ['IDA'], ['ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS'], ['IEP', 'ISS', 'IBA'], ['IDA'], ['IMP', 'NAS'], ['IEA'], ['NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA'], ['IEP', 'TAS'], ['ISS'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'CCL20', 'KRT5', 'TUBA1A', 'ANXA3', 'TACSTD2', 'S100A11', 'SMIM22', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'GDF15', 'EPPK1', 'IL1A', 'FOXC1', 'SGK1', 'ZNF268', 'MMP7', 'IGFBP6', 'ALOX15B', 'SDC4', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'RUFY3', 'CD24', 'RREB1', 'ITGA2', 'NISCH', 'NR4A1', 'IL1B', 'DCN', 'ASPM', 'TIMP1', 'CYR61', 'PTGS2', 'S100A8', 'BAMBI', 'CXCL16', 'TNC', 'SOD2', 'CCL28', 'S100A9', 'HES1', 'CORO6', 'ITGB1BP1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'APCDD1', 'GLUL', 'WWC1', 'DLG5', 'LYST', 'LOX', 'CLDN1', 'ID1', 'PHLDA2', 'LAMA3', 'SERPINE1', 'LRP1', 'CXCL1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'NR4A1', 'ITGA2', 'PHLDB2', 'GDF15', 'CXCL16', 'IL1B', 'CYR61', 'MMP7', 'SGK1', 'CORO6', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'SERPINE1', 'ADGRG1', 'NISCH', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'SMIM22', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'PDGFB', 'HES1', 'DLG5', 'STMN1', 'LYST', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'S100A8', 'CCL20', 'TNC', 'ZNF268', 'S100A11', 'KRT5', 'RUFY3', 'SUN2', 'F3', 'CCL28', 'VEGFA', 'PTGS2', 'TACSTD2', 'TPM1', 'CXCL1', 'IGFBP6', 'ERRFI1', 'ID1', 'GAS6', 'ITGAV', 'ALOX15B', 'PLXNB1', 'ASPM', 'CLDN4', 'TUBA1A', 'LOX', 'TMSB4X', 'WWC1', 'APCDD1', 'KRT16', 'FN1', 'S100A9', 'FAP', 'EPPK1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IMP'], ['IDA'], ['IDA'], ['TAS'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS'], ['IEA'], ['IMP'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['ISS'], ['IBA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['NAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IBA'], ['IDA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS'], ['ISS'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IBA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['TAS'], ['IBA', 'NAS'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'ISS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -8793,12 +8793,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'CCL20', 'KRT5', 'TUBA1A', 'ANXA3', 'TACSTD2', 'S100A11', 'DST', 'SMIM22', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'GDF15', 'EPPK1', 'IL1A', 'FOXC1', 'SGK1', 'ZNF268', 'MMP7', 'IGFBP6', 'MALAT1', 'ALOX15B', 'SDC4', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'RUFY3', 'CD24', 'RREB1', 'ITGA2', 'NISCH', 'NR4A1', 'IL1B', 'DCN', 'ASPM', 'TIMP1', 'CYR61', 'PTGS2', 'S100A8', 'BAMBI', 'CXCL16', 'TNC', 'SOD2', 'CCL28', 'S100A9', 'HES1', 'CORO6', 'ITGB1BP1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'APCDD1', 'GLUL', 'CLDN7', 'WWC1', 'DLG5', 'LYST', 'LOX', 'CLDN1', 'ID1', 'PHLDA2', 'LAMA3', 'SERPINE1', 'LRP1', 'CXCL1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'NR4A1', 'ITGA2', 'PHLDB2', 'GDF15', 'CXCL16', 'CLDN7', 'IL1B', 'CYR61', 'MMP7', 'SGK1', 'DST', 'CORO6', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'SERPINE1', 'ADGRG1', 'NISCH', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'SMIM22', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'PDGFB', 'HES1', 'DLG5', 'STMN1', 'LYST', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'S100A8', 'CCL20', 'TNC', 'ZNF268', 'S100A11', 'KRT5', 'RUFY3', 'SUN2', 'F3', 'CCL28', 'VEGFA', 'PTGS2', 'TACSTD2', 'TPM1', 'CXCL1', 'IGFBP6', 'ERRFI1', 'ID1', 'GAS6', 'MALAT1', 'ITGAV', 'ALOX15B', 'PLXNB1', 'ASPM', 'CLDN4', 'TUBA1A', 'LOX', 'TMSB4X', 'WWC1', 'APCDD1', 'KRT16', 'FN1', 'S100A9', 'FAP', 'EPPK1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS'], ['IEA'], ['IMP'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['ISS'], ['IBA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['NAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IMP'], ['IBA'], ['IDA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS'], ['ISS'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IBA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['TAS'], ['IBA', 'NAS'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'ISS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -8859,12 +8859,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'CCL20', 'KRT5', 'ANXA3', 'TACSTD2', 'S100A11', 'SMIM22', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'GDF15', 'EPPK1', 'IL1A', 'SGK1', 'PLAUR', 'ZNF268', 'MMP7', 'MALAT1', 'ALOX15B', 'SDC4', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'FN1', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'RUFY3', 'RREB1', 'ITGA2', 'NISCH', 'NR4A1', 'IL1B', 'DCN', 'TIMP1', 'CYR61', 'PTGS2', 'S100A8', 'CXCL16', 'TNC', 'SOD2', 'CCL28', 'S100A9', 'ITGB1BP1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLDN7', 'DLG5', 'LYST', 'LOX', 'CLDN1', 'PHLDA2', 'LAMA3', 'SERPINE1', 'LRP1', 'CXCL1', 'S100A4', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'SERPINE2', 'IL1A', 'NR4A1', 'ITGA2', 'PHLDB2', 'GDF15', 'CXCL16', 'CLDN7', 'IL1B', 'CYR61', 'MMP7', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'SERPINE1', 'ADGRG1', 'NISCH', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'SMIM22', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'PDGFB', 'DLG5', 'STMN1', 'LYST', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'S100A8', 'CCL20', 'TNC', 'ZNF268', 'S100A11', 'KRT5', 'RUFY3', 'SUN2', 'F3', 'PLAUR', 'CCL28', 'VEGFA', 'PTGS2', 'TACSTD2', 'TPM1', 'CXCL1', 'GAS6', 'MALAT1', 'ITGAV', 'ALOX15B', 'PLXNB1', 'CLDN4', 'LOX', 'S100A4', 'TMSB4X', 'KRT16', 'FN1', 'S100A9', 'EPPK1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['TAS'], ['IMP'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IC'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['ISS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['ISS'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['TAS', 'IC'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['TAS'], ['IBA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -8925,12 +8925,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'AKR1C2', 'HMGN5', 'TACSTD2', 'ATF3', 'S100A11', 'SMIM22', 'LIF', 'ANXA1', 'IGFBP7', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'CDKN1C', 'PDGFB', 'EPPK1', 'PTGES', 'ROGDI', 'IL1A', 'FBXO4', 'MYC', 'FOXC1', 'TFRC', 'CCND1', 'SGK1', 'MAGED1', 'ZNF268', 'MMP7', 'IGFBP6', 'N4BP2L2', 'ALOX15B', 'SDC4', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'GPAM', 'FAP', 'SERPINE2', 'GAS6', 'CD24', 'TACC2', 'RREB1', 'ITGA2', 'TXNIP', 'NR4A1', 'C1orf56', 'IL1B', 'ASPM', 'FNIP1', 'TGFBI', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'CLU', 'LMBR1L', 'FOS', 'TNC', 'SOD2', 'RARRES1', 'SLC26A2', 'HES1', 'ITGB1BP1', 'EGR1', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLDN7', 'WWC1', 'S100A6', 'DLG5', 'ZFP36', 'FTH1', 'CLDN1', 'PHLDA2', 'CXCL1', 'FGFR3']</t>
+          <t>['CXCL8', 'BAMBI', 'SERPINE2', 'FOXC1', 'IL1A', 'NR4A1', 'ZFP36', 'ITGA2', 'CLDN7', 'IL1B', 'CYR61', 'MMP7', 'SGK1', 'TGFBI', 'FGFR3', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'LIF', 'ADGRG1', 'CLDN1', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'SMIM22', 'SOD2', 'TIMP1', 'SDC4', 'PDGFB', 'HES1', 'INPPL1', 'FBXO4', 'DLG5', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'TXNIP', 'TNC', 'IGFBP7', 'ZNF268', 'ATF3', 'S100A11', 'CDKN1C', 'F3', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CXCL1', 'IGFBP6', 'ERRFI1', 'AKR1C3', 'SOX4', 'MYC', 'GAS6', 'ITGAV', 'ROGDI', 'FTH1', 'ALOX15B', 'PLXNB1', 'C1orf56', 'ASPM', 'EGR1', 'FOS', 'RARRES1', 'WWC1', 'S100A6', 'N4BP2L2', 'CNTNAP2', 'SLC26A2', 'CLU', 'AKR1C2', 'FN1', 'GPAM', 'FAP', 'EPPK1', 'CCND1', 'TACC2', 'TFRC', 'CDK5RAP3', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP'], ['NAS'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IMP'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IBA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['NAS'], ['IMP', 'TAS'], ['IMP'], ['IDA', 'ISS'], ['IMP'], ['IEA'], ['TAS'], ['IMP', 'IGI', 'TAS', 'IEA']]</t>
+          <t>[['TAS'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'TAS'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['IBA'], ['IDA'], ['IDA'], ['NAS']]</t>
         </is>
       </c>
     </row>
@@ -8991,12 +8991,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'LAMC2', 'TNFSF14', 'ELF3', 'ZDHHC8', 'MAL2', 'ZDHHC17', 'HSD17B2', 'KRT17', 'NNMT', 'KRT5', 'KRT15', 'AKR1C2', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'KLF6', 'ATF3', 'MFAP5', 'LIF', 'PIEZO1', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'PDGFB', 'GDF15', 'EPPK1', 'ROGDI', 'IL1A', 'LSR', 'MYC', 'FOXC1', 'LDLR', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'MAGED1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'SDC4', 'SAT1', 'ATP2B1', 'PTPRM', 'CYP1B1', 'VMP1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'FN1', 'FAP', 'KDM4B', 'SORT1', 'KRT16', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'GJA5', 'CD24', 'TRIM47', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'COL7A1', 'TACC2', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'DCN', 'KMT2E', 'SLC26A6', 'HNRNPH3', 'TPM4', 'ASPM', 'CSRP1', 'GSN', 'SOX6', 'BCL2L11', 'FNIP1', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PTGS2', 'CFL2', 'S100A8', 'BAMBI', 'HS2ST1', 'UQCC2', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'CST6', 'TNC', 'SOD2', 'NSUN5', 'S100A9', 'SLC26A2', 'HES1', 'BCL3', 'ITGB1BP1', 'KRT81', 'TNFAIP2', 'RGS2', 'TUBB', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'TAGLN', 'F3', 'APCDD1', 'GLUL', 'TRAK1', 'DUSP6', 'HES2', 'ADGRF1', 'S100A6', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'KRT10', 'NOM1', 'ID1', 'LYAR', 'PHLDA2', 'LAMA3', 'COL4A1', 'ANGPTL4', 'ZBED2', 'SLC4A7', 'SERPINE1', 'LRP1', 'SPRR1B', 'RDH10', 'EHF', 'CXCL1', 'S100A4', 'CENPF', 'FGFR3', 'BIN1', 'TET2', 'MME']</t>
+          <t>['LYAR', 'NNMT', 'LAMA3', 'ANKRD11', 'SPRR1B', 'SORT1', 'CXCL8', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GDF15', 'GJA5', 'MAL2', 'IL1B', 'MMP24', 'KDM4B', 'DUSP6', 'CYR61', 'PXDN', 'STK25', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'GRHL3', 'SCEL', 'FLNA', 'COL4A2', 'CD24', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'LIF', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'CLDN1', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'TNFAIP2', 'GSN', 'NOM1', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'INPPL1', 'ATP2B1', 'DLG5', 'STMN1', 'CLIC3', 'ZBED2', 'LRP1', 'PHLDA2', 'PTPRM', 'KRT15', 'TAGLN', 'ITGB1BP1', 'HSD17B2', 'S100A8', 'TXNIP', 'TNC', 'NSUN5', 'VMP1', 'BCL2L11', 'IGFBP7', 'ATF3', 'TPM4', 'LGALS1', 'MFAP5', 'MME', 'NPNT', 'ANGPTL4', 'HNRNPH3', 'KRT5', 'UQCC2', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'CFL2', 'CST6', 'VEGFA', 'LMBR1L', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ELF3', 'CXCL1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'KRT81', 'TRIM47', 'MYC', 'KRT10', 'ID1', 'GAS6', 'ITGAV', 'ROGDI', 'ALOX15B', 'PLXNB1', 'CKB', 'ADGRF1', 'KMT2E', 'ASPM', 'KLF6', 'TET2', 'HES2', 'CSTA', 'EGR1', 'SAT1', 'ALDH1A3', 'CLDN4', 'FOS', 'TUBA1A', 'LOX', 'LDLR', 'S100A4', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'APCDD1', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'BIN1', 'SLC26A2', 'CLU', 'AKR1C2', 'PIEZO1', 'SOX6', 'FN1', 'S100A9', 'COL7A1', 'FAP', 'EPPK1', 'CCND1', 'CALML5', 'TACC2', 'TFRC', 'RDH10', 'HS2ST1', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['HEP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS'], ['IEA'], ['ISS'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA'], ['IEP', 'TAS'], ['IBA'], ['ISS', 'IEA'], ['IMP'], ['IEP', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['ISO', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['TAS'], ['IMP'], ['IBA', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['TAS'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IGI'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP'], ['ISS'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEP', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEP'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IMP', 'ISS'], ['IEP', 'ISS', 'IBA'], ['TAS'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HEP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IMP', 'IBA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IEP'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IEP', 'TAS'], ['IEA'], ['ISS'], ['IEA'], ['TAS'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9057,12 +9057,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'CCL20', 'KRT5', 'ANXA3', 'TACSTD2', 'S100A11', 'SMIM22', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'GDF15', 'EPPK1', 'IL1A', 'SGK1', 'ZNF268', 'MMP7', 'MALAT1', 'ALOX15B', 'SDC4', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'FN1', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'RUFY3', 'RREB1', 'ITGA2', 'NISCH', 'IL1B', 'DCN', 'TIMP1', 'CYR61', 'PTGS2', 'CXCL16', 'TNC', 'SOD2', 'CCL28', 'ITGB1BP1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLDN7', 'DLG5', 'CLDN1', 'PHLDA2', 'LAMA3', 'SERPINE1', 'LRP1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'SERPINE2', 'IL1A', 'ITGA2', 'PHLDB2', 'GDF15', 'CXCL16', 'CLDN7', 'IL1B', 'CYR61', 'MMP7', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'SERPINE1', 'ADGRG1', 'NISCH', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'SMIM22', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'PDGFB', 'DLG5', 'STMN1', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'CCL20', 'TNC', 'ZNF268', 'S100A11', 'KRT5', 'RUFY3', 'SUN2', 'F3', 'CCL28', 'VEGFA', 'PTGS2', 'TACSTD2', 'TPM1', 'GAS6', 'MALAT1', 'ITGAV', 'ALOX15B', 'PLXNB1', 'CLDN4', 'TMSB4X', 'KRT16', 'FN1', 'EPPK1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['IMP'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['TAS'], ['NAS'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['NAS'], ['IMP'], ['IMP'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IBA'], ['IMP'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'ISS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -9123,12 +9123,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'CCL20', 'KRT5', 'ANXA3', 'TACSTD2', 'S100A11', 'SMIM22', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'GDF15', 'EPPK1', 'IL1A', 'SGK1', 'ZNF268', 'MMP7', 'ALOX15B', 'SDC4', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'FN1', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'RUFY3', 'RREB1', 'ITGA2', 'NISCH', 'IL1B', 'DCN', 'TIMP1', 'CYR61', 'PTGS2', 'CXCL16', 'TNC', 'SOD2', 'CCL28', 'ITGB1BP1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'DLG5', 'CLDN1', 'PHLDA2', 'LAMA3', 'SERPINE1', 'LRP1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'SERPINE2', 'IL1A', 'ITGA2', 'PHLDB2', 'GDF15', 'CXCL16', 'IL1B', 'CYR61', 'MMP7', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'SERPINE1', 'ADGRG1', 'NISCH', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'SMIM22', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'PDGFB', 'DLG5', 'STMN1', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'CCL20', 'TNC', 'ZNF268', 'S100A11', 'KRT5', 'RUFY3', 'SUN2', 'F3', 'CCL28', 'VEGFA', 'PTGS2', 'TACSTD2', 'TPM1', 'GAS6', 'ITGAV', 'ALOX15B', 'PLXNB1', 'CLDN4', 'TMSB4X', 'KRT16', 'FN1', 'EPPK1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['IMP'], ['IDA'], ['TAS'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['TAS'], ['NAS'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['NAS'], ['IMP'], ['IMP'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IDA'], ['IEA'], ['TAS'], ['IBA'], ['IMP'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'ISS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -9189,12 +9189,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'LAMC2', 'TNFSF14', 'ELF3', 'ZDHHC8', 'MAL2', 'ZDHHC17', 'HSD17B2', 'KRT17', 'NNMT', 'KRT5', 'KRT15', 'AKR1C2', 'PTTG1', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'KLF6', 'ATF3', 'MFAP5', 'LIF', 'PIEZO1', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'PDGFB', 'RRBP1', 'GDF15', 'EPPK1', 'ROGDI', 'IL1A', 'LSR', 'GADD45B', 'MYC', 'FOXC1', 'LDLR', 'MRC2', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'MAGED1', 'ZNF268', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'SDC4', 'SAT1', 'ATP2B1', 'ADIRF', 'PTPRM', 'CYP1B1', 'VMP1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'FN1', 'GPAM', 'FAP', 'KDM4B', 'SORT1', 'KRT16', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'BIRC3', 'GJA5', 'CD24', 'TRIM47', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'COL7A1', 'TACC2', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'DCN', 'KMT2E', 'SLC26A6', 'HNRNPH3', 'TPM4', 'ASPM', 'CSRP1', 'GSN', 'SOX6', 'BCL2L11', 'FNIP1', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PTGS2', 'CFL2', 'S100A8', 'BAMBI', 'HS2ST1', 'UQCC2', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'CST6', 'TNC', 'SOD2', 'NSUN5', 'S100A9', 'SLC26A2', 'HES1', 'BCL3', 'ITGB1BP1', 'KRT81', 'TNFAIP2', 'RGS2', 'TUBB', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'TAGLN', 'F3', 'APCDD1', 'GLUL', 'TRAK1', 'WWC1', 'DUSP6', 'HES2', 'ADGRF1', 'S100A6', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'KRT10', 'NOM1', 'ID1', 'LYAR', 'PHLDA2', 'LAMA3', 'COL4A1', 'ANGPTL4', 'ZBED2', 'SLC4A7', 'SERPINE1', 'LRP1', 'SPRR1B', 'RDH10', 'EHF', 'CXCL1', 'S100A4', 'CENPF', 'FGFR3', 'BIN1', 'TET2', 'MME']</t>
+          <t>['LYAR', 'NNMT', 'LAMA3', 'ANKRD11', 'SPRR1B', 'SORT1', 'CXCL8', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GDF15', 'GJA5', 'MAL2', 'IL1B', 'MMP24', 'KDM4B', 'DUSP6', 'CYR61', 'PXDN', 'STK25', 'DLK2', 'SGK1', 'SLC2A12', 'TGFBI', 'PTTG1', 'FGFR3', 'GRHL3', 'SCEL', 'FLNA', 'COL4A2', 'CD24', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'LIF', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'CLDN1', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'TNFAIP2', 'GSN', 'NOM1', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'INPPL1', 'ATP2B1', 'DLG5', 'STMN1', 'BIRC3', 'CLIC3', 'ZBED2', 'LRP1', 'PHLDA2', 'PTPRM', 'KRT15', 'TAGLN', 'ITGB1BP1', 'HSD17B2', 'S100A8', 'TXNIP', 'TNC', 'NSUN5', 'VMP1', 'BCL2L11', 'IGFBP7', 'ZNF268', 'ATF3', 'TPM4', 'LGALS1', 'MFAP5', 'MME', 'NPNT', 'ANGPTL4', 'HNRNPH3', 'KRT5', 'UQCC2', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'CFL2', 'CST6', 'RRBP1', 'VEGFA', 'LMBR1L', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ELF3', 'GADD45B', 'CXCL1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'KRT81', 'TRIM47', 'MYC', 'KRT10', 'ID1', 'GAS6', 'ITGAV', 'ROGDI', 'ALOX15B', 'PLXNB1', 'CKB', 'ADGRF1', 'KMT2E', 'ASPM', 'KLF6', 'TET2', 'HES2', 'CSTA', 'EGR1', 'SAT1', 'ALDH1A3', 'CLDN4', 'FOS', 'TUBA1A', 'LOX', 'LDLR', 'S100A4', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MRC2', 'APCDD1', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'BIN1', 'SLC26A2', 'CLU', 'AKR1C2', 'PIEZO1', 'SOX6', 'FN1', 'S100A9', 'COL7A1', 'GPAM', 'FAP', 'EPPK1', 'CCND1', 'CALML5', 'TACC2', 'TFRC', 'RDH10', 'HS2ST1', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IEP'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['HEP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS'], ['HDA'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA'], ['IEP', 'TAS'], ['IBA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['HDA', 'ISO', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IDA', 'TAS'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['IBA', 'TAS'], ['IMP'], ['IBA', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['TAS'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IGI'], ['ISS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['TAS'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['ISS'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['HDA', 'ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'HDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEP', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEP'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IMP', 'ISS'], ['IEP', 'ISS', 'IBA'], ['IBA', 'TAS'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HEP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IMP', 'IBA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['HDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IEP'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IEP', 'TAS'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['TAS'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9255,12 +9255,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'AKR1C2', 'HMGN5', 'TACSTD2', 'ATF3', 'S100A11', 'SMIM22', 'LIF', 'ANXA1', 'IGFBP7', 'ADGRG1', 'SOX4', 'FLNA', 'INPPL1', 'CDKN1C', 'PDGFB', 'EPPK1', 'PTGES', 'ROGDI', 'IL1A', 'FBXO4', 'MYC', 'TFRC', 'CCND1', 'SGK1', 'MAGED1', 'ZNF268', 'MMP7', 'IGFBP6', 'N4BP2L2', 'ALOX15B', 'SDC4', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'FN1', 'GPAM', 'FAP', 'SERPINE2', 'GAS6', 'CD24', 'RREB1', 'ITGA2', 'TXNIP', 'NR4A1', 'C1orf56', 'IL1B', 'ASPM', 'FNIP1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'CLU', 'TNC', 'SOD2', 'RARRES1', 'HES1', 'ITGB1BP1', 'EGR1', 'ITGAV', 'CXCL8', 'F3', 'CLDN7', 'WWC1', 'S100A6', 'DLG5', 'ZFP36', 'FTH1', 'CLDN1', 'PHLDA2', 'CXCL1', 'FGFR3']</t>
+          <t>['CXCL8', 'BAMBI', 'SERPINE2', 'IL1A', 'NR4A1', 'ZFP36', 'ITGA2', 'CLDN7', 'IL1B', 'CYR61', 'MMP7', 'SGK1', 'FGFR3', 'FLNA', 'CD24', 'LAMC2', 'LIF', 'ADGRG1', 'CLDN1', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'SMIM22', 'SOD2', 'TIMP1', 'SDC4', 'PDGFB', 'HES1', 'INPPL1', 'FBXO4', 'DLG5', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'TXNIP', 'TNC', 'IGFBP7', 'ZNF268', 'ATF3', 'S100A11', 'CDKN1C', 'F3', 'VEGFA', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CXCL1', 'IGFBP6', 'AKR1C3', 'SOX4', 'MYC', 'GAS6', 'ITGAV', 'ROGDI', 'FTH1', 'ALOX15B', 'PLXNB1', 'C1orf56', 'ASPM', 'EGR1', 'RARRES1', 'WWC1', 'S100A6', 'N4BP2L2', 'CLU', 'AKR1C2', 'FN1', 'GPAM', 'FAP', 'EPPK1', 'CCND1', 'TFRC']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IMP'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IMP'], ['NAS'], ['IMP', 'TAS'], ['IMP'], ['IDA', 'ISS'], ['IMP'], ['IEA'], ['TAS'], ['IMP', 'IGI', 'IEA']]</t>
+          <t>[['TAS'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA'], ['IDA'], ['IEA'], ['TAS'], ['IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'TAS'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['TAS'], ['TAS'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['TAS', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -9321,12 +9321,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'CCL20', 'KRT5', 'ANXA3', 'TACSTD2', 'S100A11', 'SMIM22', 'ANXA1', 'ADGRG1', 'FLNA', 'PDGFB', 'GDF15', 'EPPK1', 'IL1A', 'SGK1', 'ZNF268', 'MMP7', 'MALAT1', 'ALOX15B', 'SDC4', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'FN1', 'KRT16', 'SERPINE2', 'PHLDB2', 'GAS6', 'RUFY3', 'RREB1', 'ITGA2', 'NISCH', 'IL1B', 'DCN', 'TIMP1', 'CYR61', 'PTGS2', 'CXCL16', 'TNC', 'SOD2', 'CCL28', 'ITGB1BP1', 'STMN1', 'SUN2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLDN7', 'DLG5', 'CLDN1', 'PHLDA2', 'LAMA3', 'SERPINE1', 'LRP1', 'TMSB4X']</t>
+          <t>['LAMA3', 'CXCL8', 'SERPINE2', 'IL1A', 'ITGA2', 'PHLDB2', 'GDF15', 'CXCL16', 'CLDN7', 'IL1B', 'CYR61', 'MMP7', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'SERPINE1', 'ADGRG1', 'NISCH', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'SMIM22', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'PDGFB', 'DLG5', 'STMN1', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'CCL20', 'TNC', 'ZNF268', 'S100A11', 'KRT5', 'RUFY3', 'SUN2', 'F3', 'CCL28', 'VEGFA', 'PTGS2', 'TACSTD2', 'TPM1', 'GAS6', 'MALAT1', 'ITGAV', 'ALOX15B', 'PLXNB1', 'CLDN4', 'TMSB4X', 'KRT16', 'FN1', 'EPPK1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['IMP'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IGI', 'TAS'], ['TAS', 'IC'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['ISS'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IGI', 'TAS'], ['NAS'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['NAS'], ['IMP'], ['IMP'], ['ISS'], ['IDA'], ['ISS', 'IEA'], ['TAS', 'IC'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IBA'], ['IMP'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'ISS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -9387,12 +9387,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'ELF3', 'HSD17B2', 'KRT17', 'NNMT', 'KRT5', 'TUBA1A', 'PXDN', 'ANXA3', 'TACSTD2', 'ATF3', 'MFAP5', 'LIF', 'CKB', 'ANXA1', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'PDGFB', 'ROGDI', 'IL1A', 'LSR', 'MYC', 'FOXC1', 'CCND1', 'DKK1', 'MAGED1', 'TNFSF10', 'ALOX15B', 'SDC4', 'ATP2B1', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'KDM4B', 'KRT16', 'SERPINE2', 'NPNT', 'PHLDB2', 'GAS6', 'GJA5', 'CD24', 'SCEL', 'ALDH1A3', 'CSTA', 'TACC2', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'DCN', 'ASPM', 'SOX6', 'BCL2L11', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PTGS2', 'CFL2', 'BAMBI', 'HS2ST1', 'UQCC2', 'ITGB8', 'KRT8', 'FOS', 'TNC', 'SOD2', 'NSUN5', 'SLC26A2', 'HES1', 'BCL3', 'ITGB1BP1', 'KRT81', 'RGS2', 'EGR1', 'STMN1', 'SUN2', 'ANKRD11', 'CLDN4', 'CXCL8', 'TAGLN', 'APCDD1', 'DUSP6', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'KRT10', 'NOM1', 'PHLDA2', 'COL4A1', 'ZBED2', 'SLC4A7', 'SERPINE1', 'SPRR1B', 'RDH10', 'S100A4', 'CENPF', 'FGFR3', 'MME']</t>
+          <t>['NNMT', 'ANKRD11', 'SPRR1B', 'CXCL8', 'BAMBI', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GJA5', 'IL1B', 'KDM4B', 'DUSP6', 'CYR61', 'PXDN', 'TGFBI', 'FGFR3', 'GRHL3', 'SCEL', 'FLNA', 'CD24', 'LIF', 'SERPINE1', 'ADGRG1', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'NOM1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'INPPL1', 'ATP2B1', 'DLG5', 'STMN1', 'ZBED2', 'PHLDA2', 'PTPRM', 'TAGLN', 'ITGB1BP1', 'HSD17B2', 'TXNIP', 'TNC', 'NSUN5', 'BCL2L11', 'ATF3', 'MFAP5', 'MME', 'NPNT', 'KRT5', 'UQCC2', 'SUN2', 'CFL2', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ELF3', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'KRT81', 'MYC', 'KRT10', 'GAS6', 'ROGDI', 'ALOX15B', 'PLXNB1', 'CKB', 'ASPM', 'CSTA', 'EGR1', 'ALDH1A3', 'CLDN4', 'FOS', 'TUBA1A', 'LOX', 'S100A4', 'KRT8', 'KRT17', 'APCDD1', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A2', 'SOX6', 'FN1', 'CCND1', 'TACC2', 'RDH10', 'HS2ST1', 'CDK5RAP3', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['HEP'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'TAS'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['IMP'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IEP'], ['TAS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IMP'], ['IBA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['IEP', 'IEA']]</t>
+          <t>[['IEA'], ['IMP'], ['IDA', 'IEA'], ['IEP'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['ISS'], ['IEP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['ISS', 'IEA'], ['HEP'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS'], ['IDA', 'IBA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IBA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -9453,12 +9453,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'MAL2', 'KRT17', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'DST', 'MFAP5', 'IGFBP7', 'TUBA4A', 'EPPK1', 'METTL17', 'LAD1', 'COPE', 'FN1', 'KRT16', 'NPNT', 'COL7A1', 'DCN', 'TPM4', 'CSRP1', 'TGFBI', 'CYR61', 'MRPL55', 'KRT8', 'TNC', 'KRT81', 'TUBA1B', 'TUBB', 'SORBS3', 'CLDN4', 'ADD3', 'CLDN7', 'VIM', 'CLDN1', 'KRT10', 'LAMA3', 'COL4A1', 'SPRR1B']</t>
+          <t>['LAMA3', 'SPRR1B', 'ADD3', 'MRPL55', 'MAL2', 'CLDN7', 'CYR61', 'SORBS3', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'TUBA4A', 'CLDN1', 'TUBB', 'METTL17', 'CSRP1', 'DCN', 'LAD1', 'KRT15', 'TNC', 'IGFBP7', 'TPM4', 'MFAP5', 'NPNT', 'KRT5', 'TPM1', 'KRT81', 'TUBA1B', 'KRT10', 'CLDN4', 'TUBA1A', 'KRT8', 'KRT17', 'VIM', 'KRT16', 'FN1', 'COL7A1', 'EPPK1', 'COPE', 'COL4A1']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[['TAS'], ['RCA'], ['IBA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'RCA'], ['IBA'], ['RCA', 'TAS'], ['RCA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA', 'ISS', 'RCA'], ['NAS', 'IEA'], ['RCA'], ['HDA', 'ISS', 'IBA', 'RCA'], ['ISS', 'RCA'], ['TAS'], ['IBA', 'IEA'], ['ISS', 'RCA'], ['RCA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'RCA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['RCA', 'NAS'], ['IMP', 'HDA', 'IBA', 'RCA', 'IEA'], ['TAS']]</t>
+          <t>[['RCA', 'NAS'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['RCA'], ['TAS'], ['IDA', 'RCA'], ['ISS', 'RCA'], ['IBA'], ['HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['RCA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'RCA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'RCA'], ['RCA'], ['TAS'], ['RCA', 'TAS'], ['RCA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['HDA', 'ISS', 'RCA'], ['HDA', 'ISS', 'IBA', 'RCA'], ['IBA'], ['IEA'], ['IMP', 'HDA', 'IBA', 'RCA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'TNNI2', 'LAMC2', 'TNFSF14', 'LAGE3', 'REL', 'PARP14', 'ELF3', 'ZDHHC8', 'SPTSSA', 'MAL2', 'ZDHHC17', 'VPS13C', 'HSD17B2', 'IVNS1ABP', 'KRT17', 'NNMT', 'STX16', 'KRT5', 'KRT15', 'AKR1C2', 'PTTG1', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'DNAJC15', 'ANXA3', 'DHX16', 'HMGN5', 'TACSTD2', 'KCNIP3', 'KLF6', 'S100A11', 'DST', 'KANK4', 'SLC46A3', 'SMIM22', 'PIM3', 'LIF', 'PIEZO1', 'CKB', 'ILKAP', 'ANXA1', 'IGFBP7', 'STK25', 'SLC39A8', 'ID3', 'PTPRE', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'SNF8', 'INPPL1', 'CDKN1C', 'PDGFB', 'WRN', 'RRBP1', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'FDPS', 'GOLGA8B', 'ROGDI', 'IL1A', 'SLC25A11', 'ARSD', 'DMAP1', 'PCSK7', 'FBXO4', 'GADD45B', 'MYC', 'FOXC1', 'SNX14', 'LDLR', 'TIA1', 'IDI1', 'TFRC', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'TMEM138', 'FOSB', 'MOB1B', 'PLAUR', 'MAGED1', 'ZNF268', 'METTL17', 'ALOX15B', 'KPNA2', 'SDC4', 'MT2A', 'SAT1', 'ATP2B1', 'ADIRF', 'PTPRM', 'CYP1B1', 'VMP1', 'GTF2IRD1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'ARGLU1', 'GPAM', 'FAP', 'NIT2', 'KDM4B', 'SORT1', 'KRT16', 'PDK4', 'MACC1', 'SERPINE2', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'SYT8', 'RUFY3', 'BIRC3', 'PNISR', 'TRIM47', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'COL7A1', 'TACC2', 'C3', 'TRABD', 'GALNT6', 'RREB1', 'ITGA2', 'KLK5', 'NISCH', 'TXNIP', 'SAMD4A', 'NR4A1', 'IL1B', 'DCN', 'RBCK1', 'KMT2E', 'SLC26A6', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'ASPM', 'CSRP1', 'GSN', 'SOX6', 'EEF1A1', 'BCL2L11', 'UROD', 'ACSL1', 'FNIP1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'RNF217', 'ANKRD12', 'CYR61', 'ZNF598', 'AKR1C3', 'PTGS2', 'CFL2', 'S100A8', 'IFI27', 'BAMBI', 'HS2ST1', 'UQCC2', 'MRPL55', 'ALDH3A1', 'CLU', 'LMBR1L', 'KRT8', 'FOS', 'TNC', 'DPH3', 'RHOV', 'COMTD1', 'SOD2', 'BLVRA', 'HELZ', 'S100A9', 'ARHGEF37', 'TNK2', 'DSEL', 'HMGCS1', 'RAB11FIP1', 'HES1', 'BCL3', 'ITGB1BP1', 'KRT81', 'CYP4B1', 'KLHL24', 'TUBA1B', 'TNFAIP2', 'RGS2', 'TUBB', 'SORBS3', 'C15orf48', 'EGR1', 'IFT46', 'STMN1', 'SUN2', 'CRABP2', 'SPSB1', 'ANKRD11', 'ITGAV', 'ANKRD13D', 'ADD3', 'TAGLN', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'WWC1', 'DUSP6', 'ADGRF1', 'IFITM2', 'S100A6', 'CLIC3', 'CCDC91', 'DLG5', 'LYST', 'DHRS1', 'ZFP36', 'MAP9', 'VIM', 'FTH1', 'CALML3', 'RASSF7', 'TP53I3', 'MTHFD2', 'PNPLA2', 'SLC2A12', 'KRT10', 'MT1X', 'TRIM38', 'UPP1', 'ID1', 'LYAR', 'PHLDA2', 'LAMA3', 'TMEM132A', 'COL4A1', 'CKAP2L', 'FBXW5', 'SERPINA3', 'MAN2B1', 'SMC4', 'GPRC5A', 'SERPINE1', 'LRP1', 'MFN1', 'SPRR1B', 'DPP7', 'RDH10', 'MT1E', 'EHF', 'CXCL1', 'S100A4', 'LETMD1', 'CENPF', 'FGFR3', 'NFU1', 'FXYD3', 'TMSB4X', 'BIN1', 'WSB1', 'ATP13A4', 'MME']</t>
+          <t>['LYAR', 'IDI1', 'GPRC5A', 'PCSK7', 'NNMT', 'LAMA3', 'ANKRD11', 'SPRR1B', 'CCDC91', 'SORT1', 'TMEM138', 'GALNT6', 'ADD3', 'NIT2', 'PDK4', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'SLC39A8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'MRPL55', 'ITGA2', 'PHLDB2', 'SAMD4A', 'GDF15', 'CALML3', 'HELZ', 'MAL2', 'RASSF7', 'SMC4', 'IL1B', 'MMP24', 'MAN2B1', 'CYP4B1', 'GOLGA8B', 'KDM4B', 'SCD', 'DUSP6', 'SLPI', 'CYR61', 'SORBS3', 'MOB1B', 'PXDN', 'STK25', 'SGK1', 'SLC2A12', 'IFT46', 'TGFBI', 'PTTG1', 'FGFR3', 'ANKRD13D', 'DST', 'TRIM38', 'SCEL', 'FLNA', 'COL4A2', 'TNK2', 'ACSL1', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'LIF', 'RBCK1', 'SERPINE1', 'ZDHHC8', 'TUBA4A', 'NISCH', 'SPSB1', 'CKAP2', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'TNFAIP2', 'GSN', 'DHX16', 'VPS13C', 'MT1X', 'METTL17', 'SPTSSA', 'ANKRD12', 'ZNF598', 'CSRP1', 'ANXA3', 'TRABD', 'DMAP1', 'SMIM22', 'SLC2A1', 'HMGCS1', 'KANK4', 'CKAP2L', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'COMTD1', 'DPP7', 'HES1', 'CENPF', 'INPPL1', 'TNNI2', 'ATP2B1', 'FBXO4', 'DLG5', 'STMN1', 'BIRC3', 'IFITM2', 'UPP1', 'CLIC3', 'LYST', 'CREG1', 'LRP1', 'KCNIP3', 'PTPRE', 'PIM3', 'UROD', 'SNX14', 'PHLDA2', 'PTPRM', 'KRT15', 'BLVRA', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MAP9', 'HSD17B2', 'S100A8', 'SLC46A3', 'TXNIP', 'TNC', 'RAB11FIP1', 'DHRS1', 'VMP1', 'SLC44A2', 'REL', 'BCL2L11', 'FOSB', 'IGFBP7', 'ZNF268', 'TPM4', 'LGALS1', 'WRN', 'WSB1', 'MME', 'PARP14', 'S100A11', 'NPNT', 'CDKN1C', 'KRT5', 'UQCC2', 'RUFY3', 'SUN2', 'ZDHHC17', 'FTL', 'CFL2', 'MT1E', 'PLAUR', 'RRBP1', 'MFN1', 'ATP13A4', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'ARHGEF37', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'CXCL1', 'TSPAN1', 'DPH3', 'ERRFI1', 'KLK5', 'AKR1C3', 'PNISR', 'TP53I3', 'RGS2', 'SOX4', 'PLSCR1', 'KRT81', 'TRIM47', 'MYC', 'TUBA1B', 'RNF217', 'KRT10', 'ID1', 'IVNS1ABP', 'GAS6', 'DSEL', 'ITGAV', 'LETMD1', 'ROGDI', 'FTH1', 'SLC25A11', 'ALOX15B', 'CKB', 'ADGRF1', 'KMT2E', 'ASPM', 'ENTPD2', 'KLF6', 'ARSD', 'FXYD3', 'CSTA', 'EGR1', 'SAT1', 'SYT8', 'DNAJC15', 'ALDH1A3', 'FOS', 'TIA1', 'TUBA1A', 'MT2A', 'IFI27', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT8', 'ARGLU1', 'KRT17', 'S100A6', 'MACC1', 'C15orf48', 'ILKAP', 'VIM', 'KRT16', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'TSC22D3', 'BIN1', 'ALDH3A1', 'CLU', 'AKR1C2', 'FBXW5', 'PIEZO1', 'SOX6', 'NFU1', 'FN1', 'GBP1', 'S100A9', 'COL7A1', 'GPAM', 'FAP', 'EPPK1', 'CCND1', 'CALML5', 'TACC2', 'TMEM132A', 'TFRC', 'RDH10', 'GTF2IRD1', 'HS2ST1', 'SERPINA3', 'COPE', 'CDK5RAP3', 'TNFSF14', 'ID3', 'LAGE3', 'SNF8', 'KLHL24', 'COL4A1']</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'TAS'], ['IBA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['HTP', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['HTP'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA'], ['IBA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'ISS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['HTP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['ISS', 'TAS'], ['HTP'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'HTP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -9585,12 +9585,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>['LAMC2', 'MMP24', 'COL4A2', 'PXDN', 'DST', 'MFAP5', 'ANXA1', 'IGFBP7', 'PDGFB', 'GDF15', 'CCDC80', 'MMP7', 'LAD1', 'VEGFA', 'SLPI', 'FN1', 'SERPINE2', 'NPNT', 'LGALS1', 'COL7A1', 'DCN', 'ENTPD2', 'PLSCR1', 'TGFBI', 'TIMP1', 'CYR61', 'S100A8', 'CLU', 'TNC', 'S100A9', 'F3', 'S100A6', 'CLIC3', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1', 'S100A4']</t>
+          <t>['LAMA3', 'CCDC80', 'SERPINE2', 'GDF15', 'MMP24', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'SERPINE1', 'ANXA1', 'DCN', 'TIMP1', 'LAD1', 'PDGFB', 'CLIC3', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'NPNT', 'ANGPTL4', 'F3', 'VEGFA', 'PLSCR1', 'ENTPD2', 'LOX', 'S100A4', 'S100A6', 'CLU', 'FN1', 'S100A9', 'COL7A1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[['HDA', 'IEA'], ['IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS'], ['IEA'], ['IDA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['IDA'], ['IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA']]</t>
+          <t>[['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA', 'ISS'], ['IBA', 'IEA'], ['IEA'], ['HDA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['NAS'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9651,12 +9651,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['LAMC2', 'MMP24', 'COL4A2', 'PXDN', 'DST', 'MFAP5', 'ANXA1', 'IGFBP7', 'PDGFB', 'GDF15', 'CCDC80', 'MMP7', 'LAD1', 'VEGFA', 'SLPI', 'FN1', 'SERPINE2', 'NPNT', 'LGALS1', 'COL7A1', 'DCN', 'ENTPD2', 'PLSCR1', 'TGFBI', 'TIMP1', 'CYR61', 'S100A8', 'CLU', 'TNC', 'S100A9', 'F3', 'S100A6', 'CLIC3', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1', 'S100A4']</t>
+          <t>['LAMA3', 'CCDC80', 'SERPINE2', 'GDF15', 'MMP24', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'SERPINE1', 'ANXA1', 'DCN', 'TIMP1', 'LAD1', 'PDGFB', 'CLIC3', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'NPNT', 'ANGPTL4', 'F3', 'VEGFA', 'PLSCR1', 'ENTPD2', 'LOX', 'S100A4', 'S100A6', 'CLU', 'FN1', 'S100A9', 'COL7A1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[['HDA', 'IEA'], ['IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS'], ['IEA'], ['IDA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['IDA'], ['IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA']]</t>
+          <t>[['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA', 'ISS'], ['IBA', 'IEA'], ['IEA'], ['HDA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['NAS'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9717,12 +9717,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'SLC2A1', 'TNNI2', 'TNFSF14', 'REL', 'ELF3', 'ZDHHC8', 'MAL2', 'ZDHHC17', 'HSD17B2', 'KRT17', 'KRT5', 'AKR1C2', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'KLF6', 'MFAP5', 'LIF', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'SLC39A8', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'PDGFB', 'WRN', 'RRBP1', 'GDF15', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'ROGDI', 'IL1A', 'LSR', 'MYC', 'FOXC1', 'LDLR', 'TIA1', 'MRC2', 'TFRC', 'PWWP2B', 'CCND1', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'KPNA2', 'SDC4', 'SAT1', 'ATP1B1', 'ATP2B1', 'PTPRM', 'CYP1B1', 'VMP1', 'GTF2IRD1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'GPAM', 'FAP', 'KDM4B', 'SORT1', 'KRT16', 'PDK4', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'GJA5', 'CD24', 'TRIM47', 'SCEL', 'ALDH1A3', 'COL7A1', 'TACC2', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'NR4A1', 'IL1B', 'DCN', 'KMT2E', 'SLC26A6', 'TPM4', 'ENTPD2', 'PLSCR1', 'ASPM', 'CSRP1', 'GSN', 'SOX6', 'BCL2L11', 'ACSL1', 'FNIP1', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'HS2ST1', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'TNC', 'SOD2', 'NSUN5', 'S100A9', 'SLC26A2', 'RAB11FIP1', 'HES1', 'BCL3', 'ITGB1BP1', 'KRT81', 'TNFAIP2', 'RGS2', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'ADD3', 'F3', 'APCDD1', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'WWC1', 'DUSP6', 'HES2', 'ADGRF1', 'S100A6', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'TRIM38', 'NOM1', 'ID1', 'LYAR', 'PHLDA2', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'MAN2B1', 'ZBED2', 'SLC4A7', 'SERPINE1', 'LRP1', 'SPRR1B', 'RDH10', 'CXCL1', 'LETMD1', 'CENPF', 'FGFR3', 'BIN1', 'MME']</t>
+          <t>['LYAR', 'LAMA3', 'ANKRD11', 'SPRR1B', 'ATP1B1', 'SORT1', 'CXCL8', 'ADD3', 'PDK4', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'SLC39A8', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GDF15', 'GJA5', 'MAL2', 'IL1B', 'MMP24', 'MAN2B1', 'KDM4B', 'SCD', 'DUSP6', 'CYR61', 'PXDN', 'STK25', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'GRHL3', 'TRIM38', 'SCEL', 'FLNA', 'COL4A2', 'CD24', 'ACSL1', 'GLUL', 'LIF', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'CLDN1', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TNFAIP2', 'GSN', 'NOM1', 'CSRP1', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'DSC2', 'PDGFB', 'ITGB8', 'PWWP2B', 'HES1', 'CENPF', 'INPPL1', 'TNNI2', 'ATP2B1', 'NMU', 'DLG5', 'STMN1', 'CLIC3', 'ZBED2', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'HSD17B2', 'S100A8', 'TNC', 'RAB11FIP1', 'NSUN5', 'VMP1', 'REL', 'BCL2L11', 'FOSB', 'IGFBP7', 'TPM4', 'LGALS1', 'WRN', 'MFAP5', 'MME', 'NPNT', 'ANGPTL4', 'KRT5', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'PLAUR', 'RRBP1', 'VEGFA', 'LMBR1L', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ELF3', 'CXCL1', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'KRT81', 'TRIM47', 'MYC', 'ID1', 'GAS6', 'ITGAV', 'LETMD1', 'ROGDI', 'ALOX15B', 'PLXNB1', 'CKB', 'ADGRF1', 'KMT2E', 'ASPM', 'ENTPD2', 'KLF6', 'HES2', 'EGR1', 'SAT1', 'ALDH1A3', 'CLDN4', 'FOS', 'TIA1', 'TUBA1A', 'LOX', 'LDLR', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MRC2', 'APCDD1', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'TSC22D3', 'BIN1', 'SLC26A2', 'CLU', 'AKR1C2', 'SOX6', 'FN1', 'GBP1', 'S100A9', 'COL7A1', 'GPAM', 'FAP', 'EPPK1', 'CCND1', 'TACC2', 'TFRC', 'RDH10', 'GTF2IRD1', 'HS2ST1', 'SERPINA3', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IBA'], ['IDA', 'IEA'], ['HEP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HMP', 'NAS', 'IC', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS'], ['IEA'], ['HDA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['TAS', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IEP'], ['ISS', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IBA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEP', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'NAS'], ['IEA'], ['HMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEP', 'NAS'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'ISO', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IDA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IMP'], ['IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['IEA'], ['IMP'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IMP'], ['ISS', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA']]</t>
+          <t>[['IMP'], ['IEP', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'TAS'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA'], ['IEP', 'TAS', 'IEA'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['HMP', 'NAS', 'IC', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HMP'], ['IDA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'ISS'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'ISO', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['TAS', 'NAS'], ['HDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP', 'NAS'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'NAS'], ['IBA'], ['IEA'], ['IMP', 'ISS'], ['ISS', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HEP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IBA'], ['ISS', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['HDA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'NAS'], ['IEP'], ['IEA'], ['IC', 'IEA'], ['ISS'], ['IEA'], ['IBA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['ISS', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9783,12 +9783,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['COL4A2', 'PXDN', 'ANXA3', 'LIF', 'ANXA1', 'IGFBP7', 'ADGRG1', 'SOX4', 'FLNA', 'PDGFB', 'IL1A', 'FOXC1', 'LDLR', 'SAT1', 'PTPRM', 'CYP1B1', 'VEGFA', 'ERRFI1', 'FN1', 'FAP', 'UNC5B', 'GJA5', 'C3', 'NR4A1', 'IL1B', 'DCN', 'TGFBI', 'GAA', 'CYR61', 'PTGS2', 'ITGB8', 'SOD2', 'HES1', 'ITGB1BP1', 'TNFAIP2', 'EGR1', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLIC3', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'CYR61', 'PXDN', 'TGFBI', 'FLNA', 'COL4A2', 'GLUL', 'LIF', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'ANXA3', 'SOD2', 'DCN', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CLIC3', 'LRP1', 'PTPRM', 'ITGB1BP1', 'IGFBP7', 'ANGPTL4', 'F3', 'VEGFA', 'PTGS2', 'ERRFI1', 'SOX4', 'ID1', 'ITGAV', 'EGR1', 'SAT1', 'LOX', 'LDLR', 'FN1', 'FAP', 'COL4A1']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'TAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS']]</t>
+          <t>[['IDA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IDA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['ISS'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9849,12 +9849,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'ANXA1', 'IGFBP7', 'ADGRG1', 'SOX4', 'FLNA', 'IL1A', 'MYC', 'FOXC1', 'LDLR', 'MAGED1', 'SDC4', 'SAT1', 'PTPRM', 'CYP1B1', 'VEGFA', 'FN1', 'FAP', 'UNC5B', 'NPNT', 'GJA5', 'C3', 'NR4A1', 'IL1B', 'DCN', 'BCL2L11', 'GRHL3', 'TGFBI', 'CYR61', 'PTGS2', 'HS2ST1', 'ITGB8', 'TNC', 'HES1', 'ITGB1BP1', 'TNFAIP2', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLIC3', 'DLG5', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1', 'RDH10']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'CYR61', 'PXDN', 'TGFBI', 'GRHL3', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'ANXA3', 'DCN', 'SDC4', 'ITGB8', 'HES1', 'DLG5', 'CLIC3', 'LRP1', 'PTPRM', 'ITGB1BP1', 'TNC', 'BCL2L11', 'IGFBP7', 'NPNT', 'ANGPTL4', 'F3', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'SOX4', 'MYC', 'ID1', 'ITGAV', 'SAT1', 'LOX', 'LDLR', 'FN1', 'FAP', 'RDH10', 'HS2ST1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA']]</t>
+          <t>[['IDA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9915,12 +9915,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>['TPM1', 'TNFSF14', 'ELF3', 'ZDHHC17', 'KRT17', 'TUBA1A', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'MFAP5', 'LIF', 'ANXA1', 'IGFBP7', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'INPPL1', 'GDF15', 'ROGDI', 'IL1A', 'MYC', 'FOXC1', 'LDLR', 'TFRC', 'DKK1', 'SGK1', 'MAGED1', 'SDC4', 'SAT1', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'RUFY3', 'GJA5', 'ALDH1A3', 'COL7A1', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'NR4A1', 'IL1B', 'DCN', 'TPM4', 'CSRP1', 'SOX6', 'BCL2L11', 'GRHL3', 'TGFBI', 'GAA', 'CYR61', 'PTGS2', 'CFL2', 'BAMBI', 'HS2ST1', 'CLU', 'ITGB8', 'KRT8', 'CST6', 'TNC', 'HES1', 'BCL3', 'ITGB1BP1', 'TNFAIP2', 'STMN1', 'CRABP2', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'APCDD1', 'GLUL', 'TRAK1', 'S100A6', 'CLIC3', 'DLG5', 'LOX', 'ID1', 'PHLDA2', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1', 'RDH10', 'FGFR3']</t>
+          <t>['LAMA3', 'ANKRD11', 'CXCL8', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ITGA2', 'PHLDB2', 'GDF15', 'GJA5', 'IL1B', 'CYR61', 'PXDN', 'STK25', 'SGK1', 'TGFBI', 'FGFR3', 'GRHL3', 'FLNA', 'COL4A2', 'GLUL', 'SPIRE1', 'LIF', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'RREB1', 'TNFAIP2', 'CSRP1', 'ANXA3', 'DCN', 'SDC4', 'GAA', 'ITGB8', 'HES1', 'INPPL1', 'DLG5', 'STMN1', 'CLIC3', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'TNC', 'BCL2L11', 'IGFBP7', 'TPM4', 'MFAP5', 'NPNT', 'ANGPTL4', 'RUFY3', 'ZDHHC17', 'F3', 'CFL2', 'CST6', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ELF3', 'ERRFI1', 'KLK5', 'SOX4', 'MYC', 'ID1', 'ITGAV', 'ROGDI', 'PLXNB1', 'SAT1', 'ALDH1A3', 'CLDN4', 'TUBA1A', 'LOX', 'LDLR', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'APCDD1', 'KRT16', 'CNTNAP2', 'CLU', 'SOX6', 'FN1', 'COL7A1', 'FAP', 'TFRC', 'RDH10', 'HS2ST1', 'TNFSF14', 'ID3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEP'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['ISS', 'IBA'], ['IMP', 'IEP', 'ISS'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['IEP', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['TAS'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['NAS'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IEP'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['ISS', 'TAS']]</t>
+          <t>[['IEP'], ['IMP'], ['IDA', 'TAS'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IGI'], ['IEA'], ['IMP', 'IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IBA'], ['IEP'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IGI', 'TAS'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['ISS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['ISO', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['ISS'], ['TAS'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IDA'], ['ISS'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -9981,12 +9981,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'TNFSF14', 'REL', 'KRT17', 'COL4A2', 'ANXA3', 'TACSTD2', 'LIF', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'GDF15', 'EPPK1', 'PTGES', 'SCD', 'IL1A', 'MYC', 'FOXC1', 'LDLR', 'TIA1', 'TFRC', 'PWWP2B', 'CCND1', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ALOX15B', 'KPNA2', 'SDC4', 'ATP1B1', 'ATP2B1', 'PTPRM', 'CYP1B1', 'GTF2IRD1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'GPAM', 'FAP', 'PDK4', 'SERPINE2', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'GJA5', 'CD24', 'C3', 'RREB1', 'ITGA2', 'NR4A1', 'IL1B', 'DCN', 'PLSCR1', 'ASPM', 'SOX6', 'BCL2L11', 'ACSL1', 'TIMP1', 'GAA', 'CYR61', 'PTGS2', 'BAMBI', 'CLU', 'ITGB8', 'FOS', 'NSUN5', 'S100A9', 'RAB11FIP1', 'HES1', 'BCL3', 'RGS2', 'EGR1', 'CRABP2', 'CXCL8', 'ADD3', 'F3', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'WWC1', 'DUSP6', 'HES2', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'TRIM38', 'ID1', 'PHLDA2', 'LAMA3', 'ANGPTL4', 'ZBED2', 'SERPINE1', 'LRP1', 'LETMD1', 'BIN1', 'MME']</t>
+          <t>['LAMA3', 'ATP1B1', 'CXCL8', 'ADD3', 'PDK4', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GDF15', 'GJA5', 'IL1B', 'SCD', 'DUSP6', 'CYR61', 'STK25', 'SGK1', 'TRIM38', 'FLNA', 'COL4A2', 'CD24', 'ACSL1', 'GLUL', 'LIF', 'SERPINE1', 'PTGES', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'DSC2', 'PDGFB', 'ITGB8', 'PWWP2B', 'HES1', 'ATP2B1', 'NMU', 'DLG5', 'CLIC3', 'ZBED2', 'LRP1', 'PHLDA2', 'PTPRM', 'RAB11FIP1', 'NSUN5', 'REL', 'BCL2L11', 'LGALS1', 'MME', 'NPNT', 'ANGPTL4', 'RUFY3', 'F3', 'PLAUR', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ERRFI1', 'RGS2', 'SOX4', 'PLSCR1', 'MYC', 'ID1', 'GAS6', 'LETMD1', 'ALOX15B', 'PLXNB1', 'ASPM', 'HES2', 'EGR1', 'FOS', 'TIA1', 'LOX', 'LDLR', 'WWC1', 'TRAK1', 'KRT17', 'BIN1', 'CLU', 'SOX6', 'FN1', 'GBP1', 'S100A9', 'GPAM', 'FAP', 'EPPK1', 'CCND1', 'TFRC', 'GTF2IRD1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[['ISS', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS', 'IC'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['NAS'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IC'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IC'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IBA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'TAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IGI'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['NAS', 'IC'], ['IDA'], ['IDA', 'IMP', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'ISS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'TAS'], ['IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IGI'], ['IEA'], ['TAS'], ['ISS'], ['IDA', 'IMP', 'IC'], ['NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'TAS'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'ISS'], ['ISS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IEA'], ['IMP'], ['NAS'], ['IEA'], ['IC'], ['ISS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -10047,12 +10047,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'SLC2A1', 'TNFSF14', 'REL', 'CCL20', 'PARP14', 'ELF3', 'ZDHHC17', 'VPS13C', 'HSD17B2', 'IVNS1ABP', 'NNMT', 'KRT5', 'AKR1C2', 'PTTG1', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'DNAJC15', 'ANXA3', 'DHX16', 'KCNIP3', 'ATF3', 'S100A11', 'DST', 'SLC46A3', 'PIM3', 'LIF', 'PIEZO1', 'ILKAP', 'ANXA1', 'IGFBP7', 'STK25', 'SLC39A8', 'ID3', 'PTPRE', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'CDKN1C', 'PDGFB', 'WRN', 'SLC44A2', 'GDF15', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'IL1A', 'DMAP1', 'CCDC80', 'FBXO4', 'GADD45B', 'MYC', 'FOXC1', 'LDLR', 'SH3BP2', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'FOSB', 'MOB1B', 'PLAUR', 'MAGED1', 'MMP7', 'IGFBP6', 'TNFSF10', 'ALOX15B', 'SDC4', 'MT2A', 'ATP1B1', 'ATP2B1', 'PTPRM', 'CYP1B1', 'GTF2IRD1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'GPAM', 'FAP', 'SORT1', 'KRT16', 'PDK4', 'MACC1', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'BIRC3', 'CD24', 'SCEL', 'CALML5', 'ALDH1A3', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'NISCH', 'TXNIP', 'NR4A1', 'IL1B', 'DCN', 'RBCK1', 'SLC26A6', 'ENTPD2', 'PLSCR1', 'ASPM', 'CSRP1', 'GSN', 'SOX6', 'EEF1A1', 'BCL2L11', 'ACSL1', 'FNIP1', 'GRHL3', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'IFI27', 'BAMBI', 'CXCL16', 'ALDH3A1', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'TNC', 'RHOV', 'SOD2', 'CCL28', 'S100A9', 'TNK2', 'MAP3K6', 'PSCA', 'HES1', 'BCL3', 'ITGB1BP1', 'KLHL24', 'TUBA1B', 'RGS2', 'TUBB', 'SORBS3', 'C15orf48', 'EGR1', 'STMN1', 'CRABP2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'SAA2', 'ADD3', 'F3', 'APCDD1', 'GLUL', 'DSC2', 'GBP1', 'CLDN7', 'WWC1', 'DUSP6', 'ADGRF1', 'IFITM2', 'S100A6', 'CLIC3', 'DLG5', 'LYST', 'ZFP36', 'LOX', 'VIM', 'FTH1', 'RASSF7', 'CLDN1', 'MT1X', 'TRIM38', 'UPP1', 'ID1', 'LYAR', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'GPRC5A', 'SLC4A7', 'SERPINE1', 'LRP1', 'GPR180', 'MT1E', 'CXCL1', 'S100A4', 'LETMD1', 'CENPF', 'FGFR3', 'TMSB4X', 'BIN1', 'WSB1', 'MME']</t>
+          <t>['LYAR', 'GPRC5A', 'NNMT', 'ATP1B1', 'SORT1', 'CXCL8', 'CCDC80', 'ADD3', 'PDK4', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'SLC39A8', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GDF15', 'CXCL16', 'RASSF7', 'CLDN7', 'IL1B', 'MMP24', 'SCD', 'DUSP6', 'SLPI', 'CYR61', 'SORBS3', 'GPR180', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'DLK2', 'SGK1', 'PTTG1', 'FGFR3', 'DST', 'GRHL3', 'TRIM38', 'SCEL', 'FLNA', 'COL4A2', 'TNK2', 'CD24', 'ACSL1', 'GLUL', 'SPIRE1', 'LIF', 'RBCK1', 'SERPINE1', 'ADGRG1', 'UNC5B', 'NISCH', 'CLDN1', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'GSN', 'DHX16', 'VPS13C', 'MT1X', 'CSRP1', 'ANXA3', 'SH3BP2', 'DMAP1', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'DSC2', 'MUC1', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'NFYB', 'PSCA', 'INPPL1', 'ATP2B1', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'IFITM2', 'UPP1', 'SAA2', 'CLIC3', 'LYST', 'LRP1', 'KCNIP3', 'PTPRE', 'PIM3', 'PTPRM', 'ITGB1BP1', 'HSD17B2', 'S100A8', 'CCL20', 'SLC46A3', 'TXNIP', 'TNC', 'SLC44A2', 'REL', 'BCL2L11', 'FOSB', 'IGFBP7', 'ATF3', 'LGALS1', 'WRN', 'WSB1', 'MME', 'PARP14', 'S100A11', 'NPNT', 'ANGPTL4', 'CDKN1C', 'KRT5', 'ZDHHC17', 'F3', 'MT1E', 'PLAUR', 'CCL28', 'VEGFA', 'LMBR1L', 'PTGS2', 'MAGED1', 'TPM1', 'DKK1', 'ELF3', 'GADD45B', 'CXCL1', 'IGFBP6', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'MYC', 'TUBA1B', 'ID1', 'IVNS1ABP', 'GAS6', 'ITGAV', 'LETMD1', 'FTH1', 'ALOX15B', 'PLXNB1', 'ADGRF1', 'ASPM', 'ENTPD2', 'EGR1', 'DNAJC15', 'MAP3K6', 'ALDH1A3', 'CLDN4', 'FOS', 'TUBA1A', 'LOX', 'MT2A', 'IFI27', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'KRT8', 'S100A6', 'MACC1', 'C15orf48', 'APCDD1', 'ILKAP', 'VIM', 'KRT16', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'TSC22D3', 'BIN1', 'ALDH3A1', 'CLU', 'AKR1C2', 'PIEZO1', 'SOX6', 'FN1', 'GBP1', 'S100A9', 'GPAM', 'FAP', 'EPPK1', 'CCND1', 'CALML5', 'TMEM132A', 'TFRC', 'GTF2IRD1', 'SERPINA3', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SLC4A7', 'KLHL24', 'COL4A1']</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[['IEP', 'ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEP', 'IEA'], ['HMP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'TAS', 'IEA'], ['IEA'], ['ISS'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IBA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HMP'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IMP', 'TAS', 'NAS'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP', 'IBA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IEP', 'ISS', 'NAS', 'IC'], ['IMP', 'IEP'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['HMP'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IEP'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEP', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEP', 'TAS', 'NAS'], ['TAS'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS'], ['IEA'], ['IEP', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA']]</t>
+          <t>[['IDA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['NAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IMP', 'IEP'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'NAS', 'IC'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['HMP'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IMP', 'ISS'], ['ISS'], ['TAS'], ['ISS'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['HMP'], ['IEP', 'IBA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IMP'], ['ISS'], ['HMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['IEP', 'IBA'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IEP', 'ISS'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IEP'], ['ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS'], ['IEA'], ['TAS'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IMP', 'IEP', 'TAS', 'IC', 'IEA'], ['IDA'], ['IBA'], ['IDA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IC', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IEP', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -10113,12 +10113,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'ZDHHC17', 'VPS13C', 'AKR1C2', 'COL4A2', 'ANXA3', 'ANXA1', 'IGFBP7', 'PTPRE', 'ADGRG1', 'INPPL1', 'CDKN1C', 'PDGFB', 'GDF15', 'MYC', 'FOXC1', 'LDLR', 'CCND1', 'DKK1', 'SGK1', 'FOSB', 'TNFSF10', 'ATP2B1', 'CYP1B1', 'VEGFA', 'ERRFI1', 'SORT1', 'PDK4', 'NPNT', 'GAS6', 'CD24', 'ITGA2', 'TXNIP', 'NR4A1', 'IL1B', 'DCN', 'SOX6', 'EEF1A1', 'BCL2L11', 'ACSL1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'ITGB8', 'FOS', 'TNC', 'HES1', 'ITGB1BP1', 'EGR1', 'CLDN4', 'CXCL8', 'DUSP6', 'ZFP36', 'LOX', 'CLDN1', 'ID1', 'SLC4A7', 'FGFR3', 'MME']</t>
+          <t>['SORT1', 'CXCL8', 'PDK4', 'BAMBI', 'FOXC1', 'TNFSF10', 'NR4A1', 'ZFP36', 'ITGA2', 'GDF15', 'IL1B', 'DUSP6', 'CYR61', 'SGK1', 'FGFR3', 'COL4A2', 'CD24', 'ACSL1', 'ADGRG1', 'CLDN1', 'CYP1B1', 'ANXA1', 'VPS13C', 'ANXA3', 'SLC2A1', 'DCN', 'TIMP1', 'PDGFB', 'ITGB8', 'HES1', 'INPPL1', 'ATP2B1', 'PTPRE', 'ITGB1BP1', 'TXNIP', 'TNC', 'BCL2L11', 'FOSB', 'IGFBP7', 'MME', 'NPNT', 'CDKN1C', 'ZDHHC17', 'VEGFA', 'PTGS2', 'DKK1', 'ERRFI1', 'AKR1C3', 'MYC', 'ID1', 'GAS6', 'EGR1', 'CLDN4', 'FOS', 'LOX', 'LDLR', 'EEF1A1', 'AKR1C2', 'SOX6', 'CCND1', 'SLC4A7']</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'ISS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IC', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IGI'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA']]</t>
+          <t>[['IMP', 'IEA'], ['IEP'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IC', 'IEA'], ['IEA'], ['IGI'], ['IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'ISS'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA'], ['IDA'], ['IDA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -10179,12 +10179,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>['LAMC2', 'KRT17', 'KRT5', 'KRT15', 'ANXA1', 'IL1A', 'LSR', 'FOXC1', 'DKK1', 'ALOX15B', 'ERRFI1', 'KRT16', 'SCEL', 'CALML5', 'CSTA', 'COL7A1', 'KLK5', 'TXNIP', 'GRHL3', 'AKR1C3', 'CST6', 'HES1', 'KRT81', 'STMN1', 'CRABP2', 'CLDN4', 'APCDD1', 'ZFP36', 'CLDN1', 'KRT10', 'NOM1', 'LAMA3', 'ZBED2', 'SLC4A7', 'SPRR1B']</t>
+          <t>['LAMA3', 'SPRR1B', 'CRABP2', 'FOXC1', 'IL1A', 'ZFP36', 'GRHL3', 'SCEL', 'LAMC2', 'CLDN1', 'ANXA1', 'NOM1', 'LSR', 'HES1', 'STMN1', 'ZBED2', 'KRT15', 'TXNIP', 'KRT5', 'CST6', 'DKK1', 'ERRFI1', 'KLK5', 'AKR1C3', 'KRT81', 'KRT10', 'ALOX15B', 'CSTA', 'CLDN4', 'KRT17', 'APCDD1', 'KRT16', 'COL7A1', 'CALML5', 'SLC4A7']</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[['TAS'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IBA'], ['IMP'], ['TAS'], ['IMP'], ['IMP'], ['IMP'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['TAS'], ['IMP'], ['IBA'], ['IDA', 'TAS', 'IEA']]</t>
+          <t>[['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IMP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['TAS'], ['IDA'], ['IBA', 'TAS'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['IBA']]</t>
         </is>
       </c>
     </row>
@@ -10245,12 +10245,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['COL4A2', 'PXDN', 'ANXA3', 'ANXA1', 'IGFBP7', 'ADGRG1', 'SOX4', 'FLNA', 'IL1A', 'FOXC1', 'LDLR', 'SAT1', 'PTPRM', 'CYP1B1', 'VEGFA', 'FN1', 'FAP', 'UNC5B', 'GJA5', 'C3', 'NR4A1', 'IL1B', 'DCN', 'TGFBI', 'CYR61', 'PTGS2', 'ITGB8', 'HES1', 'ITGB1BP1', 'TNFAIP2', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLIC3', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'CYR61', 'PXDN', 'TGFBI', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'ANXA3', 'DCN', 'ITGB8', 'HES1', 'CLIC3', 'LRP1', 'PTPRM', 'ITGB1BP1', 'IGFBP7', 'ANGPTL4', 'F3', 'VEGFA', 'PTGS2', 'SOX4', 'ID1', 'ITGAV', 'SAT1', 'LOX', 'LDLR', 'FN1', 'FAP', 'COL4A1']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS']]</t>
+          <t>[['IDA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -10311,12 +10311,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>['TPM1', 'TNFSF14', 'ELF3', 'ZDHHC17', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'TUBA1A', 'MMP24', 'COL4A2', 'TACSTD2', 'KLF6', 'ATF3', 'MFAP5', 'LIF', 'PIEZO1', 'ANXA1', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'PDGFB', 'RRBP1', 'GDF15', 'ROGDI', 'IL1A', 'LSR', 'GADD45B', 'MYC', 'FOXC1', 'LDLR', 'MRC2', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'ZNF268', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ADIRF', 'PTPRM', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'SORT1', 'KRT16', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'CD24', 'SCEL', 'CSTA', 'COL7A1', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'KMT2E', 'SLC26A6', 'HNRNPH3', 'TPM4', 'ASPM', 'CSRP1', 'SOX6', 'FNIP1', 'TGFBI', 'CYR61', 'AKR1C3', 'PTGS2', 'CFL2', 'S100A8', 'BAMBI', 'UQCC2', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'TNC', 'SOD2', 'NSUN5', 'S100A9', 'SLC26A2', 'HES1', 'BCL3', 'ITGB1BP1', 'KRT81', 'TNFAIP2', 'RGS2', 'TUBB', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'ITGAV', 'TAGLN', 'APCDD1', 'TRAK1', 'DUSP6', 'HES2', 'ADGRF1', 'S100A6', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'KRT10', 'ID1', 'LYAR', 'LAMA3', 'COL4A1', 'ZBED2', 'SLC4A7', 'SERPINE1', 'LRP1', 'SPRR1B', 'RDH10', 'EHF', 'S100A4', 'CENPF', 'FGFR3', 'BIN1', 'TET2', 'MME']</t>
+          <t>['LYAR', 'LAMA3', 'SPRR1B', 'SORT1', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GDF15', 'IL1B', 'MMP24', 'DUSP6', 'CYR61', 'STK25', 'DLK2', 'SGK1', 'TGFBI', 'FGFR3', 'SCEL', 'FLNA', 'COL4A2', 'CD24', 'EHF', 'LIF', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CLDN1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'TNFAIP2', 'CSRP1', 'LSR', 'SOD2', 'SDC4', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'DLG5', 'STMN1', 'ZBED2', 'LRP1', 'PTPRM', 'KRT15', 'TAGLN', 'ITGB1BP1', 'S100A8', 'TXNIP', 'TNC', 'NSUN5', 'ZNF268', 'ATF3', 'TPM4', 'LGALS1', 'MFAP5', 'MME', 'NPNT', 'HNRNPH3', 'KRT5', 'UQCC2', 'RUFY3', 'SUN2', 'ZDHHC17', 'CFL2', 'RRBP1', 'VEGFA', 'LMBR1L', 'PTGS2', 'TACSTD2', 'TPM1', 'DKK1', 'ELF3', 'GADD45B', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'KRT81', 'MYC', 'KRT10', 'ID1', 'GAS6', 'ITGAV', 'ROGDI', 'ALOX15B', 'PLXNB1', 'ADGRF1', 'KMT2E', 'ASPM', 'KLF6', 'TET2', 'HES2', 'CSTA', 'EGR1', 'FOS', 'TUBA1A', 'LOX', 'LDLR', 'S100A4', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MRC2', 'APCDD1', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'BIN1', 'SLC26A2', 'CLU', 'AKR1C2', 'PIEZO1', 'SOX6', 'FN1', 'S100A9', 'COL7A1', 'CCND1', 'TFRC', 'RDH10', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IBA', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS', 'IEA'], ['ISS', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IDA', 'ISS'], ['HDA'], ['IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IMP', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IDA'], ['IDA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'ISO', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IBA'], ['IMP'], ['IEP'], ['IEA'], ['IMP'], ['IBA'], ['IDA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IGI']]</t>
+          <t>[['IMP'], ['IEP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA'], ['NAS', 'IEA'], ['IEP'], ['IMP', 'NAS'], ['IEP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['HDA', 'ISO', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'HDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IGI'], ['ISS', 'IEA'], ['IEP'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['IEP', 'IBA'], ['IBA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IMP', 'IBA'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['HDA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IEP'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA'], ['IEP'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -10377,12 +10377,12 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['TPM1', 'TNFSF14', 'ELF3', 'ZDHHC17', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'TUBA1A', 'MMP24', 'COL4A2', 'TACSTD2', 'KLF6', 'ATF3', 'MFAP5', 'LIF', 'PIEZO1', 'ANXA1', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'PDGFB', 'RRBP1', 'GDF15', 'ROGDI', 'IL1A', 'LSR', 'GADD45B', 'MYC', 'FOXC1', 'LDLR', 'MRC2', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'ZNF268', 'N4BP2L2', 'ALOX15B', 'SDC4', 'ADIRF', 'PTPRM', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'SORT1', 'KRT16', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'CD24', 'SCEL', 'CSTA', 'COL7A1', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'KMT2E', 'SLC26A6', 'HNRNPH3', 'TPM4', 'ASPM', 'CSRP1', 'SOX6', 'FNIP1', 'TGFBI', 'CYR61', 'AKR1C3', 'PTGS2', 'CFL2', 'S100A8', 'BAMBI', 'UQCC2', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'TNC', 'SOD2', 'NSUN5', 'S100A9', 'SLC26A2', 'HES1', 'BCL3', 'ITGB1BP1', 'KRT81', 'TNFAIP2', 'RGS2', 'TUBB', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'ITGAV', 'TAGLN', 'APCDD1', 'TRAK1', 'DUSP6', 'HES2', 'ADGRF1', 'S100A6', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'KRT10', 'ID1', 'LYAR', 'LAMA3', 'COL4A1', 'ZBED2', 'SLC4A7', 'SERPINE1', 'LRP1', 'SPRR1B', 'RDH10', 'EHF', 'S100A4', 'CENPF', 'FGFR3', 'BIN1', 'TET2', 'MME']</t>
+          <t>['LYAR', 'LAMA3', 'SPRR1B', 'SORT1', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GDF15', 'IL1B', 'MMP24', 'DUSP6', 'CYR61', 'STK25', 'DLK2', 'SGK1', 'TGFBI', 'FGFR3', 'SCEL', 'FLNA', 'COL4A2', 'CD24', 'EHF', 'LIF', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CLDN1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'TNFAIP2', 'CSRP1', 'LSR', 'SOD2', 'SDC4', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'DLG5', 'STMN1', 'ZBED2', 'LRP1', 'PTPRM', 'KRT15', 'TAGLN', 'ITGB1BP1', 'S100A8', 'TXNIP', 'TNC', 'NSUN5', 'ZNF268', 'ATF3', 'TPM4', 'LGALS1', 'MFAP5', 'MME', 'NPNT', 'HNRNPH3', 'KRT5', 'UQCC2', 'RUFY3', 'SUN2', 'ZDHHC17', 'CFL2', 'RRBP1', 'VEGFA', 'LMBR1L', 'PTGS2', 'TACSTD2', 'TPM1', 'DKK1', 'ELF3', 'GADD45B', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'KRT81', 'MYC', 'KRT10', 'ID1', 'GAS6', 'ITGAV', 'ROGDI', 'ALOX15B', 'PLXNB1', 'ADGRF1', 'KMT2E', 'ASPM', 'KLF6', 'TET2', 'HES2', 'CSTA', 'EGR1', 'FOS', 'TUBA1A', 'LOX', 'LDLR', 'S100A4', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MRC2', 'APCDD1', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'BIN1', 'SLC26A2', 'CLU', 'AKR1C2', 'PIEZO1', 'SOX6', 'FN1', 'S100A9', 'COL7A1', 'CCND1', 'TFRC', 'RDH10', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IBA', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS', 'IEA'], ['ISS', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IDA', 'ISS'], ['HDA'], ['IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IMP', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IDA'], ['IDA'], ['IEP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'ISO', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IBA'], ['IMP'], ['IEP'], ['IEA'], ['IMP'], ['IBA'], ['IDA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IGI']]</t>
+          <t>[['IMP'], ['IEP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA'], ['NAS', 'IEA'], ['IEP'], ['IMP', 'NAS'], ['IEP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['HDA', 'ISO', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'HDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IGI'], ['ISS', 'IEA'], ['IEP'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['IEP', 'IBA'], ['IBA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IMP', 'IBA'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['HDA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IEP'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA'], ['IEP'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -10443,12 +10443,12 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['LAMC2', 'COL4A2', 'PXDN', 'MFAP5', 'ANXA1', 'IGFBP7', 'PDGFB', 'GDF15', 'CCDC80', 'SLPI', 'FN1', 'SERPINE2', 'NPNT', 'LGALS1', 'COL7A1', 'DCN', 'PLSCR1', 'TGFBI', 'CYR61', 'S100A8', 'CLU', 'TNC', 'S100A9', 'F3', 'S100A6', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1', 'S100A4']</t>
+          <t>['LAMA3', 'CCDC80', 'SERPINE2', 'GDF15', 'SLPI', 'CYR61', 'PXDN', 'TGFBI', 'COL4A2', 'LAMC2', 'SERPINE1', 'ANXA1', 'DCN', 'PDGFB', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'NPNT', 'ANGPTL4', 'F3', 'PLSCR1', 'LOX', 'S100A4', 'S100A6', 'CLU', 'FN1', 'S100A9', 'COL7A1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'HDA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS'], ['HDA', 'ISS'], ['IDA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA']]</t>
+          <t>[['HDA'], ['IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['IDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -10509,12 +10509,12 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>['COL4A2', 'PXDN', 'ANXA3', 'ANXA1', 'IGFBP7', 'ADGRG1', 'SOX4', 'FLNA', 'PDGFB', 'IL1A', 'FOXC1', 'LDLR', 'SAT1', 'PTPRM', 'CYP1B1', 'VEGFA', 'FN1', 'FAP', 'UNC5B', 'GJA5', 'C3', 'NR4A1', 'IL1B', 'DCN', 'TGFBI', 'GAA', 'CYR61', 'PTGS2', 'ITGB8', 'HES1', 'ITGB1BP1', 'TNFAIP2', 'EGR1', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLIC3', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'CYR61', 'PXDN', 'TGFBI', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'ANXA3', 'DCN', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CLIC3', 'LRP1', 'PTPRM', 'ITGB1BP1', 'IGFBP7', 'ANGPTL4', 'F3', 'VEGFA', 'PTGS2', 'SOX4', 'ID1', 'ITGAV', 'EGR1', 'SAT1', 'LOX', 'LDLR', 'FN1', 'FAP', 'COL4A1']</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS']]</t>
+          <t>[['IDA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IDA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['ISS'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -10575,12 +10575,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'LIF', 'ANXA1', 'IGFBP7', 'ADGRG1', 'SOX4', 'FLNA', 'IL1A', 'MYC', 'FOXC1', 'LDLR', 'MAGED1', 'SDC4', 'SAT1', 'PTPRM', 'CYP1B1', 'VEGFA', 'ERRFI1', 'FN1', 'FAP', 'SERPINE2', 'UNC5B', 'NPNT', 'GJA5', 'CD24', 'C3', 'NR4A1', 'IL1B', 'DCN', 'BCL2L11', 'GRHL3', 'TGFBI', 'CYR61', 'PTGS2', 'HS2ST1', 'ITGB8', 'TNC', 'HES1', 'ITGB1BP1', 'TNFAIP2', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLIC3', 'DLG5', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1', 'RDH10', 'MME']</t>
+          <t>['CXCL8', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'CYR61', 'PXDN', 'TGFBI', 'GRHL3', 'FLNA', 'COL4A2', 'CD24', 'GLUL', 'LIF', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'ANXA3', 'DCN', 'SDC4', 'ITGB8', 'HES1', 'DLG5', 'CLIC3', 'LRP1', 'PTPRM', 'ITGB1BP1', 'TNC', 'BCL2L11', 'IGFBP7', 'MME', 'NPNT', 'ANGPTL4', 'F3', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'ERRFI1', 'SOX4', 'MYC', 'ID1', 'ITGAV', 'SAT1', 'LOX', 'LDLR', 'FN1', 'FAP', 'RDH10', 'HS2ST1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'ISS'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['IEA']]</t>
+          <t>[['IDA', 'IEP', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -10641,12 +10641,12 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'TNNI2', 'LAMC2', 'TNFSF14', 'REL', 'CCL20', 'PARP14', 'ELF3', 'ZDHHC8', 'ZDHHC17', 'KRT17', 'NNMT', 'RFX7', 'AKR1C2', 'ANXA3', 'HMGN5', 'TACSTD2', 'KLF6', 'ATF3', 'S100A11', 'SMIM22', 'LIF', 'PIEZO1', 'ANXA1', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'SNF8', 'CDKN1C', 'PDGFB', 'WRN', 'SLC44A2', 'GDF15', 'PTGES', 'SCD', 'ROGDI', 'IL1A', 'DMAP1', 'CCDC80', 'FBXO4', 'GADD45B', 'MYC', 'FOXC1', 'LDLR', 'TIA1', 'TFRC', 'PWWP2B', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MAGED1', 'ZNF268', 'MMP7', 'IGFBP6', 'MALAT1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'KPNA2', 'SDC4', 'ATP1B1', 'ATP2B1', 'ADIRF', 'CYP1B1', 'VMP1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'MUC1', 'FN1', 'GPAM', 'FAP', 'MACC1', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'BIRC3', 'GJA5', 'CD24', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'CRB3', 'SAMD4A', 'NR4A1', 'IL1B', 'DCN', 'RBCK1', 'KMT2E', 'SLC26A6', 'PLSCR1', 'MFI2', 'ASPM', 'GSN', 'SOX6', 'BCL2L11', 'ACSL1', 'FNIP1', 'GRHL3', 'TIMP1', 'CYR61', 'AKR1C3', 'PRSS8', 'PTGS2', 'CFL2', 'S100A8', 'BAMBI', 'UQCC2', 'CXCL16', 'CLU', 'ITGB8', 'FOS', 'TNC', 'SOD2', 'NSUN5', 'CCL28', 'S100A9', 'TNK2', 'HES1', 'BCL3', 'ITGB1BP1', 'RGS2', 'SORBS3', 'EGR1', 'SUN2', 'CRABP2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'ADD3', 'F3', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'DUSP6', 'S100A6', 'CLIC3', 'DLG5', 'ZFP36', 'VIM', 'CLDN1', 'PNPLA2', 'KRT10', 'TRIM38', 'LYAR', 'PHLDA2', 'TMEM132A', 'ANGPTL4', 'SMC4', 'ZBED2', 'SERPINE1', 'LRP1', 'RDH10', 'EHF', 'S100A4', 'LETMD1', 'FGFR3', 'TMSB4X', 'BIN1', 'TET2', 'MME']</t>
+          <t>['LYAR', 'NNMT', 'ATP1B1', 'CXCL8', 'CCDC80', 'ADD3', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'SAMD4A', 'GDF15', 'CXCL16', 'GJA5', 'SMC4', 'CLDN7', 'IL1B', 'SCD', 'DUSP6', 'CYR61', 'SORBS3', 'MMP7', 'STK25', 'SGK1', 'FGFR3', 'GRHL3', 'TRIM38', 'SCEL', 'FLNA', 'TNK2', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'SPIRE1', 'LIF', 'RBCK1', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'CLDN1', 'CKAP2', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'GSN', 'ANXA3', 'DMAP1', 'SMIM22', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'MUC1', 'PDGFB', 'PRSS8', 'ITGB8', 'PWWP2B', 'HES1', 'NFYB', 'TNNI2', 'ATP2B1', 'FBXO4', 'NMU', 'DLG5', 'BIRC3', 'CLIC3', 'ZBED2', 'LRP1', 'RFX7', 'PHLDA2', 'ITGB1BP1', 'S100A8', 'CCL20', 'TXNIP', 'TNC', 'NSUN5', 'VMP1', 'SLC44A2', 'REL', 'BCL2L11', 'FOSB', 'ZNF268', 'ATF3', 'LGALS1', 'WRN', 'MME', 'PARP14', 'S100A11', 'NPNT', 'ANGPTL4', 'CDKN1C', 'UQCC2', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'CFL2', 'PLAUR', 'CCL28', 'VEGFA', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CRB3', 'DKK1', 'ELF3', 'GADD45B', 'IGFBP6', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'MYC', 'KRT10', 'GAS6', 'MALAT1', 'ITGAV', 'LETMD1', 'ROGDI', 'ALOX15B', 'PLXNB1', 'KMT2E', 'ASPM', 'KLF6', 'TET2', 'EGR1', 'ALDH1A3', 'CLDN4', 'FOS', 'TIA1', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT17', 'S100A6', 'MACC1', 'N4BP2L2', 'VIM', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'BIN1', 'CLU', 'AKR1C2', 'PIEZO1', 'SOX6', 'FN1', 'GBP1', 'S100A9', 'GPAM', 'FAP', 'CCND1', 'TMEM132A', 'TFRC', 'RDH10', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SNF8']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IC'], ['HMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['HMP'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IGI'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IBA'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISO', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'ISS', 'TAS', 'NAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IC'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'NAS'], ['IMP', 'IGI', 'ISS', 'TAS'], ['IEA'], ['IDA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IGI', 'IEA']]</t>
+          <t>[['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS'], ['IDA', 'IGI', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IGI'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS'], ['IDA', 'IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'NAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IC'], ['IMP'], ['IMP', 'IEA'], ['IGI'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IGI', 'ISS', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['ISO', 'IEA'], ['IMP'], ['IDA'], ['HMP'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'HMP', 'IEA'], ['IDA'], ['IGI', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IGI'], ['IDA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['HMP'], ['IDA', 'IMP', 'TAS', 'IC'], ['IMP'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IGI'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'TAS', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -10707,12 +10707,12 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'TACSTD2', 'LIF', 'ANXA1', 'ID3', 'SOX4', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'LSR', 'MYC', 'FOXC1', 'CCND1', 'DKK1', 'MAGED1', 'ALOX15B', 'SDC4', 'VEGFA', 'ERRFI1', 'KRT16', 'SERPINE2', 'NPNT', 'PHLDB2', 'GJA5', 'CD24', 'SCEL', 'ALDH1A3', 'CSTA', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'IL1B', 'HNRNPH3', 'GRHL3', 'CYR61', 'AKR1C3', 'HS2ST1', 'TNC', 'HES1', 'KRT81', 'TUBB', 'STMN1', 'CLDN4', 'ITGAV', 'TAGLN', 'APCDD1', 'DLG5', 'ZFP36', 'VIM', 'CLDN1', 'KRT10', 'NOM1', 'COL4A1', 'ZBED2', 'SLC4A7', 'SERPINE1', 'SPRR1B', 'RDH10', 'EHF']</t>
+          <t>['SPRR1B', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'ZFP36', 'ITGA2', 'PHLDB2', 'GJA5', 'IL1B', 'CYR61', 'GRHL3', 'SCEL', 'FLNA', 'CD24', 'EHF', 'LIF', 'SERPINE1', 'CLDN1', 'ANXA1', 'RREB1', 'TUBB', 'NOM1', 'LSR', 'SDC4', 'PDGFB', 'HES1', 'DLG5', 'STMN1', 'ZBED2', 'KRT15', 'TAGLN', 'TXNIP', 'TNC', 'NPNT', 'HNRNPH3', 'KRT5', 'VEGFA', 'TACSTD2', 'MAGED1', 'DKK1', 'ERRFI1', 'KLK5', 'AKR1C3', 'SOX4', 'KRT81', 'MYC', 'KRT10', 'ITGAV', 'ALOX15B', 'CSTA', 'ALDH1A3', 'CLDN4', 'KRT17', 'APCDD1', 'VIM', 'KRT16', 'AKR1C2', 'EPPK1', 'CCND1', 'RDH10', 'HS2ST1', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[['ISS', 'IBA', 'IEA'], ['IBA'], ['IBA'], ['IEP'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'NAS'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['TAS'], ['IDA'], ['IDA'], ['IEP'], ['ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA'], ['IMP'], ['IMP'], ['NAS'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'IBA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IBA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEP']]</t>
+          <t>[['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IBA'], ['IDA'], ['IDA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEP'], ['ISS', 'IEA'], ['IBA'], ['ISS'], ['IEP', 'IBA'], ['NAS'], ['NAS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['ISS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -10773,12 +10773,12 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'ELF3', 'ZDHHC8', 'SPTSSA', 'MAL2', 'ZDHHC17', 'VPS13C', 'HSD17B2', 'STX16', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'KCNIP3', 'S100A11', 'DST', 'SMIM22', 'PIEZO1', 'ANXA1', 'IGFBP7', 'STK25', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'SNF8', 'INPPL1', 'PDGFB', 'RRBP1', 'SLC44A2', 'GDF15', 'PTGES', 'SCD', 'GOLGA8B', 'ROGDI', 'ARSD', 'PCSK7', 'MYC', 'SNX14', 'LDLR', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'PLAUR', 'KPNA2', 'SDC4', 'ATP2B1', 'CYP1B1', 'VMP1', 'VEGFA', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NIT2', 'SORT1', 'SERPINE2', 'LGALS1', 'GAS6', 'SYT8', 'RUFY3', 'CALML5', 'COL7A1', 'C3', 'GALNT6', 'KLK5', 'NISCH', 'NR4A1', 'IL1B', 'DCN', 'SLC26A6', 'ENTPD2', 'PLSCR1', 'MFI2', 'GSN', 'EEF1A1', 'BCL2L11', 'ACSL1', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'CYR61', 'PTGS2', 'S100A8', 'IFI27', 'HS2ST1', 'ALDH3A1', 'CLU', 'LMBR1L', 'FOS', 'TNC', 'RHOV', 'S100A9', 'TNK2', 'DSEL', 'RAB11FIP1', 'CYP4B1', 'TUBB', 'SUN2', 'CRABP2', 'ITGAV', 'ANKRD13D', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'IFITM2', 'S100A6', 'CCDC91', 'DHRS1', 'FTH1', 'PNPLA2', 'SLC2A12', 'LAMA3', 'TMEM132A', 'COL4A1', 'SERPINA3', 'MAN2B1', 'SERPINE1', 'LRP1', 'DPP7', 'RDH10', 'EHF', 'CXCL1', 'CENPF', 'FGFR3', 'FXYD3', 'TMSB4X', 'BIN1', 'ATP13A4', 'MME']</t>
+          <t>['PCSK7', 'LAMA3', 'CCDC91', 'SORT1', 'GALNT6', 'NIT2', 'CRABP2', 'SERPINE2', 'KPNA2', 'C3', 'NR4A1', 'GDF15', 'MAL2', 'IL1B', 'MMP24', 'MAN2B1', 'CYP4B1', 'GOLGA8B', 'SCD', 'SLPI', 'CYR61', 'PXDN', 'STK25', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'FLNA', 'COL4A2', 'TNK2', 'ACSL1', 'EHF', 'GLUL', 'SERPINE1', 'ZDHHC8', 'NISCH', 'PTGES', 'CYP1B1', 'ANXA1', 'TUBB', 'GSN', 'VPS13C', 'SPTSSA', 'ANXA3', 'SMIM22', 'SLC2A1', 'PNPLA2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'DPP7', 'CENPF', 'INPPL1', 'ATP2B1', 'IFITM2', 'CREG1', 'LRP1', 'KCNIP3', 'SNX14', 'HSD17B2', 'S100A8', 'TNC', 'RAB11FIP1', 'DHRS1', 'VMP1', 'SLC44A2', 'BCL2L11', 'IGFBP7', 'LGALS1', 'MME', 'S100A11', 'RUFY3', 'SUN2', 'ZDHHC17', 'FTL', 'PLAUR', 'RRBP1', 'ATP13A4', 'VEGFA', 'LMBR1L', 'PTGS2', 'DKK1', 'ELF3', 'CXCL1', 'KLK5', 'PLSCR1', 'MYC', 'GAS6', 'DSEL', 'ITGAV', 'ROGDI', 'FTH1', 'ENTPD2', 'ARSD', 'FXYD3', 'SYT8', 'FOS', 'TUBA1A', 'IFI27', 'LDLR', 'STX16', 'TMSB4X', 'TRAK1', 'S100A6', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'BIN1', 'ALDH3A1', 'CLU', 'PIEZO1', 'FN1', 'GBP1', 'S100A9', 'COL7A1', 'CCND1', 'CALML5', 'TMEM132A', 'TFRC', 'RDH10', 'HS2ST1', 'SERPINA3', 'COPE', 'CDK5RAP3', 'SNF8', 'COL4A1']</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'TAS'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'IBA'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -10839,12 +10839,12 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'LAMC2', 'TNFSF14', 'PARP14', 'MAL2', 'ZDHHC17', 'KRT17', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'KCNIP3', 'DST', 'MFAP5', 'PIEZO1', 'CKB', 'ANXA1', 'IGFBP7', 'SLC39A8', 'PTPRE', 'ADGRG1', 'FLNA', 'CNTNAP2', 'SNF8', 'INPPL1', 'PDGFB', 'TSPAN1', 'SLC44A2', 'GDF15', 'EPPK1', 'SLC25A11', 'LSR', 'CCDC80', 'LDLR', 'TFRC', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'MMP7', 'TNFSF10', 'LAD1', 'ALOX15B', 'SDC4', 'ATP1B1', 'ATP2B1', 'PTPRM', 'VMP1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'GPAM', 'FAP', 'SORT1', 'KRT16', 'CA12', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'SYT8', 'GJA5', 'CD24', 'PNISR', 'SCEL', 'CSTA', 'COL7A1', 'TACC2', 'C3', 'ITGA2', 'NISCH', 'CRB3', 'DCN', 'KMT2E', 'SLC26A6', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'ASPM', 'GSN', 'EEF1A1', 'TGFBI', 'TIMP1', 'GAA', 'CYR61', 'PRSS8', 'PTGS2', 'CFL2', 'S100A8', 'BAMBI', 'CXCL16', 'ALDH3A1', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'CST6', 'TNC', 'RHOV', 'S100A9', 'TNK2', 'PSCA', 'SLC26A2', 'BCL3', 'ITGB1BP1', 'TNFAIP2', 'RGS2', 'CLDN4', 'ITGAV', 'ANKRD13D', 'ADD3', 'F3', 'APCDD1', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'ADGRF1', 'IFITM2', 'S100A6', 'CLIC3', 'DLG5', 'LOX', 'VIM', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'GPRC5A', 'SLC4A7', 'SERPINE1', 'LRP1', 'SPRR1B', 'S100A4', 'FGFR3', 'FXYD3', 'BIN1', 'ATP13A4', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'SPRR1B', 'ATP1B1', 'SORT1', 'CCDC80', 'ADD3', 'BAMBI', 'SERPINE2', 'BCL3', 'SLC39A8', 'TNFSF10', 'C3', 'ITGA2', 'PHLDB2', 'GDF15', 'CXCL16', 'GJA5', 'MAL2', 'CLDN7', 'MMP24', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'SCEL', 'FLNA', 'COL4A2', 'TNK2', 'CD24', 'LAMC2', 'GLUL', 'SPIRE1', 'SERPINE1', 'ADGRG1', 'UNC5B', 'NISCH', 'CLDN1', 'ANXA1', 'TNFAIP2', 'GSN', 'ANXA3', 'LSR', 'SLC2A1', 'PNPLA2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'PRSS8', 'ITGB8', 'PSCA', 'INPPL1', 'ATP2B1', 'DLG5', 'CA12', 'IFITM2', 'CLIC3', 'LRP1', 'KCNIP3', 'PTPRE', 'PTPRM', 'ITGB1BP1', 'S100A8', 'TNC', 'VMP1', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'MFAP5', 'MME', 'PARP14', 'NPNT', 'ANGPTL4', 'ZDHHC17', 'F3', 'CFL2', 'PLAUR', 'CST6', 'ATP13A4', 'VEGFA', 'LMBR1L', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CRB3', 'DKK1', 'TSPAN1', 'ERRFI1', 'PNISR', 'RGS2', 'PLSCR1', 'KRT10', 'ITGAV', 'SLC25A11', 'ALOX15B', 'PLXNB1', 'CKB', 'ADGRF1', 'KMT2E', 'ASPM', 'ENTPD2', 'FXYD3', 'CSTA', 'SYT8', 'CLDN4', 'TUBA1A', 'LOX', 'LDLR', 'S100A4', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'APCDD1', 'VIM', 'KRT16', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'BIN1', 'ALDH3A1', 'SLC26A2', 'CLU', 'PIEZO1', 'FN1', 'GBP1', 'S100A9', 'COL7A1', 'GPAM', 'FAP', 'EPPK1', 'TACC2', 'TMEM132A', 'TFRC', 'SERPINA3', 'TNFSF14', 'SNF8', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['HDA', 'ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'ISS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA'], ['IDA', 'HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['HDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS'], ['IBA', 'IEA'], ['TAS', 'NAS'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['HDA', 'ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -10905,12 +10905,12 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['TNFSF14', 'ZDHHC17', 'IVNS1ABP', 'TUBA1A', 'HMGN5', 'KCNIP3', 'ATF3', 'PIM3', 'ANXA1', 'STK25', 'ID3', 'SOX4', 'FLNA', 'CDK5RAP3', 'INPPL1', 'TSC22D3', 'IL1A', 'DMAP1', 'GADD45B', 'MYC', 'FOXC1', 'TIA1', 'TFRC', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ZNF268', 'TNFSF10', 'ALOX15B', 'CYP1B1', 'VEGFA', 'ERRFI1', 'MUC1', 'GPAM', 'FAP', 'SORT1', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'BIRC3', 'CD24', 'ALDH1A3', 'KLK5', 'NISCH', 'TXNIP', 'NR4A1', 'IL1B', 'RBCK1', 'PLSCR1', 'GSN', 'BCL2L11', 'FNIP1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'IFI27', 'CCNL2', 'CLU', 'LMBR1L', 'KRT8', 'SOD2', 'S100A9', 'BCL3', 'EGR1', 'ITGAV', 'CLDN7', 'DUSP6', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'RASSF7', 'PHLDA2', 'ANGPTL4', 'SERPINE1', 'FGFR3', 'BIN1']</t>
+          <t>['SORT1', 'PDK4', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'RASSF7', 'CLDN7', 'IL1B', 'DUSP6', 'CYR61', 'STK25', 'SGK1', 'FGFR3', 'FLNA', 'CD24', 'RBCK1', 'SERPINE1', 'UNC5B', 'NISCH', 'CKAP2', 'CYP1B1', 'ANXA1', 'FNIP1', 'GSN', 'DMAP1', 'SOD2', 'TIMP1', 'MUC1', 'INPPL1', 'DLG5', 'BIRC3', 'KCNIP3', 'PIM3', 'PHLDA2', 'S100A8', 'TXNIP', 'BCL2L11', 'ZNF268', 'ATF3', 'LGALS1', 'ANGPTL4', 'ZDHHC17', 'PLAUR', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'MAGED1', 'CCNL2', 'DKK1', 'GADD45B', 'ERRFI1', 'KLK5', 'AKR1C3', 'SOX4', 'PLSCR1', 'MYC', 'IVNS1ABP', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'EGR1', 'ALDH1A3', 'TIA1', 'TUBA1A', 'LOX', 'IFI27', 'KRT8', 'TSC22D3', 'BIN1', 'CLU', 'S100A9', 'GPAM', 'FAP', 'CCND1', 'TFRC', 'CDK5RAP3', 'TNFSF14', 'ID3']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IGI'], ['IEA'], ['IMP'], ['IMP'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IMP']]</t>
+          <t>[['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IGI'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['NAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IMP'], ['IDA', 'IMP'], ['IDA', 'ISS', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['TAS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -10971,12 +10971,12 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['TNFSF14', 'ZDHHC17', 'IVNS1ABP', 'TUBA1A', 'HMGN5', 'KCNIP3', 'ATF3', 'PIM3', 'ANXA1', 'STK25', 'ID3', 'SOX4', 'FLNA', 'CDK5RAP3', 'INPPL1', 'TSC22D3', 'IL1A', 'DMAP1', 'GADD45B', 'MYC', 'FOXC1', 'TIA1', 'TFRC', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ZNF268', 'TNFSF10', 'ALOX15B', 'CYP1B1', 'VEGFA', 'ERRFI1', 'MUC1', 'GPAM', 'FAP', 'SORT1', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'BIRC3', 'CD24', 'ALDH1A3', 'KLK5', 'NISCH', 'TXNIP', 'NR4A1', 'IL1B', 'RBCK1', 'PLSCR1', 'GSN', 'BCL2L11', 'FNIP1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'IFI27', 'CCNL2', 'CLU', 'LMBR1L', 'KRT8', 'SOD2', 'S100A9', 'BCL3', 'EGR1', 'ITGAV', 'CLDN7', 'DUSP6', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'RASSF7', 'PHLDA2', 'ANGPTL4', 'SERPINE1', 'FGFR3', 'BIN1']</t>
+          <t>['SORT1', 'PDK4', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'RASSF7', 'CLDN7', 'IL1B', 'DUSP6', 'CYR61', 'STK25', 'SGK1', 'FGFR3', 'FLNA', 'CD24', 'RBCK1', 'SERPINE1', 'UNC5B', 'NISCH', 'CKAP2', 'CYP1B1', 'ANXA1', 'FNIP1', 'GSN', 'DMAP1', 'SOD2', 'TIMP1', 'MUC1', 'INPPL1', 'DLG5', 'BIRC3', 'KCNIP3', 'PIM3', 'PHLDA2', 'S100A8', 'TXNIP', 'BCL2L11', 'ZNF268', 'ATF3', 'LGALS1', 'ANGPTL4', 'ZDHHC17', 'PLAUR', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'MAGED1', 'CCNL2', 'DKK1', 'GADD45B', 'ERRFI1', 'KLK5', 'AKR1C3', 'SOX4', 'PLSCR1', 'MYC', 'IVNS1ABP', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'EGR1', 'ALDH1A3', 'TIA1', 'TUBA1A', 'LOX', 'IFI27', 'KRT8', 'TSC22D3', 'BIN1', 'CLU', 'S100A9', 'GPAM', 'FAP', 'CCND1', 'TFRC', 'CDK5RAP3', 'TNFSF14', 'ID3']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IGI'], ['IEA'], ['IMP'], ['IMP'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IMP']]</t>
+          <t>[['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IGI'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['NAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IMP'], ['IDA', 'IMP'], ['IDA', 'ISS', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['TAS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -11037,12 +11037,12 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'TNNI2', 'LAMC2', 'TNFSF14', 'REL', 'CCL20', 'PARP14', 'ELF3', 'ZDHHC8', 'ZDHHC17', 'KRT17', 'NNMT', 'RFX7', 'AKR1C2', 'ANXA3', 'HMGN5', 'TACSTD2', 'KLF6', 'ATF3', 'S100A11', 'SMIM22', 'LIF', 'PIEZO1', 'ANXA1', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'SNF8', 'CDKN1C', 'PDGFB', 'WRN', 'SLC44A2', 'GDF15', 'PTGES', 'SCD', 'ROGDI', 'IL1A', 'DMAP1', 'CCDC80', 'FBXO4', 'GADD45B', 'MYC', 'FOXC1', 'LDLR', 'TIA1', 'TFRC', 'PWWP2B', 'CCND1', 'CKAP2', 'DKK1', 'FOSB', 'PLAUR', 'MAGED1', 'ZNF268', 'MMP7', 'IGFBP6', 'MALAT1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'KPNA2', 'SDC4', 'ATP1B1', 'ADIRF', 'CYP1B1', 'VMP1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'MUC1', 'FN1', 'GPAM', 'FAP', 'MACC1', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'BIRC3', 'GJA5', 'CD24', 'SCEL', 'ALDH1A3', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'CRB3', 'SAMD4A', 'NR4A1', 'IL1B', 'DCN', 'RBCK1', 'KMT2E', 'SLC26A6', 'PLSCR1', 'MFI2', 'ASPM', 'GSN', 'SOX6', 'BCL2L11', 'ACSL1', 'FNIP1', 'GRHL3', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'CFL2', 'S100A8', 'BAMBI', 'UQCC2', 'CXCL16', 'CLU', 'ITGB8', 'FOS', 'TNC', 'SOD2', 'NSUN5', 'CCL28', 'S100A9', 'TNK2', 'HES1', 'BCL3', 'ITGB1BP1', 'RGS2', 'SORBS3', 'EGR1', 'SUN2', 'CRABP2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'ADD3', 'F3', 'TRAK1', 'CLDN7', 'WWC1', 'DUSP6', 'S100A6', 'DLG5', 'ZFP36', 'VIM', 'CLDN1', 'PNPLA2', 'TRIM38', 'LYAR', 'PHLDA2', 'TMEM132A', 'SMC4', 'ZBED2', 'SERPINE1', 'LRP1', 'RDH10', 'EHF', 'S100A4', 'LETMD1', 'FGFR3', 'TMSB4X', 'BIN1', 'TET2', 'MME']</t>
+          <t>['LYAR', 'NNMT', 'ATP1B1', 'CXCL8', 'CCDC80', 'ADD3', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'SAMD4A', 'GDF15', 'CXCL16', 'GJA5', 'SMC4', 'CLDN7', 'IL1B', 'SCD', 'DUSP6', 'CYR61', 'SORBS3', 'MMP7', 'STK25', 'FGFR3', 'GRHL3', 'TRIM38', 'SCEL', 'FLNA', 'TNK2', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'SPIRE1', 'LIF', 'RBCK1', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'CLDN1', 'CKAP2', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'GSN', 'ANXA3', 'DMAP1', 'SMIM22', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'MUC1', 'PDGFB', 'ITGB8', 'PWWP2B', 'HES1', 'NFYB', 'TNNI2', 'FBXO4', 'NMU', 'DLG5', 'BIRC3', 'ZBED2', 'LRP1', 'RFX7', 'PHLDA2', 'ITGB1BP1', 'S100A8', 'CCL20', 'TXNIP', 'TNC', 'NSUN5', 'VMP1', 'SLC44A2', 'REL', 'BCL2L11', 'FOSB', 'ZNF268', 'ATF3', 'LGALS1', 'WRN', 'MME', 'PARP14', 'S100A11', 'NPNT', 'CDKN1C', 'UQCC2', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'CFL2', 'PLAUR', 'CCL28', 'VEGFA', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CRB3', 'DKK1', 'ELF3', 'GADD45B', 'IGFBP6', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'MYC', 'GAS6', 'MALAT1', 'ITGAV', 'LETMD1', 'ROGDI', 'ALOX15B', 'PLXNB1', 'KMT2E', 'ASPM', 'KLF6', 'TET2', 'EGR1', 'ALDH1A3', 'CLDN4', 'FOS', 'TIA1', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT17', 'S100A6', 'MACC1', 'N4BP2L2', 'VIM', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'BIN1', 'CLU', 'AKR1C2', 'PIEZO1', 'SOX6', 'FN1', 'S100A9', 'GPAM', 'FAP', 'CCND1', 'TMEM132A', 'TFRC', 'RDH10', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SNF8']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IC'], ['HMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['HMP'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IGI'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISO', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'ISS', 'TAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'TAS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IMP'], ['IDA', 'IMP'], ['IMP', 'IGI', 'ISS'], ['IEA'], ['IDA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IGI', 'IEA']]</t>
+          <t>[['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IGI'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS'], ['IDA', 'IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IC'], ['IMP'], ['IMP', 'IEA'], ['IGI'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP', 'IGI', 'ISS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IEA'], ['ISO', 'IEA'], ['IMP'], ['IDA'], ['HMP'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'HMP', 'IEA'], ['IDA'], ['IGI', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['HMP'], ['IDA', 'IMP', 'TAS'], ['IMP'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IGI'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -11103,12 +11103,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['TPM1', 'TNFSF14', 'COL4A2', 'PXDN', 'ANXA3', 'ANXA1', 'IGFBP7', 'ADGRG1', 'FLNA', 'GDF15', 'ROGDI', 'IL1A', 'FOXC1', 'DKK1', 'SDC4', 'SAT1', 'PTPRM', 'CYP1B1', 'VEGFA', 'FN1', 'FAP', 'UNC5B', 'PHLDB2', 'GJA5', 'ALDH1A3', 'COL7A1', 'C3', 'ITGA2', 'KLK5', 'NR4A1', 'IL1B', 'DCN', 'TPM4', 'CSRP1', 'BCL2L11', 'GRHL3', 'TGFBI', 'CYR61', 'PTGS2', 'CFL2', 'HS2ST1', 'ITGB8', 'KRT8', 'HES1', 'BCL3', 'ITGB1BP1', 'TNFAIP2', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLIC3', 'ID1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'RDH10']</t>
+          <t>['LAMA3', 'CXCL8', 'BCL3', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'ITGA2', 'PHLDB2', 'GDF15', 'GJA5', 'IL1B', 'CYR61', 'PXDN', 'TGFBI', 'GRHL3', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'CSRP1', 'ANXA3', 'DCN', 'SDC4', 'ITGB8', 'HES1', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'BCL2L11', 'IGFBP7', 'TPM4', 'ANGPTL4', 'F3', 'CFL2', 'VEGFA', 'PTGS2', 'TPM1', 'DKK1', 'KLK5', 'ID1', 'ITGAV', 'ROGDI', 'SAT1', 'ALDH1A3', 'KRT8', 'FN1', 'COL7A1', 'FAP', 'RDH10', 'HS2ST1', 'TNFSF14', 'COL4A1']</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IGI'], ['IMP', 'IEP'], ['IEA'], ['IEP'], ['IEA'], ['IEP'], ['IBA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IEP'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IEA']]</t>
+          <t>[['IEP'], ['IDA', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP'], ['IMP', 'IGI'], ['IEA'], ['IMP', 'IEP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['TAS'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -11169,12 +11169,12 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'TNFSF14', 'REL', 'CCL20', 'PARP14', 'VPS13C', 'HSD17B2', 'NNMT', 'AKR1C2', 'TUBA1A', 'PXDN', 'ANXA3', 'SLC46A3', 'PIM3', 'ANXA1', 'IGFBP7', 'STK25', 'SLC39A8', 'ID3', 'PTPRE', 'SOX4', 'FLNA', 'INPPL1', 'PDGFB', 'GDF15', 'PTGES', 'SCD', 'IL1A', 'DMAP1', 'MYC', 'FOXC1', 'LDLR', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'FOSB', 'PLAUR', 'MMP7', 'TNFSF10', 'MT2A', 'ATP2B1', 'PTPRM', 'CYP1B1', 'VEGFA', 'ERRFI1', 'SLPI', 'GPAM', 'SORT1', 'PDK4', 'NPNT', 'GAS6', 'BIRC3', 'CD24', 'ITGA2', 'TXNIP', 'NR4A1', 'IL1B', 'SLC26A6', 'PLSCR1', 'GSN', 'BCL2L11', 'ACSL1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'IFI27', 'CXCL16', 'ALDH3A1', 'KRT8', 'FOS', 'TNC', 'SOD2', 'CCL28', 'S100A9', 'HES1', 'TUBA1B', 'RGS2', 'EGR1', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'ADD3', 'F3', 'GLUL', 'GBP1', 'CLDN7', 'DUSP6', 'IFITM2', 'LYST', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'MT1X', 'COL4A1', 'SERPINE1', 'LRP1', 'GPR180', 'MT1E', 'CXCL1', 'S100A4', 'CENPF', 'TMSB4X', 'BIN1', 'MME']</t>
+          <t>['NNMT', 'SORT1', 'CXCL8', 'ADD3', 'PDK4', 'SLC39A8', 'FOXC1', 'IL1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'ITGA2', 'GDF15', 'CXCL16', 'CLDN7', 'IL1B', 'SCD', 'DUSP6', 'SLPI', 'CYR61', 'GPR180', 'MMP7', 'PXDN', 'STK25', 'SGK1', 'FLNA', 'CD24', 'ACSL1', 'GLUL', 'SERPINE1', 'CLDN1', 'PTGES', 'CYP1B1', 'ANXA1', 'GSN', 'VPS13C', 'MT1X', 'ANXA3', 'DMAP1', 'SLC2A1', 'SOD2', 'TIMP1', 'PDGFB', 'HES1', 'CENPF', 'NFYB', 'INPPL1', 'ATP2B1', 'BIRC3', 'IFITM2', 'LYST', 'LRP1', 'PTPRE', 'PIM3', 'PTPRM', 'HSD17B2', 'S100A8', 'CCL20', 'SLC46A3', 'TXNIP', 'TNC', 'REL', 'BCL2L11', 'FOSB', 'IGFBP7', 'MME', 'PARP14', 'NPNT', 'F3', 'MT1E', 'PLAUR', 'CCL28', 'VEGFA', 'PTGS2', 'TPM1', 'DKK1', 'CXCL1', 'ERRFI1', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'MYC', 'TUBA1B', 'GAS6', 'ITGAV', 'EGR1', 'CLDN4', 'FOS', 'TUBA1A', 'LOX', 'MT2A', 'IFI27', 'LDLR', 'S100A4', 'TMSB4X', 'KRT8', 'VIM', 'SLC26A6', 'BIN1', 'ALDH3A1', 'AKR1C2', 'GBP1', 'S100A9', 'GPAM', 'CCND1', 'TFRC', 'TNFSF14', 'ID3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[['IEP'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI'], ['IMP', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEP'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IEP', 'ISS'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEP'], ['IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IC'], ['IEA'], ['IDA', 'IEP', 'IBA'], ['IEA'], ['IEA'], ['IDA', 'IBA'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IEA'], ['IEP', 'IBA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IEA']]</t>
+          <t>[['IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IGI'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IDA', 'IBA'], ['ISS'], ['ISS'], ['ISS'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IBA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IC'], ['IEP', 'IBA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEP', 'IEA'], ['IEP'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IEP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -11235,12 +11235,12 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['COL4A2', 'PXDN', 'ANXA3', 'ANXA1', 'IGFBP7', 'ADGRG1', 'FLNA', 'IL1A', 'FOXC1', 'SAT1', 'PTPRM', 'CYP1B1', 'VEGFA', 'FN1', 'FAP', 'UNC5B', 'GJA5', 'C3', 'NR4A1', 'IL1B', 'DCN', 'TGFBI', 'CYR61', 'PTGS2', 'ITGB8', 'ITGB1BP1', 'TNFAIP2', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'CLIC3', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'CYR61', 'PXDN', 'TGFBI', 'FLNA', 'COL4A2', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'ANXA3', 'DCN', 'ITGB8', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'IGFBP7', 'ANGPTL4', 'F3', 'VEGFA', 'PTGS2', 'ID1', 'ITGAV', 'SAT1', 'FN1', 'FAP', 'COL4A1']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA']]</t>
+          <t>[['IDA', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -11301,12 +11301,12 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['TPM1', 'TNFSF14', 'KRT17', 'COL4A2', 'ANXA3', 'TACSTD2', 'LIF', 'PIEZO1', 'ANXA1', 'STK25', 'ID3', 'SOX4', 'FLNA', 'CDK5RAP3', 'PDGFB', 'GDF15', 'EPPK1', 'IL1A', 'MYC', 'FOXC1', 'LDLR', 'TFRC', 'CCND1', 'DKK1', 'MAGED1', 'ZNF268', 'N4BP2L2', 'ALOX15B', 'ATP2B1', 'ADIRF', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'FN1', 'GPAM', 'SORT1', 'SERPINE2', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'CD24', 'C3', 'RREB1', 'DLK2', 'IL1B', 'DCN', 'ASPM', 'SOX6', 'BCL2L11', 'FNIP1', 'CYR61', 'PTGS2', 'BAMBI', 'UQCC2', 'ITGB8', 'FOS', 'SOD2', 'NSUN5', 'HES1', 'RGS2', 'CRABP2', 'CLDN4', 'ITGAV', 'CXCL8', 'F3', 'APCDD1', 'GLUL', 'TRAK1', 'WWC1', 'DUSP6', 'HES2', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'KRT10', 'PHLDA2', 'LAMA3', 'ANGPTL4', 'ZBED2', 'SERPINE1', 'CENPF', 'FGFR3', 'BIN1', 'MME']</t>
+          <t>['LAMA3', 'SORT1', 'CXCL8', 'BAMBI', 'CRABP2', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'ZFP36', 'PHLDB2', 'GDF15', 'IL1B', 'DUSP6', 'CYR61', 'STK25', 'DLK2', 'FGFR3', 'FLNA', 'COL4A2', 'CD24', 'GLUL', 'SPIRE1', 'LIF', 'SERPINE1', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'ANXA3', 'SOD2', 'DCN', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'ATP2B1', 'DLG5', 'CLIC3', 'ZBED2', 'PHLDA2', 'PTPRM', 'NSUN5', 'BCL2L11', 'ZNF268', 'LGALS1', 'MME', 'NPNT', 'ANGPTL4', 'UQCC2', 'RUFY3', 'F3', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ERRFI1', 'RGS2', 'SOX4', 'MYC', 'KRT10', 'GAS6', 'ITGAV', 'ALOX15B', 'PLXNB1', 'ASPM', 'HES2', 'CLDN4', 'FOS', 'LOX', 'LDLR', 'WWC1', 'TRAK1', 'KRT17', 'APCDD1', 'N4BP2L2', 'ADIRF', 'BIN1', 'PIEZO1', 'SOX6', 'FN1', 'GPAM', 'EPPK1', 'CCND1', 'TFRC', 'CDK5RAP3', 'TNFSF14', 'ID3']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA'], ['IDA'], ['ISS', 'IBA'], ['IMP', 'NAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA'], ['ISS', 'IEA'], ['ISS'], ['IMP'], ['IGI']]</t>
+          <t>[['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA'], ['IMP', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IGI'], ['IDA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IGI'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS'], ['ISS'], ['IDA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IMP'], ['NAS'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -11367,12 +11367,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>['TNFSF14', 'IVNS1ABP', 'TUBA1A', 'HMGN5', 'KCNIP3', 'ATF3', 'PIM3', 'ANXA1', 'STK25', 'ID3', 'SOX4', 'FLNA', 'CDK5RAP3', 'INPPL1', 'TSC22D3', 'IL1A', 'DMAP1', 'GADD45B', 'MYC', 'FOXC1', 'TIA1', 'TFRC', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ZNF268', 'TNFSF10', 'ALOX15B', 'CYP1B1', 'VEGFA', 'ERRFI1', 'MUC1', 'GPAM', 'FAP', 'SORT1', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'BIRC3', 'CD24', 'ALDH1A3', 'NISCH', 'TXNIP', 'NR4A1', 'IL1B', 'RBCK1', 'PLSCR1', 'GSN', 'BCL2L11', 'FNIP1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'IFI27', 'CCNL2', 'CLU', 'LMBR1L', 'KRT8', 'SOD2', 'S100A9', 'BCL3', 'EGR1', 'ITGAV', 'CLDN7', 'DUSP6', 'DLG5', 'ZFP36', 'LOX', 'RASSF7', 'PHLDA2', 'ANGPTL4', 'SERPINE1', 'FGFR3', 'BIN1']</t>
+          <t>['SORT1', 'PDK4', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'RASSF7', 'CLDN7', 'IL1B', 'DUSP6', 'CYR61', 'STK25', 'SGK1', 'FGFR3', 'FLNA', 'CD24', 'RBCK1', 'SERPINE1', 'UNC5B', 'NISCH', 'CKAP2', 'CYP1B1', 'ANXA1', 'FNIP1', 'GSN', 'DMAP1', 'SOD2', 'TIMP1', 'MUC1', 'INPPL1', 'DLG5', 'BIRC3', 'KCNIP3', 'PIM3', 'PHLDA2', 'S100A8', 'TXNIP', 'BCL2L11', 'ZNF268', 'ATF3', 'LGALS1', 'ANGPTL4', 'PLAUR', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'MAGED1', 'CCNL2', 'DKK1', 'GADD45B', 'ERRFI1', 'AKR1C3', 'SOX4', 'PLSCR1', 'MYC', 'IVNS1ABP', 'GAS6', 'ITGAV', 'ALOX15B', 'EGR1', 'ALDH1A3', 'TIA1', 'TUBA1A', 'LOX', 'IFI27', 'KRT8', 'TSC22D3', 'BIN1', 'CLU', 'S100A9', 'GPAM', 'FAP', 'CCND1', 'TFRC', 'CDK5RAP3', 'TNFSF14', 'ID3']</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IGI'], ['IEA'], ['IMP'], ['IMP'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS'], ['IEA'], ['TAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IMP']]</t>
+          <t>[['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IGI'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['NAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IMP'], ['IDA', 'ISS', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['TAS'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -11433,12 +11433,12 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>['TNFSF14', 'KRT17', 'ANXA3', 'TACSTD2', 'LIF', 'PIEZO1', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'GDF15', 'IL1A', 'MYC', 'FOXC1', 'TFRC', 'CCND1', 'DKK1', 'MAGED1', 'ZNF268', 'ALOX15B', 'ATP2B1', 'ADIRF', 'CYP1B1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'FN1', 'GPAM', 'SERPINE2', 'NPNT', 'PHLDB2', 'GAS6', 'RUFY3', 'CD24', 'C3', 'RREB1', 'IL1B', 'DCN', 'ASPM', 'SOX6', 'CYR61', 'PTGS2', 'BAMBI', 'ITGB8', 'FOS', 'SOD2', 'HES1', 'CRABP2', 'CXCL8', 'F3', 'TRAK1', 'CLIC3', 'DLG5', 'ZFP36', 'KRT10', 'ANGPTL4', 'ZBED2', 'SERPINE1', 'BIN1', 'MME']</t>
+          <t>['CXCL8', 'BAMBI', 'CRABP2', 'SERPINE2', 'FOXC1', 'IL1A', 'C3', 'ZFP36', 'PHLDB2', 'GDF15', 'IL1B', 'CYR61', 'STK25', 'FLNA', 'CD24', 'SPIRE1', 'LIF', 'SERPINE1', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'SOD2', 'DCN', 'PDGFB', 'ITGB8', 'HES1', 'ATP2B1', 'DLG5', 'CLIC3', 'ZBED2', 'ZNF268', 'MME', 'NPNT', 'ANGPTL4', 'RUFY3', 'F3', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'DKK1', 'SOX4', 'MYC', 'KRT10', 'GAS6', 'ALOX15B', 'PLXNB1', 'ASPM', 'FOS', 'TRAK1', 'KRT17', 'ADIRF', 'BIN1', 'PIEZO1', 'SOX6', 'FN1', 'GPAM', 'CCND1', 'TFRC', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA'], ['ISS'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IGI'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['TAS'], ['IMP'], ['IDA', 'IMP'], ['IMP'], ['IGI']]</t>
+          <t>[['IDA'], ['IMP'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IGI'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IGI'], ['ISS', 'IEA'], ['TAS'], ['ISS'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['ISS'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -11499,7 +11499,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['S100A11', 'PDGFB', 'VEGFA', 'FTL', 'SLPI', 'FN1', 'NIT2', 'GAS6', 'C3', 'GSN', 'EEF1A1', 'CREG1', 'TIMP1', 'S100A8', 'CLU', 'S100A9', 'TUBB', 'SERPINA3', 'MAN2B1', 'SERPINE1', 'DPP7', 'CXCL1', 'TMSB4X']</t>
+          <t>['NIT2', 'C3', 'MAN2B1', 'SLPI', 'SERPINE1', 'TUBB', 'GSN', 'TIMP1', 'PDGFB', 'DPP7', 'CREG1', 'S100A8', 'S100A11', 'FTL', 'VEGFA', 'CXCL1', 'GAS6', 'TMSB4X', 'EEF1A1', 'CLU', 'FN1', 'S100A9', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['S100A11', 'PDGFB', 'VEGFA', 'FTL', 'SLPI', 'FN1', 'NIT2', 'GAS6', 'C3', 'GSN', 'EEF1A1', 'CREG1', 'TIMP1', 'S100A8', 'CLU', 'S100A9', 'TUBB', 'SERPINA3', 'MAN2B1', 'SERPINE1', 'DPP7', 'CXCL1', 'TMSB4X']</t>
+          <t>['NIT2', 'C3', 'MAN2B1', 'SLPI', 'SERPINE1', 'TUBB', 'GSN', 'TIMP1', 'PDGFB', 'DPP7', 'CREG1', 'S100A8', 'S100A11', 'FTL', 'VEGFA', 'CXCL1', 'GAS6', 'TMSB4X', 'EEF1A1', 'CLU', 'FN1', 'S100A9', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['S100A11', 'PDGFB', 'VEGFA', 'FTL', 'SLPI', 'FN1', 'NIT2', 'GAS6', 'C3', 'GSN', 'EEF1A1', 'CREG1', 'TIMP1', 'S100A8', 'CLU', 'S100A9', 'TUBB', 'SERPINA3', 'MAN2B1', 'SERPINE1', 'DPP7', 'CXCL1', 'TMSB4X']</t>
+          <t>['NIT2', 'C3', 'MAN2B1', 'SLPI', 'SERPINE1', 'TUBB', 'GSN', 'TIMP1', 'PDGFB', 'DPP7', 'CREG1', 'S100A8', 'S100A11', 'FTL', 'VEGFA', 'CXCL1', 'GAS6', 'TMSB4X', 'EEF1A1', 'CLU', 'FN1', 'S100A9', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -11697,12 +11697,12 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['TPM1', 'COL4A2', 'PXDN', 'ANXA3', 'LIF', 'ANXA1', 'IGFBP7', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'PDGFB', 'IL1A', 'FOXC1', 'LDLR', 'DKK1', 'SAT1', 'PTPRM', 'CYP1B1', 'VEGFA', 'ERRFI1', 'FN1', 'FAP', 'UNC5B', 'GJA5', 'C3', 'NR4A1', 'IL1B', 'DCN', 'SOX6', 'TGFBI', 'GAA', 'CYR61', 'PTGS2', 'ITGB8', 'SOD2', 'HES1', 'ITGB1BP1', 'TNFAIP2', 'RGS2', 'EGR1', 'ITGAV', 'CXCL8', 'F3', 'GLUL', 'DUSP6', 'CLIC3', 'LOX', 'SLC2A12', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'LRP1']</t>
+          <t>['CXCL8', 'FOXC1', 'IL1A', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'DUSP6', 'CYR61', 'PXDN', 'SLC2A12', 'TGFBI', 'FLNA', 'COL4A2', 'GLUL', 'LIF', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'ANXA3', 'SOD2', 'DCN', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CLIC3', 'LRP1', 'PTPRM', 'ITGB1BP1', 'IGFBP7', 'ANGPTL4', 'F3', 'VEGFA', 'PTGS2', 'TPM1', 'DKK1', 'ERRFI1', 'RGS2', 'SOX4', 'ID1', 'ITGAV', 'EGR1', 'SAT1', 'LOX', 'LDLR', 'SOX6', 'FN1', 'FAP', 'ID3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IEP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'TAS'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS']]</t>
+          <t>[['IDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['IBA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IDA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'IEA'], ['ISS'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -11763,12 +11763,12 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['TPM1', 'REL', 'PARP14', 'ELF3', 'VPS13C', 'IVNS1ABP', 'COL4A2', 'PXDN', 'DNAJC15', 'HMGN5', 'PCGF3', 'TACSTD2', 'KCNIP3', 'ATF3', 'S100A11', 'KANK4', 'PIM3', 'LIF', 'ANXA1', 'IGFBP7', 'SLC39A8', 'ID3', 'PTPRE', 'ADGRG1', 'SOX4', 'MXD3', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'CDKN1C', 'PDGFB', 'GDF15', 'TSC22D3', 'EPPK1', 'PTGES', 'IL1A', 'DMAP1', 'FBXO4', 'MYC', 'FOXC1', 'LDLR', 'TIA1', 'TFRC', 'CCND1', 'CKAP2', 'DKK1', 'FOSB', 'PLAUR', 'MAGED1', 'ZNF268', 'IGFBP6', 'N4BP2L2', 'XIST', 'ALOX15B', 'SDC4', 'MT2A', 'ATP2B1', 'PTPRM', 'CYP1B1', 'GTF2IRD1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'GPAM', 'FAP', 'SORT1', 'KRT16', 'PDK4', 'SERPINE2', 'UNC5B', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'BIRC3', 'GJA5', 'CD24', 'CSTA', 'RREB1', 'DLK2', 'NISCH', 'TXNIP', 'SAMD4A', 'NR4A1', 'IL1B', 'DCN', 'RBCK1', 'PLSCR1', 'MFI2', 'ASPM', 'GSN', 'SOX6', 'FNIP1', 'TGFBI', 'CREG1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'IFI27', 'BAMBI', 'CLU', 'ITGB8', 'LMBR1L', 'TNC', 'DPH3', 'SOD2', 'RARRES1', 'CCL28', 'HELZ', 'PSCA', 'RAB11FIP1', 'HES1', 'BCL3', 'ITGB1BP1', 'RGS2', 'SORBS3', 'EGR1', 'STMN1', 'ITGAV', 'CXCL8', 'ANKRD13D', 'ADD3', 'APCDD1', 'GBP1', 'CLDN7', 'WWC1', 'DUSP6', 'HES2', 'IFITM2', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'FTH1', 'PNPLA2', 'MT1X', 'TRIM38', 'ID1', 'LYAR', 'TMEM132A', 'ANGPTL4', 'GPRC5A', 'ZBED2', 'SERPINE1', 'LRP1', 'MT1E', 'CXCL1', 'CENPF', 'FGFR3', 'TMSB4X', 'BIN1']</t>
+          <t>['LYAR', 'GPRC5A', 'SORT1', 'CXCL8', 'MXD3', 'ADD3', 'PDK4', 'BAMBI', 'SERPINE2', 'BCL3', 'SLC39A8', 'FOXC1', 'IL1A', 'NR4A1', 'ZFP36', 'PHLDB2', 'SAMD4A', 'GDF15', 'GJA5', 'HELZ', 'CLDN7', 'IL1B', 'DUSP6', 'SLPI', 'CYR61', 'SORBS3', 'PXDN', 'DLK2', 'TGFBI', 'FGFR3', 'ANKRD13D', 'TRIM38', 'FLNA', 'COL4A2', 'CD24', 'LIF', 'RBCK1', 'SERPINE1', 'ADGRG1', 'UNC5B', 'NISCH', 'CKAP2', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'GSN', 'VPS13C', 'MT1X', 'DMAP1', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'MUC1', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'PSCA', 'INPPL1', 'ATP2B1', 'FBXO4', 'DLG5', 'STMN1', 'BIRC3', 'IFITM2', 'ZBED2', 'CREG1', 'LRP1', 'KCNIP3', 'PTPRE', 'PIM3', 'PTPRM', 'ITGB1BP1', 'TXNIP', 'TNC', 'RAB11FIP1', 'REL', 'FOSB', 'IGFBP7', 'ZNF268', 'ATF3', 'LGALS1', 'PARP14', 'S100A11', 'ANGPTL4', 'CDKN1C', 'RUFY3', 'MT1E', 'PLAUR', 'CCL28', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ELF3', 'CXCL1', 'DPH3', 'IGFBP6', 'ERRFI1', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'MYC', 'ID1', 'IVNS1ABP', 'GAS6', 'ITGAV', 'FTH1', 'ALOX15B', 'PLXNB1', 'XIST', 'ASPM', 'HES2', 'CSTA', 'EGR1', 'DNAJC15', 'TIA1', 'RARRES1', 'LOX', 'MT2A', 'IFI27', 'LDLR', 'TMSB4X', 'WWC1', 'APCDD1', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'TSC22D3', 'BIN1', 'CLU', 'SOX6', 'FN1', 'GBP1', 'GPAM', 'FAP', 'EPPK1', 'CCND1', 'TMEM132A', 'TFRC', 'GTF2IRD1', 'CDK5RAP3', 'ID3', 'PCGF3']</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['IBA', 'TAS'], ['IEA'], ['IMP'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IGI'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IBA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'TAS'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IEA'], ['ISS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IC'], ['ISS'], ['TAS'], ['IDA', 'NAS'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['IDA', 'TAS'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['ISS'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA'], ['IMP'], ['IEA'], ['ISS', 'IC'], ['IDA', 'IBA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS'], ['ISS'], ['IMP', 'NAS'], ['IDA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IDA', 'IMP', 'ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS'], ['IGI'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -11829,12 +11829,12 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'TNNI2', 'LAMC2', 'TNFSF14', 'REL', 'CCL20', 'PARP14', 'ELF3', 'ZDHHC8', 'ZDHHC17', 'VPS13C', 'HSD17B2', 'IVNS1ABP', 'KRT17', 'NNMT', 'RFX7', 'KRT5', 'AKR1C2', 'TUBA1A', 'COL4A2', 'PXDN', 'DNAJC15', 'ANXA3', 'HMGN5', 'PCGF3', 'TACSTD2', 'KCNIP3', 'KLF6', 'ATF3', 'S100A11', 'DST', 'KANK4', 'SMIM22', 'PIM3', 'LIF', 'PIEZO1', 'ILKAP', 'ANXA1', 'IGFBP7', 'STK25', 'SLC39A8', 'ID3', 'PTPRE', 'ADGRG1', 'SOX4', 'MXD3', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'SNF8', 'INPPL1', 'CDKN1C', 'PDGFB', 'WRN', 'TSPAN1', 'SLC44A2', 'GDF15', 'RBM39', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'ROGDI', 'IL1A', 'LSR', 'DMAP1', 'PCSK7', 'CCDC80', 'FBXO4', 'GADD45B', 'MYC', 'FOXC1', 'SNX14', 'LDLR', 'TIA1', 'SH3BP2', 'TFRC', 'PWWP2B', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'FOSB', 'MOB1B', 'PLAUR', 'MAGED1', 'ZNF268', 'MMP7', 'IGFBP6', 'MALAT1', 'TNFSF10', 'N4BP2L2', 'XIST', 'ALOX15B', 'KPNA2', 'SDC4', 'MT2A', 'ATP1B1', 'ATP2B1', 'ADIRF', 'PTPRM', 'CYP1B1', 'VMP1', 'GTF2IRD1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'GPAM', 'FAP', 'KDM4B', 'SORT1', 'KRT16', 'PDK4', 'MACC1', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'SYT8', 'RUFY3', 'BIRC3', 'GJA5', 'CD24', 'TRIM47', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'NISCH', 'TXNIP', 'CRB3', 'SAMD4A', 'NR4A1', 'C1orf56', 'IL1B', 'DCN', 'RBCK1', 'KMT2E', 'SLC26A6', 'HNRNPH3', 'ENTPD2', 'PLSCR1', 'MFI2', 'ASPM', 'CSRP1', 'GSN', 'SOX6', 'EEF1A1', 'BCL2L11', 'ACSL1', 'FNIP1', 'GRHL3', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PRSS8', 'PTGS2', 'CFL2', 'S100A8', 'IFI27', 'BAMBI', 'CCNL2', 'UQCC2', 'CXCL16', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'TNC', 'DPH3', 'RHOV', 'SOD2', 'NSUN5', 'RARRES1', 'CCL28', 'HELZ', 'S100A9', 'TNK2', 'MAP3K6', 'PSCA', 'RAB11FIP1', 'HES1', 'BCL3', 'ITGB1BP1', 'KLHL24', 'RGS2', 'TUBB', 'SORBS3', 'EGR1', 'IFT46', 'STMN1', 'SUN2', 'CRABP2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'ANKRD13D', 'ADD3', 'F3', 'APCDD1', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'DUSP6', 'HES2', 'ADGRF1', 'IFITM2', 'S100A6', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'MAP9', 'VIM', 'FTH1', 'RASSF7', 'CLDN1', 'PNPLA2', 'KRT10', 'MT1X', 'TRIM38', 'ID1', 'LYAR', 'PHLDA2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'SERPINA3', 'SMC4', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SLC4A7', 'SERPINE1', 'LRP1', 'MFN1', 'GPR180', 'RDH10', 'MT1E', 'EHF', 'CXCL1', 'S100A4', 'LETMD1', 'CENPF', 'FGFR3', 'FXYD3', 'TMSB4X', 'BIN1', 'TET2', 'WSB1', 'MME']</t>
+          <t>['LYAR', 'GPRC5A', 'PCSK7', 'NNMT', 'LAMA3', 'ATP1B1', 'SORT1', 'CXCL8', 'MXD3', 'CCDC80', 'ADD3', 'PDK4', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'SLC39A8', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'SAMD4A', 'GDF15', 'CXCL16', 'GJA5', 'HELZ', 'RASSF7', 'SMC4', 'CLDN7', 'IL1B', 'KDM4B', 'SCD', 'DUSP6', 'SLPI', 'CYR61', 'SORBS3', 'GPR180', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'DLK2', 'SGK1', 'IFT46', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'GRHL3', 'TRIM38', 'SCEL', 'FLNA', 'COL4A2', 'TNK2', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'LIF', 'RBCK1', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'NISCH', 'CLDN1', 'CKAP2', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'GSN', 'VPS13C', 'MT1X', 'CSRP1', 'ANXA3', 'LSR', 'SH3BP2', 'DMAP1', 'SMIM22', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'PRSS8', 'ITGB8', 'PWWP2B', 'HES1', 'CENPF', 'NFYB', 'PSCA', 'INPPL1', 'TNNI2', 'ATP2B1', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'IFITM2', 'CLIC3', 'ZBED2', 'CREG1', 'LRP1', 'KCNIP3', 'RFX7', 'PTPRE', 'PIM3', 'SNX14', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'MAP9', 'HSD17B2', 'S100A8', 'CCL20', 'TXNIP', 'TNC', 'RAB11FIP1', 'NSUN5', 'VMP1', 'SLC44A2', 'REL', 'BCL2L11', 'FOSB', 'IGFBP7', 'ZNF268', 'ATF3', 'LGALS1', 'WRN', 'WSB1', 'MME', 'PARP14', 'S100A11', 'NPNT', 'ANGPTL4', 'HNRNPH3', 'CDKN1C', 'KRT5', 'UQCC2', 'BAZ2B', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'CFL2', 'MT1E', 'PLAUR', 'MFN1', 'CCL28', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CCNL2', 'CRB3', 'DKK1', 'ELF3', 'GADD45B', 'CXCL1', 'TSPAN1', 'DPH3', 'IGFBP6', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'TRIM47', 'MYC', 'KRT10', 'ID1', 'IVNS1ABP', 'GAS6', 'MALAT1', 'ITGAV', 'LETMD1', 'ROGDI', 'FTH1', 'ALOX15B', 'PLXNB1', 'ADGRF1', 'KMT2E', 'C1orf56', 'XIST', 'ASPM', 'ENTPD2', 'KLF6', 'TET2', 'HES2', 'FXYD3', 'CSTA', 'EGR1', 'SYT8', 'DNAJC15', 'MAP3K6', 'ALDH1A3', 'CLDN4', 'FOS', 'TIA1', 'TUBA1A', 'RARRES1', 'LOX', 'MT2A', 'IFI27', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MACC1', 'APCDD1', 'N4BP2L2', 'ILKAP', 'VIM', 'KRT16', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'TSC22D3', 'BIN1', 'CLU', 'AKR1C2', 'FBXW5', 'PIEZO1', 'SOX6', 'FN1', 'GBP1', 'S100A9', 'GPAM', 'RBM39', 'FAP', 'EPPK1', 'CCND1', 'CALML5', 'TMEM132A', 'TFRC', 'RDH10', 'GTF2IRD1', 'SERPINA3', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SNF8', 'SLC4A7', 'KLHL24', 'PCGF3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'HMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'TAS'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['HMP'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'NAS', 'IEA'], ['ISS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IGI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IEA'], ['IMP'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['HMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS', 'NAS'], ['IDA', 'TAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA'], ['ISS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['ISS'], ['TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IGI', 'IBA', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS'], ['HMP'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['HMP'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IBA'], ['ISS', 'IEA'], ['IDA', 'HMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['NAS'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -11895,12 +11895,12 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'TNNI2', 'LAMC2', 'TNFSF14', 'REL', 'CCL20', 'PARP14', 'ELF3', 'ZDHHC8', 'ZDHHC17', 'VPS13C', 'IVNS1ABP', 'KRT17', 'NNMT', 'RFX7', 'KRT5', 'AKR1C2', 'TUBA1A', 'COL4A2', 'PXDN', 'DNAJC15', 'ANXA3', 'HMGN5', 'PCGF3', 'TACSTD2', 'KCNIP3', 'KLF6', 'ATF3', 'S100A11', 'DST', 'KANK4', 'SMIM22', 'PIM3', 'LIF', 'PIEZO1', 'ILKAP', 'ANXA1', 'IGFBP7', 'STK25', 'SLC39A8', 'ID3', 'PTPRE', 'ADGRG1', 'SOX4', 'MXD3', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'SNF8', 'INPPL1', 'CDKN1C', 'PDGFB', 'WRN', 'SLC44A2', 'GDF15', 'RBM39', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'ROGDI', 'IL1A', 'LSR', 'DMAP1', 'CCDC80', 'FBXO4', 'GADD45B', 'MYC', 'FOXC1', 'SNX14', 'LDLR', 'TIA1', 'SH3BP2', 'TFRC', 'PWWP2B', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'FOSB', 'MOB1B', 'PLAUR', 'MAGED1', 'ZNF268', 'MMP7', 'IGFBP6', 'MALAT1', 'TNFSF10', 'N4BP2L2', 'XIST', 'ALOX15B', 'KPNA2', 'SDC4', 'MT2A', 'ATP1B1', 'ATP2B1', 'ADIRF', 'PTPRM', 'CYP1B1', 'VMP1', 'GTF2IRD1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'GPAM', 'FAP', 'KDM4B', 'SORT1', 'KRT16', 'PDK4', 'MACC1', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'SYT8', 'RUFY3', 'BIRC3', 'GJA5', 'CD24', 'TRIM47', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'NISCH', 'TXNIP', 'CRB3', 'SAMD4A', 'NR4A1', 'C1orf56', 'IL1B', 'DCN', 'RBCK1', 'KMT2E', 'SLC26A6', 'HNRNPH3', 'ENTPD2', 'PLSCR1', 'MFI2', 'ASPM', 'GSN', 'SOX6', 'EEF1A1', 'BCL2L11', 'ACSL1', 'FNIP1', 'GRHL3', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PRSS8', 'PTGS2', 'CFL2', 'S100A8', 'IFI27', 'BAMBI', 'CCNL2', 'UQCC2', 'CXCL16', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'TNC', 'DPH3', 'RHOV', 'SOD2', 'NSUN5', 'RARRES1', 'CCL28', 'HELZ', 'S100A9', 'TNK2', 'MAP3K6', 'PSCA', 'RAB11FIP1', 'HES1', 'BCL3', 'ITGB1BP1', 'KLHL24', 'RGS2', 'TUBB', 'SORBS3', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'ANKRD13D', 'ADD3', 'F3', 'APCDD1', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'DUSP6', 'HES2', 'ADGRF1', 'IFITM2', 'S100A6', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'MAP9', 'VIM', 'FTH1', 'RASSF7', 'CLDN1', 'PNPLA2', 'KRT10', 'MT1X', 'TRIM38', 'ID1', 'LYAR', 'PHLDA2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'SERPINA3', 'SMC4', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SERPINE1', 'LRP1', 'GPR180', 'RDH10', 'MT1E', 'EHF', 'CXCL1', 'S100A4', 'LETMD1', 'CENPF', 'FGFR3', 'FXYD3', 'TMSB4X', 'BIN1', 'TET2', 'WSB1', 'MME']</t>
+          <t>['LYAR', 'GPRC5A', 'NNMT', 'LAMA3', 'ATP1B1', 'SORT1', 'CXCL8', 'MXD3', 'CCDC80', 'ADD3', 'PDK4', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'SLC39A8', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'SAMD4A', 'GDF15', 'CXCL16', 'GJA5', 'HELZ', 'RASSF7', 'SMC4', 'CLDN7', 'IL1B', 'KDM4B', 'SCD', 'DUSP6', 'SLPI', 'CYR61', 'SORBS3', 'GPR180', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'DLK2', 'SGK1', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'GRHL3', 'TRIM38', 'SCEL', 'FLNA', 'COL4A2', 'TNK2', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'LIF', 'RBCK1', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'NISCH', 'CLDN1', 'CKAP2', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'GSN', 'VPS13C', 'MT1X', 'ANXA3', 'LSR', 'SH3BP2', 'DMAP1', 'SMIM22', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'PRSS8', 'ITGB8', 'PWWP2B', 'HES1', 'CENPF', 'NFYB', 'PSCA', 'INPPL1', 'TNNI2', 'ATP2B1', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'IFITM2', 'CLIC3', 'ZBED2', 'CREG1', 'LRP1', 'KCNIP3', 'RFX7', 'PTPRE', 'PIM3', 'SNX14', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'MAP9', 'S100A8', 'CCL20', 'TXNIP', 'TNC', 'RAB11FIP1', 'NSUN5', 'VMP1', 'SLC44A2', 'REL', 'BCL2L11', 'FOSB', 'IGFBP7', 'ZNF268', 'ATF3', 'LGALS1', 'WRN', 'WSB1', 'MME', 'PARP14', 'S100A11', 'NPNT', 'ANGPTL4', 'HNRNPH3', 'CDKN1C', 'KRT5', 'UQCC2', 'BAZ2B', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'CFL2', 'MT1E', 'PLAUR', 'CCL28', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CCNL2', 'CRB3', 'DKK1', 'ELF3', 'GADD45B', 'CXCL1', 'DPH3', 'IGFBP6', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'TRIM47', 'MYC', 'KRT10', 'ID1', 'IVNS1ABP', 'GAS6', 'MALAT1', 'ITGAV', 'LETMD1', 'ROGDI', 'FTH1', 'ALOX15B', 'PLXNB1', 'ADGRF1', 'KMT2E', 'C1orf56', 'XIST', 'ASPM', 'ENTPD2', 'KLF6', 'TET2', 'HES2', 'FXYD3', 'CSTA', 'EGR1', 'SYT8', 'DNAJC15', 'MAP3K6', 'ALDH1A3', 'CLDN4', 'FOS', 'TIA1', 'TUBA1A', 'RARRES1', 'LOX', 'MT2A', 'IFI27', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MACC1', 'APCDD1', 'N4BP2L2', 'ILKAP', 'VIM', 'KRT16', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'TSC22D3', 'BIN1', 'CLU', 'AKR1C2', 'FBXW5', 'PIEZO1', 'SOX6', 'FN1', 'GBP1', 'S100A9', 'GPAM', 'RBM39', 'FAP', 'EPPK1', 'CCND1', 'CALML5', 'TMEM132A', 'TFRC', 'RDH10', 'GTF2IRD1', 'SERPINA3', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SNF8', 'KLHL24', 'PCGF3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'HMP', 'ISS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HMP'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'NAS', 'IEA'], ['ISS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IGI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IEA'], ['IMP'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IBA'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['TAS', 'NAS'], ['IDA', 'TAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IEA'], ['IEA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IGI', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA'], ['ISS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IGI', 'IBA', 'IEA'], ['ISS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['HMP'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IGI', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IBA'], ['ISS', 'IEA'], ['IDA', 'HMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['NAS'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -11961,12 +11961,12 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['TPM1', 'LAMC2', 'TNFSF14', 'MMP24', 'PXDN', 'TACSTD2', 'S100A11', 'DST', 'LIF', 'PIEZO1', 'ANXA1', 'IGFBP7', 'SLC39A8', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'INPPL1', 'PDGFB', 'IL1A', 'CCDC80', 'TFRC', 'PLAUR', 'SDC4', 'ATP1B1', 'PTPRM', 'CYP1B1', 'VMP1', 'PLXNB1', 'VEGFA', 'MUC1', 'FN1', 'GPAM', 'FAP', 'SERPINE2', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'CD24', 'CSTA', 'COL7A1', 'RREB1', 'ITGA2', 'IL1B', 'MFI2', 'CSRP1', 'BCL2L11', 'TGFBI', 'CYR61', 'S100A8', 'ITGB8', 'TNC', 'CCL28', 'S100A9', 'HES1', 'ITGB1BP1', 'SORBS3', 'CLDN4', 'ITGAV', 'CXCL8', 'DSC2', 'GBP1', 'CLDN7', 'DLG5', 'CLDN1', 'LAMA3', 'SERPINE1']</t>
+          <t>['LAMA3', 'ATP1B1', 'CXCL8', 'CCDC80', 'SERPINE2', 'SLC39A8', 'IL1A', 'ITGA2', 'PHLDB2', 'CLDN7', 'IL1B', 'MMP24', 'CYR61', 'SORBS3', 'PXDN', 'TGFBI', 'DST', 'FLNA', 'CD24', 'LAMC2', 'LIF', 'SERPINE1', 'ADGRG1', 'CLDN1', 'CYP1B1', 'ANXA1', 'RREB1', 'CSRP1', 'MFI2', 'SDC4', 'DSC2', 'MUC1', 'PDGFB', 'ITGB8', 'HES1', 'INPPL1', 'DLG5', 'PTPRM', 'ITGB1BP1', 'S100A8', 'TNC', 'VMP1', 'BCL2L11', 'IGFBP7', 'LGALS1', 'S100A11', 'NPNT', 'PLAUR', 'CCL28', 'VEGFA', 'TACSTD2', 'TPM1', 'SOX4', 'GAS6', 'ITGAV', 'PLXNB1', 'CSTA', 'CLDN4', 'CNTNAP2', 'PIEZO1', 'FN1', 'GBP1', 'S100A9', 'COL7A1', 'GPAM', 'FAP', 'TFRC', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HMP'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['IBA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA'], ['HMP'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA']]</t>
+          <t>[['IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'HMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['HMP'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'NAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -12027,12 +12027,12 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['ZDHHC17', 'COL4A2', 'ANXA3', 'ANXA1', 'ADGRG1', 'CDKN1C', 'PDGFB', 'GDF15', 'MYC', 'FOXC1', 'DKK1', 'VEGFA', 'SORT1', 'NPNT', 'GAS6', 'NR4A1', 'IL1B', 'DCN', 'SOX6', 'EEF1A1', 'CYR61', 'BAMBI', 'ITGB8', 'FOS', 'TNC', 'HES1', 'ITGB1BP1', 'EGR1', 'CXCL8', 'DUSP6', 'ZFP36', 'LOX', 'CLDN1', 'ID1', 'SLC4A7', 'FGFR3']</t>
+          <t>['SORT1', 'CXCL8', 'BAMBI', 'FOXC1', 'NR4A1', 'ZFP36', 'GDF15', 'IL1B', 'DUSP6', 'CYR61', 'FGFR3', 'COL4A2', 'ADGRG1', 'CLDN1', 'ANXA1', 'ANXA3', 'DCN', 'PDGFB', 'ITGB8', 'HES1', 'ITGB1BP1', 'TNC', 'NPNT', 'CDKN1C', 'ZDHHC17', 'VEGFA', 'DKK1', 'MYC', 'ID1', 'GAS6', 'EGR1', 'FOS', 'LOX', 'EEF1A1', 'SOX6', 'SLC4A7']</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'ISS'], ['IDA', 'TAS'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IC'], ['IDA'], ['IDA'], ['IDA'], ['IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA']]</t>
+          <t>[['IMP', 'IEA'], ['IEP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IC'], ['IEA'], ['IGI'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'ISS'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -12093,12 +12093,12 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'SLC2A1', 'TNNI2', 'LAMC2', 'TNFSF14', 'LAGE3', 'REL', 'CCL20', 'PARP14', 'ELF3', 'ZDHHC8', 'SPTSSA', 'MAL2', 'ZDHHC17', 'VPS13C', 'HSD17B2', 'IVNS1ABP', 'KRT17', 'NNMT', 'RFX7', 'STX16', 'KRT5', 'KRT15', 'AKR1C2', 'PTTG1', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'DNAJC15', 'ANXA3', 'DHX16', 'HMGN5', 'PCGF3', 'TACSTD2', 'KCNIP3', 'KLF6', 'ATF3', 'S100A11', 'DST', 'MFAP5', 'KANK4', 'SLC46A3', 'SMIM22', 'PIM3', 'LIF', 'PIEZO1', 'CKB', 'ILKAP', 'ANXA1', 'IGFBP7', 'STK25', 'SLC39A8', 'ID3', 'PTPRE', 'ADGRG1', 'SOX4', 'MXD3', 'FLNA', 'CNTNAP2', 'AQR', 'CDK5RAP3', 'SNF8', 'INPPL1', 'CDKN1C', 'PDGFB', 'WRN', 'RRBP1', 'TSPAN1', 'SLC44A2', 'GDF15', 'TUBA4A', 'RBM39', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'FDPS', 'GOLGA8B', 'ROGDI', 'IL1A', 'SLC25A11', 'LSR', 'ARSD', 'DMAP1', 'PCSK7', 'CCDC80', 'FBXO4', 'GADD45B', 'MYC', 'FOXC1', 'SNX14', 'LDLR', 'TIA1', 'MRC2', 'IDI1', 'LENG8', 'TFRC', 'PWWP2B', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'NEAT1', 'RSBN1L', 'TMEM138', 'FOSB', 'MOB1B', 'PLAUR', 'MAGED1', 'ZNF268', 'MMP7', 'IGFBP6', 'METTL17', 'TNFSF10', 'LAD1', 'N4BP2L2', 'ALOX15B', 'KPNA2', 'DMKN', 'SDC4', 'MT2A', 'SAT1', 'SPINK6', 'ATP1B1', 'ATP2B1', 'ADIRF', 'NOP16', 'PTPRM', 'CYP1B1', 'RSRP1', 'VMP1', 'GTF2IRD1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'TMEM265', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'ARGLU1', 'GPAM', 'FAP', 'NIT2', 'KDM4B', 'SORT1', 'KRT16', 'CA12', 'PDK4', 'MACC1', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'SYT8', 'RUFY3', 'SRSF11', 'BIRC3', 'GJA5', 'CD24', 'CHI3L2', 'PNISR', 'TRIM47', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'COL7A1', 'TACC2', 'C3', 'TRABD', 'GALNT6', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'NISCH', 'TXNIP', 'CRB3', 'SAMD4A', 'NR4A1', 'C1orf56', 'IL1B', 'DCN', 'RBCK1', 'KMT2E', 'SLC26A6', 'HNRNPH3', 'TPM4', 'ENTPD2', 'PLSCR1', 'MFI2', 'ASPM', 'CSRP1', 'GSN', 'SOX6', 'EEF1A1', 'BCL2L11', 'UROD', 'ACSL1', 'FNIP1', 'GRHL3', 'TGFBI', 'CREG1', 'TIMP1', 'GAA', 'RNF217', 'ANKRD12', 'CYR61', 'ZNF598', 'AKR1C3', 'PRSS8', 'PTGS2', 'CFL2', 'S100A8', 'IFI27', 'BAMBI', 'CCNL2', 'HS2ST1', 'UQCC2', 'CXCL16', 'USP31', 'MRPL55', 'ALDH3A1', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'CST6', 'TNC', 'DPH3', 'RHOV', 'COMTD1', 'SOD2', 'NSUN5', 'BLVRA', 'RARRES1', 'CCL28', 'HELZ', 'S100A9', 'ARHGEF37', 'TNK2', 'DSEL', 'HMGCS1', 'PSCA', 'SLC26A2', 'RAB11FIP1', 'HES1', 'BCL3', 'ITGB1BP1', 'KRT81', 'CYP4B1', 'KLHL24', 'TUBA1B', 'TNFAIP2', 'RGS2', 'TUBB', 'SORBS3', 'C15orf48', 'EGR1', 'IFT46', 'STMN1', 'SUN2', 'CRABP2', 'NFYB', 'SPSB1', 'ANKRD11', 'CLDN4', 'ITGAV', 'CXCL8', 'SAA2', 'ANKRD13D', 'ADD3', 'TAGLN', 'F3', 'APCDD1', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'DUSP6', 'HES2', 'ADGRF1', 'IFITM2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'CCDC91', 'DLG5', 'LYST', 'SNHG3', 'DHRS1', 'ZFP36', 'LOX', 'MAP9', 'VIM', 'FTH1', 'CALML3', 'RASSF7', 'TP53I3', 'MTHFD2', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'SUGP2', 'MT1X', 'TRIM38', 'UPP1', 'NOM1', 'ID1', 'LYAR', 'PHLDA2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'CKAP2L', 'FBXW5', 'SERPINA3', 'TMEM139', 'MAN2B1', 'SMC4', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SLC4A7', 'SERPINE1', 'LRP1', 'MFN1', 'GPR180', 'SPRR1B', 'DPP7', 'RDH10', 'MT1E', 'EHF', 'CXCL1', 'MFSD3', 'S100A4', 'LETMD1', 'CENPF', 'FGFR3', 'NFU1', 'FXYD3', 'TMSB4X', 'BIN1', 'TET2', 'WSB1', 'ATP13A4', 'MME']</t>
+          <t>['LYAR', 'IDI1', 'GPRC5A', 'PCSK7', 'NNMT', 'LAMA3', 'ANKRD11', 'SPRR1B', 'CCDC91', 'ATP1B1', 'SORT1', 'CXCL8', 'MXD3', 'TMEM138', 'GALNT6', 'CCDC80', 'ADD3', 'NIT2', 'PDK4', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'SLC39A8', 'FOXC1', 'USP31', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MRPL55', 'NOP16', 'ITGA2', 'PHLDB2', 'SAMD4A', 'GDF15', 'CXCL16', 'GJA5', 'CALML3', 'HELZ', 'MAL2', 'RSBN1L', 'RASSF7', 'SMC4', 'CLDN7', 'IL1B', 'MMP24', 'MAN2B1', 'CYP4B1', 'GOLGA8B', 'KDM4B', 'SCD', 'DUSP6', 'SLPI', 'SRSF11', 'CYR61', 'SORBS3', 'GPR180', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'DLK2', 'SPINK6', 'MFSD3', 'SGK1', 'SLC2A12', 'IFT46', 'TGFBI', 'PTTG1', 'FGFR3', 'ANKRD13D', 'DST', 'GRHL3', 'TRIM38', 'SCEL', 'FLNA', 'COL4A2', 'TNK2', 'TMEM139', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'NEAT1', 'GLUL', 'SPIRE1', 'LIF', 'RBCK1', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'TUBA4A', 'NISCH', 'SPSB1', 'CLDN1', 'CKAP2', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'TNFAIP2', 'GSN', 'NOM1', 'DHX16', 'VPS13C', 'SUGP2', 'MT1X', 'METTL17', 'SPTSSA', 'ANKRD12', 'ZNF598', 'CSRP1', 'ANXA3', 'LSR', 'TRABD', 'DMAP1', 'SMIM22', 'SLC2A1', 'HMGCS1', 'KANK4', 'CKAP2L', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'LAD1', 'GAA', 'DSC2', 'MUC1', 'PDGFB', 'PRSS8', 'COMTD1', 'DPP7', 'ITGB8', 'PWWP2B', 'HES1', 'CENPF', 'NFYB', 'PSCA', 'INPPL1', 'TNNI2', 'ATP2B1', 'FBXO4', 'RSRP1', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'CA12', 'IFITM2', 'UPP1', 'SAA2', 'CLIC3', 'ZBED2', 'LYST', 'CREG1', 'LRP1', 'KCNIP3', 'RFX7', 'PTPRE', 'PIM3', 'UROD', 'SNX14', 'PHLDA2', 'PTPRM', 'KRT15', 'CHI3L2', 'BLVRA', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MAP9', 'HSD17B2', 'S100A8', 'CCL20', 'SNHG3', 'SLC46A3', 'TXNIP', 'TNC', 'RAB11FIP1', 'NSUN5', 'DHRS1', 'VMP1', 'TMEM265', 'SLC44A2', 'REL', 'BCL2L11', 'FOSB', 'IGFBP7', 'ZNF268', 'ATF3', 'TPM4', 'LGALS1', 'WRN', 'MFAP5', 'WSB1', 'MME', 'PARP14', 'S100A11', 'NPNT', 'ANGPTL4', 'HNRNPH3', 'CDKN1C', 'KRT5', 'UQCC2', 'BAZ2B', 'RUFY3', 'SUN2', 'ZDHHC17', 'FTL', 'F3', 'CFL2', 'MT1E', 'PLAUR', 'CST6', 'RRBP1', 'MFN1', 'CCL28', 'ATP13A4', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CCNL2', 'ARHGEF37', 'PDZK1IP1', 'CRB3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'CXCL1', 'TSPAN1', 'DPH3', 'IGFBP6', 'ERRFI1', 'KLK5', 'AKR1C3', 'PNISR', 'TP53I3', 'RGS2', 'SOX4', 'PLSCR1', 'KRT81', 'TRIM47', 'MYC', 'TUBA1B', 'RNF217', 'KRT10', 'ID1', 'IVNS1ABP', 'GAS6', 'DSEL', 'ITGAV', 'LETMD1', 'ROGDI', 'FTH1', 'SLC25A11', 'ALOX15B', 'PLXNB1', 'CKB', 'ADGRF1', 'KMT2E', 'C1orf56', 'ASPM', 'ENTPD2', 'KLF6', 'ARSD', 'TET2', 'HES2', 'FXYD3', 'CSTA', 'EGR1', 'SAT1', 'AQR', 'SYT8', 'DNAJC15', 'ALDH1A3', 'CLDN4', 'FOS', 'TIA1', 'TUBA1A', 'RARRES1', 'LOX', 'MT2A', 'IFI27', 'LDLR', 'STX16', 'S100A4', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT8', 'ARGLU1', 'KRT17', 'S100A6', 'MACC1', 'MRC2', 'C15orf48', 'APCDD1', 'N4BP2L2', 'ILKAP', 'VIM', 'LENG8', 'KRT16', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'TSC22D3', 'BIN1', 'ALDH3A1', 'SLC26A2', 'CLU', 'AKR1C2', 'DMKN', 'FBXW5', 'PIEZO1', 'SOX6', 'NFU1', 'FN1', 'GBP1', 'S100A9', 'COL7A1', 'GPAM', 'RBM39', 'FAP', 'EPPK1', 'CCND1', 'CALML5', 'TACC2', 'TMEM132A', 'TFRC', 'RDH10', 'GTF2IRD1', 'HS2ST1', 'SERPINA3', 'COPE', 'CDK5RAP3', 'TNFSF14', 'ID3', 'LAGE3', 'SNF8', 'SLC4A7', 'KLHL24', 'PCGF3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'ISA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IC', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISO', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['HTP'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISA', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'ISA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -12159,12 +12159,12 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'TNFSF14', 'KRT17', 'ANXA3', 'LIF', 'ANXA1', 'STK25', 'SOX4', 'FLNA', 'PDGFB', 'SCD', 'IL1A', 'MYC', 'FOXC1', 'TFRC', 'CCND1', 'DKK1', 'MAGED1', 'ALOX15B', 'KPNA2', 'ATP2B1', 'CYP1B1', 'PLXNB1', 'VEGFA', 'FN1', 'GPAM', 'SERPINE2', 'NPNT', 'LGALS1', 'GAS6', 'RUFY3', 'GJA5', 'CD24', 'C3', 'RREB1', 'ITGA2', 'IL1B', 'ASPM', 'SOX6', 'ACSL1', 'CYR61', 'PTGS2', 'BAMBI', 'CLU', 'ITGB8', 'FOS', 'HES1', 'BCL3', 'RGS2', 'EGR1', 'CRABP2', 'CXCL8', 'ADD3', 'F3', 'TRAK1', 'CLIC3', 'DLG5', 'ANGPTL4', 'ZBED2', 'SERPINE1', 'LRP1', 'LETMD1', 'BIN1', 'MME']</t>
+          <t>['CXCL8', 'ADD3', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'FOXC1', 'IL1A', 'C3', 'ITGA2', 'GJA5', 'IL1B', 'SCD', 'CYR61', 'STK25', 'FLNA', 'CD24', 'ACSL1', 'LIF', 'SERPINE1', 'CYP1B1', 'ANXA1', 'RREB1', 'ANXA3', 'PDGFB', 'ITGB8', 'HES1', 'ATP2B1', 'NMU', 'DLG5', 'CLIC3', 'ZBED2', 'LRP1', 'LGALS1', 'MME', 'NPNT', 'ANGPTL4', 'RUFY3', 'F3', 'VEGFA', 'PTGS2', 'MAGED1', 'TPM1', 'DKK1', 'RGS2', 'SOX4', 'MYC', 'GAS6', 'LETMD1', 'ALOX15B', 'PLXNB1', 'ASPM', 'EGR1', 'FOS', 'TRAK1', 'KRT17', 'BIN1', 'CLU', 'SOX6', 'FN1', 'GPAM', 'CCND1', 'TFRC', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IC'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'NAS'], ['ISS', 'TAS'], ['IEA'], ['IMP'], ['IGI']]</t>
+          <t>[['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['NAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['ISS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'TAS'], ['IEA'], ['IGI'], ['IEA'], ['TAS'], ['ISS'], ['IDA', 'IMP', 'IC'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -12225,12 +12225,12 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'TNFSF14', 'REL', 'CCL20', 'PARP14', 'IVNS1ABP', 'KRT5', 'TUBA1A', 'MMP24', 'ANXA3', 'DHX16', 'PIEZO1', 'ANXA1', 'SLC39A8', 'FLNA', 'CNTNAP2', 'PDGFB', 'EPPK1', 'PTGES', 'IL1A', 'CCDC80', 'LDLR', 'FOSB', 'PLAUR', 'MMP7', 'ATP1B1', 'VEGFA', 'SPIRE1', 'SLPI', 'GPAM', 'FAP', 'KRT16', 'SERPINE2', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'BIRC3', 'CD24', 'SCEL', 'ALDH1A3', 'C3', 'ITGA2', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'RBCK1', 'SLC26A6', 'PLSCR1', 'GSN', 'CYR61', 'PTGS2', 'S100A8', 'IFI27', 'CXCL16', 'CLU', 'ITGB8', 'KRT8', 'FOS', 'TNC', 'SOD2', 'CCL28', 'S100A9', 'BCL3', 'TUBB', 'C15orf48', 'STMN1', 'ITGAV', 'CXCL8', 'F3', 'GBP1', 'IFITM2', 'LYST', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'TRIM38', 'LYAR', 'SERPINE1', 'CXCL1', 'S100A4', 'LETMD1', 'TMSB4X', 'BIN1']</t>
+          <t>['LYAR', 'ATP1B1', 'CXCL8', 'CCDC80', 'SERPINE2', 'BCL3', 'SLC39A8', 'IL1A', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'CXCL16', 'IL1B', 'MMP24', 'SLPI', 'CYR61', 'MMP7', 'TRIM38', 'SCEL', 'FLNA', 'CD24', 'SPIRE1', 'RBCK1', 'SERPINE1', 'CLDN1', 'PTGES', 'ANXA1', 'TUBB', 'GSN', 'DHX16', 'ANXA3', 'SLC2A1', 'SOD2', 'PDGFB', 'ITGB8', 'STMN1', 'BIRC3', 'IFITM2', 'LYST', 'S100A8', 'CCL20', 'TXNIP', 'TNC', 'REL', 'FOSB', 'LGALS1', 'PARP14', 'NPNT', 'KRT5', 'F3', 'PLAUR', 'CCL28', 'VEGFA', 'PTGS2', 'CXCL1', 'KLK5', 'PLSCR1', 'IVNS1ABP', 'GAS6', 'ITGAV', 'LETMD1', 'ALDH1A3', 'FOS', 'TUBA1A', 'LOX', 'IFI27', 'LDLR', 'S100A4', 'TMSB4X', 'KRT8', 'C15orf48', 'VIM', 'KRT16', 'CNTNAP2', 'SLC26A6', 'BIN1', 'CLU', 'PIEZO1', 'GBP1', 'S100A9', 'GPAM', 'FAP', 'EPPK1', 'TNFSF14']</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IEP', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'TAS'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'NAS'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IC'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA'], ['TAS'], ['ISS'], ['IEP'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISO', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IEA'], ['IEP'], ['IMP'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IC'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP'], ['IEA']]</t>
+          <t>[['IDA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEP'], ['IEA'], ['ISS'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISO', 'IEA'], ['IBA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['ISS'], ['IC'], ['TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IMP', 'TAS'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEP', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IC'], ['IMP'], ['IEP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -12291,12 +12291,12 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['TPM1', 'DST', 'ANXA1', 'FLNA', 'PDGFB', 'EPPK1', 'IL1A', 'PLAUR', 'SDC4', 'VEGFA', 'FN1', 'FAP', 'SERPINE2', 'PHLDB2', 'GAS6', 'RREB1', 'ITGA2', 'ENTPD2', 'PLSCR1', 'CSRP1', 'GRHL3', 'TIMP1', 'CYR61', 'CLDN4', 'ITGAV', 'F3', 'CLDN1', 'SERPINE1']</t>
+          <t>['SERPINE2', 'IL1A', 'ITGA2', 'PHLDB2', 'CYR61', 'DST', 'GRHL3', 'FLNA', 'SERPINE1', 'CLDN1', 'ANXA1', 'RREB1', 'CSRP1', 'TIMP1', 'SDC4', 'PDGFB', 'F3', 'PLAUR', 'VEGFA', 'TPM1', 'PLSCR1', 'GAS6', 'ITGAV', 'ENTPD2', 'CLDN4', 'FN1', 'FAP', 'EPPK1']</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[['ISS'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'NAS'], ['IDA'], ['IMP', 'IBA'], ['IEA'], ['TAS', 'NAS'], ['IEA'], ['IMP'], ['IEA'], ['IC'], ['IDA', 'ISS', 'IC', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['TAS'], ['IEA'], ['NAS'], ['HMP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['NAS'], ['IDA', 'IC', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC']]</t>
+          <t>[['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['TAS'], ['IMP'], ['IDA'], ['IBA'], ['IEA'], ['IDA', 'HMP', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['HMP'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IC', 'IEA'], ['TAS', 'NAS'], ['IMP'], ['ISS'], ['NAS'], ['IEA'], ['NAS'], ['IEA'], ['IMP'], ['IEA'], ['IC'], ['IMP', 'IBA']]</t>
         </is>
       </c>
     </row>
@@ -12357,12 +12357,12 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['TPM1', 'NMU', 'TNNI2', 'LAMC2', 'TNFSF14', 'REL', 'CCL20', 'PARP14', 'ELF3', 'ZDHHC8', 'ZDHHC17', 'VPS13C', 'IVNS1ABP', 'KRT17', 'NNMT', 'RFX7', 'KRT5', 'AKR1C2', 'TUBA1A', 'COL4A2', 'PXDN', 'DNAJC15', 'ANXA3', 'HMGN5', 'PCGF3', 'TACSTD2', 'KCNIP3', 'KLF6', 'ATF3', 'S100A11', 'DST', 'KANK4', 'SMIM22', 'PIM3', 'LIF', 'PIEZO1', 'ILKAP', 'ANXA1', 'IGFBP7', 'STK25', 'SLC39A8', 'ID3', 'PTPRE', 'ADGRG1', 'SOX4', 'MXD3', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'SNF8', 'INPPL1', 'CDKN1C', 'PDGFB', 'WRN', 'SLC44A2', 'GDF15', 'RBM39', 'TSC22D3', 'EPPK1', 'PTGES', 'SCD', 'ROGDI', 'IL1A', 'LSR', 'DMAP1', 'CCDC80', 'FBXO4', 'GADD45B', 'MYC', 'FOXC1', 'SNX14', 'LDLR', 'TIA1', 'SH3BP2', 'TFRC', 'PWWP2B', 'CCND1', 'CKAP2', 'DKK1', 'SGK1', 'FOSB', 'MOB1B', 'PLAUR', 'MAGED1', 'ZNF268', 'MMP7', 'IGFBP6', 'MALAT1', 'TNFSF10', 'N4BP2L2', 'XIST', 'ALOX15B', 'KPNA2', 'SDC4', 'ATP1B1', 'ATP2B1', 'ADIRF', 'PTPRM', 'CYP1B1', 'VMP1', 'GTF2IRD1', 'PLXNB1', 'VEGFA', 'SPIRE1', 'ERRFI1', 'MUC1', 'FN1', 'GPAM', 'FAP', 'KDM4B', 'SORT1', 'KRT16', 'PDK4', 'MACC1', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'BIRC3', 'GJA5', 'CD24', 'TRIM47', 'SCEL', 'CALML5', 'ALDH1A3', 'CSTA', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'NISCH', 'TXNIP', 'CRB3', 'SAMD4A', 'NR4A1', 'C1orf56', 'IL1B', 'DCN', 'RBCK1', 'KMT2E', 'SLC26A6', 'HNRNPH3', 'ENTPD2', 'PLSCR1', 'MFI2', 'ASPM', 'GSN', 'SOX6', 'EEF1A1', 'BCL2L11', 'ACSL1', 'FNIP1', 'GRHL3', 'TGFBI', 'CREG1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'CFL2', 'S100A8', 'IFI27', 'BAMBI', 'CCNL2', 'UQCC2', 'CXCL16', 'CLU', 'ITGB8', 'LMBR1L', 'KRT8', 'FOS', 'TNC', 'DPH3', 'RHOV', 'SOD2', 'NSUN5', 'RARRES1', 'CCL28', 'HELZ', 'S100A9', 'TNK2', 'MAP3K6', 'PSCA', 'RAB11FIP1', 'HES1', 'BCL3', 'ITGB1BP1', 'KLHL24', 'RGS2', 'TUBB', 'SORBS3', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'NFYB', 'CLDN4', 'ITGAV', 'CXCL8', 'ANKRD13D', 'ADD3', 'F3', 'APCDD1', 'GLUL', 'DSC2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'DUSP6', 'HES2', 'ADGRF1', 'IFITM2', 'S100A6', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'MAP9', 'VIM', 'FTH1', 'RASSF7', 'CLDN1', 'PNPLA2', 'TRIM38', 'ID1', 'LYAR', 'PHLDA2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'SERPINA3', 'SMC4', 'GPRC5A', 'BAZ2B', 'ZBED2', 'SERPINE1', 'LRP1', 'GPR180', 'RDH10', 'EHF', 'CXCL1', 'S100A4', 'LETMD1', 'CENPF', 'FGFR3', 'TMSB4X', 'BIN1', 'TET2', 'WSB1', 'MME']</t>
+          <t>['LYAR', 'GPRC5A', 'NNMT', 'LAMA3', 'ATP1B1', 'SORT1', 'CXCL8', 'MXD3', 'CCDC80', 'ADD3', 'PDK4', 'BAMBI', 'CRABP2', 'SERPINE2', 'BCL3', 'KPNA2', 'SLC39A8', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'SAMD4A', 'GDF15', 'CXCL16', 'GJA5', 'HELZ', 'RASSF7', 'SMC4', 'CLDN7', 'IL1B', 'KDM4B', 'SCD', 'DUSP6', 'CYR61', 'SORBS3', 'GPR180', 'MMP7', 'MOB1B', 'PXDN', 'STK25', 'DLK2', 'SGK1', 'TGFBI', 'FGFR3', 'ANKRD13D', 'DST', 'GRHL3', 'TRIM38', 'SCEL', 'FLNA', 'COL4A2', 'TNK2', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'LIF', 'RBCK1', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'NISCH', 'CLDN1', 'CKAP2', 'PTGES', 'CYP1B1', 'ANXA1', 'FNIP1', 'RREB1', 'TUBB', 'GSN', 'VPS13C', 'ANXA3', 'LSR', 'SH3BP2', 'DMAP1', 'SMIM22', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'SDC4', 'DSC2', 'MUC1', 'PDGFB', 'ITGB8', 'PWWP2B', 'HES1', 'CENPF', 'NFYB', 'PSCA', 'INPPL1', 'TNNI2', 'ATP2B1', 'FBXO4', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'IFITM2', 'CLIC3', 'ZBED2', 'CREG1', 'LRP1', 'KCNIP3', 'RFX7', 'PTPRE', 'PIM3', 'SNX14', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'MAP9', 'S100A8', 'CCL20', 'TXNIP', 'TNC', 'RAB11FIP1', 'NSUN5', 'VMP1', 'SLC44A2', 'REL', 'BCL2L11', 'FOSB', 'IGFBP7', 'ZNF268', 'ATF3', 'LGALS1', 'WRN', 'WSB1', 'MME', 'PARP14', 'S100A11', 'NPNT', 'ANGPTL4', 'HNRNPH3', 'CDKN1C', 'KRT5', 'UQCC2', 'BAZ2B', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'CFL2', 'PLAUR', 'CCL28', 'VEGFA', 'LMBR1L', 'HMGN5', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'CCNL2', 'CRB3', 'DKK1', 'ELF3', 'GADD45B', 'CXCL1', 'DPH3', 'IGFBP6', 'ERRFI1', 'KLK5', 'AKR1C3', 'RGS2', 'SOX4', 'PLSCR1', 'TRIM47', 'MYC', 'ID1', 'IVNS1ABP', 'GAS6', 'MALAT1', 'ITGAV', 'LETMD1', 'ROGDI', 'FTH1', 'ALOX15B', 'PLXNB1', 'ADGRF1', 'KMT2E', 'C1orf56', 'XIST', 'ASPM', 'ENTPD2', 'KLF6', 'TET2', 'HES2', 'CSTA', 'EGR1', 'DNAJC15', 'MAP3K6', 'ALDH1A3', 'CLDN4', 'FOS', 'TIA1', 'TUBA1A', 'RARRES1', 'LOX', 'IFI27', 'LDLR', 'S100A4', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MACC1', 'APCDD1', 'N4BP2L2', 'ILKAP', 'VIM', 'KRT16', 'EEF1A1', 'RHOV', 'CNTNAP2', 'SLC26A6', 'ADIRF', 'TSC22D3', 'BIN1', 'CLU', 'AKR1C2', 'FBXW5', 'PIEZO1', 'SOX6', 'FN1', 'GBP1', 'S100A9', 'GPAM', 'RBM39', 'FAP', 'EPPK1', 'CCND1', 'CALML5', 'TMEM132A', 'TFRC', 'RDH10', 'GTF2IRD1', 'SERPINA3', 'CDK5RAP3', 'TNFSF14', 'ID3', 'SNF8', 'KLHL24', 'PCGF3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[['IMP', 'ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IC', 'IEA'], ['IDA', 'HMP', 'ISS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['HMP'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['NAS', 'IEA'], ['ISS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IGI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IEA'], ['IMP'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['TAS', 'NAS'], ['TAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IDA', 'ISS', 'ISO', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IGI', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA'], ['ISS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IC', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IGI', 'IBA', 'IEA'], ['NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'TAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['HMP'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IGI', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IBA'], ['ISS', 'IEA'], ['IDA', 'HMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP', 'IGI', 'IBA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['NAS'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -12423,12 +12423,12 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'ELF3', 'ZDHHC8', 'MAL2', 'ZDHHC17', 'HSD17B2', 'KRT17', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'MFAP5', 'LIF', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'PDGFB', 'ROGDI', 'IL1A', 'LSR', 'MYC', 'FOXC1', 'LDLR', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'MAGED1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'SDC4', 'SAT1', 'ATP2B1', 'PTPRM', 'CYP1B1', 'VMP1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'FAP', 'KDM4B', 'SERPINE2', 'UNC5B', 'NPNT', 'PHLDB2', 'LGALS1', 'GAS6', 'RUFY3', 'GJA5', 'CD24', 'TRIM47', 'SCEL', 'ALDH1A3', 'COL7A1', 'TACC2', 'C3', 'ITGA2', 'NR4A1', 'IL1B', 'DCN', 'ASPM', 'GSN', 'SOX6', 'BCL2L11', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'HS2ST1', 'CLU', 'ITGB8', 'KRT8', 'FOS', 'TNC', 'SOD2', 'NSUN5', 'S100A9', 'SLC26A2', 'HES1', 'BCL3', 'ITGB1BP1', 'TNFAIP2', 'RGS2', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'ANKRD11', 'ITGAV', 'CXCL8', 'F3', 'APCDD1', 'GLUL', 'TRAK1', 'DUSP6', 'HES2', 'ADGRF1', 'S100A6', 'CLIC3', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'ID1', 'PHLDA2', 'LAMA3', 'COL4A1', 'ANGPTL4', 'ZBED2', 'SLC4A7', 'SERPINE1', 'LRP1', 'RDH10', 'CXCL1', 'CENPF', 'FGFR3', 'BIN1', 'MME']</t>
+          <t>['LAMA3', 'ANKRD11', 'CXCL8', 'CRABP2', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'PHLDB2', 'GJA5', 'MAL2', 'IL1B', 'MMP24', 'KDM4B', 'DUSP6', 'CYR61', 'PXDN', 'STK25', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'GRHL3', 'SCEL', 'FLNA', 'COL4A2', 'CD24', 'GLUL', 'LIF', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'CLDN1', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'GSN', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'INPPL1', 'ATP2B1', 'DLG5', 'STMN1', 'CLIC3', 'ZBED2', 'LRP1', 'PHLDA2', 'PTPRM', 'ITGB1BP1', 'HSD17B2', 'S100A8', 'TNC', 'NSUN5', 'VMP1', 'BCL2L11', 'IGFBP7', 'LGALS1', 'MFAP5', 'MME', 'NPNT', 'ANGPTL4', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'ELF3', 'CXCL1', 'ERRFI1', 'AKR1C3', 'RGS2', 'SOX4', 'TRIM47', 'MYC', 'ID1', 'GAS6', 'ITGAV', 'ROGDI', 'ALOX15B', 'PLXNB1', 'CKB', 'ADGRF1', 'ASPM', 'HES2', 'EGR1', 'SAT1', 'ALDH1A3', 'FOS', 'TUBA1A', 'LOX', 'LDLR', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'APCDD1', 'N4BP2L2', 'VIM', 'CNTNAP2', 'BIN1', 'SLC26A2', 'CLU', 'SOX6', 'FN1', 'S100A9', 'COL7A1', 'FAP', 'CCND1', 'TACC2', 'TFRC', 'RDH10', 'HS2ST1', 'CDK5RAP3', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['HEP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IBA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IDA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'TAS'], ['IEA'], ['IEA'], ['ISO', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['NAS'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['IEA'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['TAS'], ['IMP'], ['ISS', 'TAS'], ['IMP'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IEP', 'IEA'], ['IMP'], ['IDA', 'IEP', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IGI'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['ISS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IBA'], ['IGI', 'IEP', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'ISS'], ['TAS'], ['IDA', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IMP'], ['NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HEP'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['ISS'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IEP'], ['IEA'], ['IEA'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -12489,12 +12489,12 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['ZDHHC17', 'IVNS1ABP', 'HMGN5', 'ATF3', 'PIM3', 'ANXA1', 'ID3', 'SOX4', 'FLNA', 'TSC22D3', 'IL1A', 'DMAP1', 'GADD45B', 'MYC', 'FOXC1', 'TIA1', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'PLAUR', 'MAGED1', 'ZNF268', 'TNFSF10', 'CYP1B1', 'VEGFA', 'MUC1', 'GPAM', 'FAP', 'PDK4', 'UNC5B', 'LGALS1', 'GAS6', 'BIRC3', 'ALDH1A3', 'TXNIP', 'NR4A1', 'IL1B', 'RBCK1', 'GSN', 'BCL2L11', 'FNIP1', 'TIMP1', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'CCNL2', 'CLU', 'SOD2', 'S100A9', 'BCL3', 'EGR1', 'ITGAV', 'CLDN7', 'DUSP6', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'PHLDA2', 'ANGPTL4', 'SERPINE1', 'BIN1']</t>
+          <t>['PDK4', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'CLDN7', 'IL1B', 'DUSP6', 'CYR61', 'SGK1', 'FLNA', 'RBCK1', 'SERPINE1', 'UNC5B', 'CYP1B1', 'ANXA1', 'FNIP1', 'GSN', 'DMAP1', 'SOD2', 'TIMP1', 'MUC1', 'DLG5', 'BIRC3', 'PIM3', 'PHLDA2', 'S100A8', 'TXNIP', 'BCL2L11', 'ZNF268', 'ATF3', 'LGALS1', 'ANGPTL4', 'ZDHHC17', 'PLAUR', 'VEGFA', 'HMGN5', 'PTGS2', 'MAGED1', 'CCNL2', 'DKK1', 'GADD45B', 'AKR1C3', 'SOX4', 'MYC', 'IVNS1ABP', 'GAS6', 'ITGAV', 'FTH1', 'EGR1', 'ALDH1A3', 'TIA1', 'LOX', 'TSC22D3', 'BIN1', 'CLU', 'S100A9', 'GPAM', 'FAP', 'CCND1', 'TFRC', 'ID3']</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['TAS'], ['NAS'], ['IDA'], ['IDA', 'ISS'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IMP'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP']]</t>
+          <t>[['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IBA'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['NAS'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA', 'ISS'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -12555,12 +12555,12 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['TPM1', 'SLC2A1', 'ZDHHC8', 'MAL2', 'ZDHHC17', 'TUBA1A', 'MMP24', 'COL4A2', 'PXDN', 'ANXA3', 'TACSTD2', 'MFAP5', 'LIF', 'CKB', 'ANXA1', 'IGFBP7', 'STK25', 'ID3', 'ADGRG1', 'SOX4', 'FLNA', 'CNTNAP2', 'CDK5RAP3', 'INPPL1', 'PDGFB', 'ROGDI', 'IL1A', 'LSR', 'MYC', 'FOXC1', 'LDLR', 'TFRC', 'CCND1', 'DKK1', 'SGK1', 'MAGED1', 'TNFSF10', 'ALOX15B', 'SDC4', 'SAT1', 'PTPRM', 'CYP1B1', 'PLXNB1', 'VEGFA', 'ERRFI1', 'FN1', 'FAP', 'KDM4B', 'SERPINE2', 'UNC5B', 'NPNT', 'GAS6', 'RUFY3', 'GJA5', 'CD24', 'TRIM47', 'ALDH1A3', 'TACC2', 'C3', 'ITGA2', 'NR4A1', 'IL1B', 'DCN', 'ASPM', 'GSN', 'SOX6', 'BCL2L11', 'GRHL3', 'TGFBI', 'TIMP1', 'GAA', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'HS2ST1', 'CLU', 'ITGB8', 'FOS', 'TNC', 'SOD2', 'NSUN5', 'S100A9', 'SLC26A2', 'HES1', 'BCL3', 'ITGB1BP1', 'TNFAIP2', 'RGS2', 'EGR1', 'STMN1', 'SUN2', 'CRABP2', 'ANKRD11', 'ITGAV', 'CXCL8', 'F3', 'APCDD1', 'GLUL', 'TRAK1', 'DUSP6', 'HES2', 'ADGRF1', 'S100A6', 'CLIC3', 'DLG5', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'ID1', 'COL4A1', 'ANGPTL4', 'SLC4A7', 'SERPINE1', 'LRP1', 'RDH10', 'CXCL1', 'CENPF', 'FGFR3', 'BIN1', 'MME']</t>
+          <t>['ANKRD11', 'CXCL8', 'CRABP2', 'SERPINE2', 'BCL3', 'FOXC1', 'IL1A', 'TNFSF10', 'C3', 'NR4A1', 'ITGA2', 'GJA5', 'MAL2', 'IL1B', 'MMP24', 'KDM4B', 'DUSP6', 'CYR61', 'PXDN', 'STK25', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'GRHL3', 'FLNA', 'COL4A2', 'CD24', 'GLUL', 'LIF', 'SERPINE1', 'ADGRG1', 'ZDHHC8', 'UNC5B', 'CLDN1', 'CYP1B1', 'ANXA1', 'TNFAIP2', 'GSN', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'SDC4', 'GAA', 'PDGFB', 'ITGB8', 'HES1', 'CENPF', 'INPPL1', 'DLG5', 'STMN1', 'CLIC3', 'LRP1', 'PTPRM', 'ITGB1BP1', 'S100A8', 'TNC', 'NSUN5', 'BCL2L11', 'IGFBP7', 'MFAP5', 'MME', 'NPNT', 'ANGPTL4', 'RUFY3', 'SUN2', 'ZDHHC17', 'F3', 'VEGFA', 'PTGS2', 'TACSTD2', 'MAGED1', 'TPM1', 'DKK1', 'CXCL1', 'ERRFI1', 'AKR1C3', 'RGS2', 'SOX4', 'TRIM47', 'MYC', 'ID1', 'GAS6', 'ITGAV', 'ROGDI', 'ALOX15B', 'PLXNB1', 'CKB', 'ADGRF1', 'ASPM', 'HES2', 'EGR1', 'SAT1', 'ALDH1A3', 'FOS', 'TUBA1A', 'LOX', 'LDLR', 'TRAK1', 'S100A6', 'APCDD1', 'VIM', 'CNTNAP2', 'BIN1', 'SLC26A2', 'CLU', 'SOX6', 'FN1', 'S100A9', 'FAP', 'CCND1', 'TACC2', 'TFRC', 'RDH10', 'HS2ST1', 'CDK5RAP3', 'ID3', 'SLC4A7', 'COL4A1']</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IMP', 'IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['HEP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IEP'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'TAS'], ['IEA'], ['ISO', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'TAS'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['NAS'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS'], ['IEA'], ['TAS'], ['IMP'], ['ISS', 'TAS'], ['IMP'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IMP'], ['IDA', 'IEP', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS'], ['IMP', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IEA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['IGI', 'IEP', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['TAS'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IMP'], ['NAS'], ['ISS', 'IBA', 'IEA'], ['HEP'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['ISS'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IEA'], ['IEA'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -12722,12 +12722,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'KRT6B', 'MAL2', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'CKB', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'LSR', 'IL1RN', 'PLCD1', 'STX3', 'SYNE2', 'SQSTM1', 'MMP7', 'TNFSF10', 'TUBB4B', 'LAD1', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'ADIRF', 'TGM2', 'MUC1', 'FTL', 'SLPI', 'FN1', 'KRT16', 'LAMB2', 'LGALS1', 'CDK1', 'ALDH1A3', 'C3', 'RREB1', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'AKR1C3', 'S100A8', 'KRT8', 'ITGB5', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TUBB', 'TGM1', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'LGALS3', 'ACTB', 'GLUL', 'MMP9', 'ECH1', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CFB', 'KRT10', 'SAT2', 'LAMA3', 'TMEM132A', 'IVL', 'SERPINA3', 'GPRC5A', 'SERPINE1', 'RAP2B', 'SH3BGRL3', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'RAP2B', 'ATP1B1', 'CRABP2', 'STX3', 'TNFSF10', 'C3', 'MAL2', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'RREB1', 'TUBB', 'SAT2', 'GSN', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'ECH1', 'TIMP1', 'LAD1', 'MUC1', 'PSCA', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'TUBB3', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'PLCD1', 'MME', 'S100A11', 'KRT5', 'FTL', 'SELENBP1', 'CCL28', 'C1orf116', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'LAMB2', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'LGALS3', 'CKB', 'TUBB4B', 'FXYD3', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'SLC26A2', 'FN1', 'CDH1', 'SYNE2', 'TMEM132A', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -12788,12 +12788,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'LAMC2', 'CCL20', 'KRT6B', 'MAL2', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'NOTCH1', 'MFAP5', 'SLC46A3', 'CTSV', 'CKB', 'IGFBP7', 'STK25', 'KLK7', 'ADGRG1', 'FLNA', 'TSPAN1', 'SLC44A2', 'C1R', 'TUBA4A', 'LSR', 'IL1RN', 'CCDC80', 'PLCD1', 'MSLN', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'SQSTM1', 'ISG15', 'DKK1', 'PLAUR', 'MMP7', 'IGFBP6', 'VNN1', 'TNFSF10', 'TUBB4B', 'LAD1', 'N4BP2L2', 'ALOX15B', 'DMKN', 'ATP1B1', 'SPINK6', 'AMTN', 'ADIRF', 'TGM2', 'PLXNB1', 'KLK10', 'MUC1', 'FTL', 'SLPI', 'FN1', 'FAP', 'KRT16', 'ST6GAL1', 'LAMB2', 'LGALS1', 'CDK1', 'CHI3L2', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'EPHB2', 'C1orf56', 'IL1B', 'DCN', 'SLC3A2', 'TPM4', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'ST14', 'CYR61', 'AKR1C3', 'S100A8', 'CXCL16', 'ALDH3A1', 'KRT8', 'LRIG3', 'ITGB5', 'KRT14', 'TNC', 'SOD2', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SERPINB2', 'KRT81', 'SAA1', 'HMGB2', 'C1orf116', 'EPCAM', 'TUBB', 'TGM1', 'MDK', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'F3', 'GLUL', 'DMXL2', 'GBP1', 'MMP9', 'ECH1', 'IGFBP3', 'S100A6', 'CLIC3', 'PDZK1IP1', 'EPGN', 'TUFT1', 'LOX', 'VIM', 'FTH1', 'CFB', 'MTHFD2', 'KRT10', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'IVL', 'SERPINA3', 'GPRC5A', 'SERPINE1', 'RAP2B', 'SH3BGRL3', 'FGFR3', 'FXYD3', 'TMSB4X', 'MME']</t>
+          <t>['GPRC5A', 'ST6GAL1', 'LAMA3', 'AMTN', 'RAP2B', 'ATP1B1', 'CCDC80', 'CRABP2', 'COL1A1', 'STX3', 'TNFSF10', 'C3', 'CXCL16', 'MAL2', 'IL1B', 'SLPI', 'CYR61', 'KLK7', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'SPINK6', 'ITGB5', 'TGFBI', 'FGFR3', 'COL4A2', 'FLNA', 'LAMC2', 'GLUL', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'TGM1', 'VSTM2L', 'EVPL', 'RREB1', 'TUBB', 'ST14', 'SAT2', 'GSN', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'LAD1', 'MDK', 'MUC1', 'LAMB3', 'PSCA', 'NMU', 'STMN1', 'ISG15', 'SAA2', 'CLIC3', 'VNN1', 'CREG1', 'TUBB3', 'KRT15', 'CHI3L2', 'IGFBP3', 'MTHFD2', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'TNC', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'SLC44A2', 'IGFBP7', 'TPM4', 'CTSV', 'LGALS1', 'EPHB2', 'PLCD1', 'MFAP5', 'MME', 'S100A11', 'LRIG3', 'ANGPTL4', 'KRT5', 'EPGN', 'NOTCH1', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'CCL28', 'C1orf116', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'DKK1', 'TSPAN1', 'IGFBP6', 'KLK5', 'AKR1C3', 'LAMB2', 'DMXL2', 'KRT81', 'SERPINB2', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'CKB', 'TUBB4B', 'MSLN', 'C1orf56', 'KLK10', 'FXYD3', 'CSTA', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'TMSB4X', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'HMGB2', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'EDN1', 'DMKN', 'FN1', 'GBP1', 'CDH1', 'TUFT1', 'FAP', 'CALML5', 'SYNE2', 'TMEM132A', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['HDA'], ['IBA', 'TAS'], ['HDA', 'ISS', 'IBA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['IMP', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['HDA'], ['IEA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['IBA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['TAS'], ['HDA'], ['TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['HDA', 'ISS', 'IBA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA', 'TAS'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -12854,12 +12854,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'KRT6B', 'MAL2', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'CKB', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'LSR', 'IL1RN', 'PLCD1', 'STX3', 'SYNE2', 'SQSTM1', 'MMP7', 'TNFSF10', 'TUBB4B', 'LAD1', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'ADIRF', 'TGM2', 'MUC1', 'FTL', 'SLPI', 'FN1', 'KRT16', 'LAMB2', 'LGALS1', 'CDK1', 'ALDH1A3', 'C3', 'RREB1', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'AKR1C3', 'S100A8', 'KRT8', 'ITGB5', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TUBB', 'TGM1', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'LGALS3', 'ACTB', 'GLUL', 'MMP9', 'ECH1', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CFB', 'KRT10', 'SAT2', 'LAMA3', 'TMEM132A', 'IVL', 'SERPINA3', 'GPRC5A', 'SERPINE1', 'RAP2B', 'SH3BGRL3', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'RAP2B', 'ATP1B1', 'CRABP2', 'STX3', 'TNFSF10', 'C3', 'MAL2', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'RREB1', 'TUBB', 'SAT2', 'GSN', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'ECH1', 'TIMP1', 'LAD1', 'MUC1', 'PSCA', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'TUBB3', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'PLCD1', 'MME', 'S100A11', 'KRT5', 'FTL', 'SELENBP1', 'CCL28', 'C1orf116', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'LAMB2', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'LGALS3', 'CKB', 'TUBB4B', 'FXYD3', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'SLC26A2', 'FN1', 'CDH1', 'SYNE2', 'TMEM132A', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -12920,12 +12920,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'KRT6B', 'MAL2', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'CKB', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'LSR', 'IL1RN', 'PLCD1', 'STX3', 'SYNE2', 'SQSTM1', 'MMP7', 'TNFSF10', 'TUBB4B', 'LAD1', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'ADIRF', 'TGM2', 'MUC1', 'FTL', 'SLPI', 'FN1', 'KRT16', 'LAMB2', 'LGALS1', 'CDK1', 'ALDH1A3', 'C3', 'RREB1', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'AKR1C3', 'S100A8', 'KRT8', 'ITGB5', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TUBB', 'TGM1', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'LGALS3', 'ACTB', 'GLUL', 'MMP9', 'ECH1', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CFB', 'KRT10', 'SAT2', 'LAMA3', 'TMEM132A', 'IVL', 'SERPINA3', 'GPRC5A', 'SERPINE1', 'RAP2B', 'SH3BGRL3', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'RAP2B', 'ATP1B1', 'CRABP2', 'STX3', 'TNFSF10', 'C3', 'MAL2', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'RREB1', 'TUBB', 'SAT2', 'GSN', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'ECH1', 'TIMP1', 'LAD1', 'MUC1', 'PSCA', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'TUBB3', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'PLCD1', 'MME', 'S100A11', 'KRT5', 'FTL', 'SELENBP1', 'CCL28', 'C1orf116', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'LAMB2', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'LGALS3', 'CKB', 'TUBB4B', 'FXYD3', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'SLC26A2', 'FN1', 'CDH1', 'SYNE2', 'TMEM132A', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -12986,12 +12986,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'KRT6B', 'MAL2', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'CKB', 'IGFBP7', 'STK25', 'ADGRG1', 'FLNA', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'LSR', 'IL1RN', 'PLCD1', 'STX3', 'SYNE2', 'SQSTM1', 'MMP7', 'TNFSF10', 'TUBB4B', 'LAD1', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'ADIRF', 'TGM2', 'MUC1', 'FTL', 'SLPI', 'FN1', 'KRT16', 'LAMB2', 'LGALS1', 'CDK1', 'ALDH1A3', 'C3', 'RREB1', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'AKR1C3', 'S100A8', 'KRT8', 'ITGB5', 'KRT14', 'SOD2', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TUBB', 'TGM1', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'LGALS3', 'ACTB', 'GLUL', 'MMP9', 'ECH1', 'S100A6', 'CLIC3', 'PDZK1IP1', 'VIM', 'FTH1', 'CFB', 'KRT10', 'SAT2', 'LAMA3', 'TMEM132A', 'IVL', 'SERPINA3', 'GPRC5A', 'SERPINE1', 'RAP2B', 'SH3BGRL3', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'RAP2B', 'ATP1B1', 'CRABP2', 'STX3', 'TNFSF10', 'C3', 'MAL2', 'SLPI', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'RREB1', 'TUBB', 'SAT2', 'GSN', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'ECH1', 'TIMP1', 'LAD1', 'MUC1', 'PSCA', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'TUBB3', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'PLCD1', 'MME', 'S100A11', 'KRT5', 'FTL', 'SELENBP1', 'CCL28', 'C1orf116', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'TSPAN1', 'AKR1C3', 'LAMB2', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'LGALS3', 'CKB', 'TUBB4B', 'FXYD3', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'ADIRF', 'SLC26A2', 'FN1', 'CDH1', 'SYNE2', 'TMEM132A', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -13052,12 +13052,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'LAMC2', 'CCL20', 'KRT6B', 'MAL2', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'SLC46A3', 'CTSV', 'CKB', 'IGFBP7', 'STK25', 'KLK7', 'ADGRG1', 'FLNA', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'LSR', 'IL1RN', 'PLCD1', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'SQSTM1', 'DKK1', 'MMP7', 'IGFBP6', 'TNFSF10', 'TUBB4B', 'LAD1', 'N4BP2L2', 'ALOX15B', 'DMKN', 'ATP1B1', 'ADIRF', 'TGM2', 'MUC1', 'FTL', 'SLPI', 'FN1', 'FAP', 'KRT16', 'LAMB2', 'LGALS1', 'CDK1', 'CHI3L2', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'IL1B', 'DCN', 'SLC3A2', 'TPM4', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'ST14', 'CYR61', 'AKR1C3', 'S100A8', 'CXCL16', 'ALDH3A1', 'KRT8', 'LRIG3', 'ITGB5', 'KRT14', 'TNC', 'SOD2', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SERPINB2', 'KRT81', 'SAA1', 'HMGB2', 'C1orf116', 'EPCAM', 'TUBB', 'TGM1', 'STMN1', 'CRABP2', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'F3', 'GLUL', 'DMXL2', 'MMP9', 'ECH1', 'IGFBP3', 'S100A6', 'CLIC3', 'PDZK1IP1', 'EPGN', 'LOX', 'VIM', 'FTH1', 'CFB', 'MTHFD2', 'KRT10', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'IVL', 'SERPINA3', 'GPRC5A', 'SERPINE1', 'RAP2B', 'SH3BGRL3', 'FXYD3', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'RAP2B', 'ATP1B1', 'CRABP2', 'COL1A1', 'STX3', 'TNFSF10', 'C3', 'CXCL16', 'MAL2', 'IL1B', 'SLPI', 'CYR61', 'KLK7', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'ITGB5', 'TGFBI', 'COL4A2', 'FLNA', 'LAMC2', 'GLUL', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'RREB1', 'TUBB', 'ST14', 'SAT2', 'GSN', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'LAD1', 'MUC1', 'PSCA', 'STMN1', 'SAA2', 'CLIC3', 'CREG1', 'TUBB3', 'KRT15', 'CHI3L2', 'IGFBP3', 'MTHFD2', 'MMP9', 'S100A8', 'CCL20', 'TNC', 'SLC46A3', 'IL1RN', 'KRT14', 'EPCAM', 'SLC44A2', 'IGFBP7', 'TPM4', 'CTSV', 'LGALS1', 'PLCD1', 'MME', 'S100A11', 'LRIG3', 'ANGPTL4', 'KRT5', 'EPGN', 'FTL', 'F3', 'SELENBP1', 'CCL28', 'C1orf116', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'DKK1', 'TSPAN1', 'IGFBP6', 'KLK5', 'AKR1C3', 'LAMB2', 'DMXL2', 'KRT81', 'SERPINB2', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'LGALS3', 'CKB', 'TUBB4B', 'FXYD3', 'CSTA', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'LDLR', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'HMGB2', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'EDN1', 'DMKN', 'FN1', 'CDH1', 'FAP', 'SYNE2', 'TMEM132A', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[['HDA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['IBA'], ['HDA', 'ISS', 'IBA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['IMP'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IMP', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['HDA', 'IBA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['HDA', 'IBA', 'TAS'], ['IDA', 'HDA', 'IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IC', 'IEA'], ['HDA'], ['IBA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA'], ['HDA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IBA']]</t>
         </is>
       </c>
     </row>
@@ -13118,12 +13118,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['LAMB3', 'SLC2A1', 'LAMC2', 'THOC2', 'BCL6', 'CDH2', 'KRT6B', 'ELF3', 'MAL2', 'KRT17', 'NNMT', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'SLC38A10', 'SLC5A3', 'GYS1', 'PIEZO1', 'CKB', 'IGFBP7', 'STK25', 'KLK7', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'RRBP1', 'EPPK1', 'ABL2', 'LSR', 'IL1RN', 'PCDH9', 'ITGB6', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'MRC2', 'SQSTM1', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'VNN1', 'PSMB10', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'SPIRE1', 'ERRFI1', 'FN1', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CHD8', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'CALML5', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'SLC26A6', 'TPM4', 'GSN', 'CSRP1', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'SLC26A2', 'ITGB1BP1', 'IER3', 'KRT81', 'EMP1', 'HMGB2', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'ANKRD11', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'TAGLN', 'F3', 'GLUL', 'TRAK1', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'S100A6', 'CLIC3', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'KRT10', 'NOM1', 'ID1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'IVL', 'IRF1', 'PAK1', 'PDLIM7', 'SERPINE1', 'TACC3', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'FGFR3', 'CENPF', 'GIGYF2', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'CCNB1', 'NNMT', 'LAMA3', 'AMTN', 'ANKRD11', 'SPRR1B', 'SORT1', 'PAK1', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'PSMB10', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'GJA5', 'ACADVL', 'MAL2', 'IL1B', 'ITGA5', 'CYR61', 'KLK7', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'SLC2A12', 'ITGB5', 'TGFBI', 'PTTG1', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'EHF', 'LAMC2', 'SUCO', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PALLD', 'TGM1', 'CLDN1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'ST14', 'SLC5A3', 'GSN', 'NOM1', 'EMP1', 'CCNB2', 'CSRP1', 'ANXA3', 'LSR', 'KRT6B', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'LAMB3', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'BIRC3', 'ISG15', 'CLIC3', 'VNN1', 'TUBB3', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TXNIP', 'TNC', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'OGT', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'LGALS1', 'EPHB2', 'CARD10', 'MFAP5', 'MME', 'LRIG3', 'ANGPTL4', 'AQP3', 'KRT5', 'SUN2', 'EPGN', 'NOTCH1', 'F3', 'RRBP1', 'THOC2', 'PTGS2', 'TACSTD2', 'SLC38A10', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'MYL9', 'KRT81', 'GYS1', 'KRT10', 'ID1', 'BCL6', 'TGM2', 'IVL', 'IRX5', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'CKB', 'TTC9', 'KLF6', 'HES2', 'GIGYF2', 'CSTA', 'EGR1', 'ALDH1A3', 'FOS', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MRC2', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CNTNAP2', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'AKR1C2', 'ADIRF', 'SLC26A2', 'EDN1', 'TP53INP2', 'PIEZO1', 'FN1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'RDH10', 'EPHA2', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IEP'], ['IEP', 'TAS'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['HEP'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['HDA'], ['ISS'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['HDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IEP', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS'], ['ISS', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'NAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEP', 'IEA'], ['IMP', 'HEP', 'IBA', 'NAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IBA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['IBA', 'TAS'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['ISS', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEP'], ['IBA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP', 'NAS'], ['IEP', 'IEA'], ['TAS'], ['ISS', 'TAS'], ['IDA', 'IEP', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA'], ['HDA', 'ISO', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEP', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEP', 'TAS'], ['IBA', 'TAS'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IEP', 'ISS', 'IBA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IMP', 'NAS', 'IEA'], ['IEP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HEP'], ['IEA'], ['NAS'], ['IBA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HEP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['TAS'], ['HDA'], ['IMP', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IMP', 'ISS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IEP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['TAS'], ['ISS'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13184,12 +13184,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'THOC2', 'BCL6', 'CDH2', 'REL', 'KRT6B', 'ELF3', 'MAL2', 'KRT17', 'FBXO32', 'KRT5', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'CCNB2', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'SLC38A10', 'SLC5A3', 'GYS1', 'CKB', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'RRBP1', 'TSC22D3', 'EPPK1', 'PTGES', 'ABL2', 'LSR', 'IL1RN', 'PCDH9', 'ITGB6', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'SYNE2', 'TIA1', 'MRC2', 'SQSTM1', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PLAUR', 'VNN1', 'PSMB10', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'BIRC5', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'CAMK2N1', 'ERRFI1', 'FN1', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'CHD8', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'ALDH1A3', 'C3', 'RREB1', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'SLC26A6', 'TPM4', 'GSN', 'CSRP1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'SLC26A2', 'SERPINB2', 'ITGB1BP1', 'IER3', 'KRT81', 'SAA1', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'ANKRD11', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'GBP1', 'TRAK1', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'S100A6', 'CLIC3', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'TRIM38', 'NOM1', 'ID1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'IVL', 'SERPINA3', 'IRF1', 'PAK1', 'PDLIM7', 'SERPINE1', 'RAP2B', 'TACC3', 'SPRR1B', 'RDH10', 'ASH1L', 'TBC1D8', 'FGFR3', 'CENPF', 'GIGYF2', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'SPRR1B', 'ATP1B1', 'SORT1', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'PSMB10', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'GJA5', 'ACADVL', 'MAL2', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'SGK1', 'SLC2A12', 'ITGB5', 'TGFBI', 'FGFR3', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'SUCO', 'GLUL', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'ST14', 'SLC5A3', 'GSN', 'NOM1', 'CCNB2', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'LAMB3', 'PWWP2B', 'CENPF', 'MGLL', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'ISG15', 'CLIC3', 'VNN1', 'TUBB3', 'IRF1', 'PTPRM', 'VPS51', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TNC', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'OGT', 'REL', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'LGALS1', 'EPHB2', 'CARD10', 'AKAP11', 'MFAP5', 'MME', 'LRIG3', 'ANGPTL4', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NOTCH1', 'F3', 'PLAUR', 'RRBP1', 'THOC2', 'PTGS2', 'TACSTD2', 'SLC38A10', 'ACKR3', 'DKK1', 'ELF3', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'MYL9', 'KRT81', 'GYS1', 'SERPINB2', 'ID1', 'BCL6', 'TGM2', 'IVL', 'IRX5', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'CKB', 'TTC9', 'KLF6', 'TBC1D8', 'HES2', 'GIGYF2', 'EGR1', 'ALDH1A3', 'FOS', 'TIA1', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MRC2', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CNTNAP2', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'AKR1C2', 'SLC26A2', 'EDN1', 'TP53INP2', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'EPPK1', 'SYNE2', 'RDH10', 'EPHA2', 'SERPINA3', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IEP'], ['IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IBA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['HEP'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['HMP', 'NAS', 'IC', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['HDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA', 'TAS'], ['ISS'], ['TAS', 'NAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IC', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IBA', 'IC'], ['IEP', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['HMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'TAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEP', 'NAS'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IDA'], ['HDA', 'ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'NAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['HMP', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS'], ['HMP', 'HEP', 'IBA', 'NAS'], ['IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['IMP', 'IEP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'TAS'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['HDA'], ['ISS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS'], ['IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA'], ['IEP'], ['IEP', 'TAS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IEP', 'IEA'], ['IEA'], ['HMP', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IEA'], ['NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['HMP'], ['IDA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'NAS'], ['IBA'], ['IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IMP'], ['ISS'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['HDA', 'ISO', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IBA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IEA'], ['IEP'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IC', 'IEA'], ['TAS', 'NAS'], ['HDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP', 'NAS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['HMP', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['TAS'], ['ISS', 'TAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['ISS', 'IBA', 'IEA'], ['HEP'], ['IEA'], ['NAS'], ['TAS'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['HMP', 'HEP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['HDA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IC'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['NAS'], ['IC', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['ISS'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13250,12 +13250,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['LAMB3', 'SLC2A1', 'LAMC2', 'THOC2', 'BCL6', 'CDH2', 'KRT6B', 'ELF3', 'MAL2', 'KRT17', 'NNMT', 'KRT5', 'KRT15', 'AKR1C2', 'AQP3', 'TUBA1A', 'CCNB2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'SLC38A10', 'SLC5A3', 'GYS1', 'PIEZO1', 'CKB', 'IGFBP7', 'STK25', 'KLK7', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'EPPK1', 'ABL2', 'LSR', 'IL1RN', 'PCDH9', 'ITGB6', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'VNN1', 'PSMB10', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'SPIRE1', 'ERRFI1', 'FN1', 'FAP', 'SORT1', 'KRT16', 'CHD8', 'CLMN', 'LAMB2', 'UNC5B', 'LGALS1', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'CALML5', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'SLC26A6', 'TPM4', 'GSN', 'CSRP1', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'SLC26A2', 'ITGB1BP1', 'IER3', 'KRT81', 'EMP1', 'HMGB2', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'ANKRD11', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'TAGLN', 'F3', 'GLUL', 'TRAK1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'VPS51', 'HES2', 'S100A6', 'CLIC3', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'KRT10', 'NOM1', 'ID1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'IVL', 'IRF1', 'PAK1', 'PDLIM7', 'SERPINE1', 'TACC3', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'FGFR3', 'CENPF', 'GIGYF2', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'CCNB1', 'NNMT', 'LAMA3', 'AMTN', 'ANKRD11', 'SPRR1B', 'SORT1', 'PAK1', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'PSMB10', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'GJA5', 'ACADVL', 'MAL2', 'IL1B', 'ITGA5', 'CYR61', 'KLK7', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'SGK1', 'SLC2A12', 'ITGB5', 'TGFBI', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'UNC5B', 'PALLD', 'TGM1', 'CLDN1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'ST14', 'SLC5A3', 'GSN', 'NOM1', 'EMP1', 'CCNB2', 'CSRP1', 'ANXA3', 'LSR', 'KRT6B', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'LAMB3', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'ISG15', 'CLIC3', 'VNN1', 'TUBB3', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TXNIP', 'TNC', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'OGT', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'LGALS1', 'EPHB2', 'CARD10', 'MFAP5', 'MME', 'LRIG3', 'ANGPTL4', 'AQP3', 'KRT5', 'SUN2', 'EPGN', 'NOTCH1', 'F3', 'THOC2', 'PTGS2', 'TACSTD2', 'SLC38A10', 'ACKR3', 'DKK1', 'ELF3', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'MYL9', 'KRT81', 'GYS1', 'KRT10', 'ID1', 'BCL6', 'TGM2', 'IVL', 'IRX5', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'CKB', 'TTC9', 'KLF6', 'HES2', 'GIGYF2', 'CSTA', 'EGR1', 'ALDH1A3', 'FOS', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CNTNAP2', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'AKR1C2', 'SLC26A2', 'EDN1', 'PIEZO1', 'FN1', 'CDH1', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'RDH10', 'EPHA2', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IEP'], ['IEP', 'TAS'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['HEP'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['ISS'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA', 'TAS'], ['IEP', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'NAS'], ['IBA', 'TAS', 'IEA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IBA'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEP'], ['IMP', 'HEP', 'IBA', 'NAS'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IBA'], ['NAS'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['TAS'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['ISS', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IBA'], ['IEA'], ['IEA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEP'], ['IBA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP', 'NAS'], ['IEP', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IEP', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA'], ['ISO', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEP', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEP', 'TAS'], ['IBA', 'TAS'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IEP', 'ISS', 'IBA'], ['TAS'], ['IMP', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IEP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HEP'], ['IEA'], ['NAS'], ['IBA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HEP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['TAS'], ['IMP', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IMP', 'ISS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['TAS'], ['ISS'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'CDH2', 'KRT6B', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'AQP3', 'COL4A2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'KLK7', 'SOX4', 'FLNA', 'EPPK1', 'LSR', 'ITGB6', 'ZNF703', 'EDN1', 'CCND1', 'ISG15', 'DKK1', 'MDM4', 'ALOX15B', 'AMTN', 'TGM2', 'CYP1B1', 'PALLD', 'ERRFI1', 'FN1', 'KRT16', 'LAMB2', 'CDK1', 'GJA5', 'CD24', 'CALML5', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'EVPL', 'NR4A1', 'IL1B', 'CSRP1', 'LZTS2', 'BAD', 'IRX3', 'TGFBI', 'TIMP1', 'ST14', 'LBH', 'CYR61', 'AKR1C3', 'PTGS2', 'BAMBI', 'ACADVL', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SLC26A2', 'ITGB1BP1', 'KRT81', 'EMP1', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'STMN1', 'CRABP2', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'TAGLN', 'EPHA2', 'TFAP2A', 'MMP9', 'DLG5', 'TUFT1', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'KRT10', 'NOM1', 'LAMA3', 'COL4A1', 'IVL', 'PAK1', 'SERPINE1', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'FGFR3', 'CENPF']</t>
+          <t>['LAMA3', 'AMTN', 'SPRR1B', 'PAK1', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'GJA5', 'ACADVL', 'IL1B', 'ITGA5', 'CYR61', 'KLK7', 'CDKN1A', 'SEMA3C', 'LZTS2', 'ITGB5', 'TGFBI', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'EHF', 'LAMC2', 'SERPINE1', 'IRX3', 'PALLD', 'TGM1', 'CLDN1', 'CDH2', 'CYP1B1', 'EVPL', 'RREB1', 'TUBB', 'ST14', 'NOM1', 'EMP1', 'CSRP1', 'LSR', 'KRT6B', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'LAMB3', 'CENPF', 'DLG5', 'STMN1', 'ISG15', 'TUBB3', 'KRT15', 'TAGLN', 'ITGB1BP1', 'MMP9', 'TXNIP', 'TNC', 'KRT14', 'EPCAM', 'FERMT2', 'ATF3', 'AQP3', 'KRT5', 'NOTCH1', 'PTGS2', 'TACSTD2', 'DKK1', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'KRT81', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'CSTA', 'EGR1', 'ALDH1A3', 'FOS', 'LOX', 'ACTB', 'KRT17', 'VIM', 'KRT16', 'AKR1C2', 'SLC26A2', 'EDN1', 'FN1', 'TUFT1', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'RDH10', 'EPHA2', 'ASH1L', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[['IEP', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS'], ['IBA', 'TAS'], ['IEP'], ['TAS'], ['IEP'], ['IMP', 'IEP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'NAS'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IEP', 'NAS'], ['IBA', 'TAS', 'IEA'], ['ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['TAS'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IEP'], ['IMP'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS'], ['IEP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['IEP', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['ISS', 'TAS'], ['ISS', 'IEA']]</t>
+          <t>[['IEP', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IMP'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS'], ['IEP', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA'], ['IMP', 'IEP', 'NAS'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'NAS'], ['IEA'], ['ISS', 'TAS'], ['IEP'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['IDA'], ['IEA'], ['IEP', 'ISS', 'IEA'], ['IDA'], ['ISO', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['TAS'], ['IBA', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IMP', 'NAS'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IEP'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['TAS'], ['ISS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13382,12 +13382,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'KRT6B', 'MAL2', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'TACSTD2', 'TUBB3', 'S100A11', 'NOTCH1', 'DST', 'SLC46A3', 'CKB', 'IGFBP7', 'STK25', 'KLK7', 'ADGRG1', 'FLNA', 'CNTNAP2', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'LSR', 'IL1RN', 'PLCD1', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'SQSTM1', 'DKK1', 'PLAUR', 'MMP7', 'VNN1', 'TNFSF10', 'TUBB4B', 'LAD1', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'ADIRF', 'TGM2', 'SPIRE1', 'KLK10', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'SORT1', 'KRT16', 'LAMB2', 'TP53INP2', 'LGALS1', 'SYT8', 'CDK1', 'CALML5', 'ALDH1A3', 'C3', 'RREB1', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'IL1B', 'SLC26A6', 'SLC3A2', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'LZTS2', 'TGFBI', 'SELENBP1', 'TIMP1', 'CREG1', 'SPHK1', 'AKR1C3', 'S100A8', 'KRT8', 'LRIG3', 'ITGB5', 'KRT14', 'RHOV', 'SOD2', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SAA1', 'C1orf116', 'EPCAM', 'TUBB', 'TGM1', 'STMN1', 'CRABP2', 'SUN2', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'MMP9', 'ECH1', 'VPS51', 'IFITM2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'EPGN', 'VIM', 'FTH1', 'CFB', 'KRT10', 'SAT2', 'LAMA3', 'TMEM132A', 'IVL', 'SERPINA3', 'GPRC5A', 'SERPINE1', 'RAP2B', 'RAB24', 'SH3BGRL3', 'FGFR3', 'FXYD3', 'TMSB4X', 'GIGYF2', 'ATP13A4', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'RAP2B', 'ATP1B1', 'SORT1', 'CRABP2', 'COL1A1', 'STX3', 'TNFSF10', 'C3', 'MAL2', 'IL1B', 'ITGA5', 'SLPI', 'KLK7', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'ITGB5', 'TGFBI', 'FGFR3', 'DST', 'COL4A2', 'FLNA', 'GLUL', 'SPIRE1', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'TGM1', 'EVPL', 'RREB1', 'TUBB', 'SAT2', 'GSN', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SOD2', 'MFI2', 'ECH1', 'TIMP1', 'LAD1', 'MUC1', 'PSCA', 'TUBA1C', 'STMN1', 'IFITM2', 'SAA2', 'CLIC3', 'VNN1', 'CREG1', 'TUBB3', 'VPS51', 'KRT15', 'MMP9', 'S100A8', 'SLC46A3', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'SLC44A2', 'IGFBP7', 'TPM4', 'LGALS1', 'PLCD1', 'MME', 'S100A11', 'LRIG3', 'KRT5', 'SUN2', 'EPGN', 'NOTCH1', 'FTL', 'PLAUR', 'SELENBP1', 'CCL28', 'NEURL1B', 'ATP13A4', 'C1orf116', 'TACSTD2', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'TSPAN1', 'KLK5', 'AKR1C3', 'LAMB2', 'DMXL2', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'ITGAV', 'SH3BGRL3', 'FTH1', 'ALOX15B', 'LGALS3', 'CKB', 'TUBB4B', 'KLK10', 'GIGYF2', 'FXYD3', 'SYT8', 'SLC3A2', 'ALDH1A3', 'TUBA1A', 'RARRES1', 'ACTB', 'LDLR', 'TMSB4X', 'TRAK1', 'KRT8', 'S100A6', 'N4BP2L2', 'VIM', 'KRT16', 'EEF1A1', 'CNTNAP2', 'RHOV', 'SLC26A6', 'RAB24', 'ADIRF', 'SLC26A2', 'EDN1', 'TP53INP2', 'FN1', 'GBP1', 'CDH1', 'CALML5', 'SYNE2', 'TMEM132A', 'SERPINA3', 'COPE']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[['HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['TAS'], ['TAS'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HDA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IBA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['IEA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['IEA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'IEA'], ['IEA'], ['IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['HDA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'HDA'], ['IDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['TAS'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13448,12 +13448,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'CDH2', 'AKR1C2', 'PLAU', 'HMGN5', 'TACSTD2', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'IGFBP7', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'EPPK1', 'PTGES', 'TP53I11', 'ZNF703', 'ACKR3', 'EDN1', 'STX3', 'SQSTM1', 'CCND1', 'SGK1', 'MDM4', 'MMP7', 'IGFBP6', 'PSMB10', 'N4BP2L2', 'ALOX15B', 'BIRC5', 'PTPRM', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'FN1', 'FAP', 'GPAM', 'ST6GAL1', 'CLMN', 'CDK1', 'CD24', 'CCNB1', 'SUGT1', 'RREB1', 'ITGA2', 'TXNIP', 'NR4A1', 'EPHB2', 'C1orf56', 'IL1B', 'LZTS2', 'BAD', 'FNIP1', 'TGFBI', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'BAMBI', 'FOS', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'RARRES1', 'SLC26A2', 'ITGB1BP1', 'HMGB2', 'EPCAM', 'EGR1', 'TGM1', 'MDK', 'ITGAV', 'LGALS3', 'ACTB', 'F3', 'GLUL', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'S100A6', 'DLG5', 'EPGN', 'ZFP36', 'FTH1', 'CLDN1', 'IRF1', 'PAK1', 'TACC3', 'TBC1D8', 'FGFR3']</t>
+          <t>['CCNB1', 'ST6GAL1', 'PAK1', 'BAMBI', 'ZNF703', 'PSMB10', 'STX3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'CLDN7', 'IL1B', 'CYR61', 'CDKN1A', 'MMP7', 'LZTS2', 'SGK1', 'TP53I11', 'TGFBI', 'FGFR3', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'ADGRG1', 'SQSTM1', 'PLAU', 'TGM1', 'CLDN1', 'PTGES', 'CDH2', 'CYP1B1', 'FNIP1', 'RREB1', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'DLG5', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'TXNIP', 'TNC', 'SPHK1', 'EPCAM', 'FERMT2', 'IGFBP7', 'ATF3', 'EPHB2', 'S100A11', 'CDKN1C', 'BIRC5', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'HMGN5', 'TACSTD2', 'ACKR3', 'IGFBP6', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'BCL6', 'SUGT1', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'C1orf56', 'TBC1D8', 'EGR1', 'FOS', 'RARRES1', 'ACTB', 'WWC1', 'S100A6', 'N4BP2L2', 'TACC3', 'CNTNAP2', 'HMGB2', 'AKR1C2', 'SLC26A2', 'EDN1', 'FN1', 'GPAM', 'FAP', 'CCND1', 'TFAP2A', 'EPPK1', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['IMP'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['ISS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['NAS'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IMP'], ['IDA', 'IGI', 'IEA'], ['NAS'], ['IMP', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'ISS'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IMP'], ['IBA'], ['TAS'], ['IMP', 'IGI', 'TAS', 'IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IGI', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['TAS'], ['IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IMP'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['ISS'], ['IEA'], ['TAS', 'IEA'], ['NAS'], ['IMP'], ['NAS'], ['IMP'], ['IBA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13514,12 +13514,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'CDH2', 'AKR1C2', 'PLAU', 'HMGN5', 'TACSTD2', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'IGFBP7', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'EPPK1', 'PTGES', 'TP53I11', 'ZNF703', 'ACKR3', 'EDN1', 'STX3', 'CCND1', 'SGK1', 'MDM4', 'MMP7', 'IGFBP6', 'N4BP2L2', 'ALOX15B', 'BIRC5', 'PTPRM', 'CYP1B1', 'PLXNB1', 'FN1', 'FAP', 'GPAM', 'ST6GAL1', 'CLMN', 'CDK1', 'CD24', 'CCNB1', 'RREB1', 'ITGA2', 'TXNIP', 'NR4A1', 'EPHB2', 'C1orf56', 'IL1B', 'LZTS2', 'BAD', 'FNIP1', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'BAMBI', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'RARRES1', 'ITGB1BP1', 'HMGB2', 'EPCAM', 'EGR1', 'TGM1', 'MDK', 'ITGAV', 'LGALS3', 'ACTB', 'F3', 'CLDN7', 'WWC1', 'TFAP2A', 'MMP9', 'IGFBP3', 'S100A6', 'DLG5', 'EPGN', 'ZFP36', 'FTH1', 'CLDN1', 'IRF1', 'PAK1', 'TBC1D8', 'FGFR3']</t>
+          <t>['CCNB1', 'ST6GAL1', 'PAK1', 'BAMBI', 'ZNF703', 'STX3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'CLDN7', 'IL1B', 'CYR61', 'CDKN1A', 'MMP7', 'LZTS2', 'SGK1', 'TP53I11', 'FGFR3', 'FLNA', 'CD24', 'LAMC2', 'ADGRG1', 'PLAU', 'TGM1', 'CLDN1', 'PTGES', 'CDH2', 'CYP1B1', 'FNIP1', 'RREB1', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'DLG5', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'TXNIP', 'TNC', 'SPHK1', 'EPCAM', 'FERMT2', 'IGFBP7', 'ATF3', 'EPHB2', 'S100A11', 'CDKN1C', 'BIRC5', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'HMGN5', 'TACSTD2', 'ACKR3', 'IGFBP6', 'AKR1C3', 'CLMN', 'SOX4', 'BCL6', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'C1orf56', 'TBC1D8', 'EGR1', 'RARRES1', 'ACTB', 'WWC1', 'S100A6', 'N4BP2L2', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GPAM', 'FAP', 'CCND1', 'TFAP2A', 'EPPK1', 'PIM1']</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['ISS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['NAS'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IBA'], ['IMP'], ['IDA', 'IGI'], ['NAS'], ['IMP', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'ISS'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'IGI', 'IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['TAS'], ['IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IMP', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IGI'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['TAS'], ['IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IDA', 'IMP'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['ISS'], ['TAS', 'IEA'], ['NAS'], ['IMP'], ['NAS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA'], ['IMP', 'ISS'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13580,12 +13580,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'BCL6', 'CDH2', 'CCL20', 'NET1', 'KRT5', 'TUBA1A', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'DST', 'ADGRG1', 'FLNA', 'EPPK1', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'GRB10', 'SYNE2', 'SGK1', 'MMP7', 'IGFBP6', 'MALAT1', 'TUBB4B', 'ALOX15B', 'PTPRM', 'CYP1B1', 'PALLD', 'PLXNB1', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'CARD10', 'CDK1', 'CD24', 'RREB1', 'ITGA2', 'CDH1', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'PTGS2', 'S100A8', 'BAMBI', 'CXCL16', 'ITGB5', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'ITGB1BP1', 'SAA1', 'HMGB2', 'MDK', 'STMN1', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'F3', 'GLUL', 'CLDN7', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'LOX', 'CLDN1', 'ID1', 'LAMA3', 'PAK1', 'SERPINE1', 'RAP2B', 'ASH1L', 'TMSB4X']</t>
+          <t>['LAMA3', 'RAP2B', 'PAK1', 'BAMBI', 'ZNF703', 'COL1A1', 'NR4A1', 'ITGA2', 'CXCL16', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'ITGB5', 'DST', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'PALLD', 'CLDN1', 'CDH2', 'CYP1B1', 'RREB1', 'ANXA3', 'SAA1', 'SOD2', 'DCN', 'TIMP1', 'MDK', 'LAMB3', 'DLG5', 'STMN1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'CCL20', 'TNC', 'SPHK1', 'OGT', 'FERMT2', 'EPHB2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TACSTD2', 'ACKR3', 'IGFBP6', 'ERRFI1', 'ID1', 'BCL6', 'CDK1', 'MALAT1', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'TUBB4B', 'TUBA1A', 'LOX', 'ACTB', 'TMSB4X', 'WWC1', 'KRT16', 'HMGB2', 'EDN1', 'FN1', 'CDH1', 'FAP', 'EPPK1', 'SYNE2', 'EPHA2', 'NET1', 'ASH1L']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['TAS'], ['ISS'], ['IMP'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP'], ['IGI', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'NAS'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'NAS'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI', 'TAS'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['TAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IMP', 'NAS'], ['IMP'], ['IDA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'NAS'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IGI', 'TAS'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IDA'], ['NAS'], ['IMP'], ['IGI', 'IEA'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -13646,12 +13646,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'CDH2', 'CCL20', 'NET1', 'KRT5', 'TUBA1A', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ADGRG1', 'FLNA', 'EPPK1', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'GRB10', 'SYNE2', 'SGK1', 'MMP7', 'IGFBP6', 'ALOX15B', 'PTPRM', 'CYP1B1', 'PALLD', 'PLXNB1', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'CARD10', 'CDK1', 'CD24', 'RREB1', 'ITGA2', 'CDH1', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'PTGS2', 'S100A8', 'BAMBI', 'CXCL16', 'ITGB5', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'ITGB1BP1', 'SAA1', 'HMGB2', 'MDK', 'STMN1', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'GLUL', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'LOX', 'CLDN1', 'ID1', 'LAMA3', 'PAK1', 'SERPINE1', 'RAP2B', 'TMSB4X']</t>
+          <t>['LAMA3', 'RAP2B', 'PAK1', 'BAMBI', 'ZNF703', 'COL1A1', 'NR4A1', 'ITGA2', 'CXCL16', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'ITGB5', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'PALLD', 'CLDN1', 'CDH2', 'CYP1B1', 'RREB1', 'ANXA3', 'SAA1', 'SOD2', 'DCN', 'TIMP1', 'MDK', 'LAMB3', 'DLG5', 'STMN1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'CCL20', 'TNC', 'SPHK1', 'OGT', 'FERMT2', 'EPHB2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TACSTD2', 'ACKR3', 'IGFBP6', 'ERRFI1', 'ID1', 'CDK1', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'TUBA1A', 'LOX', 'TMSB4X', 'WWC1', 'KRT16', 'HMGB2', 'EDN1', 'FN1', 'CDH1', 'FAP', 'EPPK1', 'SYNE2', 'EPHA2', 'NET1']</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS'], ['ISS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['TAS'], ['ISS'], ['IMP'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP'], ['IGI', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'NAS'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'NAS'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IGI', 'TAS'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['TAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IMP', 'NAS'], ['IDA', 'IEA'], ['ISS'], ['IMP'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'NAS'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IGI', 'TAS'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IDA'], ['NAS'], ['IMP'], ['IGI', 'IEA'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['IMP', 'NAS', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -13712,12 +13712,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'CDH2', 'AQP3', 'PLAU', 'ITGA5', 'S100A11', 'NOTCH1', 'DST', 'FLNA', 'CNTNAP2', 'EPPK1', 'LSR', 'PCDH9', 'ITGB6', 'STX3', 'LIMS1', 'SYNE2', 'MRC2', 'CCND1', 'PLAUR', 'KIF23', 'CGN', 'ALOX15B', 'ATP1B1', 'AMTN', 'PTPRM', 'TGM2', 'PALLD', 'FAP', 'GJA5', 'ITGA2', 'CDH1', 'EVPL', 'CRB3', 'SLC3A2', 'TPM4', 'GSN', 'CSRP1', 'CYTH1', 'KRT8', 'ITGB5', 'TNC', 'FERMT2', 'EPCAM', 'ITGAV', 'ACTB', 'ADD3', 'CLDN7', 'EPHA2', 'DLG5', 'VIM', 'CLDN1', 'LAMA3', 'LLGL2', 'PAK1', 'PDLIM7', 'RAP2B', 'ASH1L', 'FGFR3', 'LMO7', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'AMTN', 'RAP2B', 'ATP1B1', 'ADD3', 'PAK1', 'STX3', 'ITGA2', 'GJA5', 'CLDN7', 'ITGA5', 'ITGB5', 'FGFR3', 'DST', 'FLNA', 'PLAU', 'PALLD', 'CLDN1', 'CDH2', 'EVPL', 'GSN', 'CSRP1', 'LSR', 'SLC2A1', 'ITGB6', 'DLG5', 'PCDH9', 'LMO7', 'PTPRM', 'TNC', 'EPCAM', 'FERMT2', 'TPM4', 'MME', 'S100A11', 'CGN', 'AQP3', 'NOTCH1', 'PLAUR', 'CRB3', 'KIF23', 'TGM2', 'ITGAV', 'ALOX15B', 'LIMS1', 'LLGL2', 'SLC3A2', 'ACTB', 'KRT8', 'MRC2', 'VIM', 'CYTH1', 'CNTNAP2', 'CDH1', 'FAP', 'CCND1', 'EPPK1', 'SYNE2', 'EPHA2', 'ASH1L']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['IEA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['NAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['HDA', 'IEA'], ['HDA']]</t>
+          <t>[['IDA', 'IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IEA'], ['HDA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['NAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'HDA', 'ISS'], ['IEA'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13778,12 +13778,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['LAMB3', 'SLC2A1', 'CDH2', 'KRT6B', 'ELF3', 'KRT17', 'NNMT', 'KRT5', 'AQP3', 'TUBA1A', 'CCNB2', 'PXDN', 'ANXA3', 'SEMA3C', 'TACSTD2', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'SLC38A10', 'GYS1', 'CKB', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'LSR', 'PCDH9', 'ITGB6', 'ZNF703', 'EDN1', 'SYNE2', 'CCND1', 'ISG15', 'DKK1', 'MDM4', 'TNFSF10', 'ALOX15B', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'ERRFI1', 'FN1', 'KRT16', 'CHD8', 'LAMB2', 'CDK1', 'GJA5', 'CD24', 'CSTA', 'ALDH1A3', 'RREB1', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'LZTS2', 'BCL2L11', 'BAD', 'IRX3', 'TGFBI', 'TIMP1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'BAMBI', 'KRT8', 'LRIG3', 'FOS', 'KRT14', 'TNC', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'SLC26A2', 'ITGB1BP1', 'KRT81', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'TGM1', 'MDK', 'STMN1', 'SUN2', 'ANKRD11', 'COL1A1', 'ACTB', 'TAGLN', 'EPHA2', 'TFAP2A', 'MMP9', 'VPS51', 'DLG5', 'TUFT1', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'KRT10', 'NOM1', 'COL4A1', 'IVL', 'PDLIM7', 'SERPINE1', 'TACC3', 'SPRR1B', 'RDH10', 'ASH1L', 'FGFR3', 'CENPF', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'NNMT', 'AMTN', 'ANKRD11', 'SPRR1B', 'BAMBI', 'ZNF703', 'COL1A1', 'TNFSF10', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'GJA5', 'IL1B', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'LZTS2', 'TGFBI', 'FGFR3', 'FLNA', 'CD24', 'SERPINE1', 'IRX3', 'ADGRG1', 'PALLD', 'TGM1', 'CLDN1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'RREB1', 'ST14', 'NOM1', 'CCNB2', 'ANXA3', 'LSR', 'KRT6B', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'LAMB3', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'ISG15', 'PTPRM', 'VPS51', 'TAGLN', 'ITGB1BP1', 'MMP9', 'TXNIP', 'TNC', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'BCL2L11', 'FERMT2', 'ATF3', 'EPHB2', 'MFAP5', 'MME', 'LRIG3', 'AQP3', 'KRT5', 'SUN2', 'NOTCH1', 'PTGS2', 'TACSTD2', 'SLC38A10', 'DKK1', 'ELF3', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'KRT81', 'GYS1', 'KRT10', 'TGM2', 'IVL', 'IRX5', 'CDK1', 'LBH', 'CITED2', 'ALOX15B', 'PLXNB1', 'CKB', 'TTC9', 'CSTA', 'EGR1', 'ALDH1A3', 'FOS', 'TUBA1A', 'LOX', 'ACTB', 'KRT8', 'KRT17', 'TLE1', 'TACC3', 'VIM', 'KRT16', 'CNTNAP2', 'HMGB2', 'SLC26A2', 'EDN1', 'FN1', 'CDH1', 'TUFT1', 'CCND1', 'TFAP2A', 'SYNE2', 'RDH10', 'EPHA2', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEP', 'TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['HEP'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'TAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IBA', 'TAS'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['TAS'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HEP'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IBA'], ['IDA'], ['IBA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'IEA']]</t>
+          <t>[['IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IEP', 'IEA'], ['IEA'], ['IEP', 'TAS'], ['IBA'], ['IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['NAS', 'IEA'], ['ISS', 'IEA'], ['HEP'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['HEP'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['LAMB3', 'SLC2A1', 'LAMC2', 'CDH2', 'MAL2', 'KRT17', 'AQP3', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KCNIP3', 'TUBB3', 'PIM1', 'NOTCH1', 'DST', 'MFAP5', 'SLC5A3', 'PIEZO1', 'CKB', 'IGFBP7', 'SLC39A8', 'KLK7', 'ADGRG1', 'FLNA', 'CNTNAP2', 'TSPAN1', 'SLC44A2', 'EPPK1', 'ABL2', 'ABCD4', 'LSR', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'PLCD1', 'MSLN', 'ACKR3', 'LDLR', 'DDX50', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'KCNK15', 'AKAP11', 'DKK1', 'SGK1', 'PLAUR', 'MMP7', 'VNN1', 'CGN', 'TNFSF10', 'LAD1', 'ALOX15B', 'ATP1B1', 'AMTN', 'PTPRM', 'TGM2', 'PALLD', 'PLXNB1', 'TMEM50B', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'LAMB2', 'UNC5B', 'LGALS1', 'SYT8', 'GJA5', 'CD24', 'CSTA', 'C3', 'ITGA2', 'CDH1', 'EVPL', 'CRB3', 'EPHB2', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'MFI2', 'GSN', 'EEF1A1', 'LZTS2', 'TGFBI', 'OGT', 'TIMP1', 'ST14', 'CYR61', 'SPHK1', 'PTGS2', 'S100A8', 'BAMBI', 'CYTH1', 'CXCL16', 'ALDH3A1', 'KRT8', 'LRIG3', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'FERMT2', 'MSMO1', 'SLC26A2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'EMP1', 'C1orf116', 'EPCAM', 'RGS2', 'TGM1', 'MDK', 'MYL9', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'MMP9', 'IFITM2', 'S100A6', 'CLIC3', 'DLG5', 'EPGN', 'LOX', 'VIM', 'CFB', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'FGFR3', 'LMO7', 'FXYD3', 'ATP13A4', 'MME']</t>
+          <t>['GPRC5A', 'LAMA3', 'AMTN', 'RAP2B', 'SPRR1B', 'ATP1B1', 'TMEM50B', 'SORT1', 'CCDC80', 'ADD3', 'PAK1', 'BAMBI', 'COL1A1', 'SLC39A8', 'STX3', 'TNFSF10', 'C3', 'ITGA2', 'CXCL16', 'GJA5', 'MAL2', 'CLDN7', 'ITGA5', 'GRB10', 'SLPI', 'CYR61', 'KLK7', 'MMP7', 'PXDN', 'SEMA3C', 'LZTS2', 'SGK1', 'SLC2A12', 'ITGB5', 'TGFBI', 'FGFR3', 'DST', 'COL4A2', 'FLNA', 'CD24', 'LAMC2', 'GLUL', 'SPIRE1', 'ABL2', 'SERPINE1', 'ADGRG1', 'CFB', 'UNC5B', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'DAPP1', 'CDH2', 'EVPL', 'ST14', 'SLC5A3', 'GSN', 'EMP1', 'ANXA3', 'LSR', 'SLC2A1', 'PNPLA2', 'MFI2', 'DCN', 'TIMP1', 'ITGB6', 'LAD1', 'MDK', 'MUC1', 'LAMB3', 'PSCA', 'MGLL', 'KCNK15', 'DLG5', 'PCDH9', 'DDX50', 'CA12', 'IFITM2', 'CLIC3', 'VNN1', 'KCNIP3', 'TUBB3', 'LMO7', 'PTPRM', 'ITGB1BP1', 'MMP9', 'MSMO1', 'S100A8', 'TNC', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'OGT', 'SLC44A2', 'FERMT2', 'IGFBP7', 'TPM4', 'LGALS1', 'EPHB2', 'PLCD1', 'AKAP11', 'MFAP5', 'MME', 'LRIG3', 'ANGPTL4', 'CGN', 'AQP3', 'EPGN', 'NOTCH1', 'F3', 'PLAUR', 'ATP13A4', 'PTGS2', 'C1orf116', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'TSPAN1', 'ERRFI1', 'RGS2', 'LAMB2', 'MYL9', 'SERPINB2', 'KRT10', 'TGM2', 'IVL', 'ITGAV', 'SH3BGRL3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'CKB', 'MSLN', 'LIMS1', 'FXYD3', 'CSTA', 'LLGL2', 'SYT8', 'SLC3A2', 'PDE4DIP', 'TUBA1A', 'LOX', 'ACTB', 'LDLR', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'SLC26A6', 'RAB24', 'SLC26A2', 'ALDH3A1', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'EPPK1', 'SYNE2', 'TMEM132A', 'EPHA2', 'SERPINA3', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[['HDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['HDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['IDA', 'TAS'], ['HDA'], ['IBA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'HDA', 'TAS', 'NAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'IBA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13910,12 +13910,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'CCL20', 'KRT5', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ADGRG1', 'FLNA', 'EPPK1', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'STX3', 'SYNE2', 'SGK1', 'MMP7', 'MALAT1', 'ALOX15B', 'PTPRM', 'CYP1B1', 'PLXNB1', 'FN1', 'KRT16', 'ST6GAL1', 'CARD10', 'RREB1', 'ITGA2', 'CDH1', 'EPHB2', 'IL1B', 'DCN', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'PTGS2', 'CXCL16', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'ITGB1BP1', 'MDK', 'STMN1', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'GLUL', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'CLDN1', 'LAMA3', 'PAK1', 'SERPINE1', 'RAP2B', 'TMSB4X']</t>
+          <t>['ST6GAL1', 'LAMA3', 'RAP2B', 'PAK1', 'ZNF703', 'COL1A1', 'STX3', 'ITGA2', 'CXCL16', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'CLDN1', 'CYP1B1', 'RREB1', 'ANXA3', 'SOD2', 'DCN', 'TIMP1', 'MDK', 'DLG5', 'STMN1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'CCL20', 'TNC', 'SPHK1', 'OGT', 'FERMT2', 'EPHB2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TACSTD2', 'ACKR3', 'BCL6', 'MALAT1', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'TMSB4X', 'KRT16', 'EDN1', 'FN1', 'CDH1', 'EPPK1', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA', 'IBA'], ['ISS'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IGI'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS', 'IC'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['NAS'], ['IDA'], ['NAS'], ['IMP'], ['IGI'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IC'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IDA'], ['IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -13976,12 +13976,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['NMU', 'SLC2A1', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'ELF3', 'IVNS1ABP', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'SEMA3C', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'CDC20', 'SLC46A3', 'PIM3', 'PIEZO1', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'SLC44A2', 'C1R', 'TSC22D3', 'EPPK1', 'PTGES', 'ABL2', 'ABCD4', 'IL1RN', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'AKAP11', 'CCND1', 'ISG15', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'IGFBP6', 'VNN1', 'PSMB10', 'TNFSF10', 'TUBB4B', 'ELOVL4', 'ALOX15B', 'MT2A', 'ATP1B1', 'BIRC5', 'PTPRM', 'TGM2', 'CYP1B1', 'PLXNB1', 'CAMK2N1', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'LAMB2', 'UNC5B', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'CCNB1', 'CALML5', 'ALDH1A3', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'NEURL1B', 'GSN', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'MDK', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'NFYB', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'GBP1', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'LOX', 'VIM', 'FTH1', 'CFB', 'RASSF8', 'CLDN1', 'UPP1', 'TRIM38', 'TRIML2', 'ID1', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'IVL', 'SERPINA3', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'ASH1L', 'FGFR3', 'CENPF', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'RAP2B', 'ATP1B1', 'SORT1', 'CCDC80', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'PSMB10', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'ACADVL', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'SLPI', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'ITGB5', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'PLAU', 'CLDN1', 'PTGES', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'GSN', 'CSRP1', 'ANXA3', 'SAA1', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'CENPF', 'PSCA', 'MGLL', 'NFYB', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'UPP1', 'SAA2', 'CLIC3', 'VNN1', 'KCNIP3', 'TUBB3', 'PIM3', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'ANGPTL4', 'CDKN1C', 'SESN2', 'AQP3', 'KRT5', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'F3', 'PLAUR', 'CCL28', 'NEURL1B', 'PTGS2', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'MYL9', 'SERPINB2', 'TUBA1B', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'IVL', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'TUBB4B', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'TUBA1A', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'WWC1', 'KRT8', 'S100A6', 'TLE1', 'MACC1', 'C15orf48', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'SLC26A6', 'TSC22D3', 'AKR1C2', 'ALDH3A1', 'EDN1', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'TMEM132A', 'EPHA2', 'SERPINA3', 'NET1', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['HMP'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEP', 'IBA'], ['IDA', 'IMP', 'IGI', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IEP', 'IEA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEP'], ['IMP', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IEP', 'IBA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'HMP', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'NAS', 'IC'], ['IMP'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['HMP'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEP', 'TAS', 'NAS'], ['HMP', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['ISS', 'TAS'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IBA'], ['IDA', 'IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['ISS', 'NAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['HMP'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['NAS'], ['IDA'], ['ISS', 'TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA'], ['HMP'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IDA', 'HMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IC', 'IEA'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS', 'IEA'], ['HMP', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['NAS'], ['IMP', 'IEP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IDA', 'IMP', 'HMP', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IBA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IBA'], ['ISS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IEP', 'IEA'], ['IDA'], ['TAS'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -14042,12 +14042,12 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'CCL20', 'KRT5', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ADGRG1', 'FLNA', 'EPPK1', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'STX3', 'SYNE2', 'SGK1', 'PLAUR', 'MMP7', 'MALAT1', 'ALOX15B', 'PTPRM', 'CYP1B1', 'PLXNB1', 'FN1', 'KRT16', 'ST6GAL1', 'CARD10', 'RREB1', 'ITGA2', 'CDH1', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'PTGS2', 'S100A8', 'CXCL16', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'ITGB1BP1', 'SAA1', 'HMGB2', 'MDK', 'STMN1', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'GLUL', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'LOX', 'CLDN1', 'LAMA3', 'PAK1', 'SERPINE1', 'RAP2B', 'TMSB4X']</t>
+          <t>['ST6GAL1', 'LAMA3', 'RAP2B', 'PAK1', 'ZNF703', 'COL1A1', 'STX3', 'NR4A1', 'ITGA2', 'CXCL16', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'CLDN1', 'CYP1B1', 'RREB1', 'ANXA3', 'SAA1', 'SOD2', 'DCN', 'TIMP1', 'MDK', 'DLG5', 'STMN1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'CCL20', 'TNC', 'SPHK1', 'OGT', 'FERMT2', 'EPHB2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'PTGS2', 'TACSTD2', 'ACKR3', 'BCL6', 'MALAT1', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LOX', 'TMSB4X', 'KRT16', 'HMGB2', 'EDN1', 'FN1', 'CDH1', 'EPPK1', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IDA', 'TAS'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IGI'], ['IDA', 'IEA'], ['IDA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IC'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'NAS'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA'], ['NAS'], ['IMP'], ['IGI'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS', 'IC'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14108,12 +14108,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'BCL6', 'CDH2', 'PXDN', 'PLAU', 'ITGA5', 'TACSTD2', 'S100A11', 'NOTCH1', 'DST', 'PIEZO1', 'IGFBP7', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'ABL2', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'ZNF703', 'MSLN', 'ACKR3', 'STX3', 'LIMS1', 'PLAUR', 'VNN1', 'ATP1B1', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'PALLD', 'PLXNB1', 'MUC1', 'FN1', 'NFAT5', 'FAP', 'GPAM', 'ST6GAL1', 'LAMB2', 'LGALS1', 'CD24', 'CSTA', 'RREB1', 'ITGA2', 'CDH1', 'EPHB2', 'IL1B', 'MFI2', 'CSRP1', 'BCL2L11', 'BAD', 'TGFBI', 'CYR61', 'S100A8', 'CYTH1', 'ITGB5', 'TNC', 'CITED2', 'FERMT2', 'CCL28', 'ITGB1BP1', 'SAA1', 'EPCAM', 'MDK', 'MYL9', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'GBP1', 'CLDN7', 'EPHA2', 'DLG5', 'CLDN1', 'LAMA3', 'IRF1', 'SERPINE1', 'RAP2B', 'LMO7']</t>
+          <t>['ST6GAL1', 'LAMA3', 'AMTN', 'RAP2B', 'ATP1B1', 'CCDC80', 'ZNF703', 'COL1A1', 'SLC39A8', 'STX3', 'ITGA2', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'PXDN', 'ITGB5', 'TGFBI', 'DST', 'FLNA', 'CD24', 'LAMC2', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'PALLD', 'CLDN1', 'CDH2', 'CYP1B1', 'RREB1', 'CSRP1', 'SAA1', 'MFI2', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'LAMB3', 'DLG5', 'PCDH9', 'VNN1', 'LMO7', 'IRF1', 'PTPRM', 'ITGB1BP1', 'S100A8', 'TNC', 'IL1RN', 'EPCAM', 'BCL2L11', 'FERMT2', 'IGFBP7', 'LGALS1', 'EPHB2', 'S100A11', 'NFAT5', 'NOTCH1', 'PLAUR', 'CCL28', 'TACSTD2', 'ACKR3', 'SOX4', 'LAMB2', 'MYL9', 'BCL6', 'TGM2', 'ITGAV', 'CITED2', 'LGALS3', 'PLXNB1', 'MSLN', 'LIMS1', 'CSTA', 'ACTB', 'CYTH1', 'CNTNAP2', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'EPHA2']</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'HMP'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IBA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'NAS'], ['IDA'], ['HMP'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['HMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['HMP', 'NAS'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'HMP'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['HMP'], ['IDA', 'NAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['HMP', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IBA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['HMP', 'NAS'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14174,12 +14174,12 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'KRT6B', 'MAL2', 'KRT17', 'KRT5', 'KRT15', 'TUBA1A', 'COL4A2', 'PXDN', 'TUBA1C', 'TUBB3', 'DST', 'MFAP5', 'IGFBP7', 'TUBA4A', 'EPPK1', 'MAP2', 'TUBB4B', 'LAD1', 'COPE', 'FN1', 'KRT16', 'LAMB2', 'EVPL', 'DCN', 'TPM4', 'CSRP1', 'TGFBI', 'CYR61', 'KRT8', 'KRT14', 'TNC', 'KRT81', 'TUBA1B', 'TUBB', 'MYL9', 'COL1A1', 'ACTB', 'ADD3', 'CLDN7', 'TUFT1', 'VIM', 'CLDN1', 'KRT10', 'LAMA3', 'COL4A1', 'SPRR1B']</t>
+          <t>['LAMA3', 'SPRR1B', 'ADD3', 'COL1A1', 'MAL2', 'CLDN7', 'CYR61', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'TUBA4A', 'CLDN1', 'EVPL', 'TUBB', 'CSRP1', 'KRT6B', 'DCN', 'LAD1', 'LAMB3', 'TUBA1C', 'TUBB3', 'KRT15', 'MAP2', 'TNC', 'KRT14', 'IGFBP7', 'TPM4', 'MFAP5', 'KRT5', 'LAMB2', 'MYL9', 'KRT81', 'TUBA1B', 'KRT10', 'TUBB4B', 'TUBA1A', 'ACTB', 'KRT8', 'KRT17', 'VIM', 'KRT16', 'FN1', 'TUFT1', 'EPPK1', 'COPE', 'COL4A1']</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[['RCA', 'NAS'], ['RCA'], ['IBA', 'TAS'], ['IBA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'RCA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['RCA', 'TAS'], ['RCA'], ['IBA', 'IEA'], ['IBA'], ['NAS'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['HDA', 'ISS', 'RCA'], ['NAS', 'IEA'], ['ISS', 'RCA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['ISS', 'RCA'], ['TAS'], ['IBA', 'IEA'], ['ISS', 'RCA'], ['RCA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'RCA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'RCA', 'IEA'], ['EXP', 'IDA', 'IMP', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IEA'], ['IMP', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['RCA', 'NAS'], ['IMP', 'HDA', 'IBA', 'RCA', 'IEA'], ['TAS']]</t>
+          <t>[['RCA', 'NAS'], ['TAS'], ['TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'RCA', 'IEA'], ['IBA'], ['IEA'], ['RCA'], ['IDA', 'RCA'], ['ISS', 'RCA'], ['IBA'], ['HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['RCA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS'], ['ISS', 'RCA'], ['TAS', 'IEA'], ['RCA', 'NAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['ISS', 'RCA'], ['TAS', 'IEA'], ['RCA'], ['TAS'], ['RCA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['ISS', 'RCA', 'NAS', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'IBA', 'TAS'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['HDA', 'ISS', 'RCA'], ['IMP', 'NAS'], ['IBA'], ['IEA'], ['IMP', 'HDA', 'IBA', 'RCA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14240,12 +14240,12 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>['CDH2', 'KRT6B', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'AQP3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'NOTCH1', 'SOX4', 'FLNA', 'EPPK1', 'LSR', 'ZNF703', 'EDN1', 'CCND1', 'DKK1', 'ALOX15B', 'TGM2', 'PALLD', 'ERRFI1', 'KRT16', 'LAMB2', 'CDK1', 'GJA5', 'CD24', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'EVPL', 'IL1B', 'LZTS2', 'BAD', 'IRX3', 'ST14', 'LBH', 'CYR61', 'AKR1C3', 'ACADVL', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'KRT81', 'EPCAM', 'TUBB', 'TGM1', 'MDK', 'STMN1', 'ITGAV', 'LGALS3', 'ACTB', 'TAGLN', 'EPHA2', 'TFAP2A', 'MMP9', 'DLG5', 'ZFP36', 'VIM', 'CLDN1', 'KRT10', 'NOM1', 'COL4A1', 'IVL', 'PAK1', 'SERPINE1', 'SPRR1B', 'RDH10', 'EHF']</t>
+          <t>['SPRR1B', 'PAK1', 'ZNF703', 'C3', 'ZFP36', 'ITGA2', 'GJA5', 'ACADVL', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'SEMA3C', 'LZTS2', 'ITGB5', 'FLNA', 'CD24', 'EHF', 'SERPINE1', 'IRX3', 'PALLD', 'TGM1', 'CLDN1', 'CDH2', 'EVPL', 'RREB1', 'TUBB', 'ST14', 'NOM1', 'LSR', 'KRT6B', 'BAD', 'MDK', 'DLG5', 'STMN1', 'KRT15', 'TAGLN', 'MMP9', 'TXNIP', 'TNC', 'KRT14', 'EPCAM', 'FERMT2', 'AQP3', 'KRT5', 'NOTCH1', 'TACSTD2', 'DKK1', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'LAMB2', 'KRT81', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'CSTA', 'ALDH1A3', 'ACTB', 'KRT17', 'VIM', 'KRT16', 'AKR1C2', 'EDN1', 'CCND1', 'TFAP2A', 'EPPK1', 'RDH10', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IBA'], ['IEP'], ['TAS'], ['IEP', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IMP', 'NAS'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEP'], ['IEP'], ['NAS'], ['IBA', 'IEA'], ['ISO', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['NAS'], ['IEP'], ['IMP'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'IBA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEP']]</t>
+          <t>[['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEP'], ['IDA'], ['IEP', 'NAS'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IDA', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['ISO', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['TAS'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['NAS'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IEP'], ['IDA'], ['IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['ISS'], ['ISS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14306,12 +14306,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'CCL20', 'KRT5', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ADGRG1', 'FLNA', 'EPPK1', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'SYNE2', 'SGK1', 'MMP7', 'MALAT1', 'ALOX15B', 'PTPRM', 'CYP1B1', 'PLXNB1', 'FN1', 'KRT16', 'CARD10', 'RREB1', 'ITGA2', 'CDH1', 'EPHB2', 'IL1B', 'DCN', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'PTGS2', 'CXCL16', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'ITGB1BP1', 'MDK', 'STMN1', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'GLUL', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'CLDN1', 'LAMA3', 'PAK1', 'SERPINE1', 'RAP2B', 'TMSB4X']</t>
+          <t>['LAMA3', 'RAP2B', 'PAK1', 'ZNF703', 'COL1A1', 'ITGA2', 'CXCL16', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'CLDN1', 'CYP1B1', 'RREB1', 'ANXA3', 'SOD2', 'DCN', 'TIMP1', 'MDK', 'DLG5', 'STMN1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'CCL20', 'TNC', 'SPHK1', 'OGT', 'FERMT2', 'EPHB2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TACSTD2', 'ACKR3', 'BCL6', 'MALAT1', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'TMSB4X', 'KRT16', 'EDN1', 'FN1', 'CDH1', 'EPPK1', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA', 'IBA'], ['ISS'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IDA'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IGI'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['NAS'], ['IDA'], ['NAS'], ['IMP'], ['IGI'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IDA'], ['IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['LAMB3', 'THOC2', 'BCL6', 'CDH2', 'KRT6B', 'ELF3', 'KRT17', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'COL4A2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'PIEZO1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'RRBP1', 'ABL2', 'LSR', 'ITGB6', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'MRC2', 'SQSTM1', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'VNN1', 'N4BP2L2', 'ALOX15B', 'ADIRF', 'PTPRM', 'TGM2', 'IRX5', 'PALLD', 'PLXNB1', 'ERRFI1', 'FN1', 'SORT1', 'KRT16', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'CDK1', 'CD24', 'CSTA', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'TPM4', 'CSRP1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'ST14', 'LBH', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'ACADVL', 'KRT8', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'SLC26A2', 'ITGB1BP1', 'KRT81', 'HMGB2', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'TAGLN', 'TRAK1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'HES2', 'S100A6', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'CLDN1', 'KRT10', 'ID1', 'LAMA3', 'COL4A1', 'IVL', 'IRF1', 'PAK1', 'PDLIM7', 'SERPINE1', 'SPRR1B', 'RDH10', 'EHF', 'FGFR3', 'CENPF', 'GIGYF2', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'SPRR1B', 'SORT1', 'PAK1', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'ACADVL', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'SEMA3C', 'STK25', 'DLK2', 'SGK1', 'ITGB5', 'TGFBI', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'EHF', 'SUCO', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PALLD', 'TGM1', 'CLDN1', 'CDH2', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'ST14', 'CSRP1', 'LSR', 'KRT6B', 'SOD2', 'ITGB6', 'BAD', 'MDK', 'LAMB3', 'CENPF', 'DLG5', 'STMN1', 'ISG15', 'VNN1', 'TUBB3', 'IRF1', 'PTPRM', 'KRT15', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TXNIP', 'TNC', 'NSUN5', 'KRT14', 'EPCAM', 'OGT', 'FERMT2', 'TPM4', 'ATF3', 'LGALS1', 'EPHB2', 'MFAP5', 'MME', 'AQP3', 'KRT5', 'SUN2', 'NOTCH1', 'RRBP1', 'THOC2', 'PTGS2', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'MYL9', 'KRT81', 'KRT10', 'ID1', 'BCL6', 'TGM2', 'IVL', 'IRX5', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'KLF6', 'HES2', 'GIGYF2', 'CSTA', 'EGR1', 'FOS', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MRC2', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'HMGB2', 'SLC26A6', 'AKR1C2', 'ADIRF', 'SLC26A2', 'EDN1', 'TP53INP2', 'PIEZO1', 'FN1', 'CDH1', 'DDX56', 'CCND1', 'TFAP2A', 'SYNE2', 'RDH10', 'EPHA2', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[['IEP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['ISS', 'IEA'], ['IEP'], ['TAS'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['ISS', 'NAS'], ['HDA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['HDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IBA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'NAS'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IEA'], ['IEP'], ['IBA', 'IEA'], ['HDA', 'ISO', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEP', 'IEA'], ['IBA', 'NAS'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IBA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['TAS'], ['IEA'], ['IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['IEP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP', 'IEA'], ['IEP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEP'], ['IEA'], ['TAS'], ['IEP'], ['NAS', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IBA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA'], ['HDA', 'ISO', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IGI'], ['TAS'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEP', 'IBA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IBA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IEP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['IBA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['HDA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'NAS'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -14438,12 +14438,12 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>['LAMB3', 'THOC2', 'BCL6', 'CDH2', 'KRT6B', 'ELF3', 'KRT17', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'COL4A2', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KLF6', 'TUBB3', 'ATF3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'PIEZO1', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'RRBP1', 'ABL2', 'LSR', 'ITGB6', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'MRC2', 'SQSTM1', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'VNN1', 'N4BP2L2', 'ALOX15B', 'ADIRF', 'PTPRM', 'TGM2', 'IRX5', 'PALLD', 'PLXNB1', 'ERRFI1', 'FN1', 'SORT1', 'KRT16', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'CDK1', 'CD24', 'CSTA', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'TPM4', 'CSRP1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'ST14', 'LBH', 'CYR61', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'ACADVL', 'KRT8', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'SLC26A2', 'ITGB1BP1', 'KRT81', 'HMGB2', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'TAGLN', 'TRAK1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'HES2', 'S100A6', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'CLDN1', 'KRT10', 'ID1', 'LAMA3', 'COL4A1', 'IVL', 'IRF1', 'PAK1', 'PDLIM7', 'SERPINE1', 'SPRR1B', 'RDH10', 'EHF', 'FGFR3', 'CENPF', 'GIGYF2', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'SPRR1B', 'SORT1', 'PAK1', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'ACADVL', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'SEMA3C', 'STK25', 'DLK2', 'SGK1', 'ITGB5', 'TGFBI', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'EHF', 'SUCO', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PALLD', 'TGM1', 'CLDN1', 'CDH2', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'ST14', 'CSRP1', 'LSR', 'KRT6B', 'SOD2', 'ITGB6', 'BAD', 'MDK', 'LAMB3', 'CENPF', 'DLG5', 'STMN1', 'ISG15', 'VNN1', 'TUBB3', 'IRF1', 'PTPRM', 'KRT15', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TXNIP', 'TNC', 'NSUN5', 'KRT14', 'EPCAM', 'OGT', 'FERMT2', 'TPM4', 'ATF3', 'LGALS1', 'EPHB2', 'MFAP5', 'MME', 'AQP3', 'KRT5', 'SUN2', 'NOTCH1', 'RRBP1', 'THOC2', 'PTGS2', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'MYL9', 'KRT81', 'KRT10', 'ID1', 'BCL6', 'TGM2', 'IVL', 'IRX5', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'KLF6', 'HES2', 'GIGYF2', 'CSTA', 'EGR1', 'FOS', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MRC2', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'HMGB2', 'SLC26A6', 'AKR1C2', 'ADIRF', 'SLC26A2', 'EDN1', 'TP53INP2', 'PIEZO1', 'FN1', 'CDH1', 'DDX56', 'CCND1', 'TFAP2A', 'SYNE2', 'RDH10', 'EPHA2', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[['IEP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['ISS', 'IEA'], ['IEP'], ['TAS'], ['IEA'], ['IEP'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['ISS', 'NAS'], ['HDA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['HDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IBA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IMP', 'NAS'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IEA'], ['IEP'], ['IBA', 'IEA'], ['HDA', 'ISO', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEP', 'IEA'], ['IBA', 'NAS'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IBA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['TAS'], ['IEA'], ['IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['IEP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP', 'IEA'], ['IEP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEP'], ['IEA'], ['TAS'], ['IEP'], ['NAS', 'IEA'], ['IMP', 'NAS'], ['IEP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IBA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA'], ['HDA', 'ISO', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IGI'], ['TAS'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['HDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEP', 'IBA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IBA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'NAS', 'IEA'], ['IEP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['IBA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['HDA'], ['IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'NAS'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -14504,12 +14504,12 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'LAMC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'KANK4', 'CDC20', 'SLC46A3', 'SLC38A10', 'PIM3', 'SLC5A3', 'GYS1', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'ECHDC2', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'SPATS2', 'ABL2', 'ABCD4', 'IL1RN', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'IDI1', 'SQSTM1', 'AKAP11', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'PLAUR', 'KIF23', 'VNN1', 'PSMB10', 'TUBB4B', 'ELOVL4', 'OPLAH', 'ALOX15B', 'MT2A', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'PALLD', 'TMEM50B', 'SPIRE1', 'KLK10', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'ST6GAL1', 'CLMN', 'LAMB2', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'CDK1', 'CCNB1', 'TPST1', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'CREG1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'FAM193B', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'BAMBI', 'PDP1', 'CYTH1', 'MAD2L1', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'MSMO1', 'DSEL', 'ARHGEF37', 'SERPINB2', 'ITGB1BP1', 'IER3', 'KRT81', 'CYP4B1', 'SAA1', 'HMGB2', 'C1orf116', 'CEP170B', 'TUBA1B', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'ANKRD11', 'NOL7', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'TAGLN', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'WWC1', 'CDR2L', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'DLG5', 'EPGN', 'TUFT1', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'VIM', 'FTH1', 'TP53I3', 'MTHFD2', 'PNPLA2', 'SLC2A12', 'KRT10', 'UPP1', 'TRIM38', 'TRIML2', 'ID1', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'FBXW5', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'ATP13A4', 'MME']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'SPRR1B', 'TMEM50B', 'SORT1', 'GALNT6', 'ADD3', 'PAK1', 'ECHDC2', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'SLC39A8', 'MYBBP1A', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'TRIML2', 'ACADVL', 'MAL2', 'IL1B', 'ITGA5', 'GRB10', 'CYP4B1', 'GOLGA8B', 'SLPI', 'CYR61', 'KLK7', 'CDKN1A', 'MAD2L1', 'PXDN', 'STK25', 'LZTS2', 'SGK1', 'SLC2A12', 'ITGB5', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'SQSTM1', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'PTGES', 'VSTM2L', 'CEP170B', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'SAT2', 'SLC5A3', 'GSN', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'SAA1', 'KRT6B', 'SLC2A1', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'BAD', 'MUC1', 'COMTD1', 'GOLGA8A', 'CENPF', 'TUBA1C', 'MGLL', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'UPP1', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'ACOX3', 'PIM3', 'LMO7', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'MAP2', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'SPHK1', 'KRT14', 'DHRS1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'LRIG3', 'SPATS2', 'CDKN1C', 'SESN2', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'PLAUR', 'SELENBP1', 'RRBP1', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'C1orf116', 'TACSTD2', 'SLC38A10', 'ARHGEF37', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'TP53I3', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'GYS1', 'SERPINB2', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'CDK1', 'LBH', 'DSEL', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'LIMS1', 'KLF6', 'KLK10', 'GIGYF2', 'FXYD3', 'CDR2L', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'OPLAH', 'TUBA1A', 'B4GALT5', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'C15orf48', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'AKR1C2', 'ADIRF', 'ALDH3A1', 'EDN1', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'RDH10', 'FAM193B', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['NAS'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IC', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['HTP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HTP'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HTP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['HTP', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['HTP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -14570,12 +14570,12 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'SLC38A10', 'PIM3', 'SLC5A3', 'GYS1', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'ECHDC2', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'SLC44A2', 'C1R', 'TMEM185B', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'TP53I11', 'SPATS2', 'ABL2', 'ABCD4', 'LSR', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'DDX50', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'MRC2', 'IDI1', 'SQSTM1', 'ZNF117', 'KCNK15', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'NEAT1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'VNN1', 'PSMB10', 'CGN', 'TNFSF10', 'TUBB4B', 'LAD1', 'ELOVL4', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'MT2A', 'ATP1B1', 'SPINK6', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'CAMK2N1', 'TMEM50B', 'SPIRE1', 'KLK10', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'CHI3L2', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'ANKMY2', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'CREG1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'FAM193B', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'BAMBI', 'PDP1', 'CYTH1', 'MAD2L1', 'SNHG1', 'USP31', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'MSMO1', 'RARRES1', 'DSEL', 'CCL28', 'ARHGEF37', 'SLC26A2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'KRT81', 'CYP4B1', 'SAA1', 'EMP1', 'HMGB2', 'C1orf116', 'CEP170B', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'ANKRD11', 'MED19', 'NOL7', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'TAGLN', 'F3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'CDR2L', 'TFAP2A', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'PDZK1IP1', 'DLG5', 'EPGN', 'TUFT1', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'FTH1', 'CFB', 'TP53I3', 'MTHFD2', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'TRIML2', 'ID1', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'ATP13A4', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'SPRR1B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ECHDC2', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'SLC39A8', 'USP31', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'MAL2', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYP4B1', 'GOLGA8B', 'SLPI', 'SRSF11', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'ANKMY2', 'LZTS2', 'DLK2', 'SPINK6', 'SGK1', 'SLC2A12', 'ITGB5', 'TP53I11', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'NEAT1', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'CEP170B', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'ST14', 'SAT2', 'SLC5A3', 'GSN', 'NOM1', 'EMP1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'LAD1', 'BAD', 'MDK', 'MUC1', 'LAMB3', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'KCNK15', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'DDX50', 'BIRC3', 'CA12', 'ISG15', 'IFITM2', 'UPP1', 'SAA2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'ACOX3', 'PIM3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'CARD10', 'PLCD1', 'AKAP11', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'LRIG3', 'SPATS2', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'TMEM185B', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'C1orf116', 'TACSTD2', 'SLC38A10', 'ARHGEF37', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'TP53I3', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'GYS1', 'SERPINB2', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'DSEL', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'PLXNB1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'C1orf56', 'LIMS1', 'KLF6', 'KLK10', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'CDR2L', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'OPLAH', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'MRC2', 'C15orf48', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'AKR1C2', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'SNHG1', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'FAM193B', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[['IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14636,12 +14636,12 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['LAMC2', 'CCL20', 'KRT5', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'S100A11', 'NOTCH1', 'ADGRG1', 'FLNA', 'EPPK1', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'SYNE2', 'SGK1', 'MMP7', 'ALOX15B', 'PTPRM', 'CYP1B1', 'PLXNB1', 'FN1', 'KRT16', 'CARD10', 'RREB1', 'ITGA2', 'CDH1', 'EPHB2', 'IL1B', 'DCN', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'PTGS2', 'CXCL16', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'CCL28', 'ITGB1BP1', 'MDK', 'STMN1', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'GLUL', 'EPHA2', 'MMP9', 'IGFBP3', 'DLG5', 'CLDN1', 'LAMA3', 'PAK1', 'SERPINE1', 'RAP2B', 'TMSB4X']</t>
+          <t>['LAMA3', 'RAP2B', 'PAK1', 'ZNF703', 'COL1A1', 'ITGA2', 'CXCL16', 'IL1B', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'SGK1', 'FLNA', 'LAMC2', 'GLUL', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'CLDN1', 'CYP1B1', 'RREB1', 'ANXA3', 'SOD2', 'DCN', 'TIMP1', 'MDK', 'DLG5', 'STMN1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'CCL20', 'TNC', 'SPHK1', 'OGT', 'FERMT2', 'EPHB2', 'CARD10', 'S100A11', 'KRT5', 'SUN2', 'NOTCH1', 'F3', 'CCL28', 'PTGS2', 'TACSTD2', 'ACKR3', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'TMSB4X', 'KRT16', 'EDN1', 'FN1', 'CDH1', 'EPPK1', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'IBA'], ['ISS'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IDA'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IGI'], ['IDA'], ['IDA'], ['NAS'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA'], ['NAS'], ['IDA'], ['NAS'], ['IMP'], ['IGI'], ['IMP'], ['IMP'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IDA'], ['IBA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14702,12 +14702,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>['BCL6', 'IVNS1ABP', 'NET1', 'ITGA5', 'HMGN5', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'SOX4', 'FLNA', 'TSC22D3', 'GADD45B', 'ACKR3', 'EDN1', 'TIA1', 'SQSTM1', 'CCND1', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'VNN1', 'TNFSF10', 'BIRC5', 'TGM2', 'CYP1B1', 'MUC1', 'FAP', 'GPAM', 'PDK4', 'CHD8', 'ST6GAL1', 'UNC5B', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'VSTM2L', 'ALDH1A3', 'TXNIP', 'NR4A1', 'IL1B', 'GSN', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'MAD2L1', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'SERPINB2', 'IER3', 'HMGB2', 'EGR1', 'MDK', 'ITGAV', 'LGALS3', 'ACTB', 'CLDN7', 'TFAP2A', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['ST6GAL1', 'PDK4', 'MYBBP1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'MDM4', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'MAD2L1', 'SGK1', 'FLNA', 'SERPINE1', 'SQSTM1', 'UNC5B', 'VSTM2L', 'CYP1B1', 'FNIP1', 'GSN', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'DLG5', 'BIRC3', 'VNN1', 'PIM3', 'IGFBP3', 'MMP9', 'S100A8', 'TXNIP', 'SPHK1', 'OGT', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'BIRC5', 'NOTCH1', 'PLAUR', 'PTGS2', 'HMGN5', 'ACKR3', 'DKK1', 'GADD45B', 'AKR1C3', 'SOX4', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'LGALS3', 'EGR1', 'ALDH1A3', 'TIA1', 'LOX', 'ACTB', 'TLE1', 'HMGB2', 'TSC22D3', 'EDN1', 'GPAM', 'FAP', 'CCND1', 'TFAP2A', 'NET1', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'TAS'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP']]</t>
+          <t>[['IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['TAS'], ['IMP'], ['IMP'], ['IMP', 'TAS'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14768,12 +14768,12 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'ELF3', 'KRT17', 'NET1', 'NNMT', 'SUCO', 'AKR1C2', 'AQP3', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'HMGN5', 'TACSTD2', 'KLF6', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'CDC20', 'SLC5A3', 'PIEZO1', 'CTSV', 'STK25', 'KLK7', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'SLC44A2', 'C1R', 'PTGES', 'ABL2', 'CCDC80', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'SQSTM1', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'MALAT1', 'VNN1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'BIRC5', 'AMTN', 'ADIRF', 'TGM2', 'CYP1B1', 'PLXNB1', 'CAMK2N1', 'SPIRE1', 'MUC1', 'FN1', 'NFAT5', 'FAP', 'GPAM', 'MACC1', 'CHD8', 'ST6GAL1', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'ALDH1A3', 'C3', 'RREB1', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'CRB3', 'NR4A1', 'EPHB2', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'PDE4DIP', 'MFI2', 'GSN', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'MAD2L1', 'CXCL16', 'FOS', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'CCL28', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'CRABP2', 'SUN2', 'NFYB', 'MED19', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'ZFP36', 'B4GALT5', 'VIM', 'CFB', 'CLDN1', 'PNPLA2', 'KRT10', 'TRIM38', 'TMEM132A', 'ANGPTL4', 'IRF1', 'PAK1', 'SERPINE1', 'MLXIP', 'RAP2B', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'TMSB4X', 'GIGYF2', 'LPIN1', 'MME']</t>
+          <t>['CCNB1', 'ST6GAL1', 'NNMT', 'AMTN', 'RAP2B', 'ATP1B1', 'CCDC80', 'ADD3', 'PAK1', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'CXCL16', 'GJA5', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'SEMA3C', 'STK25', 'SGK1', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'PLAU', 'TGM1', 'CLDN1', 'PTGES', 'LPIN1', 'CDH2', 'CYP1B1', 'FNIP1', 'RREB1', 'SLC5A3', 'GSN', 'MLXIP', 'ANXA3', 'SAA1', 'SERTAD3', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'PWWP2B', 'NFYB', 'NMU', 'DLG5', 'BIRC3', 'ISG15', 'CLIC3', 'VNN1', 'LMO7', 'IRF1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'NSUN5', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'MME', 'S100A11', 'ANGPTL4', 'CDKN1C', 'SESN2', 'AQP3', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'PTGS2', 'HMGN5', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'IGFBP6', 'KLK5', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'KIF23', 'ATG2A', 'KRT10', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'MALAT1', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'KLF6', 'TBC1D8', 'GIGYF2', 'EGR1', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'B4GALT5', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'N4BP2L2', 'VIM', 'CNTNAP2', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'AKR1C2', 'ADIRF', 'EDN1', 'TP53INP2', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'NAS'], ['IDA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['HMP'], ['IEA'], ['IEA'], ['IMP', 'ISS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS'], ['TAS'], ['IMP'], ['IDA'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS'], ['TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['NAS'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISO', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IMP', 'TAS', 'IC'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['NAS'], ['IDA'], ['IMP', 'ISS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IMP', 'IGI', 'NAS'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IGI'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'NAS'], ['IMP', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'NAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'NAS'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['ISS'], ['IEA'], ['ISO', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['HMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IGI', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'IC'], ['IMP'], ['IDA', 'IBA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['IMP'], ['IDA'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14834,12 +14834,12 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'BCL6', 'CDH2', 'REL', 'CCL20', 'IVNS1ABP', 'KRT5', 'TUBA1A', 'PLAU', 'ANXA3', 'SEMA3C', 'PIM1', 'NOTCH1', 'PIEZO1', 'SLC39A8', 'KLK7', 'FLNA', 'CNTNAP2', 'C1R', 'EPPK1', 'PTGES', 'CCDC80', 'ITGB6', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SQSTM1', 'ISG15', 'PLAUR', 'MMP7', 'VNN1', 'TUBB4B', 'ELOVL4', 'ATP1B1', 'CAMK2N1', 'SPIRE1', 'SLPI', 'FAP', 'GPAM', 'KRT16', 'CHD8', 'ST6GAL1', 'LGALS1', 'BIRC3', 'CD24', 'ALDH1A3', 'C3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'GSN', 'BAD', 'OGT', 'CYR61', 'SPHK1', 'PTGS2', 'S100A8', 'CXCL16', 'KRT8', 'FOS', 'TNC', 'CITED2', 'SOD2', 'CCL28', 'SERPINB2', 'IER3', 'SAA1', 'HMGB2', 'TUBB', 'C15orf48', 'MDK', 'DDX56', 'STMN1', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'MGLL', 'GBP1', 'EPHA2', 'MMP9', 'IFITM2', 'ATR', 'ZFP36', 'LOX', 'VIM', 'CFB', 'CLDN1', 'TRIM38', 'TRIML2', 'IRF1', 'PAK1', 'SERPINE1', 'ASH1L', 'TMSB4X', 'GIGYF2']</t>
+          <t>['ST6GAL1', 'ATP1B1', 'CCDC80', 'PAK1', 'COL1A1', 'SLC39A8', 'STX3', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'TRIML2', 'CXCL16', 'IL1B', 'SLPI', 'CYR61', 'KLK7', 'MMP7', 'SEMA3C', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'SPIRE1', 'SERPINE1', 'SQSTM1', 'CFB', 'PLAU', 'CLDN1', 'PTGES', 'CDH2', 'EVPL', 'TUBB', 'GSN', 'ANXA3', 'SAA1', 'SLC2A1', 'SOD2', 'ITGB6', 'BAD', 'MDK', 'MGLL', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'VNN1', 'IRF1', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'TXNIP', 'TNC', 'SPHK1', 'OGT', 'REL', 'LGALS1', 'EPHB2', 'KRT5', 'NOTCH1', 'ELOVL4', 'F3', 'PLAUR', 'CCL28', 'PTGS2', 'ACKR3', 'KLK5', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'ITGAV', 'CITED2', 'IER3', 'LGALS3', 'TUBB4B', 'GIGYF2', 'ALDH1A3', 'FOS', 'TUBA1A', 'LOX', 'ATR', 'LDLR', 'TMSB4X', 'KRT8', 'C15orf48', 'VIM', 'KRT16', 'CNTNAP2', 'HMGB2', 'SLC26A6', 'EDN1', 'PIEZO1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'DDX56', 'EPPK1', 'EPHA2', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IBA', 'IEA'], ['TAS'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS'], ['ISS'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IBA'], ['IDA'], ['IDA', 'IEA'], ['IBA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['TAS', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IC'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['TAS'], ['ISS'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IEP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['ISO', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'NAS'], ['IDA', 'IEP', 'ISS', 'IEA'], ['NAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IC'], ['ISS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IEP', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IEA'], ['IDA', 'IMP'], ['IDA']]</t>
+          <t>[['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IBA', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IMP', 'ISS', 'IEA'], ['ISS'], ['IEP'], ['TAS'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['IDA'], ['IMP', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IC'], ['TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA'], ['TAS'], ['IMP', 'TAS'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IC'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['LAMB3', 'THOC2', 'BCL6', 'CDH2', 'ELF3', 'KRT17', 'AQP3', 'TUBA1A', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'PIM1', 'NOTCH1', 'MFAP5', 'IGFBP7', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'IL1RN', 'ITGB6', 'ACKR3', 'EDN1', 'LDLR', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PSMB10', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'SPIRE1', 'ERRFI1', 'FN1', 'FAP', 'KRT16', 'LAMB2', 'UNC5B', 'CARD10', 'GJA5', 'ALDH1A3', 'C3', 'RREB1', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'TPM4', 'CSRP1', 'LZTS2', 'BCL2L11', 'IRX3', 'TGFBI', 'ST14', 'CYR61', 'SPHK1', 'PTGS2', 'TLE1', 'BAMBI', 'KRT8', 'LRIG3', 'ITGB5', 'TNC', 'CITED2', 'FERMT2', 'ITGB1BP1', 'IER3', 'MDK', 'STMN1', 'MYL9', 'CRABP2', 'ANKRD11', 'ITGAV', 'COL1A1', 'ACTB', 'F3', 'GLUL', 'TRAK1', 'EPHA2', 'TFAP2A', 'MMP9', 'VPS51', 'S100A6', 'CLIC3', 'DLG5', 'EPGN', 'TUFT1', 'B4GALT5', 'LOX', 'ID1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'PAK1', 'SERPINE1', 'RDH10', 'ASH1L', 'FGFR3']</t>
+          <t>['LAMA3', 'AMTN', 'ANKRD11', 'PAK1', 'BAMBI', 'CRABP2', 'COL1A1', 'PSMB10', 'C3', 'NR4A1', 'MDM4', 'ITGA2', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'SGK1', 'ITGB5', 'TGFBI', 'FGFR3', 'COL4A2', 'FLNA', 'GLUL', 'SPIRE1', 'SERPINE1', 'IRX3', 'ADGRG1', 'UNC5B', 'PALLD', 'CDH2', 'CYP1B1', 'RREB1', 'ST14', 'CSRP1', 'ANXA3', 'DCN', 'ITGB6', 'MDK', 'LAMB3', 'DLG5', 'STMN1', 'CLIC3', 'TUBB3', 'PTPRM', 'VPS51', 'ITGB1BP1', 'MMP9', 'MAP2', 'TNC', 'IL1RN', 'SPHK1', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'EPHB2', 'CARD10', 'MFAP5', 'LRIG3', 'ANGPTL4', 'AQP3', 'EPGN', 'NOTCH1', 'F3', 'THOC2', 'PTGS2', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'KLK5', 'ERRFI1', 'SOX4', 'LAMB2', 'MYL9', 'ID1', 'BCL6', 'TGM2', 'IRX5', 'ITGAV', 'CITED2', 'IER3', 'PLXNB1', 'ALDH1A3', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'KRT16', 'CNTNAP2', 'IGF2BP3', 'EDN1', 'FN1', 'CDH1', 'TUFT1', 'FAP', 'TFAP2A', 'RDH10', 'EPHA2', 'ASH1L', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[['IEP', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEP', 'ISS'], ['IBA'], ['ISS'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IMP', 'IEP', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['TAS'], ['IEP', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP'], ['IEA'], ['IEA'], ['IEP', 'NAS'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['IEP'], ['IDA'], ['NAS'], ['IDA'], ['IEA'], ['IDA'], ['NAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEP'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IEA'], ['IEA'], ['ISS', 'TAS']]</t>
+          <t>[['IEP'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS'], ['IEP', 'TAS', 'IEA'], ['IMP', 'IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEP', 'NAS'], ['IEP'], ['ISS', 'TAS'], ['IDA', 'IEP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IGI', 'TAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IEA'], ['IEP'], ['IEP', 'ISS'], ['ISO', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IBA'], ['IEA'], ['TAS', 'IEA'], ['IEP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['TAS'], ['ISS', 'IEA'], ['ISS'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -14966,12 +14966,12 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['BCL6', 'IVNS1ABP', 'NET1', 'ITGA5', 'HMGN5', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'SOX4', 'FLNA', 'TSC22D3', 'GADD45B', 'ACKR3', 'EDN1', 'TIA1', 'SQSTM1', 'CCND1', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'VNN1', 'TNFSF10', 'BIRC5', 'TGM2', 'CYP1B1', 'MUC1', 'FAP', 'GPAM', 'PDK4', 'CHD8', 'ST6GAL1', 'UNC5B', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'VSTM2L', 'ALDH1A3', 'TXNIP', 'NR4A1', 'IL1B', 'GSN', 'BCL2L11', 'BAD', 'FNIP1', 'TIMP1', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'MAD2L1', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'SERPINB2', 'IER3', 'HMGB2', 'EGR1', 'MDK', 'ITGAV', 'LGALS3', 'ACTB', 'CLDN7', 'TFAP2A', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['ST6GAL1', 'PDK4', 'MYBBP1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'MDM4', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'MAD2L1', 'SGK1', 'FLNA', 'SERPINE1', 'SQSTM1', 'UNC5B', 'VSTM2L', 'CYP1B1', 'FNIP1', 'GSN', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'DLG5', 'BIRC3', 'VNN1', 'PIM3', 'IGFBP3', 'MMP9', 'S100A8', 'TXNIP', 'SPHK1', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'BIRC5', 'NOTCH1', 'PLAUR', 'PTGS2', 'HMGN5', 'ACKR3', 'DKK1', 'GADD45B', 'AKR1C3', 'SOX4', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'LGALS3', 'EGR1', 'ALDH1A3', 'TIA1', 'LOX', 'ACTB', 'TLE1', 'HMGB2', 'TSC22D3', 'EDN1', 'GPAM', 'FAP', 'CCND1', 'TFAP2A', 'NET1', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'TAS'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IMP']]</t>
+          <t>[['IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['TAS'], ['IMP'], ['IMP'], ['TAS'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15032,12 +15032,12 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'SLC38A10', 'PIM3', 'SLC5A3', 'GYS1', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'ECHDC2', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'SLC44A2', 'C1R', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'TP53I11', 'ABL2', 'ABCD4', 'LSR', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'MRC2', 'IDI1', 'SQSTM1', 'ZNF117', 'KCNK15', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'MALAT1', 'VNN1', 'PSMB10', 'CGN', 'TNFSF10', 'TUBB4B', 'ELOVL4', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'MT2A', 'ATP1B1', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'CAMK2N1', 'TMEM50B', 'SPIRE1', 'KLK10', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'CHI3L2', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'CREG1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'BAMBI', 'PDP1', 'CYTH1', 'MAD2L1', 'SNHG1', 'USP31', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'MSMO1', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'KRT81', 'CYP4B1', 'SAA1', 'EMP1', 'HMGB2', 'C1orf116', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'ANKRD11', 'MED19', 'NOL7', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'TAGLN', 'F3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'CDR2L', 'TFAP2A', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'DLG5', 'EPGN', 'TUFT1', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'FTH1', 'CFB', 'RASSF8', 'TP53I3', 'MTHFD2', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'TRIML2', 'ID1', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'ATP13A4', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'SPRR1B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ECHDC2', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'SLC39A8', 'USP31', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'MAL2', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYP4B1', 'GOLGA8B', 'SLPI', 'SRSF11', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'SLC2A12', 'ITGB5', 'TP53I11', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'ST14', 'SAT2', 'SLC5A3', 'GSN', 'NOM1', 'EMP1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'LAMB3', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'KCNK15', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'BIRC3', 'CA12', 'ISG15', 'IFITM2', 'UPP1', 'SAA2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'ACOX3', 'PIM3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'CARD10', 'PLCD1', 'AKAP11', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'LRIG3', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'C1orf116', 'TACSTD2', 'SLC38A10', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'TP53I3', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'GYS1', 'SERPINB2', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'MALAT1', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'PLXNB1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'C1orf56', 'LIMS1', 'TTC9', 'KLF6', 'KLK10', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'CDR2L', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'OPLAH', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'MRC2', 'C15orf48', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'AKR1C2', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'SNHG1', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IBA', 'TAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'ND'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'ND'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI', 'TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'HDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ND'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IBA', 'ND', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEP', 'TAS', 'IEA'], ['ND', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'ND'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IEP', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IC', 'IEA'], ['IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'HDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'ND', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'ND'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ND'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IBA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HEP', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'HEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ND', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15098,12 +15098,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>['BCL6', 'PLAU', 'ITGA5', 'TACSTD2', 'NOTCH1', 'PIEZO1', 'SOX4', 'ADGRG1', 'FLNA', 'ABL2', 'IL1RN', 'CCDC80', 'ZNF703', 'STX3', 'LIMS1', 'PLAUR', 'VNN1', 'TGM2', 'CYP1B1', 'PLXNB1', 'MUC1', 'FN1', 'NFAT5', 'GPAM', 'ST6GAL1', 'LAMB2', 'LGALS1', 'CD24', 'RREB1', 'ITGA2', 'CDH1', 'EPHB2', 'IL1B', 'MFI2', 'BAD', 'TGFBI', 'CYR61', 'CYTH1', 'TNC', 'CITED2', 'FERMT2', 'CCL28', 'ITGB1BP1', 'SAA1', 'EPCAM', 'MDK', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'GBP1', 'CLDN7', 'EPHA2', 'DLG5', 'LAMA3', 'IRF1', 'SERPINE1', 'LMO7']</t>
+          <t>['ST6GAL1', 'LAMA3', 'CCDC80', 'ZNF703', 'COL1A1', 'STX3', 'ITGA2', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'TGFBI', 'FLNA', 'CD24', 'ABL2', 'SERPINE1', 'ADGRG1', 'PLAU', 'CYP1B1', 'RREB1', 'SAA1', 'MFI2', 'BAD', 'MDK', 'MUC1', 'DLG5', 'VNN1', 'LMO7', 'IRF1', 'ITGB1BP1', 'TNC', 'IL1RN', 'EPCAM', 'FERMT2', 'LGALS1', 'EPHB2', 'NFAT5', 'NOTCH1', 'PLAUR', 'CCL28', 'TACSTD2', 'SOX4', 'LAMB2', 'BCL6', 'TGM2', 'ITGAV', 'CITED2', 'LGALS3', 'PLXNB1', 'LIMS1', 'ACTB', 'CYTH1', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'EPHA2']</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[['IMP', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'TAS'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'IBA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['NAS'], ['IDA', 'IEA'], ['IDA', 'IBA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'NAS'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS'], ['NAS'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'NAS'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IBA'], ['ISS', 'TAS'], ['IDA'], ['IDA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'NAS'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IGI'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS'], ['IDA', 'IBA'], ['IMP', 'IBA'], ['NAS'], ['IDA'], ['IMP'], ['IDA'], ['IMP'], ['IMP'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -15164,12 +15164,12 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'SLC38A10', 'PIM3', 'SLC5A3', 'GYS1', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'ECHDC2', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'SLC44A2', 'C1R', 'TMEM185B', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'TP53I11', 'SPATS2', 'ABL2', 'ABCD4', 'LSR', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'DDX50', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'MRC2', 'IDI1', 'SQSTM1', 'ZNF117', 'KCNK15', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'NEAT1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'VNN1', 'PSMB10', 'CGN', 'TNFSF10', 'TUBB4B', 'LAD1', 'ELOVL4', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'MT2A', 'ATP1B1', 'SPINK6', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'CAMK2N1', 'TMEM50B', 'SPIRE1', 'KLK10', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'CHI3L2', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'ANKMY2', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'CREG1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'FAM193B', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'BAMBI', 'PDP1', 'CYTH1', 'MAD2L1', 'SNHG1', 'USP31', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'MSMO1', 'RARRES1', 'DSEL', 'CCL28', 'ARHGEF37', 'SLC26A2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'KRT81', 'CYP4B1', 'SAA1', 'EMP1', 'HMGB2', 'C1orf116', 'CEP170B', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'ANKRD11', 'MED19', 'NOL7', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'TAGLN', 'F3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'CDR2L', 'TFAP2A', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'PDZK1IP1', 'DLG5', 'EPGN', 'TUFT1', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'FTH1', 'CFB', 'TP53I3', 'MTHFD2', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'TRIML2', 'ID1', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'ATP13A4', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'SPRR1B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ECHDC2', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'SLC39A8', 'USP31', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'MAL2', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYP4B1', 'GOLGA8B', 'SLPI', 'SRSF11', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'ANKMY2', 'LZTS2', 'DLK2', 'SPINK6', 'SGK1', 'SLC2A12', 'ITGB5', 'TP53I11', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'NEAT1', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'CEP170B', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'ST14', 'SAT2', 'SLC5A3', 'GSN', 'NOM1', 'EMP1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'LAD1', 'BAD', 'MDK', 'MUC1', 'LAMB3', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'KCNK15', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'DDX50', 'BIRC3', 'CA12', 'ISG15', 'IFITM2', 'UPP1', 'SAA2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'ACOX3', 'PIM3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'CARD10', 'PLCD1', 'AKAP11', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'LRIG3', 'SPATS2', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'TMEM185B', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'C1orf116', 'TACSTD2', 'SLC38A10', 'ARHGEF37', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'TP53I3', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'GYS1', 'SERPINB2', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'DSEL', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'PLXNB1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'C1orf56', 'LIMS1', 'KLF6', 'KLK10', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'CDR2L', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'OPLAH', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'MRC2', 'C15orf48', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'AKR1C2', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'SNHG1', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'FAM193B', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[['IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'ND', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISO', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'ND', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'ND', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'ND', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['HTP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISO', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS'], ['EXP', 'IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15230,12 +15230,12 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['CDH2', 'PLAU', 'ITGA5', 'DST', 'FLNA', 'EPPK1', 'ITGB6', 'LIMS1', 'SYNE2', 'MRC2', 'PLAUR', 'KIF23', 'ALOX15B', 'TGM2', 'PALLD', 'FAP', 'ITGA2', 'TPM4', 'GSN', 'CSRP1', 'ITGB5', 'TNC', 'FERMT2', 'ITGAV', 'ACTB', 'EPHA2', 'VIM', 'LAMA3', 'PAK1', 'PDLIM7', 'FGFR3', 'LMO7', 'MME']</t>
+          <t>['PDLIM7', 'LAMA3', 'PAK1', 'ITGA2', 'ITGA5', 'ITGB5', 'FGFR3', 'DST', 'FLNA', 'PLAU', 'PALLD', 'CDH2', 'GSN', 'CSRP1', 'ITGB6', 'LMO7', 'TNC', 'FERMT2', 'TPM4', 'MME', 'PLAUR', 'KIF23', 'TGM2', 'ITGAV', 'ALOX15B', 'LIMS1', 'ACTB', 'MRC2', 'VIM', 'FAP', 'EPPK1', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IEA'], ['IEA'], ['IDA'], ['TAS'], ['HDA'], ['HDA']]</t>
+          <t>[['IDA'], ['IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15296,12 +15296,12 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['BCL6', 'IVNS1ABP', 'NET1', 'TUBA1A', 'ITGA5', 'HMGN5', 'KCNIP3', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'STK25', 'SOX4', 'FLNA', 'TSC22D3', 'GADD45B', 'ACKR3', 'EDN1', 'TIA1', 'SQSTM1', 'CCND1', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'ERRFI1', 'MUC1', 'FAP', 'SORT1', 'GPAM', 'PDK4', 'CHD8', 'ST6GAL1', 'UNC5B', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'VSTM2L', 'ALDH1A3', 'TXNIP', 'NR4A1', 'IL1B', 'GSN', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'MAD2L1', 'KRT8', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'SERPINB2', 'IER3', 'EMP1', 'HMGB2', 'EGR1', 'MDK', 'ITGAV', 'LGALS3', 'ACTB', 'CLDN7', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'ANGPTL4', 'IRF1', 'PAK1', 'SERPINE1', 'FGFR3']</t>
+          <t>['ST6GAL1', 'SORT1', 'PAK1', 'PDK4', 'MYBBP1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'MDM4', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'MAD2L1', 'STK25', 'SGK1', 'FGFR3', 'FLNA', 'CD24', 'SERPINE1', 'SQSTM1', 'UNC5B', 'VSTM2L', 'CYP1B1', 'FNIP1', 'GSN', 'EMP1', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'DLG5', 'BIRC3', 'VNN1', 'KCNIP3', 'PIM3', 'IRF1', 'IGFBP3', 'MMP9', 'S100A8', 'TXNIP', 'SPHK1', 'OGT', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'BIRC5', 'NOTCH1', 'PLAUR', 'PTGS2', 'HMGN5', 'ACKR3', 'DKK1', 'GADD45B', 'ERRFI1', 'AKR1C3', 'SOX4', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'EGR1', 'ALDH1A3', 'TIA1', 'TUBA1A', 'LOX', 'ACTB', 'KRT8', 'TLE1', 'HMGB2', 'TSC22D3', 'EDN1', 'GPAM', 'FAP', 'CCND1', 'TFAP2A', 'EPHA2', 'NET1', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IGI'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IGI'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15362,12 +15362,12 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['BCL6', 'IVNS1ABP', 'NET1', 'TUBA1A', 'ITGA5', 'HMGN5', 'KCNIP3', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'STK25', 'SOX4', 'FLNA', 'TSC22D3', 'GADD45B', 'ACKR3', 'EDN1', 'TIA1', 'SQSTM1', 'CCND1', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'ERRFI1', 'MUC1', 'FAP', 'SORT1', 'GPAM', 'PDK4', 'CHD8', 'ST6GAL1', 'UNC5B', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'VSTM2L', 'ALDH1A3', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'GSN', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'MAD2L1', 'KRT8', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'SERPINB2', 'IER3', 'EMP1', 'HMGB2', 'EGR1', 'MDK', 'ITGAV', 'LGALS3', 'ACTB', 'CLDN7', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'ANGPTL4', 'IRF1', 'PAK1', 'SERPINE1', 'FGFR3']</t>
+          <t>['ST6GAL1', 'SORT1', 'PAK1', 'PDK4', 'MYBBP1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'MDM4', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'MAD2L1', 'STK25', 'SGK1', 'FGFR3', 'FLNA', 'CD24', 'SERPINE1', 'SQSTM1', 'UNC5B', 'VSTM2L', 'CYP1B1', 'FNIP1', 'GSN', 'EMP1', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'DLG5', 'BIRC3', 'VNN1', 'KCNIP3', 'PIM3', 'IRF1', 'IGFBP3', 'MMP9', 'S100A8', 'TXNIP', 'SPHK1', 'OGT', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'BIRC5', 'NOTCH1', 'PLAUR', 'PTGS2', 'HMGN5', 'ACKR3', 'DKK1', 'GADD45B', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'EGR1', 'ALDH1A3', 'TIA1', 'TUBA1A', 'LOX', 'ACTB', 'KRT8', 'TLE1', 'HMGB2', 'TSC22D3', 'EDN1', 'GPAM', 'FAP', 'CCND1', 'TFAP2A', 'EPHA2', 'NET1', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IGI'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IGI'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IMP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['BCL6', 'IVNS1ABP', 'NET1', 'TUBA1A', 'ITGA5', 'HMGN5', 'KCNIP3', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'STK25', 'SOX4', 'FLNA', 'TSC22D3', 'GADD45B', 'ACKR3', 'EDN1', 'TIA1', 'SQSTM1', 'CCND1', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'ERRFI1', 'MUC1', 'FAP', 'SORT1', 'GPAM', 'PDK4', 'CHD8', 'ST6GAL1', 'UNC5B', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'VSTM2L', 'ALDH1A3', 'KLK5', 'TXNIP', 'NR4A1', 'IL1B', 'GSN', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'MAD2L1', 'KRT8', 'CDKN1A', 'CITED2', 'SOD2', 'MYBBP1A', 'SERPINB2', 'IER3', 'EMP1', 'HMGB2', 'EGR1', 'MDK', 'ITGAV', 'LGALS3', 'ACTB', 'CLDN7', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'DLG5', 'ZFP36', 'LOX', 'FTH1', 'ANGPTL4', 'IRF1', 'PAK1', 'SERPINE1', 'FGFR3']</t>
+          <t>['ST6GAL1', 'SORT1', 'PAK1', 'PDK4', 'MYBBP1A', 'TNFSF10', 'NR4A1', 'ZFP36', 'MDM4', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'MAD2L1', 'STK25', 'SGK1', 'FGFR3', 'FLNA', 'CD24', 'SERPINE1', 'SQSTM1', 'UNC5B', 'VSTM2L', 'CYP1B1', 'FNIP1', 'GSN', 'EMP1', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'DLG5', 'BIRC3', 'VNN1', 'KCNIP3', 'PIM3', 'IRF1', 'IGFBP3', 'MMP9', 'S100A8', 'TXNIP', 'SPHK1', 'OGT', 'BCL2L11', 'ATF3', 'CTSV', 'LGALS1', 'CARD10', 'ANGPTL4', 'BIRC5', 'NOTCH1', 'PLAUR', 'PTGS2', 'HMGN5', 'ACKR3', 'DKK1', 'GADD45B', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'EGR1', 'ALDH1A3', 'TIA1', 'TUBA1A', 'LOX', 'ACTB', 'KRT8', 'TLE1', 'HMGB2', 'TSC22D3', 'EDN1', 'GPAM', 'FAP', 'CCND1', 'TFAP2A', 'EPHA2', 'NET1', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IGI'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'IEA']]</t>
+          <t>[['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IGI'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IMP', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15494,12 +15494,12 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'KRT15', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'SLC38A10', 'PIM3', 'SLC5A3', 'GYS1', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'ECHDC2', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'SLC44A2', 'C1R', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'SPATS2', 'ABL2', 'ABCD4', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'DDX50', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'MRC2', 'IDI1', 'SQSTM1', 'ZNF117', 'KCNK15', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'C1orf74', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'VNN1', 'PSMB10', 'CGN', 'TNFSF10', 'TUBB4B', 'LAD1', 'ELOVL4', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'MT2A', 'ATP1B1', 'SPINK6', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'CAMK2N1', 'TMEM50B', 'SPIRE1', 'KLK10', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'CHI3L2', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'ANKMY2', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'CREG1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'FAM193B', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'BAMBI', 'PDP1', 'CYTH1', 'MAD2L1', 'USP31', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'TTC14', 'MSMO1', 'RARRES1', 'DSEL', 'CCL28', 'ARHGEF37', 'SLC26A2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'KRT81', 'CYP4B1', 'SAA1', 'EMP1', 'HMGB2', 'C1orf116', 'CEP170B', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'UBALD2', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'ANKRD11', 'MED19', 'NOL7', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'TAGLN', 'F3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'CDR2L', 'TFAP2A', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'PDZK1IP1', 'DLG5', 'EPGN', 'TUFT1', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'FTH1', 'CFB', 'RASSF8', 'TP53I3', 'MTHFD2', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'TRIML2', 'ID1', 'SAT2', 'IRGQ', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'ATP13A4', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'SPRR1B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ECHDC2', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'SLC39A8', 'USP31', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'MAL2', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYP4B1', 'GOLGA8B', 'SLPI', 'SRSF11', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'ANKMY2', 'LZTS2', 'DLK2', 'SPINK6', 'SGK1', 'SLC2A12', 'ITGB5', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'CEP170B', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'ST14', 'SAT2', 'SLC5A3', 'GSN', 'NOM1', 'C1orf74', 'EMP1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'LAD1', 'BAD', 'MDK', 'MUC1', 'LAMB3', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'KCNK15', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'DDX50', 'BIRC3', 'CA12', 'ISG15', 'UPP1', 'SAA2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'ACOX3', 'PIM3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'CARD10', 'PLCD1', 'AKAP11', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'LRIG3', 'SPATS2', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'UBALD2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'C1orf116', 'TACSTD2', 'SLC38A10', 'ARHGEF37', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'TP53I3', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'GYS1', 'SERPINB2', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'DSEL', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'PLXNB1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'C1orf56', 'LIMS1', 'TTC9', 'KLF6', 'KLK10', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'IRGQ', 'CDR2L', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'OPLAH', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'TTC14', 'MACC1', 'MRC2', 'C15orf48', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'AKR1C2', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'FAM193B', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'RCA', 'NAS', 'IEA'], ['EXP', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['RCA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IBA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['EXP', 'IPI', 'NAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['EXP', 'IPI', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'RCA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['HDA', 'NAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['RCA', 'TAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'RCA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IMP', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IPI'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IPI', 'IEP', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'NAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'ND', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'ND'], ['IPI', 'ND'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IPI', 'ND'], ['IPI', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IPI', 'TAS'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['EXP', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IPI', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IPI', 'ISS', 'RCA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IPI', 'IBA', 'NAS'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'ND'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HDA', 'ISS', 'RCA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'NAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'RCA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'RCA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'ND'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'IGI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'RCA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'ND'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'NAS'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'ISS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['RCA', 'NAS', 'IEA'], ['ND', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'RCA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA']]</t>
+          <t>[['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['RCA', 'NAS', 'IEA'], ['IPI', 'ND'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'ND'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'RCA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'RCA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IMP', 'IBA', 'RCA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['EXP', 'IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['EXP', 'IPI', 'HDA', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['RCA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'ISS', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'NAS'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IPI', 'IBA', 'TAS'], ['EXP', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'ISS', 'RCA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEP', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI'], ['IPI', 'RCA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ND'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'RCA', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'RCA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'ISA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['RCA', 'TAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['HDA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IPI', 'IMP', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA'], ['EXP', 'IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS'], ['IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'NAS'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IPI', 'HDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['HDA', 'NAS', 'IEA'], ['IPI', 'ND'], ['IPI'], ['IBA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'TAS', 'NAS', 'IEA'], ['IPI', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IPI', 'ISS', 'RCA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['EXP', 'IPI', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IPI', 'ND'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'IGI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'IEA'], ['EXP', 'IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'ND', 'IEA'], ['IPI'], ['EXP', 'IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'NAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'ND'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'RCA', 'NAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['EXP', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IPI', 'IMP', 'NAS'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'ISA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['ND', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'IBA', 'RCA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15560,12 +15560,12 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'IVNS1ABP', 'KRT17', 'NET1', 'FBXO32', 'KRT5', 'KRT15', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'KANK4', 'CDC20', 'SLC46A3', 'PIM3', 'SLC5A3', 'GYS1', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'STK25', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'TUBA4A', 'TSC22D3', 'PTGES', 'GOLGA8B', 'FDPS', 'SPATS2', 'ABL2', 'ABCD4', 'IL1RN', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'MRC2', 'IDI1', 'SQSTM1', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'C1orf74', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'PSMB10', 'CGN', 'TNFSF10', 'TUBB4B', 'LAD1', 'ELOVL4', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'MT2A', 'ATP1B1', 'SPINK6', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'CAMK2N1', 'TMEM50B', 'SPIRE1', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'ANKMY2', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'FAM193B', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'BAMBI', 'PDP1', 'CYTH1', 'MAD2L1', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'TTC14', 'MSMO1', 'RARRES1', 'CCL28', 'ARHGEF37', 'PSCA', 'ITGB1BP1', 'IER3', 'KRT81', 'SAA1', 'EMP1', 'HMGB2', 'C1orf116', 'CEP170B', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'UBALD2', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'ANKRD11', 'MED19', 'NOL7', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'TAGLN', 'F3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'CDR2L', 'TFAP2A', 'MMP9', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'PDZK1IP1', 'DLG5', 'EPGN', 'TUFT1', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'FTH1', 'CFB', 'RASSF8', 'TP53I3', 'MTHFD2', 'CLDN1', 'PNPLA2', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'TRIML2', 'ID1', 'SAT2', 'IRGQ', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'MAL2', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'GOLGA8B', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'ANKMY2', 'LZTS2', 'DLK2', 'SPINK6', 'SGK1', 'ITGB5', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'EHF', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'CEP170B', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'TUBB', 'NDOR1', 'ST14', 'SAT2', 'SLC5A3', 'GSN', 'NOM1', 'C1orf74', 'EMP1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'LAD1', 'BAD', 'MDK', 'MUC1', 'LAMB3', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'UPP1', 'SAA2', 'CLIC3', 'KCNIP3', 'TUBB3', 'PIM3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'MAP2', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'LRIG3', 'SPATS2', 'ANGPTL4', 'CDKN1C', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'UBALD2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'PTGS2', 'C1orf116', 'TACSTD2', 'ARHGEF37', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'TP53I3', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'GYS1', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'PLXNB1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'C1orf56', 'LIMS1', 'TTC9', 'KLF6', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'IRGQ', 'CDR2L', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'OPLAH', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'TTC14', 'MACC1', 'MRC2', 'C15orf48', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'ALDH3A1', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'FAM193B', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'TAS', 'NAS'], ['HDA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IPI', 'TAS'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA'], ['IPI', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA'], ['HDA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS'], ['IPI', 'IBA', 'TAS'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA'], ['IPI'], ['IDA', 'IPI', 'IGI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'TAS'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'TAS'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'HDA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA']]</t>
+          <t>[['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'IPI'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IBA', 'TAS'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IBA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['HDA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI', 'IEA'], ['IDA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'TAS'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'TAS'], ['IEA'], ['IPI', 'TAS'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'TAS', 'NAS'], ['IPI'], ['IPI'], ['IPI'], ['IEA'], ['IPI'], ['IPI'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IDA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IBA', 'NAS'], ['IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI', 'IEA'], ['IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI']]</t>
         </is>
       </c>
     </row>
@@ -15626,12 +15626,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['LAMB3', 'SLC2A1', 'THOC2', 'BCL6', 'CDH2', 'ELF3', 'MAL2', 'KRT17', 'AQP3', 'TUBA1A', 'CCNB2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'SLC38A10', 'SLC5A3', 'GYS1', 'CKB', 'IGFBP7', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'ABL2', 'LSR', 'IL1RN', 'PCDH9', 'ITGB6', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'VNN1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'ERRFI1', 'FN1', 'FAP', 'CHD8', 'CLMN', 'LAMB2', 'UNC5B', 'LGALS1', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'ALDH1A3', 'C3', 'IGF2BP3', 'ITGA2', 'CDH1', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'GSN', 'LZTS2', 'BCL2L11', 'BAD', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'ST14', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'TNC', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'SLC26A2', 'ITGB1BP1', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'MDK', 'DDX56', 'STMN1', 'CRABP2', 'SUN2', 'ANKRD11', 'ITGAV', 'COL1A1', 'ACTB', 'F3', 'GLUL', 'TRAK1', 'EPHA2', 'TFAP2A', 'MMP9', 'VPS51', 'HES2', 'S100A6', 'CLIC3', 'DLG5', 'EPGN', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'ID1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'IRF1', 'PAK1', 'PDLIM7', 'SERPINE1', 'TACC3', 'RDH10', 'ASH1L', 'FGFR3', 'CENPF', 'GIGYF2', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'AMTN', 'ANKRD11', 'PAK1', 'CRABP2', 'COL1A1', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'GJA5', 'MAL2', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'SGK1', 'SLC2A12', 'ITGB5', 'TGFBI', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'GLUL', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'UNC5B', 'PALLD', 'CLDN1', 'LPIN1', 'CDH2', 'CYP1B1', 'ST14', 'SLC5A3', 'GSN', 'CCNB2', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'LAMB3', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'ISG15', 'CLIC3', 'VNN1', 'TUBB3', 'IRF1', 'PTPRM', 'VPS51', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TNC', 'IL1RN', 'NSUN5', 'SPHK1', 'EPCAM', 'OGT', 'BCL2L11', 'FERMT2', 'IGFBP7', 'LGALS1', 'EPHB2', 'CARD10', 'MFAP5', 'MME', 'LRIG3', 'ANGPTL4', 'AQP3', 'SUN2', 'EPGN', 'NOTCH1', 'F3', 'THOC2', 'PTGS2', 'TACSTD2', 'SLC38A10', 'ACKR3', 'DKK1', 'ELF3', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'GYS1', 'ID1', 'BCL6', 'TGM2', 'IRX5', 'CDK1', 'ITGAV', 'CITED2', 'ALOX15B', 'PLXNB1', 'CKB', 'TTC9', 'HES2', 'GIGYF2', 'EGR1', 'ALDH1A3', 'FOS', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'N4BP2L2', 'TACC3', 'VIM', 'CNTNAP2', 'HMGB2', 'IGF2BP3', 'SLC26A2', 'EDN1', 'FN1', 'CDH1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'SYNE2', 'RDH10', 'EPHA2', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[['IEP'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['HEP'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEP', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['HEP', 'IBA', 'NAS'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['IEP', 'ISS', 'IEA'], ['IDA'], ['IBA'], ['NAS'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['IEP', 'IEA'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IMP'], ['IEA'], ['IEA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IBA'], ['IEA'], ['IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['ISS'], ['IEP', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP'], ['IEP', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IEP', 'IEA'], ['IEA'], ['IMP', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEP'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['ISO', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA'], ['IGI', 'IEP', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['TAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['HEP'], ['IEA'], ['IBA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['HEP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IBA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IMP', 'ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'ISS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15692,12 +15692,12 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'ELF3', 'KRT17', 'NET1', 'NNMT', 'SUCO', 'AKR1C2', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'HMGN5', 'TACSTD2', 'KLF6', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'CDC20', 'SLC5A3', 'PIEZO1', 'CTSV', 'STK25', 'KLK7', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'SLC44A2', 'PTGES', 'ABL2', 'CCDC80', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'SQSTM1', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'MALAT1', 'VNN1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'BIRC5', 'ADIRF', 'TGM2', 'CYP1B1', 'PLXNB1', 'SPIRE1', 'MUC1', 'FN1', 'NFAT5', 'FAP', 'GPAM', 'MACC1', 'CHD8', 'ST6GAL1', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'ALDH1A3', 'C3', 'RREB1', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'CRB3', 'NR4A1', 'EPHB2', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'PDE4DIP', 'MFI2', 'GSN', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'MAD2L1', 'CXCL16', 'FOS', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'CCL28', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'CRABP2', 'SUN2', 'NFYB', 'MED19', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'S100A6', 'ATR', 'DLG5', 'EPGN', 'ZFP36', 'VIM', 'CLDN1', 'PNPLA2', 'TRIM38', 'TMEM132A', 'IRF1', 'PAK1', 'SERPINE1', 'MLXIP', 'RAP2B', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'TMSB4X', 'GIGYF2', 'LPIN1', 'MME']</t>
+          <t>['CCNB1', 'ST6GAL1', 'NNMT', 'RAP2B', 'ATP1B1', 'CCDC80', 'ADD3', 'PAK1', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'CXCL16', 'GJA5', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'SEMA3C', 'STK25', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'TGM1', 'CLDN1', 'PTGES', 'LPIN1', 'CDH2', 'CYP1B1', 'FNIP1', 'RREB1', 'SLC5A3', 'GSN', 'MLXIP', 'ANXA3', 'SAA1', 'SERTAD3', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'PWWP2B', 'NFYB', 'NMU', 'DLG5', 'BIRC3', 'ISG15', 'VNN1', 'LMO7', 'IRF1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'CCL20', 'MAP2', 'TXNIP', 'TNC', 'NSUN5', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'MME', 'S100A11', 'CDKN1C', 'SESN2', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'PTGS2', 'HMGN5', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'IGFBP6', 'KLK5', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'KIF23', 'ATG2A', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'MALAT1', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'KLF6', 'TBC1D8', 'GIGYF2', 'EGR1', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'TRAK1', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'N4BP2L2', 'VIM', 'CNTNAP2', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'AKR1C2', 'ADIRF', 'EDN1', 'TP53INP2', 'PIEZO1', 'FN1', 'CDH1', 'GPAM', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['HMP'], ['IEA'], ['IMP', 'ISS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['ISS'], ['IMP'], ['IDA'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS'], ['TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['NAS'], ['IMP'], ['IDA', 'IBA'], ['IDA', 'HMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['ISO', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'NAS'], ['IEA'], ['IDA', 'IMP', 'TAS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['NAS'], ['IMP', 'ISS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IGI'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IGI', 'IEA']]</t>
+          <t>[['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'NAS'], ['IMP', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'HMP', 'NAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'ISS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['ISS'], ['IEA'], ['ISO', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS'], ['HMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IGI', 'IEA'], ['IMP'], ['IMP', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IMP'], ['IDA', 'IBA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'TAS'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'NAS'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -15758,12 +15758,12 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'SESN2', 'REL', 'CCL20', 'NET1', 'NNMT', 'FBXO32', 'AKR1C2', 'AQP3', 'TUBA1A', 'PXDN', 'PLAU', 'ANXA3', 'SEMA3C', 'PIM1', 'NOTCH1', 'SLC46A3', 'PIM3', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'FLNA', 'PTGES', 'ABL2', 'ABCD4', 'IL1RN', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'CCND1', 'ISG15', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'TNFSF10', 'MT2A', 'BIRC5', 'PTPRM', 'TGM2', 'CYP1B1', 'ERRFI1', 'SLPI', 'NFAT5', 'SORT1', 'GPAM', 'PDK4', 'ST6GAL1', 'BIRC3', 'CDK1', 'CD24', 'ITGA2', 'CDH1', 'TXNIP', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'SLC3A2', 'GSN', 'BCL2L11', 'ACSL1', 'BAD', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'CXCL16', 'ALDH3A1', 'KRT8', 'FOS', 'TNC', 'CDKN1A', 'CITED2', 'SOD2', 'CCL28', 'SAA1', 'HMGB2', 'TUBA1B', 'RGS2', 'EGR1', 'MDK', 'NFYB', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'GLUL', 'GBP1', 'CLDN7', 'EPHA2', 'TFAP2A', 'MMP9', 'IFITM2', 'ATR', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'TRIML2', 'COL4A1', 'IRF1', 'PAK1', 'SERPINE1', 'CENPF', 'TMSB4X', 'GIGYF2', 'LPIN1', 'MME']</t>
+          <t>['ST6GAL1', 'NNMT', 'SORT1', 'ADD3', 'PAK1', 'PDK4', 'ZNF703', 'COL1A1', 'SLC39A8', 'STX3', 'TNFSF10', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'CLDN7', 'IL1B', 'GRB10', 'SLPI', 'CYR61', 'CDKN1A', 'MMP7', 'PXDN', 'SEMA3C', 'STK25', 'SGK1', 'FLNA', 'CD24', 'ACSL1', 'GLUL', 'ABL2', 'SERPINE1', 'FBXO32', 'PLAU', 'CLDN1', 'PTGES', 'LPIN1', 'CYP1B1', 'GSN', 'ANXA3', 'SAA1', 'SLC2A1', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'CENPF', 'NFYB', 'BIRC3', 'ISG15', 'IFITM2', 'PIM3', 'IRF1', 'PTPRM', 'MMP9', 'S100A8', 'CCL20', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'SPHK1', 'OGT', 'REL', 'BCL2L11', 'IGFBP7', 'EPHB2', 'MME', 'SESN2', 'AQP3', 'BIRC5', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'PTGS2', 'ACKR3', 'DKK1', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'TUBA1B', 'TGM2', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'LGALS3', 'LIMS1', 'GIGYF2', 'EGR1', 'SLC3A2', 'FOS', 'TUBA1A', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'KRT8', 'VIM', 'HMGB2', 'SLC26A6', 'AKR1C2', 'ALDH3A1', 'EDN1', 'GBP1', 'CDH1', 'GPAM', 'CCND1', 'TFAP2A', 'EPHA2', 'NET1', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'TAS'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IBA', 'TAS'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IGI'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEP'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IEP'], ['TAS'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'TAS'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEP', 'ISS'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEP'], ['IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IC'], ['IEA'], ['IDA', 'IEP', 'IBA'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['NAS'], ['IDA', 'IMP'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS'], ['IDA', 'IGI'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IMP', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IC'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEP', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEP'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -15824,12 +15824,12 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'AKR1C2', 'HMGN5', 'ATF3', 'PIM1', 'NOTCH1', 'SOX4', 'ADGRG1', 'FLNA', 'ZNF703', 'EDN1', 'STX3', 'CCND1', 'N4BP2L2', 'BIRC5', 'FN1', 'GPAM', 'ST6GAL1', 'CDK1', 'CD24', 'CCNB1', 'RREB1', 'ITGA2', 'NR4A1', 'EPHB2', 'IL1B', 'BAD', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'BAMBI', 'TNC', 'CDKN1A', 'FERMT2', 'ITGB1BP1', 'HMGB2', 'EPCAM', 'EGR1', 'TGM1', 'MDK', 'ITGAV', 'ACTB', 'F3', 'CLDN7', 'MMP9', 'S100A6', 'EPGN', 'CLDN1', 'PAK1', 'TBC1D8', 'FGFR3']</t>
+          <t>['CCNB1', 'ST6GAL1', 'PAK1', 'BAMBI', 'ZNF703', 'STX3', 'NR4A1', 'ITGA2', 'CLDN7', 'IL1B', 'CYR61', 'CDKN1A', 'FGFR3', 'FLNA', 'CD24', 'LAMC2', 'ADGRG1', 'TGM1', 'CLDN1', 'RREB1', 'TIMP1', 'BAD', 'MDK', 'ITGB1BP1', 'MMP9', 'TNC', 'SPHK1', 'EPCAM', 'FERMT2', 'ATF3', 'EPHB2', 'BIRC5', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'HMGN5', 'AKR1C3', 'SOX4', 'BCL6', 'CDK1', 'LBH', 'ITGAV', 'TBC1D8', 'EGR1', 'ACTB', 'S100A6', 'N4BP2L2', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GPAM', 'CCND1', 'PIM1']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IGI', 'IBA'], ['IMP'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA'], ['IDA'], ['IDA', 'IMP'], ['ISS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['NAS'], ['IDA'], ['IEA'], ['IMP'], ['NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['TAS'], ['IMP', 'IGI', 'IEA']]</t>
+          <t>[['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IBA'], ['IDA'], ['IMP', 'IEA'], ['IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IMP'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['ISS'], ['NAS'], ['NAS'], ['IMP'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -15890,12 +15890,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'CCL20', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'S100A11', 'NOTCH1', 'FLNA', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'STX3', 'SYNE2', 'MMP7', 'MALAT1', 'CYP1B1', 'FN1', 'RREB1', 'ITGA2', 'EPHB2', 'IL1B', 'CYR61', 'SPHK1', 'PTGS2', 'CXCL16', 'FERMT2', 'SOD2', 'ITGB1BP1', 'MDK', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'CLDN7', 'EPHA2', 'MMP9', 'CLDN1', 'PAK1', 'SERPINE1', 'TMSB4X']</t>
+          <t>['PAK1', 'ZNF703', 'COL1A1', 'STX3', 'ITGA2', 'CXCL16', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'FLNA', 'LAMC2', 'ABL2', 'SERPINE1', 'PLAU', 'CLDN1', 'CYP1B1', 'RREB1', 'ANXA3', 'SOD2', 'MDK', 'ITGB1BP1', 'MMP9', 'CCL20', 'SPHK1', 'FERMT2', 'EPHB2', 'S100A11', 'SUN2', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'BCL6', 'MALAT1', 'ITGAV', 'LGALS3', 'TMSB4X', 'EDN1', 'FN1', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IGI'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS', 'IC'], ['IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IGI']]</t>
+          <t>[['IDA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IBA'], ['IDA'], ['IMP'], ['IGI'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IC'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>['CDH2', 'PLAU', 'ITGA5', 'DST', 'FLNA', 'ITGB6', 'LIMS1', 'SYNE2', 'MRC2', 'PLAUR', 'KIF23', 'ALOX15B', 'TGM2', 'PALLD', 'FAP', 'ITGA2', 'TPM4', 'GSN', 'CSRP1', 'ITGB5', 'TNC', 'FERMT2', 'ITGAV', 'ACTB', 'EPHA2', 'VIM', 'PAK1', 'PDLIM7', 'FGFR3', 'LMO7', 'MME']</t>
+          <t>['PDLIM7', 'PAK1', 'ITGA2', 'ITGA5', 'ITGB5', 'FGFR3', 'DST', 'FLNA', 'PLAU', 'PALLD', 'CDH2', 'GSN', 'CSRP1', 'ITGB6', 'LMO7', 'TNC', 'FERMT2', 'TPM4', 'MME', 'PLAUR', 'KIF23', 'TGM2', 'ITGAV', 'ALOX15B', 'LIMS1', 'ACTB', 'MRC2', 'VIM', 'FAP', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IEA'], ['IDA'], ['TAS'], ['HDA'], ['HDA']]</t>
+          <t>[['IDA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA'], ['TAS'], ['HDA', 'IBA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16022,12 +16022,12 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['LAMC2', 'BCL6', 'CCL20', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'S100A11', 'NOTCH1', 'FLNA', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'SYNE2', 'MMP7', 'MALAT1', 'CYP1B1', 'FN1', 'RREB1', 'ITGA2', 'EPHB2', 'IL1B', 'CYR61', 'SPHK1', 'PTGS2', 'CXCL16', 'FERMT2', 'SOD2', 'ITGB1BP1', 'MDK', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'CLDN7', 'EPHA2', 'MMP9', 'CLDN1', 'PAK1', 'SERPINE1', 'TMSB4X']</t>
+          <t>['PAK1', 'ZNF703', 'COL1A1', 'ITGA2', 'CXCL16', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'FLNA', 'LAMC2', 'ABL2', 'SERPINE1', 'PLAU', 'CLDN1', 'CYP1B1', 'RREB1', 'ANXA3', 'SOD2', 'MDK', 'ITGB1BP1', 'MMP9', 'CCL20', 'SPHK1', 'FERMT2', 'EPHB2', 'S100A11', 'SUN2', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'BCL6', 'MALAT1', 'ITGAV', 'LGALS3', 'TMSB4X', 'EDN1', 'FN1', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IGI'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IGI']]</t>
+          <t>[['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IBA'], ['IDA'], ['IMP'], ['IGI'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -16088,12 +16088,12 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['NMU', 'BCL6', 'REL', 'KRT17', 'FBXO32', 'SUCO', 'AQP3', 'COL4A2', 'PLAU', 'ANXA3', 'ITGA5', 'TACSTD2', 'PIM1', 'NOTCH1', 'SLC5A3', 'STK25', 'SOX4', 'FLNA', 'EPPK1', 'PTGES', 'ABL2', 'ZNF703', 'EDN1', 'LDLR', 'GRB10', 'TIA1', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'PLAUR', 'VNN1', 'ALOX15B', 'ATP1B1', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'FN1', 'FAP', 'GPAM', 'PDK4', 'LGALS1', 'CDK1', 'GJA5', 'CD24', 'C3', 'RREB1', 'IGF2BP3', 'ITGA2', 'CDH1', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'BCL2L11', 'ACSL1', 'BAD', 'IRX3', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'PTGS2', 'BAMBI', 'FOS', 'CDKN1A', 'CITED2', 'FERMT2', 'NSUN5', 'SERPINB2', 'SAA1', 'HMGB2', 'RGS2', 'EGR1', 'MDK', 'DDX56', 'MYL9', 'CRABP2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'GBP1', 'TRAK1', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'HES2', 'CLIC3', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'TRIM38', 'ID1', 'LAMA3', 'ANGPTL4', 'IRF1', 'SERPINE1', 'LPIN1', 'MME']</t>
+          <t>['LAMA3', 'AMTN', 'ATP1B1', 'ADD3', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'GJA5', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'CDKN1A', 'STK25', 'SGK1', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'SUCO', 'GLUL', 'ABL2', 'SERPINE1', 'FBXO32', 'IRX3', 'PLAU', 'PTGES', 'LPIN1', 'CYP1B1', 'RREB1', 'SLC5A3', 'ANXA3', 'SAA1', 'DCN', 'TIMP1', 'BAD', 'MDK', 'PWWP2B', 'MGLL', 'NMU', 'DLG5', 'ISG15', 'CLIC3', 'VNN1', 'IRF1', 'PTPRM', 'MMP9', 'MAP2', 'NSUN5', 'SPHK1', 'OGT', 'REL', 'BCL2L11', 'FERMT2', 'LGALS1', 'EPHB2', 'MME', 'ANGPTL4', 'AQP3', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'TACSTD2', 'DKK1', 'ERRFI1', 'SOX4', 'RGS2', 'MYL9', 'SERPINB2', 'ID1', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'HES2', 'EGR1', 'FOS', 'TIA1', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'WWC1', 'TRAK1', 'KRT17', 'HMGB2', 'IGF2BP3', 'EDN1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'EPPK1', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS', 'IC'], ['ISS'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['TAS'], ['NAS'], ['ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IC'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['IC'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'NAS'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'IC'], ['ISS'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['TAS'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['NAS', 'IC'], ['IDA', 'IMP', 'NAS'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'NAS'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IGI'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IC'], ['NAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS'], ['ISS'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IBA', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IC'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IC'], ['IDA'], ['IEA'], ['IDA'], ['ISS'], ['ISS', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -16154,12 +16154,12 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'THOC2', 'BCL6', 'CDH2', 'MAL2', 'TUBA1A', 'CCNB2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'TUBB3', 'PIM1', 'NOTCH1', 'MFAP5', 'CDC20', 'SLC38A10', 'SLC5A3', 'GYS1', 'CKB', 'IGFBP7', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'ABL2', 'LSR', 'PCDH9', 'ITGB6', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'CCND1', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'TNFSF10', 'ALOX15B', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'ERRFI1', 'FN1', 'FAP', 'CHD8', 'CLMN', 'LAMB2', 'UNC5B', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'ALDH1A3', 'C3', 'IGF2BP3', 'ITGA2', 'CDH1', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'GSN', 'LZTS2', 'BCL2L11', 'BAD', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'ST14', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'FOS', 'TNC', 'CDKN1A', 'TTC9', 'CITED2', 'SOD2', 'NSUN5', 'SLC26A2', 'ITGB1BP1', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'MDK', 'DDX56', 'STMN1', 'CRABP2', 'SUN2', 'ANKRD11', 'ITGAV', 'COL1A1', 'ACTB', 'F3', 'GLUL', 'TRAK1', 'EPHA2', 'TFAP2A', 'MMP9', 'VPS51', 'HES2', 'S100A6', 'CLIC3', 'DLG5', 'EPGN', 'B4GALT5', 'LOX', 'VIM', 'CLDN1', 'SLC2A12', 'ID1', 'COL4A1', 'ANGPTL4', 'PAK1', 'PDLIM7', 'SERPINE1', 'TACC3', 'RDH10', 'ASH1L', 'FGFR3', 'CENPF', 'GIGYF2', 'LPIN1', 'MME']</t>
+          <t>['PDLIM7', 'ANKRD11', 'PAK1', 'CRABP2', 'COL1A1', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'MDM4', 'ITGA2', 'GJA5', 'MAL2', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'GLUL', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'UNC5B', 'PALLD', 'CLDN1', 'LPIN1', 'CDH2', 'CYP1B1', 'ST14', 'SLC5A3', 'GSN', 'CCNB2', 'ANXA3', 'LSR', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'CENPF', 'DLG5', 'PCDH9', 'STMN1', 'CLIC3', 'TUBB3', 'PTPRM', 'VPS51', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TNC', 'NSUN5', 'SPHK1', 'EPCAM', 'OGT', 'BCL2L11', 'IGFBP7', 'EPHB2', 'CARD10', 'MFAP5', 'MME', 'ANGPTL4', 'SUN2', 'EPGN', 'NOTCH1', 'F3', 'THOC2', 'PTGS2', 'TACSTD2', 'SLC38A10', 'ACKR3', 'DKK1', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'GYS1', 'ID1', 'BCL6', 'TGM2', 'IRX5', 'CDK1', 'ITGAV', 'CITED2', 'ALOX15B', 'PLXNB1', 'CKB', 'TTC9', 'HES2', 'GIGYF2', 'EGR1', 'ALDH1A3', 'FOS', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'TRAK1', 'S100A6', 'TACC3', 'VIM', 'CNTNAP2', 'HMGB2', 'IGF2BP3', 'SLC26A2', 'EDN1', 'FN1', 'CDH1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'SYNE2', 'RDH10', 'EPHA2', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[['IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['HEP'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA'], ['ISS'], ['IEA'], ['NAS'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['HEP', 'IBA'], ['IDA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEP', 'ISS'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['NAS'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA'], ['IBA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'TAS'], ['IMP'], ['IEA'], ['IEA'], ['IGI', 'IEP', 'IEA']]</t>
+          <t>[['IBA'], ['IMP'], ['ISS', 'IBA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IBA'], ['IEP', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['ISO', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IBA'], ['IGI', 'IEP', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['TAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['NAS'], ['ISS', 'IBA', 'IEA'], ['HEP'], ['IEA'], ['IBA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['HEP', 'IBA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IBA'], ['IEA'], ['IEP', 'ISS', 'TAS', 'NAS'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEP', 'ISS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16220,12 +16220,12 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'CDH2', 'AQP3', 'ITGA5', 'S100A11', 'NOTCH1', 'FLNA', 'CNTNAP2', 'EPPK1', 'LSR', 'PCDH9', 'STX3', 'LIMS1', 'CCND1', 'CGN', 'ALOX15B', 'ATP1B1', 'AMTN', 'PTPRM', 'GJA5', 'CDH1', 'EVPL', 'CRB3', 'CYTH1', 'KRT8', 'FERMT2', 'EPCAM', 'ACTB', 'ADD3', 'CLDN7', 'EPHA2', 'DLG5', 'CLDN1', 'LAMA3', 'LLGL2', 'PAK1', 'PDLIM7', 'RAP2B', 'ASH1L', 'LMO7']</t>
+          <t>['PDLIM7', 'LAMA3', 'AMTN', 'RAP2B', 'ATP1B1', 'ADD3', 'PAK1', 'STX3', 'GJA5', 'CLDN7', 'ITGA5', 'FLNA', 'CLDN1', 'CDH2', 'EVPL', 'LSR', 'SLC2A1', 'DLG5', 'PCDH9', 'LMO7', 'PTPRM', 'EPCAM', 'FERMT2', 'S100A11', 'CGN', 'AQP3', 'NOTCH1', 'CRB3', 'ALOX15B', 'LIMS1', 'LLGL2', 'ACTB', 'KRT8', 'CYTH1', 'CNTNAP2', 'CDH1', 'CCND1', 'EPPK1', 'EPHA2', 'ASH1L']</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['HDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'ISS'], ['IDA', 'IBA'], ['IDA'], ['TAS', 'IEA'], ['IEA']]</t>
+          <t>[['IDA', 'IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['NAS'], ['IDA', 'IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['TAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16286,12 +16286,12 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['KRT6B', 'KRT17', 'KRT5', 'AQP3', 'NOTCH1', 'LSR', 'ITGB6', 'DKK1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'CSTA', 'ITGA2', 'KLK5', 'TXNIP', 'EVPL', 'ST14', 'AKR1C3', 'KRT14', 'CDKN1A', 'KRT81', 'TGM1', 'STMN1', 'COL1A1', 'EPHA2', 'ZFP36', 'CLDN1', 'KRT10', 'NOM1', 'IVL', 'SPRR1B', 'ASH1L']</t>
+          <t>['SPRR1B', 'COL1A1', 'ZFP36', 'ITGA2', 'CDKN1A', 'PALLD', 'TGM1', 'CLDN1', 'EVPL', 'ST14', 'NOM1', 'LSR', 'KRT6B', 'ITGB6', 'STMN1', 'TXNIP', 'KRT14', 'AQP3', 'KRT5', 'NOTCH1', 'DKK1', 'KLK5', 'ERRFI1', 'AKR1C3', 'KRT81', 'KRT10', 'IVL', 'ALOX15B', 'CSTA', 'KRT17', 'KRT16', 'EPHA2', 'ASH1L']</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[['IBA'], ['ISS', 'IEA'], ['IBA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IEP'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IMP', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA']]</t>
+          <t>[['IDA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['TAS'], ['IBA'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IBA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -16352,12 +16352,12 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'NOTCH1', 'IGFBP7', 'SOX4', 'ADGRG1', 'FLNA', 'ACKR3', 'EDN1', 'LDLR', 'PTPRM', 'TGM2', 'CYP1B1', 'ERRFI1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'TGFBI', 'CYR61', 'SPHK1', 'PTGS2', 'CITED2', 'SOD2', 'ITGB1BP1', 'EGR1', 'MDK', 'ITGAV', 'COL1A1', 'F3', 'GLUL', 'EPHA2', 'CLIC3', 'EPGN', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['COL1A1', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'PXDN', 'SEMA3C', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CDH2', 'CYP1B1', 'ANXA3', 'SOD2', 'DCN', 'MDK', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'SPHK1', 'IGFBP7', 'EPHB2', 'CARD10', 'ANGPTL4', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'ERRFI1', 'SOX4', 'ID1', 'TGM2', 'ITGAV', 'CITED2', 'EGR1', 'LOX', 'LDLR', 'EDN1', 'FN1', 'FAP', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA']]</t>
+          <t>[['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16418,12 +16418,12 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'NOTCH1', 'IGFBP7', 'SOX4', 'ADGRG1', 'FLNA', 'ACKR3', 'EDN1', 'LDLR', 'PTPRM', 'TGM2', 'CYP1B1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'TGFBI', 'CYR61', 'SPHK1', 'PTGS2', 'CITED2', 'ITGB1BP1', 'MDK', 'ITGAV', 'F3', 'GLUL', 'EPHA2', 'CLIC3', 'EPGN', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['C3', 'NR4A1', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'PXDN', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CDH2', 'CYP1B1', 'ANXA3', 'DCN', 'MDK', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'SPHK1', 'IGFBP7', 'EPHB2', 'CARD10', 'ANGPTL4', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'SOX4', 'ID1', 'TGM2', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'EDN1', 'FN1', 'FAP', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA']]</t>
+          <t>[['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'NOTCH1', 'IGFBP7', 'SOX4', 'ADGRG1', 'FLNA', 'ITGB6', 'ACKR3', 'EDN1', 'LDLR', 'PTPRM', 'TGM2', 'CYP1B1', 'ERRFI1', 'FN1', 'FAP', 'CHD8', 'UNC5B', 'CARD10', 'GJA5', 'CD24', 'C3', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'LZTS2', 'BCL2L11', 'IRX3', 'TGFBI', 'ST14', 'CYR61', 'SPHK1', 'PTGS2', 'TNC', 'CDKN1A', 'CITED2', 'ITGB1BP1', 'EPCAM', 'MDK', 'ITGAV', 'F3', 'GLUL', 'EPHA2', 'CLIC3', 'DLG5', 'EPGN', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'PAK1', 'SERPINE1', 'RDH10', 'MME']</t>
+          <t>['PAK1', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'LZTS2', 'TGFBI', 'COL4A2', 'FLNA', 'CD24', 'GLUL', 'SERPINE1', 'IRX3', 'ADGRG1', 'UNC5B', 'CDH2', 'CYP1B1', 'ST14', 'ANXA3', 'DCN', 'ITGB6', 'MDK', 'DLG5', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'TNC', 'SPHK1', 'EPCAM', 'BCL2L11', 'IGFBP7', 'EPHB2', 'CARD10', 'MME', 'ANGPTL4', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'TACSTD2', 'ACKR3', 'ERRFI1', 'SOX4', 'ID1', 'TGM2', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'EDN1', 'FN1', 'FAP', 'RDH10', 'EPHA2', 'CHD8', 'COL4A1']</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IMP'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IEA'], ['IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16550,12 +16550,12 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'NOTCH1', 'IGFBP7', 'SOX4', 'ADGRG1', 'FLNA', 'ACKR3', 'EDN1', 'LDLR', 'PTPRM', 'TGM2', 'CYP1B1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'TGFBI', 'CYR61', 'SPHK1', 'PTGS2', 'CITED2', 'ITGB1BP1', 'EGR1', 'MDK', 'ITGAV', 'COL1A1', 'F3', 'GLUL', 'EPHA2', 'CLIC3', 'EPGN', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['COL1A1', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'PXDN', 'SEMA3C', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CDH2', 'CYP1B1', 'ANXA3', 'DCN', 'MDK', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'SPHK1', 'IGFBP7', 'EPHB2', 'CARD10', 'ANGPTL4', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'SOX4', 'ID1', 'TGM2', 'ITGAV', 'CITED2', 'EGR1', 'LOX', 'LDLR', 'EDN1', 'FN1', 'FAP', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS'], ['IMP', 'ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA']]</t>
+          <t>[['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16616,12 +16616,12 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['LAMB3', 'BCL6', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'PIM1', 'NOTCH1', 'IGFBP7', 'ADGRG1', 'FLNA', 'ITGB6', 'ACKR3', 'EDN1', 'DKK1', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'ALDH1A3', 'C3', 'ITGA2', 'KLK5', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'TPM4', 'CSRP1', 'BCL2L11', 'IRX3', 'TGFBI', 'ST14', 'CYR61', 'SPHK1', 'PTGS2', 'KRT8', 'ITGB5', 'CITED2', 'ITGB1BP1', 'MDK', 'MYL9', 'ITGAV', 'COL1A1', 'F3', 'GLUL', 'EPHA2', 'TFAP2A', 'MMP9', 'CLIC3', 'EPGN', 'ID1', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINE1', 'RDH10']</t>
+          <t>['LAMA3', 'AMTN', 'COL1A1', 'C3', 'NR4A1', 'ITGA2', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'PXDN', 'SEMA3C', 'ITGB5', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'IRX3', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ST14', 'CSRP1', 'ANXA3', 'DCN', 'ITGB6', 'MDK', 'LAMB3', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'MMP9', 'SPHK1', 'BCL2L11', 'IGFBP7', 'TPM4', 'EPHB2', 'CARD10', 'ANGPTL4', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'DKK1', 'KLK5', 'MYL9', 'ID1', 'BCL6', 'TGM2', 'ITGAV', 'CITED2', 'ALDH1A3', 'KRT8', 'EDN1', 'FN1', 'FAP', 'TFAP2A', 'RDH10', 'EPHA2', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[['IEP'], ['NAS', 'IEA'], ['IDA', 'IEP', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'IEP'], ['IEA'], ['IEA'], ['IEP'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEP'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEP', 'ISS'], ['IEP'], ['IDA'], ['IDA'], ['TAS'], ['IEP'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IEA']]</t>
+          <t>[['IEP'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEP'], ['IMP', 'IEP'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEP'], ['IEP'], ['IDA', 'IEP', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IEP'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IEP'], ['IDA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP', 'ISS'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16682,12 +16682,12 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['KRT6B', 'KRT17', 'KRT5', 'AQP3', 'NOTCH1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'CSTA', 'KLK5', 'TXNIP', 'EVPL', 'ST14', 'AKR1C3', 'KRT14', 'CDKN1A', 'KRT81', 'TGM1', 'EPHA2', 'ZFP36', 'KRT10', 'IVL', 'SPRR1B']</t>
+          <t>['SPRR1B', 'ZFP36', 'CDKN1A', 'PALLD', 'TGM1', 'EVPL', 'ST14', 'KRT6B', 'TXNIP', 'KRT14', 'AQP3', 'KRT5', 'NOTCH1', 'KLK5', 'ERRFI1', 'AKR1C3', 'KRT81', 'KRT10', 'IVL', 'ALOX15B', 'CSTA', 'KRT17', 'KRT16', 'EPHA2']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[['IBA'], ['IEA'], ['IBA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IEP'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IEP'], ['IDA', 'IEA'], ['IDA', 'IEA']]</t>
+          <t>[['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IBA'], ['IDA'], ['IEA'], ['TAS'], ['IBA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IBA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -16748,12 +16748,12 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'KRT6B', 'KRT17', 'KRT5', 'KRT15', 'AQP3', 'NOTCH1', 'KLK7', 'LSR', 'DKK1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'CALML5', 'CSTA', 'KLK5', 'TXNIP', 'EVPL', 'ST14', 'AKR1C3', 'KRT14', 'CDKN1A', 'KRT81', 'EMP1', 'TGM1', 'STMN1', 'CRABP2', 'EPHA2', 'ZFP36', 'CLDN1', 'KRT10', 'NOM1', 'LAMA3', 'IVL', 'SPRR1B']</t>
+          <t>['LAMA3', 'SPRR1B', 'CRABP2', 'ZFP36', 'KLK7', 'CDKN1A', 'LAMC2', 'PALLD', 'TGM1', 'CLDN1', 'EVPL', 'ST14', 'NOM1', 'EMP1', 'LSR', 'KRT6B', 'LAMB3', 'STMN1', 'KRT15', 'TXNIP', 'KRT14', 'AQP3', 'KRT5', 'NOTCH1', 'DKK1', 'KLK5', 'ERRFI1', 'AKR1C3', 'KRT81', 'KRT10', 'IVL', 'ALOX15B', 'CSTA', 'KRT17', 'KRT16', 'CALML5', 'EPHA2']</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['IBA'], ['ISS', 'IEA'], ['IBA', 'TAS'], ['TAS'], ['TAS'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IEP'], ['TAS', 'IEA'], ['IEA'], ['IBA'], ['TAS'], ['IDA', 'IEA'], ['IMP'], ['TAS'], ['IMP'], ['IMP'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA']]</t>
+          <t>[['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IMP'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA'], ['TAS'], ['IMP'], ['TAS'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IBA'], ['IEP', 'ISS', 'IBA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -16814,12 +16814,12 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'ELF3', 'IVNS1ABP', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'ITGA5', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KCNIP3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'KANK4', 'CDC20', 'PIM3', 'IGFBP7', 'SLC39A8', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'TSC22D3', 'EPPK1', 'PTGES', 'TP53I11', 'ABL2', 'IL1RN', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'GRB10', 'LIMS1', 'TIA1', 'SQSTM1', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'MDM4', 'PLAUR', 'IGFBP6', 'N4BP2L2', 'ALOX15B', 'MT2A', 'BIRC5', 'PTPRM', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'CHD8', 'ST6GAL1', 'CLMN', 'UNC5B', 'TP53INP2', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'VSTM2L', 'CSTA', 'RREB1', 'DLK2', 'IGF2BP3', 'CDH1', 'TXNIP', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'MFI2', 'GSN', 'LZTS2', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'CREG1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'BAMBI', 'MAD2L1', 'ACADVL', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'RARRES1', 'CCL28', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'MDK', 'DDX56', 'STMN1', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'GBP1', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'HES2', 'IFITM2', 'ATR', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'FTH1', 'PNPLA2', 'TRIM38', 'ID1', 'TMEM132A', 'ANGPTL4', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'ASH1L', 'SERTAD3', 'FGFR3', 'CENPF', 'TMSB4X', 'GIGYF2', 'LPIN1']</t>
+          <t>['GPRC5A', 'CCNB1', 'ST6GAL1', 'RAP2B', 'SORT1', 'MXD3', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'NR4A1', 'ZFP36', 'MDM4', 'GJA5', 'ACADVL', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'SLPI', 'CYR61', 'CDKN1A', 'MAD2L1', 'PXDN', 'LZTS2', 'DLK2', 'TP53I11', 'TGFBI', 'FGFR3', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'PTGES', 'VSTM2L', 'LPIN1', 'CDH2', 'CYP1B1', 'FNIP1', 'RREB1', 'GSN', 'SAA1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'CENPF', 'PSCA', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'CREG1', 'KCNIP3', 'PIM3', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'MAP2', 'TXNIP', 'TNC', 'IL1RN', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'FERMT2', 'IGFBP7', 'ATF3', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'S100A11', 'ANGPTL4', 'CDKN1C', 'SESN2', 'BIRC5', 'NOTCH1', 'PLAUR', 'CCL28', 'THOC2', 'PTGS2', 'HMGN5', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'IGFBP6', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'MAGOHB', 'SERPINB2', 'ID1', 'IVNS1ABP', 'BCL6', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'HES2', 'GIGYF2', 'CSTA', 'EGR1', 'DNAJC15', 'TIA1', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'TLE1', 'N4BP2L2', 'VIM', 'KRT16', 'CNTNAP2', 'HMGB2', 'IGF2BP3', 'TSC22D3', 'EDN1', 'TP53INP2', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'EPPK1', 'TMEM132A', 'EPHA2', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IGI', 'ISS'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS'], ['ISS'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['NAS'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'NAS'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS'], ['IDA', 'NAS'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IEA']]</t>
+          <t>[['ISS'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['ISS'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP'], ['ISS'], ['NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IGI', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'NAS'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IGI', 'ISS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS'], ['NAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'ISS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -16880,12 +16880,12 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>['BCL6', 'SESN2', 'CDH2', 'REL', 'IVNS1ABP', 'NET1', 'FBXO32', 'AKR1C2', 'PXDN', 'PLAU', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'PIM3', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'SLC44A2', 'C1R', 'EPPK1', 'PTGES', 'ABL2', 'IL1RN', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'ISG15', 'DKK1', 'SGK1', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'PLXNB1', 'CAMK2N1', 'SPIRE1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'FAP', 'CHD8', 'ST6GAL1', 'LAMB2', 'UNC5B', 'LGALS1', 'BIRC3', 'CD24', 'CCNB1', 'C3', 'RREB1', 'DLK2', 'ITGA2', 'KLK5', 'EVPL', 'EPHB2', 'IL1B', 'DCN', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'TNC', 'CITED2', 'FERMT2', 'SOD2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'RGS2', 'EGR1', 'MDK', 'STMN1', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'F3', 'MGLL', 'GBP1', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'ATR', 'DLG5', 'EPGN', 'ZFP36', 'LOX', 'CFB', 'CLDN1', 'TRIM38', 'TMEM132A', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'ASH1L', 'FGFR3', 'TMSB4X', 'GIGYF2']</t>
+          <t>['GPRC5A', 'CCNB1', 'ST6GAL1', 'PAK1', 'BAMBI', 'ZNF703', 'COL1A1', 'SLC39A8', 'STX3', 'TNFSF10', 'C3', 'ZFP36', 'ITGA2', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'KLK7', 'MAD2L1', 'PXDN', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'SPIRE1', 'ABL2', 'SERPINE1', 'FBXO32', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'PLAU', 'CLDN1', 'PTGES', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'SAA1', 'SOD2', 'DCN', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'PSCA', 'MGLL', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'VNN1', 'PIM3', 'IRF1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'C1R', 'TNC', 'IL1RN', 'SPHK1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'LOX', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'TLE1', 'CYTH1', 'CNTNAP2', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GBP1', 'FAP', 'EPPK1', 'TMEM132A', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA'], ['IDA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP', 'IEA'], ['IEA'], ['IMP'], ['HMP'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'NAS'], ['IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP', 'NAS'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IC'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['IMP'], ['IDA', 'HMP'], ['TAS'], ['IDA', 'ISS', 'IC'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'NAS'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['ISO', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IC'], ['ISS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IMP', 'TAS'], ['IBA', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IEA'], ['IMP', 'IBA', 'TAS'], ['IDA', 'IMP'], ['IDA']]</t>
+          <t>[['ISS'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IMP', 'HMP', 'IEA'], ['IDA', 'ISS', 'IC'], ['ISS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'TAS'], ['IDA', 'NAS'], ['IEA'], ['ISO', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'NAS'], ['IEP'], ['HMP'], ['IMP', 'TAS'], ['IDA', 'IMP'], ['IBA'], ['IMP', 'IEA'], ['IBA'], ['IDA', 'HMP'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IC'], ['IMP', 'NAS'], ['ISS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['TAS'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['ISS'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IEA'], ['IBA'], ['IEA'], ['IDA', 'NAS'], ['IMP', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IC'], ['IMP'], ['IEA'], ['IMP'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -16946,12 +16946,12 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'NOTCH1', 'IGFBP7', 'ADGRG1', 'FLNA', 'ACKR3', 'EDN1', 'PTPRM', 'TGM2', 'CYP1B1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'TGFBI', 'CYR61', 'SPHK1', 'PTGS2', 'ITGB1BP1', 'MDK', 'ITGAV', 'F3', 'GLUL', 'EPHA2', 'CLIC3', 'EPGN', 'ID1', 'COL4A1', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['C3', 'NR4A1', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'PXDN', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'ADGRG1', 'UNC5B', 'CYP1B1', 'ANXA3', 'DCN', 'MDK', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'SPHK1', 'IGFBP7', 'EPHB2', 'CARD10', 'ANGPTL4', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'ID1', 'TGM2', 'ITGAV', 'EDN1', 'FN1', 'FAP', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEP'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IEP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA']]</t>
+          <t>[['IEA'], ['IDA'], ['IEP'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'MFAP5', 'KANK4', 'CDC20', 'SLC46A3', 'SLC38A10', 'PIM3', 'SLC5A3', 'GYS1', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'ECHDC2', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'SLC44A2', 'C1R', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'TP53I11', 'ABL2', 'ABCD4', 'LSR', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'MRC2', 'IDI1', 'SQSTM1', 'ZNF117', 'KCNK15', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'MALAT1', 'VNN1', 'PSMB10', 'CGN', 'TNFSF10', 'TUBB4B', 'ELOVL4', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'MT2A', 'ATP1B1', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'TMEM50B', 'SPIRE1', 'KLK10', 'ERRFI1', 'MUC1', 'COPE', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'CHI3L2', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'CREG1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'BAMBI', 'PDP1', 'CYTH1', 'MAD2L1', 'SNHG1', 'USP31', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'MSMO1', 'RARRES1', 'CCL28', 'SLC26A2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'KRT81', 'CYP4B1', 'SAA1', 'EMP1', 'HMGB2', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'MED19', 'NOL7', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'TAGLN', 'F3', 'MGLL', 'GLUL', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'CDR2L', 'TFAP2A', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'DLG5', 'EPGN', 'TUFT1', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'FTH1', 'CFB', 'RASSF8', 'TP53I3', 'MTHFD2', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'TRIML2', 'ID1', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'ATP13A4', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'AMTN', 'RAP2B', 'SPRR1B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'ECHDC2', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'SLC39A8', 'USP31', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'MAL2', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYP4B1', 'GOLGA8B', 'SRSF11', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'SLC2A12', 'ITGB5', 'TP53I11', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'ST14', 'SAT2', 'SLC5A3', 'GSN', 'NOM1', 'EMP1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'LAMB3', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'KCNK15', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'BIRC3', 'CA12', 'ISG15', 'IFITM2', 'UPP1', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'ACOX3', 'PIM3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'CARD10', 'PLCD1', 'AKAP11', 'MFAP5', 'WSB1', 'MME', 'S100A11', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'TACSTD2', 'SLC38A10', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'TP53I3', 'SOX4', 'RGS2', 'LAMB2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'GYS1', 'SERPINB2', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'MALAT1', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'PLXNB1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'C1orf56', 'LIMS1', 'KLF6', 'KLK10', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'CDR2L', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'OPLAH', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'MRC2', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'AKR1C2', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'SNHG1', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEP', 'IBA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['IGI', 'ISS', 'IBA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'NAS'], ['IDA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEP', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IGI', 'ISS', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'NAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IEP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IC', 'IEA'], ['IBA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISO', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['HMP', 'IBA', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEP', 'IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IGI', 'ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP', 'IBA'], ['IDA', 'IMP', 'IGI', 'HDA', 'HMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -17078,12 +17078,12 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['LAMC2', 'CCL20', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'S100A11', 'NOTCH1', 'FLNA', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'SYNE2', 'MMP7', 'CYP1B1', 'FN1', 'RREB1', 'ITGA2', 'EPHB2', 'IL1B', 'CYR61', 'SPHK1', 'PTGS2', 'CXCL16', 'FERMT2', 'SOD2', 'ITGB1BP1', 'MDK', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'EPHA2', 'MMP9', 'CLDN1', 'PAK1', 'SERPINE1', 'TMSB4X']</t>
+          <t>['PAK1', 'ZNF703', 'COL1A1', 'ITGA2', 'CXCL16', 'IL1B', 'ITGA5', 'CYR61', 'MMP7', 'SEMA3C', 'FLNA', 'LAMC2', 'ABL2', 'SERPINE1', 'PLAU', 'CLDN1', 'CYP1B1', 'RREB1', 'ANXA3', 'SOD2', 'MDK', 'ITGB1BP1', 'MMP9', 'CCL20', 'SPHK1', 'FERMT2', 'EPHB2', 'S100A11', 'SUN2', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'ITGAV', 'LGALS3', 'TMSB4X', 'EDN1', 'FN1', 'SYNE2', 'EPHA2']</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[['IMP'], ['IDA', 'IBA'], ['IDA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IGI'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IDA'], ['IMP'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IGI']]</t>
+          <t>[['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IBA'], ['IDA'], ['IMP'], ['IGI'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -17144,12 +17144,12 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'SEMA3C', 'PIM1', 'NOTCH1', 'GYS1', 'IGFBP7', 'SOX4', 'ADGRG1', 'FLNA', 'ACKR3', 'EDN1', 'LDLR', 'DKK1', 'MDM4', 'PTPRM', 'TGM2', 'CYP1B1', 'ERRFI1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'CDK1', 'GJA5', 'C3', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'IRX3', 'TGFBI', 'CYR61', 'SPHK1', 'PTGS2', 'CDKN1A', 'CITED2', 'SOD2', 'ITGB1BP1', 'RGS2', 'EGR1', 'MDK', 'ITGAV', 'COL1A1', 'F3', 'GLUL', 'EPHA2', 'CLIC3', 'EPGN', 'LOX', 'SLC2A12', 'ID1', 'COL4A1', 'ANGPTL4', 'PDLIM7', 'SERPINE1']</t>
+          <t>['PDLIM7', 'COL1A1', 'C3', 'NR4A1', 'MDM4', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'PXDN', 'SEMA3C', 'SLC2A12', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'IRX3', 'ADGRG1', 'UNC5B', 'CDH2', 'CYP1B1', 'ANXA3', 'SOD2', 'DCN', 'MDK', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'SPHK1', 'IGFBP7', 'EPHB2', 'CARD10', 'ANGPTL4', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'ACKR3', 'DKK1', 'ERRFI1', 'SOX4', 'RGS2', 'GYS1', 'ID1', 'TGM2', 'CDK1', 'ITGAV', 'CITED2', 'EGR1', 'LOX', 'LDLR', 'EDN1', 'FN1', 'FAP', 'EPHA2', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS'], ['IMP', 'ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IBA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IMP', 'IGI', 'IEP', 'IBA']]</t>
+          <t>[['IBA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['ISS'], ['IMP', 'IEP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IBA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -17210,12 +17210,12 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['CDH2', 'KRT6B', 'KRT17', 'KRT5', 'KRT15', 'AKR1C2', 'AQP3', 'NOTCH1', 'SOX4', 'FLNA', 'ZNF703', 'EDN1', 'CCND1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'LAMB2', 'CDK1', 'CD24', 'CSTA', 'ITGA2', 'KLK5', 'TXNIP', 'EVPL', 'IL1B', 'BAD', 'ST14', 'LBH', 'AKR1C3', 'ACADVL', 'KRT14', 'CDKN1A', 'KRT81', 'TUBB', 'TGM1', 'LGALS3', 'TAGLN', 'EPHA2', 'MMP9', 'DLG5', 'ZFP36', 'VIM', 'CLDN1', 'KRT10', 'COL4A1', 'IVL', 'SERPINE1', 'SPRR1B', 'EHF']</t>
+          <t>['SPRR1B', 'ZNF703', 'ZFP36', 'ITGA2', 'ACADVL', 'IL1B', 'CDKN1A', 'FLNA', 'CD24', 'EHF', 'SERPINE1', 'PALLD', 'TGM1', 'CLDN1', 'CDH2', 'EVPL', 'TUBB', 'ST14', 'KRT6B', 'BAD', 'DLG5', 'KRT15', 'TAGLN', 'MMP9', 'TXNIP', 'KRT14', 'AQP3', 'KRT5', 'NOTCH1', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'LAMB2', 'KRT81', 'KRT10', 'IVL', 'CDK1', 'LBH', 'ALOX15B', 'LGALS3', 'CSTA', 'KRT17', 'VIM', 'KRT16', 'AKR1C2', 'EDN1', 'CCND1', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[['ISS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IBA'], ['IBA'], ['IEP'], ['TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IMP', 'NAS'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEP'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['IDA', 'IEA'], ['IEP'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEP']]</t>
+          <t>[['IDA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEP'], ['IDA'], ['IEA'], ['IEA'], ['IMP', 'NAS'], ['IEP'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['TAS'], ['IBA'], ['ISS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEP', 'IBA'], ['IDA', 'IEA'], ['IEP'], ['IEA'], ['NAS', 'IEA'], ['IEP'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -17276,12 +17276,12 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['CDH2', 'COL4A2', 'PXDN', 'ANXA3', 'ITGA5', 'TACSTD2', 'NOTCH1', 'IGFBP7', 'SOX4', 'ADGRG1', 'FLNA', 'ACKR3', 'EDN1', 'LDLR', 'PTPRM', 'TGM2', 'CYP1B1', 'FN1', 'FAP', 'UNC5B', 'CARD10', 'GJA5', 'C3', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'LZTS2', 'BCL2L11', 'IRX3', 'TGFBI', 'ST14', 'CYR61', 'SPHK1', 'PTGS2', 'TNC', 'CITED2', 'ITGB1BP1', 'MDK', 'ITGAV', 'F3', 'GLUL', 'EPHA2', 'CLIC3', 'DLG5', 'EPGN', 'LOX', 'ID1', 'COL4A1', 'ANGPTL4', 'PAK1', 'SERPINE1', 'RDH10']</t>
+          <t>['PAK1', 'C3', 'NR4A1', 'GJA5', 'IL1B', 'ITGA5', 'CYR61', 'PXDN', 'LZTS2', 'TGFBI', 'COL4A2', 'FLNA', 'GLUL', 'SERPINE1', 'IRX3', 'ADGRG1', 'UNC5B', 'CDH2', 'CYP1B1', 'ST14', 'ANXA3', 'DCN', 'MDK', 'DLG5', 'CLIC3', 'PTPRM', 'ITGB1BP1', 'TNC', 'SPHK1', 'BCL2L11', 'IGFBP7', 'EPHB2', 'CARD10', 'ANGPTL4', 'EPGN', 'NOTCH1', 'F3', 'PTGS2', 'TACSTD2', 'ACKR3', 'SOX4', 'ID1', 'TGM2', 'ITGAV', 'CITED2', 'LOX', 'LDLR', 'EDN1', 'FN1', 'FAP', 'RDH10', 'EPHA2', 'COL4A1']</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IMP', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IEA']]</t>
+          <t>[['IMP'], ['IEA'], ['IDA'], ['IEP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEP', 'IBA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -17342,12 +17342,12 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'SESN2', 'FBXO32', 'AKR1C2', 'COL4A2', 'ANXA3', 'ITGA5', 'PIM1', 'NOTCH1', 'IGFBP7', 'ADGRG1', 'CDKN1C', 'IL1RN', 'ITGB6', 'ZNF703', 'EDN1', 'LDLR', 'GRB10', 'LIMS1', 'CCND1', 'DKK1', 'SGK1', 'TNFSF10', 'CYP1B1', 'ERRFI1', 'SORT1', 'PDK4', 'CD24', 'ITGA2', 'TXNIP', 'NR4A1', 'IL1B', 'DCN', 'EEF1A1', 'BCL2L11', 'ACSL1', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'BAMBI', 'FOS', 'ITGB5', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'ITGB1BP1', 'HMGB2', 'EGR1', 'COL1A1', 'EPHA2', 'ZFP36', 'LOX', 'CLDN1', 'ID1', 'PAK1', 'FGFR3', 'LPIN1', 'MME']</t>
+          <t>['SORT1', 'PAK1', 'PDK4', 'BAMBI', 'ZNF703', 'COL1A1', 'TNFSF10', 'NR4A1', 'ZFP36', 'ITGA2', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'CDKN1A', 'SGK1', 'ITGB5', 'FGFR3', 'COL4A2', 'CD24', 'ACSL1', 'FBXO32', 'ADGRG1', 'CLDN1', 'LPIN1', 'CYP1B1', 'ANXA3', 'SLC2A1', 'DCN', 'TIMP1', 'ITGB6', 'ITGB1BP1', 'TXNIP', 'TNC', 'IL1RN', 'SPHK1', 'OGT', 'BCL2L11', 'FERMT2', 'IGFBP7', 'MME', 'CDKN1C', 'SESN2', 'NOTCH1', 'PTGS2', 'DKK1', 'ERRFI1', 'AKR1C3', 'ID1', 'LBH', 'CITED2', 'LIMS1', 'EGR1', 'FOS', 'LOX', 'LDLR', 'EEF1A1', 'HMGB2', 'AKR1C2', 'EDN1', 'CCND1', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEP'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEP'], ['IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IC', 'IEA'], ['IDA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IEA'], ['IGI'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA']]</t>
+          <t>[['IMP', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IC', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IGI'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'NAS'], ['TAS'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEP'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -17408,12 +17408,12 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['BCL6', 'KRT17', 'SUCO', 'AQP3', 'COL4A2', 'ANXA3', 'ITGA5', 'TACSTD2', 'PIM1', 'NOTCH1', 'CDC20', 'PIEZO1', 'STK25', 'SOX4', 'FLNA', 'EPPK1', 'ZNF703', 'EDN1', 'LDLR', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'VNN1', 'N4BP2L2', 'ALOX15B', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'PLXNB1', 'SPIRE1', 'ERRFI1', 'FN1', 'SORT1', 'GPAM', 'LAMB2', 'LGALS1', 'CDK1', 'CD24', 'C3', 'RREB1', 'DLK2', 'CDH1', 'EPHB2', 'IL1B', 'DCN', 'BCL2L11', 'BAD', 'FNIP1', 'IRX3', 'OGT', 'LBH', 'CYR61', 'SPHK1', 'PTGS2', 'BAMBI', 'FOS', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'HMGB2', 'RGS2', 'MDK', 'CRABP2', 'ITGAV', 'COL1A1', 'ACTB', 'F3', 'GLUL', 'TRAK1', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'HES2', 'CLIC3', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'KRT10', 'LAMA3', 'ANGPTL4', 'IRF1', 'PAK1', 'SERPINE1', 'FGFR3', 'CENPF', 'LPIN1', 'MME']</t>
+          <t>['LAMA3', 'AMTN', 'SORT1', 'PAK1', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'C3', 'ZFP36', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'STK25', 'DLK2', 'FGFR3', 'COL4A2', 'FLNA', 'CD24', 'SUCO', 'GLUL', 'SPIRE1', 'CDC20', 'SERPINE1', 'IRX3', 'LPIN1', 'CYP1B1', 'FNIP1', 'RREB1', 'ANXA3', 'SOD2', 'DCN', 'BAD', 'MDK', 'CENPF', 'DLG5', 'ISG15', 'CLIC3', 'VNN1', 'IRF1', 'PTPRM', 'IGFBP3', 'MMP9', 'MAP2', 'NSUN5', 'SPHK1', 'OGT', 'BCL2L11', 'FERMT2', 'LGALS1', 'EPHB2', 'MME', 'ANGPTL4', 'AQP3', 'NOTCH1', 'F3', 'PTGS2', 'TACSTD2', 'DKK1', 'ERRFI1', 'SOX4', 'RGS2', 'LAMB2', 'KRT10', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'ALOX15B', 'PLXNB1', 'HES2', 'FOS', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'WWC1', 'TRAK1', 'KRT17', 'N4BP2L2', 'HMGB2', 'ADIRF', 'EDN1', 'PIEZO1', 'FN1', 'CDH1', 'GPAM', 'CCND1', 'TFAP2A', 'EPPK1', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>[['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IMP'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['NAS'], ['IDA'], ['TAS', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['NAS'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI', 'IBA'], ['ISS'], ['ISS', 'IEA'], ['IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IDA'], ['IEA'], ['IMP', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA'], ['NAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IGI'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['NAS'], ['ISS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -17474,12 +17474,12 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'CDH2', 'MAL2', 'KRT17', 'AQP3', 'TUBA1A', 'PLAU', 'ANXA3', 'ITGA5', 'SEMA3C', 'TACSTD2', 'KCNIP3', 'PIM1', 'NOTCH1', 'DST', 'SLC5A3', 'PIEZO1', 'CKB', 'SLC39A8', 'KLK7', 'ADGRG1', 'FLNA', 'CNTNAP2', 'TSPAN1', 'SLC44A2', 'EPPK1', 'ABL2', 'ABCD4', 'LSR', 'IL1RN', 'PCDH9', 'ITGB6', 'PLCD1', 'MSLN', 'ACKR3', 'LDLR', 'DDX50', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'KCNK15', 'AKAP11', 'DKK1', 'SGK1', 'PLAUR', 'VNN1', 'CGN', 'TNFSF10', 'ALOX15B', 'ATP1B1', 'PTPRM', 'TGM2', 'PALLD', 'PLXNB1', 'TMEM50B', 'SPIRE1', 'ERRFI1', 'MUC1', 'FN1', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'UNC5B', 'LGALS1', 'SYT8', 'GJA5', 'CD24', 'CSTA', 'C3', 'ITGA2', 'CDH1', 'EVPL', 'CRB3', 'EPHB2', 'SLC26A6', 'SLC3A2', 'DAPP1', 'MFI2', 'GSN', 'EEF1A1', 'LZTS2', 'TGFBI', 'OGT', 'ST14', 'SPHK1', 'PTGS2', 'S100A8', 'BAMBI', 'CYTH1', 'CXCL16', 'ALDH3A1', 'KRT8', 'LRIG3', 'ITGB5', 'KRT14', 'RHOV', 'FERMT2', 'MSMO1', 'SLC26A2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'EMP1', 'C1orf116', 'EPCAM', 'RGS2', 'TGM1', 'ITGAV', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'GBP1', 'CLDN7', 'WWC1', 'EPHA2', 'IFITM2', 'S100A6', 'CLIC3', 'DLG5', 'EPGN', 'VIM', 'CFB', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'TMEM132A', 'IVL', 'LLGL2', 'PTCD3', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'FGFR3', 'LMO7', 'FXYD3', 'ATP13A4', 'MME']</t>
+          <t>['GPRC5A', 'RAP2B', 'SPRR1B', 'ATP1B1', 'TMEM50B', 'SORT1', 'ADD3', 'PAK1', 'BAMBI', 'SLC39A8', 'STX3', 'TNFSF10', 'C3', 'ITGA2', 'CXCL16', 'GJA5', 'MAL2', 'CLDN7', 'ITGA5', 'GRB10', 'KLK7', 'SEMA3C', 'LZTS2', 'SGK1', 'SLC2A12', 'ITGB5', 'TGFBI', 'FGFR3', 'DST', 'FLNA', 'CD24', 'GLUL', 'SPIRE1', 'ABL2', 'SERPINE1', 'ADGRG1', 'CFB', 'UNC5B', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'DAPP1', 'CDH2', 'EVPL', 'ST14', 'SLC5A3', 'GSN', 'EMP1', 'ANXA3', 'LSR', 'SLC2A1', 'PNPLA2', 'MFI2', 'ITGB6', 'MUC1', 'PSCA', 'MGLL', 'KCNK15', 'DLG5', 'PCDH9', 'DDX50', 'CA12', 'IFITM2', 'CLIC3', 'VNN1', 'KCNIP3', 'LMO7', 'PTPRM', 'ITGB1BP1', 'MSMO1', 'S100A8', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'OGT', 'SLC44A2', 'FERMT2', 'LGALS1', 'EPHB2', 'PLCD1', 'AKAP11', 'MME', 'LRIG3', 'CGN', 'AQP3', 'EPGN', 'NOTCH1', 'F3', 'PLAUR', 'ATP13A4', 'PTGS2', 'C1orf116', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'TSPAN1', 'ERRFI1', 'RGS2', 'SERPINB2', 'KRT10', 'TGM2', 'IVL', 'ITGAV', 'SH3BGRL3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'CKB', 'MSLN', 'LIMS1', 'FXYD3', 'CSTA', 'LLGL2', 'SYT8', 'SLC3A2', 'TUBA1A', 'ACTB', 'LDLR', 'ABCD4', 'PTCD3', 'WWC1', 'KRT8', 'KRT17', 'S100A6', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'SLC26A6', 'RAB24', 'SLC26A2', 'ALDH3A1', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'EPPK1', 'SYNE2', 'TMEM132A', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IDA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'NAS', 'IC'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS'], ['IBA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IBA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'NAS'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IBA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'BCL6', 'SESN2', 'REL', 'CCL20', 'ELF3', 'NET1', 'AQP3', 'PTTG1', 'PXDN', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'DST', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'FLNA', 'C1R', 'TSC22D3', 'EPPK1', 'PTGES', 'IL1RN', 'ITGB6', 'ACKR3', 'EDN1', 'LDLR', 'SQSTM1', 'CCND1', 'ISG15', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'IGFBP6', 'VNN1', 'TUBB4B', 'MT2A', 'ATP1B1', 'CYP1B1', 'CAMK2N1', 'SPIRE1', 'MUC1', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'GPAM', 'KRT16', 'PDK4', 'LAMB2', 'LGALS1', 'BIRC3', 'CDK1', 'CD24', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'GSN', 'CSRP1', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'CXCL16', 'ACADVL', 'KRT8', 'FOS', 'ITGB5', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'SERPINB2', 'IER3', 'SAA1', 'HMGB2', 'TUBB', 'EGR1', 'MDK', 'DDX56', 'MYL9', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'F3', 'MGLL', 'GLUL', 'GBP1', 'EPHA2', 'MMP9', 'IFITM2', 'ATR', 'ZFP36', 'VIM', 'CFB', 'CLDN1', 'UPP1', 'TRIM38', 'TRIML2', 'ANGPTL4', 'SERPINA3', 'IRF1', 'PAK1', 'SERPINE1', 'RAP2B', 'ASH1L', 'TMSB4X', 'GIGYF2']</t>
+          <t>['RAP2B', 'ATP1B1', 'PAK1', 'PDK4', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'ACADVL', 'IL1B', 'ITGA5', 'SLPI', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'PXDN', 'STK25', 'SGK1', 'ITGB5', 'PTTG1', 'DST', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'GLUL', 'SPIRE1', 'SERPINE1', 'SQSTM1', 'CFB', 'PLAU', 'CLDN1', 'PTGES', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'GSN', 'CSRP1', 'ANXA3', 'SAA1', 'SLC2A1', 'SOD2', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'MGLL', 'BIRC3', 'ISG15', 'IFITM2', 'UPP1', 'SAA2', 'VNN1', 'IRF1', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'TXNIP', 'TNC', 'IL1RN', 'SPHK1', 'OGT', 'REL', 'BCL2L11', 'FERMT2', 'ATF3', 'LGALS1', 'EPHB2', 'ANGPTL4', 'SESN2', 'AQP3', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'ACKR3', 'ELF3', 'IGFBP6', 'KLK5', 'AKR1C3', 'SOX4', 'LAMB2', 'MYL9', 'SERPINB2', 'BCL6', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'LGALS3', 'TUBB4B', 'GIGYF2', 'EGR1', 'DNAJC15', 'FOS', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'KRT8', 'VIM', 'KRT16', 'HMGB2', 'SLC26A6', 'TSC22D3', 'EDN1', 'FN1', 'GBP1', 'GPAM', 'FAP', 'DDX56', 'CCND1', 'EPPK1', 'EPHA2', 'SERPINA3', 'NET1', 'ASH1L', 'PIM1']</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA'], ['IEP', 'NAS'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IGI', 'TAS'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'HMP', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'TAS', 'IEA'], ['IGI', 'ISS', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEP'], ['TAS', 'NAS'], ['IEA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IC'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEP'], ['IEA'], ['IMP'], ['TAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['HMP'], ['IDA', 'TAS', 'IEA'], ['IEP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEP'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['NAS'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['TAS'], ['IMP', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['HMP', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'HMP', 'NAS'], ['IDA', 'IC', 'IEA'], ['ISS', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['NAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA'], ['IEA'], ['IMP'], ['IDA', 'IEA']]</t>
+          <t>[['IDA'], ['IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEP'], ['TAS', 'IEA'], ['IBA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEP', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'TAS'], ['IEA'], ['NAS'], ['IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'HMP', 'NAS', 'IEA'], ['IEP'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IGI', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['NAS'], ['IMP', 'IEA'], ['HMP'], ['IDA'], ['NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['ISS', 'TAS'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IC', 'IEA'], ['TAS', 'NAS'], ['IEP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IEP', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IEP'], ['IMP', 'IEA'], ['IEA'], ['HMP', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IGI', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IC'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -17606,12 +17606,12 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['BCL6', 'KRT17', 'SUCO', 'ANXA3', 'ITGA5', 'TACSTD2', 'PIM1', 'NOTCH1', 'CDC20', 'PIEZO1', 'STK25', 'SOX4', 'FLNA', 'ZNF703', 'EDN1', 'CCND1', 'ISG15', 'DKK1', 'VNN1', 'ALOX15B', 'AMTN', 'ADIRF', 'TGM2', 'CYP1B1', 'PLXNB1', 'SPIRE1', 'FN1', 'GPAM', 'LAMB2', 'CDK1', 'CD24', 'C3', 'RREB1', 'EPHB2', 'IL1B', 'DCN', 'BAD', 'IRX3', 'OGT', 'LBH', 'CYR61', 'SPHK1', 'PTGS2', 'BAMBI', 'FOS', 'CITED2', 'FERMT2', 'SOD2', 'HMGB2', 'MDK', 'CRABP2', 'COL1A1', 'ACTB', 'F3', 'TRAK1', 'TFAP2A', 'IGFBP3', 'CLIC3', 'DLG5', 'ZFP36', 'B4GALT5', 'KRT10', 'ANGPTL4', 'SERPINE1', 'MME']</t>
+          <t>['AMTN', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'C3', 'ZFP36', 'IL1B', 'ITGA5', 'CYR61', 'STK25', 'FLNA', 'CD24', 'SUCO', 'SPIRE1', 'CDC20', 'SERPINE1', 'IRX3', 'CYP1B1', 'RREB1', 'ANXA3', 'SOD2', 'DCN', 'BAD', 'MDK', 'DLG5', 'ISG15', 'CLIC3', 'VNN1', 'IGFBP3', 'SPHK1', 'OGT', 'FERMT2', 'EPHB2', 'MME', 'ANGPTL4', 'NOTCH1', 'F3', 'PTGS2', 'TACSTD2', 'DKK1', 'SOX4', 'LAMB2', 'KRT10', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'CITED2', 'ALOX15B', 'PLXNB1', 'FOS', 'B4GALT5', 'ACTB', 'TRAK1', 'KRT17', 'HMGB2', 'ADIRF', 'EDN1', 'PIEZO1', 'FN1', 'GPAM', 'CCND1', 'TFAP2A', 'PIM1']</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['NAS'], ['IEA'], ['IMP'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IGI'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IDA'], ['NAS'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['TAS'], ['IDA', 'IMP'], ['IGI']]</t>
+          <t>[['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IGI'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['NAS'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IGI'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['ISS'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -17672,12 +17672,12 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'BCL6', 'CDH2', 'ELF3', 'SPTSSA', 'MAL2', 'SUCO', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ANXA3', 'ITGA5', 'KCNIP3', 'S100A11', 'NOTCH1', 'DST', 'SLC38A10', 'PIEZO1', 'IGFBP7', 'STK25', 'KLK7', 'FLNA', 'CNTNAP2', 'RRBP1', 'SLC44A2', 'PTGES', 'GOLGA8B', 'ABCD4', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'SYNE2', 'SQSTM1', 'CCND1', 'DKK1', 'SGK1', 'PLAUR', 'VNN1', 'TUBB4B', 'ELOVL4', 'AMTN', 'TGM2', 'CYP1B1', 'TMEM50B', 'KLK10', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'SORT1', 'ST6GAL1', 'CLMN', 'LAMB2', 'LGALS1', 'SYT8', 'CDK1', 'TPST1', 'CALML5', 'C3', 'GALNT6', 'KLK5', 'CDH1', 'NR4A1', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'PDE4DIP', 'NEURL1B', 'MFI2', 'GSN', 'EEF1A1', 'BCL2L11', 'ACSL1', 'TGFBI', 'TIMP1', 'CREG1', 'CYR61', 'SPHK1', 'PTGS2', 'TMEM208', 'S100A8', 'CYTH1', 'MAD2L1', 'ALDH3A1', 'FOS', 'TNC', 'RHOV', 'MSMO1', 'DSEL', 'CYP4B1', 'TUBB', 'GOLGA8A', 'CRABP2', 'SUN2', 'ITGAV', 'COL1A1', 'LGALS3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'MMP9', 'SCD5', 'IGFBP3', 'VPS51', 'IFITM2', 'S100A6', 'ATR', 'DHRS1', 'B4GALT5', 'FTH1', 'PNPLA2', 'SLC2A12', 'LAMA3', 'TMEM132A', 'COL4A1', 'SERPINA3', 'PAK1', 'SERPINE1', 'RAP2B', 'RAB24', 'RDH10', 'EHF', 'ASH1L', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'ATP13A4', 'MME']</t>
+          <t>['ST6GAL1', 'LAMA3', 'AMTN', 'RAP2B', 'TMEM50B', 'SORT1', 'GALNT6', 'PAK1', 'CRABP2', 'COL1A1', 'STX3', 'C3', 'NR4A1', 'MAL2', 'IL1B', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SLPI', 'CYR61', 'KLK7', 'MAD2L1', 'PXDN', 'STK25', 'SGK1', 'SLC2A12', 'TGFBI', 'FGFR3', 'DST', 'COL4A2', 'FLNA', 'ACSL1', 'EHF', 'SUCO', 'GLUL', 'SCD5', 'SERPINE1', 'SQSTM1', 'PLAU', 'PTGES', 'LPIN1', 'CDH2', 'CYP1B1', 'TUBB', 'GSN', 'SPTSSA', 'ANXA3', 'SLC2A1', 'PNPLA2', 'MFI2', 'DCN', 'TIMP1', 'TMEM208', 'MUC1', 'GOLGA8A', 'CENPF', 'MGLL', 'IFITM2', 'VNN1', 'CREG1', 'KCNIP3', 'LMO7', 'VPS51', 'IGFBP3', 'MMP9', 'MSMO1', 'S100A8', 'TNC', 'SPHK1', 'DHRS1', 'SLC44A2', 'BCL2L11', 'IGFBP7', 'LGALS1', 'MME', 'S100A11', 'SUN2', 'NOTCH1', 'ELOVL4', 'FTL', 'PLAUR', 'RRBP1', 'NEURL1B', 'ATP13A4', 'PTGS2', 'SLC38A10', 'ACKR3', 'DKK1', 'ELF3', 'KLK5', 'CLMN', 'LAMB2', 'DMXL2', 'ATG2A', 'BCL6', 'TGM2', 'CDK1', 'DSEL', 'ITGAV', 'FTH1', 'LGALS3', 'TPST1', 'TUBB4B', 'MSLN', 'KLK10', 'GIGYF2', 'FXYD3', 'SYT8', 'FOS', 'PDE4DIP', 'TUBA1A', 'B4GALT5', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'TRAK1', 'S100A6', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'SLC26A6', 'RAB24', 'ALDH3A1', 'EDN1', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'CCND1', 'CALML5', 'SYNE2', 'TMEM132A', 'RDH10', 'SERPINA3', 'COPE', 'ASH1L', 'COL4A1']</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>[['TAS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IDA'], ['IEA'], ['TAS'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['ISS'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['TAS'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['TAS'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA'], ['IBA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IEA'], ['IBA', 'TAS'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -17738,12 +17738,12 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>['LAMB3', 'SLC2A1', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'KRT6B', 'ELF3', 'KRT17', 'NET1', 'KRT5', 'KRT15', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'DNAJC15', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'TUBB3', 'NOTCH1', 'DST', 'MFAP5', 'KANK4', 'CDC20', 'PIEZO1', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'KLK7', 'FLNA', 'CNTNAP2', 'TUBA4A', 'EPPK1', 'GOLGA8B', 'ABL2', 'ABCD4', 'LSR', 'CCDC80', 'ZNF703', 'EDN1', 'LDLR', 'STX3', 'LIMS1', 'SYNE2', 'TIA1', 'SQSTM1', 'AKAP11', 'PWWP2B', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'CGN', 'TNFSF10', 'TUBB4B', 'DMKN', 'ATP1B1', 'BIRC5', 'PTPRM', 'TGM2', 'CYP1B1', 'PALLD', 'PLXNB1', 'SPIRE1', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'KRT16', 'CHD8', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'SUGT1', 'ALDH1A3', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'ATG2A', 'IL1B', 'DCN', 'PDE4DIP', 'TPM4', 'MFI2', 'GSN', 'CSRP1', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'CREG1', 'CYR61', 'SPHK1', 'S100A8', 'MAD2L1', 'CXCL16', 'KRT8', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'CDKN1A', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'ITGB1BP1', 'IER3', 'KRT81', 'EMP1', 'HMGB2', 'TUBA1B', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'MED19', 'NOL7', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'GLUL', 'GBP1', 'TRAK1', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'S100A6', 'ATR', 'NDOR1', 'DLG5', 'EPGN', 'DHRS1', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'CLDN1', 'PNPLA2', 'KRT10', 'NOM1', 'LAMA3', 'COL4A1', 'FBXW5', 'LLGL2', 'PAK1', 'PDLIM7', 'SERPINE1', 'TACC3', 'SH3BGRL3', 'ASH1L', 'SERTAD3', 'CENPF', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'MAU2']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'ATP1B1', 'SORT1', 'CCDC80', 'ADD3', 'PAK1', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'MDM4', 'ITGA2', 'CXCL16', 'GJA5', 'CLDN7', 'IL1B', 'ITGA5', 'GOLGA8B', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'LZTS2', 'SGK1', 'ITGB5', 'TGFBI', 'PTTG1', 'DST', 'COL4A2', 'FLNA', 'CD24', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'SQSTM1', 'UNC5B', 'TUBA4A', 'PALLD', 'TGM1', 'CLDN1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'GSN', 'NOM1', 'EMP1', 'CCNB2', 'CSRP1', 'LSR', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'BAD', 'MDK', 'LAMB3', 'PWWP2B', 'GOLGA8A', 'CENPF', 'TUBA1C', 'DLG5', 'STMN1', 'ISG15', 'CREG1', 'TUBB3', 'PTPRM', 'VPS51', 'KRT15', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TNC', 'NSUN5', 'SPHK1', 'KRT14', 'DHRS1', 'OGT', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'CTSV', 'EPHB2', 'CARD10', 'AKAP11', 'MFAP5', 'WSB1', 'SESN2', 'CGN', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'PLAUR', 'THOC2', 'HMGN5', 'TACSTD2', 'CRB3', 'DKK1', 'ELF3', 'KLK5', 'CLMN', 'RGS2', 'LAMB2', 'KIF23', 'MYL9', 'KRT81', 'ATG2A', 'TUBA1B', 'KRT10', 'BCL6', 'TGM2', 'SUGT1', 'CDK1', 'ITGAV', 'SH3BGRL3', 'IER3', 'LGALS3', 'PLXNB1', 'TTC19', 'TUBB4B', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'DNAJC15', 'ALDH1A3', 'PDE4DIP', 'TIA1', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TACC3', 'VIM', 'KRT16', 'CNTNAP2', 'RHOV', 'HMGB2', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'FAP', 'DDX56', 'EPPK1', 'SYNE2', 'MED19', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'COL4A1']</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['ISS', 'IBA'], ['IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA', 'TAS'], ['IDA'], ['IMP'], ['IBA', 'TAS'], ['IMP', 'IBA', 'TAS'], ['IBA'], ['IDA'], ['IBA'], ['IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['NAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['NAS', 'IEA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IGI'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'IBA'], ['IDA', 'ISO', 'IEA'], ['IBA'], ['IDA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP'], ['IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA'], ['IBA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['NAS'], ['IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'NAS'], ['IBA'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA'], ['IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['NAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA', 'ISO', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA'], ['IDA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IMP', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IBA'], ['IDA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS'], ['IBA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['IMP'], ['NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -17804,12 +17804,12 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['BCL6', 'IVNS1ABP', 'ITGA5', 'HMGN5', 'PIM1', 'NOTCH1', 'PIM3', 'FLNA', 'TSC22D3', 'ACKR3', 'EDN1', 'SQSTM1', 'CCND1', 'DKK1', 'MDM4', 'PLAUR', 'BIRC5', 'MUC1', 'GPAM', 'PDK4', 'CHD8', 'ST6GAL1', 'UNC5B', 'BIRC3', 'CDK1', 'VSTM2L', 'IL1B', 'BAD', 'TIMP1', 'CYR61', 'SPHK1', 'PTGS2', 'TLE1', 'MAD2L1', 'CDKN1A', 'CITED2', 'SOD2', 'SERPINB2', 'IER3', 'HMGB2', 'MDK', 'ITGAV', 'LGALS3', 'CLDN7', 'TFAP2A', 'MMP9', 'FTH1', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['ST6GAL1', 'PDK4', 'MDM4', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'MAD2L1', 'FLNA', 'SERPINE1', 'SQSTM1', 'UNC5B', 'VSTM2L', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'BIRC3', 'PIM3', 'MMP9', 'SPHK1', 'ANGPTL4', 'BIRC5', 'NOTCH1', 'PLAUR', 'PTGS2', 'HMGN5', 'ACKR3', 'DKK1', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'LGALS3', 'TLE1', 'HMGB2', 'TSC22D3', 'EDN1', 'GPAM', 'CCND1', 'TFAP2A', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[['NAS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP']]</t>
+          <t>[['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -17870,12 +17870,12 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'ELF3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'CCNB2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'KANK4', 'CDC20', 'PIM3', 'SLC5A3', 'PIEZO1', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'SLC44A2', 'C1R', 'TSC22D3', 'EPPK1', 'PTGES', 'TP53I11', 'ABL2', 'LSR', 'IL1RN', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'SQSTM1', 'ZNF117', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'MALAT1', 'VNN1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'MT2A', 'ATP1B1', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PLXNB1', 'CAMK2N1', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'DAPP1', 'PDE4DIP', 'NEURL1B', 'MFI2', 'GSN', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'CREG1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'ZNF266', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CXCL16', 'ACADVL', 'KRT8', 'FOS', 'ITGB5', 'TNC', 'RHOV', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'RARRES1', 'CCL28', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'MED19', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'CFB', 'RASSF8', 'CLDN1', 'PNPLA2', 'KRT10', 'TRIM38', 'TRIML2', 'ID1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'AMTN', 'RAP2B', 'ATP1B1', 'SORT1', 'MXD3', 'CCDC80', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'SLPI', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'ITGB5', 'TP53I11', 'TGFBI', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'PLAU', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'SLC5A3', 'GSN', 'MLXIP', 'CCNB2', 'ANXA3', 'LSR', 'SAA1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'PWWP2B', 'CENPF', 'PSCA', 'MGLL', 'NFYB', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'PIM3', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'IL1RN', 'NSUN5', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'THOC2', 'NEURL1B', 'PTGS2', 'HMGN5', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'MAGOHB', 'KIF23', 'MYL9', 'SERPINB2', 'ATG2A', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'IRX5', 'CDK1', 'LBH', 'MALAT1', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'C1orf56', 'LIMS1', 'KLF6', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'AKR1C2', 'ADIRF', 'EDN1', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IGI', 'ISS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['HMP'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'NAS', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IGI'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['TAS', 'NAS'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IGI', 'IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS'], ['IDA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['HMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IGI', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IGI', 'ISS'], ['IMP'], ['TAS'], ['TAS', 'IEA'], ['IDA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IBA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -17936,12 +17936,12 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>['PLAU', 'ITGA5', 'DST', 'FLNA', 'EPPK1', 'ITGB6', 'EDN1', 'PLAUR', 'FN1', 'FAP', 'LAMB2', 'CDK1', 'RREB1', 'ITGA2', 'EVPL', 'EPHB2', 'CSRP1', 'TIMP1', 'CYR61', 'ITGB5', 'TNC', 'CDKN1A', 'FERMT2', 'SOD2', 'SERPINB2', 'SAA1', 'MDK', 'MYL9', 'ITGAV', 'ACTB', 'F3', 'ZFP36', 'CLDN1', 'PAK1', 'SERPINE1', 'RAP2B']</t>
+          <t>['RAP2B', 'PAK1', 'ZFP36', 'ITGA2', 'ITGA5', 'CYR61', 'CDKN1A', 'ITGB5', 'DST', 'FLNA', 'SERPINE1', 'PLAU', 'CLDN1', 'EVPL', 'RREB1', 'CSRP1', 'SAA1', 'SOD2', 'TIMP1', 'ITGB6', 'MDK', 'TNC', 'FERMT2', 'EPHB2', 'F3', 'PLAUR', 'LAMB2', 'MYL9', 'SERPINB2', 'CDK1', 'ITGAV', 'ACTB', 'EDN1', 'FN1', 'FAP', 'EPPK1']</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>[['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEP', 'NAS'], ['IDA', 'IBA'], ['IDA', 'HMP', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['TAS'], ['TAS', 'NAS'], ['NAS', 'IEA'], ['IC'], ['IEA'], ['IEA'], ['IMP'], ['TAS'], ['IBA'], ['IMP'], ['HMP'], ['IEA'], ['IDA'], ['NAS'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['TAS'], ['NAS'], ['ISS', 'IEA'], ['HMP', 'IEA'], ['NAS'], ['HMP'], ['IDA', 'IC', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA']]</t>
+          <t>[['IDA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IEP', 'NAS'], ['IDA'], ['IEA'], ['NAS'], ['IDA', 'IBA'], ['IDA', 'HMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP'], ['IBA'], ['IMP'], ['HMP'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'ISO', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IC', 'IEA'], ['TAS', 'NAS'], ['IEA'], ['HMP', 'IEA'], ['TAS'], ['IEA'], ['NAS'], ['HMP'], ['TAS'], ['NAS', 'IEA'], ['IC'], ['IMP', 'IBA']]</t>
         </is>
       </c>
     </row>
@@ -18002,12 +18002,12 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>['LAMB3', 'SLC2A1', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'KRT6B', 'ELF3', 'KRT17', 'NET1', 'KRT5', 'KRT15', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'DNAJC15', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'TUBB3', 'NOTCH1', 'DST', 'MFAP5', 'KANK4', 'CDC20', 'PIEZO1', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'KLK7', 'FLNA', 'CNTNAP2', 'TUBA4A', 'EPPK1', 'GOLGA8B', 'ABL2', 'ABCD4', 'LSR', 'CCDC80', 'ZNF703', 'EDN1', 'LDLR', 'STX3', 'LIMS1', 'SYNE2', 'TIA1', 'SQSTM1', 'AKAP11', 'PWWP2B', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'CGN', 'TNFSF10', 'TUBB4B', 'DMKN', 'ATP1B1', 'BIRC5', 'PTPRM', 'TGM2', 'CYP1B1', 'PALLD', 'PLXNB1', 'SPIRE1', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'KRT16', 'CHD8', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'CARD10', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'SUGT1', 'ALDH1A3', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'ATG2A', 'IL1B', 'DCN', 'PDE4DIP', 'TPM4', 'MFI2', 'GSN', 'CSRP1', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'CREG1', 'CYR61', 'SPHK1', 'S100A8', 'MAD2L1', 'CXCL16', 'KRT8', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'CDKN1A', 'FERMT2', 'SOD2', 'MYBBP1A', 'ITGB1BP1', 'IER3', 'KRT81', 'EMP1', 'HMGB2', 'TUBA1B', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'MED19', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'GBP1', 'TRAK1', 'CLDN7', 'EPHA2', 'MMP9', 'IGFBP3', 'VPS51', 'S100A6', 'ATR', 'NDOR1', 'DLG5', 'EPGN', 'DHRS1', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'CLDN1', 'PNPLA2', 'KRT10', 'LAMA3', 'COL4A1', 'FBXW5', 'LLGL2', 'PAK1', 'PDLIM7', 'SERPINE1', 'TACC3', 'SH3BGRL3', 'ASH1L', 'SERTAD3', 'CENPF', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'MAU2']</t>
+          <t>['PDLIM7', 'CCNB1', 'LAMA3', 'ATP1B1', 'SORT1', 'CCDC80', 'ADD3', 'PAK1', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'MDM4', 'ITGA2', 'CXCL16', 'GJA5', 'CLDN7', 'IL1B', 'ITGA5', 'GOLGA8B', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'LZTS2', 'SGK1', 'ITGB5', 'TGFBI', 'PTTG1', 'DST', 'COL4A2', 'FLNA', 'CD24', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'SQSTM1', 'UNC5B', 'TUBA4A', 'PALLD', 'TGM1', 'CLDN1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'GSN', 'EMP1', 'CCNB2', 'CSRP1', 'LSR', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'BAD', 'MDK', 'LAMB3', 'PWWP2B', 'GOLGA8A', 'CENPF', 'TUBA1C', 'DLG5', 'STMN1', 'ISG15', 'CREG1', 'TUBB3', 'PTPRM', 'VPS51', 'KRT15', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'MAP2', 'TNC', 'SPHK1', 'KRT14', 'DHRS1', 'OGT', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'CTSV', 'EPHB2', 'CARD10', 'AKAP11', 'MFAP5', 'WSB1', 'SESN2', 'CGN', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'PLAUR', 'THOC2', 'HMGN5', 'TACSTD2', 'CRB3', 'DKK1', 'ELF3', 'KLK5', 'CLMN', 'RGS2', 'LAMB2', 'KIF23', 'MYL9', 'KRT81', 'ATG2A', 'TUBA1B', 'KRT10', 'BCL6', 'TGM2', 'SUGT1', 'CDK1', 'ITGAV', 'SH3BGRL3', 'IER3', 'LGALS3', 'PLXNB1', 'TTC19', 'TUBB4B', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'DNAJC15', 'ALDH1A3', 'PDE4DIP', 'TIA1', 'TUBA1A', 'B4GALT5', 'LOX', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TACC3', 'VIM', 'KRT16', 'CNTNAP2', 'RHOV', 'HMGB2', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'FAP', 'DDX56', 'EPPK1', 'SYNE2', 'MED19', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'COL4A1']</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['ISS', 'IBA'], ['IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['TAS'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'TAS', 'IEA'], ['IBA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IBA', 'TAS'], ['IDA'], ['IMP'], ['IBA', 'TAS'], ['IMP', 'IBA', 'TAS'], ['IBA'], ['IDA'], ['IBA'], ['IBA', 'IEA'], ['TAS'], ['NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['NAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['NAS', 'IEA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IGI'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'IBA'], ['IDA', 'ISO', 'IEA'], ['IBA'], ['IDA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP'], ['IMP', 'IBA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['NAS'], ['IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'NAS'], ['IBA'], ['IMP', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IMP'], ['IEA'], ['IBA'], ['IEA'], ['TAS'], ['IDA'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'NAS', 'IEA'], ['IBA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA'], ['IDA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA'], ['IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['NAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEP', 'ISS', 'IBA', 'TAS'], ['IDA', 'ISO', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IMP', 'IGI', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS', 'IBA'], ['IDA', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['NAS', 'IEA'], ['IMP', 'IBA', 'TAS'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA'], ['IMP', 'IBA'], ['IDA'], ['ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS'], ['IBA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['IMP'], ['NAS'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'ELF3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'FBXO32', 'KRT5', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'CCNB2', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'KANK4', 'CDC20', 'PIM3', 'SLC5A3', 'PIEZO1', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'TSPAN1', 'SLC44A2', 'C1R', 'TSC22D3', 'EPPK1', 'PTGES', 'TP53I11', 'ABL2', 'LSR', 'IL1RN', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'SQSTM1', 'ZNF117', 'KCNK15', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'MALAT1', 'VNN1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'MT2A', 'ATP1B1', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PLXNB1', 'CAMK2N1', 'SPIRE1', 'ERRFI1', 'MUC1', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'NEURL1B', 'MFI2', 'GSN', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'CREG1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'ZNF266', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CXCL16', 'ACADVL', 'KRT8', 'FOS', 'ITGB5', 'TNC', 'RHOV', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'RARRES1', 'CCL28', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'MED19', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'B4GALT5', 'LOX', 'VIM', 'FTH1', 'CFB', 'RASSF8', 'CLDN1', 'PNPLA2', 'KRT10', 'TRIM38', 'TRIML2', 'ID1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'AMTN', 'RAP2B', 'ATP1B1', 'SORT1', 'MXD3', 'CCDC80', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'SLPI', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'ITGB5', 'TP53I11', 'TGFBI', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'PLAU', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'SLC5A3', 'GSN', 'MLXIP', 'CCNB2', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'PWWP2B', 'CENPF', 'PSCA', 'MGLL', 'NFYB', 'KCNK15', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'PIM3', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'IL1RN', 'NSUN5', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'THOC2', 'NEURL1B', 'PTGS2', 'HMGN5', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'TSPAN1', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'SERPINB2', 'ATG2A', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IRX5', 'CDK1', 'LBH', 'MALAT1', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'C1orf56', 'LIMS1', 'KLF6', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'AKR1C2', 'ADIRF', 'EDN1', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IGI', 'ISS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA'], ['HMP'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['ISS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HMP'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HMP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IDA', 'IMP', 'IGI'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['TAS', 'NAS'], ['IDA', 'TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['HMP'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS'], ['IDA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['HMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IBA'], ['IGI', 'ISS'], ['IMP'], ['HMP', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['ISS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IBA'], ['IDA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IMP', 'IGI', 'HMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'ISS', 'IC', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -18134,12 +18134,12 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['BCL6', 'IVNS1ABP', 'ITGA5', 'HMGN5', 'PIM1', 'NOTCH1', 'PIM3', 'FLNA', 'TSC22D3', 'ACKR3', 'EDN1', 'CCND1', 'DKK1', 'MDM4', 'PLAUR', 'BIRC5', 'MUC1', 'GPAM', 'PDK4', 'CHD8', 'ST6GAL1', 'UNC5B', 'BIRC3', 'CDK1', 'VSTM2L', 'IL1B', 'BAD', 'TIMP1', 'CYR61', 'SPHK1', 'PTGS2', 'TLE1', 'MAD2L1', 'CDKN1A', 'CITED2', 'SOD2', 'SERPINB2', 'IER3', 'HMGB2', 'MDK', 'ITGAV', 'LGALS3', 'CLDN7', 'TFAP2A', 'MMP9', 'ANGPTL4', 'SERPINE1']</t>
+          <t>['ST6GAL1', 'PDK4', 'MDM4', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'MAD2L1', 'FLNA', 'SERPINE1', 'UNC5B', 'VSTM2L', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'BIRC3', 'PIM3', 'MMP9', 'SPHK1', 'ANGPTL4', 'BIRC5', 'NOTCH1', 'PLAUR', 'PTGS2', 'HMGN5', 'ACKR3', 'DKK1', 'SERPINB2', 'IVNS1ABP', 'BCL6', 'CDK1', 'ITGAV', 'CITED2', 'IER3', 'LGALS3', 'TLE1', 'HMGB2', 'TSC22D3', 'EDN1', 'GPAM', 'CCND1', 'TFAP2A', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[['NAS', 'IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IBA', 'TAS'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IGI', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IEA'], ['IMP']]</t>
+          <t>[['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -18200,12 +18200,12 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['REL', 'CCL20', 'IVNS1ABP', 'ANXA3', 'ITGA5', 'PIM1', 'NOTCH1', 'KLK7', 'C1R', 'CCDC80', 'ITGB6', 'EDN1', 'LDLR', 'SQSTM1', 'ISG15', 'MMP7', 'VNN1', 'TUBB4B', 'ATP1B1', 'SPIRE1', 'SLPI', 'FN1', 'GPAM', 'KRT16', 'LGALS1', 'BIRC3', 'CDK1', 'CD24', 'C3', 'ITGA2', 'KLK5', 'CDH1', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'SLC3A2', 'GSN', 'EEF1A1', 'BCL2L11', 'BAD', 'OGT', 'PTGS2', 'S100A8', 'CXCL16', 'KRT8', 'FOS', 'ITGB5', 'SOD2', 'IER3', 'HMGB2', 'TUBB', 'C15orf48', 'DDX56', 'STMN1', 'ITGAV', 'LGALS3', 'GBP1', 'EPHA2', 'MMP9', 'IFITM2', 'ZFP36', 'VIM', 'CFB', 'CLDN1', 'TRIM38', 'TRIML2', 'IRF1', 'PAK1', 'SERPINE1', 'GIGYF2']</t>
+          <t>['ATP1B1', 'CCDC80', 'PAK1', 'C3', 'NR4A1', 'ZFP36', 'ITGA2', 'TRIML2', 'CXCL16', 'IL1B', 'ITGA5', 'SLPI', 'KLK7', 'MMP7', 'ITGB5', 'TRIM38', 'CD24', 'SPIRE1', 'SERPINE1', 'SQSTM1', 'CFB', 'CLDN1', 'EVPL', 'TUBB', 'GSN', 'ANXA3', 'SOD2', 'ITGB6', 'BAD', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'VNN1', 'IRF1', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'OGT', 'REL', 'BCL2L11', 'LGALS1', 'EPHB2', 'NOTCH1', 'PTGS2', 'KLK5', 'IVNS1ABP', 'CDK1', 'ITGAV', 'IER3', 'LGALS3', 'TUBB4B', 'GIGYF2', 'SLC3A2', 'FOS', 'LDLR', 'KRT8', 'C15orf48', 'VIM', 'KRT16', 'EEF1A1', 'HMGB2', 'SLC26A6', 'EDN1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'DDX56', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>[['IBA'], ['IBA', 'IEA'], ['IMP', 'TAS'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['NAS'], ['IEA'], ['IDA', 'IMP'], ['IEP'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IGI'], ['IDA']]</t>
+          <t>[['IEA'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IEA'], ['IMP', 'IGI'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEP'], ['TAS'], ['IDA', 'IMP', 'IEP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IBA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IMP', 'TAS'], ['IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IEA'], ['IEA'], ['NAS'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -18266,12 +18266,12 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['SESN2', 'CDH2', 'REL', 'NET1', 'AKR1C2', 'PLAU', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'CTSV', 'STK25', 'KLK7', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'C1R', 'GADD45B', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'DKK1', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'PLXNB1', 'CAMK2N1', 'SPIRE1', 'FN1', 'NFAT5', 'LAMB2', 'UNC5B', 'LGALS1', 'BIRC3', 'CD24', 'C3', 'RREB1', 'ITGA2', 'KLK5', 'IL1B', 'DCN', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'MAD2L1', 'CITED2', 'FERMT2', 'ITGB1BP1', 'HMGB2', 'MDK', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'F3', 'GBP1', 'WWC1', 'MMP9', 'IGFBP3', 'ATR', 'DLG5', 'EPGN', 'CFB', 'CLDN1', 'TRIM38', 'TMEM132A', 'IRF1', 'PAK1', 'SERPINE1', 'FGFR3', 'TMSB4X']</t>
+          <t>['PAK1', 'BAMBI', 'COL1A1', 'STX3', 'TNFSF10', 'C3', 'ITGA2', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'KLK7', 'MAD2L1', 'STK25', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'SPIRE1', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'PLAU', 'CLDN1', 'CDH2', 'CYP1B1', 'FNIP1', 'RREB1', 'DCN', 'BAD', 'MDK', 'DLG5', 'BIRC3', 'VNN1', 'IRF1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'C1R', 'SPHK1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'ATF3', 'CTSV', 'LGALS1', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'AKR1C3', 'SOX4', 'LAMB2', 'TGM2', 'ITGAV', 'CITED2', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GBP1', 'TMEM132A', 'NET1', 'PIM1']</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IEA'], ['IEP'], ['IBA', 'IEA'], ['IDA'], ['NAS'], ['TAS'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP', 'IEA'], ['IMP'], ['HMP'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IMP'], ['IDA'], ['IMP', 'IBA'], ['IDA'], ['IDA', 'TAS'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['NAS'], ['IMP'], ['IDA', 'HMP'], ['TAS'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['IDA'], ['IMP', 'TAS'], ['IEA'], ['IDA'], ['IDA'], ['IGI'], ['IDA', 'IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['ISS'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IC'], ['IDA', 'IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'HMP', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IMP', 'IGI', 'NAS'], ['IMP', 'IBA', 'TAS'], ['IDA']]</t>
+          <t>[['IDA', 'IMP', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IC', 'IEA'], ['TAS'], ['IDA'], ['IGI'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'IBA', 'TAS'], ['IDA', 'HMP', 'IBA'], ['IMP', 'HMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'NAS'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['NAS'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'NAS'], ['IEA'], ['IDA', 'IMP'], ['IDA'], ['IEP'], ['HMP'], ['IMP', 'TAS'], ['IDA', 'IMP'], ['IMP'], ['IBA'], ['IDA', 'HMP'], ['IMP'], ['IDA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IC'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'NAS'], ['IMP'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -18332,12 +18332,12 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'ELF3', 'IVNS1ABP', 'PXDN', 'PLAU', 'DNAJC15', 'ITGA5', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KCNIP3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'KANK4', 'CDC20', 'PIM3', 'IGFBP7', 'SLC39A8', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CDKN1C', 'TSC22D3', 'EPPK1', 'PTGES', 'TP53I11', 'ABL2', 'IL1RN', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'GRB10', 'LIMS1', 'TIA1', 'SQSTM1', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'MDM4', 'PLAUR', 'IGFBP6', 'N4BP2L2', 'ALOX15B', 'BIRC5', 'PTPRM', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'MUC1', 'FN1', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'CHD8', 'ST6GAL1', 'CLMN', 'UNC5B', 'TP53INP2', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'CCNB1', 'VSTM2L', 'CSTA', 'RREB1', 'DLK2', 'IGF2BP3', 'CDH1', 'TXNIP', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'MFI2', 'GSN', 'LZTS2', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'CREG1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'BAMBI', 'MAD2L1', 'ACADVL', 'TNC', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'RARRES1', 'CCL28', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'MDK', 'DDX56', 'STMN1', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'GBP1', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'HES2', 'ATR', 'DLG5', 'ZFP36', 'LOX', 'VIM', 'FTH1', 'PNPLA2', 'ID1', 'TMEM132A', 'ANGPTL4', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'ASH1L', 'SERTAD3', 'CENPF', 'TMSB4X', 'GIGYF2', 'LPIN1']</t>
+          <t>['GPRC5A', 'CCNB1', 'ST6GAL1', 'RAP2B', 'SORT1', 'MXD3', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'NR4A1', 'ZFP36', 'MDM4', 'ACADVL', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'CDKN1A', 'MAD2L1', 'PXDN', 'LZTS2', 'DLK2', 'TP53I11', 'TGFBI', 'FLNA', 'CD24', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'PTGES', 'VSTM2L', 'LPIN1', 'CDH2', 'CYP1B1', 'FNIP1', 'RREB1', 'GSN', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'CENPF', 'PSCA', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'CREG1', 'KCNIP3', 'PIM3', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'MAP2', 'TXNIP', 'TNC', 'IL1RN', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'FERMT2', 'IGFBP7', 'ATF3', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'S100A11', 'ANGPTL4', 'CDKN1C', 'SESN2', 'BIRC5', 'NOTCH1', 'PLAUR', 'CCL28', 'THOC2', 'PTGS2', 'HMGN5', 'TACSTD2', 'ACKR3', 'DKK1', 'ELF3', 'IGFBP6', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'MAGOHB', 'SERPINB2', 'ID1', 'IVNS1ABP', 'BCL6', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'HES2', 'GIGYF2', 'CSTA', 'EGR1', 'DNAJC15', 'TIA1', 'RARRES1', 'LOX', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'TLE1', 'N4BP2L2', 'VIM', 'KRT16', 'HMGB2', 'IGF2BP3', 'TSC22D3', 'EDN1', 'TP53INP2', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'EPPK1', 'TMEM132A', 'EPHA2', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IMP'], ['IMP'], ['ISS', 'IEA'], ['IGI', 'ISS'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['IEA'], ['TAS'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IMP'], ['TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IGI', 'NAS'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IMP'], ['ISS'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'NAS'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IEA']]</t>
+          <t>[['ISS'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP'], ['ISS'], ['NAS'], ['IDA', 'IMP', 'IBA', 'NAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['NAS'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IDA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IBA', 'TAS'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'ISS', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IGI', 'NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IGI', 'ISS'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IMP', 'ISS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -18398,12 +18398,12 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'NET1', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'CDC20', 'SLC46A3', 'SLC38A10', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'ECHDC2', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'ABCD4', 'LSR', 'IL1RN', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'DDX50', 'STX3', 'SYNE2', 'TIA1', 'IDI1', 'SQSTM1', 'ZNF117', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'SGK1', 'NEAT1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'VNN1', 'PSMB10', 'TNFSF10', 'TUBB4B', 'LAD1', 'ELOVL4', 'N4BP2L2', 'ALOX15B', 'MT2A', 'ATP1B1', 'BIRC5', 'AMTN', 'ADIRF', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'TMEM50B', 'SPIRE1', 'KLK10', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'TP53INP2', 'LGALS1', 'SYT8', 'BIRC3', 'SRSF11', 'CDK1', 'CD24', 'CCNB1', 'TPST1', 'SUGT1', 'CALML5', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'ANKMY2', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'CREG1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'FAM193B', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'PDP1', 'CYTH1', 'MAD2L1', 'SNHG1', 'USP31', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'MSMO1', 'RARRES1', 'DSEL', 'CCL28', 'SLC26A2', 'PSCA', 'ITGB1BP1', 'IER3', 'CYP4B1', 'SAA1', 'HMGB2', 'C1orf116', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'GOLGA8A', 'DDX56', 'STMN1', 'CRABP2', 'SUN2', 'NFYB', 'ANKRD11', 'MED19', 'NOL7', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'WWC1', 'TFAP2A', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'PDZK1IP1', 'DLG5', 'EPGN', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'VIM', 'FTH1', 'CFB', 'MTHFD2', 'PNPLA2', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'ID1', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'RDH10', 'EHF', 'ASH1L', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'ATP13A4', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'ADD3', 'PAK1', 'ECHDC2', 'PDK4', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'SLC39A8', 'USP31', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ACADVL', 'MAL2', 'IL1B', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SLPI', 'SRSF11', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'ANKMY2', 'LZTS2', 'SGK1', 'ITGB5', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'EHF', 'SUCO', 'NEAT1', 'GLUL', 'SPIRE1', 'SCD5', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'PTGES', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'SAT2', 'GSN', 'NOM1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'LAD1', 'BAD', 'MUC1', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'DLG5', 'STMN1', 'DDX50', 'BIRC3', 'ISG15', 'IFITM2', 'UPP1', 'SAA2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'ACOX3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'VPS51', 'KRT15', 'IGFBP3', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'TNC', 'SLC46A3', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'PLCD1', 'AKAP11', 'MME', 'S100A11', 'LRIG3', 'ZNF117', 'CDKN1C', 'SESN2', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'C1orf116', 'TACSTD2', 'SLC38A10', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'ATG2A', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'DSEL', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'KLF6', 'KLK10', 'HES2', 'GIGYF2', 'FXYD3', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'TUBA1A', 'B4GALT5', 'RARRES1', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'S100A6', 'TLE1', 'MACC1', 'C15orf48', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'SNHG1', 'EDN1', 'TP53INP2', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'FAM193B', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>[['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['IDA', 'HDA'], ['HDA'], ['IDA', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'TAS'], ['HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IMP', 'HDA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['IEA'], ['HTP'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['HDA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['HDA'], ['IDA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['HTP', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['IBA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['IDA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA'], ['HDA', 'TAS'], ['IDA'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['HDA', 'TAS'], ['HDA'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['TAS'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'HDA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['ISS', 'IBA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'HDA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -18464,12 +18464,12 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>['BCL6', 'SESN2', 'CDH2', 'REL', 'IVNS1ABP', 'NET1', 'AKR1C2', 'PXDN', 'PLAU', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'ABL2', 'IL1RN', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'GRB10', 'LIMS1', 'SQSTM1', 'ISG15', 'DKK1', 'SGK1', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'CHD8', 'LAMB2', 'UNC5B', 'LGALS1', 'BIRC3', 'CD24', 'CCNB1', 'C3', 'DLK2', 'KLK5', 'EPHB2', 'IL1B', 'DCN', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CITED2', 'FERMT2', 'SOD2', 'PSCA', 'ITGB1BP1', 'IER3', 'HMGB2', 'RGS2', 'EGR1', 'MDK', 'STMN1', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'MGLL', 'GBP1', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'ATR', 'DLG5', 'EPGN', 'LOX', 'TRIM38', 'TMEM132A', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'ASH1L', 'FGFR3', 'TMSB4X', 'GIGYF2']</t>
+          <t>['GPRC5A', 'CCNB1', 'PAK1', 'BAMBI', 'ZNF703', 'COL1A1', 'SLC39A8', 'TNFSF10', 'C3', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'MAD2L1', 'PXDN', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'ABL2', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'CDH2', 'CYP1B1', 'FNIP1', 'SOD2', 'DCN', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'PSCA', 'MGLL', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'VNN1', 'IRF1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'IL1RN', 'SPHK1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'LOX', 'ATR', 'TMSB4X', 'WWC1', 'TLE1', 'CYTH1', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GBP1', 'TMEM132A', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['TAS'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IBA'], ['IDA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP'], ['IMP'], ['HMP'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'NAS'], ['IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['HMP'], ['TAS'], ['IDA', 'ISS'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'NAS'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IMP'], ['IBA', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'HMP', 'IBA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS'], ['IDA', 'IMP'], ['IEA'], ['IMP', 'IBA', 'TAS'], ['IMP'], ['IDA']]</t>
+          <t>[['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS'], ['IDA', 'HMP', 'IBA'], ['IMP', 'HMP'], ['IDA', 'ISS'], ['ISS'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'NAS'], ['IEP'], ['HMP'], ['IMP', 'TAS'], ['IDA'], ['IBA'], ['IMP', 'IEA'], ['IBA'], ['HMP'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['ISS'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IEA'], ['IBA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -18530,12 +18530,12 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['NMU', 'BCL6', 'SESN2', 'CDH2', 'REL', 'IVNS1ABP', 'NET1', 'AKR1C2', 'PXDN', 'PLAU', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'CDC20', 'PIM3', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'ABL2', 'IL1RN', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'ISG15', 'DKK1', 'SGK1', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'CHD8', 'LAMB2', 'UNC5B', 'LGALS1', 'BIRC3', 'GJA5', 'CD24', 'CCNB1', 'C3', 'DLK2', 'ITGA2', 'KLK5', 'CDH1', 'EPHB2', 'IL1B', 'DCN', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'IRX3', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CITED2', 'FERMT2', 'SOD2', 'PSCA', 'ITGB1BP1', 'IER3', 'HMGB2', 'RGS2', 'EGR1', 'MDK', 'STMN1', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'MGLL', 'GBP1', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'ATR', 'DLG5', 'EPGN', 'LOX', 'TRIM38', 'TMEM132A', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'ASH1L', 'FGFR3', 'TMSB4X', 'GIGYF2', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'PAK1', 'BAMBI', 'ZNF703', 'COL1A1', 'SLC39A8', 'STX3', 'TNFSF10', 'C3', 'ITGA2', 'GJA5', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'MAD2L1', 'PXDN', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'CDH2', 'CYP1B1', 'FNIP1', 'SOD2', 'DCN', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'PSCA', 'MGLL', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'VNN1', 'PIM3', 'IRF1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'IL1RN', 'SPHK1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'MME', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'LOX', 'ATR', 'TMSB4X', 'WWC1', 'TLE1', 'CYTH1', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GBP1', 'CDH1', 'TMEM132A', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['TAS'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA'], ['IDA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP'], ['IMP'], ['HMP'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['HMP'], ['TAS'], ['IMP', 'IEA'], ['IDA', 'ISS'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'NAS'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IMP'], ['IBA', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'HMP', 'IBA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS'], ['IDA', 'IMP'], ['IEA'], ['IMP', 'IBA', 'TAS'], ['IMP'], ['IDA'], ['IEA']]</t>
+          <t>[['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS'], ['IDA', 'HMP', 'IBA'], ['IMP', 'HMP'], ['IDA', 'ISS'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'NAS'], ['IEP'], ['HMP'], ['IMP', 'TAS'], ['IDA'], ['IBA'], ['IMP', 'IEA'], ['IBA'], ['HMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['ISS'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IEA'], ['IBA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -18596,12 +18596,12 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['NMU', 'SESN2', 'CDH2', 'REL', 'NET1', 'AKR1C2', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'CTSV', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'GADD45B', 'ACKR3', 'EDN1', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'DKK1', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'PLXNB1', 'FN1', 'NFAT5', 'LAMB2', 'UNC5B', 'LGALS1', 'BIRC3', 'GJA5', 'CD24', 'C3', 'ITGA2', 'KLK5', 'EPHB2', 'IL1B', 'DCN', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'MAD2L1', 'CITED2', 'FERMT2', 'ITGB1BP1', 'ITGAV', 'COL1A1', 'F3', 'WWC1', 'MMP9', 'IGFBP3', 'ATR', 'DLG5', 'EPGN', 'TRIM38', 'TMEM132A', 'PAK1', 'FGFR3', 'MME']</t>
+          <t>['PAK1', 'BAMBI', 'COL1A1', 'STX3', 'TNFSF10', 'C3', 'ITGA2', 'GJA5', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'MAD2L1', 'STK25', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'ADGRG1', 'SQSTM1', 'UNC5B', 'CDH2', 'CYP1B1', 'FNIP1', 'DCN', 'BAD', 'NMU', 'DLG5', 'BIRC3', 'VNN1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'SPHK1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'MME', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'AKR1C3', 'SOX4', 'LAMB2', 'TGM2', 'ITGAV', 'CITED2', 'ALOX15B', 'PLXNB1', 'LIMS1', 'ATR', 'WWC1', 'AKR1C2', 'EDN1', 'FN1', 'TMEM132A', 'NET1', 'PIM1']</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP'], ['IMP'], ['HMP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['NAS'], ['IMP'], ['HMP'], ['TAS'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['IDA'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IGI'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HMP', 'IBA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IBA', 'TAS'], ['IEA']]</t>
+          <t>[['IDA', 'IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['TAS'], ['IDA'], ['IGI'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'IBA', 'TAS'], ['IDA', 'HMP', 'IBA'], ['IMP', 'HMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IDA'], ['IEP'], ['HMP'], ['IMP', 'TAS'], ['IDA'], ['IMP'], ['IBA'], ['HMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IMP'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -18662,12 +18662,12 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>['NMU', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'IVNS1ABP', 'NET1', 'AKR1C2', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ITGA5', 'SEMA3C', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'CDC20', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'PTGES', 'ABL2', 'IL1RN', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'GRB10', 'LIMS1', 'SQSTM1', 'AKAP11', 'CCND1', 'ISG15', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'ATP1B1', 'BIRC5', 'PTPRM', 'TGM2', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'SORT1', 'PDK4', 'MACC1', 'CHD8', 'LAMB2', 'UNC5B', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'CCNB1', 'CALML5', 'C3', 'DLK2', 'ITGA2', 'KLK5', 'TXNIP', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'DAPP1', 'NEURL1B', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CXCL16', 'KRT8', 'FOS', 'ITGB5', 'RHOV', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'PSCA', 'ITGB1BP1', 'IER3', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'MDK', 'STMN1', 'CRABP2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'MGLL', 'GBP1', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'LOX', 'RASSF8', 'TRIM38', 'ID1', 'TMEM132A', 'COL4A1', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'ASH1L', 'FGFR3', 'CENPF', 'TMSB4X', 'GIGYF2', 'WSB1']</t>
+          <t>['GPRC5A', 'CCNB1', 'RAP2B', 'ATP1B1', 'SORT1', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'CXCL16', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'CDKN1A', 'MAD2L1', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'ITGB5', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'ABL2', 'CDC20', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'PTGES', 'DAPP1', 'CDH2', 'CYP1B1', 'FNIP1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'CENPF', 'PSCA', 'MGLL', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'CLIC3', 'VNN1', 'KCNIP3', 'TUBB3', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'TXNIP', 'IL1RN', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'S100A11', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'NEURL1B', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'FOS', 'TUBA1A', 'LOX', 'ATR', 'TMSB4X', 'WWC1', 'KRT8', 'S100A6', 'TLE1', 'MACC1', 'CYTH1', 'RHOV', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GBP1', 'TUFT1', 'CCND1', 'CALML5', 'TMEM132A', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['NAS'], ['IBA'], ['IBA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'HMP', 'IEA'], ['IMP'], ['HMP'], ['NAS'], ['IMP', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['IDA'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['HMP', 'IEA'], ['IDA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IMP'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'NAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'TAS'], ['IBA', 'NAS', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HMP', 'IBA'], ['TAS'], ['IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEP'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA'], ['IMP', 'IGI', 'HMP', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS'], ['NAS'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IMP', 'IEA'], ['IDA', 'TAS', 'NAS'], ['NAS'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA'], ['NAS'], ['IDA'], ['ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP'], ['IBA'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'TAS'], ['IDA', 'NAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS'], ['IEP', 'IBA'], ['HMP'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IMP', 'IEA'], ['IBA'], ['HMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'TAS', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['TAS'], ['IEA'], ['IEA'], ['IMP', 'ISS'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IDA', 'NAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IBA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -18728,12 +18728,12 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMB3', 'SLC2A1', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'NET1', 'FBXO32', 'KRT5', 'KRT15', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'KANK4', 'CDC20', 'SLC46A3', 'PIM3', 'SLC5A3', 'GYS1', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'STK25', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'C1R', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'SPATS2', 'ABL2', 'ABCD4', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'DDX50', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'MRC2', 'IDI1', 'SQSTM1', 'ZNF117', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'C1orf74', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'PSMB10', 'CGN', 'TNFSF10', 'TUBB4B', 'LAD1', 'ELOVL4', 'N4BP2L2', 'OPLAH', 'ALOX15B', 'DMKN', 'MT2A', 'ATP1B1', 'SPINK6', 'BIRC5', 'AMTN', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'PLXNB1', 'CAMK2N1', 'TMEM50B', 'SPIRE1', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'SRSF11', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'CHI3L2', 'SUGT1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'DAPP1', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'ANKMY2', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'ST14', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'FAM193B', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'BAMBI', 'PDP1', 'CYTH1', 'MAD2L1', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'TTC9', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'TTC14', 'MSMO1', 'RARRES1', 'CCL28', 'ARHGEF37', 'PSCA', 'ITGB1BP1', 'IER3', 'KRT81', 'CYP4B1', 'SAA1', 'EMP1', 'HMGB2', 'C1orf116', 'CEP170B', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'UBALD2', 'MDK', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'ANKRD11', 'MED19', 'NOL7', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'TAGLN', 'F3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'CDR2L', 'TFAP2A', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'PDZK1IP1', 'DLG5', 'EPGN', 'TUFT1', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'LOX', 'VIM', 'FTH1', 'CFB', 'RASSF8', 'TP53I3', 'MTHFD2', 'CLDN1', 'PNPLA2', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'TRIML2', 'ID1', 'SAT2', 'IRGQ', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'ATP13A4', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'MAL2', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYP4B1', 'GOLGA8B', 'SLPI', 'SRSF11', 'CYR61', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'ANKMY2', 'LZTS2', 'DLK2', 'SPINK6', 'SGK1', 'ITGB5', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'LAMC2', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'UNC5B', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'CEP170B', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'ST14', 'SAT2', 'SLC5A3', 'GSN', 'NOM1', 'C1orf74', 'EMP1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'LAD1', 'BAD', 'MDK', 'MUC1', 'LAMB3', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'NMU', 'DLG5', 'PCDH9', 'STMN1', 'DDX50', 'BIRC3', 'CA12', 'ISG15', 'UPP1', 'SAA2', 'CLIC3', 'KCNIP3', 'TUBB3', 'ACOX3', 'PIM3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'VPS51', 'KRT15', 'CHI3L2', 'IGFBP3', 'TAGLN', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'RASSF8', 'CCL20', 'C1R', 'MAP2', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'LRIG3', 'SPATS2', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'UBALD2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'C1orf116', 'TACSTD2', 'ARHGEF37', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'TP53I3', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'GYS1', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'PLXNB1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'C1orf56', 'LIMS1', 'TTC9', 'KLF6', 'TBC1D8', 'HES2', 'GIGYF2', 'FXYD3', 'IRGQ', 'CDR2L', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'OPLAH', 'TUBA1A', 'B4GALT5', 'RARRES1', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'TTC14', 'MACC1', 'MRC2', 'C15orf48', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'AKR1C2', 'ADIRF', 'ALDH3A1', 'EDN1', 'DMKN', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'FAM193B', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['HDA', 'NAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IPI'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IBA'], ['IDA', 'IPI'], ['IEA'], ['IPI', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'HDA', 'ISS', 'IEA'], ['IEA'], ['IPI', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IBA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IBA'], ['IPI', 'IBA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI', 'IBA'], ['HDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'NAS'], ['IPI', 'ISS', 'IEA'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IPI', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'HDA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IEA'], ['IPI'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'IMP'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'TAS'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI', 'IBA', 'IEA']]</t>
+          <t>[['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IDA', 'IPI'], ['IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'ISS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IBA', 'IEA'], ['IPI'], ['HDA', 'IBA', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IPI'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'NAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IBA', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IBA'], ['IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IPI', 'TAS'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IMP', 'ISS', 'IEA'], ['IDA', 'IPI'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IPI', 'NAS'], ['IPI'], ['IPI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IPI', 'HDA'], ['IPI'], ['IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IMP', 'TAS', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI'], ['IEA'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IEA'], ['HDA', 'IEA'], ['IPI', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'HDA', 'ISS', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'TAS'], ['IEA'], ['IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'TAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IPI', 'ISS', 'IEA'], ['HDA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IEA'], ['IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IBA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['EXP', 'IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI'], ['IPI', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IPI'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IPI', 'ISS', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IPI', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'NAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IBA', 'NAS', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IGI', 'HDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'ISS', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IDA', 'IBA'], ['IPI'], ['IPI'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IPI'], ['IPI', 'IEA'], ['IPI', 'IEA'], ['IPI'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS', 'IEA'], ['IPI', 'HDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI'], ['IPI'], ['IDA', 'IPI'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IPI', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA'], ['IPI', 'ISS', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IPI', 'HDA', 'IEA'], ['IPI'], ['IPI', 'TAS'], ['IPI', 'TAS', 'IEA'], ['IPI', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'IEA'], ['IDA', 'IPI']]</t>
         </is>
       </c>
     </row>
@@ -18794,12 +18794,12 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['NMU', 'BCL6', 'SESN2', 'CDH2', 'REL', 'IVNS1ABP', 'NET1', 'AKR1C2', 'PXDN', 'PLAU', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'CDC20', 'PIM3', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'ABL2', 'IL1RN', 'GADD45B', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'ISG15', 'DKK1', 'SGK1', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'CHD8', 'LAMB2', 'UNC5B', 'LGALS1', 'BIRC3', 'CD24', 'CCNB1', 'C3', 'DLK2', 'KLK5', 'CDH1', 'EPHB2', 'IL1B', 'DCN', 'LZTS2', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CITED2', 'FERMT2', 'SOD2', 'PSCA', 'ITGB1BP1', 'IER3', 'HMGB2', 'RGS2', 'EGR1', 'MDK', 'STMN1', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'MGLL', 'GBP1', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'ATR', 'DLG5', 'EPGN', 'LOX', 'TRIM38', 'TMEM132A', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'ASH1L', 'FGFR3', 'LMO7', 'TMSB4X', 'GIGYF2', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'PAK1', 'BAMBI', 'ZNF703', 'COL1A1', 'SLC39A8', 'STX3', 'TNFSF10', 'C3', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'MAD2L1', 'PXDN', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'ABL2', 'CDC20', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'CDH2', 'CYP1B1', 'FNIP1', 'SOD2', 'DCN', 'TIMP1', 'BAD', 'MDK', 'MUC1', 'PSCA', 'MGLL', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'VNN1', 'PIM3', 'LMO7', 'IRF1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'IL1RN', 'SPHK1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'MME', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'IVNS1ABP', 'BCL6', 'TGM2', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'LOX', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'TLE1', 'CYTH1', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GBP1', 'CDH1', 'TMEM132A', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1']</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['TAS'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA'], ['IDA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP'], ['IMP'], ['HMP'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IMP'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IMP'], ['HMP'], ['TAS'], ['IDA', 'ISS'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'NAS'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA', 'IBA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IMP'], ['IBA', 'NAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'HMP', 'IBA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS'], ['IDA', 'IMP'], ['IEA'], ['IMP', 'IBA', 'TAS'], ['IEA'], ['IMP'], ['IDA'], ['IEA']]</t>
+          <t>[['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IMP', 'IBA', 'TAS'], ['IDA', 'HMP', 'IBA'], ['IMP', 'HMP'], ['IDA', 'ISS'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['TAS'], ['IMP'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'NAS'], ['IEP'], ['HMP'], ['IMP', 'TAS'], ['IDA'], ['IBA'], ['IMP', 'IEA'], ['IBA'], ['HMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IEA'], ['IEA'], ['ISS'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IEA'], ['IBA'], ['IEA'], ['IMP'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -18860,12 +18860,12 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'SESN2', 'CDH2', 'SPTSSA', 'MAL2', 'ACOX3', 'KRT17', 'KRT5', 'SUCO', 'AQP3', 'TUBA1A', 'CCNB2', 'COL4A2', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'TACSTD2', 'KCNIP3', 'PIM1', 'NOTCH1', 'DST', 'SLC46A3', 'SLC38A10', 'SLC5A3', 'GYS1', 'PIEZO1', 'CKB', 'SLC39A8', 'KLK7', 'ADGRG1', 'FLNA', 'CNTNAP2', 'RRBP1', 'TSPAN1', 'SLC44A2', 'TMEM185B', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'TP53I11', 'ABL2', 'ABCD4', 'LSR', 'IL1RN', 'PCDH9', 'CCDC80', 'ITGB6', 'PLCD1', 'MSLN', 'ACKR3', 'LDLR', 'DDX50', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'MRC2', 'KCNK15', 'AKAP11', 'CCND1', 'DKK1', 'SGK1', 'PLAUR', 'VNN1', 'CGN', 'TNFSF10', 'ELOVL4', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'PTPRM', 'TGM2', 'CYP1B1', 'PALLD', 'PLXNB1', 'TMEM50B', 'SPIRE1', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'CA12', 'ST6GAL1', 'CLMN', 'UNC5B', 'LGALS1', 'SYT8', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'TPST1', 'VSTM2L', 'CSTA', 'C3', 'GALNT6', 'DLK2', 'ITGA2', 'CDH1', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'ATG2A', 'SLC26A6', 'SLC3A2', 'DAPP1', 'TPM4', 'MFI2', 'GSN', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'TGFBI', 'OGT', 'SELENBP1', 'ST14', 'SPHK1', 'PTGS2', 'TMEM208', 'S100A8', 'BAMBI', 'CYTH1', 'CXCL16', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'FERMT2', 'MYBBP1A', 'MSMO1', 'RARRES1', 'DSEL', 'SLC26A2', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'CYP4B1', 'EMP1', 'C1orf116', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'TGM1', 'GOLGA8A', 'DDX56', 'STMN1', 'SUN2', 'ITGAV', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'SCD5', 'ECH1', 'VPS51', 'IFITM2', 'S100A6', 'CLIC3', 'PDZK1IP1', 'DLG5', 'EPGN', 'TTC19', 'B4GALT5', 'VIM', 'FTH1', 'CFB', 'CLDN1', 'PNPLA2', 'SLC2A12', 'KRT10', 'LAMA3', 'TMEM132A', 'COL4A1', 'IVL', 'LLGL2', 'PTCD3', 'PAK1', 'GPRC5A', 'SERPINE1', 'MLXIP', 'RAP2B', 'RAB24', 'SH3BGRL3', 'SPRR1B', 'RDH10', 'TBC1D8', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'GIGYF2', 'LPIN1', 'ATP13A4', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'ST6GAL1', 'LAMA3', 'RAP2B', 'SPRR1B', 'ATP1B1', 'TMEM50B', 'SORT1', 'GALNT6', 'CCDC80', 'ADD3', 'PAK1', 'BAMBI', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ITGA2', 'CXCL16', 'GJA5', 'ACADVL', 'MAL2', 'CLDN7', 'ITGA5', 'GRB10', 'CYP4B1', 'GOLGA8B', 'KLK7', 'SEMA3C', 'LZTS2', 'DLK2', 'SGK1', 'SLC2A12', 'ITGB5', 'TP53I11', 'TGFBI', 'FGFR3', 'DST', 'COL4A2', 'FLNA', 'CD24', 'ACSL1', 'SUCO', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'SERPINE1', 'ADGRG1', 'CFB', 'UNC5B', 'PLAU', 'PALLD', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'TUBB', 'ST14', 'SLC5A3', 'GSN', 'EMP1', 'MLXIP', 'CCNB2', 'SPTSSA', 'ANXA3', 'LSR', 'SLC2A1', 'PNPLA2', 'MFI2', 'ECH1', 'TMEM208', 'ITGB6', 'BAD', 'MUC1', 'COMTD1', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'KCNK15', 'DLG5', 'PCDH9', 'STMN1', 'DDX50', 'CA12', 'IFITM2', 'CLIC3', 'VNN1', 'KCNIP3', 'ACOX3', 'LMO7', 'PTPRM', 'VPS51', 'ITGB1BP1', 'MSMO1', 'S100A8', 'TNC', 'SLC46A3', 'IL1RN', 'SPHK1', 'KRT14', 'EPCAM', 'OGT', 'SLC44A2', 'BCL2L11', 'FERMT2', 'TPM4', 'LGALS1', 'EPHB2', 'PLCD1', 'AKAP11', 'MME', 'LRIG3', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'TMEM185B', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'F3', 'PLAUR', 'SELENBP1', 'RRBP1', 'ATP13A4', 'PTGS2', 'C1orf116', 'TACSTD2', 'SLC38A10', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'FDPS', 'TSPAN1', 'ERRFI1', 'CLMN', 'RGS2', 'DMXL2', 'GYS1', 'SERPINB2', 'ATG2A', 'KRT10', 'TGM2', 'IVL', 'CDK1', 'DSEL', 'ITGAV', 'SH3BGRL3', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'PLXNB1', 'CKB', 'TTC19', 'MSLN', 'LIMS1', 'TBC1D8', 'GIGYF2', 'FXYD3', 'CSTA', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'TUBA1A', 'B4GALT5', 'RARRES1', 'ACTB', 'LDLR', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'MRC2', 'C15orf48', 'N4BP2L2', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'SLC26A6', 'RAB24', 'SLC26A2', 'ALDH3A1', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'FAP', 'DDX56', 'CCND1', 'EPPK1', 'SYNE2', 'TMEM132A', 'RDH10', 'EPHA2', 'COPE', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>[['IDA', 'IMP', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['ISS', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'NAS'], ['IDA', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS'], ['TAS'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'NAS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'TAS'], ['IBA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IBA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'RCA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['ISS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['HDA'], ['IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['HDA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'HDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'TAS'], ['HDA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['TAS'], ['HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'TAS'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'ISS', 'IBA', 'TAS'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['HDA', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'NAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -18926,12 +18926,12 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['NMU', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'IVNS1ABP', 'NET1', 'AKR1C2', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ITGA5', 'SEMA3C', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'CDC20', 'PIM3', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'SLC44A2', 'PTGES', 'ABL2', 'IL1RN', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'AKAP11', 'CCND1', 'ISG15', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'ATP1B1', 'BIRC5', 'PTPRM', 'TGM2', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'SORT1', 'PDK4', 'MACC1', 'CHD8', 'LAMB2', 'UNC5B', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'CALML5', 'C3', 'DLK2', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'DAPP1', 'NEURL1B', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CXCL16', 'KRT8', 'FOS', 'ITGB5', 'TNC', 'RHOV', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'PSCA', 'ITGB1BP1', 'IER3', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'MDK', 'STMN1', 'CRABP2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'MGLL', 'GBP1', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'LOX', 'RASSF8', 'TRIM38', 'ID1', 'TMEM132A', 'COL4A1', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'ASH1L', 'FGFR3', 'CENPF', 'TMSB4X', 'GIGYF2', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'RAP2B', 'ATP1B1', 'SORT1', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'CXCL16', 'GJA5', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'CDKN1A', 'MAD2L1', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'ITGB5', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'PTGES', 'DAPP1', 'CDH2', 'CYP1B1', 'FNIP1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'CENPF', 'PSCA', 'MGLL', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'CLIC3', 'VNN1', 'KCNIP3', 'TUBB3', 'PIM3', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'TXNIP', 'TNC', 'IL1RN', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'NEURL1B', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'SYT8', 'FOS', 'TUBA1A', 'LOX', 'ATR', 'TMSB4X', 'WWC1', 'KRT8', 'S100A6', 'TLE1', 'MACC1', 'CYTH1', 'CNTNAP2', 'RHOV', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GBP1', 'CDH1', 'TUFT1', 'CCND1', 'CALML5', 'TMEM132A', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['ISS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'HMP', 'IC', 'IEA'], ['NAS'], ['IMP'], ['HMP'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['HMP', 'IEA'], ['IBA'], ['IDA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IMP'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'NAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'TAS'], ['IBA', 'NAS', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HMP', 'IBA'], ['TAS'], ['IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEP'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA'], ['IMP', 'IGI', 'HMP', 'IC', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'NAS'], ['NAS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA'], ['NAS'], ['IDA'], ['ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP'], ['IBA'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'TAS'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS'], ['IEP', 'IBA'], ['HMP'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IMP', 'IEA'], ['IBA'], ['HMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'TAS', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IBA'], ['IDA', 'NAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -18992,12 +18992,12 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['NMU', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'IVNS1ABP', 'NET1', 'AKR1C2', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ITGA5', 'SEMA3C', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'CDC20', 'PIM3', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'PTGES', 'ABL2', 'IL1RN', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'AKAP11', 'CCND1', 'ISG15', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'ATP1B1', 'BIRC5', 'PTPRM', 'TGM2', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'SORT1', 'PDK4', 'MACC1', 'CHD8', 'LAMB2', 'UNC5B', 'LGALS1', 'SYT8', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'CALML5', 'C3', 'DLK2', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'DAPP1', 'NEURL1B', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CXCL16', 'KRT8', 'FOS', 'ITGB5', 'TNC', 'RHOV', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'PSCA', 'ITGB1BP1', 'IER3', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'MDK', 'STMN1', 'CRABP2', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'MGLL', 'GBP1', 'WWC1', 'EPHA2', 'MMP9', 'IGFBP3', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'LOX', 'RASSF8', 'TRIM38', 'ID1', 'TMEM132A', 'COL4A1', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'ASH1L', 'FGFR3', 'LMO7', 'CENPF', 'TMSB4X', 'GIGYF2', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'RAP2B', 'ATP1B1', 'SORT1', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'CXCL16', 'GJA5', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'CDKN1A', 'MAD2L1', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'ITGB5', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'ABL2', 'CDC20', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'PTGES', 'DAPP1', 'CDH2', 'CYP1B1', 'FNIP1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'CENPF', 'PSCA', 'MGLL', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'CLIC3', 'VNN1', 'KCNIP3', 'TUBB3', 'PIM3', 'LMO7', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'TXNIP', 'TNC', 'IL1RN', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'NEURL1B', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'SYT8', 'FOS', 'TUBA1A', 'LOX', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'KRT8', 'S100A6', 'TLE1', 'MACC1', 'CYTH1', 'RHOV', 'HMGB2', 'AKR1C2', 'EDN1', 'FN1', 'GBP1', 'CDH1', 'TUFT1', 'CCND1', 'CALML5', 'TMEM132A', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IMP', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['ISS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'HMP', 'IC', 'IEA'], ['IMP'], ['HMP'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IEP'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS'], ['ISS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['HMP', 'IEA'], ['IBA'], ['IDA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IMP'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'NAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'TAS'], ['IBA', 'NAS', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IBA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'HMP', 'IBA'], ['TAS'], ['IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IEA'], ['NAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEP'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'IEP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA'], ['IMP', 'IGI', 'HMP', 'IC', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'TAS', 'NAS'], ['NAS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IDA'], ['NAS'], ['IDA'], ['ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP'], ['IBA'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'TAS'], ['IDA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS'], ['IEP', 'IBA'], ['HMP'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IMP', 'IEA'], ['IBA'], ['HMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'TAS', 'NAS'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IBA'], ['IDA', 'NAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA'], ['IDA'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -19058,12 +19058,12 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'SESN2', 'FBXO32', 'AKR1C2', 'ANXA3', 'PIM1', 'NOTCH1', 'IGFBP7', 'IL1RN', 'EDN1', 'GRB10', 'CCND1', 'SGK1', 'TNFSF10', 'CYP1B1', 'ERRFI1', 'SORT1', 'PDK4', 'CD24', 'ITGA2', 'TXNIP', 'NR4A1', 'IL1B', 'BCL2L11', 'ACSL1', 'OGT', 'TIMP1', 'LBH', 'AKR1C3', 'PTGS2', 'FOS', 'TNC', 'CDKN1A', 'CITED2', 'HMGB2', 'EGR1', 'COL1A1', 'ZFP36', 'LOX', 'CLDN1', 'PAK1', 'LPIN1', 'MME']</t>
+          <t>['SORT1', 'PAK1', 'PDK4', 'COL1A1', 'TNFSF10', 'NR4A1', 'ZFP36', 'ITGA2', 'IL1B', 'GRB10', 'CDKN1A', 'SGK1', 'CD24', 'ACSL1', 'FBXO32', 'CLDN1', 'LPIN1', 'CYP1B1', 'ANXA3', 'SLC2A1', 'TIMP1', 'TXNIP', 'TNC', 'IL1RN', 'OGT', 'BCL2L11', 'IGFBP7', 'MME', 'SESN2', 'NOTCH1', 'PTGS2', 'ERRFI1', 'AKR1C3', 'LBH', 'CITED2', 'EGR1', 'FOS', 'LOX', 'HMGB2', 'AKR1C2', 'EDN1', 'CCND1', 'PIM1']</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IMP'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IEP'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IEA']]</t>
+          <t>[['IMP', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEP'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IDA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IDA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['KRT6B', 'KRT5', 'KRT15', 'TUBA1A', 'TUBA1C', 'TUBB3', 'TUBA4A', 'TUBB4B', 'KRT16', 'KRT14', 'TUBA1B', 'TUBB', 'ACTB', 'ADD3', 'VIM']</t>
+          <t>['ADD3', 'TUBA4A', 'TUBB', 'KRT6B', 'TUBA1C', 'TUBB3', 'KRT15', 'KRT14', 'KRT5', 'TUBA1B', 'TUBB4B', 'TUBA1A', 'ACTB', 'VIM', 'KRT16']</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>[['TAS'], ['TAS'], ['TAS'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['NAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['EXP', 'IDA', 'IMP', 'IBA', 'TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA']]</t>
+          <t>[['TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['TAS'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['EXP', 'IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -19190,12 +19190,12 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['PLAU', 'ITGA5', 'DST', 'FLNA', 'EPPK1', 'ITGB6', 'EDN1', 'PLAUR', 'FN1', 'FAP', 'RREB1', 'ITGA2', 'EVPL', 'EPHB2', 'CSRP1', 'TIMP1', 'CYR61', 'ITGB5', 'CDKN1A', 'FERMT2', 'SERPINB2', 'SAA1', 'MYL9', 'ITGAV', 'ACTB', 'F3', 'CLDN1', 'PAK1', 'SERPINE1', 'RAP2B']</t>
+          <t>['RAP2B', 'PAK1', 'ITGA2', 'ITGA5', 'CYR61', 'CDKN1A', 'ITGB5', 'DST', 'FLNA', 'SERPINE1', 'PLAU', 'CLDN1', 'EVPL', 'RREB1', 'CSRP1', 'SAA1', 'TIMP1', 'ITGB6', 'FERMT2', 'EPHB2', 'F3', 'PLAUR', 'MYL9', 'SERPINB2', 'ITGAV', 'ACTB', 'EDN1', 'FN1', 'FAP', 'EPPK1']</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IEP', 'NAS'], ['IBA'], ['IDA', 'HMP', 'NAS'], ['IMP', 'IBA'], ['IEA'], ['TAS'], ['TAS', 'NAS'], ['IEA'], ['IC'], ['IMP'], ['TAS'], ['IBA'], ['IMP'], ['HMP'], ['IEA'], ['IDA'], ['NAS'], ['IEA'], ['IMP'], ['TAS'], ['NAS'], ['HMP', 'IEA'], ['NAS'], ['HMP'], ['IDA', 'IC', 'IEA'], ['IMP'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IDA']]</t>
+          <t>[['IDA'], ['IMP'], ['TAS'], ['IEP', 'NAS'], ['IDA'], ['IEA'], ['NAS'], ['IBA'], ['IDA', 'HMP', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'NAS', 'IC'], ['IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IMP'], ['IBA'], ['IMP'], ['HMP'], ['NAS'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IDA', 'IC', 'IEA'], ['TAS', 'NAS'], ['HMP', 'IEA'], ['TAS'], ['NAS'], ['HMP'], ['TAS'], ['IEA'], ['IC'], ['IMP', 'IBA']]</t>
         </is>
       </c>
     </row>
@@ -19256,12 +19256,12 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'SESN2', 'CCL20', 'NET1', 'FBXO32', 'AKR1C2', 'AQP3', 'TUBA1A', 'PXDN', 'PIM1', 'NOTCH1', 'SLC46A3', 'PIM3', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'FLNA', 'PTGES', 'ABL2', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'GRB10', 'SGK1', 'MDM4', 'MT2A', 'BIRC5', 'TGM2', 'CYP1B1', 'ERRFI1', 'NFAT5', 'PDK4', 'CDK1', 'ITGA2', 'CDH1', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'BCL2L11', 'ACSL1', 'BAD', 'OGT', 'TIMP1', 'LBH', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'CXCL16', 'ALDH3A1', 'FOS', 'TNC', 'CITED2', 'SOD2', 'CCL28', 'SAA1', 'HMGB2', 'EGR1', 'MDK', 'COL1A1', 'LGALS3', 'ACTB', 'EPHA2', 'TFAP2A', 'MMP9', 'ZFP36', 'LOX', 'VIM', 'CLDN1', 'COL4A1', 'PAK1', 'SERPINE1', 'TMSB4X', 'LPIN1']</t>
+          <t>['PAK1', 'PDK4', 'ZNF703', 'COL1A1', 'SLC39A8', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'CXCL16', 'IL1B', 'GRB10', 'PXDN', 'STK25', 'SGK1', 'FLNA', 'ACSL1', 'ABL2', 'SERPINE1', 'FBXO32', 'CLDN1', 'PTGES', 'LPIN1', 'CYP1B1', 'SAA1', 'SLC2A1', 'SOD2', 'TIMP1', 'BAD', 'MDK', 'PIM3', 'MMP9', 'S100A8', 'CCL20', 'TNC', 'SLC46A3', 'SPHK1', 'OGT', 'BCL2L11', 'IGFBP7', 'EPHB2', 'SESN2', 'AQP3', 'BIRC5', 'NFAT5', 'NOTCH1', 'CCL28', 'PTGS2', 'ACKR3', 'ERRFI1', 'AKR1C3', 'SOX4', 'TGM2', 'CDK1', 'LBH', 'CITED2', 'LGALS3', 'EGR1', 'FOS', 'TUBA1A', 'LOX', 'MT2A', 'ACTB', 'LDLR', 'TMSB4X', 'VIM', 'HMGB2', 'SLC26A6', 'AKR1C2', 'ALDH3A1', 'EDN1', 'CDH1', 'TFAP2A', 'EPHA2', 'NET1', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IGI'], ['IMP'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['IMP'], ['IDA'], ['IBA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEP'], ['IEP', 'IBA'], ['IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEP', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEP'], ['ISS'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA'], ['IBA', 'IEA']]</t>
+          <t>[['IDA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IGI'], ['IEA'], ['IMP'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'NAS'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['TAS'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEP', 'IEA'], ['IBA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IMP'], ['IEA'], ['IDA'], ['IMP'], ['IDA', 'IEP'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -19322,12 +19322,12 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'CDH2', 'COL4A2', 'PXDN', 'DST', 'MFAP5', 'IGFBP7', 'CCDC80', 'MMP7', 'LAD1', 'AMTN', 'TGM2', 'SLPI', 'FN1', 'LAMB2', 'LGALS1', 'DCN', 'TGFBI', 'TIMP1', 'CYR61', 'S100A8', 'LRIG3', 'TNC', 'MDK', 'COL1A1', 'LGALS3', 'F3', 'MMP9', 'S100A6', 'CLIC3', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1']</t>
+          <t>['LAMA3', 'AMTN', 'CCDC80', 'COL1A1', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'SERPINE1', 'CDH2', 'DCN', 'TIMP1', 'LAD1', 'MDK', 'LAMB3', 'CLIC3', 'MMP9', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'LRIG3', 'ANGPTL4', 'F3', 'LAMB2', 'TGM2', 'LGALS3', 'LOX', 'S100A6', 'FN1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>[['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IBA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS']]</t>
+          <t>[['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA', 'ISS'], ['IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IBA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -19388,12 +19388,12 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'CDH2', 'COL4A2', 'PXDN', 'DST', 'MFAP5', 'IGFBP7', 'CCDC80', 'MMP7', 'LAD1', 'AMTN', 'TGM2', 'SLPI', 'FN1', 'LAMB2', 'LGALS1', 'DCN', 'TGFBI', 'TIMP1', 'CYR61', 'S100A8', 'LRIG3', 'TNC', 'MDK', 'COL1A1', 'LGALS3', 'F3', 'MMP9', 'S100A6', 'CLIC3', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1']</t>
+          <t>['LAMA3', 'AMTN', 'CCDC80', 'COL1A1', 'SLPI', 'CYR61', 'MMP7', 'PXDN', 'TGFBI', 'DST', 'COL4A2', 'LAMC2', 'SERPINE1', 'CDH2', 'DCN', 'TIMP1', 'LAD1', 'MDK', 'LAMB3', 'CLIC3', 'MMP9', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'LRIG3', 'ANGPTL4', 'F3', 'LAMB2', 'TGM2', 'LGALS3', 'LOX', 'S100A6', 'FN1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>[['HDA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['HDA', 'IEA'], ['HDA'], ['IBA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['HDA', 'IEA'], ['HDA'], ['IDA'], ['IBA', 'IEA'], ['HDA', 'TAS', 'IEA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS']]</t>
+          <t>[['HDA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA', 'IEA'], ['IEA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA', 'ISS'], ['IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA', 'IEA'], ['IDA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IBA'], ['IDA'], ['IDA', 'IPI', 'HDA', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IBA', 'IC', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -19454,12 +19454,12 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'KRT6B', 'ELF3', 'SPTSSA', 'MAL2', 'ACOX3', 'IVNS1ABP', 'KRT17', 'NET1', 'FBXO32', 'KRT5', 'KRT15', 'SUCO', 'AQP3', 'TUBA1A', 'PTTG1', 'CCNB2', 'COL4A2', 'PXDN', 'CPSF1', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'TUBA1C', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'KANK4', 'CDC20', 'SLC46A3', 'SLC38A10', 'PIEZO1', 'CTSV', 'CKB', 'IGFBP7', 'ECHDC2', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'RRBP1', 'TSPAN1', 'SLC44A2', 'TUBA4A', 'TSC22D3', 'EPPK1', 'PTGES', 'GOLGA8B', 'FDPS', 'ABL2', 'ABCD4', 'LSR', 'IL1RN', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'MSLN', 'ACKR3', 'EDN1', 'LDLR', 'DDX50', 'STX3', 'SYNE2', 'TIA1', 'IDI1', 'SQSTM1', 'ZNF117', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'NEAT1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'VNN1', 'PSMB10', 'CGN', 'TNFSF10', 'TUBB4B', 'LAD1', 'ELOVL4', 'N4BP2L2', 'ALOX15B', 'MT2A', 'ATP1B1', 'BIRC5', 'AMTN', 'ADIRF', 'TGM2', 'CYP1B1', 'IRX5', 'PALLD', 'CAMK2N1', 'TMEM50B', 'SPIRE1', 'KLK10', 'ERRFI1', 'MUC1', 'FTL', 'COPE', 'SLPI', 'FN1', 'NFAT5', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'TP53INP2', 'LGALS1', 'SYT8', 'BIRC3', 'SRSF11', 'CDK1', 'CD24', 'CCNB1', 'TPST1', 'SUGT1', 'CALML5', 'CSTA', 'ALDH1A3', 'C3', 'GALNT6', 'RREB1', 'IGF2BP3', 'KLK5', 'CDH1', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'SLC3A2', 'PDE4DIP', 'TPM4', 'NEURL1B', 'MFI2', 'GSN', 'ANKMY2', 'CSRP1', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'SELENBP1', 'TIMP1', 'CREG1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'FAM193B', 'ZNF266', 'PTGS2', 'TLE1', 'TMEM208', 'S100A8', 'PDP1', 'CYTH1', 'MAD2L1', 'SNHG1', 'USP31', 'ALDH3A1', 'ACADVL', 'KRT8', 'LRIG3', 'FOS', 'ITGB5', 'KRT14', 'TNC', 'RHOV', 'COMTD1', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'MSMO1', 'RARRES1', 'DSEL', 'CCL28', 'SLC26A2', 'PSCA', 'ITGB1BP1', 'IER3', 'KRT81', 'CYP4B1', 'SAA1', 'HMGB2', 'C1orf116', 'CEP170B', 'TUBA1B', 'EPCAM', 'RGS2', 'TUBB', 'C15orf48', 'EGR1', 'TGM1', 'GOLGA8A', 'DDX56', 'STMN1', 'MYL9', 'CRABP2', 'SUN2', 'NFYB', 'ANKRD11', 'MED19', 'NOL7', 'ITGAV', 'SAA2', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'MGLL', 'GLUL', 'DMXL2', 'GBP1', 'TRAK1', 'WWC1', 'TFAP2A', 'MMP9', 'SCD5', 'ECH1', 'IGFBP3', 'VPS51', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'NDOR1', 'PDZK1IP1', 'DLG5', 'EPGN', 'DHRS1', 'ZFP36', 'TTC19', 'B4GALT5', 'KIFC2', 'VIM', 'FTH1', 'CFB', 'MTHFD2', 'PNPLA2', 'KRT10', 'UPP1', 'TRIM38', 'NOM1', 'ID1', 'SAT2', 'LAMA3', 'TMEM132A', 'COL4A1', 'IVL', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'PDLIM7', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RAB24', 'SH3BGRL3', 'RDH10', 'EHF', 'ASH1L', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'FXYD3', 'TMSB4X', 'GIGYF2', 'LPIN1', 'ATP13A4', 'MME', 'MAU2']</t>
+          <t>['PDLIM7', 'IDI1', 'GPRC5A', 'CCNB1', 'ST6GAL1', 'LAMA3', 'AMTN', 'ANKRD11', 'RAP2B', 'ATP1B1', 'TMEM50B', 'SORT1', 'MXD3', 'GALNT6', 'ADD3', 'PAK1', 'ECHDC2', 'PDK4', 'CRABP2', 'ZNF703', 'COL1A1', 'KIFC2', 'PSMB10', 'SLC39A8', 'USP31', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ACADVL', 'MAL2', 'IL1B', 'ITGA5', 'CYP4B1', 'GOLGA8B', 'SLPI', 'SRSF11', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'MAU2', 'STK25', 'ANKMY2', 'LZTS2', 'SGK1', 'ITGB5', 'TGFBI', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'CAMK2N1', 'ACSL1', 'EHF', 'SUCO', 'NEAT1', 'GLUL', 'SPIRE1', 'SCD5', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'IRX3', 'ADGRG1', 'SQSTM1', 'CFB', 'TUBA4A', 'PLAU', 'PALLD', 'TGM1', 'PTGES', 'CEP170B', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'NDOR1', 'SAT2', 'GSN', 'NOM1', 'MLXIP', 'CCNB2', 'SPTSSA', 'CSRP1', 'ANXA3', 'LSR', 'SAA1', 'KRT6B', 'SLC2A1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'ECH1', 'DCN', 'TIMP1', 'TMEM208', 'ITGB6', 'LAD1', 'BAD', 'MUC1', 'COMTD1', 'PWWP2B', 'GOLGA8A', 'CENPF', 'PSCA', 'TUBA1C', 'MGLL', 'NFYB', 'DLG5', 'STMN1', 'DDX50', 'BIRC3', 'ISG15', 'IFITM2', 'UPP1', 'SAA2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'ACOX3', 'CPSF1', 'ZNF266', 'LMO7', 'IRF1', 'VPS51', 'KRT15', 'IGFBP3', 'ITGB1BP1', 'MTHFD2', 'MMP9', 'MSMO1', 'S100A8', 'MAP2', 'TNC', 'SLC46A3', 'IL1RN', 'NSUN5', 'SPHK1', 'KRT14', 'EPCAM', 'DHRS1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'TPM4', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'PDP1', 'PLCD1', 'AKAP11', 'MME', 'S100A11', 'LRIG3', 'ZNF117', 'CDKN1C', 'SESN2', 'CGN', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'ELOVL4', 'FTL', 'PLAUR', 'SELENBP1', 'RRBP1', 'CCL28', 'THOC2', 'NEURL1B', 'ATP13A4', 'PTGS2', 'HMGN5', 'C1orf116', 'TACSTD2', 'SLC38A10', 'PDZK1IP1', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'FDPS', 'TSPAN1', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'DMXL2', 'MAGOHB', 'KIF23', 'MYL9', 'KRT81', 'ATG2A', 'TUBA1B', 'KRT10', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'SUGT1', 'IVL', 'IRX5', 'CDK1', 'LBH', 'DSEL', 'ITGAV', 'SH3BGRL3', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'TPST1', 'CKB', 'TTC19', 'TUBB4B', 'MSLN', 'KLF6', 'KLK10', 'HES2', 'GIGYF2', 'FXYD3', 'CSTA', 'EGR1', 'LLGL2', 'SYT8', 'SLC3A2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'TUBA1A', 'B4GALT5', 'RARRES1', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'ABCD4', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'C15orf48', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'RAB24', 'ADIRF', 'SLC26A2', 'ALDH3A1', 'SNHG1', 'EDN1', 'TP53INP2', 'PIEZO1', 'FN1', 'NOL7', 'GBP1', 'CDH1', 'GPAM', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'FAM193B', 'SERPINA3', 'NET1', 'COPE', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>[['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['HTP', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'NAS', 'IEA'], ['HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['HDA', 'TAS'], ['HTP', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IC', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['TAS'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['ISS', 'IBA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'HDA', 'TAS'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IDA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'TAS'], ['HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['HTP'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['TAS'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'ISS', 'TAS', 'IEA'], ['HDA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['HDA'], ['TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA'], ['HDA'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['HDA'], ['IDA', 'HDA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA'], ['HDA', 'TAS'], ['IDA', 'IBA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'TAS'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA']]</t>
+          <t>[['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'HDA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['HTP', 'IBA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['HDA', 'TAS'], ['IDA', 'ISS', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'ISS', 'TAS', 'IEA'], ['HDA', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IBA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IC', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISA', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA'], ['HDA'], ['IDA', 'HDA', 'TAS'], ['HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'HDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['HTP', 'HDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA', 'HDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['HTP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['TAS'], ['HDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'HTP', 'TAS'], ['IDA', 'ISA', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HTP', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA', 'TAS'], ['IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['TAS'], ['IMP', 'HDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['HDA', 'TAS'], ['IDA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISA', 'TAS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'NAS', 'IEA'], ['HDA'], ['HDA', 'IBA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'HDA'], ['IBA'], ['IDA', 'ISA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['HDA', 'TAS'], ['IDA', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IC', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'HDA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['TAS'], ['HDA', 'TAS'], ['IDA', 'HDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['HDA', 'ISS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISA', 'TAS', 'IEA'], ['IBA'], ['ISA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'ISA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HTP', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IMP', 'ISA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['HDA'], ['ISS', 'IBA'], ['IDA', 'IMP', 'HDA', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IPI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HTP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IPI', 'HDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HTP', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'NAS', 'IEA'], ['TAS'], ['IDA', 'HDA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IBA', 'IEA'], ['HDA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'HDA', 'IEA'], ['HTP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISA', 'IBA', 'TAS', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IPI', 'IBA', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS']]</t>
         </is>
       </c>
     </row>
@@ -19520,12 +19520,12 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>['BCL6', 'REL', 'CCL20', 'ELF3', 'ANXA3', 'PIM1', 'NOTCH1', 'SLC39A8', 'KLK7', 'C1R', 'PTGES', 'IL1RN', 'ITGB6', 'EDN1', 'LDLR', 'SQSTM1', 'ISG15', 'MMP7', 'VNN1', 'TUBB4B', 'ATP1B1', 'CAMK2N1', 'SPIRE1', 'SLPI', 'FN1', 'GPAM', 'KRT16', 'LGALS1', 'BIRC3', 'C3', 'KLK5', 'TXNIP', 'EVPL', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'GSN', 'OGT', 'TIMP1', 'SPHK1', 'PTGS2', 'S100A8', 'CXCL16', 'FOS', 'TNC', 'IER3', 'SAA1', 'HMGB2', 'TUBB', 'MDK', 'DDX56', 'SAA2', 'LGALS3', 'F3', 'MGLL', 'GBP1', 'EPHA2', 'MMP9', 'IFITM2', 'ZFP36', 'VIM', 'CFB', 'CLDN1', 'TRIM38', 'TRIML2', 'SERPINA3', 'IRF1', 'PAK1', 'SERPINE1', 'ASH1L', 'TMSB4X', 'GIGYF2']</t>
+          <t>['ATP1B1', 'PAK1', 'SLC39A8', 'C3', 'NR4A1', 'ZFP36', 'TRIML2', 'CXCL16', 'IL1B', 'SLPI', 'KLK7', 'MMP7', 'TRIM38', 'CAMK2N1', 'SPIRE1', 'SERPINE1', 'SQSTM1', 'CFB', 'CLDN1', 'PTGES', 'EVPL', 'TUBB', 'GSN', 'ANXA3', 'SAA1', 'TIMP1', 'ITGB6', 'MDK', 'MGLL', 'BIRC3', 'ISG15', 'IFITM2', 'SAA2', 'VNN1', 'IRF1', 'MMP9', 'S100A8', 'CCL20', 'C1R', 'TXNIP', 'TNC', 'IL1RN', 'SPHK1', 'OGT', 'REL', 'LGALS1', 'EPHB2', 'NOTCH1', 'F3', 'PTGS2', 'ELF3', 'KLK5', 'BCL6', 'IER3', 'LGALS3', 'TUBB4B', 'GIGYF2', 'FOS', 'LDLR', 'TMSB4X', 'VIM', 'KRT16', 'HMGB2', 'SLC26A6', 'EDN1', 'FN1', 'GBP1', 'GPAM', 'DDX56', 'EPHA2', 'SERPINA3', 'ASH1L', 'PIM1']</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IEP', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IMP', 'IBA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['ISO', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['NAS'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IC'], ['ISS', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IMP', 'IGI'], ['IEA'], ['IMP'], ['IDA']]</t>
+          <t>[['IEA'], ['TAS'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IGI'], ['IDA'], ['TAS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEA'], ['TAS'], ['ISO', 'IEA'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IC'], ['ISS', 'NAS', 'IEA'], ['IEP', 'IEA'], ['IMP', 'IBA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['IDA'], ['TAS'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['NAS', 'IEA'], ['IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -19586,12 +19586,12 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>['NMU', 'SESN2', 'CDH2', 'REL', 'NET1', 'AKR1C2', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'CTSV', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'GADD45B', 'ACKR3', 'EDN1', 'STX3', 'GRB10', 'LIMS1', 'SQSTM1', 'DKK1', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'PLXNB1', 'FN1', 'NFAT5', 'LAMB2', 'UNC5B', 'LGALS1', 'BIRC3', 'CD24', 'C3', 'KLK5', 'EPHB2', 'IL1B', 'DCN', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'BAMBI', 'MAD2L1', 'CITED2', 'FERMT2', 'ITGB1BP1', 'ITGAV', 'COL1A1', 'F3', 'WWC1', 'MMP9', 'IGFBP3', 'ATR', 'DLG5', 'EPGN', 'TRIM38', 'TMEM132A', 'PAK1', 'FGFR3', 'MME']</t>
+          <t>['PAK1', 'BAMBI', 'COL1A1', 'STX3', 'TNFSF10', 'C3', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'MAD2L1', 'STK25', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'ADGRG1', 'SQSTM1', 'UNC5B', 'CDH2', 'CYP1B1', 'FNIP1', 'DCN', 'BAD', 'NMU', 'DLG5', 'BIRC3', 'VNN1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'SPHK1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'MME', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'AKR1C3', 'SOX4', 'LAMB2', 'TGM2', 'ITGAV', 'CITED2', 'ALOX15B', 'PLXNB1', 'LIMS1', 'ATR', 'WWC1', 'AKR1C2', 'EDN1', 'FN1', 'TMEM132A', 'NET1', 'PIM1']</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEP'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP'], ['IMP'], ['HMP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'TAS'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['NAS'], ['IMP'], ['HMP'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['IDA'], ['IMP', 'TAS'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IGI'], ['IDA', 'IMP'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HMP', 'IBA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IBA', 'TAS'], ['IEA']]</t>
+          <t>[['IDA', 'IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['TAS'], ['IDA'], ['IGI'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'IBA', 'TAS'], ['IDA', 'HMP', 'IBA'], ['IMP', 'HMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IDA'], ['IEP'], ['HMP'], ['IMP', 'TAS'], ['IDA'], ['IMP'], ['IBA'], ['HMP'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IMP'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>['NMU', 'SLC2A1', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'IVNS1ABP', 'NET1', 'FBXO32', 'AKR1C2', 'AQP3', 'TUBA1A', 'PTTG1', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'ITGA5', 'SEMA3C', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'CDC20', 'SLC46A3', 'PIM3', 'PIEZO1', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'PTGES', 'ABL2', 'IL1RN', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'GRB10', 'LIMS1', 'SQSTM1', 'AKAP11', 'CCND1', 'ISG15', 'DKK1', 'SGK1', 'MDM4', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'MT2A', 'ATP1B1', 'BIRC5', 'PTPRM', 'TGM2', 'CYP1B1', 'PLXNB1', 'SPIRE1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'SORT1', 'PDK4', 'MACC1', 'CHD8', 'LAMB2', 'UNC5B', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'CD24', 'CCNB1', 'CALML5', 'C3', 'DLK2', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'NR4A1', 'EPHB2', 'IL1B', 'DCN', 'SLC26A6', 'DAPP1', 'NEURL1B', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'OGT', 'TIMP1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CXCL16', 'ALDH3A1', 'KRT8', 'FOS', 'ITGB5', 'TNC', 'RHOV', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'MYBBP1A', 'CCL28', 'PSCA', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'EPCAM', 'RGS2', 'EGR1', 'MDK', 'STMN1', 'CRABP2', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'F3', 'MGLL', 'GLUL', 'GBP1', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'LOX', 'VIM', 'RASSF8', 'CLDN1', 'UPP1', 'TRIM38', 'ID1', 'TMEM132A', 'COL4A1', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'RAP2B', 'ASH1L', 'FGFR3', 'CENPF', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'RAP2B', 'ATP1B1', 'SORT1', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'CXCL16', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'CDKN1A', 'MAD2L1', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'ITGB5', 'PTTG1', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'FBXO32', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'CLDN1', 'PTGES', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'FNIP1', 'SAA1', 'SLC2A1', 'SOD2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'CENPF', 'PSCA', 'MGLL', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'UPP1', 'CLIC3', 'VNN1', 'KCNIP3', 'TUBB3', 'PIM3', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'TXNIP', 'TNC', 'SLC46A3', 'IL1RN', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'CDKN1C', 'SESN2', 'AQP3', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'NEURL1B', 'PTGS2', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'LAMB2', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'CDK1', 'LBH', 'ITGAV', 'CITED2', 'IER3', 'ALOX15B', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'DNAJC15', 'FOS', 'TUBA1A', 'LOX', 'MT2A', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'WWC1', 'KRT8', 'S100A6', 'TLE1', 'MACC1', 'VIM', 'CYTH1', 'RHOV', 'HMGB2', 'SLC26A6', 'AKR1C2', 'ALDH3A1', 'EDN1', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'TUFT1', 'CCND1', 'TFAP2A', 'CALML5', 'TMEM132A', 'EPHA2', 'NET1', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IEP', 'IBA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['IBA'], ['IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IGI', 'HMP', 'IEA'], ['IMP'], ['HMP'], ['NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IGI', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IEP'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'TAS', 'NAS'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEP', 'IBA'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['NAS', 'IEA'], ['IMP', 'IEA'], ['HMP', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IMP'], ['TAS'], ['IDA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA'], ['IDA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IDA', 'IEP'], ['IEP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['ISO', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IEP', 'ISS', 'IEA'], ['IMP'], ['ISS', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IMP', 'IBA'], ['ISS'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA', 'IMP', 'TAS'], ['IBA', 'NAS', 'IEA'], ['IBA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'HMP', 'IBA'], ['TAS'], ['IEA'], ['IEA'], ['IBA'], ['IEP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IMP'], ['ISS', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IMP'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEP'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IEA'], ['IMP', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA'], ['IMP', 'IGI', 'HMP', 'IEA'], ['IDA', 'ISS', 'NAS', 'IC'], ['IEA'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'TAS'], ['NAS'], ['IDA', 'IMP'], ['IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'NAS'], ['IMP', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['NAS', 'IEA'], ['TAS'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'NAS'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['NAS'], ['IDA'], ['ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'NAS'], ['TAS'], ['IDA', 'IMP'], ['IBA'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IDA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'TAS'], ['IDA', 'IBA', 'NAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'IEA'], ['ISO', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'IEA'], ['IMP'], ['IDA', 'TAS', 'NAS', 'IEA'], ['IEP', 'IBA'], ['HMP'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['HMP', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA'], ['TAS'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA'], ['NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEP'], ['IMP', 'ISS', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'NAS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IBA'], ['IEA'], ['IDA', 'IMP', 'NAS', 'IEA'], ['IEA'], ['IEA'], ['IEP', 'IBA'], ['IDA', 'IMP', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['TAS'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IEP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['IDA'], ['IMP'], ['IDA'], ['IBA'], ['IDA', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -19718,12 +19718,12 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>['SESN2', 'ACOX3', 'AKR1C2', 'ECHDC2', 'PTGES', 'ABCD4', 'EDN1', 'VNN1', 'ELOVL4', 'ALOX15B', 'CYP1B1', 'ERRFI1', 'GPAM', 'PDK4', 'ALDH1A3', 'C3', 'IL1B', 'ACSL1', 'OGT', 'AKR1C3', 'PTGS2', 'ACADVL', 'MSMO1', 'IER3', 'CYP4B1', 'CRABP2', 'MGLL', 'SCD5', 'ECH1', 'RDH10', 'LPIN1']</t>
+          <t>['ECHDC2', 'PDK4', 'CRABP2', 'C3', 'ACADVL', 'IL1B', 'CYP4B1', 'ACSL1', 'SCD5', 'PTGES', 'LPIN1', 'CYP1B1', 'ECH1', 'MGLL', 'VNN1', 'ACOX3', 'MSMO1', 'OGT', 'SESN2', 'ELOVL4', 'PTGS2', 'ERRFI1', 'AKR1C3', 'IER3', 'ALOX15B', 'ALDH1A3', 'ABCD4', 'AKR1C2', 'EDN1', 'GPAM', 'RDH10']</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IGI'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IGI'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['IDA'], ['IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -19784,12 +19784,12 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>['BCL6', 'KRT17', 'AQP3', 'COL4A2', 'ANXA3', 'ITGA5', 'PIM1', 'NOTCH1', 'STK25', 'SOX4', 'EDN1', 'LDLR', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'VNN1', 'ALOX15B', 'AMTN', 'PTPRM', 'TGM2', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'FN1', 'LGALS1', 'CDK1', 'CD24', 'C3', 'CDH1', 'EPHB2', 'IL1B', 'DCN', 'BAD', 'CYR61', 'SPHK1', 'FOS', 'CITED2', 'NSUN5', 'HMGB2', 'RGS2', 'MDK', 'CRABP2', 'ACTB', 'F3', 'GLUL', 'TRAK1', 'EPHA2', 'TFAP2A', 'MMP9', 'HES2', 'CLIC3', 'DLG5', 'ZFP36', 'B4GALT5', 'LOX', 'LAMA3', 'ANGPTL4', 'IRF1', 'SERPINE1', 'LPIN1', 'MME']</t>
+          <t>['LAMA3', 'AMTN', 'CRABP2', 'C3', 'ZFP36', 'IL1B', 'ITGA5', 'CYR61', 'STK25', 'COL4A2', 'CD24', 'GLUL', 'SERPINE1', 'LPIN1', 'CYP1B1', 'ANXA3', 'DCN', 'BAD', 'MDK', 'DLG5', 'ISG15', 'CLIC3', 'VNN1', 'IRF1', 'PTPRM', 'MMP9', 'MAP2', 'NSUN5', 'SPHK1', 'LGALS1', 'EPHB2', 'MME', 'ANGPTL4', 'AQP3', 'NOTCH1', 'F3', 'DKK1', 'ERRFI1', 'SOX4', 'RGS2', 'BCL6', 'TGM2', 'CDK1', 'CITED2', 'ALOX15B', 'PLXNB1', 'HES2', 'FOS', 'B4GALT5', 'LOX', 'ACTB', 'LDLR', 'TRAK1', 'KRT17', 'HMGB2', 'EDN1', 'FN1', 'CDH1', 'CCND1', 'TFAP2A', 'EPHA2', 'PIM1']</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>[['IMP', 'IEA'], ['IEA'], ['TAS'], ['IDA'], ['IDA'], ['IMP', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['TAS', 'IEA'], ['IMP', 'NAS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA'], ['NAS'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA'], ['IEA'], ['IGI']]</t>
+          <t>[['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IGI', 'ISS', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'NAS'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['IGI'], ['TAS'], ['TAS'], ['ISS', 'IEA'], ['IDA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IEA'], ['NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IGI'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -19850,12 +19850,12 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>['NMU', 'SLC2A1', 'BCL6', 'SESN2', 'CDH2', 'ACOX3', 'AQP3', 'TUBA1A', 'CCNB2', 'NOTCH1', 'PIM3', 'SLC39A8', 'SOX4', 'ADGRG1', 'FLNA', 'TSC22D3', 'PTGES', 'LSR', 'ITGB6', 'PLCD1', 'EDN1', 'LDLR', 'GRB10', 'SQSTM1', 'AKAP11', 'PWWP2B', 'ISG15', 'MT2A', 'ATP1B1', 'BIRC5', 'TGM2', 'ERRFI1', 'FTL', 'GPAM', 'CA12', 'PDK4', 'TP53INP2', 'CD24', 'IL1B', 'SLC26A6', 'BCL2L11', 'ACSL1', 'BAD', 'IRX3', 'OGT', 'CREG1', 'PTGS2', 'ACADVL', 'CITED2', 'SOD2', 'HMGB2', 'EGR1', 'COL1A1', 'ACTB', 'DMXL2', 'ZFP36', 'LOX', 'FTH1', 'CLDN1', 'PNPLA2', 'ID1', 'ANGPTL4', 'SERPINA3', 'GIGYF2', 'LPIN1', 'ATP13A4']</t>
+          <t>['ATP1B1', 'PDK4', 'COL1A1', 'SLC39A8', 'ZFP36', 'ACADVL', 'IL1B', 'GRB10', 'FLNA', 'CD24', 'ACSL1', 'IRX3', 'ADGRG1', 'SQSTM1', 'CLDN1', 'PTGES', 'LPIN1', 'CDH2', 'CCNB2', 'LSR', 'SLC2A1', 'PNPLA2', 'SOD2', 'ITGB6', 'BAD', 'PWWP2B', 'NMU', 'CA12', 'ISG15', 'CREG1', 'ACOX3', 'PIM3', 'OGT', 'BCL2L11', 'PLCD1', 'AKAP11', 'ANGPTL4', 'SESN2', 'AQP3', 'BIRC5', 'NOTCH1', 'FTL', 'ATP13A4', 'PTGS2', 'ERRFI1', 'SOX4', 'DMXL2', 'ID1', 'BCL6', 'TGM2', 'CITED2', 'FTH1', 'GIGYF2', 'EGR1', 'TUBA1A', 'LOX', 'MT2A', 'ACTB', 'LDLR', 'HMGB2', 'SLC26A6', 'TSC22D3', 'EDN1', 'TP53INP2', 'GPAM', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>[['IEA'], ['ISS'], ['IEA'], ['IEA'], ['IEA'], ['IBA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IBA'], ['IDA'], ['IEA'], ['TAS', 'IEA'], ['NAS'], ['IMP', 'IBA'], ['ISS'], ['ISS', 'IBA', 'IEA'], ['NAS'], ['IEA'], ['ISS'], ['IBA']]</t>
+          <t>[['IDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['ISS'], ['IMP', 'IBA'], ['IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IBA'], ['ISS'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'TAS'], ['NAS'], ['IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS']]</t>
         </is>
       </c>
     </row>
@@ -19916,12 +19916,12 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>['CDH2', 'CCNB2', 'ITGA5', 'S100A11', 'DST', 'FLNA', 'ITGB6', 'ISG15', 'CGN', 'LAD1', 'PTPRM', 'PALLD', 'FN1', 'FAP', 'LAMB2', 'ITGA2', 'CDH1', 'EVPL', 'IL1B', 'SLC3A2', 'TGFBI', 'CYR61', 'ITGB5', 'TNC', 'FERMT2', 'ITGB1BP1', 'EPCAM', 'ITGAV', 'CLDN7', 'EPHA2', 'GPRC5A', 'GIGYF2']</t>
+          <t>['GPRC5A', 'ITGA2', 'CLDN7', 'IL1B', 'ITGA5', 'CYR61', 'ITGB5', 'TGFBI', 'DST', 'FLNA', 'PALLD', 'CDH2', 'EVPL', 'CCNB2', 'ITGB6', 'LAD1', 'ISG15', 'PTPRM', 'ITGB1BP1', 'TNC', 'EPCAM', 'FERMT2', 'S100A11', 'CGN', 'LAMB2', 'ITGAV', 'GIGYF2', 'SLC3A2', 'FN1', 'CDH1', 'FAP', 'EPHA2']</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>[['IBA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IPI'], ['HDA'], ['IBA', 'IEA'], ['IPI'], ['HDA'], ['HDA'], ['IDA'], ['IBA'], ['IDA', 'IPI', 'IMP', 'IBA'], ['IPI'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['HDA'], ['IDA'], ['HDA'], ['IBA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IDA'], ['IBA'], ['IDA', 'IPI', 'IBA'], ['IBA'], ['IPI', 'IBA', 'IEA'], ['IEA'], ['HDA'], ['HDA'], ['HDA']]</t>
+          <t>[['HDA'], ['IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IPI'], ['HDA'], ['IBA'], ['IBA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IPI'], ['IDA'], ['IDA', 'IPI', 'IBA'], ['IDA'], ['IBA'], ['IBA'], ['HDA'], ['HDA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'IPI', 'IMP', 'IBA'], ['IPI', 'HDA', 'IBA', 'NAS', 'IEA'], ['IPI'], ['HDA']]</t>
         </is>
       </c>
     </row>
@@ -19982,12 +19982,12 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>['KRT6B', 'KRT17', 'KRT5', 'AQP3', 'NOTCH1', 'ALOX15B', 'PALLD', 'ERRFI1', 'KRT16', 'CSTA', 'KLK5', 'TXNIP', 'EVPL', 'ST14', 'AKR1C3', 'KRT14', 'CDKN1A', 'KRT81', 'TGM1', 'EPHA2', 'ZFP36', 'KRT10', 'IVL', 'SPRR1B']</t>
+          <t>['SPRR1B', 'ZFP36', 'CDKN1A', 'PALLD', 'TGM1', 'EVPL', 'ST14', 'KRT6B', 'TXNIP', 'KRT14', 'AQP3', 'KRT5', 'NOTCH1', 'KLK5', 'ERRFI1', 'AKR1C3', 'KRT81', 'KRT10', 'IVL', 'ALOX15B', 'CSTA', 'KRT17', 'KRT16', 'EPHA2']</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>[['IBA'], ['IEA'], ['IBA'], ['TAS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IEP'], ['IEA'], ['IEA'], ['IBA'], ['IDA', 'IEA'], ['IMP'], ['IMP'], ['IEP'], ['IDA', 'IEA'], ['IDA', 'IEA']]</t>
+          <t>[['IDA', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA'], ['IBA'], ['IDA'], ['IEA'], ['TAS'], ['IBA'], ['IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEP'], ['IBA'], ['IEP'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -20048,12 +20048,12 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['SESN2', 'ACOX3', 'AKR1C2', 'ECHDC2', 'PTGES', 'ABCD4', 'EDN1', 'ELOVL4', 'ALOX15B', 'CYP1B1', 'GPAM', 'PDK4', 'C3', 'IL1B', 'ACSL1', 'AKR1C3', 'PTGS2', 'ACADVL', 'MSMO1', 'CYP4B1', 'MGLL', 'SCD5', 'ECH1', 'LPIN1']</t>
+          <t>['ECHDC2', 'PDK4', 'C3', 'ACADVL', 'IL1B', 'CYP4B1', 'ACSL1', 'SCD5', 'PTGES', 'LPIN1', 'CYP1B1', 'ECH1', 'MGLL', 'ACOX3', 'MSMO1', 'SESN2', 'ELOVL4', 'PTGS2', 'AKR1C3', 'ALOX15B', 'ABCD4', 'AKR1C2', 'EDN1', 'GPAM']</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IGI'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA']]</t>
+          <t>[['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IGI'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['IDA'], ['IBA', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -20114,12 +20114,12 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>['LAMB3', 'LAMC2', 'CDH2', 'COL4A2', 'PXDN', 'MFAP5', 'IGFBP7', 'CCDC80', 'TGM2', 'SLPI', 'FN1', 'LAMB2', 'LGALS1', 'DCN', 'TGFBI', 'CYR61', 'S100A8', 'TNC', 'MDK', 'COL1A1', 'LGALS3', 'F3', 'MMP9', 'S100A6', 'LOX', 'LAMA3', 'COL4A1', 'ANGPTL4', 'SERPINA3', 'SERPINE1']</t>
+          <t>['LAMA3', 'CCDC80', 'COL1A1', 'SLPI', 'CYR61', 'PXDN', 'TGFBI', 'COL4A2', 'LAMC2', 'SERPINE1', 'CDH2', 'DCN', 'MDK', 'LAMB3', 'MMP9', 'S100A8', 'TNC', 'IGFBP7', 'LGALS1', 'MFAP5', 'ANGPTL4', 'F3', 'LAMB2', 'TGM2', 'LGALS3', 'LOX', 'S100A6', 'FN1', 'SERPINA3', 'COL4A1']</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>[['HDA'], ['HDA'], ['HDA'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'HDA', 'IEA'], ['HDA'], ['HDA', 'IBA'], ['IEA'], ['HDA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA', 'ISS'], ['HDA', 'ISS', 'IEA'], ['HDA', 'ISS'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA', 'IEA'], ['IDA'], ['HDA'], ['HDA'], ['IBA', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IEA'], ['IBA'], ['HDA'], ['IDA', 'HDA', 'NAS']]</t>
+          <t>[['HDA'], ['IEA'], ['IDA', 'IPI', 'IMP', 'HDA', 'ISS', 'IBA', 'IEA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'IEA'], ['HDA', 'ISS'], ['HDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['HDA'], ['IDA', 'HDA', 'NAS'], ['HDA'], ['HDA', 'ISS'], ['HDA'], ['HDA'], ['HDA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'ISO', 'IBA', 'IEA'], ['HDA', 'IBA'], ['HDA', 'ISS', 'IEA'], ['HDA'], ['IBA'], ['IDA'], ['HDA', 'ISS'], ['HDA', 'IEA'], ['HDA', 'IEA'], ['IBA', 'IEA'], ['HDA'], ['IDA', 'HDA', 'ISS', 'IEA'], ['HDA'], ['IMP', 'HDA', 'ISS', 'IEA']]</t>
         </is>
       </c>
     </row>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['NMU', 'LAMC2', 'THOC2', 'BCL6', 'SESN2', 'CDH2', 'REL', 'CCL20', 'ELF3', 'IVNS1ABP', 'KRT17', 'NET1', 'NNMT', 'KRT5', 'SUCO', 'AKR1C2', 'AQP3', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'DNAJC15', 'ANXA3', 'ITGA5', 'SEMA3C', 'HMGN5', 'TACSTD2', 'MAGOHB', 'KLF6', 'KCNIP3', 'TUBB3', 'ATF3', 'S100A11', 'PIM1', 'NOTCH1', 'DST', 'KANK4', 'CDC20', 'PIM3', 'SLC5A3', 'PIEZO1', 'CTSV', 'IGFBP7', 'STK25', 'SLC39A8', 'KLK7', 'SOX4', 'MXD3', 'ADGRG1', 'FLNA', 'CNTNAP2', 'CDKN1C', 'SLC44A2', 'TSC22D3', 'EPPK1', 'PTGES', 'TP53I11', 'ABL2', 'LSR', 'IL1RN', 'CCDC80', 'ITGB6', 'GADD45B', 'PLCD1', 'ZNF703', 'ACKR3', 'EDN1', 'LDLR', 'STX3', 'GRB10', 'LIMS1', 'SYNE2', 'TIA1', 'SQSTM1', 'ZNF117', 'AKAP11', 'PWWP2B', 'CCND1', 'ISG15', 'DKK1', 'MAP2', 'SGK1', 'MDM4', 'PLAUR', 'MMP7', 'KIF23', 'IGFBP6', 'MALAT1', 'VNN1', 'TNFSF10', 'N4BP2L2', 'ALOX15B', 'ATP1B1', 'BIRC5', 'ADIRF', 'PTPRM', 'TGM2', 'CYP1B1', 'IRX5', 'PLXNB1', 'SPIRE1', 'ERRFI1', 'MUC1', 'FN1', 'NFAT5', 'FAP', 'SORT1', 'GPAM', 'KRT16', 'PDK4', 'MACC1', 'CHD8', 'ST6GAL1', 'CLMN', 'LAMB2', 'UNC5B', 'TP53INP2', 'LGALS1', 'CARD10', 'BIRC3', 'CDK1', 'GJA5', 'CD24', 'CCNB1', 'CALML5', 'VSTM2L', 'CSTA', 'ALDH1A3', 'C3', 'RREB1', 'DLK2', 'IGF2BP3', 'ITGA2', 'KLK5', 'CDH1', 'TXNIP', 'EVPL', 'CRB3', 'NR4A1', 'EPHB2', 'C1orf56', 'ATG2A', 'IL1B', 'DCN', 'SLC26A6', 'DAPP1', 'PDE4DIP', 'NEURL1B', 'MFI2', 'GSN', 'EEF1A1', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'FNIP1', 'IRX3', 'TGFBI', 'OGT', 'TIMP1', 'CREG1', 'LBH', 'CYR61', 'SPHK1', 'AKR1C3', 'ZNF266', 'PTGS2', 'TLE1', 'S100A8', 'BAMBI', 'CYTH1', 'MAD2L1', 'CXCL16', 'ACADVL', 'KRT8', 'FOS', 'ITGB5', 'TNC', 'RHOV', 'CDKN1A', 'CITED2', 'FERMT2', 'SOD2', 'NSUN5', 'MYBBP1A', 'RARRES1', 'CCL28', 'PSCA', 'SERPINB2', 'ITGB1BP1', 'IER3', 'SAA1', 'HMGB2', 'EPCAM', 'RGS2', 'TUBB', 'EGR1', 'TGM1', 'MDK', 'DDX56', 'STMN1', 'CRABP2', 'SUN2', 'NFYB', 'MED19', 'ITGAV', 'COL1A1', 'LGALS3', 'ACTB', 'ADD3', 'F3', 'MGLL', 'GLUL', 'GBP1', 'TRAK1', 'CLDN7', 'WWC1', 'EPHA2', 'TFAP2A', 'MMP9', 'IGFBP3', 'HES2', 'IFITM2', 'S100A6', 'CLIC3', 'ATR', 'DLG5', 'EPGN', 'TUFT1', 'ZFP36', 'LOX', 'VIM', 'FTH1', 'RASSF8', 'CLDN1', 'PNPLA2', 'TRIM38', 'TRIML2', 'ID1', 'LAMA3', 'TMEM132A', 'COL4A1', 'ANGPTL4', 'FBXW5', 'SERPINA3', 'LLGL2', 'PTCD3', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'MLXIP', 'RAP2B', 'TACC3', 'RDH10', 'EHF', 'ASH1L', 'TBC1D8', 'SERTAD3', 'FGFR3', 'LMO7', 'CENPF', 'TMSB4X', 'GIGYF2', 'LPIN1', 'WSB1', 'MME']</t>
+          <t>['GPRC5A', 'CCNB1', 'ST6GAL1', 'NNMT', 'LAMA3', 'RAP2B', 'ATP1B1', 'SORT1', 'MXD3', 'CCDC80', 'ADD3', 'PAK1', 'PDK4', 'BAMBI', 'CRABP2', 'ZNF703', 'COL1A1', 'SLC39A8', 'MYBBP1A', 'STX3', 'TNFSF10', 'C3', 'NR4A1', 'ZFP36', 'MDM4', 'ITGA2', 'TRIML2', 'CXCL16', 'GJA5', 'ACADVL', 'CLDN7', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'KLK7', 'CDKN1A', 'MMP7', 'MAD2L1', 'PXDN', 'SEMA3C', 'STK25', 'LZTS2', 'DLK2', 'SGK1', 'ITGB5', 'TP53I11', 'TGFBI', 'FGFR3', 'DST', 'COL4A2', 'TRIM38', 'FLNA', 'CD24', 'ACSL1', 'EHF', 'LAMC2', 'SUCO', 'GLUL', 'SPIRE1', 'ABL2', 'CDC20', 'SERPINE1', 'IRX3', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'TGM1', 'CLDN1', 'PTGES', 'VSTM2L', 'DAPP1', 'LPIN1', 'CDH2', 'CYP1B1', 'EVPL', 'FNIP1', 'RREB1', 'TUBB', 'SLC5A3', 'GSN', 'MLXIP', 'ANXA3', 'LSR', 'SAA1', 'SERTAD3', 'KANK4', 'PNPLA2', 'SOD2', 'MFI2', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'MUC1', 'PWWP2B', 'CENPF', 'PSCA', 'MGLL', 'NFYB', 'NMU', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'CLIC3', 'VNN1', 'CREG1', 'KCNIP3', 'TUBB3', 'PIM3', 'ZNF266', 'LMO7', 'IRF1', 'PTPRM', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'RASSF8', 'CCL20', 'MAP2', 'TXNIP', 'TNC', 'IL1RN', 'NSUN5', 'SPHK1', 'EPCAM', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'IGFBP7', 'ATF3', 'CTSV', 'LGALS1', 'EPHB2', 'CARD10', 'PLCD1', 'AKAP11', 'WSB1', 'MME', 'S100A11', 'ANGPTL4', 'ZNF117', 'CDKN1C', 'SESN2', 'AQP3', 'KRT5', 'SUN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'CCL28', 'THOC2', 'NEURL1B', 'PTGS2', 'HMGN5', 'TACSTD2', 'CRB3', 'ACKR3', 'DKK1', 'ELF3', 'GADD45B', 'IGFBP6', 'KLK5', 'ERRFI1', 'AKR1C3', 'CLMN', 'SOX4', 'RGS2', 'LAMB2', 'MAGOHB', 'KIF23', 'SERPINB2', 'ATG2A', 'ID1', 'IVNS1ABP', 'BCL6', 'TGM2', 'IRX5', 'CDK1', 'LBH', 'MALAT1', 'ITGAV', 'CITED2', 'IER3', 'FTH1', 'ALOX15B', 'LGALS3', 'PLXNB1', 'C1orf56', 'LIMS1', 'KLF6', 'TBC1D8', 'HES2', 'GIGYF2', 'CSTA', 'EGR1', 'LLGL2', 'DNAJC15', 'ALDH1A3', 'FOS', 'PDE4DIP', 'TIA1', 'TUBA1A', 'RARRES1', 'LOX', 'ACTB', 'ATR', 'LDLR', 'TMSB4X', 'PTCD3', 'WWC1', 'TRAK1', 'KRT8', 'KRT17', 'S100A6', 'TLE1', 'MACC1', 'N4BP2L2', 'TACC3', 'VIM', 'KRT16', 'CYTH1', 'EEF1A1', 'CNTNAP2', 'RHOV', 'HMGB2', 'IGF2BP3', 'SLC26A6', 'TSC22D3', 'AKR1C2', 'ADIRF', 'EDN1', 'TP53INP2', 'FBXW5', 'PIEZO1', 'FN1', 'GBP1', 'CDH1', 'GPAM', 'TUFT1', 'FAP', 'DDX56', 'CCND1', 'TFAP2A', 'CALML5', 'EPPK1', 'SYNE2', 'TMEM132A', 'MED19', 'RDH10', 'EPHA2', 'SERPINA3', 'NET1', 'ASH1L', 'CHD8', 'PIM1', 'COL4A1']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>[['IDA', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IEA'], ['ISS'], ['ISS', 'IEA'], ['IDA'], ['TAS'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IGI', 'ISS'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IBA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['HMP'], ['IBA', 'IEA'], ['IMP', 'ISS'], ['NAS', 'IEA'], ['TAS'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'TAS'], ['IBA', 'TAS'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IEA'], ['IMP'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['IDA', 'IMP', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IGI'], ['ISS', 'IEA'], ['TAS'], ['IDA', 'IMP', 'IBA'], ['IEA'], ['IDA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'NAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['ISS', 'TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IGI'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IBA'], ['TAS', 'NAS'], ['TAS'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IBA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IBA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['NAS'], ['IDA', 'IBA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IGI', 'IEA']]</t>
+          <t>[['ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IEP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEP', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IBA'], ['IMP', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IC', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IGI', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IBA', 'TAS'], ['IMP', 'IBA', 'NAS', 'IEA'], ['TAS'], ['TAS'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IDA', 'HMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'HMP', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IC'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['NAS', 'IEA'], ['IDA', 'IEA'], ['TAS'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IEA'], ['IDA'], ['IDA', 'IGI'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'NAS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS'], ['IDA'], ['ISS'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA'], ['TAS'], ['ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS'], ['IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'TAS', 'IEA'], ['IDA', 'TAS', 'NAS'], ['IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'TAS'], ['IDA', 'IEA'], ['IDA', 'ISO', 'IBA', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP'], ['IDA', 'IMP', 'ISS', 'TAS', 'NAS', 'IEA'], ['IDA', 'IEP', 'IBA', 'NAS', 'IEA'], ['HMP'], ['IDA', 'IMP', 'IGI', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA'], ['IDA', 'HMP', 'TAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IBA', 'IEA'], ['TAS'], ['IEA'], ['IGI', 'IEA'], ['IMP', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['ISS'], ['ISS', 'IEA'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS'], ['IDA', 'IMP', 'TAS', 'NAS'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IPI', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['ISS', 'TAS', 'IEA'], ['NAS'], ['IGI', 'ISS'], ['IMP'], ['TAS', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IBA', 'TAS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS', 'IEA'], ['IDA', 'IMP', 'ISS'], ['IDA', 'IMP', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'IBA', 'TAS'], ['TAS'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IMP', 'IBA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'IGI', 'ISS', 'IEA'], ['IDA', 'IMP', 'IGI', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'NAS'], ['IDA', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'ISS', 'IBA', 'IEA'], ['IMP'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['NAS'], ['IMP'], ['IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IGI', 'ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'IGI'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IBA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IMP', 'ISS'], ['ISS', 'IEA'], ['IEA'], ['IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -20246,12 +20246,12 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>['NMU', 'SLC2A1', 'BCL6', 'CDH2', 'AQP3', 'TUBA1A', 'CCNB2', 'NOTCH1', 'SLC39A8', 'SOX4', 'ADGRG1', 'TSC22D3', 'PTGES', 'LSR', 'ITGB6', 'GRB10', 'SQSTM1', 'AKAP11', 'PWWP2B', 'ISG15', 'ERRFI1', 'GPAM', 'PDK4', 'TP53INP2', 'IL1B', 'BCL2L11', 'ACSL1', 'IRX3', 'OGT', 'PTGS2', 'ACADVL', 'CITED2', 'SOD2', 'HMGB2', 'EGR1', 'ACTB', 'ZFP36', 'CLDN1', 'ID1', 'SERPINA3', 'GIGYF2', 'LPIN1']</t>
+          <t>['PDK4', 'SLC39A8', 'ZFP36', 'ACADVL', 'IL1B', 'GRB10', 'ACSL1', 'IRX3', 'ADGRG1', 'SQSTM1', 'CLDN1', 'PTGES', 'LPIN1', 'CDH2', 'CCNB2', 'LSR', 'SLC2A1', 'SOD2', 'ITGB6', 'PWWP2B', 'NMU', 'ISG15', 'OGT', 'BCL2L11', 'AKAP11', 'AQP3', 'NOTCH1', 'PTGS2', 'ERRFI1', 'SOX4', 'ID1', 'BCL6', 'CITED2', 'GIGYF2', 'EGR1', 'TUBA1A', 'ACTB', 'HMGB2', 'TSC22D3', 'TP53INP2', 'GPAM', 'SERPINA3']</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>[['IEA'], ['ISS'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IMP'], ['ISS', 'IEA'], ['NAS'], ['IDA'], ['NAS'], ['ISS'], ['NAS'], ['IEA'], ['ISS']]</t>
+          <t>[['IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['NAS'], ['ISS', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'NAS', 'IEA'], ['ISS'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['TAS', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['ISS'], ['IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IMP'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['NAS']]</t>
         </is>
       </c>
     </row>
@@ -20312,12 +20312,12 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>['SESN2', 'CDH2', 'REL', 'NET1', 'AKR1C2', 'ITGA5', 'ATF3', 'PIM1', 'NOTCH1', 'CTSV', 'STK25', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'SLC44A2', 'GADD45B', 'ACKR3', 'EDN1', 'GRB10', 'LIMS1', 'DKK1', 'PLAUR', 'IGFBP6', 'VNN1', 'TNFSF10', 'ALOX15B', 'BIRC5', 'TGM2', 'CYP1B1', 'PLXNB1', 'FN1', 'NFAT5', 'LAMB2', 'UNC5B', 'LGALS1', 'BIRC3', 'CD24', 'C3', 'KLK5', 'IL1B', 'DCN', 'BCL2L11', 'BAD', 'FNIP1', 'OGT', 'CYR61', 'SPHK1', 'AKR1C3', 'S100A8', 'BAMBI', 'MAD2L1', 'CITED2', 'FERMT2', 'ITGB1BP1', 'ITGAV', 'COL1A1', 'F3', 'WWC1', 'MMP9', 'IGFBP3', 'ATR', 'DLG5', 'EPGN', 'TRIM38', 'TMEM132A', 'PAK1', 'FGFR3']</t>
+          <t>['PAK1', 'BAMBI', 'COL1A1', 'TNFSF10', 'C3', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'MAD2L1', 'STK25', 'FGFR3', 'TRIM38', 'FLNA', 'CD24', 'ADGRG1', 'UNC5B', 'CDH2', 'CYP1B1', 'FNIP1', 'DCN', 'BAD', 'DLG5', 'BIRC3', 'VNN1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'S100A8', 'SPHK1', 'OGT', 'REL', 'SLC44A2', 'BCL2L11', 'FERMT2', 'ATF3', 'CTSV', 'LGALS1', 'CDKN1C', 'SESN2', 'BIRC5', 'EPGN', 'NFAT5', 'NOTCH1', 'F3', 'PLAUR', 'ACKR3', 'DKK1', 'GADD45B', 'IGFBP6', 'KLK5', 'AKR1C3', 'SOX4', 'LAMB2', 'TGM2', 'ITGAV', 'CITED2', 'ALOX15B', 'PLXNB1', 'LIMS1', 'ATR', 'WWC1', 'AKR1C2', 'EDN1', 'FN1', 'TMEM132A', 'NET1', 'PIM1']</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>[['IDA', 'IEA'], ['IEA'], ['IEP'], ['IBA', 'IEA'], ['IDA'], ['TAS'], ['IMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IBA'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'HMP'], ['IMP'], ['HMP'], ['IDA', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IBA'], ['IDA', 'TAS'], ['IMP'], ['IDA'], ['ISS', 'IEA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IEA'], ['NAS'], ['ISS'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['NAS'], ['IMP'], ['HMP'], ['TAS'], ['IDA'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['IDA'], ['IMP', 'TAS'], ['IEA'], ['IDA'], ['IDA'], ['IGI'], ['IDA', 'IMP'], ['IDA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IDA'], ['IMP'], ['IEA'], ['IMP'], ['IMP', 'ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'HMP', 'IBA'], ['IEA'], ['IDA', 'IMP'], ['IMP', 'IBA', 'TAS']]</t>
+          <t>[['IDA', 'IMP'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IDA', 'IEP', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'ISS', 'IC', 'IEA'], ['TAS'], ['IDA'], ['IGI'], ['IDA', 'IMP', 'IEA'], ['IDA'], ['IMP', 'IBA', 'TAS'], ['IDA', 'HMP', 'IBA'], ['IMP', 'HMP'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA'], ['IEA'], ['IMP', 'ISS', 'IEA'], ['TAS'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IMP'], ['IDA'], ['IDA', 'IMP'], ['IDA'], ['IEP'], ['HMP'], ['IMP', 'TAS'], ['IDA'], ['IMP'], ['IBA'], ['HMP'], ['IMP'], ['IDA', 'IEA'], ['NAS'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IMP'], ['IMP'], ['IMP', 'IEA'], ['IDA', 'TAS'], ['IDA', 'IEA'], ['IDA'], ['IDA'], ['IDA'], ['ISS', 'IEA'], ['NAS'], ['ISS'], ['IMP'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IBA'], ['IMP'], ['IDA'], ['IDA'], ['IDA', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -20378,12 +20378,12 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>['BCL6', 'SESN2', 'KRT17', 'NET1', 'CCNB2', 'PIM1', 'NOTCH1', 'IGFBP7', 'EPPK1', 'EDN1', 'MAP2', 'SGK1', 'ALOX15B', 'MT2A', 'FN1', 'GPAM', 'CDK1', 'CDH1', 'BCL2L11', 'SPHK1', 'S100A8', 'CXCL16', 'TNC', 'CDKN1A', 'CITED2', 'RGS2', 'CRABP2', 'WWC1', 'IGFBP3', 'SERTAD3', 'FGFR3']</t>
+          <t>['CRABP2', 'CXCL16', 'CDKN1A', 'SGK1', 'FGFR3', 'CCNB2', 'SERTAD3', 'IGFBP3', 'S100A8', 'MAP2', 'TNC', 'SPHK1', 'BCL2L11', 'IGFBP7', 'SESN2', 'NOTCH1', 'RGS2', 'BCL6', 'CDK1', 'CITED2', 'ALOX15B', 'MT2A', 'WWC1', 'KRT17', 'EDN1', 'FN1', 'CDH1', 'GPAM', 'EPPK1', 'NET1', 'PIM1']</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>[['IDA'], ['ISS', 'IEA'], ['IEA'], ['NAS'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS'], ['IDA', 'IGI'], ['ISS'], ['TAS'], ['IDA'], ['ISS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['TAS'], ['IMP', 'IEA'], ['IDA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA'], ['IEA'], ['IDA'], ['ISS']]</t>
+          <t>[['IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['TAS'], ['ISS'], ['IEA'], ['IDA'], ['IEA'], ['TAS'], ['ISS'], ['IDA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['ISS'], ['IMP', 'IBA'], ['IEA'], ['IDA', 'IGI'], ['IEA'], ['IEA'], ['IEA'], ['ISS'], ['NAS'], ['IDA']]</t>
         </is>
       </c>
     </row>
@@ -20444,12 +20444,12 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'SESN2', 'ACOX3', 'AKR1C2', 'ECHDC2', 'SLC39A8', 'PTGES', 'ABCD4', 'EDN1', 'VNN1', 'ELOVL4', 'ALOX15B', 'CYP1B1', 'ERRFI1', 'GPAM', 'PDK4', 'ST6GAL1', 'TPST1', 'ALDH1A3', 'C3', 'IL1B', 'ACSL1', 'OGT', 'AKR1C3', 'PTGS2', 'ACADVL', 'MSMO1', 'IER3', 'CYP4B1', 'CRABP2', 'MGLL', 'GLUL', 'SCD5', 'ECH1', 'MTHFD2', 'RDH10', 'LPIN1']</t>
+          <t>['ST6GAL1', 'ECHDC2', 'PDK4', 'CRABP2', 'SLC39A8', 'C3', 'ACADVL', 'IL1B', 'CYP4B1', 'ACSL1', 'GLUL', 'SCD5', 'PTGES', 'LPIN1', 'CYP1B1', 'SLC2A1', 'ECH1', 'MGLL', 'VNN1', 'ACOX3', 'MTHFD2', 'MSMO1', 'OGT', 'SESN2', 'ELOVL4', 'PTGS2', 'ERRFI1', 'AKR1C3', 'IER3', 'ALOX15B', 'TPST1', 'ALDH1A3', 'ABCD4', 'AKR1C2', 'EDN1', 'GPAM', 'RDH10']</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IGI'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'IBA', 'IEA']]</t>
+          <t>[['IDA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IGI'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['IDA'], ['IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -20510,12 +20510,12 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'SESN2', 'NET1', 'FBXO32', 'AKR1C2', 'AQP3', 'TUBA1A', 'PIM1', 'NOTCH1', 'PIM3', 'IGFBP7', 'STK25', 'SOX4', 'FLNA', 'ABL2', 'ZNF703', 'EDN1', 'LDLR', 'GRB10', 'DKK1', 'SGK1', 'TNFSF10', 'BIRC5', 'TGM2', 'CYP1B1', 'ERRFI1', 'SLPI', 'SORT1', 'GPAM', 'PDK4', 'ST6GAL1', 'CDK1', 'ITGA2', 'CDH1', 'TXNIP', 'NR4A1', 'EPHB2', 'IL1B', 'SLC26A6', 'ACSL1', 'BAD', 'OGT', 'TIMP1', 'SPHK1', 'AKR1C3', 'PTGS2', 'S100A8', 'KRT8', 'FOS', 'TNC', 'CDKN1A', 'SOD2', 'HMGB2', 'RGS2', 'EGR1', 'COL1A1', 'ACTB', 'GLUL', 'CLDN7', 'MMP9', 'ZFP36', 'VIM', 'CLDN1', 'TRIML2', 'SERPINE1', 'LPIN1']</t>
+          <t>['ST6GAL1', 'SORT1', 'PDK4', 'ZNF703', 'COL1A1', 'TNFSF10', 'NR4A1', 'ZFP36', 'ITGA2', 'TRIML2', 'CLDN7', 'IL1B', 'GRB10', 'SLPI', 'CDKN1A', 'STK25', 'SGK1', 'FLNA', 'ACSL1', 'GLUL', 'ABL2', 'SERPINE1', 'FBXO32', 'CLDN1', 'LPIN1', 'CYP1B1', 'SLC2A1', 'SOD2', 'TIMP1', 'BAD', 'PIM3', 'MMP9', 'S100A8', 'TXNIP', 'TNC', 'SPHK1', 'OGT', 'IGFBP7', 'EPHB2', 'SESN2', 'AQP3', 'BIRC5', 'NOTCH1', 'PTGS2', 'DKK1', 'ERRFI1', 'AKR1C3', 'SOX4', 'RGS2', 'TGM2', 'CDK1', 'EGR1', 'FOS', 'TUBA1A', 'ACTB', 'LDLR', 'KRT8', 'VIM', 'HMGB2', 'SLC26A6', 'AKR1C2', 'EDN1', 'CDH1', 'GPAM', 'NET1', 'PIM1']</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>[['IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IDA', 'TAS'], ['IEA'], ['IMP'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IGI'], ['ISS', 'IEA'], ['IMP'], ['IMP'], ['IDA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IEA'], ['IEP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IBA', 'IEA']]</t>
+          <t>[['IEA'], ['IMP', 'IEA'], ['IMP', 'IEA'], ['IDA'], ['IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IGI'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IMP'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IMP', 'IEA'], ['IEA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'TAS', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['IEA'], ['IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'TAS'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IEA'], ['IDA'], ['ISS', 'IEA'], ['IEA'], ['IDA'], ['IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'IEA'], ['IEA'], ['IMP'], ['IEA'], ['IEA'], ['IMP'], ['IEP', 'ISS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['IDA', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['IDA'], ['IMP']]</t>
         </is>
       </c>
     </row>
@@ -20576,12 +20576,12 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>['LAMB3', 'SESN2', 'TUBA1A', 'ITGA5', 'HMGN5', 'PIM1', 'DST', 'CDC20', 'ADGRG1', 'FLNA', 'CDKN1C', 'ABL2', 'ITGB6', 'LDLR', 'MRC2', 'SQSTM1', 'PWWP2B', 'ISG15', 'ATP1B1', 'FN1', 'FAP', 'SORT1', 'CLMN', 'LAMB2', 'BIRC3', 'ITGA2', 'EPHB2', 'IL1B', 'TPM4', 'GSN', 'TGFBI', 'CYR61', 'KRT8', 'FOS', 'ITGB5', 'TNC', 'CDKN1A', 'FERMT2', 'ITGB1BP1', 'EPCAM', 'TUBB', 'ITGAV', 'LGALS3', 'ACTB', 'ADD3', 'GBP1', 'MMP9', 'ATR', 'ZFP36', 'LOX', 'PTCD3', 'PAK1', 'CENPF']</t>
+          <t>['ATP1B1', 'SORT1', 'ADD3', 'PAK1', 'ZFP36', 'ITGA2', 'IL1B', 'ITGA5', 'CYR61', 'CDKN1A', 'ITGB5', 'TGFBI', 'DST', 'FLNA', 'ABL2', 'CDC20', 'ADGRG1', 'SQSTM1', 'TUBB', 'GSN', 'ITGB6', 'LAMB3', 'PWWP2B', 'CENPF', 'BIRC3', 'ISG15', 'ITGB1BP1', 'MMP9', 'TNC', 'EPCAM', 'FERMT2', 'TPM4', 'EPHB2', 'CDKN1C', 'SESN2', 'HMGN5', 'CLMN', 'LAMB2', 'ITGAV', 'LGALS3', 'FOS', 'TUBA1A', 'LOX', 'ACTB', 'ATR', 'LDLR', 'PTCD3', 'KRT8', 'MRC2', 'FN1', 'GBP1', 'FAP', 'PIM1']</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IPI'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IPI'], ['IPI'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IPI'], ['TAS'], ['IBA', 'IEA'], ['IMP', 'IBA', 'IEA'], ['IDA'], ['IEA'], ['IDA'], ['IPI'], ['HDA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS'], ['IPI'], ['IDA'], ['IBA'], ['IEA'], ['IEA'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['ISS', 'IEA'], ['IDA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'TAS'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IBA'], ['IDA'], ['IPI', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IPI', 'IBA'], ['IDA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['HDA'], ['IBA', 'IEA'], ['IPI'], ['TAS'], ['IDA'], ['IPI'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IPI'], ['IDA', 'IBA', 'IEA']]</t>
+          <t>[['HDA'], ['IDA'], ['IBA', 'IEA'], ['IPI'], ['IPI'], ['IPI', 'IMP', 'IBA', 'TAS', 'IEA'], ['IDA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IPI', 'IEA'], ['IBA'], ['IPI', 'TAS'], ['IPI'], ['IDA', 'IEA'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IEA'], ['IEA'], ['IBA', 'IEA'], ['IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IPI'], ['IDA', 'IPI', 'IBA'], ['TAS'], ['IDA'], ['IDA'], ['IBA', 'IEA'], ['ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IPI'], ['IPI'], ['IEA'], ['IBA'], ['IEA'], ['IPI', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IEA'], ['IDA'], ['HDA'], ['IDA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IDA', 'IPI', 'IMP', 'IBA', 'NAS'], ['IPI'], ['IPI'], ['IPI']]</t>
         </is>
       </c>
     </row>
@@ -20642,12 +20642,12 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>['BCL6', 'CDH2', 'CCL20', 'TUBA1A', 'COL4A2', 'PXDN', 'PLAU', 'ITGA5', 'SEMA3C', 'TUBB3', 'ATF3', 'NOTCH1', 'DST', 'SOX4', 'ADGRG1', 'FLNA', 'CDKN1C', 'ABL2', 'IL1RN', 'ITGB6', 'ZNF703', 'ACKR3', 'EDN1', 'GRB10', 'LIMS1', 'SQSTM1', 'CCND1', 'ISG15', 'DKK1', 'PLAUR', 'IGFBP6', 'TNFSF10', 'CYP1B1', 'PLXNB1', 'ERRFI1', 'FN1', 'SORT1', 'PDK4', 'CHD8', 'LAMB2', 'UNC5B', 'BIRC3', 'CD24', 'C3', 'DLK2', 'ITGA2', 'TXNIP', 'EPHB2', 'IL1B', 'DCN', 'NEURL1B', 'LZTS2', 'BCL2L11', 'ACSL1', 'BAD', 'OGT', 'TIMP1', 'CYR61', 'SPHK1', 'TLE1', 'BAMBI', 'KRT8', 'FOS', 'ITGB5', 'CITED2', 'FERMT2', 'ITGB1BP1', 'HMGB2', 'EGR1', 'MDK', 'STMN1', 'ITGAV', 'COL1A1', 'LGALS3', 'F3', 'GBP1', 'EPHA2', 'MMP9', 'IGFBP3', 'IFITM2', 'DLG5', 'EPGN', 'LOX', 'ID1', 'TMEM132A', 'COL4A1', 'LLGL2', 'IRF1', 'PAK1', 'GPRC5A', 'SERPINE1', 'FGFR3', 'TMSB4X', 'GIGYF2']</t>
+          <t>['GPRC5A', 'SORT1', 'PAK1', 'PDK4', 'BAMBI', 'ZNF703', 'COL1A1', 'TNFSF10', 'C3', 'ITGA2', 'IL1B', 'ITGA5', 'GRB10', 'CYR61', 'PXDN', 'SEMA3C', 'LZTS2', 'DLK2', 'ITGB5', 'FGFR3', 'DST', 'COL4A2', 'FLNA', 'CD24', 'ACSL1', 'ABL2', 'SERPINE1', 'ADGRG1', 'SQSTM1', 'UNC5B', 'PLAU', 'CDH2', 'CYP1B1', 'DCN', 'TIMP1', 'ITGB6', 'BAD', 'MDK', 'DLG5', 'STMN1', 'BIRC3', 'ISG15', 'IFITM2', 'TUBB3', 'IRF1', 'IGFBP3', 'ITGB1BP1', 'MMP9', 'CCL20', 'TXNIP', 'IL1RN', 'SPHK1', 'OGT', 'BCL2L11', 'FERMT2', 'ATF3', 'EPHB2', 'CDKN1C', 'EPGN', 'NOTCH1', 'F3', 'PLAUR', 'NEURL1B', 'ACKR3', 'DKK1', 'IGFBP6', 'ERRFI1', 'SOX4', 'LAMB2', 'ID1', 'BCL6', 'ITGAV', 'CITED2', 'LGALS3', 'PLXNB1', 'LIMS1', 'GIGYF2', 'EGR1', 'LLGL2', 'FOS', 'TUBA1A', 'LOX', 'TMSB4X', 'KRT8', 'TLE1', 'HMGB2', 'EDN1', 'FN1', 'GBP1', 'CCND1', 'TMEM132A', 'EPHA2', 'CHD8', 'COL4A1']</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>[['IEA'], ['IEA'], ['IBA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['NAS'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['NAS'], ['ISS', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IGI', 'IEA'], ['IMP'], ['IBA'], ['IDA', 'IBA', 'IEA'], ['IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP'], ['IDA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IMP', 'IBA'], ['IDA'], ['IEA'], ['IDA', 'IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IMP', 'NAS'], ['IBA', 'TAS'], ['IDA', 'IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IMP', 'IEA'], ['IMP', 'IEA'], ['IDA', 'IBA', 'IEA'], ['NAS'], ['IMP', 'IEA'], ['TAS'], ['ISS', 'NAS', 'IC'], ['IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA'], ['IEA'], ['IBA', 'IEA'], ['IEA'], ['IEA'], ['IMP', 'IBA', 'IEA'], ['IDA', 'NAS'], ['IMP'], ['IGI'], ['IDA'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IEA'], ['IDA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IMP', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IEA'], ['IMP', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'IBA'], ['IMP'], ['IDA', 'IEA'], ['IMP', 'TAS'], ['IBA', 'IEA'], ['IBA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['IEA'], ['IBA'], ['ISS', 'IEA'], ['IMP', 'TAS'], ['ISS'], ['IMP'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['IMP'], ['IDA', 'IMP', 'IBA', 'IEA']]</t>
+          <t>[['ISS'], ['IDA', 'IMP', 'IEA'], ['IMP', 'TAS'], ['IMP', 'IEA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IC', 'IEA'], ['IDA', 'IBA', 'TAS', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IGI'], ['IEA'], ['ISS', 'IBA', 'IEA'], ['IBA', 'IEA'], ['IDA', 'IEA'], ['IMP', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'IGI', 'TAS', 'IEA'], ['NAS'], ['IBA', 'IEA'], ['IMP', 'IGI', 'IEA'], ['ISS', 'NAS', 'IC'], ['IEA'], ['IBA'], ['IMP'], ['IDA', 'IEA'], ['IDA'], ['IMP', 'IEA'], ['NAS'], ['IEA'], ['ISS', 'IEA'], ['IDA'], ['IMP'], ['IBA', 'NAS', 'IEA'], ['IMP', 'IBA', 'IEA'], ['ISS', 'IEA'], ['ISS', 'IEA'], ['IMP'], ['TAS'], ['IDA', 'IMP'], ['IBA'], ['IEA'], ['ISS', 'IEA'], ['IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'TAS'], ['IBA'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'NAS'], ['IEA'], ['IMP', 'IEA'], ['IMP'], ['ISS', 'IBA', 'IEA'], ['IMP'], ['IDA', 'IBA', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'TAS', 'IEA'], ['IDA', 'IBA'], ['IMP', 'NAS'], ['IEA'], ['IMP'], ['IDA', 'IGI', 'ISS', 'IBA', 'TAS', 'NAS', 'IEA'], ['IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'IEA'], ['ISS', 'IEA'], ['NAS'], ['TAS'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'NAS', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IBA', 'IEA'], ['IDA', 'ISS', 'IEA'], ['IMP', 'IBA'], ['IDA', 'IMP', 'IBA', 'IEA'], ['IMP', 'IEA'], ['IBA'], ['IDA'], ['IEA'], ['IEA'], ['IMP'], ['IEA'], ['IDA', 'IBA', 'IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA'], ['IMP'], ['IEA'], ['IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>['SLC2A1', 'SESN2', 'ACOX3', 'AKR1C2', 'ECHDC2', 'SLC39A8', 'PTGES', 'ABCD4', 'EDN1', 'VNN1', 'ELOVL4', 'ALOX15B', 'CYP1B1', 'ERRFI1', 'GPAM', 'PDK4', 'ST6GAL1', 'TPST1', 'ALDH1A3', 'C3', 'IL1B', 'ACSL1', 'OGT', 'AKR1C3', 'PTGS2', 'ACADVL', 'MSMO1', 'IER3', 'CYP4B1', 'CRABP2', 'MGLL', 'GLUL', 'SCD5', 'ECH1', 'MTHFD2', 'RDH10', 'LPIN1']</t>
+          <t>['ST6GAL1', 'ECHDC2', 'PDK4', 'CRABP2', 'SLC39A8', 'C3', 'ACADVL', 'IL1B', 'CYP4B1', 'ACSL1', 'GLUL', 'SCD5', 'PTGES', 'LPIN1', 'CYP1B1', 'SLC2A1', 'ECH1', 'MGLL', 'VNN1', 'ACOX3', 'MTHFD2', 'MSMO1', 'OGT', 'SESN2', 'ELOVL4', 'PTGS2', 'ERRFI1', 'AKR1C3', 'IER3', 'ALOX15B', 'TPST1', 'ALDH1A3', 'ABCD4', 'AKR1C2', 'EDN1', 'GPAM', 'RDH10']</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>[['TAS'], ['IEA'], ['IBA', 'IEA'], ['IDA', 'IBA'], ['IBA', 'IEA'], ['ISS', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['IBA'], ['IDA'], ['IDA', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['IEA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IDA'], ['TAS'], ['IDA', 'IEA'], ['IEA'], ['IGI'], ['IDA', 'IBA', 'IEA'], ['IDA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['TAS'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IEA'], ['TAS'], ['IEA'], ['ISS', 'IBA', 'IEA']]</t>
+          <t>[['IDA'], ['IBA', 'IEA'], ['IMP', 'ISS', 'IEA'], ['IEA'], ['ISS', 'IEA'], ['IEA'], ['IDA', 'IMP', 'ISS', 'IEA'], ['IGI'], ['TAS'], ['IDA', 'IBA', 'IEA'], ['IBA', 'TAS', 'IEA'], ['IDA', 'IEA'], ['IDA', 'IBA', 'TAS', 'IEA'], ['ISS', 'IBA', 'IEA'], ['IDA', 'TAS', 'IEA'], ['TAS'], ['IEA'], ['ISS', 'TAS', 'IEA'], ['IDA', 'IBA', 'TAS'], ['IBA', 'IEA'], ['TAS'], ['TAS'], ['IDA'], ['IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IDA', 'ISS', 'IBA', 'NAS', 'IEA'], ['IEA'], ['IDA', 'IEP', 'IBA', 'TAS'], ['IEA'], ['IDA', 'ISS', 'IBA', 'IEA'], ['TAS'], ['IDA', 'IEA'], ['IBA'], ['IDA', 'IBA'], ['IDA'], ['IBA', 'IEA'], ['IEA']]</t>
         </is>
       </c>
     </row>
